--- a/许愿墙.xlsx
+++ b/许愿墙.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kay\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03B31867-128B-44B9-A8C5-9805711B880E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3060" yWindow="4440" windowWidth="23040" windowHeight="13560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>你想找什么样的工作？</t>
   </si>
@@ -56,19 +50,26 @@
     <t>AI agent开发</t>
   </si>
   <si>
-    <t>在找</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>Python+AI</t>
   </si>
   <si>
-    <t>Python+AI</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>运维工程师</t>
+  </si>
+  <si>
+    <t>观望中准备跳槽</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -80,12 +81,6 @@
       <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -93,12 +88,162 @@
       <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -111,8 +256,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -135,9 +466,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -152,21 +725,65 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -424,28 +1041,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:T200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -471,7 +1087,7 @@
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -497,7 +1113,7 @@
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -523,7 +1139,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -549,7 +1165,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -575,12 +1191,12 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20">
       <c r="A6" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -601,9 +1217,13 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
+    <row r="7" spans="1:20">
+      <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -623,7 +1243,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="2"/>
@@ -645,7 +1265,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="2"/>
@@ -667,7 +1287,7 @@
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="2"/>
@@ -689,7 +1309,7 @@
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="2"/>
@@ -711,7 +1331,7 @@
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="2"/>
@@ -733,7 +1353,7 @@
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="2"/>
@@ -755,7 +1375,7 @@
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="2"/>
@@ -777,7 +1397,7 @@
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="2"/>
@@ -799,7 +1419,7 @@
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="2"/>
@@ -821,7 +1441,7 @@
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="2"/>
@@ -843,7 +1463,7 @@
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="2"/>
@@ -865,7 +1485,7 @@
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="2"/>
@@ -887,7 +1507,7 @@
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="2"/>
@@ -909,7 +1529,7 @@
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="2"/>
@@ -931,7 +1551,7 @@
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="2"/>
@@ -953,7 +1573,7 @@
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="2"/>
@@ -975,7 +1595,7 @@
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="2"/>
@@ -997,7 +1617,7 @@
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="2"/>
@@ -1019,7 +1639,7 @@
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="2"/>
@@ -1041,7 +1661,7 @@
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="2"/>
@@ -1063,7 +1683,7 @@
       <c r="S27" s="2"/>
       <c r="T27" s="2"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="2"/>
@@ -1085,7 +1705,7 @@
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="2"/>
@@ -1107,7 +1727,7 @@
       <c r="S29" s="2"/>
       <c r="T29" s="2"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="2"/>
@@ -1129,7 +1749,7 @@
       <c r="S30" s="2"/>
       <c r="T30" s="2"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="2"/>
@@ -1151,7 +1771,7 @@
       <c r="S31" s="2"/>
       <c r="T31" s="2"/>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="2"/>
@@ -1173,7 +1793,7 @@
       <c r="S32" s="2"/>
       <c r="T32" s="2"/>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="2"/>
@@ -1195,7 +1815,7 @@
       <c r="S33" s="2"/>
       <c r="T33" s="2"/>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="2"/>
@@ -1217,7 +1837,7 @@
       <c r="S34" s="2"/>
       <c r="T34" s="2"/>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="2"/>
@@ -1239,7 +1859,7 @@
       <c r="S35" s="2"/>
       <c r="T35" s="2"/>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="2"/>
@@ -1261,7 +1881,7 @@
       <c r="S36" s="2"/>
       <c r="T36" s="2"/>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="2"/>
@@ -1283,7 +1903,7 @@
       <c r="S37" s="2"/>
       <c r="T37" s="2"/>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="2"/>
@@ -1305,7 +1925,7 @@
       <c r="S38" s="2"/>
       <c r="T38" s="2"/>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="2"/>
@@ -1327,7 +1947,7 @@
       <c r="S39" s="2"/>
       <c r="T39" s="2"/>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="2"/>
@@ -1349,7 +1969,7 @@
       <c r="S40" s="2"/>
       <c r="T40" s="2"/>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="2"/>
@@ -1371,7 +1991,7 @@
       <c r="S41" s="2"/>
       <c r="T41" s="2"/>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="2"/>
@@ -1393,7 +2013,7 @@
       <c r="S42" s="2"/>
       <c r="T42" s="2"/>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="2"/>
@@ -1415,7 +2035,7 @@
       <c r="S43" s="2"/>
       <c r="T43" s="2"/>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="2"/>
@@ -1437,7 +2057,7 @@
       <c r="S44" s="2"/>
       <c r="T44" s="2"/>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="2"/>
@@ -1459,7 +2079,7 @@
       <c r="S45" s="2"/>
       <c r="T45" s="2"/>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="2"/>
@@ -1481,7 +2101,7 @@
       <c r="S46" s="2"/>
       <c r="T46" s="2"/>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="2"/>
@@ -1503,7 +2123,7 @@
       <c r="S47" s="2"/>
       <c r="T47" s="2"/>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="2"/>
@@ -1525,7 +2145,7 @@
       <c r="S48" s="2"/>
       <c r="T48" s="2"/>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="2"/>
@@ -1547,7 +2167,7 @@
       <c r="S49" s="2"/>
       <c r="T49" s="2"/>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="2"/>
@@ -1569,7 +2189,7 @@
       <c r="S50" s="2"/>
       <c r="T50" s="2"/>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="2"/>
@@ -1591,7 +2211,7 @@
       <c r="S51" s="2"/>
       <c r="T51" s="2"/>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="2"/>
@@ -1613,7 +2233,7 @@
       <c r="S52" s="2"/>
       <c r="T52" s="2"/>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="2"/>
@@ -1635,7 +2255,7 @@
       <c r="S53" s="2"/>
       <c r="T53" s="2"/>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="2"/>
@@ -1657,7 +2277,7 @@
       <c r="S54" s="2"/>
       <c r="T54" s="2"/>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="2"/>
@@ -1679,7 +2299,7 @@
       <c r="S55" s="2"/>
       <c r="T55" s="2"/>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="2"/>
@@ -1701,7 +2321,7 @@
       <c r="S56" s="2"/>
       <c r="T56" s="2"/>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="2"/>
@@ -1723,7 +2343,7 @@
       <c r="S57" s="2"/>
       <c r="T57" s="2"/>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="2"/>
@@ -1745,7 +2365,7 @@
       <c r="S58" s="2"/>
       <c r="T58" s="2"/>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="2"/>
@@ -1767,7 +2387,7 @@
       <c r="S59" s="2"/>
       <c r="T59" s="2"/>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="2"/>
@@ -1789,7 +2409,7 @@
       <c r="S60" s="2"/>
       <c r="T60" s="2"/>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="2"/>
@@ -1811,7 +2431,7 @@
       <c r="S61" s="2"/>
       <c r="T61" s="2"/>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="2"/>
@@ -1833,7 +2453,7 @@
       <c r="S62" s="2"/>
       <c r="T62" s="2"/>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="2"/>
@@ -1855,7 +2475,7 @@
       <c r="S63" s="2"/>
       <c r="T63" s="2"/>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="2"/>
@@ -1877,7 +2497,7 @@
       <c r="S64" s="2"/>
       <c r="T64" s="2"/>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="2"/>
@@ -1899,7 +2519,7 @@
       <c r="S65" s="2"/>
       <c r="T65" s="2"/>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:20">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="2"/>
@@ -1921,7 +2541,7 @@
       <c r="S66" s="2"/>
       <c r="T66" s="2"/>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:20">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="2"/>
@@ -1943,7 +2563,7 @@
       <c r="S67" s="2"/>
       <c r="T67" s="2"/>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:20">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="2"/>
@@ -1965,7 +2585,7 @@
       <c r="S68" s="2"/>
       <c r="T68" s="2"/>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:20">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="2"/>
@@ -1987,7 +2607,7 @@
       <c r="S69" s="2"/>
       <c r="T69" s="2"/>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="2"/>
@@ -2009,7 +2629,7 @@
       <c r="S70" s="2"/>
       <c r="T70" s="2"/>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:20">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="2"/>
@@ -2031,7 +2651,7 @@
       <c r="S71" s="2"/>
       <c r="T71" s="2"/>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:20">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="2"/>
@@ -2053,7 +2673,7 @@
       <c r="S72" s="2"/>
       <c r="T72" s="2"/>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:20">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="2"/>
@@ -2075,7 +2695,7 @@
       <c r="S73" s="2"/>
       <c r="T73" s="2"/>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:20">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="2"/>
@@ -2097,7 +2717,7 @@
       <c r="S74" s="2"/>
       <c r="T74" s="2"/>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:20">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="2"/>
@@ -2119,7 +2739,7 @@
       <c r="S75" s="2"/>
       <c r="T75" s="2"/>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:20">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="2"/>
@@ -2141,7 +2761,7 @@
       <c r="S76" s="2"/>
       <c r="T76" s="2"/>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:20">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="2"/>
@@ -2163,7 +2783,7 @@
       <c r="S77" s="2"/>
       <c r="T77" s="2"/>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:20">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="2"/>
@@ -2185,7 +2805,7 @@
       <c r="S78" s="2"/>
       <c r="T78" s="2"/>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:20">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="2"/>
@@ -2207,7 +2827,7 @@
       <c r="S79" s="2"/>
       <c r="T79" s="2"/>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:20">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="2"/>
@@ -2229,7 +2849,7 @@
       <c r="S80" s="2"/>
       <c r="T80" s="2"/>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:20">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="2"/>
@@ -2251,7 +2871,7 @@
       <c r="S81" s="2"/>
       <c r="T81" s="2"/>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:20">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="2"/>
@@ -2273,7 +2893,7 @@
       <c r="S82" s="2"/>
       <c r="T82" s="2"/>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:20">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="2"/>
@@ -2295,7 +2915,7 @@
       <c r="S83" s="2"/>
       <c r="T83" s="2"/>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:20">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="2"/>
@@ -2317,7 +2937,7 @@
       <c r="S84" s="2"/>
       <c r="T84" s="2"/>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:20">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="2"/>
@@ -2339,7 +2959,7 @@
       <c r="S85" s="2"/>
       <c r="T85" s="2"/>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:20">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="2"/>
@@ -2361,7 +2981,7 @@
       <c r="S86" s="2"/>
       <c r="T86" s="2"/>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:20">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="2"/>
@@ -2383,7 +3003,7 @@
       <c r="S87" s="2"/>
       <c r="T87" s="2"/>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:20">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="2"/>
@@ -2405,7 +3025,7 @@
       <c r="S88" s="2"/>
       <c r="T88" s="2"/>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:20">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="2"/>
@@ -2427,7 +3047,7 @@
       <c r="S89" s="2"/>
       <c r="T89" s="2"/>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:20">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="2"/>
@@ -2449,7 +3069,7 @@
       <c r="S90" s="2"/>
       <c r="T90" s="2"/>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:20">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="2"/>
@@ -2471,7 +3091,7 @@
       <c r="S91" s="2"/>
       <c r="T91" s="2"/>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:20">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="2"/>
@@ -2493,7 +3113,7 @@
       <c r="S92" s="2"/>
       <c r="T92" s="2"/>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:20">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="2"/>
@@ -2515,7 +3135,7 @@
       <c r="S93" s="2"/>
       <c r="T93" s="2"/>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:20">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="2"/>
@@ -2537,7 +3157,7 @@
       <c r="S94" s="2"/>
       <c r="T94" s="2"/>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:20">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="2"/>
@@ -2559,7 +3179,7 @@
       <c r="S95" s="2"/>
       <c r="T95" s="2"/>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:20">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="2"/>
@@ -2581,7 +3201,7 @@
       <c r="S96" s="2"/>
       <c r="T96" s="2"/>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:20">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="2"/>
@@ -2603,7 +3223,7 @@
       <c r="S97" s="2"/>
       <c r="T97" s="2"/>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:20">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="2"/>
@@ -2625,7 +3245,7 @@
       <c r="S98" s="2"/>
       <c r="T98" s="2"/>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:20">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="2"/>
@@ -2647,7 +3267,7 @@
       <c r="S99" s="2"/>
       <c r="T99" s="2"/>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:20">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="2"/>
@@ -2669,7 +3289,7 @@
       <c r="S100" s="2"/>
       <c r="T100" s="2"/>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:20">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="2"/>
@@ -2691,7 +3311,7 @@
       <c r="S101" s="2"/>
       <c r="T101" s="2"/>
     </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:20">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="2"/>
@@ -2713,7 +3333,7 @@
       <c r="S102" s="2"/>
       <c r="T102" s="2"/>
     </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:20">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="2"/>
@@ -2735,7 +3355,7 @@
       <c r="S103" s="2"/>
       <c r="T103" s="2"/>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:20">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="2"/>
@@ -2757,7 +3377,7 @@
       <c r="S104" s="2"/>
       <c r="T104" s="2"/>
     </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:20">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="2"/>
@@ -2779,7 +3399,7 @@
       <c r="S105" s="2"/>
       <c r="T105" s="2"/>
     </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:20">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="2"/>
@@ -2801,7 +3421,7 @@
       <c r="S106" s="2"/>
       <c r="T106" s="2"/>
     </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:20">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="2"/>
@@ -2823,7 +3443,7 @@
       <c r="S107" s="2"/>
       <c r="T107" s="2"/>
     </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:20">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="2"/>
@@ -2845,7 +3465,7 @@
       <c r="S108" s="2"/>
       <c r="T108" s="2"/>
     </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:20">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="2"/>
@@ -2867,7 +3487,7 @@
       <c r="S109" s="2"/>
       <c r="T109" s="2"/>
     </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:20">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="2"/>
@@ -2889,7 +3509,7 @@
       <c r="S110" s="2"/>
       <c r="T110" s="2"/>
     </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:20">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="2"/>
@@ -2911,7 +3531,7 @@
       <c r="S111" s="2"/>
       <c r="T111" s="2"/>
     </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:20">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="2"/>
@@ -2933,7 +3553,7 @@
       <c r="S112" s="2"/>
       <c r="T112" s="2"/>
     </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:20">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="2"/>
@@ -2955,7 +3575,7 @@
       <c r="S113" s="2"/>
       <c r="T113" s="2"/>
     </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:20">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="2"/>
@@ -2977,7 +3597,7 @@
       <c r="S114" s="2"/>
       <c r="T114" s="2"/>
     </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:20">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="2"/>
@@ -2999,7 +3619,7 @@
       <c r="S115" s="2"/>
       <c r="T115" s="2"/>
     </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:20">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="2"/>
@@ -3021,7 +3641,7 @@
       <c r="S116" s="2"/>
       <c r="T116" s="2"/>
     </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:20">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="2"/>
@@ -3043,7 +3663,7 @@
       <c r="S117" s="2"/>
       <c r="T117" s="2"/>
     </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:20">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="2"/>
@@ -3065,7 +3685,7 @@
       <c r="S118" s="2"/>
       <c r="T118" s="2"/>
     </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:20">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="2"/>
@@ -3087,7 +3707,7 @@
       <c r="S119" s="2"/>
       <c r="T119" s="2"/>
     </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:20">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="2"/>
@@ -3109,7 +3729,7 @@
       <c r="S120" s="2"/>
       <c r="T120" s="2"/>
     </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:20">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="2"/>
@@ -3131,7 +3751,7 @@
       <c r="S121" s="2"/>
       <c r="T121" s="2"/>
     </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:20">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="2"/>
@@ -3153,7 +3773,7 @@
       <c r="S122" s="2"/>
       <c r="T122" s="2"/>
     </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:20">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="2"/>
@@ -3175,7 +3795,7 @@
       <c r="S123" s="2"/>
       <c r="T123" s="2"/>
     </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:20">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="2"/>
@@ -3197,7 +3817,7 @@
       <c r="S124" s="2"/>
       <c r="T124" s="2"/>
     </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:20">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="2"/>
@@ -3219,7 +3839,7 @@
       <c r="S125" s="2"/>
       <c r="T125" s="2"/>
     </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:20">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="2"/>
@@ -3241,7 +3861,7 @@
       <c r="S126" s="2"/>
       <c r="T126" s="2"/>
     </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:20">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="2"/>
@@ -3263,7 +3883,7 @@
       <c r="S127" s="2"/>
       <c r="T127" s="2"/>
     </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:20">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="2"/>
@@ -3285,7 +3905,7 @@
       <c r="S128" s="2"/>
       <c r="T128" s="2"/>
     </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:20">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="2"/>
@@ -3307,7 +3927,7 @@
       <c r="S129" s="2"/>
       <c r="T129" s="2"/>
     </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:20">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="2"/>
@@ -3329,7 +3949,7 @@
       <c r="S130" s="2"/>
       <c r="T130" s="2"/>
     </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:20">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="2"/>
@@ -3351,7 +3971,7 @@
       <c r="S131" s="2"/>
       <c r="T131" s="2"/>
     </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:20">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="2"/>
@@ -3373,7 +3993,7 @@
       <c r="S132" s="2"/>
       <c r="T132" s="2"/>
     </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:20">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="2"/>
@@ -3395,7 +4015,7 @@
       <c r="S133" s="2"/>
       <c r="T133" s="2"/>
     </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:20">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="2"/>
@@ -3417,7 +4037,7 @@
       <c r="S134" s="2"/>
       <c r="T134" s="2"/>
     </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:20">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="2"/>
@@ -3439,7 +4059,7 @@
       <c r="S135" s="2"/>
       <c r="T135" s="2"/>
     </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:20">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="2"/>
@@ -3461,7 +4081,7 @@
       <c r="S136" s="2"/>
       <c r="T136" s="2"/>
     </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:20">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="2"/>
@@ -3483,7 +4103,7 @@
       <c r="S137" s="2"/>
       <c r="T137" s="2"/>
     </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:20">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="2"/>
@@ -3505,7 +4125,7 @@
       <c r="S138" s="2"/>
       <c r="T138" s="2"/>
     </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:20">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="2"/>
@@ -3527,7 +4147,7 @@
       <c r="S139" s="2"/>
       <c r="T139" s="2"/>
     </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:20">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="2"/>
@@ -3549,7 +4169,7 @@
       <c r="S140" s="2"/>
       <c r="T140" s="2"/>
     </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:20">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="2"/>
@@ -3571,7 +4191,7 @@
       <c r="S141" s="2"/>
       <c r="T141" s="2"/>
     </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:20">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="2"/>
@@ -3593,7 +4213,7 @@
       <c r="S142" s="2"/>
       <c r="T142" s="2"/>
     </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:20">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="2"/>
@@ -3615,7 +4235,7 @@
       <c r="S143" s="2"/>
       <c r="T143" s="2"/>
     </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:20">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="2"/>
@@ -3637,7 +4257,7 @@
       <c r="S144" s="2"/>
       <c r="T144" s="2"/>
     </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:20">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="2"/>
@@ -3659,7 +4279,7 @@
       <c r="S145" s="2"/>
       <c r="T145" s="2"/>
     </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:20">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="2"/>
@@ -3681,7 +4301,7 @@
       <c r="S146" s="2"/>
       <c r="T146" s="2"/>
     </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:20">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="2"/>
@@ -3703,7 +4323,7 @@
       <c r="S147" s="2"/>
       <c r="T147" s="2"/>
     </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:20">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="2"/>
@@ -3725,7 +4345,7 @@
       <c r="S148" s="2"/>
       <c r="T148" s="2"/>
     </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:20">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="2"/>
@@ -3747,7 +4367,7 @@
       <c r="S149" s="2"/>
       <c r="T149" s="2"/>
     </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:20">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="2"/>
@@ -3769,7 +4389,7 @@
       <c r="S150" s="2"/>
       <c r="T150" s="2"/>
     </row>
-    <row r="151" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:20">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="2"/>
@@ -3791,7 +4411,7 @@
       <c r="S151" s="2"/>
       <c r="T151" s="2"/>
     </row>
-    <row r="152" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:20">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="2"/>
@@ -3813,7 +4433,7 @@
       <c r="S152" s="2"/>
       <c r="T152" s="2"/>
     </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:20">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="2"/>
@@ -3835,7 +4455,7 @@
       <c r="S153" s="2"/>
       <c r="T153" s="2"/>
     </row>
-    <row r="154" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:20">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="2"/>
@@ -3857,7 +4477,7 @@
       <c r="S154" s="2"/>
       <c r="T154" s="2"/>
     </row>
-    <row r="155" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:20">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="2"/>
@@ -3879,7 +4499,7 @@
       <c r="S155" s="2"/>
       <c r="T155" s="2"/>
     </row>
-    <row r="156" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:20">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="2"/>
@@ -3901,7 +4521,7 @@
       <c r="S156" s="2"/>
       <c r="T156" s="2"/>
     </row>
-    <row r="157" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:20">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="2"/>
@@ -3923,7 +4543,7 @@
       <c r="S157" s="2"/>
       <c r="T157" s="2"/>
     </row>
-    <row r="158" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:20">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="2"/>
@@ -3945,7 +4565,7 @@
       <c r="S158" s="2"/>
       <c r="T158" s="2"/>
     </row>
-    <row r="159" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:20">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="2"/>
@@ -3967,7 +4587,7 @@
       <c r="S159" s="2"/>
       <c r="T159" s="2"/>
     </row>
-    <row r="160" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:20">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="2"/>
@@ -3989,7 +4609,7 @@
       <c r="S160" s="2"/>
       <c r="T160" s="2"/>
     </row>
-    <row r="161" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:20">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="2"/>
@@ -4011,7 +4631,7 @@
       <c r="S161" s="2"/>
       <c r="T161" s="2"/>
     </row>
-    <row r="162" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:20">
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
       <c r="C162" s="2"/>
@@ -4033,7 +4653,7 @@
       <c r="S162" s="2"/>
       <c r="T162" s="2"/>
     </row>
-    <row r="163" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:20">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
       <c r="C163" s="2"/>
@@ -4055,7 +4675,7 @@
       <c r="S163" s="2"/>
       <c r="T163" s="2"/>
     </row>
-    <row r="164" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:20">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
       <c r="C164" s="2"/>
@@ -4077,7 +4697,7 @@
       <c r="S164" s="2"/>
       <c r="T164" s="2"/>
     </row>
-    <row r="165" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:20">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
       <c r="C165" s="2"/>
@@ -4099,7 +4719,7 @@
       <c r="S165" s="2"/>
       <c r="T165" s="2"/>
     </row>
-    <row r="166" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:20">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
       <c r="C166" s="2"/>
@@ -4121,7 +4741,7 @@
       <c r="S166" s="2"/>
       <c r="T166" s="2"/>
     </row>
-    <row r="167" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:20">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
       <c r="C167" s="2"/>
@@ -4143,7 +4763,7 @@
       <c r="S167" s="2"/>
       <c r="T167" s="2"/>
     </row>
-    <row r="168" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:20">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
       <c r="C168" s="2"/>
@@ -4165,7 +4785,7 @@
       <c r="S168" s="2"/>
       <c r="T168" s="2"/>
     </row>
-    <row r="169" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:20">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
       <c r="C169" s="2"/>
@@ -4187,7 +4807,7 @@
       <c r="S169" s="2"/>
       <c r="T169" s="2"/>
     </row>
-    <row r="170" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:20">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
       <c r="C170" s="2"/>
@@ -4209,7 +4829,7 @@
       <c r="S170" s="2"/>
       <c r="T170" s="2"/>
     </row>
-    <row r="171" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:20">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
       <c r="C171" s="2"/>
@@ -4231,7 +4851,7 @@
       <c r="S171" s="2"/>
       <c r="T171" s="2"/>
     </row>
-    <row r="172" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:20">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
       <c r="C172" s="2"/>
@@ -4253,7 +4873,7 @@
       <c r="S172" s="2"/>
       <c r="T172" s="2"/>
     </row>
-    <row r="173" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:20">
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
       <c r="C173" s="2"/>
@@ -4275,7 +4895,7 @@
       <c r="S173" s="2"/>
       <c r="T173" s="2"/>
     </row>
-    <row r="174" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:20">
       <c r="A174" s="3"/>
       <c r="B174" s="3"/>
       <c r="C174" s="2"/>
@@ -4297,7 +4917,7 @@
       <c r="S174" s="2"/>
       <c r="T174" s="2"/>
     </row>
-    <row r="175" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:20">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="C175" s="2"/>
@@ -4319,7 +4939,7 @@
       <c r="S175" s="2"/>
       <c r="T175" s="2"/>
     </row>
-    <row r="176" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:20">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="C176" s="2"/>
@@ -4341,7 +4961,7 @@
       <c r="S176" s="2"/>
       <c r="T176" s="2"/>
     </row>
-    <row r="177" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:20">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="C177" s="2"/>
@@ -4363,7 +4983,7 @@
       <c r="S177" s="2"/>
       <c r="T177" s="2"/>
     </row>
-    <row r="178" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:20">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="C178" s="2"/>
@@ -4385,7 +5005,7 @@
       <c r="S178" s="2"/>
       <c r="T178" s="2"/>
     </row>
-    <row r="179" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:20">
       <c r="A179" s="3"/>
       <c r="B179" s="3"/>
       <c r="C179" s="2"/>
@@ -4407,7 +5027,7 @@
       <c r="S179" s="2"/>
       <c r="T179" s="2"/>
     </row>
-    <row r="180" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:20">
       <c r="A180" s="3"/>
       <c r="B180" s="3"/>
       <c r="C180" s="2"/>
@@ -4429,7 +5049,7 @@
       <c r="S180" s="2"/>
       <c r="T180" s="2"/>
     </row>
-    <row r="181" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:20">
       <c r="A181" s="3"/>
       <c r="B181" s="3"/>
       <c r="C181" s="2"/>
@@ -4451,7 +5071,7 @@
       <c r="S181" s="2"/>
       <c r="T181" s="2"/>
     </row>
-    <row r="182" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:20">
       <c r="A182" s="3"/>
       <c r="B182" s="3"/>
       <c r="C182" s="2"/>
@@ -4473,7 +5093,7 @@
       <c r="S182" s="2"/>
       <c r="T182" s="2"/>
     </row>
-    <row r="183" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:20">
       <c r="A183" s="3"/>
       <c r="B183" s="3"/>
       <c r="C183" s="2"/>
@@ -4495,7 +5115,7 @@
       <c r="S183" s="2"/>
       <c r="T183" s="2"/>
     </row>
-    <row r="184" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:20">
       <c r="A184" s="3"/>
       <c r="B184" s="3"/>
       <c r="C184" s="2"/>
@@ -4517,7 +5137,7 @@
       <c r="S184" s="2"/>
       <c r="T184" s="2"/>
     </row>
-    <row r="185" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:20">
       <c r="A185" s="3"/>
       <c r="B185" s="3"/>
       <c r="C185" s="2"/>
@@ -4539,7 +5159,7 @@
       <c r="S185" s="2"/>
       <c r="T185" s="2"/>
     </row>
-    <row r="186" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:20">
       <c r="A186" s="3"/>
       <c r="B186" s="3"/>
       <c r="C186" s="2"/>
@@ -4561,7 +5181,7 @@
       <c r="S186" s="2"/>
       <c r="T186" s="2"/>
     </row>
-    <row r="187" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:20">
       <c r="A187" s="3"/>
       <c r="B187" s="3"/>
       <c r="C187" s="2"/>
@@ -4583,7 +5203,7 @@
       <c r="S187" s="2"/>
       <c r="T187" s="2"/>
     </row>
-    <row r="188" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:20">
       <c r="A188" s="3"/>
       <c r="B188" s="3"/>
       <c r="C188" s="2"/>
@@ -4605,7 +5225,7 @@
       <c r="S188" s="2"/>
       <c r="T188" s="2"/>
     </row>
-    <row r="189" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:20">
       <c r="A189" s="3"/>
       <c r="B189" s="3"/>
       <c r="C189" s="2"/>
@@ -4627,7 +5247,7 @@
       <c r="S189" s="2"/>
       <c r="T189" s="2"/>
     </row>
-    <row r="190" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:20">
       <c r="A190" s="3"/>
       <c r="B190" s="3"/>
       <c r="C190" s="2"/>
@@ -4649,7 +5269,7 @@
       <c r="S190" s="2"/>
       <c r="T190" s="2"/>
     </row>
-    <row r="191" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:20">
       <c r="A191" s="3"/>
       <c r="B191" s="3"/>
       <c r="C191" s="2"/>
@@ -4671,7 +5291,7 @@
       <c r="S191" s="2"/>
       <c r="T191" s="2"/>
     </row>
-    <row r="192" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:20">
       <c r="A192" s="3"/>
       <c r="B192" s="3"/>
       <c r="C192" s="2"/>
@@ -4693,7 +5313,7 @@
       <c r="S192" s="2"/>
       <c r="T192" s="2"/>
     </row>
-    <row r="193" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:20">
       <c r="A193" s="3"/>
       <c r="B193" s="3"/>
       <c r="C193" s="2"/>
@@ -4715,7 +5335,7 @@
       <c r="S193" s="2"/>
       <c r="T193" s="2"/>
     </row>
-    <row r="194" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:20">
       <c r="A194" s="3"/>
       <c r="B194" s="3"/>
       <c r="C194" s="2"/>
@@ -4737,7 +5357,7 @@
       <c r="S194" s="2"/>
       <c r="T194" s="2"/>
     </row>
-    <row r="195" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:20">
       <c r="A195" s="3"/>
       <c r="B195" s="3"/>
       <c r="C195" s="2"/>
@@ -4759,7 +5379,7 @@
       <c r="S195" s="2"/>
       <c r="T195" s="2"/>
     </row>
-    <row r="196" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:20">
       <c r="A196" s="3"/>
       <c r="B196" s="3"/>
       <c r="C196" s="2"/>
@@ -4781,7 +5401,7 @@
       <c r="S196" s="2"/>
       <c r="T196" s="2"/>
     </row>
-    <row r="197" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:20">
       <c r="A197" s="3"/>
       <c r="B197" s="3"/>
       <c r="C197" s="2"/>
@@ -4803,7 +5423,7 @@
       <c r="S197" s="2"/>
       <c r="T197" s="2"/>
     </row>
-    <row r="198" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:20">
       <c r="A198" s="3"/>
       <c r="B198" s="3"/>
       <c r="C198" s="2"/>
@@ -4825,7 +5445,7 @@
       <c r="S198" s="2"/>
       <c r="T198" s="2"/>
     </row>
-    <row r="199" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:20">
       <c r="A199" s="3"/>
       <c r="B199" s="3"/>
       <c r="C199" s="2"/>
@@ -4847,7 +5467,7 @@
       <c r="S199" s="2"/>
       <c r="T199" s="2"/>
     </row>
-    <row r="200" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:20">
       <c r="A200" s="3"/>
       <c r="B200" s="3"/>
       <c r="C200" s="2"/>
@@ -4870,7 +5490,7 @@
       <c r="T200" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/许愿墙.xlsx
+++ b/许愿墙.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kay\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03B31867-128B-44B9-A8C5-9805711B880E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3060" yWindow="4440" windowWidth="23040" windowHeight="13560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="10520"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
   <si>
     <t>你想找什么样的工作？</t>
   </si>
@@ -56,19 +50,23 @@
     <t>AI agent开发</t>
   </si>
   <si>
-    <t>在找</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>Python+AI</t>
   </si>
   <si>
-    <t>Python+AI</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>校招进大厂</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -80,12 +78,6 @@
       <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -93,12 +85,162 @@
       <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -111,8 +253,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -135,9 +463,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -152,21 +722,65 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -424,28 +1038,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:T200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="15.2"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -471,7 +1084,7 @@
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -497,7 +1110,7 @@
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -523,7 +1136,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -549,7 +1162,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -575,12 +1188,12 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20">
       <c r="A6" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -601,9 +1214,13 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
+    <row r="7" spans="1:20">
+      <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -623,7 +1240,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="2"/>
@@ -645,7 +1262,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="2"/>
@@ -667,7 +1284,7 @@
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="2"/>
@@ -689,7 +1306,7 @@
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="2"/>
@@ -711,7 +1328,7 @@
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="2"/>
@@ -733,7 +1350,7 @@
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="2"/>
@@ -755,7 +1372,7 @@
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="2"/>
@@ -777,7 +1394,7 @@
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="2"/>
@@ -799,7 +1416,7 @@
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="2"/>
@@ -821,7 +1438,7 @@
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="2"/>
@@ -843,7 +1460,7 @@
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="2"/>
@@ -865,7 +1482,7 @@
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="2"/>
@@ -887,7 +1504,7 @@
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="2"/>
@@ -909,7 +1526,7 @@
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="2"/>
@@ -931,7 +1548,7 @@
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="2"/>
@@ -953,7 +1570,7 @@
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="2"/>
@@ -975,7 +1592,7 @@
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="2"/>
@@ -997,7 +1614,7 @@
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="2"/>
@@ -1019,7 +1636,7 @@
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="2"/>
@@ -1041,7 +1658,7 @@
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="2"/>
@@ -1063,7 +1680,7 @@
       <c r="S27" s="2"/>
       <c r="T27" s="2"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="2"/>
@@ -1085,7 +1702,7 @@
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="2"/>
@@ -1107,7 +1724,7 @@
       <c r="S29" s="2"/>
       <c r="T29" s="2"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="2"/>
@@ -1129,7 +1746,7 @@
       <c r="S30" s="2"/>
       <c r="T30" s="2"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="2"/>
@@ -1151,7 +1768,7 @@
       <c r="S31" s="2"/>
       <c r="T31" s="2"/>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="2"/>
@@ -1173,7 +1790,7 @@
       <c r="S32" s="2"/>
       <c r="T32" s="2"/>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="2"/>
@@ -1195,7 +1812,7 @@
       <c r="S33" s="2"/>
       <c r="T33" s="2"/>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="2"/>
@@ -1217,7 +1834,7 @@
       <c r="S34" s="2"/>
       <c r="T34" s="2"/>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="2"/>
@@ -1239,7 +1856,7 @@
       <c r="S35" s="2"/>
       <c r="T35" s="2"/>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="2"/>
@@ -1261,7 +1878,7 @@
       <c r="S36" s="2"/>
       <c r="T36" s="2"/>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="2"/>
@@ -1283,7 +1900,7 @@
       <c r="S37" s="2"/>
       <c r="T37" s="2"/>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="2"/>
@@ -1305,7 +1922,7 @@
       <c r="S38" s="2"/>
       <c r="T38" s="2"/>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="2"/>
@@ -1327,7 +1944,7 @@
       <c r="S39" s="2"/>
       <c r="T39" s="2"/>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="2"/>
@@ -1349,7 +1966,7 @@
       <c r="S40" s="2"/>
       <c r="T40" s="2"/>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="2"/>
@@ -1371,7 +1988,7 @@
       <c r="S41" s="2"/>
       <c r="T41" s="2"/>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="2"/>
@@ -1393,7 +2010,7 @@
       <c r="S42" s="2"/>
       <c r="T42" s="2"/>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="2"/>
@@ -1415,7 +2032,7 @@
       <c r="S43" s="2"/>
       <c r="T43" s="2"/>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="2"/>
@@ -1437,7 +2054,7 @@
       <c r="S44" s="2"/>
       <c r="T44" s="2"/>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="2"/>
@@ -1459,7 +2076,7 @@
       <c r="S45" s="2"/>
       <c r="T45" s="2"/>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="2"/>
@@ -1481,7 +2098,7 @@
       <c r="S46" s="2"/>
       <c r="T46" s="2"/>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="2"/>
@@ -1503,7 +2120,7 @@
       <c r="S47" s="2"/>
       <c r="T47" s="2"/>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="2"/>
@@ -1525,7 +2142,7 @@
       <c r="S48" s="2"/>
       <c r="T48" s="2"/>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="2"/>
@@ -1547,7 +2164,7 @@
       <c r="S49" s="2"/>
       <c r="T49" s="2"/>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="2"/>
@@ -1569,7 +2186,7 @@
       <c r="S50" s="2"/>
       <c r="T50" s="2"/>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="2"/>
@@ -1591,7 +2208,7 @@
       <c r="S51" s="2"/>
       <c r="T51" s="2"/>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="2"/>
@@ -1613,7 +2230,7 @@
       <c r="S52" s="2"/>
       <c r="T52" s="2"/>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="2"/>
@@ -1635,7 +2252,7 @@
       <c r="S53" s="2"/>
       <c r="T53" s="2"/>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="2"/>
@@ -1657,7 +2274,7 @@
       <c r="S54" s="2"/>
       <c r="T54" s="2"/>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="2"/>
@@ -1679,7 +2296,7 @@
       <c r="S55" s="2"/>
       <c r="T55" s="2"/>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="2"/>
@@ -1701,7 +2318,7 @@
       <c r="S56" s="2"/>
       <c r="T56" s="2"/>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="2"/>
@@ -1723,7 +2340,7 @@
       <c r="S57" s="2"/>
       <c r="T57" s="2"/>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="2"/>
@@ -1745,7 +2362,7 @@
       <c r="S58" s="2"/>
       <c r="T58" s="2"/>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="2"/>
@@ -1767,7 +2384,7 @@
       <c r="S59" s="2"/>
       <c r="T59" s="2"/>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="2"/>
@@ -1789,7 +2406,7 @@
       <c r="S60" s="2"/>
       <c r="T60" s="2"/>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="2"/>
@@ -1811,7 +2428,7 @@
       <c r="S61" s="2"/>
       <c r="T61" s="2"/>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="2"/>
@@ -1833,7 +2450,7 @@
       <c r="S62" s="2"/>
       <c r="T62" s="2"/>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="2"/>
@@ -1855,7 +2472,7 @@
       <c r="S63" s="2"/>
       <c r="T63" s="2"/>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="2"/>
@@ -1877,7 +2494,7 @@
       <c r="S64" s="2"/>
       <c r="T64" s="2"/>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="2"/>
@@ -1899,7 +2516,7 @@
       <c r="S65" s="2"/>
       <c r="T65" s="2"/>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:20">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="2"/>
@@ -1921,7 +2538,7 @@
       <c r="S66" s="2"/>
       <c r="T66" s="2"/>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:20">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="2"/>
@@ -1943,7 +2560,7 @@
       <c r="S67" s="2"/>
       <c r="T67" s="2"/>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:20">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="2"/>
@@ -1965,7 +2582,7 @@
       <c r="S68" s="2"/>
       <c r="T68" s="2"/>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:20">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="2"/>
@@ -1987,7 +2604,7 @@
       <c r="S69" s="2"/>
       <c r="T69" s="2"/>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="2"/>
@@ -2009,7 +2626,7 @@
       <c r="S70" s="2"/>
       <c r="T70" s="2"/>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:20">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="2"/>
@@ -2031,7 +2648,7 @@
       <c r="S71" s="2"/>
       <c r="T71" s="2"/>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:20">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="2"/>
@@ -2053,7 +2670,7 @@
       <c r="S72" s="2"/>
       <c r="T72" s="2"/>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:20">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="2"/>
@@ -2075,7 +2692,7 @@
       <c r="S73" s="2"/>
       <c r="T73" s="2"/>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:20">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="2"/>
@@ -2097,7 +2714,7 @@
       <c r="S74" s="2"/>
       <c r="T74" s="2"/>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:20">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="2"/>
@@ -2119,7 +2736,7 @@
       <c r="S75" s="2"/>
       <c r="T75" s="2"/>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:20">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="2"/>
@@ -2141,7 +2758,7 @@
       <c r="S76" s="2"/>
       <c r="T76" s="2"/>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:20">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="2"/>
@@ -2163,7 +2780,7 @@
       <c r="S77" s="2"/>
       <c r="T77" s="2"/>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:20">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="2"/>
@@ -2185,7 +2802,7 @@
       <c r="S78" s="2"/>
       <c r="T78" s="2"/>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:20">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="2"/>
@@ -2207,7 +2824,7 @@
       <c r="S79" s="2"/>
       <c r="T79" s="2"/>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:20">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="2"/>
@@ -2229,7 +2846,7 @@
       <c r="S80" s="2"/>
       <c r="T80" s="2"/>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:20">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="2"/>
@@ -2251,7 +2868,7 @@
       <c r="S81" s="2"/>
       <c r="T81" s="2"/>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:20">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="2"/>
@@ -2273,7 +2890,7 @@
       <c r="S82" s="2"/>
       <c r="T82" s="2"/>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:20">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="2"/>
@@ -2295,7 +2912,7 @@
       <c r="S83" s="2"/>
       <c r="T83" s="2"/>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:20">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="2"/>
@@ -2317,7 +2934,7 @@
       <c r="S84" s="2"/>
       <c r="T84" s="2"/>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:20">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="2"/>
@@ -2339,7 +2956,7 @@
       <c r="S85" s="2"/>
       <c r="T85" s="2"/>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:20">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="2"/>
@@ -2361,7 +2978,7 @@
       <c r="S86" s="2"/>
       <c r="T86" s="2"/>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:20">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="2"/>
@@ -2383,7 +3000,7 @@
       <c r="S87" s="2"/>
       <c r="T87" s="2"/>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:20">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="2"/>
@@ -2405,7 +3022,7 @@
       <c r="S88" s="2"/>
       <c r="T88" s="2"/>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:20">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="2"/>
@@ -2427,7 +3044,7 @@
       <c r="S89" s="2"/>
       <c r="T89" s="2"/>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:20">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="2"/>
@@ -2449,7 +3066,7 @@
       <c r="S90" s="2"/>
       <c r="T90" s="2"/>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:20">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="2"/>
@@ -2471,7 +3088,7 @@
       <c r="S91" s="2"/>
       <c r="T91" s="2"/>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:20">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="2"/>
@@ -2493,7 +3110,7 @@
       <c r="S92" s="2"/>
       <c r="T92" s="2"/>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:20">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="2"/>
@@ -2515,7 +3132,7 @@
       <c r="S93" s="2"/>
       <c r="T93" s="2"/>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:20">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="2"/>
@@ -2537,7 +3154,7 @@
       <c r="S94" s="2"/>
       <c r="T94" s="2"/>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:20">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="2"/>
@@ -2559,7 +3176,7 @@
       <c r="S95" s="2"/>
       <c r="T95" s="2"/>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:20">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="2"/>
@@ -2581,7 +3198,7 @@
       <c r="S96" s="2"/>
       <c r="T96" s="2"/>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:20">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="2"/>
@@ -2603,7 +3220,7 @@
       <c r="S97" s="2"/>
       <c r="T97" s="2"/>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:20">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="2"/>
@@ -2625,7 +3242,7 @@
       <c r="S98" s="2"/>
       <c r="T98" s="2"/>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:20">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="2"/>
@@ -2647,7 +3264,7 @@
       <c r="S99" s="2"/>
       <c r="T99" s="2"/>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:20">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="2"/>
@@ -2669,7 +3286,7 @@
       <c r="S100" s="2"/>
       <c r="T100" s="2"/>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:20">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="2"/>
@@ -2691,7 +3308,7 @@
       <c r="S101" s="2"/>
       <c r="T101" s="2"/>
     </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:20">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="2"/>
@@ -2713,7 +3330,7 @@
       <c r="S102" s="2"/>
       <c r="T102" s="2"/>
     </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:20">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="2"/>
@@ -2735,7 +3352,7 @@
       <c r="S103" s="2"/>
       <c r="T103" s="2"/>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:20">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="2"/>
@@ -2757,7 +3374,7 @@
       <c r="S104" s="2"/>
       <c r="T104" s="2"/>
     </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:20">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="2"/>
@@ -2779,7 +3396,7 @@
       <c r="S105" s="2"/>
       <c r="T105" s="2"/>
     </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:20">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="2"/>
@@ -2801,7 +3418,7 @@
       <c r="S106" s="2"/>
       <c r="T106" s="2"/>
     </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:20">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="2"/>
@@ -2823,7 +3440,7 @@
       <c r="S107" s="2"/>
       <c r="T107" s="2"/>
     </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:20">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="2"/>
@@ -2845,7 +3462,7 @@
       <c r="S108" s="2"/>
       <c r="T108" s="2"/>
     </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:20">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="2"/>
@@ -2867,7 +3484,7 @@
       <c r="S109" s="2"/>
       <c r="T109" s="2"/>
     </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:20">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="2"/>
@@ -2889,7 +3506,7 @@
       <c r="S110" s="2"/>
       <c r="T110" s="2"/>
     </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:20">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="2"/>
@@ -2911,7 +3528,7 @@
       <c r="S111" s="2"/>
       <c r="T111" s="2"/>
     </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:20">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="2"/>
@@ -2933,7 +3550,7 @@
       <c r="S112" s="2"/>
       <c r="T112" s="2"/>
     </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:20">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="2"/>
@@ -2955,7 +3572,7 @@
       <c r="S113" s="2"/>
       <c r="T113" s="2"/>
     </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:20">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="2"/>
@@ -2977,7 +3594,7 @@
       <c r="S114" s="2"/>
       <c r="T114" s="2"/>
     </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:20">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="2"/>
@@ -2999,7 +3616,7 @@
       <c r="S115" s="2"/>
       <c r="T115" s="2"/>
     </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:20">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="2"/>
@@ -3021,7 +3638,7 @@
       <c r="S116" s="2"/>
       <c r="T116" s="2"/>
     </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:20">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="2"/>
@@ -3043,7 +3660,7 @@
       <c r="S117" s="2"/>
       <c r="T117" s="2"/>
     </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:20">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="2"/>
@@ -3065,7 +3682,7 @@
       <c r="S118" s="2"/>
       <c r="T118" s="2"/>
     </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:20">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="2"/>
@@ -3087,7 +3704,7 @@
       <c r="S119" s="2"/>
       <c r="T119" s="2"/>
     </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:20">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="2"/>
@@ -3109,7 +3726,7 @@
       <c r="S120" s="2"/>
       <c r="T120" s="2"/>
     </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:20">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="2"/>
@@ -3131,7 +3748,7 @@
       <c r="S121" s="2"/>
       <c r="T121" s="2"/>
     </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:20">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="2"/>
@@ -3153,7 +3770,7 @@
       <c r="S122" s="2"/>
       <c r="T122" s="2"/>
     </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:20">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="2"/>
@@ -3175,7 +3792,7 @@
       <c r="S123" s="2"/>
       <c r="T123" s="2"/>
     </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:20">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="2"/>
@@ -3197,7 +3814,7 @@
       <c r="S124" s="2"/>
       <c r="T124" s="2"/>
     </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:20">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="2"/>
@@ -3219,7 +3836,7 @@
       <c r="S125" s="2"/>
       <c r="T125" s="2"/>
     </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:20">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="2"/>
@@ -3241,7 +3858,7 @@
       <c r="S126" s="2"/>
       <c r="T126" s="2"/>
     </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:20">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="2"/>
@@ -3263,7 +3880,7 @@
       <c r="S127" s="2"/>
       <c r="T127" s="2"/>
     </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:20">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="2"/>
@@ -3285,7 +3902,7 @@
       <c r="S128" s="2"/>
       <c r="T128" s="2"/>
     </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:20">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="2"/>
@@ -3307,7 +3924,7 @@
       <c r="S129" s="2"/>
       <c r="T129" s="2"/>
     </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:20">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="2"/>
@@ -3329,7 +3946,7 @@
       <c r="S130" s="2"/>
       <c r="T130" s="2"/>
     </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:20">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="2"/>
@@ -3351,7 +3968,7 @@
       <c r="S131" s="2"/>
       <c r="T131" s="2"/>
     </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:20">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="2"/>
@@ -3373,7 +3990,7 @@
       <c r="S132" s="2"/>
       <c r="T132" s="2"/>
     </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:20">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="2"/>
@@ -3395,7 +4012,7 @@
       <c r="S133" s="2"/>
       <c r="T133" s="2"/>
     </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:20">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="2"/>
@@ -3417,7 +4034,7 @@
       <c r="S134" s="2"/>
       <c r="T134" s="2"/>
     </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:20">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="2"/>
@@ -3439,7 +4056,7 @@
       <c r="S135" s="2"/>
       <c r="T135" s="2"/>
     </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:20">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="2"/>
@@ -3461,7 +4078,7 @@
       <c r="S136" s="2"/>
       <c r="T136" s="2"/>
     </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:20">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="2"/>
@@ -3483,7 +4100,7 @@
       <c r="S137" s="2"/>
       <c r="T137" s="2"/>
     </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:20">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="2"/>
@@ -3505,7 +4122,7 @@
       <c r="S138" s="2"/>
       <c r="T138" s="2"/>
     </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:20">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="2"/>
@@ -3527,7 +4144,7 @@
       <c r="S139" s="2"/>
       <c r="T139" s="2"/>
     </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:20">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="2"/>
@@ -3549,7 +4166,7 @@
       <c r="S140" s="2"/>
       <c r="T140" s="2"/>
     </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:20">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="2"/>
@@ -3571,7 +4188,7 @@
       <c r="S141" s="2"/>
       <c r="T141" s="2"/>
     </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:20">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="2"/>
@@ -3593,7 +4210,7 @@
       <c r="S142" s="2"/>
       <c r="T142" s="2"/>
     </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:20">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="2"/>
@@ -3615,7 +4232,7 @@
       <c r="S143" s="2"/>
       <c r="T143" s="2"/>
     </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:20">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="2"/>
@@ -3637,7 +4254,7 @@
       <c r="S144" s="2"/>
       <c r="T144" s="2"/>
     </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:20">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="2"/>
@@ -3659,7 +4276,7 @@
       <c r="S145" s="2"/>
       <c r="T145" s="2"/>
     </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:20">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="2"/>
@@ -3681,7 +4298,7 @@
       <c r="S146" s="2"/>
       <c r="T146" s="2"/>
     </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:20">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="2"/>
@@ -3703,7 +4320,7 @@
       <c r="S147" s="2"/>
       <c r="T147" s="2"/>
     </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:20">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="2"/>
@@ -3725,7 +4342,7 @@
       <c r="S148" s="2"/>
       <c r="T148" s="2"/>
     </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:20">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="2"/>
@@ -3747,7 +4364,7 @@
       <c r="S149" s="2"/>
       <c r="T149" s="2"/>
     </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:20">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="2"/>
@@ -3769,7 +4386,7 @@
       <c r="S150" s="2"/>
       <c r="T150" s="2"/>
     </row>
-    <row r="151" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:20">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="2"/>
@@ -3791,7 +4408,7 @@
       <c r="S151" s="2"/>
       <c r="T151" s="2"/>
     </row>
-    <row r="152" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:20">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="2"/>
@@ -3813,7 +4430,7 @@
       <c r="S152" s="2"/>
       <c r="T152" s="2"/>
     </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:20">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="2"/>
@@ -3835,7 +4452,7 @@
       <c r="S153" s="2"/>
       <c r="T153" s="2"/>
     </row>
-    <row r="154" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:20">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="2"/>
@@ -3857,7 +4474,7 @@
       <c r="S154" s="2"/>
       <c r="T154" s="2"/>
     </row>
-    <row r="155" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:20">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="2"/>
@@ -3879,7 +4496,7 @@
       <c r="S155" s="2"/>
       <c r="T155" s="2"/>
     </row>
-    <row r="156" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:20">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="2"/>
@@ -3901,7 +4518,7 @@
       <c r="S156" s="2"/>
       <c r="T156" s="2"/>
     </row>
-    <row r="157" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:20">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="2"/>
@@ -3923,7 +4540,7 @@
       <c r="S157" s="2"/>
       <c r="T157" s="2"/>
     </row>
-    <row r="158" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:20">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="2"/>
@@ -3945,7 +4562,7 @@
       <c r="S158" s="2"/>
       <c r="T158" s="2"/>
     </row>
-    <row r="159" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:20">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="2"/>
@@ -3967,7 +4584,7 @@
       <c r="S159" s="2"/>
       <c r="T159" s="2"/>
     </row>
-    <row r="160" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:20">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="2"/>
@@ -3989,7 +4606,7 @@
       <c r="S160" s="2"/>
       <c r="T160" s="2"/>
     </row>
-    <row r="161" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:20">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="2"/>
@@ -4011,7 +4628,7 @@
       <c r="S161" s="2"/>
       <c r="T161" s="2"/>
     </row>
-    <row r="162" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:20">
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
       <c r="C162" s="2"/>
@@ -4033,7 +4650,7 @@
       <c r="S162" s="2"/>
       <c r="T162" s="2"/>
     </row>
-    <row r="163" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:20">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
       <c r="C163" s="2"/>
@@ -4055,7 +4672,7 @@
       <c r="S163" s="2"/>
       <c r="T163" s="2"/>
     </row>
-    <row r="164" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:20">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
       <c r="C164" s="2"/>
@@ -4077,7 +4694,7 @@
       <c r="S164" s="2"/>
       <c r="T164" s="2"/>
     </row>
-    <row r="165" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:20">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
       <c r="C165" s="2"/>
@@ -4099,7 +4716,7 @@
       <c r="S165" s="2"/>
       <c r="T165" s="2"/>
     </row>
-    <row r="166" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:20">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
       <c r="C166" s="2"/>
@@ -4121,7 +4738,7 @@
       <c r="S166" s="2"/>
       <c r="T166" s="2"/>
     </row>
-    <row r="167" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:20">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
       <c r="C167" s="2"/>
@@ -4143,7 +4760,7 @@
       <c r="S167" s="2"/>
       <c r="T167" s="2"/>
     </row>
-    <row r="168" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:20">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
       <c r="C168" s="2"/>
@@ -4165,7 +4782,7 @@
       <c r="S168" s="2"/>
       <c r="T168" s="2"/>
     </row>
-    <row r="169" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:20">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
       <c r="C169" s="2"/>
@@ -4187,7 +4804,7 @@
       <c r="S169" s="2"/>
       <c r="T169" s="2"/>
     </row>
-    <row r="170" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:20">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
       <c r="C170" s="2"/>
@@ -4209,7 +4826,7 @@
       <c r="S170" s="2"/>
       <c r="T170" s="2"/>
     </row>
-    <row r="171" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:20">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
       <c r="C171" s="2"/>
@@ -4231,7 +4848,7 @@
       <c r="S171" s="2"/>
       <c r="T171" s="2"/>
     </row>
-    <row r="172" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:20">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
       <c r="C172" s="2"/>
@@ -4253,7 +4870,7 @@
       <c r="S172" s="2"/>
       <c r="T172" s="2"/>
     </row>
-    <row r="173" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:20">
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
       <c r="C173" s="2"/>
@@ -4275,7 +4892,7 @@
       <c r="S173" s="2"/>
       <c r="T173" s="2"/>
     </row>
-    <row r="174" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:20">
       <c r="A174" s="3"/>
       <c r="B174" s="3"/>
       <c r="C174" s="2"/>
@@ -4297,7 +4914,7 @@
       <c r="S174" s="2"/>
       <c r="T174" s="2"/>
     </row>
-    <row r="175" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:20">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="C175" s="2"/>
@@ -4319,7 +4936,7 @@
       <c r="S175" s="2"/>
       <c r="T175" s="2"/>
     </row>
-    <row r="176" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:20">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="C176" s="2"/>
@@ -4341,7 +4958,7 @@
       <c r="S176" s="2"/>
       <c r="T176" s="2"/>
     </row>
-    <row r="177" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:20">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="C177" s="2"/>
@@ -4363,7 +4980,7 @@
       <c r="S177" s="2"/>
       <c r="T177" s="2"/>
     </row>
-    <row r="178" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:20">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="C178" s="2"/>
@@ -4385,7 +5002,7 @@
       <c r="S178" s="2"/>
       <c r="T178" s="2"/>
     </row>
-    <row r="179" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:20">
       <c r="A179" s="3"/>
       <c r="B179" s="3"/>
       <c r="C179" s="2"/>
@@ -4407,7 +5024,7 @@
       <c r="S179" s="2"/>
       <c r="T179" s="2"/>
     </row>
-    <row r="180" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:20">
       <c r="A180" s="3"/>
       <c r="B180" s="3"/>
       <c r="C180" s="2"/>
@@ -4429,7 +5046,7 @@
       <c r="S180" s="2"/>
       <c r="T180" s="2"/>
     </row>
-    <row r="181" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:20">
       <c r="A181" s="3"/>
       <c r="B181" s="3"/>
       <c r="C181" s="2"/>
@@ -4451,7 +5068,7 @@
       <c r="S181" s="2"/>
       <c r="T181" s="2"/>
     </row>
-    <row r="182" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:20">
       <c r="A182" s="3"/>
       <c r="B182" s="3"/>
       <c r="C182" s="2"/>
@@ -4473,7 +5090,7 @@
       <c r="S182" s="2"/>
       <c r="T182" s="2"/>
     </row>
-    <row r="183" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:20">
       <c r="A183" s="3"/>
       <c r="B183" s="3"/>
       <c r="C183" s="2"/>
@@ -4495,7 +5112,7 @@
       <c r="S183" s="2"/>
       <c r="T183" s="2"/>
     </row>
-    <row r="184" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:20">
       <c r="A184" s="3"/>
       <c r="B184" s="3"/>
       <c r="C184" s="2"/>
@@ -4517,7 +5134,7 @@
       <c r="S184" s="2"/>
       <c r="T184" s="2"/>
     </row>
-    <row r="185" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:20">
       <c r="A185" s="3"/>
       <c r="B185" s="3"/>
       <c r="C185" s="2"/>
@@ -4539,7 +5156,7 @@
       <c r="S185" s="2"/>
       <c r="T185" s="2"/>
     </row>
-    <row r="186" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:20">
       <c r="A186" s="3"/>
       <c r="B186" s="3"/>
       <c r="C186" s="2"/>
@@ -4561,7 +5178,7 @@
       <c r="S186" s="2"/>
       <c r="T186" s="2"/>
     </row>
-    <row r="187" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:20">
       <c r="A187" s="3"/>
       <c r="B187" s="3"/>
       <c r="C187" s="2"/>
@@ -4583,7 +5200,7 @@
       <c r="S187" s="2"/>
       <c r="T187" s="2"/>
     </row>
-    <row r="188" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:20">
       <c r="A188" s="3"/>
       <c r="B188" s="3"/>
       <c r="C188" s="2"/>
@@ -4605,7 +5222,7 @@
       <c r="S188" s="2"/>
       <c r="T188" s="2"/>
     </row>
-    <row r="189" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:20">
       <c r="A189" s="3"/>
       <c r="B189" s="3"/>
       <c r="C189" s="2"/>
@@ -4627,7 +5244,7 @@
       <c r="S189" s="2"/>
       <c r="T189" s="2"/>
     </row>
-    <row r="190" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:20">
       <c r="A190" s="3"/>
       <c r="B190" s="3"/>
       <c r="C190" s="2"/>
@@ -4649,7 +5266,7 @@
       <c r="S190" s="2"/>
       <c r="T190" s="2"/>
     </row>
-    <row r="191" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:20">
       <c r="A191" s="3"/>
       <c r="B191" s="3"/>
       <c r="C191" s="2"/>
@@ -4671,7 +5288,7 @@
       <c r="S191" s="2"/>
       <c r="T191" s="2"/>
     </row>
-    <row r="192" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:20">
       <c r="A192" s="3"/>
       <c r="B192" s="3"/>
       <c r="C192" s="2"/>
@@ -4693,7 +5310,7 @@
       <c r="S192" s="2"/>
       <c r="T192" s="2"/>
     </row>
-    <row r="193" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:20">
       <c r="A193" s="3"/>
       <c r="B193" s="3"/>
       <c r="C193" s="2"/>
@@ -4715,7 +5332,7 @@
       <c r="S193" s="2"/>
       <c r="T193" s="2"/>
     </row>
-    <row r="194" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:20">
       <c r="A194" s="3"/>
       <c r="B194" s="3"/>
       <c r="C194" s="2"/>
@@ -4737,7 +5354,7 @@
       <c r="S194" s="2"/>
       <c r="T194" s="2"/>
     </row>
-    <row r="195" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:20">
       <c r="A195" s="3"/>
       <c r="B195" s="3"/>
       <c r="C195" s="2"/>
@@ -4759,7 +5376,7 @@
       <c r="S195" s="2"/>
       <c r="T195" s="2"/>
     </row>
-    <row r="196" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:20">
       <c r="A196" s="3"/>
       <c r="B196" s="3"/>
       <c r="C196" s="2"/>
@@ -4781,7 +5398,7 @@
       <c r="S196" s="2"/>
       <c r="T196" s="2"/>
     </row>
-    <row r="197" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:20">
       <c r="A197" s="3"/>
       <c r="B197" s="3"/>
       <c r="C197" s="2"/>
@@ -4803,7 +5420,7 @@
       <c r="S197" s="2"/>
       <c r="T197" s="2"/>
     </row>
-    <row r="198" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:20">
       <c r="A198" s="3"/>
       <c r="B198" s="3"/>
       <c r="C198" s="2"/>
@@ -4825,7 +5442,7 @@
       <c r="S198" s="2"/>
       <c r="T198" s="2"/>
     </row>
-    <row r="199" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:20">
       <c r="A199" s="3"/>
       <c r="B199" s="3"/>
       <c r="C199" s="2"/>
@@ -4847,7 +5464,7 @@
       <c r="S199" s="2"/>
       <c r="T199" s="2"/>
     </row>
-    <row r="200" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:20">
       <c r="A200" s="3"/>
       <c r="B200" s="3"/>
       <c r="C200" s="2"/>
@@ -4870,7 +5487,7 @@
       <c r="T200" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/许愿墙.xlsx
+++ b/许愿墙.xlsx
@@ -1,79 +1,177 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\get_jobs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E10E9C9-FAF9-4AA0-A9AB-C9A3780DC970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="15800" windowWidth="28040" xWindow="4240" yWindow="640"/>
+    <workbookView xWindow="5985" yWindow="2910" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcMode="auto"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
   <si>
-    <t xml:space="preserve">  </t>
+    <t>你想找什么样的工作？</t>
+  </si>
+  <si>
+    <t>现在的状态是怎样的？</t>
+  </si>
+  <si>
+    <t>AI攻城狮</t>
+  </si>
+  <si>
+    <t>已找到！</t>
+  </si>
+  <si>
+    <t>Java+AI</t>
+  </si>
+  <si>
+    <t>在找</t>
+  </si>
+  <si>
+    <t>AI agent开发</t>
+  </si>
+  <si>
+    <t>Java实习</t>
+  </si>
+  <si>
+    <t>还没开始找</t>
+  </si>
+  <si>
+    <t>系统架构师</t>
+  </si>
+  <si>
+    <t>Go</t>
+  </si>
+  <si>
+    <t>前端攻城狮</t>
+  </si>
+  <si>
+    <t>AI+游戏开发</t>
+  </si>
+  <si>
+    <t>C++实习</t>
+  </si>
+  <si>
+    <t>后端开发</t>
+  </si>
+  <si>
+    <t>正确的路上</t>
+  </si>
+  <si>
+    <t>Java后端开发</t>
+  </si>
+  <si>
+    <t>在找实习的路上</t>
+  </si>
+  <si>
+    <t>Java</t>
+  </si>
+  <si>
+    <t>找到了，但是通勤太远想跳槽</t>
+  </si>
+  <si>
+    <t>Frontend leader</t>
+  </si>
+  <si>
+    <t>找到了，但是没有work life balance</t>
+  </si>
+  <si>
+    <t>找到了，不满意</t>
+  </si>
+  <si>
+    <t>Java开发</t>
+  </si>
+  <si>
+    <t>再找</t>
+  </si>
+  <si>
+    <t>前端工程师</t>
+  </si>
+  <si>
+    <t>java开发</t>
+  </si>
+  <si>
+    <t>AI+前端工程师</t>
+  </si>
+  <si>
+    <t>C++开发</t>
+  </si>
+  <si>
+    <t>Go后端开发</t>
+  </si>
+  <si>
+    <t>AI+后端工程师</t>
+  </si>
+  <si>
+    <t>java开发工程师</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经找到</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9.75"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9.75"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none">
-        <fgColor/>
-        <bgColor/>
-      </patternFill>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor/>
-        <bgColor/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF34C724"/>
-        <bgColor/>
       </patternFill>
     </fill>
   </fills>
@@ -139,30 +237,98 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -175,14 +341,14 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CAEACE"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -470,28 +636,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
-    <outlinePr summaryBelow="false" summaryRight="false"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:T200"/>
   <sheetViews>
-    <sheetView showGridLines="true" tabSelected="true" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="21"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="32"/>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="2" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="str">
-        <v>你想找什么样的工作？</v>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
       </c>
-      <c r="B1" s="3" t="str">
-        <v>现在的状态是怎样的？</v>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -512,12 +678,12 @@
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
     </row>
-    <row r="2">
-      <c r="A2" s="2" t="str">
-        <v>AI攻城狮</v>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
       </c>
-      <c r="B2" s="2" t="str">
-        <v>已找到！</v>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -538,12 +704,12 @@
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
     </row>
-    <row r="3">
-      <c r="A3" s="2" t="str">
-        <v>Java+AI</v>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
       </c>
-      <c r="B3" s="2" t="str">
-        <v>在找</v>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -564,12 +730,12 @@
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
     </row>
-    <row r="4">
-      <c r="A4" s="2" t="str">
-        <v>AI agent开发</v>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
       </c>
-      <c r="B4" s="2" t="str">
-        <v>在找</v>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -590,12 +756,12 @@
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
     </row>
-    <row r="5">
-      <c r="A5" s="2" t="str">
-        <v>Java实习</v>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
       </c>
-      <c r="B5" s="2" t="str">
-        <v>还没开始找</v>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -616,12 +782,12 @@
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
     </row>
-    <row r="6">
-      <c r="A6" s="2" t="str">
-        <v>系统架构师</v>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
       </c>
-      <c r="B6" s="2" t="str">
-        <v>在找</v>
+      <c r="B6" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -642,12 +808,12 @@
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
     </row>
-    <row r="7">
-      <c r="A7" s="2" t="str">
-        <v>Go</v>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>10</v>
       </c>
-      <c r="B7" s="2" t="str">
-        <v>在找</v>
+      <c r="B7" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -668,12 +834,12 @@
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
     </row>
-    <row r="8">
-      <c r="A8" s="2" t="str">
-        <v>前端攻城狮</v>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>11</v>
       </c>
-      <c r="B8" s="2" t="str">
-        <v>在找</v>
+      <c r="B8" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -694,12 +860,12 @@
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
     </row>
-    <row r="9">
-      <c r="A9" s="2" t="str">
-        <v>AI+游戏开发</v>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>12</v>
       </c>
-      <c r="B9" s="2" t="str">
-        <v>在找</v>
+      <c r="B9" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -720,12 +886,12 @@
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
     </row>
-    <row r="10">
-      <c r="A10" s="2" t="str">
-        <v>C++实习</v>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>13</v>
       </c>
-      <c r="B10" s="2" t="str">
-        <v>在找</v>
+      <c r="B10" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -746,12 +912,12 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
     </row>
-    <row r="11">
-      <c r="A11" s="2" t="str">
-        <v>后端开发</v>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>14</v>
       </c>
-      <c r="B11" s="2" t="str">
-        <v>正确的路上</v>
+      <c r="B11" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -772,12 +938,12 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row r="12">
-      <c r="A12" s="2" t="str">
-        <v>Java后端开发</v>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>16</v>
       </c>
-      <c r="B12" s="2" t="str">
-        <v>在找实习的路上</v>
+      <c r="B12" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -798,12 +964,12 @@
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
     </row>
-    <row r="13">
-      <c r="A13" s="2" t="str">
-        <v>Java</v>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>18</v>
       </c>
-      <c r="B13" s="2" t="str">
-        <v>找到了，但是通勤太远想跳槽</v>
+      <c r="B13" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -824,12 +990,12 @@
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
     </row>
-    <row r="14">
-      <c r="A14" s="2" t="str">
-        <v>Frontend leader</v>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>20</v>
       </c>
-      <c r="B14" s="2" t="str">
-        <v>找到了，但是没有work life balance</v>
+      <c r="B14" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -850,12 +1016,12 @@
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
     </row>
-    <row r="15">
-      <c r="A15" s="4" t="str">
-        <v>Java</v>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>18</v>
       </c>
-      <c r="B15" s="2" t="str">
-        <v>找到了，不满意</v>
+      <c r="B15" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -876,12 +1042,12 @@
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
     </row>
-    <row r="16">
-      <c r="A16" s="2" t="str">
-        <v>Java开发</v>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>23</v>
       </c>
-      <c r="B16" s="2" t="str">
-        <v>再找</v>
+      <c r="B16" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -902,12 +1068,12 @@
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
     </row>
-    <row r="17">
-      <c r="A17" s="2" t="str">
-        <v>前端工程师</v>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>25</v>
       </c>
-      <c r="B17" s="2" t="str">
-        <v>在找</v>
+      <c r="B17" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -928,12 +1094,12 @@
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
     </row>
-    <row r="18">
-      <c r="A18" s="2" t="str">
-        <v>java开发</v>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>26</v>
       </c>
-      <c r="B18" s="2" t="str">
-        <v>在找</v>
+      <c r="B18" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -954,12 +1120,12 @@
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
     </row>
-    <row r="19">
-      <c r="A19" s="2" t="str">
-        <v>AI+前端工程师</v>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>27</v>
       </c>
-      <c r="B19" s="2" t="str">
-        <v>还没开始找</v>
+      <c r="B19" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -980,12 +1146,12 @@
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
     </row>
-    <row r="20">
-      <c r="A20" s="2" t="str">
-        <v>C++开发</v>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>28</v>
       </c>
-      <c r="B20" s="2" t="str">
-        <v>在找</v>
+      <c r="B20" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -1006,12 +1172,12 @@
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
     </row>
-    <row r="21">
-      <c r="A21" s="2" t="str">
-        <v>Go</v>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>10</v>
       </c>
-      <c r="B21" s="2" t="str">
-        <v>在找</v>
+      <c r="B21" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -1032,12 +1198,12 @@
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
     </row>
-    <row r="22">
-      <c r="A22" s="2" t="str">
-        <v>Go后端开发</v>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>29</v>
       </c>
-      <c r="B22" s="2" t="str">
-        <v>在找</v>
+      <c r="B22" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1058,12 +1224,12 @@
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
     </row>
-    <row r="23">
-      <c r="A23" s="2" t="str">
-        <v>AI+后端工程师</v>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>30</v>
       </c>
-      <c r="B23" s="2" t="str">
-        <v>还没开始找</v>
+      <c r="B23" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1084,9 +1250,13 @@
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
     </row>
-    <row r="24">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -1106,7 +1276,7 @@
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="1"/>
@@ -1128,7 +1298,7 @@
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="1"/>
@@ -1150,7 +1320,7 @@
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="1"/>
@@ -1172,7 +1342,7 @@
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="1"/>
@@ -1194,7 +1364,7 @@
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="1"/>
@@ -1216,7 +1386,7 @@
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="1"/>
@@ -1238,7 +1408,7 @@
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="1"/>
@@ -1260,7 +1430,7 @@
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="1"/>
@@ -1282,7 +1452,7 @@
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="1"/>
@@ -1304,7 +1474,7 @@
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="1"/>
@@ -1326,7 +1496,7 @@
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="1"/>
@@ -1348,7 +1518,7 @@
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="1"/>
@@ -1370,7 +1540,7 @@
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="1"/>
@@ -1392,7 +1562,7 @@
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="1"/>
@@ -1414,7 +1584,7 @@
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="1"/>
@@ -1436,7 +1606,7 @@
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="1"/>
@@ -1458,7 +1628,7 @@
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="1"/>
@@ -1480,7 +1650,7 @@
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="1"/>
@@ -1502,7 +1672,7 @@
       <c r="S42" s="1"/>
       <c r="T42" s="1"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="1"/>
@@ -1524,7 +1694,7 @@
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="1"/>
@@ -1546,7 +1716,7 @@
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="1"/>
@@ -1568,7 +1738,7 @@
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
     </row>
-    <row r="46">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="1"/>
@@ -1590,7 +1760,7 @@
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="1"/>
@@ -1612,7 +1782,7 @@
       <c r="S47" s="1"/>
       <c r="T47" s="1"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="1"/>
@@ -1634,7 +1804,7 @@
       <c r="S48" s="1"/>
       <c r="T48" s="1"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="1"/>
@@ -1656,7 +1826,7 @@
       <c r="S49" s="1"/>
       <c r="T49" s="1"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="1"/>
@@ -1678,7 +1848,7 @@
       <c r="S50" s="1"/>
       <c r="T50" s="1"/>
     </row>
-    <row r="51">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="1"/>
@@ -1700,7 +1870,7 @@
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
     </row>
-    <row r="52">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="1"/>
@@ -1722,7 +1892,7 @@
       <c r="S52" s="1"/>
       <c r="T52" s="1"/>
     </row>
-    <row r="53">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="1"/>
@@ -1744,7 +1914,7 @@
       <c r="S53" s="1"/>
       <c r="T53" s="1"/>
     </row>
-    <row r="54">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="1"/>
@@ -1766,7 +1936,7 @@
       <c r="S54" s="1"/>
       <c r="T54" s="1"/>
     </row>
-    <row r="55">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="1"/>
@@ -1788,7 +1958,7 @@
       <c r="S55" s="1"/>
       <c r="T55" s="1"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="1"/>
@@ -1810,7 +1980,7 @@
       <c r="S56" s="1"/>
       <c r="T56" s="1"/>
     </row>
-    <row r="57">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="1"/>
@@ -1832,7 +2002,7 @@
       <c r="S57" s="1"/>
       <c r="T57" s="1"/>
     </row>
-    <row r="58">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="1"/>
@@ -1854,7 +2024,7 @@
       <c r="S58" s="1"/>
       <c r="T58" s="1"/>
     </row>
-    <row r="59">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="1"/>
@@ -1876,7 +2046,7 @@
       <c r="S59" s="1"/>
       <c r="T59" s="1"/>
     </row>
-    <row r="60">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="1"/>
@@ -1898,7 +2068,7 @@
       <c r="S60" s="1"/>
       <c r="T60" s="1"/>
     </row>
-    <row r="61">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="1"/>
@@ -1920,7 +2090,7 @@
       <c r="S61" s="1"/>
       <c r="T61" s="1"/>
     </row>
-    <row r="62">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="1"/>
@@ -1942,7 +2112,7 @@
       <c r="S62" s="1"/>
       <c r="T62" s="1"/>
     </row>
-    <row r="63">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="1"/>
@@ -1964,7 +2134,7 @@
       <c r="S63" s="1"/>
       <c r="T63" s="1"/>
     </row>
-    <row r="64">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="1"/>
@@ -1986,7 +2156,7 @@
       <c r="S64" s="1"/>
       <c r="T64" s="1"/>
     </row>
-    <row r="65">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="1"/>
@@ -2008,7 +2178,7 @@
       <c r="S65" s="1"/>
       <c r="T65" s="1"/>
     </row>
-    <row r="66">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="1"/>
@@ -2030,7 +2200,7 @@
       <c r="S66" s="1"/>
       <c r="T66" s="1"/>
     </row>
-    <row r="67">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="1"/>
@@ -2052,7 +2222,7 @@
       <c r="S67" s="1"/>
       <c r="T67" s="1"/>
     </row>
-    <row r="68">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="1"/>
@@ -2074,7 +2244,7 @@
       <c r="S68" s="1"/>
       <c r="T68" s="1"/>
     </row>
-    <row r="69">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="1"/>
@@ -2096,7 +2266,7 @@
       <c r="S69" s="1"/>
       <c r="T69" s="1"/>
     </row>
-    <row r="70">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="1"/>
@@ -2118,7 +2288,7 @@
       <c r="S70" s="1"/>
       <c r="T70" s="1"/>
     </row>
-    <row r="71">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="1"/>
@@ -2140,7 +2310,7 @@
       <c r="S71" s="1"/>
       <c r="T71" s="1"/>
     </row>
-    <row r="72">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="1"/>
@@ -2162,7 +2332,7 @@
       <c r="S72" s="1"/>
       <c r="T72" s="1"/>
     </row>
-    <row r="73">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="1"/>
@@ -2184,7 +2354,7 @@
       <c r="S73" s="1"/>
       <c r="T73" s="1"/>
     </row>
-    <row r="74">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="1"/>
@@ -2206,7 +2376,7 @@
       <c r="S74" s="1"/>
       <c r="T74" s="1"/>
     </row>
-    <row r="75">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="1"/>
@@ -2228,7 +2398,7 @@
       <c r="S75" s="1"/>
       <c r="T75" s="1"/>
     </row>
-    <row r="76">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="1"/>
@@ -2250,7 +2420,7 @@
       <c r="S76" s="1"/>
       <c r="T76" s="1"/>
     </row>
-    <row r="77">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="1"/>
@@ -2272,7 +2442,7 @@
       <c r="S77" s="1"/>
       <c r="T77" s="1"/>
     </row>
-    <row r="78">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="1"/>
@@ -2294,7 +2464,7 @@
       <c r="S78" s="1"/>
       <c r="T78" s="1"/>
     </row>
-    <row r="79">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="1"/>
@@ -2316,7 +2486,7 @@
       <c r="S79" s="1"/>
       <c r="T79" s="1"/>
     </row>
-    <row r="80">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="1"/>
@@ -2338,7 +2508,7 @@
       <c r="S80" s="1"/>
       <c r="T80" s="1"/>
     </row>
-    <row r="81">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="1"/>
@@ -2360,7 +2530,7 @@
       <c r="S81" s="1"/>
       <c r="T81" s="1"/>
     </row>
-    <row r="82">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="1"/>
@@ -2382,7 +2552,7 @@
       <c r="S82" s="1"/>
       <c r="T82" s="1"/>
     </row>
-    <row r="83">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="1"/>
@@ -2404,7 +2574,7 @@
       <c r="S83" s="1"/>
       <c r="T83" s="1"/>
     </row>
-    <row r="84">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="1"/>
@@ -2426,7 +2596,7 @@
       <c r="S84" s="1"/>
       <c r="T84" s="1"/>
     </row>
-    <row r="85">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="1"/>
@@ -2448,7 +2618,7 @@
       <c r="S85" s="1"/>
       <c r="T85" s="1"/>
     </row>
-    <row r="86">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="1"/>
@@ -2470,7 +2640,7 @@
       <c r="S86" s="1"/>
       <c r="T86" s="1"/>
     </row>
-    <row r="87">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="1"/>
@@ -2492,7 +2662,7 @@
       <c r="S87" s="1"/>
       <c r="T87" s="1"/>
     </row>
-    <row r="88">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="1"/>
@@ -2514,7 +2684,7 @@
       <c r="S88" s="1"/>
       <c r="T88" s="1"/>
     </row>
-    <row r="89">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="1"/>
@@ -2536,7 +2706,7 @@
       <c r="S89" s="1"/>
       <c r="T89" s="1"/>
     </row>
-    <row r="90">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="1"/>
@@ -2558,7 +2728,7 @@
       <c r="S90" s="1"/>
       <c r="T90" s="1"/>
     </row>
-    <row r="91">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="1"/>
@@ -2580,7 +2750,7 @@
       <c r="S91" s="1"/>
       <c r="T91" s="1"/>
     </row>
-    <row r="92">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="1"/>
@@ -2602,7 +2772,7 @@
       <c r="S92" s="1"/>
       <c r="T92" s="1"/>
     </row>
-    <row r="93">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="1"/>
@@ -2624,7 +2794,7 @@
       <c r="S93" s="1"/>
       <c r="T93" s="1"/>
     </row>
-    <row r="94">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="1"/>
@@ -2646,7 +2816,7 @@
       <c r="S94" s="1"/>
       <c r="T94" s="1"/>
     </row>
-    <row r="95">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="1"/>
@@ -2668,7 +2838,7 @@
       <c r="S95" s="1"/>
       <c r="T95" s="1"/>
     </row>
-    <row r="96">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="1"/>
@@ -2690,7 +2860,7 @@
       <c r="S96" s="1"/>
       <c r="T96" s="1"/>
     </row>
-    <row r="97">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="1"/>
@@ -2712,7 +2882,7 @@
       <c r="S97" s="1"/>
       <c r="T97" s="1"/>
     </row>
-    <row r="98">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="1"/>
@@ -2734,7 +2904,7 @@
       <c r="S98" s="1"/>
       <c r="T98" s="1"/>
     </row>
-    <row r="99">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="1"/>
@@ -2756,7 +2926,7 @@
       <c r="S99" s="1"/>
       <c r="T99" s="1"/>
     </row>
-    <row r="100">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="1"/>
@@ -2778,7 +2948,7 @@
       <c r="S100" s="1"/>
       <c r="T100" s="1"/>
     </row>
-    <row r="101">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="1"/>
@@ -2800,7 +2970,7 @@
       <c r="S101" s="1"/>
       <c r="T101" s="1"/>
     </row>
-    <row r="102">
+    <row r="102" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="1"/>
@@ -2822,7 +2992,7 @@
       <c r="S102" s="1"/>
       <c r="T102" s="1"/>
     </row>
-    <row r="103">
+    <row r="103" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="1"/>
@@ -2844,7 +3014,7 @@
       <c r="S103" s="1"/>
       <c r="T103" s="1"/>
     </row>
-    <row r="104">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="1"/>
@@ -2866,7 +3036,7 @@
       <c r="S104" s="1"/>
       <c r="T104" s="1"/>
     </row>
-    <row r="105">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="1"/>
@@ -2888,7 +3058,7 @@
       <c r="S105" s="1"/>
       <c r="T105" s="1"/>
     </row>
-    <row r="106">
+    <row r="106" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="1"/>
@@ -2910,7 +3080,7 @@
       <c r="S106" s="1"/>
       <c r="T106" s="1"/>
     </row>
-    <row r="107">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="1"/>
@@ -2932,7 +3102,7 @@
       <c r="S107" s="1"/>
       <c r="T107" s="1"/>
     </row>
-    <row r="108">
+    <row r="108" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="1"/>
@@ -2954,7 +3124,7 @@
       <c r="S108" s="1"/>
       <c r="T108" s="1"/>
     </row>
-    <row r="109">
+    <row r="109" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="1"/>
@@ -2976,7 +3146,7 @@
       <c r="S109" s="1"/>
       <c r="T109" s="1"/>
     </row>
-    <row r="110">
+    <row r="110" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="1"/>
@@ -2998,7 +3168,7 @@
       <c r="S110" s="1"/>
       <c r="T110" s="1"/>
     </row>
-    <row r="111">
+    <row r="111" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="1"/>
@@ -3020,7 +3190,7 @@
       <c r="S111" s="1"/>
       <c r="T111" s="1"/>
     </row>
-    <row r="112">
+    <row r="112" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="1"/>
@@ -3042,7 +3212,7 @@
       <c r="S112" s="1"/>
       <c r="T112" s="1"/>
     </row>
-    <row r="113">
+    <row r="113" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="1"/>
@@ -3064,7 +3234,7 @@
       <c r="S113" s="1"/>
       <c r="T113" s="1"/>
     </row>
-    <row r="114">
+    <row r="114" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="1"/>
@@ -3086,7 +3256,7 @@
       <c r="S114" s="1"/>
       <c r="T114" s="1"/>
     </row>
-    <row r="115">
+    <row r="115" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="1"/>
@@ -3108,7 +3278,7 @@
       <c r="S115" s="1"/>
       <c r="T115" s="1"/>
     </row>
-    <row r="116">
+    <row r="116" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="1"/>
@@ -3130,7 +3300,7 @@
       <c r="S116" s="1"/>
       <c r="T116" s="1"/>
     </row>
-    <row r="117">
+    <row r="117" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="1"/>
@@ -3152,7 +3322,7 @@
       <c r="S117" s="1"/>
       <c r="T117" s="1"/>
     </row>
-    <row r="118">
+    <row r="118" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="1"/>
@@ -3174,7 +3344,7 @@
       <c r="S118" s="1"/>
       <c r="T118" s="1"/>
     </row>
-    <row r="119">
+    <row r="119" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="1"/>
@@ -3196,7 +3366,7 @@
       <c r="S119" s="1"/>
       <c r="T119" s="1"/>
     </row>
-    <row r="120">
+    <row r="120" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="1"/>
@@ -3218,7 +3388,7 @@
       <c r="S120" s="1"/>
       <c r="T120" s="1"/>
     </row>
-    <row r="121">
+    <row r="121" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="1"/>
@@ -3240,7 +3410,7 @@
       <c r="S121" s="1"/>
       <c r="T121" s="1"/>
     </row>
-    <row r="122">
+    <row r="122" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="1"/>
@@ -3262,7 +3432,7 @@
       <c r="S122" s="1"/>
       <c r="T122" s="1"/>
     </row>
-    <row r="123">
+    <row r="123" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="1"/>
@@ -3284,7 +3454,7 @@
       <c r="S123" s="1"/>
       <c r="T123" s="1"/>
     </row>
-    <row r="124">
+    <row r="124" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="1"/>
@@ -3306,7 +3476,7 @@
       <c r="S124" s="1"/>
       <c r="T124" s="1"/>
     </row>
-    <row r="125">
+    <row r="125" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="1"/>
@@ -3328,7 +3498,7 @@
       <c r="S125" s="1"/>
       <c r="T125" s="1"/>
     </row>
-    <row r="126">
+    <row r="126" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="1"/>
@@ -3350,7 +3520,7 @@
       <c r="S126" s="1"/>
       <c r="T126" s="1"/>
     </row>
-    <row r="127">
+    <row r="127" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="1"/>
@@ -3372,7 +3542,7 @@
       <c r="S127" s="1"/>
       <c r="T127" s="1"/>
     </row>
-    <row r="128">
+    <row r="128" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="1"/>
@@ -3394,7 +3564,7 @@
       <c r="S128" s="1"/>
       <c r="T128" s="1"/>
     </row>
-    <row r="129">
+    <row r="129" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="1"/>
@@ -3416,7 +3586,7 @@
       <c r="S129" s="1"/>
       <c r="T129" s="1"/>
     </row>
-    <row r="130">
+    <row r="130" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="1"/>
@@ -3438,7 +3608,7 @@
       <c r="S130" s="1"/>
       <c r="T130" s="1"/>
     </row>
-    <row r="131">
+    <row r="131" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="1"/>
@@ -3460,7 +3630,7 @@
       <c r="S131" s="1"/>
       <c r="T131" s="1"/>
     </row>
-    <row r="132">
+    <row r="132" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="1"/>
@@ -3482,7 +3652,7 @@
       <c r="S132" s="1"/>
       <c r="T132" s="1"/>
     </row>
-    <row r="133">
+    <row r="133" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="1"/>
@@ -3504,7 +3674,7 @@
       <c r="S133" s="1"/>
       <c r="T133" s="1"/>
     </row>
-    <row r="134">
+    <row r="134" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="1"/>
@@ -3526,7 +3696,7 @@
       <c r="S134" s="1"/>
       <c r="T134" s="1"/>
     </row>
-    <row r="135">
+    <row r="135" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="1"/>
@@ -3548,7 +3718,7 @@
       <c r="S135" s="1"/>
       <c r="T135" s="1"/>
     </row>
-    <row r="136">
+    <row r="136" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="1"/>
@@ -3570,7 +3740,7 @@
       <c r="S136" s="1"/>
       <c r="T136" s="1"/>
     </row>
-    <row r="137">
+    <row r="137" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="1"/>
@@ -3592,7 +3762,7 @@
       <c r="S137" s="1"/>
       <c r="T137" s="1"/>
     </row>
-    <row r="138">
+    <row r="138" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="1"/>
@@ -3614,7 +3784,7 @@
       <c r="S138" s="1"/>
       <c r="T138" s="1"/>
     </row>
-    <row r="139">
+    <row r="139" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="1"/>
@@ -3636,7 +3806,7 @@
       <c r="S139" s="1"/>
       <c r="T139" s="1"/>
     </row>
-    <row r="140">
+    <row r="140" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="1"/>
@@ -3658,7 +3828,7 @@
       <c r="S140" s="1"/>
       <c r="T140" s="1"/>
     </row>
-    <row r="141">
+    <row r="141" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="1"/>
@@ -3680,7 +3850,7 @@
       <c r="S141" s="1"/>
       <c r="T141" s="1"/>
     </row>
-    <row r="142">
+    <row r="142" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="1"/>
@@ -3702,7 +3872,7 @@
       <c r="S142" s="1"/>
       <c r="T142" s="1"/>
     </row>
-    <row r="143">
+    <row r="143" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="1"/>
@@ -3724,7 +3894,7 @@
       <c r="S143" s="1"/>
       <c r="T143" s="1"/>
     </row>
-    <row r="144">
+    <row r="144" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="1"/>
@@ -3746,7 +3916,7 @@
       <c r="S144" s="1"/>
       <c r="T144" s="1"/>
     </row>
-    <row r="145">
+    <row r="145" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="1"/>
@@ -3768,7 +3938,7 @@
       <c r="S145" s="1"/>
       <c r="T145" s="1"/>
     </row>
-    <row r="146">
+    <row r="146" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="1"/>
@@ -3790,7 +3960,7 @@
       <c r="S146" s="1"/>
       <c r="T146" s="1"/>
     </row>
-    <row r="147">
+    <row r="147" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="1"/>
@@ -3812,7 +3982,7 @@
       <c r="S147" s="1"/>
       <c r="T147" s="1"/>
     </row>
-    <row r="148">
+    <row r="148" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="1"/>
@@ -3834,7 +4004,7 @@
       <c r="S148" s="1"/>
       <c r="T148" s="1"/>
     </row>
-    <row r="149">
+    <row r="149" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="1"/>
@@ -3856,7 +4026,7 @@
       <c r="S149" s="1"/>
       <c r="T149" s="1"/>
     </row>
-    <row r="150">
+    <row r="150" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="1"/>
@@ -3878,7 +4048,7 @@
       <c r="S150" s="1"/>
       <c r="T150" s="1"/>
     </row>
-    <row r="151">
+    <row r="151" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="1"/>
@@ -3900,7 +4070,7 @@
       <c r="S151" s="1"/>
       <c r="T151" s="1"/>
     </row>
-    <row r="152">
+    <row r="152" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="1"/>
@@ -3922,7 +4092,7 @@
       <c r="S152" s="1"/>
       <c r="T152" s="1"/>
     </row>
-    <row r="153">
+    <row r="153" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="1"/>
@@ -3944,7 +4114,7 @@
       <c r="S153" s="1"/>
       <c r="T153" s="1"/>
     </row>
-    <row r="154">
+    <row r="154" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="1"/>
@@ -3966,7 +4136,7 @@
       <c r="S154" s="1"/>
       <c r="T154" s="1"/>
     </row>
-    <row r="155">
+    <row r="155" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="1"/>
@@ -3988,7 +4158,7 @@
       <c r="S155" s="1"/>
       <c r="T155" s="1"/>
     </row>
-    <row r="156">
+    <row r="156" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="1"/>
@@ -4010,7 +4180,7 @@
       <c r="S156" s="1"/>
       <c r="T156" s="1"/>
     </row>
-    <row r="157">
+    <row r="157" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="1"/>
@@ -4032,7 +4202,7 @@
       <c r="S157" s="1"/>
       <c r="T157" s="1"/>
     </row>
-    <row r="158">
+    <row r="158" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="1"/>
@@ -4054,7 +4224,7 @@
       <c r="S158" s="1"/>
       <c r="T158" s="1"/>
     </row>
-    <row r="159">
+    <row r="159" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="1"/>
@@ -4076,7 +4246,7 @@
       <c r="S159" s="1"/>
       <c r="T159" s="1"/>
     </row>
-    <row r="160">
+    <row r="160" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="1"/>
@@ -4098,7 +4268,7 @@
       <c r="S160" s="1"/>
       <c r="T160" s="1"/>
     </row>
-    <row r="161">
+    <row r="161" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="1"/>
@@ -4120,7 +4290,7 @@
       <c r="S161" s="1"/>
       <c r="T161" s="1"/>
     </row>
-    <row r="162">
+    <row r="162" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="1"/>
@@ -4142,7 +4312,7 @@
       <c r="S162" s="1"/>
       <c r="T162" s="1"/>
     </row>
-    <row r="163">
+    <row r="163" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="1"/>
@@ -4164,7 +4334,7 @@
       <c r="S163" s="1"/>
       <c r="T163" s="1"/>
     </row>
-    <row r="164">
+    <row r="164" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="1"/>
@@ -4186,7 +4356,7 @@
       <c r="S164" s="1"/>
       <c r="T164" s="1"/>
     </row>
-    <row r="165">
+    <row r="165" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="1"/>
@@ -4208,7 +4378,7 @@
       <c r="S165" s="1"/>
       <c r="T165" s="1"/>
     </row>
-    <row r="166">
+    <row r="166" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="1"/>
@@ -4230,7 +4400,7 @@
       <c r="S166" s="1"/>
       <c r="T166" s="1"/>
     </row>
-    <row r="167">
+    <row r="167" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="1"/>
@@ -4252,7 +4422,7 @@
       <c r="S167" s="1"/>
       <c r="T167" s="1"/>
     </row>
-    <row r="168">
+    <row r="168" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="1"/>
@@ -4274,7 +4444,7 @@
       <c r="S168" s="1"/>
       <c r="T168" s="1"/>
     </row>
-    <row r="169">
+    <row r="169" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="1"/>
@@ -4296,7 +4466,7 @@
       <c r="S169" s="1"/>
       <c r="T169" s="1"/>
     </row>
-    <row r="170">
+    <row r="170" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="1"/>
@@ -4318,7 +4488,7 @@
       <c r="S170" s="1"/>
       <c r="T170" s="1"/>
     </row>
-    <row r="171">
+    <row r="171" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="1"/>
@@ -4340,7 +4510,7 @@
       <c r="S171" s="1"/>
       <c r="T171" s="1"/>
     </row>
-    <row r="172">
+    <row r="172" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="1"/>
@@ -4362,7 +4532,7 @@
       <c r="S172" s="1"/>
       <c r="T172" s="1"/>
     </row>
-    <row r="173">
+    <row r="173" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="1"/>
@@ -4384,7 +4554,7 @@
       <c r="S173" s="1"/>
       <c r="T173" s="1"/>
     </row>
-    <row r="174">
+    <row r="174" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="1"/>
@@ -4406,7 +4576,7 @@
       <c r="S174" s="1"/>
       <c r="T174" s="1"/>
     </row>
-    <row r="175">
+    <row r="175" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="1"/>
@@ -4428,7 +4598,7 @@
       <c r="S175" s="1"/>
       <c r="T175" s="1"/>
     </row>
-    <row r="176">
+    <row r="176" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="1"/>
@@ -4450,7 +4620,7 @@
       <c r="S176" s="1"/>
       <c r="T176" s="1"/>
     </row>
-    <row r="177">
+    <row r="177" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="1"/>
@@ -4472,7 +4642,7 @@
       <c r="S177" s="1"/>
       <c r="T177" s="1"/>
     </row>
-    <row r="178">
+    <row r="178" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="1"/>
@@ -4494,7 +4664,7 @@
       <c r="S178" s="1"/>
       <c r="T178" s="1"/>
     </row>
-    <row r="179">
+    <row r="179" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="1"/>
@@ -4516,7 +4686,7 @@
       <c r="S179" s="1"/>
       <c r="T179" s="1"/>
     </row>
-    <row r="180">
+    <row r="180" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="1"/>
@@ -4538,7 +4708,7 @@
       <c r="S180" s="1"/>
       <c r="T180" s="1"/>
     </row>
-    <row r="181">
+    <row r="181" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="1"/>
@@ -4560,7 +4730,7 @@
       <c r="S181" s="1"/>
       <c r="T181" s="1"/>
     </row>
-    <row r="182">
+    <row r="182" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="1"/>
@@ -4582,7 +4752,7 @@
       <c r="S182" s="1"/>
       <c r="T182" s="1"/>
     </row>
-    <row r="183">
+    <row r="183" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="1"/>
@@ -4604,7 +4774,7 @@
       <c r="S183" s="1"/>
       <c r="T183" s="1"/>
     </row>
-    <row r="184">
+    <row r="184" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="1"/>
@@ -4626,7 +4796,7 @@
       <c r="S184" s="1"/>
       <c r="T184" s="1"/>
     </row>
-    <row r="185">
+    <row r="185" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="1"/>
@@ -4648,7 +4818,7 @@
       <c r="S185" s="1"/>
       <c r="T185" s="1"/>
     </row>
-    <row r="186">
+    <row r="186" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="1"/>
@@ -4670,7 +4840,7 @@
       <c r="S186" s="1"/>
       <c r="T186" s="1"/>
     </row>
-    <row r="187">
+    <row r="187" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="1"/>
@@ -4692,7 +4862,7 @@
       <c r="S187" s="1"/>
       <c r="T187" s="1"/>
     </row>
-    <row r="188">
+    <row r="188" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="1"/>
@@ -4714,7 +4884,7 @@
       <c r="S188" s="1"/>
       <c r="T188" s="1"/>
     </row>
-    <row r="189">
+    <row r="189" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="1"/>
@@ -4736,7 +4906,7 @@
       <c r="S189" s="1"/>
       <c r="T189" s="1"/>
     </row>
-    <row r="190">
+    <row r="190" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="1"/>
@@ -4758,7 +4928,7 @@
       <c r="S190" s="1"/>
       <c r="T190" s="1"/>
     </row>
-    <row r="191">
+    <row r="191" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="1"/>
@@ -4780,7 +4950,7 @@
       <c r="S191" s="1"/>
       <c r="T191" s="1"/>
     </row>
-    <row r="192">
+    <row r="192" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="1"/>
@@ -4802,7 +4972,7 @@
       <c r="S192" s="1"/>
       <c r="T192" s="1"/>
     </row>
-    <row r="193">
+    <row r="193" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="1"/>
@@ -4824,7 +4994,7 @@
       <c r="S193" s="1"/>
       <c r="T193" s="1"/>
     </row>
-    <row r="194">
+    <row r="194" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="1"/>
@@ -4846,7 +5016,7 @@
       <c r="S194" s="1"/>
       <c r="T194" s="1"/>
     </row>
-    <row r="195">
+    <row r="195" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="1"/>
@@ -4868,7 +5038,7 @@
       <c r="S195" s="1"/>
       <c r="T195" s="1"/>
     </row>
-    <row r="196">
+    <row r="196" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="1"/>
@@ -4890,7 +5060,7 @@
       <c r="S196" s="1"/>
       <c r="T196" s="1"/>
     </row>
-    <row r="197">
+    <row r="197" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="1"/>
@@ -4912,7 +5082,7 @@
       <c r="S197" s="1"/>
       <c r="T197" s="1"/>
     </row>
-    <row r="198">
+    <row r="198" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="1"/>
@@ -4934,7 +5104,7 @@
       <c r="S198" s="1"/>
       <c r="T198" s="1"/>
     </row>
-    <row r="199">
+    <row r="199" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="1"/>
@@ -4956,7 +5126,7 @@
       <c r="S199" s="1"/>
       <c r="T199" s="1"/>
     </row>
-    <row r="200">
+    <row r="200" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="1"/>
@@ -4979,7 +5149,8 @@
       <c r="T200" s="1"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <picture r:id="rId1"/>
 </worksheet>
 </file>
--- a/许愿墙.xlsx
+++ b/许愿墙.xlsx
@@ -1,79 +1,185 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\86176\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AC883D0-2430-4806-9D09-53DDF522F237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="15800" windowWidth="28040" xWindow="4240" yWindow="640"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcMode="auto"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="35">
   <si>
-    <t xml:space="preserve">  </t>
+    <t>你想找什么样的工作？</t>
+  </si>
+  <si>
+    <t>现在的状态是怎样的？</t>
+  </si>
+  <si>
+    <t>AI攻城狮</t>
+  </si>
+  <si>
+    <t>已找到！</t>
+  </si>
+  <si>
+    <t>Java+AI</t>
+  </si>
+  <si>
+    <t>在找</t>
+  </si>
+  <si>
+    <t>AI agent开发</t>
+  </si>
+  <si>
+    <t>Java实习</t>
+  </si>
+  <si>
+    <t>还没开始找</t>
+  </si>
+  <si>
+    <t>系统架构师</t>
+  </si>
+  <si>
+    <t>Go</t>
+  </si>
+  <si>
+    <t>前端攻城狮</t>
+  </si>
+  <si>
+    <t>AI+游戏开发</t>
+  </si>
+  <si>
+    <t>C++实习</t>
+  </si>
+  <si>
+    <t>后端开发</t>
+  </si>
+  <si>
+    <t>正确的路上</t>
+  </si>
+  <si>
+    <t>Java后端开发</t>
+  </si>
+  <si>
+    <t>在找实习的路上</t>
+  </si>
+  <si>
+    <t>Java</t>
+  </si>
+  <si>
+    <t>找到了，但是通勤太远想跳槽</t>
+  </si>
+  <si>
+    <t>Frontend leader</t>
+  </si>
+  <si>
+    <t>找到了，但是没有work life balance</t>
+  </si>
+  <si>
+    <t>找到了，不满意</t>
+  </si>
+  <si>
+    <t>Java开发</t>
+  </si>
+  <si>
+    <t>再找</t>
+  </si>
+  <si>
+    <t>前端工程师</t>
+  </si>
+  <si>
+    <t>java开发</t>
+  </si>
+  <si>
+    <t>AI+前端工程师</t>
+  </si>
+  <si>
+    <t>C++开发</t>
+  </si>
+  <si>
+    <t>Go后端开发</t>
+  </si>
+  <si>
+    <t>AI+后端工程师</t>
+  </si>
+  <si>
+    <t>java开发工程师</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经找到</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>java</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在找</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9.75"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9.75"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none">
-        <fgColor/>
-        <bgColor/>
-      </patternFill>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor/>
-        <bgColor/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF34C724"/>
-        <bgColor/>
       </patternFill>
     </fill>
   </fills>
@@ -139,30 +245,30 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -175,7 +281,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -470,28 +576,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
-    <outlinePr summaryBelow="false" summaryRight="false"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:T200"/>
   <sheetViews>
-    <sheetView showGridLines="true" tabSelected="true" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="21"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="32"/>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="2" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="str">
-        <v>你想找什么样的工作？</v>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
       </c>
-      <c r="B1" s="3" t="str">
-        <v>现在的状态是怎样的？</v>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -512,12 +618,12 @@
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
     </row>
-    <row r="2">
-      <c r="A2" s="2" t="str">
-        <v>AI攻城狮</v>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
       </c>
-      <c r="B2" s="2" t="str">
-        <v>已找到！</v>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -538,12 +644,12 @@
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
     </row>
-    <row r="3">
-      <c r="A3" s="2" t="str">
-        <v>Java+AI</v>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
       </c>
-      <c r="B3" s="2" t="str">
-        <v>在找</v>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -564,12 +670,12 @@
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
     </row>
-    <row r="4">
-      <c r="A4" s="2" t="str">
-        <v>AI agent开发</v>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
       </c>
-      <c r="B4" s="2" t="str">
-        <v>在找</v>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -590,12 +696,12 @@
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
     </row>
-    <row r="5">
-      <c r="A5" s="2" t="str">
-        <v>Java实习</v>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
       </c>
-      <c r="B5" s="2" t="str">
-        <v>还没开始找</v>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -616,12 +722,12 @@
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
     </row>
-    <row r="6">
-      <c r="A6" s="2" t="str">
-        <v>系统架构师</v>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
       </c>
-      <c r="B6" s="2" t="str">
-        <v>在找</v>
+      <c r="B6" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -642,12 +748,12 @@
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
     </row>
-    <row r="7">
-      <c r="A7" s="2" t="str">
-        <v>Go</v>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>10</v>
       </c>
-      <c r="B7" s="2" t="str">
-        <v>在找</v>
+      <c r="B7" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -668,12 +774,12 @@
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
     </row>
-    <row r="8">
-      <c r="A8" s="2" t="str">
-        <v>前端攻城狮</v>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>11</v>
       </c>
-      <c r="B8" s="2" t="str">
-        <v>在找</v>
+      <c r="B8" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -694,12 +800,12 @@
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
     </row>
-    <row r="9">
-      <c r="A9" s="2" t="str">
-        <v>AI+游戏开发</v>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>12</v>
       </c>
-      <c r="B9" s="2" t="str">
-        <v>在找</v>
+      <c r="B9" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -720,12 +826,12 @@
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
     </row>
-    <row r="10">
-      <c r="A10" s="2" t="str">
-        <v>C++实习</v>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>13</v>
       </c>
-      <c r="B10" s="2" t="str">
-        <v>在找</v>
+      <c r="B10" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -746,12 +852,12 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
     </row>
-    <row r="11">
-      <c r="A11" s="2" t="str">
-        <v>后端开发</v>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>14</v>
       </c>
-      <c r="B11" s="2" t="str">
-        <v>正确的路上</v>
+      <c r="B11" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -772,12 +878,12 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row r="12">
-      <c r="A12" s="2" t="str">
-        <v>Java后端开发</v>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>16</v>
       </c>
-      <c r="B12" s="2" t="str">
-        <v>在找实习的路上</v>
+      <c r="B12" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -798,12 +904,12 @@
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
     </row>
-    <row r="13">
-      <c r="A13" s="2" t="str">
-        <v>Java</v>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>18</v>
       </c>
-      <c r="B13" s="2" t="str">
-        <v>找到了，但是通勤太远想跳槽</v>
+      <c r="B13" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -824,12 +930,12 @@
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
     </row>
-    <row r="14">
-      <c r="A14" s="2" t="str">
-        <v>Frontend leader</v>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>20</v>
       </c>
-      <c r="B14" s="2" t="str">
-        <v>找到了，但是没有work life balance</v>
+      <c r="B14" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -850,12 +956,12 @@
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
     </row>
-    <row r="15">
-      <c r="A15" s="4" t="str">
-        <v>Java</v>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>18</v>
       </c>
-      <c r="B15" s="2" t="str">
-        <v>找到了，不满意</v>
+      <c r="B15" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -876,12 +982,12 @@
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
     </row>
-    <row r="16">
-      <c r="A16" s="2" t="str">
-        <v>Java开发</v>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>23</v>
       </c>
-      <c r="B16" s="2" t="str">
-        <v>再找</v>
+      <c r="B16" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -902,12 +1008,12 @@
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
     </row>
-    <row r="17">
-      <c r="A17" s="2" t="str">
-        <v>前端工程师</v>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>25</v>
       </c>
-      <c r="B17" s="2" t="str">
-        <v>在找</v>
+      <c r="B17" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -928,12 +1034,12 @@
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
     </row>
-    <row r="18">
-      <c r="A18" s="2" t="str">
-        <v>java开发</v>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>26</v>
       </c>
-      <c r="B18" s="2" t="str">
-        <v>在找</v>
+      <c r="B18" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -954,12 +1060,12 @@
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
     </row>
-    <row r="19">
-      <c r="A19" s="2" t="str">
-        <v>AI+前端工程师</v>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>27</v>
       </c>
-      <c r="B19" s="2" t="str">
-        <v>还没开始找</v>
+      <c r="B19" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -980,12 +1086,12 @@
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
     </row>
-    <row r="20">
-      <c r="A20" s="2" t="str">
-        <v>C++开发</v>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>28</v>
       </c>
-      <c r="B20" s="2" t="str">
-        <v>在找</v>
+      <c r="B20" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -1006,12 +1112,12 @@
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
     </row>
-    <row r="21">
-      <c r="A21" s="2" t="str">
-        <v>Go</v>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>10</v>
       </c>
-      <c r="B21" s="2" t="str">
-        <v>在找</v>
+      <c r="B21" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -1032,12 +1138,12 @@
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
     </row>
-    <row r="22">
-      <c r="A22" s="2" t="str">
-        <v>Go后端开发</v>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>29</v>
       </c>
-      <c r="B22" s="2" t="str">
-        <v>在找</v>
+      <c r="B22" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1058,12 +1164,12 @@
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
     </row>
-    <row r="23">
-      <c r="A23" s="2" t="str">
-        <v>AI+后端工程师</v>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>30</v>
       </c>
-      <c r="B23" s="2" t="str">
-        <v>还没开始找</v>
+      <c r="B23" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1084,9 +1190,13 @@
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
     </row>
-    <row r="24">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -1106,9 +1216,13 @@
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
     </row>
-    <row r="25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -1128,7 +1242,7 @@
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="1"/>
@@ -1150,7 +1264,7 @@
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="1"/>
@@ -1172,7 +1286,7 @@
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="1"/>
@@ -1194,7 +1308,7 @@
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="1"/>
@@ -1216,7 +1330,7 @@
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="1"/>
@@ -1238,7 +1352,7 @@
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="1"/>
@@ -1260,7 +1374,7 @@
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="1"/>
@@ -1282,7 +1396,7 @@
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="1"/>
@@ -1304,7 +1418,7 @@
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="1"/>
@@ -1326,7 +1440,7 @@
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="1"/>
@@ -1348,7 +1462,7 @@
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="1"/>
@@ -1370,7 +1484,7 @@
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="1"/>
@@ -1392,7 +1506,7 @@
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="1"/>
@@ -1414,7 +1528,7 @@
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="1"/>
@@ -1436,7 +1550,7 @@
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="1"/>
@@ -1458,7 +1572,7 @@
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="1"/>
@@ -1480,7 +1594,7 @@
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="1"/>
@@ -1502,7 +1616,7 @@
       <c r="S42" s="1"/>
       <c r="T42" s="1"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="1"/>
@@ -1524,7 +1638,7 @@
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="1"/>
@@ -1546,7 +1660,7 @@
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="1"/>
@@ -1568,7 +1682,7 @@
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
     </row>
-    <row r="46">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="1"/>
@@ -1590,7 +1704,7 @@
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="1"/>
@@ -1612,7 +1726,7 @@
       <c r="S47" s="1"/>
       <c r="T47" s="1"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="1"/>
@@ -1634,7 +1748,7 @@
       <c r="S48" s="1"/>
       <c r="T48" s="1"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="1"/>
@@ -1656,7 +1770,7 @@
       <c r="S49" s="1"/>
       <c r="T49" s="1"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="1"/>
@@ -1678,7 +1792,7 @@
       <c r="S50" s="1"/>
       <c r="T50" s="1"/>
     </row>
-    <row r="51">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="1"/>
@@ -1700,7 +1814,7 @@
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
     </row>
-    <row r="52">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="1"/>
@@ -1722,7 +1836,7 @@
       <c r="S52" s="1"/>
       <c r="T52" s="1"/>
     </row>
-    <row r="53">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="1"/>
@@ -1744,7 +1858,7 @@
       <c r="S53" s="1"/>
       <c r="T53" s="1"/>
     </row>
-    <row r="54">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="1"/>
@@ -1766,7 +1880,7 @@
       <c r="S54" s="1"/>
       <c r="T54" s="1"/>
     </row>
-    <row r="55">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="1"/>
@@ -1788,7 +1902,7 @@
       <c r="S55" s="1"/>
       <c r="T55" s="1"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="1"/>
@@ -1810,7 +1924,7 @@
       <c r="S56" s="1"/>
       <c r="T56" s="1"/>
     </row>
-    <row r="57">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="1"/>
@@ -1832,7 +1946,7 @@
       <c r="S57" s="1"/>
       <c r="T57" s="1"/>
     </row>
-    <row r="58">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="1"/>
@@ -1854,7 +1968,7 @@
       <c r="S58" s="1"/>
       <c r="T58" s="1"/>
     </row>
-    <row r="59">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="1"/>
@@ -1876,7 +1990,7 @@
       <c r="S59" s="1"/>
       <c r="T59" s="1"/>
     </row>
-    <row r="60">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="1"/>
@@ -1898,7 +2012,7 @@
       <c r="S60" s="1"/>
       <c r="T60" s="1"/>
     </row>
-    <row r="61">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="1"/>
@@ -1920,7 +2034,7 @@
       <c r="S61" s="1"/>
       <c r="T61" s="1"/>
     </row>
-    <row r="62">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="1"/>
@@ -1942,7 +2056,7 @@
       <c r="S62" s="1"/>
       <c r="T62" s="1"/>
     </row>
-    <row r="63">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="1"/>
@@ -1964,7 +2078,7 @@
       <c r="S63" s="1"/>
       <c r="T63" s="1"/>
     </row>
-    <row r="64">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="1"/>
@@ -1986,7 +2100,7 @@
       <c r="S64" s="1"/>
       <c r="T64" s="1"/>
     </row>
-    <row r="65">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="1"/>
@@ -2008,7 +2122,7 @@
       <c r="S65" s="1"/>
       <c r="T65" s="1"/>
     </row>
-    <row r="66">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="1"/>
@@ -2030,7 +2144,7 @@
       <c r="S66" s="1"/>
       <c r="T66" s="1"/>
     </row>
-    <row r="67">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="1"/>
@@ -2052,7 +2166,7 @@
       <c r="S67" s="1"/>
       <c r="T67" s="1"/>
     </row>
-    <row r="68">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="1"/>
@@ -2074,7 +2188,7 @@
       <c r="S68" s="1"/>
       <c r="T68" s="1"/>
     </row>
-    <row r="69">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="1"/>
@@ -2096,7 +2210,7 @@
       <c r="S69" s="1"/>
       <c r="T69" s="1"/>
     </row>
-    <row r="70">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="1"/>
@@ -2118,7 +2232,7 @@
       <c r="S70" s="1"/>
       <c r="T70" s="1"/>
     </row>
-    <row r="71">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="1"/>
@@ -2140,7 +2254,7 @@
       <c r="S71" s="1"/>
       <c r="T71" s="1"/>
     </row>
-    <row r="72">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="1"/>
@@ -2162,7 +2276,7 @@
       <c r="S72" s="1"/>
       <c r="T72" s="1"/>
     </row>
-    <row r="73">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="1"/>
@@ -2184,7 +2298,7 @@
       <c r="S73" s="1"/>
       <c r="T73" s="1"/>
     </row>
-    <row r="74">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="1"/>
@@ -2206,7 +2320,7 @@
       <c r="S74" s="1"/>
       <c r="T74" s="1"/>
     </row>
-    <row r="75">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="1"/>
@@ -2228,7 +2342,7 @@
       <c r="S75" s="1"/>
       <c r="T75" s="1"/>
     </row>
-    <row r="76">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="1"/>
@@ -2250,7 +2364,7 @@
       <c r="S76" s="1"/>
       <c r="T76" s="1"/>
     </row>
-    <row r="77">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="1"/>
@@ -2272,7 +2386,7 @@
       <c r="S77" s="1"/>
       <c r="T77" s="1"/>
     </row>
-    <row r="78">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="1"/>
@@ -2294,7 +2408,7 @@
       <c r="S78" s="1"/>
       <c r="T78" s="1"/>
     </row>
-    <row r="79">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="1"/>
@@ -2316,7 +2430,7 @@
       <c r="S79" s="1"/>
       <c r="T79" s="1"/>
     </row>
-    <row r="80">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="1"/>
@@ -2338,7 +2452,7 @@
       <c r="S80" s="1"/>
       <c r="T80" s="1"/>
     </row>
-    <row r="81">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="1"/>
@@ -2360,7 +2474,7 @@
       <c r="S81" s="1"/>
       <c r="T81" s="1"/>
     </row>
-    <row r="82">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="1"/>
@@ -2382,7 +2496,7 @@
       <c r="S82" s="1"/>
       <c r="T82" s="1"/>
     </row>
-    <row r="83">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="1"/>
@@ -2404,7 +2518,7 @@
       <c r="S83" s="1"/>
       <c r="T83" s="1"/>
     </row>
-    <row r="84">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="1"/>
@@ -2426,7 +2540,7 @@
       <c r="S84" s="1"/>
       <c r="T84" s="1"/>
     </row>
-    <row r="85">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="1"/>
@@ -2448,7 +2562,7 @@
       <c r="S85" s="1"/>
       <c r="T85" s="1"/>
     </row>
-    <row r="86">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="1"/>
@@ -2470,7 +2584,7 @@
       <c r="S86" s="1"/>
       <c r="T86" s="1"/>
     </row>
-    <row r="87">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="1"/>
@@ -2492,7 +2606,7 @@
       <c r="S87" s="1"/>
       <c r="T87" s="1"/>
     </row>
-    <row r="88">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="1"/>
@@ -2514,7 +2628,7 @@
       <c r="S88" s="1"/>
       <c r="T88" s="1"/>
     </row>
-    <row r="89">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="1"/>
@@ -2536,7 +2650,7 @@
       <c r="S89" s="1"/>
       <c r="T89" s="1"/>
     </row>
-    <row r="90">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="1"/>
@@ -2558,7 +2672,7 @@
       <c r="S90" s="1"/>
       <c r="T90" s="1"/>
     </row>
-    <row r="91">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="1"/>
@@ -2580,7 +2694,7 @@
       <c r="S91" s="1"/>
       <c r="T91" s="1"/>
     </row>
-    <row r="92">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="1"/>
@@ -2602,7 +2716,7 @@
       <c r="S92" s="1"/>
       <c r="T92" s="1"/>
     </row>
-    <row r="93">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="1"/>
@@ -2624,7 +2738,7 @@
       <c r="S93" s="1"/>
       <c r="T93" s="1"/>
     </row>
-    <row r="94">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="1"/>
@@ -2646,7 +2760,7 @@
       <c r="S94" s="1"/>
       <c r="T94" s="1"/>
     </row>
-    <row r="95">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="1"/>
@@ -2668,7 +2782,7 @@
       <c r="S95" s="1"/>
       <c r="T95" s="1"/>
     </row>
-    <row r="96">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="1"/>
@@ -2690,7 +2804,7 @@
       <c r="S96" s="1"/>
       <c r="T96" s="1"/>
     </row>
-    <row r="97">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="1"/>
@@ -2712,7 +2826,7 @@
       <c r="S97" s="1"/>
       <c r="T97" s="1"/>
     </row>
-    <row r="98">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="1"/>
@@ -2734,7 +2848,7 @@
       <c r="S98" s="1"/>
       <c r="T98" s="1"/>
     </row>
-    <row r="99">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="1"/>
@@ -2756,7 +2870,7 @@
       <c r="S99" s="1"/>
       <c r="T99" s="1"/>
     </row>
-    <row r="100">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="1"/>
@@ -2778,7 +2892,7 @@
       <c r="S100" s="1"/>
       <c r="T100" s="1"/>
     </row>
-    <row r="101">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="1"/>
@@ -2800,7 +2914,7 @@
       <c r="S101" s="1"/>
       <c r="T101" s="1"/>
     </row>
-    <row r="102">
+    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="1"/>
@@ -2822,7 +2936,7 @@
       <c r="S102" s="1"/>
       <c r="T102" s="1"/>
     </row>
-    <row r="103">
+    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="1"/>
@@ -2844,7 +2958,7 @@
       <c r="S103" s="1"/>
       <c r="T103" s="1"/>
     </row>
-    <row r="104">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="1"/>
@@ -2866,7 +2980,7 @@
       <c r="S104" s="1"/>
       <c r="T104" s="1"/>
     </row>
-    <row r="105">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="1"/>
@@ -2888,7 +3002,7 @@
       <c r="S105" s="1"/>
       <c r="T105" s="1"/>
     </row>
-    <row r="106">
+    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="1"/>
@@ -2910,7 +3024,7 @@
       <c r="S106" s="1"/>
       <c r="T106" s="1"/>
     </row>
-    <row r="107">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="1"/>
@@ -2932,7 +3046,7 @@
       <c r="S107" s="1"/>
       <c r="T107" s="1"/>
     </row>
-    <row r="108">
+    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="1"/>
@@ -2954,7 +3068,7 @@
       <c r="S108" s="1"/>
       <c r="T108" s="1"/>
     </row>
-    <row r="109">
+    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="1"/>
@@ -2976,7 +3090,7 @@
       <c r="S109" s="1"/>
       <c r="T109" s="1"/>
     </row>
-    <row r="110">
+    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="1"/>
@@ -2998,7 +3112,7 @@
       <c r="S110" s="1"/>
       <c r="T110" s="1"/>
     </row>
-    <row r="111">
+    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="1"/>
@@ -3020,7 +3134,7 @@
       <c r="S111" s="1"/>
       <c r="T111" s="1"/>
     </row>
-    <row r="112">
+    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="1"/>
@@ -3042,7 +3156,7 @@
       <c r="S112" s="1"/>
       <c r="T112" s="1"/>
     </row>
-    <row r="113">
+    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="1"/>
@@ -3064,7 +3178,7 @@
       <c r="S113" s="1"/>
       <c r="T113" s="1"/>
     </row>
-    <row r="114">
+    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="1"/>
@@ -3086,7 +3200,7 @@
       <c r="S114" s="1"/>
       <c r="T114" s="1"/>
     </row>
-    <row r="115">
+    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="1"/>
@@ -3108,7 +3222,7 @@
       <c r="S115" s="1"/>
       <c r="T115" s="1"/>
     </row>
-    <row r="116">
+    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="1"/>
@@ -3130,7 +3244,7 @@
       <c r="S116" s="1"/>
       <c r="T116" s="1"/>
     </row>
-    <row r="117">
+    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="1"/>
@@ -3152,7 +3266,7 @@
       <c r="S117" s="1"/>
       <c r="T117" s="1"/>
     </row>
-    <row r="118">
+    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="1"/>
@@ -3174,7 +3288,7 @@
       <c r="S118" s="1"/>
       <c r="T118" s="1"/>
     </row>
-    <row r="119">
+    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="1"/>
@@ -3196,7 +3310,7 @@
       <c r="S119" s="1"/>
       <c r="T119" s="1"/>
     </row>
-    <row r="120">
+    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="1"/>
@@ -3218,7 +3332,7 @@
       <c r="S120" s="1"/>
       <c r="T120" s="1"/>
     </row>
-    <row r="121">
+    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="1"/>
@@ -3240,7 +3354,7 @@
       <c r="S121" s="1"/>
       <c r="T121" s="1"/>
     </row>
-    <row r="122">
+    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="1"/>
@@ -3262,7 +3376,7 @@
       <c r="S122" s="1"/>
       <c r="T122" s="1"/>
     </row>
-    <row r="123">
+    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="1"/>
@@ -3284,7 +3398,7 @@
       <c r="S123" s="1"/>
       <c r="T123" s="1"/>
     </row>
-    <row r="124">
+    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="1"/>
@@ -3306,7 +3420,7 @@
       <c r="S124" s="1"/>
       <c r="T124" s="1"/>
     </row>
-    <row r="125">
+    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="1"/>
@@ -3328,7 +3442,7 @@
       <c r="S125" s="1"/>
       <c r="T125" s="1"/>
     </row>
-    <row r="126">
+    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="1"/>
@@ -3350,7 +3464,7 @@
       <c r="S126" s="1"/>
       <c r="T126" s="1"/>
     </row>
-    <row r="127">
+    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="1"/>
@@ -3372,7 +3486,7 @@
       <c r="S127" s="1"/>
       <c r="T127" s="1"/>
     </row>
-    <row r="128">
+    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="1"/>
@@ -3394,7 +3508,7 @@
       <c r="S128" s="1"/>
       <c r="T128" s="1"/>
     </row>
-    <row r="129">
+    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="1"/>
@@ -3416,7 +3530,7 @@
       <c r="S129" s="1"/>
       <c r="T129" s="1"/>
     </row>
-    <row r="130">
+    <row r="130" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="1"/>
@@ -3438,7 +3552,7 @@
       <c r="S130" s="1"/>
       <c r="T130" s="1"/>
     </row>
-    <row r="131">
+    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="1"/>
@@ -3460,7 +3574,7 @@
       <c r="S131" s="1"/>
       <c r="T131" s="1"/>
     </row>
-    <row r="132">
+    <row r="132" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="1"/>
@@ -3482,7 +3596,7 @@
       <c r="S132" s="1"/>
       <c r="T132" s="1"/>
     </row>
-    <row r="133">
+    <row r="133" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="1"/>
@@ -3504,7 +3618,7 @@
       <c r="S133" s="1"/>
       <c r="T133" s="1"/>
     </row>
-    <row r="134">
+    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="1"/>
@@ -3526,7 +3640,7 @@
       <c r="S134" s="1"/>
       <c r="T134" s="1"/>
     </row>
-    <row r="135">
+    <row r="135" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="1"/>
@@ -3548,7 +3662,7 @@
       <c r="S135" s="1"/>
       <c r="T135" s="1"/>
     </row>
-    <row r="136">
+    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="1"/>
@@ -3570,7 +3684,7 @@
       <c r="S136" s="1"/>
       <c r="T136" s="1"/>
     </row>
-    <row r="137">
+    <row r="137" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="1"/>
@@ -3592,7 +3706,7 @@
       <c r="S137" s="1"/>
       <c r="T137" s="1"/>
     </row>
-    <row r="138">
+    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="1"/>
@@ -3614,7 +3728,7 @@
       <c r="S138" s="1"/>
       <c r="T138" s="1"/>
     </row>
-    <row r="139">
+    <row r="139" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="1"/>
@@ -3636,7 +3750,7 @@
       <c r="S139" s="1"/>
       <c r="T139" s="1"/>
     </row>
-    <row r="140">
+    <row r="140" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="1"/>
@@ -3658,7 +3772,7 @@
       <c r="S140" s="1"/>
       <c r="T140" s="1"/>
     </row>
-    <row r="141">
+    <row r="141" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="1"/>
@@ -3680,7 +3794,7 @@
       <c r="S141" s="1"/>
       <c r="T141" s="1"/>
     </row>
-    <row r="142">
+    <row r="142" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="1"/>
@@ -3702,7 +3816,7 @@
       <c r="S142" s="1"/>
       <c r="T142" s="1"/>
     </row>
-    <row r="143">
+    <row r="143" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="1"/>
@@ -3724,7 +3838,7 @@
       <c r="S143" s="1"/>
       <c r="T143" s="1"/>
     </row>
-    <row r="144">
+    <row r="144" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="1"/>
@@ -3746,7 +3860,7 @@
       <c r="S144" s="1"/>
       <c r="T144" s="1"/>
     </row>
-    <row r="145">
+    <row r="145" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="1"/>
@@ -3768,7 +3882,7 @@
       <c r="S145" s="1"/>
       <c r="T145" s="1"/>
     </row>
-    <row r="146">
+    <row r="146" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="1"/>
@@ -3790,7 +3904,7 @@
       <c r="S146" s="1"/>
       <c r="T146" s="1"/>
     </row>
-    <row r="147">
+    <row r="147" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="1"/>
@@ -3812,7 +3926,7 @@
       <c r="S147" s="1"/>
       <c r="T147" s="1"/>
     </row>
-    <row r="148">
+    <row r="148" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="1"/>
@@ -3834,7 +3948,7 @@
       <c r="S148" s="1"/>
       <c r="T148" s="1"/>
     </row>
-    <row r="149">
+    <row r="149" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="1"/>
@@ -3856,7 +3970,7 @@
       <c r="S149" s="1"/>
       <c r="T149" s="1"/>
     </row>
-    <row r="150">
+    <row r="150" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="1"/>
@@ -3878,7 +3992,7 @@
       <c r="S150" s="1"/>
       <c r="T150" s="1"/>
     </row>
-    <row r="151">
+    <row r="151" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="1"/>
@@ -3900,7 +4014,7 @@
       <c r="S151" s="1"/>
       <c r="T151" s="1"/>
     </row>
-    <row r="152">
+    <row r="152" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="1"/>
@@ -3922,7 +4036,7 @@
       <c r="S152" s="1"/>
       <c r="T152" s="1"/>
     </row>
-    <row r="153">
+    <row r="153" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="1"/>
@@ -3944,7 +4058,7 @@
       <c r="S153" s="1"/>
       <c r="T153" s="1"/>
     </row>
-    <row r="154">
+    <row r="154" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="1"/>
@@ -3966,7 +4080,7 @@
       <c r="S154" s="1"/>
       <c r="T154" s="1"/>
     </row>
-    <row r="155">
+    <row r="155" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="1"/>
@@ -3988,7 +4102,7 @@
       <c r="S155" s="1"/>
       <c r="T155" s="1"/>
     </row>
-    <row r="156">
+    <row r="156" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="1"/>
@@ -4010,7 +4124,7 @@
       <c r="S156" s="1"/>
       <c r="T156" s="1"/>
     </row>
-    <row r="157">
+    <row r="157" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="1"/>
@@ -4032,7 +4146,7 @@
       <c r="S157" s="1"/>
       <c r="T157" s="1"/>
     </row>
-    <row r="158">
+    <row r="158" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="1"/>
@@ -4054,7 +4168,7 @@
       <c r="S158" s="1"/>
       <c r="T158" s="1"/>
     </row>
-    <row r="159">
+    <row r="159" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="1"/>
@@ -4076,7 +4190,7 @@
       <c r="S159" s="1"/>
       <c r="T159" s="1"/>
     </row>
-    <row r="160">
+    <row r="160" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="1"/>
@@ -4098,7 +4212,7 @@
       <c r="S160" s="1"/>
       <c r="T160" s="1"/>
     </row>
-    <row r="161">
+    <row r="161" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="1"/>
@@ -4120,7 +4234,7 @@
       <c r="S161" s="1"/>
       <c r="T161" s="1"/>
     </row>
-    <row r="162">
+    <row r="162" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="1"/>
@@ -4142,7 +4256,7 @@
       <c r="S162" s="1"/>
       <c r="T162" s="1"/>
     </row>
-    <row r="163">
+    <row r="163" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="1"/>
@@ -4164,7 +4278,7 @@
       <c r="S163" s="1"/>
       <c r="T163" s="1"/>
     </row>
-    <row r="164">
+    <row r="164" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="1"/>
@@ -4186,7 +4300,7 @@
       <c r="S164" s="1"/>
       <c r="T164" s="1"/>
     </row>
-    <row r="165">
+    <row r="165" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="1"/>
@@ -4208,7 +4322,7 @@
       <c r="S165" s="1"/>
       <c r="T165" s="1"/>
     </row>
-    <row r="166">
+    <row r="166" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="1"/>
@@ -4230,7 +4344,7 @@
       <c r="S166" s="1"/>
       <c r="T166" s="1"/>
     </row>
-    <row r="167">
+    <row r="167" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="1"/>
@@ -4252,7 +4366,7 @@
       <c r="S167" s="1"/>
       <c r="T167" s="1"/>
     </row>
-    <row r="168">
+    <row r="168" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="1"/>
@@ -4274,7 +4388,7 @@
       <c r="S168" s="1"/>
       <c r="T168" s="1"/>
     </row>
-    <row r="169">
+    <row r="169" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="1"/>
@@ -4296,7 +4410,7 @@
       <c r="S169" s="1"/>
       <c r="T169" s="1"/>
     </row>
-    <row r="170">
+    <row r="170" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="1"/>
@@ -4318,7 +4432,7 @@
       <c r="S170" s="1"/>
       <c r="T170" s="1"/>
     </row>
-    <row r="171">
+    <row r="171" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="1"/>
@@ -4340,7 +4454,7 @@
       <c r="S171" s="1"/>
       <c r="T171" s="1"/>
     </row>
-    <row r="172">
+    <row r="172" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="1"/>
@@ -4362,7 +4476,7 @@
       <c r="S172" s="1"/>
       <c r="T172" s="1"/>
     </row>
-    <row r="173">
+    <row r="173" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="1"/>
@@ -4384,7 +4498,7 @@
       <c r="S173" s="1"/>
       <c r="T173" s="1"/>
     </row>
-    <row r="174">
+    <row r="174" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="1"/>
@@ -4406,7 +4520,7 @@
       <c r="S174" s="1"/>
       <c r="T174" s="1"/>
     </row>
-    <row r="175">
+    <row r="175" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="1"/>
@@ -4428,7 +4542,7 @@
       <c r="S175" s="1"/>
       <c r="T175" s="1"/>
     </row>
-    <row r="176">
+    <row r="176" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="1"/>
@@ -4450,7 +4564,7 @@
       <c r="S176" s="1"/>
       <c r="T176" s="1"/>
     </row>
-    <row r="177">
+    <row r="177" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="1"/>
@@ -4472,7 +4586,7 @@
       <c r="S177" s="1"/>
       <c r="T177" s="1"/>
     </row>
-    <row r="178">
+    <row r="178" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="1"/>
@@ -4494,7 +4608,7 @@
       <c r="S178" s="1"/>
       <c r="T178" s="1"/>
     </row>
-    <row r="179">
+    <row r="179" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="1"/>
@@ -4516,7 +4630,7 @@
       <c r="S179" s="1"/>
       <c r="T179" s="1"/>
     </row>
-    <row r="180">
+    <row r="180" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="1"/>
@@ -4538,7 +4652,7 @@
       <c r="S180" s="1"/>
       <c r="T180" s="1"/>
     </row>
-    <row r="181">
+    <row r="181" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="1"/>
@@ -4560,7 +4674,7 @@
       <c r="S181" s="1"/>
       <c r="T181" s="1"/>
     </row>
-    <row r="182">
+    <row r="182" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="1"/>
@@ -4582,7 +4696,7 @@
       <c r="S182" s="1"/>
       <c r="T182" s="1"/>
     </row>
-    <row r="183">
+    <row r="183" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="1"/>
@@ -4604,7 +4718,7 @@
       <c r="S183" s="1"/>
       <c r="T183" s="1"/>
     </row>
-    <row r="184">
+    <row r="184" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="1"/>
@@ -4626,7 +4740,7 @@
       <c r="S184" s="1"/>
       <c r="T184" s="1"/>
     </row>
-    <row r="185">
+    <row r="185" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="1"/>
@@ -4648,7 +4762,7 @@
       <c r="S185" s="1"/>
       <c r="T185" s="1"/>
     </row>
-    <row r="186">
+    <row r="186" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="1"/>
@@ -4670,7 +4784,7 @@
       <c r="S186" s="1"/>
       <c r="T186" s="1"/>
     </row>
-    <row r="187">
+    <row r="187" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="1"/>
@@ -4692,7 +4806,7 @@
       <c r="S187" s="1"/>
       <c r="T187" s="1"/>
     </row>
-    <row r="188">
+    <row r="188" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="1"/>
@@ -4714,7 +4828,7 @@
       <c r="S188" s="1"/>
       <c r="T188" s="1"/>
     </row>
-    <row r="189">
+    <row r="189" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="1"/>
@@ -4736,7 +4850,7 @@
       <c r="S189" s="1"/>
       <c r="T189" s="1"/>
     </row>
-    <row r="190">
+    <row r="190" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="1"/>
@@ -4758,7 +4872,7 @@
       <c r="S190" s="1"/>
       <c r="T190" s="1"/>
     </row>
-    <row r="191">
+    <row r="191" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="1"/>
@@ -4780,7 +4894,7 @@
       <c r="S191" s="1"/>
       <c r="T191" s="1"/>
     </row>
-    <row r="192">
+    <row r="192" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="1"/>
@@ -4802,7 +4916,7 @@
       <c r="S192" s="1"/>
       <c r="T192" s="1"/>
     </row>
-    <row r="193">
+    <row r="193" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="1"/>
@@ -4824,7 +4938,7 @@
       <c r="S193" s="1"/>
       <c r="T193" s="1"/>
     </row>
-    <row r="194">
+    <row r="194" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="1"/>
@@ -4846,7 +4960,7 @@
       <c r="S194" s="1"/>
       <c r="T194" s="1"/>
     </row>
-    <row r="195">
+    <row r="195" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="1"/>
@@ -4868,7 +4982,7 @@
       <c r="S195" s="1"/>
       <c r="T195" s="1"/>
     </row>
-    <row r="196">
+    <row r="196" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="1"/>
@@ -4890,7 +5004,7 @@
       <c r="S196" s="1"/>
       <c r="T196" s="1"/>
     </row>
-    <row r="197">
+    <row r="197" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="1"/>
@@ -4912,7 +5026,7 @@
       <c r="S197" s="1"/>
       <c r="T197" s="1"/>
     </row>
-    <row r="198">
+    <row r="198" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="1"/>
@@ -4934,7 +5048,7 @@
       <c r="S198" s="1"/>
       <c r="T198" s="1"/>
     </row>
-    <row r="199">
+    <row r="199" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="1"/>
@@ -4956,7 +5070,7 @@
       <c r="S199" s="1"/>
       <c r="T199" s="1"/>
     </row>
-    <row r="200">
+    <row r="200" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="1"/>
@@ -4979,7 +5093,8 @@
       <c r="T200" s="1"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <picture r:id="rId1"/>
 </worksheet>
 </file>
--- a/许愿墙.xlsx
+++ b/许愿墙.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\get_jobs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E10E9C9-FAF9-4AA0-A9AB-C9A3780DC970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{636CEF2B-2F51-4DD2-8840-CE9D41B4CAD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5985" yWindow="2910" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11230" yWindow="880" windowWidth="10280" windowHeight="14130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="34">
   <si>
     <t>你想找什么样的工作？</t>
   </si>
@@ -120,11 +120,14 @@
     <t>AI+后端工程师</t>
   </si>
   <si>
-    <t>java开发工程师</t>
+    <t>linux运维</t>
+  </si>
+  <si>
+    <t>java实习</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>已经找到</t>
+    <t>在犹豫城市选择</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -249,10 +252,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -261,74 +264,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -348,7 +283,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CAEACE"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -643,20 +578,20 @@
   <dimension ref="A1:T200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1"/>
@@ -678,7 +613,7 @@
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -704,7 +639,7 @@
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -730,7 +665,7 @@
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -756,7 +691,7 @@
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -782,7 +717,7 @@
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -808,7 +743,7 @@
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -834,7 +769,7 @@
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -860,7 +795,7 @@
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
@@ -886,7 +821,7 @@
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
@@ -912,7 +847,7 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
@@ -938,7 +873,7 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -964,7 +899,7 @@
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>18</v>
       </c>
@@ -990,7 +925,7 @@
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
@@ -1016,8 +951,8 @@
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -1042,7 +977,7 @@
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
@@ -1068,7 +1003,7 @@
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>25</v>
       </c>
@@ -1094,7 +1029,7 @@
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>26</v>
       </c>
@@ -1120,7 +1055,7 @@
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>27</v>
       </c>
@@ -1146,7 +1081,7 @@
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>28</v>
       </c>
@@ -1172,7 +1107,7 @@
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>10</v>
       </c>
@@ -1198,7 +1133,7 @@
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>29</v>
       </c>
@@ -1224,7 +1159,7 @@
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>30</v>
       </c>
@@ -1250,12 +1185,12 @@
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1276,9 +1211,13 @@
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -1298,9 +1237,13 @@
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -1320,9 +1263,13 @@
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -1342,9 +1289,13 @@
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -1364,7 +1315,7 @@
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="1"/>
@@ -1386,7 +1337,7 @@
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="1"/>
@@ -1408,7 +1359,7 @@
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="1"/>
@@ -1430,7 +1381,7 @@
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="1"/>
@@ -1452,7 +1403,7 @@
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="1"/>
@@ -1474,7 +1425,7 @@
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="1"/>
@@ -1496,7 +1447,7 @@
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="1"/>
@@ -1518,7 +1469,7 @@
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="1"/>
@@ -1540,7 +1491,7 @@
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="1"/>
@@ -1562,7 +1513,7 @@
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="1"/>
@@ -1584,7 +1535,7 @@
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="1"/>
@@ -1606,7 +1557,7 @@
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="1"/>
@@ -1628,7 +1579,7 @@
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="1"/>
@@ -1650,7 +1601,7 @@
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="1"/>
@@ -1672,7 +1623,7 @@
       <c r="S42" s="1"/>
       <c r="T42" s="1"/>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="1"/>
@@ -1694,7 +1645,7 @@
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="1"/>
@@ -1716,7 +1667,7 @@
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="1"/>
@@ -1738,7 +1689,7 @@
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="1"/>
@@ -1760,7 +1711,7 @@
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="1"/>
@@ -1782,7 +1733,7 @@
       <c r="S47" s="1"/>
       <c r="T47" s="1"/>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="1"/>
@@ -1804,7 +1755,7 @@
       <c r="S48" s="1"/>
       <c r="T48" s="1"/>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="1"/>
@@ -1826,7 +1777,7 @@
       <c r="S49" s="1"/>
       <c r="T49" s="1"/>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="1"/>
@@ -1848,7 +1799,7 @@
       <c r="S50" s="1"/>
       <c r="T50" s="1"/>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="1"/>
@@ -1870,7 +1821,7 @@
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="1"/>
@@ -1892,7 +1843,7 @@
       <c r="S52" s="1"/>
       <c r="T52" s="1"/>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="1"/>
@@ -1914,7 +1865,7 @@
       <c r="S53" s="1"/>
       <c r="T53" s="1"/>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="1"/>
@@ -1936,7 +1887,7 @@
       <c r="S54" s="1"/>
       <c r="T54" s="1"/>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="1"/>
@@ -1958,7 +1909,7 @@
       <c r="S55" s="1"/>
       <c r="T55" s="1"/>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="1"/>
@@ -1980,7 +1931,7 @@
       <c r="S56" s="1"/>
       <c r="T56" s="1"/>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="1"/>
@@ -2002,7 +1953,7 @@
       <c r="S57" s="1"/>
       <c r="T57" s="1"/>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="1"/>
@@ -2024,7 +1975,7 @@
       <c r="S58" s="1"/>
       <c r="T58" s="1"/>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="1"/>
@@ -2046,7 +1997,7 @@
       <c r="S59" s="1"/>
       <c r="T59" s="1"/>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="1"/>
@@ -2068,7 +2019,7 @@
       <c r="S60" s="1"/>
       <c r="T60" s="1"/>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="1"/>
@@ -2090,7 +2041,7 @@
       <c r="S61" s="1"/>
       <c r="T61" s="1"/>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="1"/>
@@ -2112,7 +2063,7 @@
       <c r="S62" s="1"/>
       <c r="T62" s="1"/>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="1"/>
@@ -2134,7 +2085,7 @@
       <c r="S63" s="1"/>
       <c r="T63" s="1"/>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="1"/>
@@ -2156,7 +2107,7 @@
       <c r="S64" s="1"/>
       <c r="T64" s="1"/>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="1"/>
@@ -2178,7 +2129,7 @@
       <c r="S65" s="1"/>
       <c r="T65" s="1"/>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="1"/>
@@ -2200,7 +2151,7 @@
       <c r="S66" s="1"/>
       <c r="T66" s="1"/>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="1"/>
@@ -2222,7 +2173,7 @@
       <c r="S67" s="1"/>
       <c r="T67" s="1"/>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="1"/>
@@ -2244,7 +2195,7 @@
       <c r="S68" s="1"/>
       <c r="T68" s="1"/>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="1"/>
@@ -2266,7 +2217,7 @@
       <c r="S69" s="1"/>
       <c r="T69" s="1"/>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="1"/>
@@ -2288,7 +2239,7 @@
       <c r="S70" s="1"/>
       <c r="T70" s="1"/>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="1"/>
@@ -2310,7 +2261,7 @@
       <c r="S71" s="1"/>
       <c r="T71" s="1"/>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="1"/>
@@ -2332,7 +2283,7 @@
       <c r="S72" s="1"/>
       <c r="T72" s="1"/>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="1"/>
@@ -2354,7 +2305,7 @@
       <c r="S73" s="1"/>
       <c r="T73" s="1"/>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="1"/>
@@ -2376,7 +2327,7 @@
       <c r="S74" s="1"/>
       <c r="T74" s="1"/>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="1"/>
@@ -2398,7 +2349,7 @@
       <c r="S75" s="1"/>
       <c r="T75" s="1"/>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="1"/>
@@ -2420,7 +2371,7 @@
       <c r="S76" s="1"/>
       <c r="T76" s="1"/>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="1"/>
@@ -2442,7 +2393,7 @@
       <c r="S77" s="1"/>
       <c r="T77" s="1"/>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="1"/>
@@ -2464,7 +2415,7 @@
       <c r="S78" s="1"/>
       <c r="T78" s="1"/>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="1"/>
@@ -2486,7 +2437,7 @@
       <c r="S79" s="1"/>
       <c r="T79" s="1"/>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="1"/>
@@ -2508,7 +2459,7 @@
       <c r="S80" s="1"/>
       <c r="T80" s="1"/>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="1"/>
@@ -2530,7 +2481,7 @@
       <c r="S81" s="1"/>
       <c r="T81" s="1"/>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="1"/>
@@ -2552,7 +2503,7 @@
       <c r="S82" s="1"/>
       <c r="T82" s="1"/>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="1"/>
@@ -2574,7 +2525,7 @@
       <c r="S83" s="1"/>
       <c r="T83" s="1"/>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="1"/>
@@ -2596,7 +2547,7 @@
       <c r="S84" s="1"/>
       <c r="T84" s="1"/>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="1"/>
@@ -2618,7 +2569,7 @@
       <c r="S85" s="1"/>
       <c r="T85" s="1"/>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="1"/>
@@ -2640,7 +2591,7 @@
       <c r="S86" s="1"/>
       <c r="T86" s="1"/>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="1"/>
@@ -2662,7 +2613,7 @@
       <c r="S87" s="1"/>
       <c r="T87" s="1"/>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="1"/>
@@ -2684,7 +2635,7 @@
       <c r="S88" s="1"/>
       <c r="T88" s="1"/>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="1"/>
@@ -2706,7 +2657,7 @@
       <c r="S89" s="1"/>
       <c r="T89" s="1"/>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="1"/>
@@ -2728,7 +2679,7 @@
       <c r="S90" s="1"/>
       <c r="T90" s="1"/>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="1"/>
@@ -2750,7 +2701,7 @@
       <c r="S91" s="1"/>
       <c r="T91" s="1"/>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="1"/>
@@ -2772,7 +2723,7 @@
       <c r="S92" s="1"/>
       <c r="T92" s="1"/>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="1"/>
@@ -2794,7 +2745,7 @@
       <c r="S93" s="1"/>
       <c r="T93" s="1"/>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="1"/>
@@ -2816,7 +2767,7 @@
       <c r="S94" s="1"/>
       <c r="T94" s="1"/>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="1"/>
@@ -2838,7 +2789,7 @@
       <c r="S95" s="1"/>
       <c r="T95" s="1"/>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="1"/>
@@ -2860,7 +2811,7 @@
       <c r="S96" s="1"/>
       <c r="T96" s="1"/>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="1"/>
@@ -2882,7 +2833,7 @@
       <c r="S97" s="1"/>
       <c r="T97" s="1"/>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="1"/>
@@ -2904,7 +2855,7 @@
       <c r="S98" s="1"/>
       <c r="T98" s="1"/>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="1"/>
@@ -2926,7 +2877,7 @@
       <c r="S99" s="1"/>
       <c r="T99" s="1"/>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="1"/>
@@ -2948,7 +2899,7 @@
       <c r="S100" s="1"/>
       <c r="T100" s="1"/>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="1"/>
@@ -2970,7 +2921,7 @@
       <c r="S101" s="1"/>
       <c r="T101" s="1"/>
     </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="1"/>
@@ -2992,7 +2943,7 @@
       <c r="S102" s="1"/>
       <c r="T102" s="1"/>
     </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="1"/>
@@ -3014,7 +2965,7 @@
       <c r="S103" s="1"/>
       <c r="T103" s="1"/>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="1"/>
@@ -3036,7 +2987,7 @@
       <c r="S104" s="1"/>
       <c r="T104" s="1"/>
     </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="1"/>
@@ -3058,7 +3009,7 @@
       <c r="S105" s="1"/>
       <c r="T105" s="1"/>
     </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="1"/>
@@ -3080,7 +3031,7 @@
       <c r="S106" s="1"/>
       <c r="T106" s="1"/>
     </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="1"/>
@@ -3102,7 +3053,7 @@
       <c r="S107" s="1"/>
       <c r="T107" s="1"/>
     </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="1"/>
@@ -3124,7 +3075,7 @@
       <c r="S108" s="1"/>
       <c r="T108" s="1"/>
     </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="1"/>
@@ -3146,7 +3097,7 @@
       <c r="S109" s="1"/>
       <c r="T109" s="1"/>
     </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="1"/>
@@ -3168,7 +3119,7 @@
       <c r="S110" s="1"/>
       <c r="T110" s="1"/>
     </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="1"/>
@@ -3190,7 +3141,7 @@
       <c r="S111" s="1"/>
       <c r="T111" s="1"/>
     </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="1"/>
@@ -3212,7 +3163,7 @@
       <c r="S112" s="1"/>
       <c r="T112" s="1"/>
     </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="1"/>
@@ -3234,7 +3185,7 @@
       <c r="S113" s="1"/>
       <c r="T113" s="1"/>
     </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="1"/>
@@ -3256,7 +3207,7 @@
       <c r="S114" s="1"/>
       <c r="T114" s="1"/>
     </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="1"/>
@@ -3278,7 +3229,7 @@
       <c r="S115" s="1"/>
       <c r="T115" s="1"/>
     </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="1"/>
@@ -3300,7 +3251,7 @@
       <c r="S116" s="1"/>
       <c r="T116" s="1"/>
     </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="1"/>
@@ -3322,7 +3273,7 @@
       <c r="S117" s="1"/>
       <c r="T117" s="1"/>
     </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="1"/>
@@ -3344,7 +3295,7 @@
       <c r="S118" s="1"/>
       <c r="T118" s="1"/>
     </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="1"/>
@@ -3366,7 +3317,7 @@
       <c r="S119" s="1"/>
       <c r="T119" s="1"/>
     </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="1"/>
@@ -3388,7 +3339,7 @@
       <c r="S120" s="1"/>
       <c r="T120" s="1"/>
     </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="1"/>
@@ -3410,7 +3361,7 @@
       <c r="S121" s="1"/>
       <c r="T121" s="1"/>
     </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="1"/>
@@ -3432,7 +3383,7 @@
       <c r="S122" s="1"/>
       <c r="T122" s="1"/>
     </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="1"/>
@@ -3454,7 +3405,7 @@
       <c r="S123" s="1"/>
       <c r="T123" s="1"/>
     </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="1"/>
@@ -3476,7 +3427,7 @@
       <c r="S124" s="1"/>
       <c r="T124" s="1"/>
     </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="1"/>
@@ -3498,7 +3449,7 @@
       <c r="S125" s="1"/>
       <c r="T125" s="1"/>
     </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="1"/>
@@ -3520,7 +3471,7 @@
       <c r="S126" s="1"/>
       <c r="T126" s="1"/>
     </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="1"/>
@@ -3542,7 +3493,7 @@
       <c r="S127" s="1"/>
       <c r="T127" s="1"/>
     </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="1"/>
@@ -3564,7 +3515,7 @@
       <c r="S128" s="1"/>
       <c r="T128" s="1"/>
     </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="1"/>
@@ -3586,7 +3537,7 @@
       <c r="S129" s="1"/>
       <c r="T129" s="1"/>
     </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="1"/>
@@ -3608,7 +3559,7 @@
       <c r="S130" s="1"/>
       <c r="T130" s="1"/>
     </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="1"/>
@@ -3630,7 +3581,7 @@
       <c r="S131" s="1"/>
       <c r="T131" s="1"/>
     </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="1"/>
@@ -3652,7 +3603,7 @@
       <c r="S132" s="1"/>
       <c r="T132" s="1"/>
     </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="1"/>
@@ -3674,7 +3625,7 @@
       <c r="S133" s="1"/>
       <c r="T133" s="1"/>
     </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="1"/>
@@ -3696,7 +3647,7 @@
       <c r="S134" s="1"/>
       <c r="T134" s="1"/>
     </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="1"/>
@@ -3718,7 +3669,7 @@
       <c r="S135" s="1"/>
       <c r="T135" s="1"/>
     </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="1"/>
@@ -3740,7 +3691,7 @@
       <c r="S136" s="1"/>
       <c r="T136" s="1"/>
     </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="1"/>
@@ -3762,7 +3713,7 @@
       <c r="S137" s="1"/>
       <c r="T137" s="1"/>
     </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="1"/>
@@ -3784,7 +3735,7 @@
       <c r="S138" s="1"/>
       <c r="T138" s="1"/>
     </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="1"/>
@@ -3806,7 +3757,7 @@
       <c r="S139" s="1"/>
       <c r="T139" s="1"/>
     </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="1"/>
@@ -3828,7 +3779,7 @@
       <c r="S140" s="1"/>
       <c r="T140" s="1"/>
     </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="1"/>
@@ -3850,7 +3801,7 @@
       <c r="S141" s="1"/>
       <c r="T141" s="1"/>
     </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="1"/>
@@ -3872,7 +3823,7 @@
       <c r="S142" s="1"/>
       <c r="T142" s="1"/>
     </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="1"/>
@@ -3894,7 +3845,7 @@
       <c r="S143" s="1"/>
       <c r="T143" s="1"/>
     </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="1"/>
@@ -3916,7 +3867,7 @@
       <c r="S144" s="1"/>
       <c r="T144" s="1"/>
     </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="1"/>
@@ -3938,7 +3889,7 @@
       <c r="S145" s="1"/>
       <c r="T145" s="1"/>
     </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="1"/>
@@ -3960,7 +3911,7 @@
       <c r="S146" s="1"/>
       <c r="T146" s="1"/>
     </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="1"/>
@@ -3982,7 +3933,7 @@
       <c r="S147" s="1"/>
       <c r="T147" s="1"/>
     </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="1"/>
@@ -4004,7 +3955,7 @@
       <c r="S148" s="1"/>
       <c r="T148" s="1"/>
     </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="1"/>
@@ -4026,7 +3977,7 @@
       <c r="S149" s="1"/>
       <c r="T149" s="1"/>
     </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="1"/>
@@ -4048,7 +3999,7 @@
       <c r="S150" s="1"/>
       <c r="T150" s="1"/>
     </row>
-    <row r="151" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="1"/>
@@ -4070,7 +4021,7 @@
       <c r="S151" s="1"/>
       <c r="T151" s="1"/>
     </row>
-    <row r="152" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="1"/>
@@ -4092,7 +4043,7 @@
       <c r="S152" s="1"/>
       <c r="T152" s="1"/>
     </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="1"/>
@@ -4114,7 +4065,7 @@
       <c r="S153" s="1"/>
       <c r="T153" s="1"/>
     </row>
-    <row r="154" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="1"/>
@@ -4136,7 +4087,7 @@
       <c r="S154" s="1"/>
       <c r="T154" s="1"/>
     </row>
-    <row r="155" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="1"/>
@@ -4158,7 +4109,7 @@
       <c r="S155" s="1"/>
       <c r="T155" s="1"/>
     </row>
-    <row r="156" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="1"/>
@@ -4180,7 +4131,7 @@
       <c r="S156" s="1"/>
       <c r="T156" s="1"/>
     </row>
-    <row r="157" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="1"/>
@@ -4202,7 +4153,7 @@
       <c r="S157" s="1"/>
       <c r="T157" s="1"/>
     </row>
-    <row r="158" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="1"/>
@@ -4224,7 +4175,7 @@
       <c r="S158" s="1"/>
       <c r="T158" s="1"/>
     </row>
-    <row r="159" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="1"/>
@@ -4246,7 +4197,7 @@
       <c r="S159" s="1"/>
       <c r="T159" s="1"/>
     </row>
-    <row r="160" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="1"/>
@@ -4268,7 +4219,7 @@
       <c r="S160" s="1"/>
       <c r="T160" s="1"/>
     </row>
-    <row r="161" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="1"/>
@@ -4290,7 +4241,7 @@
       <c r="S161" s="1"/>
       <c r="T161" s="1"/>
     </row>
-    <row r="162" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="1"/>
@@ -4312,7 +4263,7 @@
       <c r="S162" s="1"/>
       <c r="T162" s="1"/>
     </row>
-    <row r="163" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="1"/>
@@ -4334,7 +4285,7 @@
       <c r="S163" s="1"/>
       <c r="T163" s="1"/>
     </row>
-    <row r="164" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="1"/>
@@ -4356,7 +4307,7 @@
       <c r="S164" s="1"/>
       <c r="T164" s="1"/>
     </row>
-    <row r="165" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="1"/>
@@ -4378,7 +4329,7 @@
       <c r="S165" s="1"/>
       <c r="T165" s="1"/>
     </row>
-    <row r="166" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="1"/>
@@ -4400,7 +4351,7 @@
       <c r="S166" s="1"/>
       <c r="T166" s="1"/>
     </row>
-    <row r="167" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="1"/>
@@ -4422,7 +4373,7 @@
       <c r="S167" s="1"/>
       <c r="T167" s="1"/>
     </row>
-    <row r="168" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="1"/>
@@ -4444,7 +4395,7 @@
       <c r="S168" s="1"/>
       <c r="T168" s="1"/>
     </row>
-    <row r="169" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="1"/>
@@ -4466,7 +4417,7 @@
       <c r="S169" s="1"/>
       <c r="T169" s="1"/>
     </row>
-    <row r="170" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="1"/>
@@ -4488,7 +4439,7 @@
       <c r="S170" s="1"/>
       <c r="T170" s="1"/>
     </row>
-    <row r="171" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="1"/>
@@ -4510,7 +4461,7 @@
       <c r="S171" s="1"/>
       <c r="T171" s="1"/>
     </row>
-    <row r="172" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="1"/>
@@ -4532,7 +4483,7 @@
       <c r="S172" s="1"/>
       <c r="T172" s="1"/>
     </row>
-    <row r="173" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="1"/>
@@ -4554,7 +4505,7 @@
       <c r="S173" s="1"/>
       <c r="T173" s="1"/>
     </row>
-    <row r="174" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="1"/>
@@ -4576,7 +4527,7 @@
       <c r="S174" s="1"/>
       <c r="T174" s="1"/>
     </row>
-    <row r="175" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="1"/>
@@ -4598,7 +4549,7 @@
       <c r="S175" s="1"/>
       <c r="T175" s="1"/>
     </row>
-    <row r="176" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="1"/>
@@ -4620,7 +4571,7 @@
       <c r="S176" s="1"/>
       <c r="T176" s="1"/>
     </row>
-    <row r="177" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="1"/>
@@ -4642,7 +4593,7 @@
       <c r="S177" s="1"/>
       <c r="T177" s="1"/>
     </row>
-    <row r="178" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="1"/>
@@ -4664,7 +4615,7 @@
       <c r="S178" s="1"/>
       <c r="T178" s="1"/>
     </row>
-    <row r="179" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="1"/>
@@ -4686,7 +4637,7 @@
       <c r="S179" s="1"/>
       <c r="T179" s="1"/>
     </row>
-    <row r="180" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="1"/>
@@ -4708,7 +4659,7 @@
       <c r="S180" s="1"/>
       <c r="T180" s="1"/>
     </row>
-    <row r="181" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="1"/>
@@ -4730,7 +4681,7 @@
       <c r="S181" s="1"/>
       <c r="T181" s="1"/>
     </row>
-    <row r="182" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="1"/>
@@ -4752,7 +4703,7 @@
       <c r="S182" s="1"/>
       <c r="T182" s="1"/>
     </row>
-    <row r="183" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="1"/>
@@ -4774,7 +4725,7 @@
       <c r="S183" s="1"/>
       <c r="T183" s="1"/>
     </row>
-    <row r="184" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="1"/>
@@ -4796,7 +4747,7 @@
       <c r="S184" s="1"/>
       <c r="T184" s="1"/>
     </row>
-    <row r="185" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="1"/>
@@ -4818,7 +4769,7 @@
       <c r="S185" s="1"/>
       <c r="T185" s="1"/>
     </row>
-    <row r="186" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="1"/>
@@ -4840,7 +4791,7 @@
       <c r="S186" s="1"/>
       <c r="T186" s="1"/>
     </row>
-    <row r="187" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="1"/>
@@ -4862,7 +4813,7 @@
       <c r="S187" s="1"/>
       <c r="T187" s="1"/>
     </row>
-    <row r="188" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="1"/>
@@ -4884,7 +4835,7 @@
       <c r="S188" s="1"/>
       <c r="T188" s="1"/>
     </row>
-    <row r="189" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="1"/>
@@ -4906,7 +4857,7 @@
       <c r="S189" s="1"/>
       <c r="T189" s="1"/>
     </row>
-    <row r="190" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="1"/>
@@ -4928,7 +4879,7 @@
       <c r="S190" s="1"/>
       <c r="T190" s="1"/>
     </row>
-    <row r="191" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="1"/>
@@ -4950,7 +4901,7 @@
       <c r="S191" s="1"/>
       <c r="T191" s="1"/>
     </row>
-    <row r="192" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="1"/>
@@ -4972,7 +4923,7 @@
       <c r="S192" s="1"/>
       <c r="T192" s="1"/>
     </row>
-    <row r="193" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="1"/>
@@ -4994,7 +4945,7 @@
       <c r="S193" s="1"/>
       <c r="T193" s="1"/>
     </row>
-    <row r="194" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="1"/>
@@ -5016,7 +4967,7 @@
       <c r="S194" s="1"/>
       <c r="T194" s="1"/>
     </row>
-    <row r="195" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="1"/>
@@ -5038,7 +4989,7 @@
       <c r="S195" s="1"/>
       <c r="T195" s="1"/>
     </row>
-    <row r="196" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="1"/>
@@ -5060,7 +5011,7 @@
       <c r="S196" s="1"/>
       <c r="T196" s="1"/>
     </row>
-    <row r="197" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="1"/>
@@ -5082,7 +5033,7 @@
       <c r="S197" s="1"/>
       <c r="T197" s="1"/>
     </row>
-    <row r="198" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="1"/>
@@ -5104,7 +5055,7 @@
       <c r="S198" s="1"/>
       <c r="T198" s="1"/>
     </row>
-    <row r="199" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="1"/>
@@ -5126,7 +5077,7 @@
       <c r="S199" s="1"/>
       <c r="T199" s="1"/>
     </row>
-    <row r="200" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="1"/>
@@ -5151,6 +5102,5 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <picture r:id="rId1"/>
 </worksheet>
 </file>
--- a/许愿墙.xlsx
+++ b/许愿墙.xlsx
@@ -1,180 +1,79 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+<workbook xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\download\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{636CEF2B-2F51-4DD2-8840-CE9D41B4CAD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11230" yWindow="880" windowWidth="10280" windowHeight="14130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="15800" windowWidth="28040" xWindow="4240" yWindow="640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcMode="auto"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>你想找什么样的工作？</t>
-  </si>
-  <si>
-    <t>现在的状态是怎样的？</t>
-  </si>
-  <si>
-    <t>AI攻城狮</t>
-  </si>
-  <si>
-    <t>已找到！</t>
-  </si>
-  <si>
-    <t>Java+AI</t>
-  </si>
-  <si>
-    <t>在找</t>
-  </si>
-  <si>
-    <t>AI agent开发</t>
-  </si>
-  <si>
-    <t>Java实习</t>
-  </si>
-  <si>
-    <t>还没开始找</t>
-  </si>
-  <si>
-    <t>系统架构师</t>
-  </si>
-  <si>
-    <t>Go</t>
-  </si>
-  <si>
-    <t>前端攻城狮</t>
-  </si>
-  <si>
-    <t>AI+游戏开发</t>
-  </si>
-  <si>
-    <t>C++实习</t>
-  </si>
-  <si>
-    <t>后端开发</t>
-  </si>
-  <si>
-    <t>正确的路上</t>
-  </si>
-  <si>
-    <t>Java后端开发</t>
-  </si>
-  <si>
-    <t>在找实习的路上</t>
-  </si>
-  <si>
-    <t>Java</t>
-  </si>
-  <si>
-    <t>找到了，但是通勤太远想跳槽</t>
-  </si>
-  <si>
-    <t>Frontend leader</t>
-  </si>
-  <si>
-    <t>找到了，但是没有work life balance</t>
-  </si>
-  <si>
-    <t>找到了，不满意</t>
-  </si>
-  <si>
-    <t>Java开发</t>
-  </si>
-  <si>
-    <t>再找</t>
-  </si>
-  <si>
-    <t>前端工程师</t>
-  </si>
-  <si>
-    <t>java开发</t>
-  </si>
-  <si>
-    <t>AI+前端工程师</t>
-  </si>
-  <si>
-    <t>C++开发</t>
-  </si>
-  <si>
-    <t>Go后端开发</t>
-  </si>
-  <si>
-    <t>AI+后端工程师</t>
-  </si>
-  <si>
-    <t>linux运维</t>
-  </si>
-  <si>
-    <t>java实习</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>在犹豫城市选择</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t xml:space="preserve">  </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="3">
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9.75"/>
       <color rgb="FF000000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9.75"/>
       <color rgb="FF000000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill patternType="none">
+        <fgColor/>
+        <bgColor/>
+      </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor/>
+        <bgColor/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF34C724"/>
+        <bgColor/>
       </patternFill>
     </fill>
   </fills>
@@ -240,30 +139,30 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -276,7 +175,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -571,28 +470,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
   <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <outlinePr summaryBelow="false" summaryRight="false"/>
   </sheetPr>
-  <dimension ref="A1:T200"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView showGridLines="true" tabSelected="true" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="32" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="21"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
+    <row r="1">
+      <c r="A1" s="4" t="str">
+        <v>你想找什么样的工作？</v>
+      </c>
+      <c r="B1" s="4" t="str">
+        <v>现在的状态是怎样的？</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -613,12 +512,12 @@
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
+    <row r="2">
+      <c r="A2" s="2" t="str">
+        <v>AI攻城狮</v>
+      </c>
+      <c r="B2" s="2" t="str">
+        <v>已找到！</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -639,12 +538,12 @@
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
+    <row r="3">
+      <c r="A3" s="2" t="str">
+        <v>Java+AI</v>
+      </c>
+      <c r="B3" s="2" t="str">
+        <v>在找</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -665,12 +564,12 @@
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
+    <row r="4">
+      <c r="A4" s="2" t="str">
+        <v>AI agent开发</v>
+      </c>
+      <c r="B4" s="2" t="str">
+        <v>在找</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -691,12 +590,12 @@
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>8</v>
+    <row r="5">
+      <c r="A5" s="2" t="str">
+        <v>Java实习</v>
+      </c>
+      <c r="B5" s="2" t="str">
+        <v>还没开始找</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -717,12 +616,12 @@
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>5</v>
+    <row r="6">
+      <c r="A6" s="2" t="str">
+        <v>系统架构师</v>
+      </c>
+      <c r="B6" s="2" t="str">
+        <v>在找</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -743,12 +642,12 @@
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>5</v>
+    <row r="7">
+      <c r="A7" s="2" t="str">
+        <v>Go</v>
+      </c>
+      <c r="B7" s="2" t="str">
+        <v>在找</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -769,12 +668,12 @@
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>5</v>
+    <row r="8">
+      <c r="A8" s="2" t="str">
+        <v>前端攻城狮</v>
+      </c>
+      <c r="B8" s="2" t="str">
+        <v>在找</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -795,12 +694,12 @@
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>5</v>
+    <row r="9">
+      <c r="A9" s="2" t="str">
+        <v>AI+游戏开发</v>
+      </c>
+      <c r="B9" s="2" t="str">
+        <v>在找</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -821,12 +720,12 @@
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>5</v>
+    <row r="10">
+      <c r="A10" s="2" t="str">
+        <v>C++实习</v>
+      </c>
+      <c r="B10" s="2" t="str">
+        <v>在找</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -847,12 +746,12 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>15</v>
+    <row r="11">
+      <c r="A11" s="2" t="str">
+        <v>后端开发</v>
+      </c>
+      <c r="B11" s="2" t="str">
+        <v>正确的路上</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -873,12 +772,12 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>17</v>
+    <row r="12">
+      <c r="A12" s="2" t="str">
+        <v>Java后端开发</v>
+      </c>
+      <c r="B12" s="2" t="str">
+        <v>在找实习的路上</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -899,12 +798,12 @@
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>19</v>
+    <row r="13">
+      <c r="A13" s="2" t="str">
+        <v>Java</v>
+      </c>
+      <c r="B13" s="2" t="str">
+        <v>找到了，但是通勤太远想跳槽</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -925,12 +824,12 @@
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>21</v>
+    <row r="14">
+      <c r="A14" s="2" t="str">
+        <v>Frontend leader</v>
+      </c>
+      <c r="B14" s="2" t="str">
+        <v>找到了，但是没有work life balance</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -951,12 +850,12 @@
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>22</v>
+    <row r="15">
+      <c r="A15" s="3" t="str">
+        <v>Java</v>
+      </c>
+      <c r="B15" s="2" t="str">
+        <v>找到了，不满意</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -977,12 +876,12 @@
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>24</v>
+    <row r="16">
+      <c r="A16" s="2" t="str">
+        <v>Java开发</v>
+      </c>
+      <c r="B16" s="2" t="str">
+        <v>再找</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -1003,12 +902,12 @@
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>5</v>
+    <row r="17">
+      <c r="A17" s="2" t="str">
+        <v>前端工程师</v>
+      </c>
+      <c r="B17" s="2" t="str">
+        <v>在找</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -1029,12 +928,12 @@
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>5</v>
+    <row r="18">
+      <c r="A18" s="2" t="str">
+        <v>java开发</v>
+      </c>
+      <c r="B18" s="2" t="str">
+        <v>在找</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -1055,12 +954,12 @@
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>8</v>
+    <row r="19">
+      <c r="A19" s="2" t="str">
+        <v>AI+前端工程师</v>
+      </c>
+      <c r="B19" s="2" t="str">
+        <v>还没开始找</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -1081,12 +980,12 @@
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>5</v>
+    <row r="20">
+      <c r="A20" s="2" t="str">
+        <v>C++开发</v>
+      </c>
+      <c r="B20" s="2" t="str">
+        <v>在找</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -1107,12 +1006,12 @@
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>5</v>
+    <row r="21">
+      <c r="A21" s="2" t="str">
+        <v>Go</v>
+      </c>
+      <c r="B21" s="2" t="str">
+        <v>在找</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -1133,12 +1032,12 @@
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>5</v>
+    <row r="22">
+      <c r="A22" s="2" t="str">
+        <v>Go后端开发</v>
+      </c>
+      <c r="B22" s="2" t="str">
+        <v>在找</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1159,12 +1058,12 @@
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>8</v>
+    <row r="23">
+      <c r="A23" s="2" t="str">
+        <v>AI+后端工程师</v>
+      </c>
+      <c r="B23" s="2" t="str">
+        <v>还没开始找</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1185,12 +1084,12 @@
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>5</v>
+    <row r="24">
+      <c r="A24" s="2" t="str">
+        <v>linux运维</v>
+      </c>
+      <c r="B24" s="2" t="str">
+        <v>在找</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1211,12 +1110,12 @@
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>5</v>
+    <row r="25">
+      <c r="A25" s="2" t="str">
+        <v>前端工程师</v>
+      </c>
+      <c r="B25" s="2" t="str">
+        <v>在找</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1237,12 +1136,12 @@
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>8</v>
+    <row r="26">
+      <c r="A26" s="2" t="str">
+        <v>前端工程师</v>
+      </c>
+      <c r="B26" s="2" t="str">
+        <v>还没开始找</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1263,12 +1162,12 @@
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>5</v>
+    <row r="27">
+      <c r="A27" s="2" t="str">
+        <v>java开发</v>
+      </c>
+      <c r="B27" s="2" t="str">
+        <v>在找</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1289,12 +1188,12 @@
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>33</v>
+    <row r="28">
+      <c r="A28" s="2" t="str">
+        <v>AI+嵌入式</v>
+      </c>
+      <c r="B28" s="2" t="str">
+        <v>再找</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1315,9 +1214,13 @@
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
+    <row r="29">
+      <c r="A29" s="2" t="str">
+        <v>财务主管</v>
+      </c>
+      <c r="B29" s="2" t="str">
+        <v>在找</v>
+      </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -1337,9 +1240,13 @@
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
+    <row r="30">
+      <c r="A30" s="2" t="str">
+        <v>后端开发</v>
+      </c>
+      <c r="B30" s="2" t="str">
+        <v>在学习的路上</v>
+      </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -1359,7 +1266,7 @@
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="31">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="1"/>
@@ -1381,7 +1288,7 @@
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="32">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="1"/>
@@ -1403,7 +1310,7 @@
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="33">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="1"/>
@@ -1425,7 +1332,7 @@
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="34">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="1"/>
@@ -1447,7 +1354,7 @@
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="35">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="1"/>
@@ -1469,7 +1376,7 @@
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="36">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="1"/>
@@ -1491,7 +1398,7 @@
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="37">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="1"/>
@@ -1513,7 +1420,7 @@
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="38">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="1"/>
@@ -1535,7 +1442,7 @@
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="39">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="1"/>
@@ -1557,7 +1464,7 @@
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="40">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="1"/>
@@ -1579,7 +1486,7 @@
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="41">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="1"/>
@@ -1601,7 +1508,7 @@
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="42">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="1"/>
@@ -1623,7 +1530,7 @@
       <c r="S42" s="1"/>
       <c r="T42" s="1"/>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="43">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="1"/>
@@ -1645,7 +1552,7 @@
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="44">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="1"/>
@@ -1667,7 +1574,7 @@
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="45">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="1"/>
@@ -1689,7 +1596,7 @@
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="46">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="1"/>
@@ -1711,7 +1618,7 @@
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="47">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="1"/>
@@ -1733,7 +1640,7 @@
       <c r="S47" s="1"/>
       <c r="T47" s="1"/>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="48">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="1"/>
@@ -1755,7 +1662,7 @@
       <c r="S48" s="1"/>
       <c r="T48" s="1"/>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="49">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="1"/>
@@ -1777,7 +1684,7 @@
       <c r="S49" s="1"/>
       <c r="T49" s="1"/>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="50">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="1"/>
@@ -1799,7 +1706,7 @@
       <c r="S50" s="1"/>
       <c r="T50" s="1"/>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="51">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="1"/>
@@ -1821,7 +1728,7 @@
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="52">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="1"/>
@@ -1843,7 +1750,7 @@
       <c r="S52" s="1"/>
       <c r="T52" s="1"/>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="53">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="1"/>
@@ -1865,7 +1772,7 @@
       <c r="S53" s="1"/>
       <c r="T53" s="1"/>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="54">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="1"/>
@@ -1887,7 +1794,7 @@
       <c r="S54" s="1"/>
       <c r="T54" s="1"/>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="55">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="1"/>
@@ -1909,7 +1816,7 @@
       <c r="S55" s="1"/>
       <c r="T55" s="1"/>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="56">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="1"/>
@@ -1931,7 +1838,7 @@
       <c r="S56" s="1"/>
       <c r="T56" s="1"/>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="57">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="1"/>
@@ -1953,7 +1860,7 @@
       <c r="S57" s="1"/>
       <c r="T57" s="1"/>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="58">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="1"/>
@@ -1975,7 +1882,7 @@
       <c r="S58" s="1"/>
       <c r="T58" s="1"/>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="59">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="1"/>
@@ -1997,7 +1904,7 @@
       <c r="S59" s="1"/>
       <c r="T59" s="1"/>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="60">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="1"/>
@@ -2019,7 +1926,7 @@
       <c r="S60" s="1"/>
       <c r="T60" s="1"/>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="61">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="1"/>
@@ -2041,7 +1948,7 @@
       <c r="S61" s="1"/>
       <c r="T61" s="1"/>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="62">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="1"/>
@@ -2063,7 +1970,7 @@
       <c r="S62" s="1"/>
       <c r="T62" s="1"/>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="63">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="1"/>
@@ -2085,7 +1992,7 @@
       <c r="S63" s="1"/>
       <c r="T63" s="1"/>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="64">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="1"/>
@@ -2107,7 +2014,7 @@
       <c r="S64" s="1"/>
       <c r="T64" s="1"/>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="65">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="1"/>
@@ -2129,7 +2036,7 @@
       <c r="S65" s="1"/>
       <c r="T65" s="1"/>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="66">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="1"/>
@@ -2151,7 +2058,7 @@
       <c r="S66" s="1"/>
       <c r="T66" s="1"/>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="67">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="1"/>
@@ -2173,7 +2080,7 @@
       <c r="S67" s="1"/>
       <c r="T67" s="1"/>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="68">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="1"/>
@@ -2195,7 +2102,7 @@
       <c r="S68" s="1"/>
       <c r="T68" s="1"/>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="69">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="1"/>
@@ -2217,7 +2124,7 @@
       <c r="S69" s="1"/>
       <c r="T69" s="1"/>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="70">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="1"/>
@@ -2239,7 +2146,7 @@
       <c r="S70" s="1"/>
       <c r="T70" s="1"/>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="71">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="1"/>
@@ -2261,7 +2168,7 @@
       <c r="S71" s="1"/>
       <c r="T71" s="1"/>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="72">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="1"/>
@@ -2283,7 +2190,7 @@
       <c r="S72" s="1"/>
       <c r="T72" s="1"/>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="73">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="1"/>
@@ -2305,7 +2212,7 @@
       <c r="S73" s="1"/>
       <c r="T73" s="1"/>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="74">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="1"/>
@@ -2327,7 +2234,7 @@
       <c r="S74" s="1"/>
       <c r="T74" s="1"/>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="75">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="1"/>
@@ -2349,7 +2256,7 @@
       <c r="S75" s="1"/>
       <c r="T75" s="1"/>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="76">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="1"/>
@@ -2371,7 +2278,7 @@
       <c r="S76" s="1"/>
       <c r="T76" s="1"/>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="77">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="1"/>
@@ -2393,7 +2300,7 @@
       <c r="S77" s="1"/>
       <c r="T77" s="1"/>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="78">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="1"/>
@@ -2415,7 +2322,7 @@
       <c r="S78" s="1"/>
       <c r="T78" s="1"/>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="79">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="1"/>
@@ -2437,7 +2344,7 @@
       <c r="S79" s="1"/>
       <c r="T79" s="1"/>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="80">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="1"/>
@@ -2459,7 +2366,7 @@
       <c r="S80" s="1"/>
       <c r="T80" s="1"/>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="81">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="1"/>
@@ -2481,7 +2388,7 @@
       <c r="S81" s="1"/>
       <c r="T81" s="1"/>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="82">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="1"/>
@@ -2503,7 +2410,7 @@
       <c r="S82" s="1"/>
       <c r="T82" s="1"/>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="83">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="1"/>
@@ -2525,7 +2432,7 @@
       <c r="S83" s="1"/>
       <c r="T83" s="1"/>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="84">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="1"/>
@@ -2547,7 +2454,7 @@
       <c r="S84" s="1"/>
       <c r="T84" s="1"/>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="85">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="1"/>
@@ -2569,7 +2476,7 @@
       <c r="S85" s="1"/>
       <c r="T85" s="1"/>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="86">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="1"/>
@@ -2591,7 +2498,7 @@
       <c r="S86" s="1"/>
       <c r="T86" s="1"/>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="87">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="1"/>
@@ -2613,7 +2520,7 @@
       <c r="S87" s="1"/>
       <c r="T87" s="1"/>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="88">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="1"/>
@@ -2635,7 +2542,7 @@
       <c r="S88" s="1"/>
       <c r="T88" s="1"/>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="89">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="1"/>
@@ -2657,7 +2564,7 @@
       <c r="S89" s="1"/>
       <c r="T89" s="1"/>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="90">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="1"/>
@@ -2679,7 +2586,7 @@
       <c r="S90" s="1"/>
       <c r="T90" s="1"/>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="91">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="1"/>
@@ -2701,7 +2608,7 @@
       <c r="S91" s="1"/>
       <c r="T91" s="1"/>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="92">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="1"/>
@@ -2723,7 +2630,7 @@
       <c r="S92" s="1"/>
       <c r="T92" s="1"/>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="93">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="1"/>
@@ -2745,7 +2652,7 @@
       <c r="S93" s="1"/>
       <c r="T93" s="1"/>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="94">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="1"/>
@@ -2767,7 +2674,7 @@
       <c r="S94" s="1"/>
       <c r="T94" s="1"/>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="95">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="1"/>
@@ -2789,7 +2696,7 @@
       <c r="S95" s="1"/>
       <c r="T95" s="1"/>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="96">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="1"/>
@@ -2811,7 +2718,7 @@
       <c r="S96" s="1"/>
       <c r="T96" s="1"/>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="97">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="1"/>
@@ -2833,7 +2740,7 @@
       <c r="S97" s="1"/>
       <c r="T97" s="1"/>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="98">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="1"/>
@@ -2855,7 +2762,7 @@
       <c r="S98" s="1"/>
       <c r="T98" s="1"/>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="99">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="1"/>
@@ -2877,7 +2784,7 @@
       <c r="S99" s="1"/>
       <c r="T99" s="1"/>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="100">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="1"/>
@@ -2899,7 +2806,7 @@
       <c r="S100" s="1"/>
       <c r="T100" s="1"/>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="101">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="1"/>
@@ -2921,7 +2828,7 @@
       <c r="S101" s="1"/>
       <c r="T101" s="1"/>
     </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="102">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="1"/>
@@ -2943,7 +2850,7 @@
       <c r="S102" s="1"/>
       <c r="T102" s="1"/>
     </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="103">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="1"/>
@@ -2965,7 +2872,7 @@
       <c r="S103" s="1"/>
       <c r="T103" s="1"/>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="104">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="1"/>
@@ -2987,7 +2894,7 @@
       <c r="S104" s="1"/>
       <c r="T104" s="1"/>
     </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="105">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="1"/>
@@ -3009,7 +2916,7 @@
       <c r="S105" s="1"/>
       <c r="T105" s="1"/>
     </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="106">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="1"/>
@@ -3031,7 +2938,7 @@
       <c r="S106" s="1"/>
       <c r="T106" s="1"/>
     </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="107">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="1"/>
@@ -3053,7 +2960,7 @@
       <c r="S107" s="1"/>
       <c r="T107" s="1"/>
     </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="108">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="1"/>
@@ -3075,7 +2982,7 @@
       <c r="S108" s="1"/>
       <c r="T108" s="1"/>
     </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="109">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="1"/>
@@ -3097,7 +3004,7 @@
       <c r="S109" s="1"/>
       <c r="T109" s="1"/>
     </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="110">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="1"/>
@@ -3119,7 +3026,7 @@
       <c r="S110" s="1"/>
       <c r="T110" s="1"/>
     </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="111">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="1"/>
@@ -3141,7 +3048,7 @@
       <c r="S111" s="1"/>
       <c r="T111" s="1"/>
     </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="112">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="1"/>
@@ -3163,7 +3070,7 @@
       <c r="S112" s="1"/>
       <c r="T112" s="1"/>
     </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="113">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="1"/>
@@ -3185,7 +3092,7 @@
       <c r="S113" s="1"/>
       <c r="T113" s="1"/>
     </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="114">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="1"/>
@@ -3207,7 +3114,7 @@
       <c r="S114" s="1"/>
       <c r="T114" s="1"/>
     </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="115">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="1"/>
@@ -3229,7 +3136,7 @@
       <c r="S115" s="1"/>
       <c r="T115" s="1"/>
     </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="116">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="1"/>
@@ -3251,7 +3158,7 @@
       <c r="S116" s="1"/>
       <c r="T116" s="1"/>
     </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="117">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="1"/>
@@ -3273,7 +3180,7 @@
       <c r="S117" s="1"/>
       <c r="T117" s="1"/>
     </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="118">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="1"/>
@@ -3295,7 +3202,7 @@
       <c r="S118" s="1"/>
       <c r="T118" s="1"/>
     </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="119">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="1"/>
@@ -3317,7 +3224,7 @@
       <c r="S119" s="1"/>
       <c r="T119" s="1"/>
     </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="120">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="1"/>
@@ -3339,7 +3246,7 @@
       <c r="S120" s="1"/>
       <c r="T120" s="1"/>
     </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="121">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="1"/>
@@ -3361,7 +3268,7 @@
       <c r="S121" s="1"/>
       <c r="T121" s="1"/>
     </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="122">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="1"/>
@@ -3383,7 +3290,7 @@
       <c r="S122" s="1"/>
       <c r="T122" s="1"/>
     </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="123">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="1"/>
@@ -3405,7 +3312,7 @@
       <c r="S123" s="1"/>
       <c r="T123" s="1"/>
     </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="124">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="1"/>
@@ -3427,7 +3334,7 @@
       <c r="S124" s="1"/>
       <c r="T124" s="1"/>
     </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="125">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="1"/>
@@ -3449,7 +3356,7 @@
       <c r="S125" s="1"/>
       <c r="T125" s="1"/>
     </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="126">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="1"/>
@@ -3471,7 +3378,7 @@
       <c r="S126" s="1"/>
       <c r="T126" s="1"/>
     </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="127">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="1"/>
@@ -3493,7 +3400,7 @@
       <c r="S127" s="1"/>
       <c r="T127" s="1"/>
     </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="128">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="1"/>
@@ -3515,7 +3422,7 @@
       <c r="S128" s="1"/>
       <c r="T128" s="1"/>
     </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="129">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="1"/>
@@ -3537,7 +3444,7 @@
       <c r="S129" s="1"/>
       <c r="T129" s="1"/>
     </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="130">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="1"/>
@@ -3559,7 +3466,7 @@
       <c r="S130" s="1"/>
       <c r="T130" s="1"/>
     </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="131">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="1"/>
@@ -3581,7 +3488,7 @@
       <c r="S131" s="1"/>
       <c r="T131" s="1"/>
     </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="132">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="1"/>
@@ -3603,7 +3510,7 @@
       <c r="S132" s="1"/>
       <c r="T132" s="1"/>
     </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="133">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="1"/>
@@ -3625,7 +3532,7 @@
       <c r="S133" s="1"/>
       <c r="T133" s="1"/>
     </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="134">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="1"/>
@@ -3647,7 +3554,7 @@
       <c r="S134" s="1"/>
       <c r="T134" s="1"/>
     </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="135">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="1"/>
@@ -3669,7 +3576,7 @@
       <c r="S135" s="1"/>
       <c r="T135" s="1"/>
     </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="136">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="1"/>
@@ -3691,7 +3598,7 @@
       <c r="S136" s="1"/>
       <c r="T136" s="1"/>
     </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="137">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="1"/>
@@ -3713,7 +3620,7 @@
       <c r="S137" s="1"/>
       <c r="T137" s="1"/>
     </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="138">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="1"/>
@@ -3735,7 +3642,7 @@
       <c r="S138" s="1"/>
       <c r="T138" s="1"/>
     </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="139">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="1"/>
@@ -3757,7 +3664,7 @@
       <c r="S139" s="1"/>
       <c r="T139" s="1"/>
     </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="140">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="1"/>
@@ -3779,7 +3686,7 @@
       <c r="S140" s="1"/>
       <c r="T140" s="1"/>
     </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="141">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="1"/>
@@ -3801,7 +3708,7 @@
       <c r="S141" s="1"/>
       <c r="T141" s="1"/>
     </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="142">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="1"/>
@@ -3823,7 +3730,7 @@
       <c r="S142" s="1"/>
       <c r="T142" s="1"/>
     </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="143">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="1"/>
@@ -3845,7 +3752,7 @@
       <c r="S143" s="1"/>
       <c r="T143" s="1"/>
     </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="144">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="1"/>
@@ -3867,7 +3774,7 @@
       <c r="S144" s="1"/>
       <c r="T144" s="1"/>
     </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="145">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="1"/>
@@ -3889,7 +3796,7 @@
       <c r="S145" s="1"/>
       <c r="T145" s="1"/>
     </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="146">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="1"/>
@@ -3911,7 +3818,7 @@
       <c r="S146" s="1"/>
       <c r="T146" s="1"/>
     </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="147">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="1"/>
@@ -3933,7 +3840,7 @@
       <c r="S147" s="1"/>
       <c r="T147" s="1"/>
     </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="148">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="1"/>
@@ -3955,7 +3862,7 @@
       <c r="S148" s="1"/>
       <c r="T148" s="1"/>
     </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="149">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="1"/>
@@ -3977,7 +3884,7 @@
       <c r="S149" s="1"/>
       <c r="T149" s="1"/>
     </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="150">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="1"/>
@@ -3999,7 +3906,7 @@
       <c r="S150" s="1"/>
       <c r="T150" s="1"/>
     </row>
-    <row r="151" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="151">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="1"/>
@@ -4021,7 +3928,7 @@
       <c r="S151" s="1"/>
       <c r="T151" s="1"/>
     </row>
-    <row r="152" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="152">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="1"/>
@@ -4043,7 +3950,7 @@
       <c r="S152" s="1"/>
       <c r="T152" s="1"/>
     </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="153">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="1"/>
@@ -4065,7 +3972,7 @@
       <c r="S153" s="1"/>
       <c r="T153" s="1"/>
     </row>
-    <row r="154" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="154">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="1"/>
@@ -4087,7 +3994,7 @@
       <c r="S154" s="1"/>
       <c r="T154" s="1"/>
     </row>
-    <row r="155" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="155">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="1"/>
@@ -4109,7 +4016,7 @@
       <c r="S155" s="1"/>
       <c r="T155" s="1"/>
     </row>
-    <row r="156" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="156">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="1"/>
@@ -4131,7 +4038,7 @@
       <c r="S156" s="1"/>
       <c r="T156" s="1"/>
     </row>
-    <row r="157" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="157">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="1"/>
@@ -4153,7 +4060,7 @@
       <c r="S157" s="1"/>
       <c r="T157" s="1"/>
     </row>
-    <row r="158" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="158">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="1"/>
@@ -4175,7 +4082,7 @@
       <c r="S158" s="1"/>
       <c r="T158" s="1"/>
     </row>
-    <row r="159" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="159">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="1"/>
@@ -4197,7 +4104,7 @@
       <c r="S159" s="1"/>
       <c r="T159" s="1"/>
     </row>
-    <row r="160" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="160">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="1"/>
@@ -4219,7 +4126,7 @@
       <c r="S160" s="1"/>
       <c r="T160" s="1"/>
     </row>
-    <row r="161" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="161">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="1"/>
@@ -4241,7 +4148,7 @@
       <c r="S161" s="1"/>
       <c r="T161" s="1"/>
     </row>
-    <row r="162" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="162">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="1"/>
@@ -4263,7 +4170,7 @@
       <c r="S162" s="1"/>
       <c r="T162" s="1"/>
     </row>
-    <row r="163" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="163">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="1"/>
@@ -4285,7 +4192,7 @@
       <c r="S163" s="1"/>
       <c r="T163" s="1"/>
     </row>
-    <row r="164" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="164">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="1"/>
@@ -4307,7 +4214,7 @@
       <c r="S164" s="1"/>
       <c r="T164" s="1"/>
     </row>
-    <row r="165" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="165">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="1"/>
@@ -4329,7 +4236,7 @@
       <c r="S165" s="1"/>
       <c r="T165" s="1"/>
     </row>
-    <row r="166" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="166">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="1"/>
@@ -4351,7 +4258,7 @@
       <c r="S166" s="1"/>
       <c r="T166" s="1"/>
     </row>
-    <row r="167" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="167">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="1"/>
@@ -4373,7 +4280,7 @@
       <c r="S167" s="1"/>
       <c r="T167" s="1"/>
     </row>
-    <row r="168" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="168">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="1"/>
@@ -4395,7 +4302,7 @@
       <c r="S168" s="1"/>
       <c r="T168" s="1"/>
     </row>
-    <row r="169" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="169">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="1"/>
@@ -4417,7 +4324,7 @@
       <c r="S169" s="1"/>
       <c r="T169" s="1"/>
     </row>
-    <row r="170" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="170">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="1"/>
@@ -4439,7 +4346,7 @@
       <c r="S170" s="1"/>
       <c r="T170" s="1"/>
     </row>
-    <row r="171" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="171">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="1"/>
@@ -4461,7 +4368,7 @@
       <c r="S171" s="1"/>
       <c r="T171" s="1"/>
     </row>
-    <row r="172" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="172">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="1"/>
@@ -4483,7 +4390,7 @@
       <c r="S172" s="1"/>
       <c r="T172" s="1"/>
     </row>
-    <row r="173" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="173">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="1"/>
@@ -4505,7 +4412,7 @@
       <c r="S173" s="1"/>
       <c r="T173" s="1"/>
     </row>
-    <row r="174" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="174">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="1"/>
@@ -4527,7 +4434,7 @@
       <c r="S174" s="1"/>
       <c r="T174" s="1"/>
     </row>
-    <row r="175" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="175">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="1"/>
@@ -4549,7 +4456,7 @@
       <c r="S175" s="1"/>
       <c r="T175" s="1"/>
     </row>
-    <row r="176" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="176">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="1"/>
@@ -4571,7 +4478,7 @@
       <c r="S176" s="1"/>
       <c r="T176" s="1"/>
     </row>
-    <row r="177" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="177">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="1"/>
@@ -4593,7 +4500,7 @@
       <c r="S177" s="1"/>
       <c r="T177" s="1"/>
     </row>
-    <row r="178" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="178">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="1"/>
@@ -4615,7 +4522,7 @@
       <c r="S178" s="1"/>
       <c r="T178" s="1"/>
     </row>
-    <row r="179" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="179">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="1"/>
@@ -4637,7 +4544,7 @@
       <c r="S179" s="1"/>
       <c r="T179" s="1"/>
     </row>
-    <row r="180" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="180">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="1"/>
@@ -4659,7 +4566,7 @@
       <c r="S180" s="1"/>
       <c r="T180" s="1"/>
     </row>
-    <row r="181" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="181">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="1"/>
@@ -4681,7 +4588,7 @@
       <c r="S181" s="1"/>
       <c r="T181" s="1"/>
     </row>
-    <row r="182" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="182">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="1"/>
@@ -4703,7 +4610,7 @@
       <c r="S182" s="1"/>
       <c r="T182" s="1"/>
     </row>
-    <row r="183" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="183">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="1"/>
@@ -4725,7 +4632,7 @@
       <c r="S183" s="1"/>
       <c r="T183" s="1"/>
     </row>
-    <row r="184" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="184">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="1"/>
@@ -4747,7 +4654,7 @@
       <c r="S184" s="1"/>
       <c r="T184" s="1"/>
     </row>
-    <row r="185" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="185">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="1"/>
@@ -4769,7 +4676,7 @@
       <c r="S185" s="1"/>
       <c r="T185" s="1"/>
     </row>
-    <row r="186" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="186">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="1"/>
@@ -4791,7 +4698,7 @@
       <c r="S186" s="1"/>
       <c r="T186" s="1"/>
     </row>
-    <row r="187" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="187">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="1"/>
@@ -4813,7 +4720,7 @@
       <c r="S187" s="1"/>
       <c r="T187" s="1"/>
     </row>
-    <row r="188" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="188">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="1"/>
@@ -4835,7 +4742,7 @@
       <c r="S188" s="1"/>
       <c r="T188" s="1"/>
     </row>
-    <row r="189" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="189">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="1"/>
@@ -4857,7 +4764,7 @@
       <c r="S189" s="1"/>
       <c r="T189" s="1"/>
     </row>
-    <row r="190" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="190">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="1"/>
@@ -4879,7 +4786,7 @@
       <c r="S190" s="1"/>
       <c r="T190" s="1"/>
     </row>
-    <row r="191" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="191">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="1"/>
@@ -4901,7 +4808,7 @@
       <c r="S191" s="1"/>
       <c r="T191" s="1"/>
     </row>
-    <row r="192" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="192">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="1"/>
@@ -4923,7 +4830,7 @@
       <c r="S192" s="1"/>
       <c r="T192" s="1"/>
     </row>
-    <row r="193" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="193">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="1"/>
@@ -4945,7 +4852,7 @@
       <c r="S193" s="1"/>
       <c r="T193" s="1"/>
     </row>
-    <row r="194" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="194">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="1"/>
@@ -4967,7 +4874,7 @@
       <c r="S194" s="1"/>
       <c r="T194" s="1"/>
     </row>
-    <row r="195" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="195">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="1"/>
@@ -4989,7 +4896,7 @@
       <c r="S195" s="1"/>
       <c r="T195" s="1"/>
     </row>
-    <row r="196" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="196">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="1"/>
@@ -5011,7 +4918,7 @@
       <c r="S196" s="1"/>
       <c r="T196" s="1"/>
     </row>
-    <row r="197" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="197">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="1"/>
@@ -5033,7 +4940,7 @@
       <c r="S197" s="1"/>
       <c r="T197" s="1"/>
     </row>
-    <row r="198" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="198">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="1"/>
@@ -5055,7 +4962,7 @@
       <c r="S198" s="1"/>
       <c r="T198" s="1"/>
     </row>
-    <row r="199" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="199">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="1"/>
@@ -5077,7 +4984,7 @@
       <c r="S199" s="1"/>
       <c r="T199" s="1"/>
     </row>
-    <row r="200" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="200">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="1"/>
@@ -5100,7 +5007,6 @@
       <c r="T200" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/许愿墙.xlsx
+++ b/许愿墙.xlsx
@@ -1,79 +1,189 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\86176\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{844F0E40-22C8-4EC1-9B85-2446AE049CD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="15800" windowWidth="28040" xWindow="4240" yWindow="640"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcMode="auto"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="37">
   <si>
-    <t xml:space="preserve">  </t>
+    <t>你想找什么样的工作？</t>
+  </si>
+  <si>
+    <t>现在的状态是怎样的？</t>
+  </si>
+  <si>
+    <t>AI攻城狮</t>
+  </si>
+  <si>
+    <t>已找到！</t>
+  </si>
+  <si>
+    <t>Java+AI</t>
+  </si>
+  <si>
+    <t>在找</t>
+  </si>
+  <si>
+    <t>AI agent开发</t>
+  </si>
+  <si>
+    <t>Java实习</t>
+  </si>
+  <si>
+    <t>还没开始找</t>
+  </si>
+  <si>
+    <t>系统架构师</t>
+  </si>
+  <si>
+    <t>Go</t>
+  </si>
+  <si>
+    <t>前端攻城狮</t>
+  </si>
+  <si>
+    <t>AI+游戏开发</t>
+  </si>
+  <si>
+    <t>C++实习</t>
+  </si>
+  <si>
+    <t>后端开发</t>
+  </si>
+  <si>
+    <t>正确的路上</t>
+  </si>
+  <si>
+    <t>Java后端开发</t>
+  </si>
+  <si>
+    <t>在找实习的路上</t>
+  </si>
+  <si>
+    <t>Java</t>
+  </si>
+  <si>
+    <t>找到了，但是通勤太远想跳槽</t>
+  </si>
+  <si>
+    <t>Frontend leader</t>
+  </si>
+  <si>
+    <t>找到了，但是没有work life balance</t>
+  </si>
+  <si>
+    <t>找到了，不满意</t>
+  </si>
+  <si>
+    <t>Java开发</t>
+  </si>
+  <si>
+    <t>再找</t>
+  </si>
+  <si>
+    <t>前端工程师</t>
+  </si>
+  <si>
+    <t>java开发</t>
+  </si>
+  <si>
+    <t>AI+前端工程师</t>
+  </si>
+  <si>
+    <t>C++开发</t>
+  </si>
+  <si>
+    <t>Go后端开发</t>
+  </si>
+  <si>
+    <t>AI+后端工程师</t>
+  </si>
+  <si>
+    <t>linux运维</t>
+  </si>
+  <si>
+    <t>AI+嵌入式</t>
+  </si>
+  <si>
+    <t>财务主管</t>
+  </si>
+  <si>
+    <t>在学习的路上</t>
+  </si>
+  <si>
+    <t>java开发</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在找</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9.75"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9.75"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none">
-        <fgColor/>
-        <bgColor/>
-      </patternFill>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor/>
-        <bgColor/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF34C724"/>
-        <bgColor/>
       </patternFill>
     </fill>
   </fills>
@@ -139,30 +249,30 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="2" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -175,7 +285,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -470,28 +580,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
-    <outlinePr summaryBelow="false" summaryRight="false"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:T200"/>
   <sheetViews>
-    <sheetView showGridLines="true" tabSelected="true" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="21"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="32"/>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="2" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="4" t="str">
-        <v>你想找什么样的工作？</v>
-      </c>
-      <c r="B1" s="4" t="str">
-        <v>现在的状态是怎样的？</v>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -512,12 +622,12 @@
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
     </row>
-    <row r="2">
-      <c r="A2" s="2" t="str">
-        <v>AI攻城狮</v>
-      </c>
-      <c r="B2" s="2" t="str">
-        <v>已找到！</v>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -538,12 +648,12 @@
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
     </row>
-    <row r="3">
-      <c r="A3" s="2" t="str">
-        <v>Java+AI</v>
-      </c>
-      <c r="B3" s="2" t="str">
-        <v>在找</v>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -564,12 +674,12 @@
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
     </row>
-    <row r="4">
-      <c r="A4" s="2" t="str">
-        <v>AI agent开发</v>
-      </c>
-      <c r="B4" s="2" t="str">
-        <v>在找</v>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -590,12 +700,12 @@
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
     </row>
-    <row r="5">
-      <c r="A5" s="2" t="str">
-        <v>Java实习</v>
-      </c>
-      <c r="B5" s="2" t="str">
-        <v>还没开始找</v>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -616,12 +726,12 @@
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
     </row>
-    <row r="6">
-      <c r="A6" s="2" t="str">
-        <v>系统架构师</v>
-      </c>
-      <c r="B6" s="2" t="str">
-        <v>在找</v>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -642,12 +752,12 @@
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
     </row>
-    <row r="7">
-      <c r="A7" s="2" t="str">
-        <v>Go</v>
-      </c>
-      <c r="B7" s="2" t="str">
-        <v>在找</v>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -668,12 +778,12 @@
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
     </row>
-    <row r="8">
-      <c r="A8" s="2" t="str">
-        <v>前端攻城狮</v>
-      </c>
-      <c r="B8" s="2" t="str">
-        <v>在找</v>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -694,12 +804,12 @@
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
     </row>
-    <row r="9">
-      <c r="A9" s="2" t="str">
-        <v>AI+游戏开发</v>
-      </c>
-      <c r="B9" s="2" t="str">
-        <v>在找</v>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -720,12 +830,12 @@
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
     </row>
-    <row r="10">
-      <c r="A10" s="2" t="str">
-        <v>C++实习</v>
-      </c>
-      <c r="B10" s="2" t="str">
-        <v>在找</v>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -746,12 +856,12 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
     </row>
-    <row r="11">
-      <c r="A11" s="2" t="str">
-        <v>后端开发</v>
-      </c>
-      <c r="B11" s="2" t="str">
-        <v>正确的路上</v>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -772,12 +882,12 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row r="12">
-      <c r="A12" s="2" t="str">
-        <v>Java后端开发</v>
-      </c>
-      <c r="B12" s="2" t="str">
-        <v>在找实习的路上</v>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -798,12 +908,12 @@
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
     </row>
-    <row r="13">
-      <c r="A13" s="2" t="str">
-        <v>Java</v>
-      </c>
-      <c r="B13" s="2" t="str">
-        <v>找到了，但是通勤太远想跳槽</v>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -824,12 +934,12 @@
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
     </row>
-    <row r="14">
-      <c r="A14" s="2" t="str">
-        <v>Frontend leader</v>
-      </c>
-      <c r="B14" s="2" t="str">
-        <v>找到了，但是没有work life balance</v>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -850,12 +960,12 @@
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
     </row>
-    <row r="15">
-      <c r="A15" s="3" t="str">
-        <v>Java</v>
-      </c>
-      <c r="B15" s="2" t="str">
-        <v>找到了，不满意</v>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -876,12 +986,12 @@
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
     </row>
-    <row r="16">
-      <c r="A16" s="2" t="str">
-        <v>Java开发</v>
-      </c>
-      <c r="B16" s="2" t="str">
-        <v>再找</v>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -902,12 +1012,12 @@
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
     </row>
-    <row r="17">
-      <c r="A17" s="2" t="str">
-        <v>前端工程师</v>
-      </c>
-      <c r="B17" s="2" t="str">
-        <v>在找</v>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -928,12 +1038,12 @@
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
     </row>
-    <row r="18">
-      <c r="A18" s="2" t="str">
-        <v>java开发</v>
-      </c>
-      <c r="B18" s="2" t="str">
-        <v>在找</v>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -954,12 +1064,12 @@
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
     </row>
-    <row r="19">
-      <c r="A19" s="2" t="str">
-        <v>AI+前端工程师</v>
-      </c>
-      <c r="B19" s="2" t="str">
-        <v>还没开始找</v>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -980,12 +1090,12 @@
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
     </row>
-    <row r="20">
-      <c r="A20" s="2" t="str">
-        <v>C++开发</v>
-      </c>
-      <c r="B20" s="2" t="str">
-        <v>在找</v>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -1006,12 +1116,12 @@
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
     </row>
-    <row r="21">
-      <c r="A21" s="2" t="str">
-        <v>Go</v>
-      </c>
-      <c r="B21" s="2" t="str">
-        <v>在找</v>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -1032,12 +1142,12 @@
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
     </row>
-    <row r="22">
-      <c r="A22" s="2" t="str">
-        <v>Go后端开发</v>
-      </c>
-      <c r="B22" s="2" t="str">
-        <v>在找</v>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1058,12 +1168,12 @@
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
     </row>
-    <row r="23">
-      <c r="A23" s="2" t="str">
-        <v>AI+后端工程师</v>
-      </c>
-      <c r="B23" s="2" t="str">
-        <v>还没开始找</v>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1084,12 +1194,12 @@
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
     </row>
-    <row r="24">
-      <c r="A24" s="2" t="str">
-        <v>linux运维</v>
-      </c>
-      <c r="B24" s="2" t="str">
-        <v>在找</v>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1110,12 +1220,12 @@
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
     </row>
-    <row r="25">
-      <c r="A25" s="2" t="str">
-        <v>前端工程师</v>
-      </c>
-      <c r="B25" s="2" t="str">
-        <v>在找</v>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1136,12 +1246,12 @@
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
     </row>
-    <row r="26">
-      <c r="A26" s="2" t="str">
-        <v>前端工程师</v>
-      </c>
-      <c r="B26" s="2" t="str">
-        <v>还没开始找</v>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1162,12 +1272,12 @@
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
     </row>
-    <row r="27">
-      <c r="A27" s="2" t="str">
-        <v>java开发</v>
-      </c>
-      <c r="B27" s="2" t="str">
-        <v>在找</v>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1188,12 +1298,12 @@
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
     </row>
-    <row r="28">
-      <c r="A28" s="2" t="str">
-        <v>AI+嵌入式</v>
-      </c>
-      <c r="B28" s="2" t="str">
-        <v>再找</v>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1214,12 +1324,12 @@
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
     </row>
-    <row r="29">
-      <c r="A29" s="2" t="str">
-        <v>财务主管</v>
-      </c>
-      <c r="B29" s="2" t="str">
-        <v>在找</v>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1240,12 +1350,12 @@
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
     </row>
-    <row r="30">
-      <c r="A30" s="2" t="str">
-        <v>后端开发</v>
-      </c>
-      <c r="B30" s="2" t="str">
-        <v>在学习的路上</v>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1266,9 +1376,13 @@
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
     </row>
-    <row r="31">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -1288,7 +1402,7 @@
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="1"/>
@@ -1310,7 +1424,7 @@
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="1"/>
@@ -1332,7 +1446,7 @@
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="1"/>
@@ -1354,7 +1468,7 @@
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="1"/>
@@ -1376,7 +1490,7 @@
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="1"/>
@@ -1398,7 +1512,7 @@
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="1"/>
@@ -1420,7 +1534,7 @@
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="1"/>
@@ -1442,7 +1556,7 @@
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="1"/>
@@ -1464,7 +1578,7 @@
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="1"/>
@@ -1486,7 +1600,7 @@
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="1"/>
@@ -1508,7 +1622,7 @@
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="1"/>
@@ -1530,7 +1644,7 @@
       <c r="S42" s="1"/>
       <c r="T42" s="1"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="1"/>
@@ -1552,7 +1666,7 @@
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="1"/>
@@ -1574,7 +1688,7 @@
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="1"/>
@@ -1596,7 +1710,7 @@
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
     </row>
-    <row r="46">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="1"/>
@@ -1618,7 +1732,7 @@
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="1"/>
@@ -1640,7 +1754,7 @@
       <c r="S47" s="1"/>
       <c r="T47" s="1"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="1"/>
@@ -1662,7 +1776,7 @@
       <c r="S48" s="1"/>
       <c r="T48" s="1"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="1"/>
@@ -1684,7 +1798,7 @@
       <c r="S49" s="1"/>
       <c r="T49" s="1"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="1"/>
@@ -1706,7 +1820,7 @@
       <c r="S50" s="1"/>
       <c r="T50" s="1"/>
     </row>
-    <row r="51">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="1"/>
@@ -1728,7 +1842,7 @@
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
     </row>
-    <row r="52">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="1"/>
@@ -1750,7 +1864,7 @@
       <c r="S52" s="1"/>
       <c r="T52" s="1"/>
     </row>
-    <row r="53">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="1"/>
@@ -1772,7 +1886,7 @@
       <c r="S53" s="1"/>
       <c r="T53" s="1"/>
     </row>
-    <row r="54">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="1"/>
@@ -1794,7 +1908,7 @@
       <c r="S54" s="1"/>
       <c r="T54" s="1"/>
     </row>
-    <row r="55">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="1"/>
@@ -1816,7 +1930,7 @@
       <c r="S55" s="1"/>
       <c r="T55" s="1"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="1"/>
@@ -1838,7 +1952,7 @@
       <c r="S56" s="1"/>
       <c r="T56" s="1"/>
     </row>
-    <row r="57">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="1"/>
@@ -1860,7 +1974,7 @@
       <c r="S57" s="1"/>
       <c r="T57" s="1"/>
     </row>
-    <row r="58">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="1"/>
@@ -1882,7 +1996,7 @@
       <c r="S58" s="1"/>
       <c r="T58" s="1"/>
     </row>
-    <row r="59">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="1"/>
@@ -1904,7 +2018,7 @@
       <c r="S59" s="1"/>
       <c r="T59" s="1"/>
     </row>
-    <row r="60">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="1"/>
@@ -1926,7 +2040,7 @@
       <c r="S60" s="1"/>
       <c r="T60" s="1"/>
     </row>
-    <row r="61">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="1"/>
@@ -1948,7 +2062,7 @@
       <c r="S61" s="1"/>
       <c r="T61" s="1"/>
     </row>
-    <row r="62">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="1"/>
@@ -1970,7 +2084,7 @@
       <c r="S62" s="1"/>
       <c r="T62" s="1"/>
     </row>
-    <row r="63">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="1"/>
@@ -1992,7 +2106,7 @@
       <c r="S63" s="1"/>
       <c r="T63" s="1"/>
     </row>
-    <row r="64">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="1"/>
@@ -2014,7 +2128,7 @@
       <c r="S64" s="1"/>
       <c r="T64" s="1"/>
     </row>
-    <row r="65">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="1"/>
@@ -2036,7 +2150,7 @@
       <c r="S65" s="1"/>
       <c r="T65" s="1"/>
     </row>
-    <row r="66">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="1"/>
@@ -2058,7 +2172,7 @@
       <c r="S66" s="1"/>
       <c r="T66" s="1"/>
     </row>
-    <row r="67">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="1"/>
@@ -2080,7 +2194,7 @@
       <c r="S67" s="1"/>
       <c r="T67" s="1"/>
     </row>
-    <row r="68">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="1"/>
@@ -2102,7 +2216,7 @@
       <c r="S68" s="1"/>
       <c r="T68" s="1"/>
     </row>
-    <row r="69">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="1"/>
@@ -2124,7 +2238,7 @@
       <c r="S69" s="1"/>
       <c r="T69" s="1"/>
     </row>
-    <row r="70">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="1"/>
@@ -2146,7 +2260,7 @@
       <c r="S70" s="1"/>
       <c r="T70" s="1"/>
     </row>
-    <row r="71">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="1"/>
@@ -2168,7 +2282,7 @@
       <c r="S71" s="1"/>
       <c r="T71" s="1"/>
     </row>
-    <row r="72">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="1"/>
@@ -2190,7 +2304,7 @@
       <c r="S72" s="1"/>
       <c r="T72" s="1"/>
     </row>
-    <row r="73">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="1"/>
@@ -2212,7 +2326,7 @@
       <c r="S73" s="1"/>
       <c r="T73" s="1"/>
     </row>
-    <row r="74">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="1"/>
@@ -2234,7 +2348,7 @@
       <c r="S74" s="1"/>
       <c r="T74" s="1"/>
     </row>
-    <row r="75">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="1"/>
@@ -2256,7 +2370,7 @@
       <c r="S75" s="1"/>
       <c r="T75" s="1"/>
     </row>
-    <row r="76">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="1"/>
@@ -2278,7 +2392,7 @@
       <c r="S76" s="1"/>
       <c r="T76" s="1"/>
     </row>
-    <row r="77">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="1"/>
@@ -2300,7 +2414,7 @@
       <c r="S77" s="1"/>
       <c r="T77" s="1"/>
     </row>
-    <row r="78">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="1"/>
@@ -2322,7 +2436,7 @@
       <c r="S78" s="1"/>
       <c r="T78" s="1"/>
     </row>
-    <row r="79">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="1"/>
@@ -2344,7 +2458,7 @@
       <c r="S79" s="1"/>
       <c r="T79" s="1"/>
     </row>
-    <row r="80">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="1"/>
@@ -2366,7 +2480,7 @@
       <c r="S80" s="1"/>
       <c r="T80" s="1"/>
     </row>
-    <row r="81">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="1"/>
@@ -2388,7 +2502,7 @@
       <c r="S81" s="1"/>
       <c r="T81" s="1"/>
     </row>
-    <row r="82">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="1"/>
@@ -2410,7 +2524,7 @@
       <c r="S82" s="1"/>
       <c r="T82" s="1"/>
     </row>
-    <row r="83">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="1"/>
@@ -2432,7 +2546,7 @@
       <c r="S83" s="1"/>
       <c r="T83" s="1"/>
     </row>
-    <row r="84">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="1"/>
@@ -2454,7 +2568,7 @@
       <c r="S84" s="1"/>
       <c r="T84" s="1"/>
     </row>
-    <row r="85">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="1"/>
@@ -2476,7 +2590,7 @@
       <c r="S85" s="1"/>
       <c r="T85" s="1"/>
     </row>
-    <row r="86">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="1"/>
@@ -2498,7 +2612,7 @@
       <c r="S86" s="1"/>
       <c r="T86" s="1"/>
     </row>
-    <row r="87">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="1"/>
@@ -2520,7 +2634,7 @@
       <c r="S87" s="1"/>
       <c r="T87" s="1"/>
     </row>
-    <row r="88">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="1"/>
@@ -2542,7 +2656,7 @@
       <c r="S88" s="1"/>
       <c r="T88" s="1"/>
     </row>
-    <row r="89">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="1"/>
@@ -2564,7 +2678,7 @@
       <c r="S89" s="1"/>
       <c r="T89" s="1"/>
     </row>
-    <row r="90">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="1"/>
@@ -2586,7 +2700,7 @@
       <c r="S90" s="1"/>
       <c r="T90" s="1"/>
     </row>
-    <row r="91">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="1"/>
@@ -2608,7 +2722,7 @@
       <c r="S91" s="1"/>
       <c r="T91" s="1"/>
     </row>
-    <row r="92">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="1"/>
@@ -2630,7 +2744,7 @@
       <c r="S92" s="1"/>
       <c r="T92" s="1"/>
     </row>
-    <row r="93">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="1"/>
@@ -2652,7 +2766,7 @@
       <c r="S93" s="1"/>
       <c r="T93" s="1"/>
     </row>
-    <row r="94">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="1"/>
@@ -2674,7 +2788,7 @@
       <c r="S94" s="1"/>
       <c r="T94" s="1"/>
     </row>
-    <row r="95">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="1"/>
@@ -2696,7 +2810,7 @@
       <c r="S95" s="1"/>
       <c r="T95" s="1"/>
     </row>
-    <row r="96">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="1"/>
@@ -2718,7 +2832,7 @@
       <c r="S96" s="1"/>
       <c r="T96" s="1"/>
     </row>
-    <row r="97">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="1"/>
@@ -2740,7 +2854,7 @@
       <c r="S97" s="1"/>
       <c r="T97" s="1"/>
     </row>
-    <row r="98">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="1"/>
@@ -2762,7 +2876,7 @@
       <c r="S98" s="1"/>
       <c r="T98" s="1"/>
     </row>
-    <row r="99">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="1"/>
@@ -2784,7 +2898,7 @@
       <c r="S99" s="1"/>
       <c r="T99" s="1"/>
     </row>
-    <row r="100">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="1"/>
@@ -2806,7 +2920,7 @@
       <c r="S100" s="1"/>
       <c r="T100" s="1"/>
     </row>
-    <row r="101">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="1"/>
@@ -2828,7 +2942,7 @@
       <c r="S101" s="1"/>
       <c r="T101" s="1"/>
     </row>
-    <row r="102">
+    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="1"/>
@@ -2850,7 +2964,7 @@
       <c r="S102" s="1"/>
       <c r="T102" s="1"/>
     </row>
-    <row r="103">
+    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="1"/>
@@ -2872,7 +2986,7 @@
       <c r="S103" s="1"/>
       <c r="T103" s="1"/>
     </row>
-    <row r="104">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="1"/>
@@ -2894,7 +3008,7 @@
       <c r="S104" s="1"/>
       <c r="T104" s="1"/>
     </row>
-    <row r="105">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="1"/>
@@ -2916,7 +3030,7 @@
       <c r="S105" s="1"/>
       <c r="T105" s="1"/>
     </row>
-    <row r="106">
+    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="1"/>
@@ -2938,7 +3052,7 @@
       <c r="S106" s="1"/>
       <c r="T106" s="1"/>
     </row>
-    <row r="107">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="1"/>
@@ -2960,7 +3074,7 @@
       <c r="S107" s="1"/>
       <c r="T107" s="1"/>
     </row>
-    <row r="108">
+    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="1"/>
@@ -2982,7 +3096,7 @@
       <c r="S108" s="1"/>
       <c r="T108" s="1"/>
     </row>
-    <row r="109">
+    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="1"/>
@@ -3004,7 +3118,7 @@
       <c r="S109" s="1"/>
       <c r="T109" s="1"/>
     </row>
-    <row r="110">
+    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="1"/>
@@ -3026,7 +3140,7 @@
       <c r="S110" s="1"/>
       <c r="T110" s="1"/>
     </row>
-    <row r="111">
+    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="1"/>
@@ -3048,7 +3162,7 @@
       <c r="S111" s="1"/>
       <c r="T111" s="1"/>
     </row>
-    <row r="112">
+    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="1"/>
@@ -3070,7 +3184,7 @@
       <c r="S112" s="1"/>
       <c r="T112" s="1"/>
     </row>
-    <row r="113">
+    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="1"/>
@@ -3092,7 +3206,7 @@
       <c r="S113" s="1"/>
       <c r="T113" s="1"/>
     </row>
-    <row r="114">
+    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="1"/>
@@ -3114,7 +3228,7 @@
       <c r="S114" s="1"/>
       <c r="T114" s="1"/>
     </row>
-    <row r="115">
+    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="1"/>
@@ -3136,7 +3250,7 @@
       <c r="S115" s="1"/>
       <c r="T115" s="1"/>
     </row>
-    <row r="116">
+    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="1"/>
@@ -3158,7 +3272,7 @@
       <c r="S116" s="1"/>
       <c r="T116" s="1"/>
     </row>
-    <row r="117">
+    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="1"/>
@@ -3180,7 +3294,7 @@
       <c r="S117" s="1"/>
       <c r="T117" s="1"/>
     </row>
-    <row r="118">
+    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="1"/>
@@ -3202,7 +3316,7 @@
       <c r="S118" s="1"/>
       <c r="T118" s="1"/>
     </row>
-    <row r="119">
+    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="1"/>
@@ -3224,7 +3338,7 @@
       <c r="S119" s="1"/>
       <c r="T119" s="1"/>
     </row>
-    <row r="120">
+    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="1"/>
@@ -3246,7 +3360,7 @@
       <c r="S120" s="1"/>
       <c r="T120" s="1"/>
     </row>
-    <row r="121">
+    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="1"/>
@@ -3268,7 +3382,7 @@
       <c r="S121" s="1"/>
       <c r="T121" s="1"/>
     </row>
-    <row r="122">
+    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="1"/>
@@ -3290,7 +3404,7 @@
       <c r="S122" s="1"/>
       <c r="T122" s="1"/>
     </row>
-    <row r="123">
+    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="1"/>
@@ -3312,7 +3426,7 @@
       <c r="S123" s="1"/>
       <c r="T123" s="1"/>
     </row>
-    <row r="124">
+    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="1"/>
@@ -3334,7 +3448,7 @@
       <c r="S124" s="1"/>
       <c r="T124" s="1"/>
     </row>
-    <row r="125">
+    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="1"/>
@@ -3356,7 +3470,7 @@
       <c r="S125" s="1"/>
       <c r="T125" s="1"/>
     </row>
-    <row r="126">
+    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="1"/>
@@ -3378,7 +3492,7 @@
       <c r="S126" s="1"/>
       <c r="T126" s="1"/>
     </row>
-    <row r="127">
+    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="1"/>
@@ -3400,7 +3514,7 @@
       <c r="S127" s="1"/>
       <c r="T127" s="1"/>
     </row>
-    <row r="128">
+    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="1"/>
@@ -3422,7 +3536,7 @@
       <c r="S128" s="1"/>
       <c r="T128" s="1"/>
     </row>
-    <row r="129">
+    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="1"/>
@@ -3444,7 +3558,7 @@
       <c r="S129" s="1"/>
       <c r="T129" s="1"/>
     </row>
-    <row r="130">
+    <row r="130" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="1"/>
@@ -3466,7 +3580,7 @@
       <c r="S130" s="1"/>
       <c r="T130" s="1"/>
     </row>
-    <row r="131">
+    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="1"/>
@@ -3488,7 +3602,7 @@
       <c r="S131" s="1"/>
       <c r="T131" s="1"/>
     </row>
-    <row r="132">
+    <row r="132" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="1"/>
@@ -3510,7 +3624,7 @@
       <c r="S132" s="1"/>
       <c r="T132" s="1"/>
     </row>
-    <row r="133">
+    <row r="133" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="1"/>
@@ -3532,7 +3646,7 @@
       <c r="S133" s="1"/>
       <c r="T133" s="1"/>
     </row>
-    <row r="134">
+    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="1"/>
@@ -3554,7 +3668,7 @@
       <c r="S134" s="1"/>
       <c r="T134" s="1"/>
     </row>
-    <row r="135">
+    <row r="135" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="1"/>
@@ -3576,7 +3690,7 @@
       <c r="S135" s="1"/>
       <c r="T135" s="1"/>
     </row>
-    <row r="136">
+    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="1"/>
@@ -3598,7 +3712,7 @@
       <c r="S136" s="1"/>
       <c r="T136" s="1"/>
     </row>
-    <row r="137">
+    <row r="137" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="1"/>
@@ -3620,7 +3734,7 @@
       <c r="S137" s="1"/>
       <c r="T137" s="1"/>
     </row>
-    <row r="138">
+    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="1"/>
@@ -3642,7 +3756,7 @@
       <c r="S138" s="1"/>
       <c r="T138" s="1"/>
     </row>
-    <row r="139">
+    <row r="139" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="1"/>
@@ -3664,7 +3778,7 @@
       <c r="S139" s="1"/>
       <c r="T139" s="1"/>
     </row>
-    <row r="140">
+    <row r="140" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="1"/>
@@ -3686,7 +3800,7 @@
       <c r="S140" s="1"/>
       <c r="T140" s="1"/>
     </row>
-    <row r="141">
+    <row r="141" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="1"/>
@@ -3708,7 +3822,7 @@
       <c r="S141" s="1"/>
       <c r="T141" s="1"/>
     </row>
-    <row r="142">
+    <row r="142" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="1"/>
@@ -3730,7 +3844,7 @@
       <c r="S142" s="1"/>
       <c r="T142" s="1"/>
     </row>
-    <row r="143">
+    <row r="143" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="1"/>
@@ -3752,7 +3866,7 @@
       <c r="S143" s="1"/>
       <c r="T143" s="1"/>
     </row>
-    <row r="144">
+    <row r="144" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="1"/>
@@ -3774,7 +3888,7 @@
       <c r="S144" s="1"/>
       <c r="T144" s="1"/>
     </row>
-    <row r="145">
+    <row r="145" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="1"/>
@@ -3796,7 +3910,7 @@
       <c r="S145" s="1"/>
       <c r="T145" s="1"/>
     </row>
-    <row r="146">
+    <row r="146" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="1"/>
@@ -3818,7 +3932,7 @@
       <c r="S146" s="1"/>
       <c r="T146" s="1"/>
     </row>
-    <row r="147">
+    <row r="147" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="1"/>
@@ -3840,7 +3954,7 @@
       <c r="S147" s="1"/>
       <c r="T147" s="1"/>
     </row>
-    <row r="148">
+    <row r="148" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="1"/>
@@ -3862,7 +3976,7 @@
       <c r="S148" s="1"/>
       <c r="T148" s="1"/>
     </row>
-    <row r="149">
+    <row r="149" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="1"/>
@@ -3884,7 +3998,7 @@
       <c r="S149" s="1"/>
       <c r="T149" s="1"/>
     </row>
-    <row r="150">
+    <row r="150" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="1"/>
@@ -3906,7 +4020,7 @@
       <c r="S150" s="1"/>
       <c r="T150" s="1"/>
     </row>
-    <row r="151">
+    <row r="151" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="1"/>
@@ -3928,7 +4042,7 @@
       <c r="S151" s="1"/>
       <c r="T151" s="1"/>
     </row>
-    <row r="152">
+    <row r="152" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="1"/>
@@ -3950,7 +4064,7 @@
       <c r="S152" s="1"/>
       <c r="T152" s="1"/>
     </row>
-    <row r="153">
+    <row r="153" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="1"/>
@@ -3972,7 +4086,7 @@
       <c r="S153" s="1"/>
       <c r="T153" s="1"/>
     </row>
-    <row r="154">
+    <row r="154" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="1"/>
@@ -3994,7 +4108,7 @@
       <c r="S154" s="1"/>
       <c r="T154" s="1"/>
     </row>
-    <row r="155">
+    <row r="155" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="1"/>
@@ -4016,7 +4130,7 @@
       <c r="S155" s="1"/>
       <c r="T155" s="1"/>
     </row>
-    <row r="156">
+    <row r="156" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="1"/>
@@ -4038,7 +4152,7 @@
       <c r="S156" s="1"/>
       <c r="T156" s="1"/>
     </row>
-    <row r="157">
+    <row r="157" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="1"/>
@@ -4060,7 +4174,7 @@
       <c r="S157" s="1"/>
       <c r="T157" s="1"/>
     </row>
-    <row r="158">
+    <row r="158" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="1"/>
@@ -4082,7 +4196,7 @@
       <c r="S158" s="1"/>
       <c r="T158" s="1"/>
     </row>
-    <row r="159">
+    <row r="159" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="1"/>
@@ -4104,7 +4218,7 @@
       <c r="S159" s="1"/>
       <c r="T159" s="1"/>
     </row>
-    <row r="160">
+    <row r="160" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="1"/>
@@ -4126,7 +4240,7 @@
       <c r="S160" s="1"/>
       <c r="T160" s="1"/>
     </row>
-    <row r="161">
+    <row r="161" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="1"/>
@@ -4148,7 +4262,7 @@
       <c r="S161" s="1"/>
       <c r="T161" s="1"/>
     </row>
-    <row r="162">
+    <row r="162" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="1"/>
@@ -4170,7 +4284,7 @@
       <c r="S162" s="1"/>
       <c r="T162" s="1"/>
     </row>
-    <row r="163">
+    <row r="163" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="1"/>
@@ -4192,7 +4306,7 @@
       <c r="S163" s="1"/>
       <c r="T163" s="1"/>
     </row>
-    <row r="164">
+    <row r="164" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="1"/>
@@ -4214,7 +4328,7 @@
       <c r="S164" s="1"/>
       <c r="T164" s="1"/>
     </row>
-    <row r="165">
+    <row r="165" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="1"/>
@@ -4236,7 +4350,7 @@
       <c r="S165" s="1"/>
       <c r="T165" s="1"/>
     </row>
-    <row r="166">
+    <row r="166" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="1"/>
@@ -4258,7 +4372,7 @@
       <c r="S166" s="1"/>
       <c r="T166" s="1"/>
     </row>
-    <row r="167">
+    <row r="167" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="1"/>
@@ -4280,7 +4394,7 @@
       <c r="S167" s="1"/>
       <c r="T167" s="1"/>
     </row>
-    <row r="168">
+    <row r="168" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="1"/>
@@ -4302,7 +4416,7 @@
       <c r="S168" s="1"/>
       <c r="T168" s="1"/>
     </row>
-    <row r="169">
+    <row r="169" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="1"/>
@@ -4324,7 +4438,7 @@
       <c r="S169" s="1"/>
       <c r="T169" s="1"/>
     </row>
-    <row r="170">
+    <row r="170" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="1"/>
@@ -4346,7 +4460,7 @@
       <c r="S170" s="1"/>
       <c r="T170" s="1"/>
     </row>
-    <row r="171">
+    <row r="171" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="1"/>
@@ -4368,7 +4482,7 @@
       <c r="S171" s="1"/>
       <c r="T171" s="1"/>
     </row>
-    <row r="172">
+    <row r="172" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="1"/>
@@ -4390,7 +4504,7 @@
       <c r="S172" s="1"/>
       <c r="T172" s="1"/>
     </row>
-    <row r="173">
+    <row r="173" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="1"/>
@@ -4412,7 +4526,7 @@
       <c r="S173" s="1"/>
       <c r="T173" s="1"/>
     </row>
-    <row r="174">
+    <row r="174" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="1"/>
@@ -4434,7 +4548,7 @@
       <c r="S174" s="1"/>
       <c r="T174" s="1"/>
     </row>
-    <row r="175">
+    <row r="175" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="1"/>
@@ -4456,7 +4570,7 @@
       <c r="S175" s="1"/>
       <c r="T175" s="1"/>
     </row>
-    <row r="176">
+    <row r="176" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="1"/>
@@ -4478,7 +4592,7 @@
       <c r="S176" s="1"/>
       <c r="T176" s="1"/>
     </row>
-    <row r="177">
+    <row r="177" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="1"/>
@@ -4500,7 +4614,7 @@
       <c r="S177" s="1"/>
       <c r="T177" s="1"/>
     </row>
-    <row r="178">
+    <row r="178" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="1"/>
@@ -4522,7 +4636,7 @@
       <c r="S178" s="1"/>
       <c r="T178" s="1"/>
     </row>
-    <row r="179">
+    <row r="179" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="1"/>
@@ -4544,7 +4658,7 @@
       <c r="S179" s="1"/>
       <c r="T179" s="1"/>
     </row>
-    <row r="180">
+    <row r="180" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="1"/>
@@ -4566,7 +4680,7 @@
       <c r="S180" s="1"/>
       <c r="T180" s="1"/>
     </row>
-    <row r="181">
+    <row r="181" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="1"/>
@@ -4588,7 +4702,7 @@
       <c r="S181" s="1"/>
       <c r="T181" s="1"/>
     </row>
-    <row r="182">
+    <row r="182" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="1"/>
@@ -4610,7 +4724,7 @@
       <c r="S182" s="1"/>
       <c r="T182" s="1"/>
     </row>
-    <row r="183">
+    <row r="183" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="1"/>
@@ -4632,7 +4746,7 @@
       <c r="S183" s="1"/>
       <c r="T183" s="1"/>
     </row>
-    <row r="184">
+    <row r="184" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="1"/>
@@ -4654,7 +4768,7 @@
       <c r="S184" s="1"/>
       <c r="T184" s="1"/>
     </row>
-    <row r="185">
+    <row r="185" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="1"/>
@@ -4676,7 +4790,7 @@
       <c r="S185" s="1"/>
       <c r="T185" s="1"/>
     </row>
-    <row r="186">
+    <row r="186" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="1"/>
@@ -4698,7 +4812,7 @@
       <c r="S186" s="1"/>
       <c r="T186" s="1"/>
     </row>
-    <row r="187">
+    <row r="187" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="1"/>
@@ -4720,7 +4834,7 @@
       <c r="S187" s="1"/>
       <c r="T187" s="1"/>
     </row>
-    <row r="188">
+    <row r="188" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="1"/>
@@ -4742,7 +4856,7 @@
       <c r="S188" s="1"/>
       <c r="T188" s="1"/>
     </row>
-    <row r="189">
+    <row r="189" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="1"/>
@@ -4764,7 +4878,7 @@
       <c r="S189" s="1"/>
       <c r="T189" s="1"/>
     </row>
-    <row r="190">
+    <row r="190" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="1"/>
@@ -4786,7 +4900,7 @@
       <c r="S190" s="1"/>
       <c r="T190" s="1"/>
     </row>
-    <row r="191">
+    <row r="191" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="1"/>
@@ -4808,7 +4922,7 @@
       <c r="S191" s="1"/>
       <c r="T191" s="1"/>
     </row>
-    <row r="192">
+    <row r="192" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="1"/>
@@ -4830,7 +4944,7 @@
       <c r="S192" s="1"/>
       <c r="T192" s="1"/>
     </row>
-    <row r="193">
+    <row r="193" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="1"/>
@@ -4852,7 +4966,7 @@
       <c r="S193" s="1"/>
       <c r="T193" s="1"/>
     </row>
-    <row r="194">
+    <row r="194" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="1"/>
@@ -4874,7 +4988,7 @@
       <c r="S194" s="1"/>
       <c r="T194" s="1"/>
     </row>
-    <row r="195">
+    <row r="195" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="1"/>
@@ -4896,7 +5010,7 @@
       <c r="S195" s="1"/>
       <c r="T195" s="1"/>
     </row>
-    <row r="196">
+    <row r="196" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="1"/>
@@ -4918,7 +5032,7 @@
       <c r="S196" s="1"/>
       <c r="T196" s="1"/>
     </row>
-    <row r="197">
+    <row r="197" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="1"/>
@@ -4940,7 +5054,7 @@
       <c r="S197" s="1"/>
       <c r="T197" s="1"/>
     </row>
-    <row r="198">
+    <row r="198" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="1"/>
@@ -4962,7 +5076,7 @@
       <c r="S198" s="1"/>
       <c r="T198" s="1"/>
     </row>
-    <row r="199">
+    <row r="199" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="1"/>
@@ -4984,7 +5098,7 @@
       <c r="S199" s="1"/>
       <c r="T199" s="1"/>
     </row>
-    <row r="200">
+    <row r="200" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="1"/>
@@ -5007,6 +5121,7 @@
       <c r="T200" s="1"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/许愿墙.xlsx
+++ b/许愿墙.xlsx
@@ -1,79 +1,189 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\1java\111\get_jobs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B2C5331-225D-4D7F-A487-289A4C1F86AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="15800" windowWidth="28040" xWindow="4240" yWindow="640"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcMode="auto"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="37">
   <si>
-    <t xml:space="preserve">  </t>
+    <t>你想找什么样的工作？</t>
+  </si>
+  <si>
+    <t>现在的状态是怎样的？</t>
+  </si>
+  <si>
+    <t>AI攻城狮</t>
+  </si>
+  <si>
+    <t>已找到！</t>
+  </si>
+  <si>
+    <t>Java+AI</t>
+  </si>
+  <si>
+    <t>在找</t>
+  </si>
+  <si>
+    <t>AI agent开发</t>
+  </si>
+  <si>
+    <t>Java实习</t>
+  </si>
+  <si>
+    <t>还没开始找</t>
+  </si>
+  <si>
+    <t>系统架构师</t>
+  </si>
+  <si>
+    <t>Go</t>
+  </si>
+  <si>
+    <t>前端攻城狮</t>
+  </si>
+  <si>
+    <t>AI+游戏开发</t>
+  </si>
+  <si>
+    <t>C++实习</t>
+  </si>
+  <si>
+    <t>后端开发</t>
+  </si>
+  <si>
+    <t>正确的路上</t>
+  </si>
+  <si>
+    <t>Java后端开发</t>
+  </si>
+  <si>
+    <t>在找实习的路上</t>
+  </si>
+  <si>
+    <t>Java</t>
+  </si>
+  <si>
+    <t>找到了，但是通勤太远想跳槽</t>
+  </si>
+  <si>
+    <t>Frontend leader</t>
+  </si>
+  <si>
+    <t>找到了，但是没有work life balance</t>
+  </si>
+  <si>
+    <t>找到了，不满意</t>
+  </si>
+  <si>
+    <t>Java开发</t>
+  </si>
+  <si>
+    <t>再找</t>
+  </si>
+  <si>
+    <t>前端工程师</t>
+  </si>
+  <si>
+    <t>java开发</t>
+  </si>
+  <si>
+    <t>AI+前端工程师</t>
+  </si>
+  <si>
+    <t>C++开发</t>
+  </si>
+  <si>
+    <t>Go后端开发</t>
+  </si>
+  <si>
+    <t>AI+后端工程师</t>
+  </si>
+  <si>
+    <t>linux运维</t>
+  </si>
+  <si>
+    <t>AI+嵌入式</t>
+  </si>
+  <si>
+    <t>财务主管</t>
+  </si>
+  <si>
+    <t>在学习的路上</t>
+  </si>
+  <si>
+    <t>Java开发</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>准备跳槽中</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9.75"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9.75"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none">
-        <fgColor/>
-        <bgColor/>
-      </patternFill>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor/>
-        <bgColor/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF34C724"/>
-        <bgColor/>
       </patternFill>
     </fill>
   </fills>
@@ -139,30 +249,30 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="2" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -175,9 +285,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主题">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -215,7 +325,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -321,7 +431,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -463,35 +573,35 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
-    <outlinePr summaryBelow="false" summaryRight="false"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:T200"/>
   <sheetViews>
-    <sheetView showGridLines="true" tabSelected="true" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="21"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="32"/>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="2" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="4" t="str">
-        <v>你想找什么样的工作？</v>
-      </c>
-      <c r="B1" s="4" t="str">
-        <v>现在的状态是怎样的？</v>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -512,12 +622,12 @@
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
     </row>
-    <row r="2">
-      <c r="A2" s="2" t="str">
-        <v>AI攻城狮</v>
-      </c>
-      <c r="B2" s="2" t="str">
-        <v>已找到！</v>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -538,12 +648,12 @@
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
     </row>
-    <row r="3">
-      <c r="A3" s="2" t="str">
-        <v>Java+AI</v>
-      </c>
-      <c r="B3" s="2" t="str">
-        <v>在找</v>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -564,12 +674,12 @@
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
     </row>
-    <row r="4">
-      <c r="A4" s="2" t="str">
-        <v>AI agent开发</v>
-      </c>
-      <c r="B4" s="2" t="str">
-        <v>在找</v>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -590,12 +700,12 @@
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
     </row>
-    <row r="5">
-      <c r="A5" s="2" t="str">
-        <v>Java实习</v>
-      </c>
-      <c r="B5" s="2" t="str">
-        <v>还没开始找</v>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -616,12 +726,12 @@
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
     </row>
-    <row r="6">
-      <c r="A6" s="2" t="str">
-        <v>系统架构师</v>
-      </c>
-      <c r="B6" s="2" t="str">
-        <v>在找</v>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -642,12 +752,12 @@
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
     </row>
-    <row r="7">
-      <c r="A7" s="2" t="str">
-        <v>Go</v>
-      </c>
-      <c r="B7" s="2" t="str">
-        <v>在找</v>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -668,12 +778,12 @@
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
     </row>
-    <row r="8">
-      <c r="A8" s="2" t="str">
-        <v>前端攻城狮</v>
-      </c>
-      <c r="B8" s="2" t="str">
-        <v>在找</v>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -694,12 +804,12 @@
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
     </row>
-    <row r="9">
-      <c r="A9" s="2" t="str">
-        <v>AI+游戏开发</v>
-      </c>
-      <c r="B9" s="2" t="str">
-        <v>在找</v>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -720,12 +830,12 @@
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
     </row>
-    <row r="10">
-      <c r="A10" s="2" t="str">
-        <v>C++实习</v>
-      </c>
-      <c r="B10" s="2" t="str">
-        <v>在找</v>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -746,12 +856,12 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
     </row>
-    <row r="11">
-      <c r="A11" s="2" t="str">
-        <v>后端开发</v>
-      </c>
-      <c r="B11" s="2" t="str">
-        <v>正确的路上</v>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -772,12 +882,12 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row r="12">
-      <c r="A12" s="2" t="str">
-        <v>Java后端开发</v>
-      </c>
-      <c r="B12" s="2" t="str">
-        <v>在找实习的路上</v>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -798,12 +908,12 @@
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
     </row>
-    <row r="13">
-      <c r="A13" s="2" t="str">
-        <v>Java</v>
-      </c>
-      <c r="B13" s="2" t="str">
-        <v>找到了，但是通勤太远想跳槽</v>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -824,12 +934,12 @@
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
     </row>
-    <row r="14">
-      <c r="A14" s="2" t="str">
-        <v>Frontend leader</v>
-      </c>
-      <c r="B14" s="2" t="str">
-        <v>找到了，但是没有work life balance</v>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -850,12 +960,12 @@
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
     </row>
-    <row r="15">
-      <c r="A15" s="3" t="str">
-        <v>Java</v>
-      </c>
-      <c r="B15" s="2" t="str">
-        <v>找到了，不满意</v>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -876,12 +986,12 @@
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
     </row>
-    <row r="16">
-      <c r="A16" s="2" t="str">
-        <v>Java开发</v>
-      </c>
-      <c r="B16" s="2" t="str">
-        <v>再找</v>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -902,12 +1012,12 @@
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
     </row>
-    <row r="17">
-      <c r="A17" s="2" t="str">
-        <v>前端工程师</v>
-      </c>
-      <c r="B17" s="2" t="str">
-        <v>在找</v>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -928,12 +1038,12 @@
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
     </row>
-    <row r="18">
-      <c r="A18" s="2" t="str">
-        <v>java开发</v>
-      </c>
-      <c r="B18" s="2" t="str">
-        <v>在找</v>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -954,12 +1064,12 @@
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
     </row>
-    <row r="19">
-      <c r="A19" s="2" t="str">
-        <v>AI+前端工程师</v>
-      </c>
-      <c r="B19" s="2" t="str">
-        <v>还没开始找</v>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -980,12 +1090,12 @@
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
     </row>
-    <row r="20">
-      <c r="A20" s="2" t="str">
-        <v>C++开发</v>
-      </c>
-      <c r="B20" s="2" t="str">
-        <v>在找</v>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -1006,12 +1116,12 @@
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
     </row>
-    <row r="21">
-      <c r="A21" s="2" t="str">
-        <v>Go</v>
-      </c>
-      <c r="B21" s="2" t="str">
-        <v>在找</v>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -1032,12 +1142,12 @@
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
     </row>
-    <row r="22">
-      <c r="A22" s="2" t="str">
-        <v>Go后端开发</v>
-      </c>
-      <c r="B22" s="2" t="str">
-        <v>在找</v>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1058,12 +1168,12 @@
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
     </row>
-    <row r="23">
-      <c r="A23" s="2" t="str">
-        <v>AI+后端工程师</v>
-      </c>
-      <c r="B23" s="2" t="str">
-        <v>还没开始找</v>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1084,12 +1194,12 @@
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
     </row>
-    <row r="24">
-      <c r="A24" s="2" t="str">
-        <v>linux运维</v>
-      </c>
-      <c r="B24" s="2" t="str">
-        <v>在找</v>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1110,12 +1220,12 @@
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
     </row>
-    <row r="25">
-      <c r="A25" s="2" t="str">
-        <v>前端工程师</v>
-      </c>
-      <c r="B25" s="2" t="str">
-        <v>在找</v>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1136,12 +1246,12 @@
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
     </row>
-    <row r="26">
-      <c r="A26" s="2" t="str">
-        <v>前端工程师</v>
-      </c>
-      <c r="B26" s="2" t="str">
-        <v>还没开始找</v>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1162,12 +1272,12 @@
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
     </row>
-    <row r="27">
-      <c r="A27" s="2" t="str">
-        <v>java开发</v>
-      </c>
-      <c r="B27" s="2" t="str">
-        <v>在找</v>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1188,12 +1298,12 @@
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
     </row>
-    <row r="28">
-      <c r="A28" s="2" t="str">
-        <v>AI+嵌入式</v>
-      </c>
-      <c r="B28" s="2" t="str">
-        <v>再找</v>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1214,12 +1324,12 @@
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
     </row>
-    <row r="29">
-      <c r="A29" s="2" t="str">
-        <v>财务主管</v>
-      </c>
-      <c r="B29" s="2" t="str">
-        <v>在找</v>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1240,12 +1350,12 @@
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
     </row>
-    <row r="30">
-      <c r="A30" s="2" t="str">
-        <v>后端开发</v>
-      </c>
-      <c r="B30" s="2" t="str">
-        <v>在学习的路上</v>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1266,9 +1376,13 @@
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
     </row>
-    <row r="31">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -1288,7 +1402,7 @@
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="1"/>
@@ -1310,7 +1424,7 @@
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="1"/>
@@ -1332,7 +1446,7 @@
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="1"/>
@@ -1354,7 +1468,7 @@
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="1"/>
@@ -1376,7 +1490,7 @@
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="1"/>
@@ -1398,7 +1512,7 @@
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="1"/>
@@ -1420,7 +1534,7 @@
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="1"/>
@@ -1442,7 +1556,7 @@
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="1"/>
@@ -1464,7 +1578,7 @@
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="1"/>
@@ -1486,7 +1600,7 @@
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="1"/>
@@ -1508,7 +1622,7 @@
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="1"/>
@@ -1530,7 +1644,7 @@
       <c r="S42" s="1"/>
       <c r="T42" s="1"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="1"/>
@@ -1552,7 +1666,7 @@
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="1"/>
@@ -1574,7 +1688,7 @@
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="1"/>
@@ -1596,7 +1710,7 @@
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
     </row>
-    <row r="46">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="1"/>
@@ -1618,7 +1732,7 @@
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="1"/>
@@ -1640,7 +1754,7 @@
       <c r="S47" s="1"/>
       <c r="T47" s="1"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="1"/>
@@ -1662,7 +1776,7 @@
       <c r="S48" s="1"/>
       <c r="T48" s="1"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="1"/>
@@ -1684,7 +1798,7 @@
       <c r="S49" s="1"/>
       <c r="T49" s="1"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="1"/>
@@ -1706,7 +1820,7 @@
       <c r="S50" s="1"/>
       <c r="T50" s="1"/>
     </row>
-    <row r="51">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="1"/>
@@ -1728,7 +1842,7 @@
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
     </row>
-    <row r="52">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="1"/>
@@ -1750,7 +1864,7 @@
       <c r="S52" s="1"/>
       <c r="T52" s="1"/>
     </row>
-    <row r="53">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="1"/>
@@ -1772,7 +1886,7 @@
       <c r="S53" s="1"/>
       <c r="T53" s="1"/>
     </row>
-    <row r="54">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="1"/>
@@ -1794,7 +1908,7 @@
       <c r="S54" s="1"/>
       <c r="T54" s="1"/>
     </row>
-    <row r="55">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="1"/>
@@ -1816,7 +1930,7 @@
       <c r="S55" s="1"/>
       <c r="T55" s="1"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="1"/>
@@ -1838,7 +1952,7 @@
       <c r="S56" s="1"/>
       <c r="T56" s="1"/>
     </row>
-    <row r="57">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="1"/>
@@ -1860,7 +1974,7 @@
       <c r="S57" s="1"/>
       <c r="T57" s="1"/>
     </row>
-    <row r="58">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="1"/>
@@ -1882,7 +1996,7 @@
       <c r="S58" s="1"/>
       <c r="T58" s="1"/>
     </row>
-    <row r="59">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="1"/>
@@ -1904,7 +2018,7 @@
       <c r="S59" s="1"/>
       <c r="T59" s="1"/>
     </row>
-    <row r="60">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="1"/>
@@ -1926,7 +2040,7 @@
       <c r="S60" s="1"/>
       <c r="T60" s="1"/>
     </row>
-    <row r="61">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="1"/>
@@ -1948,7 +2062,7 @@
       <c r="S61" s="1"/>
       <c r="T61" s="1"/>
     </row>
-    <row r="62">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="1"/>
@@ -1970,7 +2084,7 @@
       <c r="S62" s="1"/>
       <c r="T62" s="1"/>
     </row>
-    <row r="63">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="1"/>
@@ -1992,7 +2106,7 @@
       <c r="S63" s="1"/>
       <c r="T63" s="1"/>
     </row>
-    <row r="64">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="1"/>
@@ -2014,7 +2128,7 @@
       <c r="S64" s="1"/>
       <c r="T64" s="1"/>
     </row>
-    <row r="65">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="1"/>
@@ -2036,7 +2150,7 @@
       <c r="S65" s="1"/>
       <c r="T65" s="1"/>
     </row>
-    <row r="66">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="1"/>
@@ -2058,7 +2172,7 @@
       <c r="S66" s="1"/>
       <c r="T66" s="1"/>
     </row>
-    <row r="67">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="1"/>
@@ -2080,7 +2194,7 @@
       <c r="S67" s="1"/>
       <c r="T67" s="1"/>
     </row>
-    <row r="68">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="1"/>
@@ -2102,7 +2216,7 @@
       <c r="S68" s="1"/>
       <c r="T68" s="1"/>
     </row>
-    <row r="69">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="1"/>
@@ -2124,7 +2238,7 @@
       <c r="S69" s="1"/>
       <c r="T69" s="1"/>
     </row>
-    <row r="70">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="1"/>
@@ -2146,7 +2260,7 @@
       <c r="S70" s="1"/>
       <c r="T70" s="1"/>
     </row>
-    <row r="71">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="1"/>
@@ -2168,7 +2282,7 @@
       <c r="S71" s="1"/>
       <c r="T71" s="1"/>
     </row>
-    <row r="72">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="1"/>
@@ -2190,7 +2304,7 @@
       <c r="S72" s="1"/>
       <c r="T72" s="1"/>
     </row>
-    <row r="73">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="1"/>
@@ -2212,7 +2326,7 @@
       <c r="S73" s="1"/>
       <c r="T73" s="1"/>
     </row>
-    <row r="74">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="1"/>
@@ -2234,7 +2348,7 @@
       <c r="S74" s="1"/>
       <c r="T74" s="1"/>
     </row>
-    <row r="75">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="1"/>
@@ -2256,7 +2370,7 @@
       <c r="S75" s="1"/>
       <c r="T75" s="1"/>
     </row>
-    <row r="76">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="1"/>
@@ -2278,7 +2392,7 @@
       <c r="S76" s="1"/>
       <c r="T76" s="1"/>
     </row>
-    <row r="77">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="1"/>
@@ -2300,7 +2414,7 @@
       <c r="S77" s="1"/>
       <c r="T77" s="1"/>
     </row>
-    <row r="78">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="1"/>
@@ -2322,7 +2436,7 @@
       <c r="S78" s="1"/>
       <c r="T78" s="1"/>
     </row>
-    <row r="79">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="1"/>
@@ -2344,7 +2458,7 @@
       <c r="S79" s="1"/>
       <c r="T79" s="1"/>
     </row>
-    <row r="80">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="1"/>
@@ -2366,7 +2480,7 @@
       <c r="S80" s="1"/>
       <c r="T80" s="1"/>
     </row>
-    <row r="81">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="1"/>
@@ -2388,7 +2502,7 @@
       <c r="S81" s="1"/>
       <c r="T81" s="1"/>
     </row>
-    <row r="82">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="1"/>
@@ -2410,7 +2524,7 @@
       <c r="S82" s="1"/>
       <c r="T82" s="1"/>
     </row>
-    <row r="83">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="1"/>
@@ -2432,7 +2546,7 @@
       <c r="S83" s="1"/>
       <c r="T83" s="1"/>
     </row>
-    <row r="84">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="1"/>
@@ -2454,7 +2568,7 @@
       <c r="S84" s="1"/>
       <c r="T84" s="1"/>
     </row>
-    <row r="85">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="1"/>
@@ -2476,7 +2590,7 @@
       <c r="S85" s="1"/>
       <c r="T85" s="1"/>
     </row>
-    <row r="86">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="1"/>
@@ -2498,7 +2612,7 @@
       <c r="S86" s="1"/>
       <c r="T86" s="1"/>
     </row>
-    <row r="87">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="1"/>
@@ -2520,7 +2634,7 @@
       <c r="S87" s="1"/>
       <c r="T87" s="1"/>
     </row>
-    <row r="88">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="1"/>
@@ -2542,7 +2656,7 @@
       <c r="S88" s="1"/>
       <c r="T88" s="1"/>
     </row>
-    <row r="89">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="1"/>
@@ -2564,7 +2678,7 @@
       <c r="S89" s="1"/>
       <c r="T89" s="1"/>
     </row>
-    <row r="90">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="1"/>
@@ -2586,7 +2700,7 @@
       <c r="S90" s="1"/>
       <c r="T90" s="1"/>
     </row>
-    <row r="91">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="1"/>
@@ -2608,7 +2722,7 @@
       <c r="S91" s="1"/>
       <c r="T91" s="1"/>
     </row>
-    <row r="92">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="1"/>
@@ -2630,7 +2744,7 @@
       <c r="S92" s="1"/>
       <c r="T92" s="1"/>
     </row>
-    <row r="93">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="1"/>
@@ -2652,7 +2766,7 @@
       <c r="S93" s="1"/>
       <c r="T93" s="1"/>
     </row>
-    <row r="94">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="1"/>
@@ -2674,7 +2788,7 @@
       <c r="S94" s="1"/>
       <c r="T94" s="1"/>
     </row>
-    <row r="95">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="1"/>
@@ -2696,7 +2810,7 @@
       <c r="S95" s="1"/>
       <c r="T95" s="1"/>
     </row>
-    <row r="96">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="1"/>
@@ -2718,7 +2832,7 @@
       <c r="S96" s="1"/>
       <c r="T96" s="1"/>
     </row>
-    <row r="97">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="1"/>
@@ -2740,7 +2854,7 @@
       <c r="S97" s="1"/>
       <c r="T97" s="1"/>
     </row>
-    <row r="98">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="1"/>
@@ -2762,7 +2876,7 @@
       <c r="S98" s="1"/>
       <c r="T98" s="1"/>
     </row>
-    <row r="99">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="1"/>
@@ -2784,7 +2898,7 @@
       <c r="S99" s="1"/>
       <c r="T99" s="1"/>
     </row>
-    <row r="100">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="1"/>
@@ -2806,7 +2920,7 @@
       <c r="S100" s="1"/>
       <c r="T100" s="1"/>
     </row>
-    <row r="101">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="1"/>
@@ -2828,7 +2942,7 @@
       <c r="S101" s="1"/>
       <c r="T101" s="1"/>
     </row>
-    <row r="102">
+    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="1"/>
@@ -2850,7 +2964,7 @@
       <c r="S102" s="1"/>
       <c r="T102" s="1"/>
     </row>
-    <row r="103">
+    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="1"/>
@@ -2872,7 +2986,7 @@
       <c r="S103" s="1"/>
       <c r="T103" s="1"/>
     </row>
-    <row r="104">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="1"/>
@@ -2894,7 +3008,7 @@
       <c r="S104" s="1"/>
       <c r="T104" s="1"/>
     </row>
-    <row r="105">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="1"/>
@@ -2916,7 +3030,7 @@
       <c r="S105" s="1"/>
       <c r="T105" s="1"/>
     </row>
-    <row r="106">
+    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="1"/>
@@ -2938,7 +3052,7 @@
       <c r="S106" s="1"/>
       <c r="T106" s="1"/>
     </row>
-    <row r="107">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="1"/>
@@ -2960,7 +3074,7 @@
       <c r="S107" s="1"/>
       <c r="T107" s="1"/>
     </row>
-    <row r="108">
+    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="1"/>
@@ -2982,7 +3096,7 @@
       <c r="S108" s="1"/>
       <c r="T108" s="1"/>
     </row>
-    <row r="109">
+    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="1"/>
@@ -3004,7 +3118,7 @@
       <c r="S109" s="1"/>
       <c r="T109" s="1"/>
     </row>
-    <row r="110">
+    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="1"/>
@@ -3026,7 +3140,7 @@
       <c r="S110" s="1"/>
       <c r="T110" s="1"/>
     </row>
-    <row r="111">
+    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="1"/>
@@ -3048,7 +3162,7 @@
       <c r="S111" s="1"/>
       <c r="T111" s="1"/>
     </row>
-    <row r="112">
+    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="1"/>
@@ -3070,7 +3184,7 @@
       <c r="S112" s="1"/>
       <c r="T112" s="1"/>
     </row>
-    <row r="113">
+    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="1"/>
@@ -3092,7 +3206,7 @@
       <c r="S113" s="1"/>
       <c r="T113" s="1"/>
     </row>
-    <row r="114">
+    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="1"/>
@@ -3114,7 +3228,7 @@
       <c r="S114" s="1"/>
       <c r="T114" s="1"/>
     </row>
-    <row r="115">
+    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="1"/>
@@ -3136,7 +3250,7 @@
       <c r="S115" s="1"/>
       <c r="T115" s="1"/>
     </row>
-    <row r="116">
+    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="1"/>
@@ -3158,7 +3272,7 @@
       <c r="S116" s="1"/>
       <c r="T116" s="1"/>
     </row>
-    <row r="117">
+    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="1"/>
@@ -3180,7 +3294,7 @@
       <c r="S117" s="1"/>
       <c r="T117" s="1"/>
     </row>
-    <row r="118">
+    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="1"/>
@@ -3202,7 +3316,7 @@
       <c r="S118" s="1"/>
       <c r="T118" s="1"/>
     </row>
-    <row r="119">
+    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="1"/>
@@ -3224,7 +3338,7 @@
       <c r="S119" s="1"/>
       <c r="T119" s="1"/>
     </row>
-    <row r="120">
+    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="1"/>
@@ -3246,7 +3360,7 @@
       <c r="S120" s="1"/>
       <c r="T120" s="1"/>
     </row>
-    <row r="121">
+    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="1"/>
@@ -3268,7 +3382,7 @@
       <c r="S121" s="1"/>
       <c r="T121" s="1"/>
     </row>
-    <row r="122">
+    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="1"/>
@@ -3290,7 +3404,7 @@
       <c r="S122" s="1"/>
       <c r="T122" s="1"/>
     </row>
-    <row r="123">
+    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="1"/>
@@ -3312,7 +3426,7 @@
       <c r="S123" s="1"/>
       <c r="T123" s="1"/>
     </row>
-    <row r="124">
+    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="1"/>
@@ -3334,7 +3448,7 @@
       <c r="S124" s="1"/>
       <c r="T124" s="1"/>
     </row>
-    <row r="125">
+    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="1"/>
@@ -3356,7 +3470,7 @@
       <c r="S125" s="1"/>
       <c r="T125" s="1"/>
     </row>
-    <row r="126">
+    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="1"/>
@@ -3378,7 +3492,7 @@
       <c r="S126" s="1"/>
       <c r="T126" s="1"/>
     </row>
-    <row r="127">
+    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="1"/>
@@ -3400,7 +3514,7 @@
       <c r="S127" s="1"/>
       <c r="T127" s="1"/>
     </row>
-    <row r="128">
+    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="1"/>
@@ -3422,7 +3536,7 @@
       <c r="S128" s="1"/>
       <c r="T128" s="1"/>
     </row>
-    <row r="129">
+    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="1"/>
@@ -3444,7 +3558,7 @@
       <c r="S129" s="1"/>
       <c r="T129" s="1"/>
     </row>
-    <row r="130">
+    <row r="130" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="1"/>
@@ -3466,7 +3580,7 @@
       <c r="S130" s="1"/>
       <c r="T130" s="1"/>
     </row>
-    <row r="131">
+    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="1"/>
@@ -3488,7 +3602,7 @@
       <c r="S131" s="1"/>
       <c r="T131" s="1"/>
     </row>
-    <row r="132">
+    <row r="132" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="1"/>
@@ -3510,7 +3624,7 @@
       <c r="S132" s="1"/>
       <c r="T132" s="1"/>
     </row>
-    <row r="133">
+    <row r="133" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="1"/>
@@ -3532,7 +3646,7 @@
       <c r="S133" s="1"/>
       <c r="T133" s="1"/>
     </row>
-    <row r="134">
+    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="1"/>
@@ -3554,7 +3668,7 @@
       <c r="S134" s="1"/>
       <c r="T134" s="1"/>
     </row>
-    <row r="135">
+    <row r="135" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="1"/>
@@ -3576,7 +3690,7 @@
       <c r="S135" s="1"/>
       <c r="T135" s="1"/>
     </row>
-    <row r="136">
+    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="1"/>
@@ -3598,7 +3712,7 @@
       <c r="S136" s="1"/>
       <c r="T136" s="1"/>
     </row>
-    <row r="137">
+    <row r="137" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="1"/>
@@ -3620,7 +3734,7 @@
       <c r="S137" s="1"/>
       <c r="T137" s="1"/>
     </row>
-    <row r="138">
+    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="1"/>
@@ -3642,7 +3756,7 @@
       <c r="S138" s="1"/>
       <c r="T138" s="1"/>
     </row>
-    <row r="139">
+    <row r="139" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="1"/>
@@ -3664,7 +3778,7 @@
       <c r="S139" s="1"/>
       <c r="T139" s="1"/>
     </row>
-    <row r="140">
+    <row r="140" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="1"/>
@@ -3686,7 +3800,7 @@
       <c r="S140" s="1"/>
       <c r="T140" s="1"/>
     </row>
-    <row r="141">
+    <row r="141" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="1"/>
@@ -3708,7 +3822,7 @@
       <c r="S141" s="1"/>
       <c r="T141" s="1"/>
     </row>
-    <row r="142">
+    <row r="142" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="1"/>
@@ -3730,7 +3844,7 @@
       <c r="S142" s="1"/>
       <c r="T142" s="1"/>
     </row>
-    <row r="143">
+    <row r="143" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="1"/>
@@ -3752,7 +3866,7 @@
       <c r="S143" s="1"/>
       <c r="T143" s="1"/>
     </row>
-    <row r="144">
+    <row r="144" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="1"/>
@@ -3774,7 +3888,7 @@
       <c r="S144" s="1"/>
       <c r="T144" s="1"/>
     </row>
-    <row r="145">
+    <row r="145" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="1"/>
@@ -3796,7 +3910,7 @@
       <c r="S145" s="1"/>
       <c r="T145" s="1"/>
     </row>
-    <row r="146">
+    <row r="146" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="1"/>
@@ -3818,7 +3932,7 @@
       <c r="S146" s="1"/>
       <c r="T146" s="1"/>
     </row>
-    <row r="147">
+    <row r="147" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="1"/>
@@ -3840,7 +3954,7 @@
       <c r="S147" s="1"/>
       <c r="T147" s="1"/>
     </row>
-    <row r="148">
+    <row r="148" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="1"/>
@@ -3862,7 +3976,7 @@
       <c r="S148" s="1"/>
       <c r="T148" s="1"/>
     </row>
-    <row r="149">
+    <row r="149" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="1"/>
@@ -3884,7 +3998,7 @@
       <c r="S149" s="1"/>
       <c r="T149" s="1"/>
     </row>
-    <row r="150">
+    <row r="150" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="1"/>
@@ -3906,7 +4020,7 @@
       <c r="S150" s="1"/>
       <c r="T150" s="1"/>
     </row>
-    <row r="151">
+    <row r="151" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="1"/>
@@ -3928,7 +4042,7 @@
       <c r="S151" s="1"/>
       <c r="T151" s="1"/>
     </row>
-    <row r="152">
+    <row r="152" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="1"/>
@@ -3950,7 +4064,7 @@
       <c r="S152" s="1"/>
       <c r="T152" s="1"/>
     </row>
-    <row r="153">
+    <row r="153" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="1"/>
@@ -3972,7 +4086,7 @@
       <c r="S153" s="1"/>
       <c r="T153" s="1"/>
     </row>
-    <row r="154">
+    <row r="154" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="1"/>
@@ -3994,7 +4108,7 @@
       <c r="S154" s="1"/>
       <c r="T154" s="1"/>
     </row>
-    <row r="155">
+    <row r="155" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="1"/>
@@ -4016,7 +4130,7 @@
       <c r="S155" s="1"/>
       <c r="T155" s="1"/>
     </row>
-    <row r="156">
+    <row r="156" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="1"/>
@@ -4038,7 +4152,7 @@
       <c r="S156" s="1"/>
       <c r="T156" s="1"/>
     </row>
-    <row r="157">
+    <row r="157" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="1"/>
@@ -4060,7 +4174,7 @@
       <c r="S157" s="1"/>
       <c r="T157" s="1"/>
     </row>
-    <row r="158">
+    <row r="158" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="1"/>
@@ -4082,7 +4196,7 @@
       <c r="S158" s="1"/>
       <c r="T158" s="1"/>
     </row>
-    <row r="159">
+    <row r="159" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="1"/>
@@ -4104,7 +4218,7 @@
       <c r="S159" s="1"/>
       <c r="T159" s="1"/>
     </row>
-    <row r="160">
+    <row r="160" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="1"/>
@@ -4126,7 +4240,7 @@
       <c r="S160" s="1"/>
       <c r="T160" s="1"/>
     </row>
-    <row r="161">
+    <row r="161" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="1"/>
@@ -4148,7 +4262,7 @@
       <c r="S161" s="1"/>
       <c r="T161" s="1"/>
     </row>
-    <row r="162">
+    <row r="162" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="1"/>
@@ -4170,7 +4284,7 @@
       <c r="S162" s="1"/>
       <c r="T162" s="1"/>
     </row>
-    <row r="163">
+    <row r="163" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="1"/>
@@ -4192,7 +4306,7 @@
       <c r="S163" s="1"/>
       <c r="T163" s="1"/>
     </row>
-    <row r="164">
+    <row r="164" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="1"/>
@@ -4214,7 +4328,7 @@
       <c r="S164" s="1"/>
       <c r="T164" s="1"/>
     </row>
-    <row r="165">
+    <row r="165" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="1"/>
@@ -4236,7 +4350,7 @@
       <c r="S165" s="1"/>
       <c r="T165" s="1"/>
     </row>
-    <row r="166">
+    <row r="166" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="1"/>
@@ -4258,7 +4372,7 @@
       <c r="S166" s="1"/>
       <c r="T166" s="1"/>
     </row>
-    <row r="167">
+    <row r="167" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="1"/>
@@ -4280,7 +4394,7 @@
       <c r="S167" s="1"/>
       <c r="T167" s="1"/>
     </row>
-    <row r="168">
+    <row r="168" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="1"/>
@@ -4302,7 +4416,7 @@
       <c r="S168" s="1"/>
       <c r="T168" s="1"/>
     </row>
-    <row r="169">
+    <row r="169" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="1"/>
@@ -4324,7 +4438,7 @@
       <c r="S169" s="1"/>
       <c r="T169" s="1"/>
     </row>
-    <row r="170">
+    <row r="170" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="1"/>
@@ -4346,7 +4460,7 @@
       <c r="S170" s="1"/>
       <c r="T170" s="1"/>
     </row>
-    <row r="171">
+    <row r="171" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="1"/>
@@ -4368,7 +4482,7 @@
       <c r="S171" s="1"/>
       <c r="T171" s="1"/>
     </row>
-    <row r="172">
+    <row r="172" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="1"/>
@@ -4390,7 +4504,7 @@
       <c r="S172" s="1"/>
       <c r="T172" s="1"/>
     </row>
-    <row r="173">
+    <row r="173" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="1"/>
@@ -4412,7 +4526,7 @@
       <c r="S173" s="1"/>
       <c r="T173" s="1"/>
     </row>
-    <row r="174">
+    <row r="174" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="1"/>
@@ -4434,7 +4548,7 @@
       <c r="S174" s="1"/>
       <c r="T174" s="1"/>
     </row>
-    <row r="175">
+    <row r="175" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="1"/>
@@ -4456,7 +4570,7 @@
       <c r="S175" s="1"/>
       <c r="T175" s="1"/>
     </row>
-    <row r="176">
+    <row r="176" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="1"/>
@@ -4478,7 +4592,7 @@
       <c r="S176" s="1"/>
       <c r="T176" s="1"/>
     </row>
-    <row r="177">
+    <row r="177" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="1"/>
@@ -4500,7 +4614,7 @@
       <c r="S177" s="1"/>
       <c r="T177" s="1"/>
     </row>
-    <row r="178">
+    <row r="178" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="1"/>
@@ -4522,7 +4636,7 @@
       <c r="S178" s="1"/>
       <c r="T178" s="1"/>
     </row>
-    <row r="179">
+    <row r="179" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="1"/>
@@ -4544,7 +4658,7 @@
       <c r="S179" s="1"/>
       <c r="T179" s="1"/>
     </row>
-    <row r="180">
+    <row r="180" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="1"/>
@@ -4566,7 +4680,7 @@
       <c r="S180" s="1"/>
       <c r="T180" s="1"/>
     </row>
-    <row r="181">
+    <row r="181" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="1"/>
@@ -4588,7 +4702,7 @@
       <c r="S181" s="1"/>
       <c r="T181" s="1"/>
     </row>
-    <row r="182">
+    <row r="182" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="1"/>
@@ -4610,7 +4724,7 @@
       <c r="S182" s="1"/>
       <c r="T182" s="1"/>
     </row>
-    <row r="183">
+    <row r="183" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="1"/>
@@ -4632,7 +4746,7 @@
       <c r="S183" s="1"/>
       <c r="T183" s="1"/>
     </row>
-    <row r="184">
+    <row r="184" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="1"/>
@@ -4654,7 +4768,7 @@
       <c r="S184" s="1"/>
       <c r="T184" s="1"/>
     </row>
-    <row r="185">
+    <row r="185" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="1"/>
@@ -4676,7 +4790,7 @@
       <c r="S185" s="1"/>
       <c r="T185" s="1"/>
     </row>
-    <row r="186">
+    <row r="186" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="1"/>
@@ -4698,7 +4812,7 @@
       <c r="S186" s="1"/>
       <c r="T186" s="1"/>
     </row>
-    <row r="187">
+    <row r="187" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="1"/>
@@ -4720,7 +4834,7 @@
       <c r="S187" s="1"/>
       <c r="T187" s="1"/>
     </row>
-    <row r="188">
+    <row r="188" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="1"/>
@@ -4742,7 +4856,7 @@
       <c r="S188" s="1"/>
       <c r="T188" s="1"/>
     </row>
-    <row r="189">
+    <row r="189" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="1"/>
@@ -4764,7 +4878,7 @@
       <c r="S189" s="1"/>
       <c r="T189" s="1"/>
     </row>
-    <row r="190">
+    <row r="190" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="1"/>
@@ -4786,7 +4900,7 @@
       <c r="S190" s="1"/>
       <c r="T190" s="1"/>
     </row>
-    <row r="191">
+    <row r="191" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="1"/>
@@ -4808,7 +4922,7 @@
       <c r="S191" s="1"/>
       <c r="T191" s="1"/>
     </row>
-    <row r="192">
+    <row r="192" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="1"/>
@@ -4830,7 +4944,7 @@
       <c r="S192" s="1"/>
       <c r="T192" s="1"/>
     </row>
-    <row r="193">
+    <row r="193" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="1"/>
@@ -4852,7 +4966,7 @@
       <c r="S193" s="1"/>
       <c r="T193" s="1"/>
     </row>
-    <row r="194">
+    <row r="194" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="1"/>
@@ -4874,7 +4988,7 @@
       <c r="S194" s="1"/>
       <c r="T194" s="1"/>
     </row>
-    <row r="195">
+    <row r="195" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="1"/>
@@ -4896,7 +5010,7 @@
       <c r="S195" s="1"/>
       <c r="T195" s="1"/>
     </row>
-    <row r="196">
+    <row r="196" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="1"/>
@@ -4918,7 +5032,7 @@
       <c r="S196" s="1"/>
       <c r="T196" s="1"/>
     </row>
-    <row r="197">
+    <row r="197" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="1"/>
@@ -4940,7 +5054,7 @@
       <c r="S197" s="1"/>
       <c r="T197" s="1"/>
     </row>
-    <row r="198">
+    <row r="198" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="1"/>
@@ -4962,7 +5076,7 @@
       <c r="S198" s="1"/>
       <c r="T198" s="1"/>
     </row>
-    <row r="199">
+    <row r="199" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="1"/>
@@ -4984,7 +5098,7 @@
       <c r="S199" s="1"/>
       <c r="T199" s="1"/>
     </row>
-    <row r="200">
+    <row r="200" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="1"/>
@@ -5007,6 +5121,7 @@
       <c r="T200" s="1"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/许愿墙.xlsx
+++ b/许愿墙.xlsx
@@ -151,10 +151,10 @@
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="2" fontId="1" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -482,15 +482,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="21"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="74"/>
     <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="32"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="str">
+      <c r="A1" s="3" t="str">
         <v>你想找什么样的工作？</v>
       </c>
-      <c r="B1" s="4" t="str">
+      <c r="B1" s="3" t="str">
         <v>现在的状态是怎样的？</v>
       </c>
       <c r="C1" s="1"/>
@@ -851,7 +851,7 @@
       <c r="T14" s="1"/>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="str">
+      <c r="A15" s="4" t="str">
         <v>Java</v>
       </c>
       <c r="B15" s="2" t="str">
@@ -1267,8 +1267,12 @@
       <c r="T30" s="1"/>
     </row>
     <row r="31">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
+      <c r="A31" s="2" t="str">
+        <v>去年7月用这个项目找到了第一份工作，现在再次回来，希望跳槽找一份AI售前的工作</v>
+      </c>
+      <c r="B31" s="2" t="str">
+        <v>在找</v>
+      </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -1289,8 +1293,12 @@
       <c r="T31" s="1"/>
     </row>
     <row r="32">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
+      <c r="A32" s="2" t="str">
+        <v>前端工程师</v>
+      </c>
+      <c r="B32" s="2" t="str">
+        <v>在找</v>
+      </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -1311,8 +1319,12 @@
       <c r="T32" s="1"/>
     </row>
     <row r="33">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
+      <c r="A33" s="2" t="str">
+        <v>Java开发</v>
+      </c>
+      <c r="B33" s="2" t="str">
+        <v>准备跳槽</v>
+      </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>

--- a/许愿墙.xlsx
+++ b/许愿墙.xlsx
@@ -1,79 +1,189 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\get_jobs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D573BB-9BFD-4170-8752-BDB40AAE2EBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="15800" windowWidth="28040" xWindow="4240" yWindow="640"/>
+    <workbookView xWindow="3870" yWindow="1480" windowWidth="19180" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcMode="auto"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="37">
   <si>
-    <t xml:space="preserve">  </t>
+    <t>你想找什么样的工作？</t>
+  </si>
+  <si>
+    <t>现在的状态是怎样的？</t>
+  </si>
+  <si>
+    <t>AI攻城狮</t>
+  </si>
+  <si>
+    <t>已找到！</t>
+  </si>
+  <si>
+    <t>Java+AI</t>
+  </si>
+  <si>
+    <t>在找</t>
+  </si>
+  <si>
+    <t>AI agent开发</t>
+  </si>
+  <si>
+    <t>Java实习</t>
+  </si>
+  <si>
+    <t>还没开始找</t>
+  </si>
+  <si>
+    <t>系统架构师</t>
+  </si>
+  <si>
+    <t>Go</t>
+  </si>
+  <si>
+    <t>前端攻城狮</t>
+  </si>
+  <si>
+    <t>AI+游戏开发</t>
+  </si>
+  <si>
+    <t>C++实习</t>
+  </si>
+  <si>
+    <t>后端开发</t>
+  </si>
+  <si>
+    <t>正确的路上</t>
+  </si>
+  <si>
+    <t>Java后端开发</t>
+  </si>
+  <si>
+    <t>在找实习的路上</t>
+  </si>
+  <si>
+    <t>Java</t>
+  </si>
+  <si>
+    <t>找到了，但是通勤太远想跳槽</t>
+  </si>
+  <si>
+    <t>Frontend leader</t>
+  </si>
+  <si>
+    <t>找到了，但是没有work life balance</t>
+  </si>
+  <si>
+    <t>找到了，不满意</t>
+  </si>
+  <si>
+    <t>Java开发</t>
+  </si>
+  <si>
+    <t>再找</t>
+  </si>
+  <si>
+    <t>前端工程师</t>
+  </si>
+  <si>
+    <t>java开发</t>
+  </si>
+  <si>
+    <t>AI+前端工程师</t>
+  </si>
+  <si>
+    <t>C++开发</t>
+  </si>
+  <si>
+    <t>Go后端开发</t>
+  </si>
+  <si>
+    <t>AI+后端工程师</t>
+  </si>
+  <si>
+    <t>linux运维</t>
+  </si>
+  <si>
+    <t>AI+嵌入式</t>
+  </si>
+  <si>
+    <t>财务主管</t>
+  </si>
+  <si>
+    <t>在学习的路上</t>
+  </si>
+  <si>
+    <t>算法攻城狮</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲线救国中</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9.75"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9.75"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none">
-        <fgColor/>
-        <bgColor/>
-      </patternFill>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor/>
-        <bgColor/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF34C724"/>
-        <bgColor/>
       </patternFill>
     </fill>
   </fills>
@@ -139,30 +249,30 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="2" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -175,7 +285,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -470,28 +580,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
-    <outlinePr summaryBelow="false" summaryRight="false"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:T200"/>
   <sheetViews>
-    <sheetView showGridLines="true" tabSelected="true" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="21"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="32"/>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="2" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="4" t="str">
-        <v>你想找什么样的工作？</v>
-      </c>
-      <c r="B1" s="4" t="str">
-        <v>现在的状态是怎样的？</v>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -512,12 +622,12 @@
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
     </row>
-    <row r="2">
-      <c r="A2" s="2" t="str">
-        <v>AI攻城狮</v>
-      </c>
-      <c r="B2" s="2" t="str">
-        <v>已找到！</v>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -538,12 +648,12 @@
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
     </row>
-    <row r="3">
-      <c r="A3" s="2" t="str">
-        <v>Java+AI</v>
-      </c>
-      <c r="B3" s="2" t="str">
-        <v>在找</v>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -564,12 +674,12 @@
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
     </row>
-    <row r="4">
-      <c r="A4" s="2" t="str">
-        <v>AI agent开发</v>
-      </c>
-      <c r="B4" s="2" t="str">
-        <v>在找</v>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -590,12 +700,12 @@
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
     </row>
-    <row r="5">
-      <c r="A5" s="2" t="str">
-        <v>Java实习</v>
-      </c>
-      <c r="B5" s="2" t="str">
-        <v>还没开始找</v>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -616,12 +726,12 @@
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
     </row>
-    <row r="6">
-      <c r="A6" s="2" t="str">
-        <v>系统架构师</v>
-      </c>
-      <c r="B6" s="2" t="str">
-        <v>在找</v>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -642,12 +752,12 @@
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
     </row>
-    <row r="7">
-      <c r="A7" s="2" t="str">
-        <v>Go</v>
-      </c>
-      <c r="B7" s="2" t="str">
-        <v>在找</v>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -668,12 +778,12 @@
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
     </row>
-    <row r="8">
-      <c r="A8" s="2" t="str">
-        <v>前端攻城狮</v>
-      </c>
-      <c r="B8" s="2" t="str">
-        <v>在找</v>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -694,12 +804,12 @@
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
     </row>
-    <row r="9">
-      <c r="A9" s="2" t="str">
-        <v>AI+游戏开发</v>
-      </c>
-      <c r="B9" s="2" t="str">
-        <v>在找</v>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -720,12 +830,12 @@
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
     </row>
-    <row r="10">
-      <c r="A10" s="2" t="str">
-        <v>C++实习</v>
-      </c>
-      <c r="B10" s="2" t="str">
-        <v>在找</v>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -746,12 +856,12 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
     </row>
-    <row r="11">
-      <c r="A11" s="2" t="str">
-        <v>后端开发</v>
-      </c>
-      <c r="B11" s="2" t="str">
-        <v>正确的路上</v>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -772,12 +882,12 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row r="12">
-      <c r="A12" s="2" t="str">
-        <v>Java后端开发</v>
-      </c>
-      <c r="B12" s="2" t="str">
-        <v>在找实习的路上</v>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -798,12 +908,12 @@
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
     </row>
-    <row r="13">
-      <c r="A13" s="2" t="str">
-        <v>Java</v>
-      </c>
-      <c r="B13" s="2" t="str">
-        <v>找到了，但是通勤太远想跳槽</v>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -824,12 +934,12 @@
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
     </row>
-    <row r="14">
-      <c r="A14" s="2" t="str">
-        <v>Frontend leader</v>
-      </c>
-      <c r="B14" s="2" t="str">
-        <v>找到了，但是没有work life balance</v>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -850,12 +960,12 @@
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
     </row>
-    <row r="15">
-      <c r="A15" s="3" t="str">
-        <v>Java</v>
-      </c>
-      <c r="B15" s="2" t="str">
-        <v>找到了，不满意</v>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -876,12 +986,12 @@
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
     </row>
-    <row r="16">
-      <c r="A16" s="2" t="str">
-        <v>Java开发</v>
-      </c>
-      <c r="B16" s="2" t="str">
-        <v>再找</v>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -902,12 +1012,12 @@
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
     </row>
-    <row r="17">
-      <c r="A17" s="2" t="str">
-        <v>前端工程师</v>
-      </c>
-      <c r="B17" s="2" t="str">
-        <v>在找</v>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -928,12 +1038,12 @@
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
     </row>
-    <row r="18">
-      <c r="A18" s="2" t="str">
-        <v>java开发</v>
-      </c>
-      <c r="B18" s="2" t="str">
-        <v>在找</v>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -954,12 +1064,12 @@
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
     </row>
-    <row r="19">
-      <c r="A19" s="2" t="str">
-        <v>AI+前端工程师</v>
-      </c>
-      <c r="B19" s="2" t="str">
-        <v>还没开始找</v>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -980,12 +1090,12 @@
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
     </row>
-    <row r="20">
-      <c r="A20" s="2" t="str">
-        <v>C++开发</v>
-      </c>
-      <c r="B20" s="2" t="str">
-        <v>在找</v>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -1006,12 +1116,12 @@
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
     </row>
-    <row r="21">
-      <c r="A21" s="2" t="str">
-        <v>Go</v>
-      </c>
-      <c r="B21" s="2" t="str">
-        <v>在找</v>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -1032,12 +1142,12 @@
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
     </row>
-    <row r="22">
-      <c r="A22" s="2" t="str">
-        <v>Go后端开发</v>
-      </c>
-      <c r="B22" s="2" t="str">
-        <v>在找</v>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1058,12 +1168,12 @@
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
     </row>
-    <row r="23">
-      <c r="A23" s="2" t="str">
-        <v>AI+后端工程师</v>
-      </c>
-      <c r="B23" s="2" t="str">
-        <v>还没开始找</v>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1084,12 +1194,12 @@
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
     </row>
-    <row r="24">
-      <c r="A24" s="2" t="str">
-        <v>linux运维</v>
-      </c>
-      <c r="B24" s="2" t="str">
-        <v>在找</v>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1110,12 +1220,12 @@
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
     </row>
-    <row r="25">
-      <c r="A25" s="2" t="str">
-        <v>前端工程师</v>
-      </c>
-      <c r="B25" s="2" t="str">
-        <v>在找</v>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1136,12 +1246,12 @@
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
     </row>
-    <row r="26">
-      <c r="A26" s="2" t="str">
-        <v>前端工程师</v>
-      </c>
-      <c r="B26" s="2" t="str">
-        <v>还没开始找</v>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1162,12 +1272,12 @@
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
     </row>
-    <row r="27">
-      <c r="A27" s="2" t="str">
-        <v>java开发</v>
-      </c>
-      <c r="B27" s="2" t="str">
-        <v>在找</v>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1188,12 +1298,12 @@
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
     </row>
-    <row r="28">
-      <c r="A28" s="2" t="str">
-        <v>AI+嵌入式</v>
-      </c>
-      <c r="B28" s="2" t="str">
-        <v>再找</v>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1214,12 +1324,12 @@
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
     </row>
-    <row r="29">
-      <c r="A29" s="2" t="str">
-        <v>财务主管</v>
-      </c>
-      <c r="B29" s="2" t="str">
-        <v>在找</v>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1240,12 +1350,12 @@
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
     </row>
-    <row r="30">
-      <c r="A30" s="2" t="str">
-        <v>后端开发</v>
-      </c>
-      <c r="B30" s="2" t="str">
-        <v>在学习的路上</v>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1266,9 +1376,13 @@
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
     </row>
-    <row r="31">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -1288,7 +1402,7 @@
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="1"/>
@@ -1310,7 +1424,7 @@
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="1"/>
@@ -1332,7 +1446,7 @@
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="1"/>
@@ -1354,7 +1468,7 @@
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="1"/>
@@ -1376,7 +1490,7 @@
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="1"/>
@@ -1398,7 +1512,7 @@
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="1"/>
@@ -1420,7 +1534,7 @@
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="1"/>
@@ -1442,7 +1556,7 @@
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="1"/>
@@ -1464,7 +1578,7 @@
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="1"/>
@@ -1486,7 +1600,7 @@
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="1"/>
@@ -1508,7 +1622,7 @@
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="1"/>
@@ -1530,7 +1644,7 @@
       <c r="S42" s="1"/>
       <c r="T42" s="1"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="1"/>
@@ -1552,7 +1666,7 @@
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="1"/>
@@ -1574,7 +1688,7 @@
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="1"/>
@@ -1596,7 +1710,7 @@
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
     </row>
-    <row r="46">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="1"/>
@@ -1618,7 +1732,7 @@
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="1"/>
@@ -1640,7 +1754,7 @@
       <c r="S47" s="1"/>
       <c r="T47" s="1"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="1"/>
@@ -1662,7 +1776,7 @@
       <c r="S48" s="1"/>
       <c r="T48" s="1"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="1"/>
@@ -1684,7 +1798,7 @@
       <c r="S49" s="1"/>
       <c r="T49" s="1"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="1"/>
@@ -1706,7 +1820,7 @@
       <c r="S50" s="1"/>
       <c r="T50" s="1"/>
     </row>
-    <row r="51">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="1"/>
@@ -1728,7 +1842,7 @@
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
     </row>
-    <row r="52">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="1"/>
@@ -1750,7 +1864,7 @@
       <c r="S52" s="1"/>
       <c r="T52" s="1"/>
     </row>
-    <row r="53">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="1"/>
@@ -1772,7 +1886,7 @@
       <c r="S53" s="1"/>
       <c r="T53" s="1"/>
     </row>
-    <row r="54">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="1"/>
@@ -1794,7 +1908,7 @@
       <c r="S54" s="1"/>
       <c r="T54" s="1"/>
     </row>
-    <row r="55">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="1"/>
@@ -1816,7 +1930,7 @@
       <c r="S55" s="1"/>
       <c r="T55" s="1"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="1"/>
@@ -1838,7 +1952,7 @@
       <c r="S56" s="1"/>
       <c r="T56" s="1"/>
     </row>
-    <row r="57">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="1"/>
@@ -1860,7 +1974,7 @@
       <c r="S57" s="1"/>
       <c r="T57" s="1"/>
     </row>
-    <row r="58">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="1"/>
@@ -1882,7 +1996,7 @@
       <c r="S58" s="1"/>
       <c r="T58" s="1"/>
     </row>
-    <row r="59">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="1"/>
@@ -1904,7 +2018,7 @@
       <c r="S59" s="1"/>
       <c r="T59" s="1"/>
     </row>
-    <row r="60">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="1"/>
@@ -1926,7 +2040,7 @@
       <c r="S60" s="1"/>
       <c r="T60" s="1"/>
     </row>
-    <row r="61">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="1"/>
@@ -1948,7 +2062,7 @@
       <c r="S61" s="1"/>
       <c r="T61" s="1"/>
     </row>
-    <row r="62">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="1"/>
@@ -1970,7 +2084,7 @@
       <c r="S62" s="1"/>
       <c r="T62" s="1"/>
     </row>
-    <row r="63">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="1"/>
@@ -1992,7 +2106,7 @@
       <c r="S63" s="1"/>
       <c r="T63" s="1"/>
     </row>
-    <row r="64">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="1"/>
@@ -2014,7 +2128,7 @@
       <c r="S64" s="1"/>
       <c r="T64" s="1"/>
     </row>
-    <row r="65">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="1"/>
@@ -2036,7 +2150,7 @@
       <c r="S65" s="1"/>
       <c r="T65" s="1"/>
     </row>
-    <row r="66">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="1"/>
@@ -2058,7 +2172,7 @@
       <c r="S66" s="1"/>
       <c r="T66" s="1"/>
     </row>
-    <row r="67">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="1"/>
@@ -2080,7 +2194,7 @@
       <c r="S67" s="1"/>
       <c r="T67" s="1"/>
     </row>
-    <row r="68">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="1"/>
@@ -2102,7 +2216,7 @@
       <c r="S68" s="1"/>
       <c r="T68" s="1"/>
     </row>
-    <row r="69">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="1"/>
@@ -2124,7 +2238,7 @@
       <c r="S69" s="1"/>
       <c r="T69" s="1"/>
     </row>
-    <row r="70">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="1"/>
@@ -2146,7 +2260,7 @@
       <c r="S70" s="1"/>
       <c r="T70" s="1"/>
     </row>
-    <row r="71">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="1"/>
@@ -2168,7 +2282,7 @@
       <c r="S71" s="1"/>
       <c r="T71" s="1"/>
     </row>
-    <row r="72">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="1"/>
@@ -2190,7 +2304,7 @@
       <c r="S72" s="1"/>
       <c r="T72" s="1"/>
     </row>
-    <row r="73">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="1"/>
@@ -2212,7 +2326,7 @@
       <c r="S73" s="1"/>
       <c r="T73" s="1"/>
     </row>
-    <row r="74">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="1"/>
@@ -2234,7 +2348,7 @@
       <c r="S74" s="1"/>
       <c r="T74" s="1"/>
     </row>
-    <row r="75">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="1"/>
@@ -2256,7 +2370,7 @@
       <c r="S75" s="1"/>
       <c r="T75" s="1"/>
     </row>
-    <row r="76">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="1"/>
@@ -2278,7 +2392,7 @@
       <c r="S76" s="1"/>
       <c r="T76" s="1"/>
     </row>
-    <row r="77">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="1"/>
@@ -2300,7 +2414,7 @@
       <c r="S77" s="1"/>
       <c r="T77" s="1"/>
     </row>
-    <row r="78">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="1"/>
@@ -2322,7 +2436,7 @@
       <c r="S78" s="1"/>
       <c r="T78" s="1"/>
     </row>
-    <row r="79">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="1"/>
@@ -2344,7 +2458,7 @@
       <c r="S79" s="1"/>
       <c r="T79" s="1"/>
     </row>
-    <row r="80">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="1"/>
@@ -2366,7 +2480,7 @@
       <c r="S80" s="1"/>
       <c r="T80" s="1"/>
     </row>
-    <row r="81">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="1"/>
@@ -2388,7 +2502,7 @@
       <c r="S81" s="1"/>
       <c r="T81" s="1"/>
     </row>
-    <row r="82">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="1"/>
@@ -2410,7 +2524,7 @@
       <c r="S82" s="1"/>
       <c r="T82" s="1"/>
     </row>
-    <row r="83">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="1"/>
@@ -2432,7 +2546,7 @@
       <c r="S83" s="1"/>
       <c r="T83" s="1"/>
     </row>
-    <row r="84">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="1"/>
@@ -2454,7 +2568,7 @@
       <c r="S84" s="1"/>
       <c r="T84" s="1"/>
     </row>
-    <row r="85">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="1"/>
@@ -2476,7 +2590,7 @@
       <c r="S85" s="1"/>
       <c r="T85" s="1"/>
     </row>
-    <row r="86">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="1"/>
@@ -2498,7 +2612,7 @@
       <c r="S86" s="1"/>
       <c r="T86" s="1"/>
     </row>
-    <row r="87">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="1"/>
@@ -2520,7 +2634,7 @@
       <c r="S87" s="1"/>
       <c r="T87" s="1"/>
     </row>
-    <row r="88">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="1"/>
@@ -2542,7 +2656,7 @@
       <c r="S88" s="1"/>
       <c r="T88" s="1"/>
     </row>
-    <row r="89">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="1"/>
@@ -2564,7 +2678,7 @@
       <c r="S89" s="1"/>
       <c r="T89" s="1"/>
     </row>
-    <row r="90">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="1"/>
@@ -2586,7 +2700,7 @@
       <c r="S90" s="1"/>
       <c r="T90" s="1"/>
     </row>
-    <row r="91">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="1"/>
@@ -2608,7 +2722,7 @@
       <c r="S91" s="1"/>
       <c r="T91" s="1"/>
     </row>
-    <row r="92">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="1"/>
@@ -2630,7 +2744,7 @@
       <c r="S92" s="1"/>
       <c r="T92" s="1"/>
     </row>
-    <row r="93">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="1"/>
@@ -2652,7 +2766,7 @@
       <c r="S93" s="1"/>
       <c r="T93" s="1"/>
     </row>
-    <row r="94">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="1"/>
@@ -2674,7 +2788,7 @@
       <c r="S94" s="1"/>
       <c r="T94" s="1"/>
     </row>
-    <row r="95">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="1"/>
@@ -2696,7 +2810,7 @@
       <c r="S95" s="1"/>
       <c r="T95" s="1"/>
     </row>
-    <row r="96">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="1"/>
@@ -2718,7 +2832,7 @@
       <c r="S96" s="1"/>
       <c r="T96" s="1"/>
     </row>
-    <row r="97">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="1"/>
@@ -2740,7 +2854,7 @@
       <c r="S97" s="1"/>
       <c r="T97" s="1"/>
     </row>
-    <row r="98">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="1"/>
@@ -2762,7 +2876,7 @@
       <c r="S98" s="1"/>
       <c r="T98" s="1"/>
     </row>
-    <row r="99">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="1"/>
@@ -2784,7 +2898,7 @@
       <c r="S99" s="1"/>
       <c r="T99" s="1"/>
     </row>
-    <row r="100">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="1"/>
@@ -2806,7 +2920,7 @@
       <c r="S100" s="1"/>
       <c r="T100" s="1"/>
     </row>
-    <row r="101">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="1"/>
@@ -2828,7 +2942,7 @@
       <c r="S101" s="1"/>
       <c r="T101" s="1"/>
     </row>
-    <row r="102">
+    <row r="102" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="1"/>
@@ -2850,7 +2964,7 @@
       <c r="S102" s="1"/>
       <c r="T102" s="1"/>
     </row>
-    <row r="103">
+    <row r="103" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="1"/>
@@ -2872,7 +2986,7 @@
       <c r="S103" s="1"/>
       <c r="T103" s="1"/>
     </row>
-    <row r="104">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="1"/>
@@ -2894,7 +3008,7 @@
       <c r="S104" s="1"/>
       <c r="T104" s="1"/>
     </row>
-    <row r="105">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="1"/>
@@ -2916,7 +3030,7 @@
       <c r="S105" s="1"/>
       <c r="T105" s="1"/>
     </row>
-    <row r="106">
+    <row r="106" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="1"/>
@@ -2938,7 +3052,7 @@
       <c r="S106" s="1"/>
       <c r="T106" s="1"/>
     </row>
-    <row r="107">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="1"/>
@@ -2960,7 +3074,7 @@
       <c r="S107" s="1"/>
       <c r="T107" s="1"/>
     </row>
-    <row r="108">
+    <row r="108" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="1"/>
@@ -2982,7 +3096,7 @@
       <c r="S108" s="1"/>
       <c r="T108" s="1"/>
     </row>
-    <row r="109">
+    <row r="109" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="1"/>
@@ -3004,7 +3118,7 @@
       <c r="S109" s="1"/>
       <c r="T109" s="1"/>
     </row>
-    <row r="110">
+    <row r="110" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="1"/>
@@ -3026,7 +3140,7 @@
       <c r="S110" s="1"/>
       <c r="T110" s="1"/>
     </row>
-    <row r="111">
+    <row r="111" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="1"/>
@@ -3048,7 +3162,7 @@
       <c r="S111" s="1"/>
       <c r="T111" s="1"/>
     </row>
-    <row r="112">
+    <row r="112" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="1"/>
@@ -3070,7 +3184,7 @@
       <c r="S112" s="1"/>
       <c r="T112" s="1"/>
     </row>
-    <row r="113">
+    <row r="113" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="1"/>
@@ -3092,7 +3206,7 @@
       <c r="S113" s="1"/>
       <c r="T113" s="1"/>
     </row>
-    <row r="114">
+    <row r="114" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="1"/>
@@ -3114,7 +3228,7 @@
       <c r="S114" s="1"/>
       <c r="T114" s="1"/>
     </row>
-    <row r="115">
+    <row r="115" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="1"/>
@@ -3136,7 +3250,7 @@
       <c r="S115" s="1"/>
       <c r="T115" s="1"/>
     </row>
-    <row r="116">
+    <row r="116" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="1"/>
@@ -3158,7 +3272,7 @@
       <c r="S116" s="1"/>
       <c r="T116" s="1"/>
     </row>
-    <row r="117">
+    <row r="117" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="1"/>
@@ -3180,7 +3294,7 @@
       <c r="S117" s="1"/>
       <c r="T117" s="1"/>
     </row>
-    <row r="118">
+    <row r="118" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="1"/>
@@ -3202,7 +3316,7 @@
       <c r="S118" s="1"/>
       <c r="T118" s="1"/>
     </row>
-    <row r="119">
+    <row r="119" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="1"/>
@@ -3224,7 +3338,7 @@
       <c r="S119" s="1"/>
       <c r="T119" s="1"/>
     </row>
-    <row r="120">
+    <row r="120" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="1"/>
@@ -3246,7 +3360,7 @@
       <c r="S120" s="1"/>
       <c r="T120" s="1"/>
     </row>
-    <row r="121">
+    <row r="121" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="1"/>
@@ -3268,7 +3382,7 @@
       <c r="S121" s="1"/>
       <c r="T121" s="1"/>
     </row>
-    <row r="122">
+    <row r="122" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="1"/>
@@ -3290,7 +3404,7 @@
       <c r="S122" s="1"/>
       <c r="T122" s="1"/>
     </row>
-    <row r="123">
+    <row r="123" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="1"/>
@@ -3312,7 +3426,7 @@
       <c r="S123" s="1"/>
       <c r="T123" s="1"/>
     </row>
-    <row r="124">
+    <row r="124" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="1"/>
@@ -3334,7 +3448,7 @@
       <c r="S124" s="1"/>
       <c r="T124" s="1"/>
     </row>
-    <row r="125">
+    <row r="125" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="1"/>
@@ -3356,7 +3470,7 @@
       <c r="S125" s="1"/>
       <c r="T125" s="1"/>
     </row>
-    <row r="126">
+    <row r="126" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="1"/>
@@ -3378,7 +3492,7 @@
       <c r="S126" s="1"/>
       <c r="T126" s="1"/>
     </row>
-    <row r="127">
+    <row r="127" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="1"/>
@@ -3400,7 +3514,7 @@
       <c r="S127" s="1"/>
       <c r="T127" s="1"/>
     </row>
-    <row r="128">
+    <row r="128" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="1"/>
@@ -3422,7 +3536,7 @@
       <c r="S128" s="1"/>
       <c r="T128" s="1"/>
     </row>
-    <row r="129">
+    <row r="129" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="1"/>
@@ -3444,7 +3558,7 @@
       <c r="S129" s="1"/>
       <c r="T129" s="1"/>
     </row>
-    <row r="130">
+    <row r="130" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="1"/>
@@ -3466,7 +3580,7 @@
       <c r="S130" s="1"/>
       <c r="T130" s="1"/>
     </row>
-    <row r="131">
+    <row r="131" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="1"/>
@@ -3488,7 +3602,7 @@
       <c r="S131" s="1"/>
       <c r="T131" s="1"/>
     </row>
-    <row r="132">
+    <row r="132" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="1"/>
@@ -3510,7 +3624,7 @@
       <c r="S132" s="1"/>
       <c r="T132" s="1"/>
     </row>
-    <row r="133">
+    <row r="133" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="1"/>
@@ -3532,7 +3646,7 @@
       <c r="S133" s="1"/>
       <c r="T133" s="1"/>
     </row>
-    <row r="134">
+    <row r="134" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="1"/>
@@ -3554,7 +3668,7 @@
       <c r="S134" s="1"/>
       <c r="T134" s="1"/>
     </row>
-    <row r="135">
+    <row r="135" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="1"/>
@@ -3576,7 +3690,7 @@
       <c r="S135" s="1"/>
       <c r="T135" s="1"/>
     </row>
-    <row r="136">
+    <row r="136" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="1"/>
@@ -3598,7 +3712,7 @@
       <c r="S136" s="1"/>
       <c r="T136" s="1"/>
     </row>
-    <row r="137">
+    <row r="137" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="1"/>
@@ -3620,7 +3734,7 @@
       <c r="S137" s="1"/>
       <c r="T137" s="1"/>
     </row>
-    <row r="138">
+    <row r="138" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="1"/>
@@ -3642,7 +3756,7 @@
       <c r="S138" s="1"/>
       <c r="T138" s="1"/>
     </row>
-    <row r="139">
+    <row r="139" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="1"/>
@@ -3664,7 +3778,7 @@
       <c r="S139" s="1"/>
       <c r="T139" s="1"/>
     </row>
-    <row r="140">
+    <row r="140" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="1"/>
@@ -3686,7 +3800,7 @@
       <c r="S140" s="1"/>
       <c r="T140" s="1"/>
     </row>
-    <row r="141">
+    <row r="141" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="1"/>
@@ -3708,7 +3822,7 @@
       <c r="S141" s="1"/>
       <c r="T141" s="1"/>
     </row>
-    <row r="142">
+    <row r="142" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="1"/>
@@ -3730,7 +3844,7 @@
       <c r="S142" s="1"/>
       <c r="T142" s="1"/>
     </row>
-    <row r="143">
+    <row r="143" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="1"/>
@@ -3752,7 +3866,7 @@
       <c r="S143" s="1"/>
       <c r="T143" s="1"/>
     </row>
-    <row r="144">
+    <row r="144" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="1"/>
@@ -3774,7 +3888,7 @@
       <c r="S144" s="1"/>
       <c r="T144" s="1"/>
     </row>
-    <row r="145">
+    <row r="145" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="1"/>
@@ -3796,7 +3910,7 @@
       <c r="S145" s="1"/>
       <c r="T145" s="1"/>
     </row>
-    <row r="146">
+    <row r="146" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="1"/>
@@ -3818,7 +3932,7 @@
       <c r="S146" s="1"/>
       <c r="T146" s="1"/>
     </row>
-    <row r="147">
+    <row r="147" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="1"/>
@@ -3840,7 +3954,7 @@
       <c r="S147" s="1"/>
       <c r="T147" s="1"/>
     </row>
-    <row r="148">
+    <row r="148" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="1"/>
@@ -3862,7 +3976,7 @@
       <c r="S148" s="1"/>
       <c r="T148" s="1"/>
     </row>
-    <row r="149">
+    <row r="149" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="1"/>
@@ -3884,7 +3998,7 @@
       <c r="S149" s="1"/>
       <c r="T149" s="1"/>
     </row>
-    <row r="150">
+    <row r="150" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="1"/>
@@ -3906,7 +4020,7 @@
       <c r="S150" s="1"/>
       <c r="T150" s="1"/>
     </row>
-    <row r="151">
+    <row r="151" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="1"/>
@@ -3928,7 +4042,7 @@
       <c r="S151" s="1"/>
       <c r="T151" s="1"/>
     </row>
-    <row r="152">
+    <row r="152" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="1"/>
@@ -3950,7 +4064,7 @@
       <c r="S152" s="1"/>
       <c r="T152" s="1"/>
     </row>
-    <row r="153">
+    <row r="153" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="1"/>
@@ -3972,7 +4086,7 @@
       <c r="S153" s="1"/>
       <c r="T153" s="1"/>
     </row>
-    <row r="154">
+    <row r="154" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="1"/>
@@ -3994,7 +4108,7 @@
       <c r="S154" s="1"/>
       <c r="T154" s="1"/>
     </row>
-    <row r="155">
+    <row r="155" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="1"/>
@@ -4016,7 +4130,7 @@
       <c r="S155" s="1"/>
       <c r="T155" s="1"/>
     </row>
-    <row r="156">
+    <row r="156" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="1"/>
@@ -4038,7 +4152,7 @@
       <c r="S156" s="1"/>
       <c r="T156" s="1"/>
     </row>
-    <row r="157">
+    <row r="157" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="1"/>
@@ -4060,7 +4174,7 @@
       <c r="S157" s="1"/>
       <c r="T157" s="1"/>
     </row>
-    <row r="158">
+    <row r="158" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="1"/>
@@ -4082,7 +4196,7 @@
       <c r="S158" s="1"/>
       <c r="T158" s="1"/>
     </row>
-    <row r="159">
+    <row r="159" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="1"/>
@@ -4104,7 +4218,7 @@
       <c r="S159" s="1"/>
       <c r="T159" s="1"/>
     </row>
-    <row r="160">
+    <row r="160" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="1"/>
@@ -4126,7 +4240,7 @@
       <c r="S160" s="1"/>
       <c r="T160" s="1"/>
     </row>
-    <row r="161">
+    <row r="161" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="1"/>
@@ -4148,7 +4262,7 @@
       <c r="S161" s="1"/>
       <c r="T161" s="1"/>
     </row>
-    <row r="162">
+    <row r="162" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="1"/>
@@ -4170,7 +4284,7 @@
       <c r="S162" s="1"/>
       <c r="T162" s="1"/>
     </row>
-    <row r="163">
+    <row r="163" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="1"/>
@@ -4192,7 +4306,7 @@
       <c r="S163" s="1"/>
       <c r="T163" s="1"/>
     </row>
-    <row r="164">
+    <row r="164" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="1"/>
@@ -4214,7 +4328,7 @@
       <c r="S164" s="1"/>
       <c r="T164" s="1"/>
     </row>
-    <row r="165">
+    <row r="165" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="1"/>
@@ -4236,7 +4350,7 @@
       <c r="S165" s="1"/>
       <c r="T165" s="1"/>
     </row>
-    <row r="166">
+    <row r="166" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="1"/>
@@ -4258,7 +4372,7 @@
       <c r="S166" s="1"/>
       <c r="T166" s="1"/>
     </row>
-    <row r="167">
+    <row r="167" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="1"/>
@@ -4280,7 +4394,7 @@
       <c r="S167" s="1"/>
       <c r="T167" s="1"/>
     </row>
-    <row r="168">
+    <row r="168" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="1"/>
@@ -4302,7 +4416,7 @@
       <c r="S168" s="1"/>
       <c r="T168" s="1"/>
     </row>
-    <row r="169">
+    <row r="169" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="1"/>
@@ -4324,7 +4438,7 @@
       <c r="S169" s="1"/>
       <c r="T169" s="1"/>
     </row>
-    <row r="170">
+    <row r="170" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="1"/>
@@ -4346,7 +4460,7 @@
       <c r="S170" s="1"/>
       <c r="T170" s="1"/>
     </row>
-    <row r="171">
+    <row r="171" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="1"/>
@@ -4368,7 +4482,7 @@
       <c r="S171" s="1"/>
       <c r="T171" s="1"/>
     </row>
-    <row r="172">
+    <row r="172" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="1"/>
@@ -4390,7 +4504,7 @@
       <c r="S172" s="1"/>
       <c r="T172" s="1"/>
     </row>
-    <row r="173">
+    <row r="173" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="1"/>
@@ -4412,7 +4526,7 @@
       <c r="S173" s="1"/>
       <c r="T173" s="1"/>
     </row>
-    <row r="174">
+    <row r="174" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="1"/>
@@ -4434,7 +4548,7 @@
       <c r="S174" s="1"/>
       <c r="T174" s="1"/>
     </row>
-    <row r="175">
+    <row r="175" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="1"/>
@@ -4456,7 +4570,7 @@
       <c r="S175" s="1"/>
       <c r="T175" s="1"/>
     </row>
-    <row r="176">
+    <row r="176" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="1"/>
@@ -4478,7 +4592,7 @@
       <c r="S176" s="1"/>
       <c r="T176" s="1"/>
     </row>
-    <row r="177">
+    <row r="177" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="1"/>
@@ -4500,7 +4614,7 @@
       <c r="S177" s="1"/>
       <c r="T177" s="1"/>
     </row>
-    <row r="178">
+    <row r="178" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="1"/>
@@ -4522,7 +4636,7 @@
       <c r="S178" s="1"/>
       <c r="T178" s="1"/>
     </row>
-    <row r="179">
+    <row r="179" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="1"/>
@@ -4544,7 +4658,7 @@
       <c r="S179" s="1"/>
       <c r="T179" s="1"/>
     </row>
-    <row r="180">
+    <row r="180" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="1"/>
@@ -4566,7 +4680,7 @@
       <c r="S180" s="1"/>
       <c r="T180" s="1"/>
     </row>
-    <row r="181">
+    <row r="181" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="1"/>
@@ -4588,7 +4702,7 @@
       <c r="S181" s="1"/>
       <c r="T181" s="1"/>
     </row>
-    <row r="182">
+    <row r="182" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="1"/>
@@ -4610,7 +4724,7 @@
       <c r="S182" s="1"/>
       <c r="T182" s="1"/>
     </row>
-    <row r="183">
+    <row r="183" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="1"/>
@@ -4632,7 +4746,7 @@
       <c r="S183" s="1"/>
       <c r="T183" s="1"/>
     </row>
-    <row r="184">
+    <row r="184" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="1"/>
@@ -4654,7 +4768,7 @@
       <c r="S184" s="1"/>
       <c r="T184" s="1"/>
     </row>
-    <row r="185">
+    <row r="185" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="1"/>
@@ -4676,7 +4790,7 @@
       <c r="S185" s="1"/>
       <c r="T185" s="1"/>
     </row>
-    <row r="186">
+    <row r="186" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="1"/>
@@ -4698,7 +4812,7 @@
       <c r="S186" s="1"/>
       <c r="T186" s="1"/>
     </row>
-    <row r="187">
+    <row r="187" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="1"/>
@@ -4720,7 +4834,7 @@
       <c r="S187" s="1"/>
       <c r="T187" s="1"/>
     </row>
-    <row r="188">
+    <row r="188" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="1"/>
@@ -4742,7 +4856,7 @@
       <c r="S188" s="1"/>
       <c r="T188" s="1"/>
     </row>
-    <row r="189">
+    <row r="189" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="1"/>
@@ -4764,7 +4878,7 @@
       <c r="S189" s="1"/>
       <c r="T189" s="1"/>
     </row>
-    <row r="190">
+    <row r="190" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="1"/>
@@ -4786,7 +4900,7 @@
       <c r="S190" s="1"/>
       <c r="T190" s="1"/>
     </row>
-    <row r="191">
+    <row r="191" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="1"/>
@@ -4808,7 +4922,7 @@
       <c r="S191" s="1"/>
       <c r="T191" s="1"/>
     </row>
-    <row r="192">
+    <row r="192" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="1"/>
@@ -4830,7 +4944,7 @@
       <c r="S192" s="1"/>
       <c r="T192" s="1"/>
     </row>
-    <row r="193">
+    <row r="193" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="1"/>
@@ -4852,7 +4966,7 @@
       <c r="S193" s="1"/>
       <c r="T193" s="1"/>
     </row>
-    <row r="194">
+    <row r="194" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="1"/>
@@ -4874,7 +4988,7 @@
       <c r="S194" s="1"/>
       <c r="T194" s="1"/>
     </row>
-    <row r="195">
+    <row r="195" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="1"/>
@@ -4896,7 +5010,7 @@
       <c r="S195" s="1"/>
       <c r="T195" s="1"/>
     </row>
-    <row r="196">
+    <row r="196" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="1"/>
@@ -4918,7 +5032,7 @@
       <c r="S196" s="1"/>
       <c r="T196" s="1"/>
     </row>
-    <row r="197">
+    <row r="197" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="1"/>
@@ -4940,7 +5054,7 @@
       <c r="S197" s="1"/>
       <c r="T197" s="1"/>
     </row>
-    <row r="198">
+    <row r="198" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="1"/>
@@ -4962,7 +5076,7 @@
       <c r="S198" s="1"/>
       <c r="T198" s="1"/>
     </row>
-    <row r="199">
+    <row r="199" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="1"/>
@@ -4984,7 +5098,7 @@
       <c r="S199" s="1"/>
       <c r="T199" s="1"/>
     </row>
-    <row r="200">
+    <row r="200" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="1"/>
@@ -5007,6 +5121,7 @@
       <c r="T200" s="1"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/许愿墙.xlsx
+++ b/许愿墙.xlsx
@@ -1,79 +1,195 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\get_jobs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4701463-447C-4DC6-B02E-DCA7766CDFEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="15800" windowWidth="28040" xWindow="4240" yWindow="640"/>
+    <workbookView xWindow="3870" yWindow="1480" windowWidth="19180" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcMode="auto"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="39">
   <si>
-    <t xml:space="preserve">  </t>
+    <t>你想找什么样的工作？</t>
+  </si>
+  <si>
+    <t>现在的状态是怎样的？</t>
+  </si>
+  <si>
+    <t>AI攻城狮</t>
+  </si>
+  <si>
+    <t>已找到！</t>
+  </si>
+  <si>
+    <t>Java+AI</t>
+  </si>
+  <si>
+    <t>在找</t>
+  </si>
+  <si>
+    <t>AI agent开发</t>
+  </si>
+  <si>
+    <t>Java实习</t>
+  </si>
+  <si>
+    <t>还没开始找</t>
+  </si>
+  <si>
+    <t>系统架构师</t>
+  </si>
+  <si>
+    <t>Go</t>
+  </si>
+  <si>
+    <t>前端攻城狮</t>
+  </si>
+  <si>
+    <t>AI+游戏开发</t>
+  </si>
+  <si>
+    <t>C++实习</t>
+  </si>
+  <si>
+    <t>后端开发</t>
+  </si>
+  <si>
+    <t>正确的路上</t>
+  </si>
+  <si>
+    <t>Java后端开发</t>
+  </si>
+  <si>
+    <t>在找实习的路上</t>
+  </si>
+  <si>
+    <t>Java</t>
+  </si>
+  <si>
+    <t>找到了，但是通勤太远想跳槽</t>
+  </si>
+  <si>
+    <t>Frontend leader</t>
+  </si>
+  <si>
+    <t>找到了，但是没有work life balance</t>
+  </si>
+  <si>
+    <t>找到了，不满意</t>
+  </si>
+  <si>
+    <t>Java开发</t>
+  </si>
+  <si>
+    <t>再找</t>
+  </si>
+  <si>
+    <t>前端工程师</t>
+  </si>
+  <si>
+    <t>java开发</t>
+  </si>
+  <si>
+    <t>AI+前端工程师</t>
+  </si>
+  <si>
+    <t>C++开发</t>
+  </si>
+  <si>
+    <t>Go后端开发</t>
+  </si>
+  <si>
+    <t>AI+后端工程师</t>
+  </si>
+  <si>
+    <t>linux运维</t>
+  </si>
+  <si>
+    <t>AI+嵌入式</t>
+  </si>
+  <si>
+    <t>财务主管</t>
+  </si>
+  <si>
+    <t>在学习的路上</t>
+  </si>
+  <si>
+    <t>去年7月用这个项目找到了第一份工作，现在再次回来，希望跳槽找一份AI售前的工作</t>
+  </si>
+  <si>
+    <t>准备跳槽</t>
+  </si>
+  <si>
+    <t>算法</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲线救国中</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9.75"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9.75"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none">
-        <fgColor/>
-        <bgColor/>
-      </patternFill>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor/>
-        <bgColor/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF34C724"/>
-        <bgColor/>
       </patternFill>
     </fill>
   </fills>
@@ -139,30 +255,30 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -175,7 +291,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -470,28 +586,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
-    <outlinePr summaryBelow="false" summaryRight="false"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:T200"/>
   <sheetViews>
-    <sheetView showGridLines="true" tabSelected="true" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="74"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="32"/>
+    <col min="1" max="1" width="74" customWidth="1"/>
+    <col min="2" max="2" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="str">
-        <v>你想找什么样的工作？</v>
-      </c>
-      <c r="B1" s="3" t="str">
-        <v>现在的状态是怎样的？</v>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -512,12 +628,12 @@
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
     </row>
-    <row r="2">
-      <c r="A2" s="2" t="str">
-        <v>AI攻城狮</v>
-      </c>
-      <c r="B2" s="2" t="str">
-        <v>已找到！</v>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -538,12 +654,12 @@
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
     </row>
-    <row r="3">
-      <c r="A3" s="2" t="str">
-        <v>Java+AI</v>
-      </c>
-      <c r="B3" s="2" t="str">
-        <v>在找</v>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -564,12 +680,12 @@
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
     </row>
-    <row r="4">
-      <c r="A4" s="2" t="str">
-        <v>AI agent开发</v>
-      </c>
-      <c r="B4" s="2" t="str">
-        <v>在找</v>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -590,12 +706,12 @@
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
     </row>
-    <row r="5">
-      <c r="A5" s="2" t="str">
-        <v>Java实习</v>
-      </c>
-      <c r="B5" s="2" t="str">
-        <v>还没开始找</v>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -616,12 +732,12 @@
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
     </row>
-    <row r="6">
-      <c r="A6" s="2" t="str">
-        <v>系统架构师</v>
-      </c>
-      <c r="B6" s="2" t="str">
-        <v>在找</v>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -642,12 +758,12 @@
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
     </row>
-    <row r="7">
-      <c r="A7" s="2" t="str">
-        <v>Go</v>
-      </c>
-      <c r="B7" s="2" t="str">
-        <v>在找</v>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -668,12 +784,12 @@
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
     </row>
-    <row r="8">
-      <c r="A8" s="2" t="str">
-        <v>前端攻城狮</v>
-      </c>
-      <c r="B8" s="2" t="str">
-        <v>在找</v>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -694,12 +810,12 @@
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
     </row>
-    <row r="9">
-      <c r="A9" s="2" t="str">
-        <v>AI+游戏开发</v>
-      </c>
-      <c r="B9" s="2" t="str">
-        <v>在找</v>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -720,12 +836,12 @@
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
     </row>
-    <row r="10">
-      <c r="A10" s="2" t="str">
-        <v>C++实习</v>
-      </c>
-      <c r="B10" s="2" t="str">
-        <v>在找</v>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -746,12 +862,12 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
     </row>
-    <row r="11">
-      <c r="A11" s="2" t="str">
-        <v>后端开发</v>
-      </c>
-      <c r="B11" s="2" t="str">
-        <v>正确的路上</v>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -772,12 +888,12 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row r="12">
-      <c r="A12" s="2" t="str">
-        <v>Java后端开发</v>
-      </c>
-      <c r="B12" s="2" t="str">
-        <v>在找实习的路上</v>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -798,12 +914,12 @@
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
     </row>
-    <row r="13">
-      <c r="A13" s="2" t="str">
-        <v>Java</v>
-      </c>
-      <c r="B13" s="2" t="str">
-        <v>找到了，但是通勤太远想跳槽</v>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -824,12 +940,12 @@
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
     </row>
-    <row r="14">
-      <c r="A14" s="2" t="str">
-        <v>Frontend leader</v>
-      </c>
-      <c r="B14" s="2" t="str">
-        <v>找到了，但是没有work life balance</v>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -850,12 +966,12 @@
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
     </row>
-    <row r="15">
-      <c r="A15" s="4" t="str">
-        <v>Java</v>
-      </c>
-      <c r="B15" s="2" t="str">
-        <v>找到了，不满意</v>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -876,12 +992,12 @@
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
     </row>
-    <row r="16">
-      <c r="A16" s="2" t="str">
-        <v>Java开发</v>
-      </c>
-      <c r="B16" s="2" t="str">
-        <v>再找</v>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -902,12 +1018,12 @@
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
     </row>
-    <row r="17">
-      <c r="A17" s="2" t="str">
-        <v>前端工程师</v>
-      </c>
-      <c r="B17" s="2" t="str">
-        <v>在找</v>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -928,12 +1044,12 @@
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
     </row>
-    <row r="18">
-      <c r="A18" s="2" t="str">
-        <v>java开发</v>
-      </c>
-      <c r="B18" s="2" t="str">
-        <v>在找</v>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -954,12 +1070,12 @@
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
     </row>
-    <row r="19">
-      <c r="A19" s="2" t="str">
-        <v>AI+前端工程师</v>
-      </c>
-      <c r="B19" s="2" t="str">
-        <v>还没开始找</v>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -980,12 +1096,12 @@
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
     </row>
-    <row r="20">
-      <c r="A20" s="2" t="str">
-        <v>C++开发</v>
-      </c>
-      <c r="B20" s="2" t="str">
-        <v>在找</v>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -1006,12 +1122,12 @@
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
     </row>
-    <row r="21">
-      <c r="A21" s="2" t="str">
-        <v>Go</v>
-      </c>
-      <c r="B21" s="2" t="str">
-        <v>在找</v>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -1032,12 +1148,12 @@
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
     </row>
-    <row r="22">
-      <c r="A22" s="2" t="str">
-        <v>Go后端开发</v>
-      </c>
-      <c r="B22" s="2" t="str">
-        <v>在找</v>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1058,12 +1174,12 @@
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
     </row>
-    <row r="23">
-      <c r="A23" s="2" t="str">
-        <v>AI+后端工程师</v>
-      </c>
-      <c r="B23" s="2" t="str">
-        <v>还没开始找</v>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1084,12 +1200,12 @@
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
     </row>
-    <row r="24">
-      <c r="A24" s="2" t="str">
-        <v>linux运维</v>
-      </c>
-      <c r="B24" s="2" t="str">
-        <v>在找</v>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1110,12 +1226,12 @@
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
     </row>
-    <row r="25">
-      <c r="A25" s="2" t="str">
-        <v>前端工程师</v>
-      </c>
-      <c r="B25" s="2" t="str">
-        <v>在找</v>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1136,12 +1252,12 @@
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
     </row>
-    <row r="26">
-      <c r="A26" s="2" t="str">
-        <v>前端工程师</v>
-      </c>
-      <c r="B26" s="2" t="str">
-        <v>还没开始找</v>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1162,12 +1278,12 @@
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
     </row>
-    <row r="27">
-      <c r="A27" s="2" t="str">
-        <v>java开发</v>
-      </c>
-      <c r="B27" s="2" t="str">
-        <v>在找</v>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1188,12 +1304,12 @@
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
     </row>
-    <row r="28">
-      <c r="A28" s="2" t="str">
-        <v>AI+嵌入式</v>
-      </c>
-      <c r="B28" s="2" t="str">
-        <v>再找</v>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1214,12 +1330,12 @@
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
     </row>
-    <row r="29">
-      <c r="A29" s="2" t="str">
-        <v>财务主管</v>
-      </c>
-      <c r="B29" s="2" t="str">
-        <v>在找</v>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1240,12 +1356,12 @@
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
     </row>
-    <row r="30">
-      <c r="A30" s="2" t="str">
-        <v>后端开发</v>
-      </c>
-      <c r="B30" s="2" t="str">
-        <v>在学习的路上</v>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1266,12 +1382,12 @@
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
     </row>
-    <row r="31">
-      <c r="A31" s="2" t="str">
-        <v>去年7月用这个项目找到了第一份工作，现在再次回来，希望跳槽找一份AI售前的工作</v>
-      </c>
-      <c r="B31" s="2" t="str">
-        <v>在找</v>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1292,12 +1408,12 @@
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
     </row>
-    <row r="32">
-      <c r="A32" s="2" t="str">
-        <v>前端工程师</v>
-      </c>
-      <c r="B32" s="2" t="str">
-        <v>在找</v>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1318,12 +1434,12 @@
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
     </row>
-    <row r="33">
-      <c r="A33" s="2" t="str">
-        <v>Java开发</v>
-      </c>
-      <c r="B33" s="2" t="str">
-        <v>准备跳槽</v>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1344,9 +1460,13 @@
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
     </row>
-    <row r="34">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -1366,7 +1486,7 @@
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="1"/>
@@ -1388,7 +1508,7 @@
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="1"/>
@@ -1410,7 +1530,7 @@
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="1"/>
@@ -1432,7 +1552,7 @@
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="1"/>
@@ -1454,7 +1574,7 @@
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="1"/>
@@ -1476,7 +1596,7 @@
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="1"/>
@@ -1498,7 +1618,7 @@
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="1"/>
@@ -1520,7 +1640,7 @@
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="1"/>
@@ -1542,7 +1662,7 @@
       <c r="S42" s="1"/>
       <c r="T42" s="1"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="1"/>
@@ -1564,7 +1684,7 @@
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="1"/>
@@ -1586,7 +1706,7 @@
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="1"/>
@@ -1608,7 +1728,7 @@
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
     </row>
-    <row r="46">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="1"/>
@@ -1630,7 +1750,7 @@
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="1"/>
@@ -1652,7 +1772,7 @@
       <c r="S47" s="1"/>
       <c r="T47" s="1"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="1"/>
@@ -1674,7 +1794,7 @@
       <c r="S48" s="1"/>
       <c r="T48" s="1"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="1"/>
@@ -1696,7 +1816,7 @@
       <c r="S49" s="1"/>
       <c r="T49" s="1"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="1"/>
@@ -1718,7 +1838,7 @@
       <c r="S50" s="1"/>
       <c r="T50" s="1"/>
     </row>
-    <row r="51">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="1"/>
@@ -1740,7 +1860,7 @@
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
     </row>
-    <row r="52">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="1"/>
@@ -1762,7 +1882,7 @@
       <c r="S52" s="1"/>
       <c r="T52" s="1"/>
     </row>
-    <row r="53">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="1"/>
@@ -1784,7 +1904,7 @@
       <c r="S53" s="1"/>
       <c r="T53" s="1"/>
     </row>
-    <row r="54">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="1"/>
@@ -1806,7 +1926,7 @@
       <c r="S54" s="1"/>
       <c r="T54" s="1"/>
     </row>
-    <row r="55">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="1"/>
@@ -1828,7 +1948,7 @@
       <c r="S55" s="1"/>
       <c r="T55" s="1"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="1"/>
@@ -1850,7 +1970,7 @@
       <c r="S56" s="1"/>
       <c r="T56" s="1"/>
     </row>
-    <row r="57">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="1"/>
@@ -1872,7 +1992,7 @@
       <c r="S57" s="1"/>
       <c r="T57" s="1"/>
     </row>
-    <row r="58">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="1"/>
@@ -1894,7 +2014,7 @@
       <c r="S58" s="1"/>
       <c r="T58" s="1"/>
     </row>
-    <row r="59">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="1"/>
@@ -1916,7 +2036,7 @@
       <c r="S59" s="1"/>
       <c r="T59" s="1"/>
     </row>
-    <row r="60">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="1"/>
@@ -1938,7 +2058,7 @@
       <c r="S60" s="1"/>
       <c r="T60" s="1"/>
     </row>
-    <row r="61">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="1"/>
@@ -1960,7 +2080,7 @@
       <c r="S61" s="1"/>
       <c r="T61" s="1"/>
     </row>
-    <row r="62">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="1"/>
@@ -1982,7 +2102,7 @@
       <c r="S62" s="1"/>
       <c r="T62" s="1"/>
     </row>
-    <row r="63">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="1"/>
@@ -2004,7 +2124,7 @@
       <c r="S63" s="1"/>
       <c r="T63" s="1"/>
     </row>
-    <row r="64">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="1"/>
@@ -2026,7 +2146,7 @@
       <c r="S64" s="1"/>
       <c r="T64" s="1"/>
     </row>
-    <row r="65">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="1"/>
@@ -2048,7 +2168,7 @@
       <c r="S65" s="1"/>
       <c r="T65" s="1"/>
     </row>
-    <row r="66">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="1"/>
@@ -2070,7 +2190,7 @@
       <c r="S66" s="1"/>
       <c r="T66" s="1"/>
     </row>
-    <row r="67">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="1"/>
@@ -2092,7 +2212,7 @@
       <c r="S67" s="1"/>
       <c r="T67" s="1"/>
     </row>
-    <row r="68">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="1"/>
@@ -2114,7 +2234,7 @@
       <c r="S68" s="1"/>
       <c r="T68" s="1"/>
     </row>
-    <row r="69">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="1"/>
@@ -2136,7 +2256,7 @@
       <c r="S69" s="1"/>
       <c r="T69" s="1"/>
     </row>
-    <row r="70">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="1"/>
@@ -2158,7 +2278,7 @@
       <c r="S70" s="1"/>
       <c r="T70" s="1"/>
     </row>
-    <row r="71">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="1"/>
@@ -2180,7 +2300,7 @@
       <c r="S71" s="1"/>
       <c r="T71" s="1"/>
     </row>
-    <row r="72">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="1"/>
@@ -2202,7 +2322,7 @@
       <c r="S72" s="1"/>
       <c r="T72" s="1"/>
     </row>
-    <row r="73">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="1"/>
@@ -2224,7 +2344,7 @@
       <c r="S73" s="1"/>
       <c r="T73" s="1"/>
     </row>
-    <row r="74">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="1"/>
@@ -2246,7 +2366,7 @@
       <c r="S74" s="1"/>
       <c r="T74" s="1"/>
     </row>
-    <row r="75">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="1"/>
@@ -2268,7 +2388,7 @@
       <c r="S75" s="1"/>
       <c r="T75" s="1"/>
     </row>
-    <row r="76">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="1"/>
@@ -2290,7 +2410,7 @@
       <c r="S76" s="1"/>
       <c r="T76" s="1"/>
     </row>
-    <row r="77">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="1"/>
@@ -2312,7 +2432,7 @@
       <c r="S77" s="1"/>
       <c r="T77" s="1"/>
     </row>
-    <row r="78">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="1"/>
@@ -2334,7 +2454,7 @@
       <c r="S78" s="1"/>
       <c r="T78" s="1"/>
     </row>
-    <row r="79">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="1"/>
@@ -2356,7 +2476,7 @@
       <c r="S79" s="1"/>
       <c r="T79" s="1"/>
     </row>
-    <row r="80">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="1"/>
@@ -2378,7 +2498,7 @@
       <c r="S80" s="1"/>
       <c r="T80" s="1"/>
     </row>
-    <row r="81">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="1"/>
@@ -2400,7 +2520,7 @@
       <c r="S81" s="1"/>
       <c r="T81" s="1"/>
     </row>
-    <row r="82">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="1"/>
@@ -2422,7 +2542,7 @@
       <c r="S82" s="1"/>
       <c r="T82" s="1"/>
     </row>
-    <row r="83">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="1"/>
@@ -2444,7 +2564,7 @@
       <c r="S83" s="1"/>
       <c r="T83" s="1"/>
     </row>
-    <row r="84">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="1"/>
@@ -2466,7 +2586,7 @@
       <c r="S84" s="1"/>
       <c r="T84" s="1"/>
     </row>
-    <row r="85">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="1"/>
@@ -2488,7 +2608,7 @@
       <c r="S85" s="1"/>
       <c r="T85" s="1"/>
     </row>
-    <row r="86">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="1"/>
@@ -2510,7 +2630,7 @@
       <c r="S86" s="1"/>
       <c r="T86" s="1"/>
     </row>
-    <row r="87">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="1"/>
@@ -2532,7 +2652,7 @@
       <c r="S87" s="1"/>
       <c r="T87" s="1"/>
     </row>
-    <row r="88">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="1"/>
@@ -2554,7 +2674,7 @@
       <c r="S88" s="1"/>
       <c r="T88" s="1"/>
     </row>
-    <row r="89">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="1"/>
@@ -2576,7 +2696,7 @@
       <c r="S89" s="1"/>
       <c r="T89" s="1"/>
     </row>
-    <row r="90">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="1"/>
@@ -2598,7 +2718,7 @@
       <c r="S90" s="1"/>
       <c r="T90" s="1"/>
     </row>
-    <row r="91">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="1"/>
@@ -2620,7 +2740,7 @@
       <c r="S91" s="1"/>
       <c r="T91" s="1"/>
     </row>
-    <row r="92">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="1"/>
@@ -2642,7 +2762,7 @@
       <c r="S92" s="1"/>
       <c r="T92" s="1"/>
     </row>
-    <row r="93">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="1"/>
@@ -2664,7 +2784,7 @@
       <c r="S93" s="1"/>
       <c r="T93" s="1"/>
     </row>
-    <row r="94">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="1"/>
@@ -2686,7 +2806,7 @@
       <c r="S94" s="1"/>
       <c r="T94" s="1"/>
     </row>
-    <row r="95">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="1"/>
@@ -2708,7 +2828,7 @@
       <c r="S95" s="1"/>
       <c r="T95" s="1"/>
     </row>
-    <row r="96">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="1"/>
@@ -2730,7 +2850,7 @@
       <c r="S96" s="1"/>
       <c r="T96" s="1"/>
     </row>
-    <row r="97">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="1"/>
@@ -2752,7 +2872,7 @@
       <c r="S97" s="1"/>
       <c r="T97" s="1"/>
     </row>
-    <row r="98">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="1"/>
@@ -2774,7 +2894,7 @@
       <c r="S98" s="1"/>
       <c r="T98" s="1"/>
     </row>
-    <row r="99">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="1"/>
@@ -2796,7 +2916,7 @@
       <c r="S99" s="1"/>
       <c r="T99" s="1"/>
     </row>
-    <row r="100">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="1"/>
@@ -2818,7 +2938,7 @@
       <c r="S100" s="1"/>
       <c r="T100" s="1"/>
     </row>
-    <row r="101">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="1"/>
@@ -2840,7 +2960,7 @@
       <c r="S101" s="1"/>
       <c r="T101" s="1"/>
     </row>
-    <row r="102">
+    <row r="102" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="1"/>
@@ -2862,7 +2982,7 @@
       <c r="S102" s="1"/>
       <c r="T102" s="1"/>
     </row>
-    <row r="103">
+    <row r="103" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="1"/>
@@ -2884,7 +3004,7 @@
       <c r="S103" s="1"/>
       <c r="T103" s="1"/>
     </row>
-    <row r="104">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="1"/>
@@ -2906,7 +3026,7 @@
       <c r="S104" s="1"/>
       <c r="T104" s="1"/>
     </row>
-    <row r="105">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="1"/>
@@ -2928,7 +3048,7 @@
       <c r="S105" s="1"/>
       <c r="T105" s="1"/>
     </row>
-    <row r="106">
+    <row r="106" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="1"/>
@@ -2950,7 +3070,7 @@
       <c r="S106" s="1"/>
       <c r="T106" s="1"/>
     </row>
-    <row r="107">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="1"/>
@@ -2972,7 +3092,7 @@
       <c r="S107" s="1"/>
       <c r="T107" s="1"/>
     </row>
-    <row r="108">
+    <row r="108" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="1"/>
@@ -2994,7 +3114,7 @@
       <c r="S108" s="1"/>
       <c r="T108" s="1"/>
     </row>
-    <row r="109">
+    <row r="109" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="1"/>
@@ -3016,7 +3136,7 @@
       <c r="S109" s="1"/>
       <c r="T109" s="1"/>
     </row>
-    <row r="110">
+    <row r="110" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="1"/>
@@ -3038,7 +3158,7 @@
       <c r="S110" s="1"/>
       <c r="T110" s="1"/>
     </row>
-    <row r="111">
+    <row r="111" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="1"/>
@@ -3060,7 +3180,7 @@
       <c r="S111" s="1"/>
       <c r="T111" s="1"/>
     </row>
-    <row r="112">
+    <row r="112" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="1"/>
@@ -3082,7 +3202,7 @@
       <c r="S112" s="1"/>
       <c r="T112" s="1"/>
     </row>
-    <row r="113">
+    <row r="113" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="1"/>
@@ -3104,7 +3224,7 @@
       <c r="S113" s="1"/>
       <c r="T113" s="1"/>
     </row>
-    <row r="114">
+    <row r="114" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="1"/>
@@ -3126,7 +3246,7 @@
       <c r="S114" s="1"/>
       <c r="T114" s="1"/>
     </row>
-    <row r="115">
+    <row r="115" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="1"/>
@@ -3148,7 +3268,7 @@
       <c r="S115" s="1"/>
       <c r="T115" s="1"/>
     </row>
-    <row r="116">
+    <row r="116" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="1"/>
@@ -3170,7 +3290,7 @@
       <c r="S116" s="1"/>
       <c r="T116" s="1"/>
     </row>
-    <row r="117">
+    <row r="117" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="1"/>
@@ -3192,7 +3312,7 @@
       <c r="S117" s="1"/>
       <c r="T117" s="1"/>
     </row>
-    <row r="118">
+    <row r="118" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="1"/>
@@ -3214,7 +3334,7 @@
       <c r="S118" s="1"/>
       <c r="T118" s="1"/>
     </row>
-    <row r="119">
+    <row r="119" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="1"/>
@@ -3236,7 +3356,7 @@
       <c r="S119" s="1"/>
       <c r="T119" s="1"/>
     </row>
-    <row r="120">
+    <row r="120" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="1"/>
@@ -3258,7 +3378,7 @@
       <c r="S120" s="1"/>
       <c r="T120" s="1"/>
     </row>
-    <row r="121">
+    <row r="121" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="1"/>
@@ -3280,7 +3400,7 @@
       <c r="S121" s="1"/>
       <c r="T121" s="1"/>
     </row>
-    <row r="122">
+    <row r="122" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="1"/>
@@ -3302,7 +3422,7 @@
       <c r="S122" s="1"/>
       <c r="T122" s="1"/>
     </row>
-    <row r="123">
+    <row r="123" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="1"/>
@@ -3324,7 +3444,7 @@
       <c r="S123" s="1"/>
       <c r="T123" s="1"/>
     </row>
-    <row r="124">
+    <row r="124" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="1"/>
@@ -3346,7 +3466,7 @@
       <c r="S124" s="1"/>
       <c r="T124" s="1"/>
     </row>
-    <row r="125">
+    <row r="125" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="1"/>
@@ -3368,7 +3488,7 @@
       <c r="S125" s="1"/>
       <c r="T125" s="1"/>
     </row>
-    <row r="126">
+    <row r="126" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="1"/>
@@ -3390,7 +3510,7 @@
       <c r="S126" s="1"/>
       <c r="T126" s="1"/>
     </row>
-    <row r="127">
+    <row r="127" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="1"/>
@@ -3412,7 +3532,7 @@
       <c r="S127" s="1"/>
       <c r="T127" s="1"/>
     </row>
-    <row r="128">
+    <row r="128" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="1"/>
@@ -3434,7 +3554,7 @@
       <c r="S128" s="1"/>
       <c r="T128" s="1"/>
     </row>
-    <row r="129">
+    <row r="129" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="1"/>
@@ -3456,7 +3576,7 @@
       <c r="S129" s="1"/>
       <c r="T129" s="1"/>
     </row>
-    <row r="130">
+    <row r="130" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="1"/>
@@ -3478,7 +3598,7 @@
       <c r="S130" s="1"/>
       <c r="T130" s="1"/>
     </row>
-    <row r="131">
+    <row r="131" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="1"/>
@@ -3500,7 +3620,7 @@
       <c r="S131" s="1"/>
       <c r="T131" s="1"/>
     </row>
-    <row r="132">
+    <row r="132" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="1"/>
@@ -3522,7 +3642,7 @@
       <c r="S132" s="1"/>
       <c r="T132" s="1"/>
     </row>
-    <row r="133">
+    <row r="133" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="1"/>
@@ -3544,7 +3664,7 @@
       <c r="S133" s="1"/>
       <c r="T133" s="1"/>
     </row>
-    <row r="134">
+    <row r="134" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="1"/>
@@ -3566,7 +3686,7 @@
       <c r="S134" s="1"/>
       <c r="T134" s="1"/>
     </row>
-    <row r="135">
+    <row r="135" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="1"/>
@@ -3588,7 +3708,7 @@
       <c r="S135" s="1"/>
       <c r="T135" s="1"/>
     </row>
-    <row r="136">
+    <row r="136" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="1"/>
@@ -3610,7 +3730,7 @@
       <c r="S136" s="1"/>
       <c r="T136" s="1"/>
     </row>
-    <row r="137">
+    <row r="137" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="1"/>
@@ -3632,7 +3752,7 @@
       <c r="S137" s="1"/>
       <c r="T137" s="1"/>
     </row>
-    <row r="138">
+    <row r="138" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="1"/>
@@ -3654,7 +3774,7 @@
       <c r="S138" s="1"/>
       <c r="T138" s="1"/>
     </row>
-    <row r="139">
+    <row r="139" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="1"/>
@@ -3676,7 +3796,7 @@
       <c r="S139" s="1"/>
       <c r="T139" s="1"/>
     </row>
-    <row r="140">
+    <row r="140" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="1"/>
@@ -3698,7 +3818,7 @@
       <c r="S140" s="1"/>
       <c r="T140" s="1"/>
     </row>
-    <row r="141">
+    <row r="141" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="1"/>
@@ -3720,7 +3840,7 @@
       <c r="S141" s="1"/>
       <c r="T141" s="1"/>
     </row>
-    <row r="142">
+    <row r="142" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="1"/>
@@ -3742,7 +3862,7 @@
       <c r="S142" s="1"/>
       <c r="T142" s="1"/>
     </row>
-    <row r="143">
+    <row r="143" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="1"/>
@@ -3764,7 +3884,7 @@
       <c r="S143" s="1"/>
       <c r="T143" s="1"/>
     </row>
-    <row r="144">
+    <row r="144" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="1"/>
@@ -3786,7 +3906,7 @@
       <c r="S144" s="1"/>
       <c r="T144" s="1"/>
     </row>
-    <row r="145">
+    <row r="145" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="1"/>
@@ -3808,7 +3928,7 @@
       <c r="S145" s="1"/>
       <c r="T145" s="1"/>
     </row>
-    <row r="146">
+    <row r="146" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="1"/>
@@ -3830,7 +3950,7 @@
       <c r="S146" s="1"/>
       <c r="T146" s="1"/>
     </row>
-    <row r="147">
+    <row r="147" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="1"/>
@@ -3852,7 +3972,7 @@
       <c r="S147" s="1"/>
       <c r="T147" s="1"/>
     </row>
-    <row r="148">
+    <row r="148" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="1"/>
@@ -3874,7 +3994,7 @@
       <c r="S148" s="1"/>
       <c r="T148" s="1"/>
     </row>
-    <row r="149">
+    <row r="149" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="1"/>
@@ -3896,7 +4016,7 @@
       <c r="S149" s="1"/>
       <c r="T149" s="1"/>
     </row>
-    <row r="150">
+    <row r="150" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="1"/>
@@ -3918,7 +4038,7 @@
       <c r="S150" s="1"/>
       <c r="T150" s="1"/>
     </row>
-    <row r="151">
+    <row r="151" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="1"/>
@@ -3940,7 +4060,7 @@
       <c r="S151" s="1"/>
       <c r="T151" s="1"/>
     </row>
-    <row r="152">
+    <row r="152" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="1"/>
@@ -3962,7 +4082,7 @@
       <c r="S152" s="1"/>
       <c r="T152" s="1"/>
     </row>
-    <row r="153">
+    <row r="153" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="1"/>
@@ -3984,7 +4104,7 @@
       <c r="S153" s="1"/>
       <c r="T153" s="1"/>
     </row>
-    <row r="154">
+    <row r="154" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="1"/>
@@ -4006,7 +4126,7 @@
       <c r="S154" s="1"/>
       <c r="T154" s="1"/>
     </row>
-    <row r="155">
+    <row r="155" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="1"/>
@@ -4028,7 +4148,7 @@
       <c r="S155" s="1"/>
       <c r="T155" s="1"/>
     </row>
-    <row r="156">
+    <row r="156" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="1"/>
@@ -4050,7 +4170,7 @@
       <c r="S156" s="1"/>
       <c r="T156" s="1"/>
     </row>
-    <row r="157">
+    <row r="157" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="1"/>
@@ -4072,7 +4192,7 @@
       <c r="S157" s="1"/>
       <c r="T157" s="1"/>
     </row>
-    <row r="158">
+    <row r="158" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="1"/>
@@ -4094,7 +4214,7 @@
       <c r="S158" s="1"/>
       <c r="T158" s="1"/>
     </row>
-    <row r="159">
+    <row r="159" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="1"/>
@@ -4116,7 +4236,7 @@
       <c r="S159" s="1"/>
       <c r="T159" s="1"/>
     </row>
-    <row r="160">
+    <row r="160" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="1"/>
@@ -4138,7 +4258,7 @@
       <c r="S160" s="1"/>
       <c r="T160" s="1"/>
     </row>
-    <row r="161">
+    <row r="161" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="1"/>
@@ -4160,7 +4280,7 @@
       <c r="S161" s="1"/>
       <c r="T161" s="1"/>
     </row>
-    <row r="162">
+    <row r="162" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="1"/>
@@ -4182,7 +4302,7 @@
       <c r="S162" s="1"/>
       <c r="T162" s="1"/>
     </row>
-    <row r="163">
+    <row r="163" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="1"/>
@@ -4204,7 +4324,7 @@
       <c r="S163" s="1"/>
       <c r="T163" s="1"/>
     </row>
-    <row r="164">
+    <row r="164" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="1"/>
@@ -4226,7 +4346,7 @@
       <c r="S164" s="1"/>
       <c r="T164" s="1"/>
     </row>
-    <row r="165">
+    <row r="165" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="1"/>
@@ -4248,7 +4368,7 @@
       <c r="S165" s="1"/>
       <c r="T165" s="1"/>
     </row>
-    <row r="166">
+    <row r="166" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="1"/>
@@ -4270,7 +4390,7 @@
       <c r="S166" s="1"/>
       <c r="T166" s="1"/>
     </row>
-    <row r="167">
+    <row r="167" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="1"/>
@@ -4292,7 +4412,7 @@
       <c r="S167" s="1"/>
       <c r="T167" s="1"/>
     </row>
-    <row r="168">
+    <row r="168" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="1"/>
@@ -4314,7 +4434,7 @@
       <c r="S168" s="1"/>
       <c r="T168" s="1"/>
     </row>
-    <row r="169">
+    <row r="169" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="1"/>
@@ -4336,7 +4456,7 @@
       <c r="S169" s="1"/>
       <c r="T169" s="1"/>
     </row>
-    <row r="170">
+    <row r="170" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="1"/>
@@ -4358,7 +4478,7 @@
       <c r="S170" s="1"/>
       <c r="T170" s="1"/>
     </row>
-    <row r="171">
+    <row r="171" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="1"/>
@@ -4380,7 +4500,7 @@
       <c r="S171" s="1"/>
       <c r="T171" s="1"/>
     </row>
-    <row r="172">
+    <row r="172" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="1"/>
@@ -4402,7 +4522,7 @@
       <c r="S172" s="1"/>
       <c r="T172" s="1"/>
     </row>
-    <row r="173">
+    <row r="173" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="1"/>
@@ -4424,7 +4544,7 @@
       <c r="S173" s="1"/>
       <c r="T173" s="1"/>
     </row>
-    <row r="174">
+    <row r="174" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="1"/>
@@ -4446,7 +4566,7 @@
       <c r="S174" s="1"/>
       <c r="T174" s="1"/>
     </row>
-    <row r="175">
+    <row r="175" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="1"/>
@@ -4468,7 +4588,7 @@
       <c r="S175" s="1"/>
       <c r="T175" s="1"/>
     </row>
-    <row r="176">
+    <row r="176" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="1"/>
@@ -4490,7 +4610,7 @@
       <c r="S176" s="1"/>
       <c r="T176" s="1"/>
     </row>
-    <row r="177">
+    <row r="177" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="1"/>
@@ -4512,7 +4632,7 @@
       <c r="S177" s="1"/>
       <c r="T177" s="1"/>
     </row>
-    <row r="178">
+    <row r="178" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="1"/>
@@ -4534,7 +4654,7 @@
       <c r="S178" s="1"/>
       <c r="T178" s="1"/>
     </row>
-    <row r="179">
+    <row r="179" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="1"/>
@@ -4556,7 +4676,7 @@
       <c r="S179" s="1"/>
       <c r="T179" s="1"/>
     </row>
-    <row r="180">
+    <row r="180" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="1"/>
@@ -4578,7 +4698,7 @@
       <c r="S180" s="1"/>
       <c r="T180" s="1"/>
     </row>
-    <row r="181">
+    <row r="181" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="1"/>
@@ -4600,7 +4720,7 @@
       <c r="S181" s="1"/>
       <c r="T181" s="1"/>
     </row>
-    <row r="182">
+    <row r="182" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="1"/>
@@ -4622,7 +4742,7 @@
       <c r="S182" s="1"/>
       <c r="T182" s="1"/>
     </row>
-    <row r="183">
+    <row r="183" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="1"/>
@@ -4644,7 +4764,7 @@
       <c r="S183" s="1"/>
       <c r="T183" s="1"/>
     </row>
-    <row r="184">
+    <row r="184" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="1"/>
@@ -4666,7 +4786,7 @@
       <c r="S184" s="1"/>
       <c r="T184" s="1"/>
     </row>
-    <row r="185">
+    <row r="185" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="1"/>
@@ -4688,7 +4808,7 @@
       <c r="S185" s="1"/>
       <c r="T185" s="1"/>
     </row>
-    <row r="186">
+    <row r="186" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="1"/>
@@ -4710,7 +4830,7 @@
       <c r="S186" s="1"/>
       <c r="T186" s="1"/>
     </row>
-    <row r="187">
+    <row r="187" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="1"/>
@@ -4732,7 +4852,7 @@
       <c r="S187" s="1"/>
       <c r="T187" s="1"/>
     </row>
-    <row r="188">
+    <row r="188" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="1"/>
@@ -4754,7 +4874,7 @@
       <c r="S188" s="1"/>
       <c r="T188" s="1"/>
     </row>
-    <row r="189">
+    <row r="189" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="1"/>
@@ -4776,7 +4896,7 @@
       <c r="S189" s="1"/>
       <c r="T189" s="1"/>
     </row>
-    <row r="190">
+    <row r="190" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="1"/>
@@ -4798,7 +4918,7 @@
       <c r="S190" s="1"/>
       <c r="T190" s="1"/>
     </row>
-    <row r="191">
+    <row r="191" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="1"/>
@@ -4820,7 +4940,7 @@
       <c r="S191" s="1"/>
       <c r="T191" s="1"/>
     </row>
-    <row r="192">
+    <row r="192" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="1"/>
@@ -4842,7 +4962,7 @@
       <c r="S192" s="1"/>
       <c r="T192" s="1"/>
     </row>
-    <row r="193">
+    <row r="193" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="1"/>
@@ -4864,7 +4984,7 @@
       <c r="S193" s="1"/>
       <c r="T193" s="1"/>
     </row>
-    <row r="194">
+    <row r="194" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="1"/>
@@ -4886,7 +5006,7 @@
       <c r="S194" s="1"/>
       <c r="T194" s="1"/>
     </row>
-    <row r="195">
+    <row r="195" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="1"/>
@@ -4908,7 +5028,7 @@
       <c r="S195" s="1"/>
       <c r="T195" s="1"/>
     </row>
-    <row r="196">
+    <row r="196" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="1"/>
@@ -4930,7 +5050,7 @@
       <c r="S196" s="1"/>
       <c r="T196" s="1"/>
     </row>
-    <row r="197">
+    <row r="197" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="1"/>
@@ -4952,7 +5072,7 @@
       <c r="S197" s="1"/>
       <c r="T197" s="1"/>
     </row>
-    <row r="198">
+    <row r="198" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="1"/>
@@ -4974,7 +5094,7 @@
       <c r="S198" s="1"/>
       <c r="T198" s="1"/>
     </row>
-    <row r="199">
+    <row r="199" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="1"/>
@@ -4996,7 +5116,7 @@
       <c r="S199" s="1"/>
       <c r="T199" s="1"/>
     </row>
-    <row r="200">
+    <row r="200" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="1"/>
@@ -5019,6 +5139,7 @@
       <c r="T200" s="1"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/许愿墙.xlsx
+++ b/许愿墙.xlsx
@@ -151,10 +151,10 @@
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -487,10 +487,10 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="str">
+      <c r="A1" s="4" t="str">
         <v>你想找什么样的工作？</v>
       </c>
-      <c r="B1" s="3" t="str">
+      <c r="B1" s="4" t="str">
         <v>现在的状态是怎样的？</v>
       </c>
       <c r="C1" s="1"/>
@@ -851,7 +851,7 @@
       <c r="T14" s="1"/>
     </row>
     <row r="15">
-      <c r="A15" s="4" t="str">
+      <c r="A15" s="3" t="str">
         <v>Java</v>
       </c>
       <c r="B15" s="2" t="str">
@@ -1345,8 +1345,12 @@
       <c r="T33" s="1"/>
     </row>
     <row r="34">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
+      <c r="A34" s="2" t="str">
+        <v>Java开发，有完善的晋升制度</v>
+      </c>
+      <c r="B34" s="2" t="str">
+        <v>准备跳槽</v>
+      </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -1367,8 +1371,12 @@
       <c r="T34" s="1"/>
     </row>
     <row r="35">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
+      <c r="A35" s="2" t="str">
+        <v>前端开发</v>
+      </c>
+      <c r="B35" s="2" t="str">
+        <v>在找</v>
+      </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -1389,8 +1397,12 @@
       <c r="T35" s="1"/>
     </row>
     <row r="36">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
+      <c r="A36" s="2" t="str">
+        <v>java开发</v>
+      </c>
+      <c r="B36" s="2" t="str">
+        <v>在找</v>
+      </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -1411,8 +1423,12 @@
       <c r="T36" s="1"/>
     </row>
     <row r="37">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
+      <c r="A37" s="2" t="str">
+        <v>Java开发</v>
+      </c>
+      <c r="B37" s="2" t="str">
+        <v>正在找</v>
+      </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>

--- a/许愿墙.xlsx
+++ b/许愿墙.xlsx
@@ -1,79 +1,195 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\86176\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B44164B5-00EA-4CA6-8540-C1ED50007690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="15800" windowWidth="28040" xWindow="4240" yWindow="640"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcMode="auto"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="39">
   <si>
-    <t xml:space="preserve">  </t>
+    <t>你想找什么样的工作？</t>
+  </si>
+  <si>
+    <t>现在的状态是怎样的？</t>
+  </si>
+  <si>
+    <t>AI攻城狮</t>
+  </si>
+  <si>
+    <t>已找到！</t>
+  </si>
+  <si>
+    <t>Java+AI</t>
+  </si>
+  <si>
+    <t>在找</t>
+  </si>
+  <si>
+    <t>AI agent开发</t>
+  </si>
+  <si>
+    <t>Java实习</t>
+  </si>
+  <si>
+    <t>还没开始找</t>
+  </si>
+  <si>
+    <t>系统架构师</t>
+  </si>
+  <si>
+    <t>Go</t>
+  </si>
+  <si>
+    <t>前端攻城狮</t>
+  </si>
+  <si>
+    <t>AI+游戏开发</t>
+  </si>
+  <si>
+    <t>C++实习</t>
+  </si>
+  <si>
+    <t>后端开发</t>
+  </si>
+  <si>
+    <t>正确的路上</t>
+  </si>
+  <si>
+    <t>Java后端开发</t>
+  </si>
+  <si>
+    <t>在找实习的路上</t>
+  </si>
+  <si>
+    <t>Java</t>
+  </si>
+  <si>
+    <t>找到了，但是通勤太远想跳槽</t>
+  </si>
+  <si>
+    <t>Frontend leader</t>
+  </si>
+  <si>
+    <t>找到了，但是没有work life balance</t>
+  </si>
+  <si>
+    <t>找到了，不满意</t>
+  </si>
+  <si>
+    <t>Java开发</t>
+  </si>
+  <si>
+    <t>再找</t>
+  </si>
+  <si>
+    <t>前端工程师</t>
+  </si>
+  <si>
+    <t>java开发</t>
+  </si>
+  <si>
+    <t>AI+前端工程师</t>
+  </si>
+  <si>
+    <t>C++开发</t>
+  </si>
+  <si>
+    <t>Go后端开发</t>
+  </si>
+  <si>
+    <t>AI+后端工程师</t>
+  </si>
+  <si>
+    <t>linux运维</t>
+  </si>
+  <si>
+    <t>AI+嵌入式</t>
+  </si>
+  <si>
+    <t>财务主管</t>
+  </si>
+  <si>
+    <t>在学习的路上</t>
+  </si>
+  <si>
+    <t>去年7月用这个项目找到了第一份工作，现在再次回来，希望跳槽找一份AI售前的工作</t>
+  </si>
+  <si>
+    <t>准备跳槽</t>
+  </si>
+  <si>
+    <t>java开发</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在找</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9.75"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9.75"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none">
-        <fgColor/>
-        <bgColor/>
-      </patternFill>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor/>
-        <bgColor/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF34C724"/>
-        <bgColor/>
       </patternFill>
     </fill>
   </fills>
@@ -139,30 +255,30 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -175,7 +291,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -470,28 +586,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
-    <outlinePr summaryBelow="false" summaryRight="false"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:T200"/>
   <sheetViews>
-    <sheetView showGridLines="true" tabSelected="true" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="74"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="32"/>
+    <col min="1" max="1" width="74" customWidth="1"/>
+    <col min="2" max="2" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="str">
-        <v>你想找什么样的工作？</v>
-      </c>
-      <c r="B1" s="3" t="str">
-        <v>现在的状态是怎样的？</v>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -512,12 +628,12 @@
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
     </row>
-    <row r="2">
-      <c r="A2" s="2" t="str">
-        <v>AI攻城狮</v>
-      </c>
-      <c r="B2" s="2" t="str">
-        <v>已找到！</v>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -538,12 +654,12 @@
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
     </row>
-    <row r="3">
-      <c r="A3" s="2" t="str">
-        <v>Java+AI</v>
-      </c>
-      <c r="B3" s="2" t="str">
-        <v>在找</v>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -564,12 +680,12 @@
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
     </row>
-    <row r="4">
-      <c r="A4" s="2" t="str">
-        <v>AI agent开发</v>
-      </c>
-      <c r="B4" s="2" t="str">
-        <v>在找</v>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -590,12 +706,12 @@
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
     </row>
-    <row r="5">
-      <c r="A5" s="2" t="str">
-        <v>Java实习</v>
-      </c>
-      <c r="B5" s="2" t="str">
-        <v>还没开始找</v>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -616,12 +732,12 @@
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
     </row>
-    <row r="6">
-      <c r="A6" s="2" t="str">
-        <v>系统架构师</v>
-      </c>
-      <c r="B6" s="2" t="str">
-        <v>在找</v>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -642,12 +758,12 @@
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
     </row>
-    <row r="7">
-      <c r="A7" s="2" t="str">
-        <v>Go</v>
-      </c>
-      <c r="B7" s="2" t="str">
-        <v>在找</v>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -668,12 +784,12 @@
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
     </row>
-    <row r="8">
-      <c r="A8" s="2" t="str">
-        <v>前端攻城狮</v>
-      </c>
-      <c r="B8" s="2" t="str">
-        <v>在找</v>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -694,12 +810,12 @@
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
     </row>
-    <row r="9">
-      <c r="A9" s="2" t="str">
-        <v>AI+游戏开发</v>
-      </c>
-      <c r="B9" s="2" t="str">
-        <v>在找</v>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -720,12 +836,12 @@
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
     </row>
-    <row r="10">
-      <c r="A10" s="2" t="str">
-        <v>C++实习</v>
-      </c>
-      <c r="B10" s="2" t="str">
-        <v>在找</v>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -746,12 +862,12 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
     </row>
-    <row r="11">
-      <c r="A11" s="2" t="str">
-        <v>后端开发</v>
-      </c>
-      <c r="B11" s="2" t="str">
-        <v>正确的路上</v>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -772,12 +888,12 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row r="12">
-      <c r="A12" s="2" t="str">
-        <v>Java后端开发</v>
-      </c>
-      <c r="B12" s="2" t="str">
-        <v>在找实习的路上</v>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -798,12 +914,12 @@
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
     </row>
-    <row r="13">
-      <c r="A13" s="2" t="str">
-        <v>Java</v>
-      </c>
-      <c r="B13" s="2" t="str">
-        <v>找到了，但是通勤太远想跳槽</v>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -824,12 +940,12 @@
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
     </row>
-    <row r="14">
-      <c r="A14" s="2" t="str">
-        <v>Frontend leader</v>
-      </c>
-      <c r="B14" s="2" t="str">
-        <v>找到了，但是没有work life balance</v>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -850,12 +966,12 @@
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
     </row>
-    <row r="15">
-      <c r="A15" s="4" t="str">
-        <v>Java</v>
-      </c>
-      <c r="B15" s="2" t="str">
-        <v>找到了，不满意</v>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -876,12 +992,12 @@
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
     </row>
-    <row r="16">
-      <c r="A16" s="2" t="str">
-        <v>Java开发</v>
-      </c>
-      <c r="B16" s="2" t="str">
-        <v>再找</v>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -902,12 +1018,12 @@
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
     </row>
-    <row r="17">
-      <c r="A17" s="2" t="str">
-        <v>前端工程师</v>
-      </c>
-      <c r="B17" s="2" t="str">
-        <v>在找</v>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -928,12 +1044,12 @@
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
     </row>
-    <row r="18">
-      <c r="A18" s="2" t="str">
-        <v>java开发</v>
-      </c>
-      <c r="B18" s="2" t="str">
-        <v>在找</v>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -954,12 +1070,12 @@
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
     </row>
-    <row r="19">
-      <c r="A19" s="2" t="str">
-        <v>AI+前端工程师</v>
-      </c>
-      <c r="B19" s="2" t="str">
-        <v>还没开始找</v>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -980,12 +1096,12 @@
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
     </row>
-    <row r="20">
-      <c r="A20" s="2" t="str">
-        <v>C++开发</v>
-      </c>
-      <c r="B20" s="2" t="str">
-        <v>在找</v>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -1006,12 +1122,12 @@
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
     </row>
-    <row r="21">
-      <c r="A21" s="2" t="str">
-        <v>Go</v>
-      </c>
-      <c r="B21" s="2" t="str">
-        <v>在找</v>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -1032,12 +1148,12 @@
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
     </row>
-    <row r="22">
-      <c r="A22" s="2" t="str">
-        <v>Go后端开发</v>
-      </c>
-      <c r="B22" s="2" t="str">
-        <v>在找</v>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1058,12 +1174,12 @@
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
     </row>
-    <row r="23">
-      <c r="A23" s="2" t="str">
-        <v>AI+后端工程师</v>
-      </c>
-      <c r="B23" s="2" t="str">
-        <v>还没开始找</v>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1084,12 +1200,12 @@
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
     </row>
-    <row r="24">
-      <c r="A24" s="2" t="str">
-        <v>linux运维</v>
-      </c>
-      <c r="B24" s="2" t="str">
-        <v>在找</v>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1110,12 +1226,12 @@
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
     </row>
-    <row r="25">
-      <c r="A25" s="2" t="str">
-        <v>前端工程师</v>
-      </c>
-      <c r="B25" s="2" t="str">
-        <v>在找</v>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1136,12 +1252,12 @@
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
     </row>
-    <row r="26">
-      <c r="A26" s="2" t="str">
-        <v>前端工程师</v>
-      </c>
-      <c r="B26" s="2" t="str">
-        <v>还没开始找</v>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1162,12 +1278,12 @@
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
     </row>
-    <row r="27">
-      <c r="A27" s="2" t="str">
-        <v>java开发</v>
-      </c>
-      <c r="B27" s="2" t="str">
-        <v>在找</v>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1188,12 +1304,12 @@
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
     </row>
-    <row r="28">
-      <c r="A28" s="2" t="str">
-        <v>AI+嵌入式</v>
-      </c>
-      <c r="B28" s="2" t="str">
-        <v>再找</v>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1214,12 +1330,12 @@
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
     </row>
-    <row r="29">
-      <c r="A29" s="2" t="str">
-        <v>财务主管</v>
-      </c>
-      <c r="B29" s="2" t="str">
-        <v>在找</v>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1240,12 +1356,12 @@
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
     </row>
-    <row r="30">
-      <c r="A30" s="2" t="str">
-        <v>后端开发</v>
-      </c>
-      <c r="B30" s="2" t="str">
-        <v>在学习的路上</v>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1266,12 +1382,12 @@
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
     </row>
-    <row r="31">
-      <c r="A31" s="2" t="str">
-        <v>去年7月用这个项目找到了第一份工作，现在再次回来，希望跳槽找一份AI售前的工作</v>
-      </c>
-      <c r="B31" s="2" t="str">
-        <v>在找</v>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1292,12 +1408,12 @@
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
     </row>
-    <row r="32">
-      <c r="A32" s="2" t="str">
-        <v>前端工程师</v>
-      </c>
-      <c r="B32" s="2" t="str">
-        <v>在找</v>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1318,12 +1434,12 @@
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
     </row>
-    <row r="33">
-      <c r="A33" s="2" t="str">
-        <v>Java开发</v>
-      </c>
-      <c r="B33" s="2" t="str">
-        <v>准备跳槽</v>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1344,9 +1460,13 @@
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
     </row>
-    <row r="34">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -1366,7 +1486,7 @@
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="1"/>
@@ -1388,7 +1508,7 @@
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="1"/>
@@ -1410,7 +1530,7 @@
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="1"/>
@@ -1432,7 +1552,7 @@
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="1"/>
@@ -1454,7 +1574,7 @@
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="1"/>
@@ -1476,7 +1596,7 @@
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="1"/>
@@ -1498,7 +1618,7 @@
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="1"/>
@@ -1520,7 +1640,7 @@
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="1"/>
@@ -1542,7 +1662,7 @@
       <c r="S42" s="1"/>
       <c r="T42" s="1"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="1"/>
@@ -1564,7 +1684,7 @@
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="1"/>
@@ -1586,7 +1706,7 @@
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="1"/>
@@ -1608,7 +1728,7 @@
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
     </row>
-    <row r="46">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="1"/>
@@ -1630,7 +1750,7 @@
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="1"/>
@@ -1652,7 +1772,7 @@
       <c r="S47" s="1"/>
       <c r="T47" s="1"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="1"/>
@@ -1674,7 +1794,7 @@
       <c r="S48" s="1"/>
       <c r="T48" s="1"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="1"/>
@@ -1696,7 +1816,7 @@
       <c r="S49" s="1"/>
       <c r="T49" s="1"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="1"/>
@@ -1718,7 +1838,7 @@
       <c r="S50" s="1"/>
       <c r="T50" s="1"/>
     </row>
-    <row r="51">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="1"/>
@@ -1740,7 +1860,7 @@
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
     </row>
-    <row r="52">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="1"/>
@@ -1762,7 +1882,7 @@
       <c r="S52" s="1"/>
       <c r="T52" s="1"/>
     </row>
-    <row r="53">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="1"/>
@@ -1784,7 +1904,7 @@
       <c r="S53" s="1"/>
       <c r="T53" s="1"/>
     </row>
-    <row r="54">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="1"/>
@@ -1806,7 +1926,7 @@
       <c r="S54" s="1"/>
       <c r="T54" s="1"/>
     </row>
-    <row r="55">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="1"/>
@@ -1828,7 +1948,7 @@
       <c r="S55" s="1"/>
       <c r="T55" s="1"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="1"/>
@@ -1850,7 +1970,7 @@
       <c r="S56" s="1"/>
       <c r="T56" s="1"/>
     </row>
-    <row r="57">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="1"/>
@@ -1872,7 +1992,7 @@
       <c r="S57" s="1"/>
       <c r="T57" s="1"/>
     </row>
-    <row r="58">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="1"/>
@@ -1894,7 +2014,7 @@
       <c r="S58" s="1"/>
       <c r="T58" s="1"/>
     </row>
-    <row r="59">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="1"/>
@@ -1916,7 +2036,7 @@
       <c r="S59" s="1"/>
       <c r="T59" s="1"/>
     </row>
-    <row r="60">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="1"/>
@@ -1938,7 +2058,7 @@
       <c r="S60" s="1"/>
       <c r="T60" s="1"/>
     </row>
-    <row r="61">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="1"/>
@@ -1960,7 +2080,7 @@
       <c r="S61" s="1"/>
       <c r="T61" s="1"/>
     </row>
-    <row r="62">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="1"/>
@@ -1982,7 +2102,7 @@
       <c r="S62" s="1"/>
       <c r="T62" s="1"/>
     </row>
-    <row r="63">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="1"/>
@@ -2004,7 +2124,7 @@
       <c r="S63" s="1"/>
       <c r="T63" s="1"/>
     </row>
-    <row r="64">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="1"/>
@@ -2026,7 +2146,7 @@
       <c r="S64" s="1"/>
       <c r="T64" s="1"/>
     </row>
-    <row r="65">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="1"/>
@@ -2048,7 +2168,7 @@
       <c r="S65" s="1"/>
       <c r="T65" s="1"/>
     </row>
-    <row r="66">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="1"/>
@@ -2070,7 +2190,7 @@
       <c r="S66" s="1"/>
       <c r="T66" s="1"/>
     </row>
-    <row r="67">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="1"/>
@@ -2092,7 +2212,7 @@
       <c r="S67" s="1"/>
       <c r="T67" s="1"/>
     </row>
-    <row r="68">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="1"/>
@@ -2114,7 +2234,7 @@
       <c r="S68" s="1"/>
       <c r="T68" s="1"/>
     </row>
-    <row r="69">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="1"/>
@@ -2136,7 +2256,7 @@
       <c r="S69" s="1"/>
       <c r="T69" s="1"/>
     </row>
-    <row r="70">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="1"/>
@@ -2158,7 +2278,7 @@
       <c r="S70" s="1"/>
       <c r="T70" s="1"/>
     </row>
-    <row r="71">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="1"/>
@@ -2180,7 +2300,7 @@
       <c r="S71" s="1"/>
       <c r="T71" s="1"/>
     </row>
-    <row r="72">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="1"/>
@@ -2202,7 +2322,7 @@
       <c r="S72" s="1"/>
       <c r="T72" s="1"/>
     </row>
-    <row r="73">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="1"/>
@@ -2224,7 +2344,7 @@
       <c r="S73" s="1"/>
       <c r="T73" s="1"/>
     </row>
-    <row r="74">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="1"/>
@@ -2246,7 +2366,7 @@
       <c r="S74" s="1"/>
       <c r="T74" s="1"/>
     </row>
-    <row r="75">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="1"/>
@@ -2268,7 +2388,7 @@
       <c r="S75" s="1"/>
       <c r="T75" s="1"/>
     </row>
-    <row r="76">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="1"/>
@@ -2290,7 +2410,7 @@
       <c r="S76" s="1"/>
       <c r="T76" s="1"/>
     </row>
-    <row r="77">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="1"/>
@@ -2312,7 +2432,7 @@
       <c r="S77" s="1"/>
       <c r="T77" s="1"/>
     </row>
-    <row r="78">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="1"/>
@@ -2334,7 +2454,7 @@
       <c r="S78" s="1"/>
       <c r="T78" s="1"/>
     </row>
-    <row r="79">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="1"/>
@@ -2356,7 +2476,7 @@
       <c r="S79" s="1"/>
       <c r="T79" s="1"/>
     </row>
-    <row r="80">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="1"/>
@@ -2378,7 +2498,7 @@
       <c r="S80" s="1"/>
       <c r="T80" s="1"/>
     </row>
-    <row r="81">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="1"/>
@@ -2400,7 +2520,7 @@
       <c r="S81" s="1"/>
       <c r="T81" s="1"/>
     </row>
-    <row r="82">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="1"/>
@@ -2422,7 +2542,7 @@
       <c r="S82" s="1"/>
       <c r="T82" s="1"/>
     </row>
-    <row r="83">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="1"/>
@@ -2444,7 +2564,7 @@
       <c r="S83" s="1"/>
       <c r="T83" s="1"/>
     </row>
-    <row r="84">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="1"/>
@@ -2466,7 +2586,7 @@
       <c r="S84" s="1"/>
       <c r="T84" s="1"/>
     </row>
-    <row r="85">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="1"/>
@@ -2488,7 +2608,7 @@
       <c r="S85" s="1"/>
       <c r="T85" s="1"/>
     </row>
-    <row r="86">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="1"/>
@@ -2510,7 +2630,7 @@
       <c r="S86" s="1"/>
       <c r="T86" s="1"/>
     </row>
-    <row r="87">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="1"/>
@@ -2532,7 +2652,7 @@
       <c r="S87" s="1"/>
       <c r="T87" s="1"/>
     </row>
-    <row r="88">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="1"/>
@@ -2554,7 +2674,7 @@
       <c r="S88" s="1"/>
       <c r="T88" s="1"/>
     </row>
-    <row r="89">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="1"/>
@@ -2576,7 +2696,7 @@
       <c r="S89" s="1"/>
       <c r="T89" s="1"/>
     </row>
-    <row r="90">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="1"/>
@@ -2598,7 +2718,7 @@
       <c r="S90" s="1"/>
       <c r="T90" s="1"/>
     </row>
-    <row r="91">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="1"/>
@@ -2620,7 +2740,7 @@
       <c r="S91" s="1"/>
       <c r="T91" s="1"/>
     </row>
-    <row r="92">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="1"/>
@@ -2642,7 +2762,7 @@
       <c r="S92" s="1"/>
       <c r="T92" s="1"/>
     </row>
-    <row r="93">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="1"/>
@@ -2664,7 +2784,7 @@
       <c r="S93" s="1"/>
       <c r="T93" s="1"/>
     </row>
-    <row r="94">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="1"/>
@@ -2686,7 +2806,7 @@
       <c r="S94" s="1"/>
       <c r="T94" s="1"/>
     </row>
-    <row r="95">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="1"/>
@@ -2708,7 +2828,7 @@
       <c r="S95" s="1"/>
       <c r="T95" s="1"/>
     </row>
-    <row r="96">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="1"/>
@@ -2730,7 +2850,7 @@
       <c r="S96" s="1"/>
       <c r="T96" s="1"/>
     </row>
-    <row r="97">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="1"/>
@@ -2752,7 +2872,7 @@
       <c r="S97" s="1"/>
       <c r="T97" s="1"/>
     </row>
-    <row r="98">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="1"/>
@@ -2774,7 +2894,7 @@
       <c r="S98" s="1"/>
       <c r="T98" s="1"/>
     </row>
-    <row r="99">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="1"/>
@@ -2796,7 +2916,7 @@
       <c r="S99" s="1"/>
       <c r="T99" s="1"/>
     </row>
-    <row r="100">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="1"/>
@@ -2818,7 +2938,7 @@
       <c r="S100" s="1"/>
       <c r="T100" s="1"/>
     </row>
-    <row r="101">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="1"/>
@@ -2840,7 +2960,7 @@
       <c r="S101" s="1"/>
       <c r="T101" s="1"/>
     </row>
-    <row r="102">
+    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="1"/>
@@ -2862,7 +2982,7 @@
       <c r="S102" s="1"/>
       <c r="T102" s="1"/>
     </row>
-    <row r="103">
+    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="1"/>
@@ -2884,7 +3004,7 @@
       <c r="S103" s="1"/>
       <c r="T103" s="1"/>
     </row>
-    <row r="104">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="1"/>
@@ -2906,7 +3026,7 @@
       <c r="S104" s="1"/>
       <c r="T104" s="1"/>
     </row>
-    <row r="105">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="1"/>
@@ -2928,7 +3048,7 @@
       <c r="S105" s="1"/>
       <c r="T105" s="1"/>
     </row>
-    <row r="106">
+    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="1"/>
@@ -2950,7 +3070,7 @@
       <c r="S106" s="1"/>
       <c r="T106" s="1"/>
     </row>
-    <row r="107">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="1"/>
@@ -2972,7 +3092,7 @@
       <c r="S107" s="1"/>
       <c r="T107" s="1"/>
     </row>
-    <row r="108">
+    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="1"/>
@@ -2994,7 +3114,7 @@
       <c r="S108" s="1"/>
       <c r="T108" s="1"/>
     </row>
-    <row r="109">
+    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="1"/>
@@ -3016,7 +3136,7 @@
       <c r="S109" s="1"/>
       <c r="T109" s="1"/>
     </row>
-    <row r="110">
+    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="1"/>
@@ -3038,7 +3158,7 @@
       <c r="S110" s="1"/>
       <c r="T110" s="1"/>
     </row>
-    <row r="111">
+    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="1"/>
@@ -3060,7 +3180,7 @@
       <c r="S111" s="1"/>
       <c r="T111" s="1"/>
     </row>
-    <row r="112">
+    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="1"/>
@@ -3082,7 +3202,7 @@
       <c r="S112" s="1"/>
       <c r="T112" s="1"/>
     </row>
-    <row r="113">
+    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="1"/>
@@ -3104,7 +3224,7 @@
       <c r="S113" s="1"/>
       <c r="T113" s="1"/>
     </row>
-    <row r="114">
+    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="1"/>
@@ -3126,7 +3246,7 @@
       <c r="S114" s="1"/>
       <c r="T114" s="1"/>
     </row>
-    <row r="115">
+    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="1"/>
@@ -3148,7 +3268,7 @@
       <c r="S115" s="1"/>
       <c r="T115" s="1"/>
     </row>
-    <row r="116">
+    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="1"/>
@@ -3170,7 +3290,7 @@
       <c r="S116" s="1"/>
       <c r="T116" s="1"/>
     </row>
-    <row r="117">
+    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="1"/>
@@ -3192,7 +3312,7 @@
       <c r="S117" s="1"/>
       <c r="T117" s="1"/>
     </row>
-    <row r="118">
+    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="1"/>
@@ -3214,7 +3334,7 @@
       <c r="S118" s="1"/>
       <c r="T118" s="1"/>
     </row>
-    <row r="119">
+    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="1"/>
@@ -3236,7 +3356,7 @@
       <c r="S119" s="1"/>
       <c r="T119" s="1"/>
     </row>
-    <row r="120">
+    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="1"/>
@@ -3258,7 +3378,7 @@
       <c r="S120" s="1"/>
       <c r="T120" s="1"/>
     </row>
-    <row r="121">
+    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="1"/>
@@ -3280,7 +3400,7 @@
       <c r="S121" s="1"/>
       <c r="T121" s="1"/>
     </row>
-    <row r="122">
+    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="1"/>
@@ -3302,7 +3422,7 @@
       <c r="S122" s="1"/>
       <c r="T122" s="1"/>
     </row>
-    <row r="123">
+    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="1"/>
@@ -3324,7 +3444,7 @@
       <c r="S123" s="1"/>
       <c r="T123" s="1"/>
     </row>
-    <row r="124">
+    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="1"/>
@@ -3346,7 +3466,7 @@
       <c r="S124" s="1"/>
       <c r="T124" s="1"/>
     </row>
-    <row r="125">
+    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="1"/>
@@ -3368,7 +3488,7 @@
       <c r="S125" s="1"/>
       <c r="T125" s="1"/>
     </row>
-    <row r="126">
+    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="1"/>
@@ -3390,7 +3510,7 @@
       <c r="S126" s="1"/>
       <c r="T126" s="1"/>
     </row>
-    <row r="127">
+    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="1"/>
@@ -3412,7 +3532,7 @@
       <c r="S127" s="1"/>
       <c r="T127" s="1"/>
     </row>
-    <row r="128">
+    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="1"/>
@@ -3434,7 +3554,7 @@
       <c r="S128" s="1"/>
       <c r="T128" s="1"/>
     </row>
-    <row r="129">
+    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="1"/>
@@ -3456,7 +3576,7 @@
       <c r="S129" s="1"/>
       <c r="T129" s="1"/>
     </row>
-    <row r="130">
+    <row r="130" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="1"/>
@@ -3478,7 +3598,7 @@
       <c r="S130" s="1"/>
       <c r="T130" s="1"/>
     </row>
-    <row r="131">
+    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="1"/>
@@ -3500,7 +3620,7 @@
       <c r="S131" s="1"/>
       <c r="T131" s="1"/>
     </row>
-    <row r="132">
+    <row r="132" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="1"/>
@@ -3522,7 +3642,7 @@
       <c r="S132" s="1"/>
       <c r="T132" s="1"/>
     </row>
-    <row r="133">
+    <row r="133" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="1"/>
@@ -3544,7 +3664,7 @@
       <c r="S133" s="1"/>
       <c r="T133" s="1"/>
     </row>
-    <row r="134">
+    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="1"/>
@@ -3566,7 +3686,7 @@
       <c r="S134" s="1"/>
       <c r="T134" s="1"/>
     </row>
-    <row r="135">
+    <row r="135" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="1"/>
@@ -3588,7 +3708,7 @@
       <c r="S135" s="1"/>
       <c r="T135" s="1"/>
     </row>
-    <row r="136">
+    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="1"/>
@@ -3610,7 +3730,7 @@
       <c r="S136" s="1"/>
       <c r="T136" s="1"/>
     </row>
-    <row r="137">
+    <row r="137" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="1"/>
@@ -3632,7 +3752,7 @@
       <c r="S137" s="1"/>
       <c r="T137" s="1"/>
     </row>
-    <row r="138">
+    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="1"/>
@@ -3654,7 +3774,7 @@
       <c r="S138" s="1"/>
       <c r="T138" s="1"/>
     </row>
-    <row r="139">
+    <row r="139" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="1"/>
@@ -3676,7 +3796,7 @@
       <c r="S139" s="1"/>
       <c r="T139" s="1"/>
     </row>
-    <row r="140">
+    <row r="140" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="1"/>
@@ -3698,7 +3818,7 @@
       <c r="S140" s="1"/>
       <c r="T140" s="1"/>
     </row>
-    <row r="141">
+    <row r="141" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="1"/>
@@ -3720,7 +3840,7 @@
       <c r="S141" s="1"/>
       <c r="T141" s="1"/>
     </row>
-    <row r="142">
+    <row r="142" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="1"/>
@@ -3742,7 +3862,7 @@
       <c r="S142" s="1"/>
       <c r="T142" s="1"/>
     </row>
-    <row r="143">
+    <row r="143" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="1"/>
@@ -3764,7 +3884,7 @@
       <c r="S143" s="1"/>
       <c r="T143" s="1"/>
     </row>
-    <row r="144">
+    <row r="144" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="1"/>
@@ -3786,7 +3906,7 @@
       <c r="S144" s="1"/>
       <c r="T144" s="1"/>
     </row>
-    <row r="145">
+    <row r="145" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="1"/>
@@ -3808,7 +3928,7 @@
       <c r="S145" s="1"/>
       <c r="T145" s="1"/>
     </row>
-    <row r="146">
+    <row r="146" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="1"/>
@@ -3830,7 +3950,7 @@
       <c r="S146" s="1"/>
       <c r="T146" s="1"/>
     </row>
-    <row r="147">
+    <row r="147" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="1"/>
@@ -3852,7 +3972,7 @@
       <c r="S147" s="1"/>
       <c r="T147" s="1"/>
     </row>
-    <row r="148">
+    <row r="148" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="1"/>
@@ -3874,7 +3994,7 @@
       <c r="S148" s="1"/>
       <c r="T148" s="1"/>
     </row>
-    <row r="149">
+    <row r="149" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="1"/>
@@ -3896,7 +4016,7 @@
       <c r="S149" s="1"/>
       <c r="T149" s="1"/>
     </row>
-    <row r="150">
+    <row r="150" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="1"/>
@@ -3918,7 +4038,7 @@
       <c r="S150" s="1"/>
       <c r="T150" s="1"/>
     </row>
-    <row r="151">
+    <row r="151" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="1"/>
@@ -3940,7 +4060,7 @@
       <c r="S151" s="1"/>
       <c r="T151" s="1"/>
     </row>
-    <row r="152">
+    <row r="152" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="1"/>
@@ -3962,7 +4082,7 @@
       <c r="S152" s="1"/>
       <c r="T152" s="1"/>
     </row>
-    <row r="153">
+    <row r="153" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="1"/>
@@ -3984,7 +4104,7 @@
       <c r="S153" s="1"/>
       <c r="T153" s="1"/>
     </row>
-    <row r="154">
+    <row r="154" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="1"/>
@@ -4006,7 +4126,7 @@
       <c r="S154" s="1"/>
       <c r="T154" s="1"/>
     </row>
-    <row r="155">
+    <row r="155" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="1"/>
@@ -4028,7 +4148,7 @@
       <c r="S155" s="1"/>
       <c r="T155" s="1"/>
     </row>
-    <row r="156">
+    <row r="156" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="1"/>
@@ -4050,7 +4170,7 @@
       <c r="S156" s="1"/>
       <c r="T156" s="1"/>
     </row>
-    <row r="157">
+    <row r="157" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="1"/>
@@ -4072,7 +4192,7 @@
       <c r="S157" s="1"/>
       <c r="T157" s="1"/>
     </row>
-    <row r="158">
+    <row r="158" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="1"/>
@@ -4094,7 +4214,7 @@
       <c r="S158" s="1"/>
       <c r="T158" s="1"/>
     </row>
-    <row r="159">
+    <row r="159" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="1"/>
@@ -4116,7 +4236,7 @@
       <c r="S159" s="1"/>
       <c r="T159" s="1"/>
     </row>
-    <row r="160">
+    <row r="160" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="1"/>
@@ -4138,7 +4258,7 @@
       <c r="S160" s="1"/>
       <c r="T160" s="1"/>
     </row>
-    <row r="161">
+    <row r="161" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="1"/>
@@ -4160,7 +4280,7 @@
       <c r="S161" s="1"/>
       <c r="T161" s="1"/>
     </row>
-    <row r="162">
+    <row r="162" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="1"/>
@@ -4182,7 +4302,7 @@
       <c r="S162" s="1"/>
       <c r="T162" s="1"/>
     </row>
-    <row r="163">
+    <row r="163" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="1"/>
@@ -4204,7 +4324,7 @@
       <c r="S163" s="1"/>
       <c r="T163" s="1"/>
     </row>
-    <row r="164">
+    <row r="164" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="1"/>
@@ -4226,7 +4346,7 @@
       <c r="S164" s="1"/>
       <c r="T164" s="1"/>
     </row>
-    <row r="165">
+    <row r="165" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="1"/>
@@ -4248,7 +4368,7 @@
       <c r="S165" s="1"/>
       <c r="T165" s="1"/>
     </row>
-    <row r="166">
+    <row r="166" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="1"/>
@@ -4270,7 +4390,7 @@
       <c r="S166" s="1"/>
       <c r="T166" s="1"/>
     </row>
-    <row r="167">
+    <row r="167" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="1"/>
@@ -4292,7 +4412,7 @@
       <c r="S167" s="1"/>
       <c r="T167" s="1"/>
     </row>
-    <row r="168">
+    <row r="168" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="1"/>
@@ -4314,7 +4434,7 @@
       <c r="S168" s="1"/>
       <c r="T168" s="1"/>
     </row>
-    <row r="169">
+    <row r="169" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="1"/>
@@ -4336,7 +4456,7 @@
       <c r="S169" s="1"/>
       <c r="T169" s="1"/>
     </row>
-    <row r="170">
+    <row r="170" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="1"/>
@@ -4358,7 +4478,7 @@
       <c r="S170" s="1"/>
       <c r="T170" s="1"/>
     </row>
-    <row r="171">
+    <row r="171" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="1"/>
@@ -4380,7 +4500,7 @@
       <c r="S171" s="1"/>
       <c r="T171" s="1"/>
     </row>
-    <row r="172">
+    <row r="172" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="1"/>
@@ -4402,7 +4522,7 @@
       <c r="S172" s="1"/>
       <c r="T172" s="1"/>
     </row>
-    <row r="173">
+    <row r="173" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="1"/>
@@ -4424,7 +4544,7 @@
       <c r="S173" s="1"/>
       <c r="T173" s="1"/>
     </row>
-    <row r="174">
+    <row r="174" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="1"/>
@@ -4446,7 +4566,7 @@
       <c r="S174" s="1"/>
       <c r="T174" s="1"/>
     </row>
-    <row r="175">
+    <row r="175" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="1"/>
@@ -4468,7 +4588,7 @@
       <c r="S175" s="1"/>
       <c r="T175" s="1"/>
     </row>
-    <row r="176">
+    <row r="176" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="1"/>
@@ -4490,7 +4610,7 @@
       <c r="S176" s="1"/>
       <c r="T176" s="1"/>
     </row>
-    <row r="177">
+    <row r="177" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="1"/>
@@ -4512,7 +4632,7 @@
       <c r="S177" s="1"/>
       <c r="T177" s="1"/>
     </row>
-    <row r="178">
+    <row r="178" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="1"/>
@@ -4534,7 +4654,7 @@
       <c r="S178" s="1"/>
       <c r="T178" s="1"/>
     </row>
-    <row r="179">
+    <row r="179" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="1"/>
@@ -4556,7 +4676,7 @@
       <c r="S179" s="1"/>
       <c r="T179" s="1"/>
     </row>
-    <row r="180">
+    <row r="180" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="1"/>
@@ -4578,7 +4698,7 @@
       <c r="S180" s="1"/>
       <c r="T180" s="1"/>
     </row>
-    <row r="181">
+    <row r="181" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="1"/>
@@ -4600,7 +4720,7 @@
       <c r="S181" s="1"/>
       <c r="T181" s="1"/>
     </row>
-    <row r="182">
+    <row r="182" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="1"/>
@@ -4622,7 +4742,7 @@
       <c r="S182" s="1"/>
       <c r="T182" s="1"/>
     </row>
-    <row r="183">
+    <row r="183" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="1"/>
@@ -4644,7 +4764,7 @@
       <c r="S183" s="1"/>
       <c r="T183" s="1"/>
     </row>
-    <row r="184">
+    <row r="184" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="1"/>
@@ -4666,7 +4786,7 @@
       <c r="S184" s="1"/>
       <c r="T184" s="1"/>
     </row>
-    <row r="185">
+    <row r="185" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="1"/>
@@ -4688,7 +4808,7 @@
       <c r="S185" s="1"/>
       <c r="T185" s="1"/>
     </row>
-    <row r="186">
+    <row r="186" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="1"/>
@@ -4710,7 +4830,7 @@
       <c r="S186" s="1"/>
       <c r="T186" s="1"/>
     </row>
-    <row r="187">
+    <row r="187" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="1"/>
@@ -4732,7 +4852,7 @@
       <c r="S187" s="1"/>
       <c r="T187" s="1"/>
     </row>
-    <row r="188">
+    <row r="188" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="1"/>
@@ -4754,7 +4874,7 @@
       <c r="S188" s="1"/>
       <c r="T188" s="1"/>
     </row>
-    <row r="189">
+    <row r="189" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="1"/>
@@ -4776,7 +4896,7 @@
       <c r="S189" s="1"/>
       <c r="T189" s="1"/>
     </row>
-    <row r="190">
+    <row r="190" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="1"/>
@@ -4798,7 +4918,7 @@
       <c r="S190" s="1"/>
       <c r="T190" s="1"/>
     </row>
-    <row r="191">
+    <row r="191" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="1"/>
@@ -4820,7 +4940,7 @@
       <c r="S191" s="1"/>
       <c r="T191" s="1"/>
     </row>
-    <row r="192">
+    <row r="192" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="1"/>
@@ -4842,7 +4962,7 @@
       <c r="S192" s="1"/>
       <c r="T192" s="1"/>
     </row>
-    <row r="193">
+    <row r="193" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="1"/>
@@ -4864,7 +4984,7 @@
       <c r="S193" s="1"/>
       <c r="T193" s="1"/>
     </row>
-    <row r="194">
+    <row r="194" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="1"/>
@@ -4886,7 +5006,7 @@
       <c r="S194" s="1"/>
       <c r="T194" s="1"/>
     </row>
-    <row r="195">
+    <row r="195" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="1"/>
@@ -4908,7 +5028,7 @@
       <c r="S195" s="1"/>
       <c r="T195" s="1"/>
     </row>
-    <row r="196">
+    <row r="196" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="1"/>
@@ -4930,7 +5050,7 @@
       <c r="S196" s="1"/>
       <c r="T196" s="1"/>
     </row>
-    <row r="197">
+    <row r="197" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="1"/>
@@ -4952,7 +5072,7 @@
       <c r="S197" s="1"/>
       <c r="T197" s="1"/>
     </row>
-    <row r="198">
+    <row r="198" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="1"/>
@@ -4974,7 +5094,7 @@
       <c r="S198" s="1"/>
       <c r="T198" s="1"/>
     </row>
-    <row r="199">
+    <row r="199" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="1"/>
@@ -4996,7 +5116,7 @@
       <c r="S199" s="1"/>
       <c r="T199" s="1"/>
     </row>
-    <row r="200">
+    <row r="200" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="1"/>
@@ -5019,6 +5139,7 @@
       <c r="T200" s="1"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/许愿墙.xlsx
+++ b/许愿墙.xlsx
@@ -1,199 +1,83 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+<workbook xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\86176\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B44164B5-00EA-4CA6-8540-C1ED50007690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="15800" windowWidth="28040" xWindow="4240" yWindow="640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcMode="auto"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>你想找什么样的工作？</t>
-  </si>
-  <si>
-    <t>现在的状态是怎样的？</t>
-  </si>
-  <si>
-    <t>AI攻城狮</t>
-  </si>
-  <si>
-    <t>已找到！</t>
-  </si>
-  <si>
-    <t>Java+AI</t>
-  </si>
-  <si>
-    <t>在找</t>
-  </si>
-  <si>
-    <t>AI agent开发</t>
-  </si>
-  <si>
-    <t>Java实习</t>
-  </si>
-  <si>
-    <t>还没开始找</t>
-  </si>
-  <si>
-    <t>系统架构师</t>
-  </si>
-  <si>
-    <t>Go</t>
-  </si>
-  <si>
-    <t>前端攻城狮</t>
-  </si>
-  <si>
-    <t>AI+游戏开发</t>
-  </si>
-  <si>
-    <t>C++实习</t>
-  </si>
-  <si>
-    <t>后端开发</t>
-  </si>
-  <si>
-    <t>正确的路上</t>
-  </si>
-  <si>
-    <t>Java后端开发</t>
-  </si>
-  <si>
-    <t>在找实习的路上</t>
-  </si>
-  <si>
-    <t>Java</t>
-  </si>
-  <si>
-    <t>找到了，但是通勤太远想跳槽</t>
-  </si>
-  <si>
-    <t>Frontend leader</t>
-  </si>
-  <si>
-    <t>找到了，但是没有work life balance</t>
-  </si>
-  <si>
-    <t>找到了，不满意</t>
-  </si>
-  <si>
-    <t>Java开发</t>
-  </si>
-  <si>
-    <t>再找</t>
-  </si>
-  <si>
-    <t>前端工程师</t>
-  </si>
-  <si>
-    <t>java开发</t>
-  </si>
-  <si>
-    <t>AI+前端工程师</t>
-  </si>
-  <si>
-    <t>C++开发</t>
-  </si>
-  <si>
-    <t>Go后端开发</t>
-  </si>
-  <si>
-    <t>AI+后端工程师</t>
-  </si>
-  <si>
-    <t>linux运维</t>
-  </si>
-  <si>
-    <t>AI+嵌入式</t>
-  </si>
-  <si>
-    <t>财务主管</t>
-  </si>
-  <si>
-    <t>在学习的路上</t>
-  </si>
-  <si>
-    <t>去年7月用这个项目找到了第一份工作，现在再次回来，希望跳槽找一份AI售前的工作</t>
-  </si>
-  <si>
-    <t>准备跳槽</t>
-  </si>
-  <si>
-    <t>java开发</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>在找</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t xml:space="preserve">  </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="3">
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9.75"/>
       <color rgb="FF000000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9.75"/>
       <color rgb="FF000000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill patternType="none">
+        <fgColor/>
+        <bgColor/>
+      </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor/>
+        <bgColor/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF34C724"/>
+        <bgColor/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -253,32 +137,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="6">
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -291,7 +185,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -586,28 +480,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
   <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <outlinePr summaryBelow="false" summaryRight="false"/>
   </sheetPr>
-  <dimension ref="A1:T200"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView showGridLines="true" tabSelected="true" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="74" customWidth="1"/>
-    <col min="2" max="2" width="32" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="74"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
+    <row r="1">
+      <c r="A1" s="3" t="str">
+        <v>你想找什么样的工作？</v>
+      </c>
+      <c r="B1" s="3" t="str">
+        <v>现在的状态是怎样的？</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -628,12 +522,12 @@
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
+    <row r="2">
+      <c r="A2" s="2" t="str">
+        <v>AI攻城狮</v>
+      </c>
+      <c r="B2" s="2" t="str">
+        <v>已找到！</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -654,12 +548,12 @@
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
+    <row r="3">
+      <c r="A3" s="2" t="str">
+        <v>Java+AI</v>
+      </c>
+      <c r="B3" s="2" t="str">
+        <v>在找</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -680,12 +574,12 @@
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
+    <row r="4">
+      <c r="A4" s="2" t="str">
+        <v>AI agent开发</v>
+      </c>
+      <c r="B4" s="2" t="str">
+        <v>在找</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -706,12 +600,12 @@
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>8</v>
+    <row r="5">
+      <c r="A5" s="2" t="str">
+        <v>Java实习</v>
+      </c>
+      <c r="B5" s="2" t="str">
+        <v>还没开始找</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -732,12 +626,12 @@
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>5</v>
+    <row r="6">
+      <c r="A6" s="2" t="str">
+        <v>系统架构师</v>
+      </c>
+      <c r="B6" s="2" t="str">
+        <v>在找</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -758,12 +652,12 @@
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>5</v>
+    <row r="7">
+      <c r="A7" s="2" t="str">
+        <v>Go</v>
+      </c>
+      <c r="B7" s="2" t="str">
+        <v>在找</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -784,12 +678,12 @@
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>5</v>
+    <row r="8">
+      <c r="A8" s="2" t="str">
+        <v>前端攻城狮</v>
+      </c>
+      <c r="B8" s="2" t="str">
+        <v>在找</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -810,12 +704,12 @@
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>5</v>
+    <row r="9">
+      <c r="A9" s="2" t="str">
+        <v>AI+游戏开发</v>
+      </c>
+      <c r="B9" s="2" t="str">
+        <v>在找</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -836,12 +730,12 @@
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>5</v>
+    <row r="10">
+      <c r="A10" s="2" t="str">
+        <v>C++实习</v>
+      </c>
+      <c r="B10" s="2" t="str">
+        <v>在找</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -862,12 +756,12 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>15</v>
+    <row r="11">
+      <c r="A11" s="2" t="str">
+        <v>后端开发</v>
+      </c>
+      <c r="B11" s="2" t="str">
+        <v>正确的路上</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -888,12 +782,12 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>17</v>
+    <row r="12">
+      <c r="A12" s="2" t="str">
+        <v>Java后端开发</v>
+      </c>
+      <c r="B12" s="2" t="str">
+        <v>在找实习的路上</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -914,12 +808,12 @@
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>19</v>
+    <row r="13">
+      <c r="A13" s="2" t="str">
+        <v>Java</v>
+      </c>
+      <c r="B13" s="2" t="str">
+        <v>找到了，但是通勤太远想跳槽</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -940,12 +834,12 @@
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>21</v>
+    <row r="14">
+      <c r="A14" s="2" t="str">
+        <v>Frontend leader</v>
+      </c>
+      <c r="B14" s="2" t="str">
+        <v>找到了，但是没有work life balance</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -966,12 +860,12 @@
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>22</v>
+    <row r="15">
+      <c r="A15" s="4" t="str">
+        <v>Java</v>
+      </c>
+      <c r="B15" s="2" t="str">
+        <v>找到了，不满意</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -992,12 +886,12 @@
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>24</v>
+    <row r="16">
+      <c r="A16" s="2" t="str">
+        <v>Java开发</v>
+      </c>
+      <c r="B16" s="2" t="str">
+        <v>再找</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -1018,12 +912,12 @@
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>5</v>
+    <row r="17">
+      <c r="A17" s="2" t="str">
+        <v>前端工程师</v>
+      </c>
+      <c r="B17" s="2" t="str">
+        <v>在找</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -1044,12 +938,12 @@
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>5</v>
+    <row r="18">
+      <c r="A18" s="2" t="str">
+        <v>java开发</v>
+      </c>
+      <c r="B18" s="2" t="str">
+        <v>在找</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -1070,12 +964,12 @@
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>8</v>
+    <row r="19">
+      <c r="A19" s="2" t="str">
+        <v>AI+前端工程师</v>
+      </c>
+      <c r="B19" s="2" t="str">
+        <v>还没开始找</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -1096,12 +990,12 @@
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>5</v>
+    <row r="20">
+      <c r="A20" s="2" t="str">
+        <v>C++开发</v>
+      </c>
+      <c r="B20" s="2" t="str">
+        <v>在找</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -1122,12 +1016,12 @@
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>5</v>
+    <row r="21">
+      <c r="A21" s="2" t="str">
+        <v>Go</v>
+      </c>
+      <c r="B21" s="2" t="str">
+        <v>在找</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -1148,12 +1042,12 @@
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>5</v>
+    <row r="22">
+      <c r="A22" s="2" t="str">
+        <v>Go后端开发</v>
+      </c>
+      <c r="B22" s="2" t="str">
+        <v>在找</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1174,12 +1068,12 @@
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>8</v>
+    <row r="23">
+      <c r="A23" s="2" t="str">
+        <v>AI+后端工程师</v>
+      </c>
+      <c r="B23" s="2" t="str">
+        <v>还没开始找</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1200,12 +1094,12 @@
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>5</v>
+    <row r="24">
+      <c r="A24" s="2" t="str">
+        <v>linux运维</v>
+      </c>
+      <c r="B24" s="2" t="str">
+        <v>在找</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1226,12 +1120,12 @@
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>5</v>
+    <row r="25">
+      <c r="A25" s="2" t="str">
+        <v>前端工程师</v>
+      </c>
+      <c r="B25" s="2" t="str">
+        <v>在找</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1252,12 +1146,12 @@
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>8</v>
+    <row r="26">
+      <c r="A26" s="2" t="str">
+        <v>前端工程师</v>
+      </c>
+      <c r="B26" s="2" t="str">
+        <v>还没开始找</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1278,12 +1172,12 @@
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>5</v>
+    <row r="27">
+      <c r="A27" s="2" t="str">
+        <v>java开发</v>
+      </c>
+      <c r="B27" s="2" t="str">
+        <v>在找</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1304,12 +1198,12 @@
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>24</v>
+    <row r="28">
+      <c r="A28" s="2" t="str">
+        <v>AI+嵌入式</v>
+      </c>
+      <c r="B28" s="2" t="str">
+        <v>再找</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1330,12 +1224,12 @@
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>5</v>
+    <row r="29">
+      <c r="A29" s="2" t="str">
+        <v>财务主管</v>
+      </c>
+      <c r="B29" s="2" t="str">
+        <v>在找</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1356,12 +1250,12 @@
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>34</v>
+    <row r="30">
+      <c r="A30" s="2" t="str">
+        <v>后端开发</v>
+      </c>
+      <c r="B30" s="2" t="str">
+        <v>在学习的路上</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1382,12 +1276,12 @@
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>5</v>
+    <row r="31">
+      <c r="A31" s="2" t="str">
+        <v>去年7月用这个项目找到了第一份工作，现在再次回来，希望跳槽找一份AI售前的工作</v>
+      </c>
+      <c r="B31" s="2" t="str">
+        <v>在找</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1408,12 +1302,12 @@
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>5</v>
+    <row r="32">
+      <c r="A32" s="2" t="str">
+        <v>前端工程师</v>
+      </c>
+      <c r="B32" s="2" t="str">
+        <v>在找</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1434,12 +1328,12 @@
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>36</v>
+    <row r="33">
+      <c r="A33" s="2" t="str">
+        <v>Java开发</v>
+      </c>
+      <c r="B33" s="2" t="str">
+        <v>准备跳槽</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1460,12 +1354,12 @@
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>38</v>
+    <row r="34">
+      <c r="A34" s="2" t="str">
+        <v>Java开发，有完善的晋升制度</v>
+      </c>
+      <c r="B34" s="2" t="str">
+        <v>准备跳槽</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1486,9 +1380,13 @@
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
+    <row r="35">
+      <c r="A35" s="2" t="str">
+        <v>前端开发</v>
+      </c>
+      <c r="B35" s="2" t="str">
+        <v>在找</v>
+      </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -1508,9 +1406,13 @@
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
+    <row r="36">
+      <c r="A36" s="2" t="str">
+        <v>java开发</v>
+      </c>
+      <c r="B36" s="2" t="str">
+        <v>在找</v>
+      </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -1530,9 +1432,13 @@
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
+    <row r="37">
+      <c r="A37" s="2" t="str">
+        <v>Java开发</v>
+      </c>
+      <c r="B37" s="2" t="str">
+        <v>正在找</v>
+      </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -1552,9 +1458,13 @@
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
+    <row r="38">
+      <c r="A38" s="2" t="str">
+        <v>Java+AI</v>
+      </c>
+      <c r="B38" s="2" t="str">
+        <v>在找</v>
+      </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -1574,29 +1484,33 @@
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="1"/>
-      <c r="Q39" s="1"/>
-      <c r="R39" s="1"/>
-      <c r="S39" s="1"/>
-      <c r="T39" s="1"/>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="39">
+      <c r="A39" s="4" t="str">
+        <v>AI+后端工程师</v>
+      </c>
+      <c r="B39" s="2" t="str">
+        <v>在找</v>
+      </c>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="5"/>
+      <c r="Q39" s="5"/>
+      <c r="R39" s="5"/>
+      <c r="S39" s="5"/>
+      <c r="T39" s="5"/>
+    </row>
+    <row r="40">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="1"/>
@@ -1618,7 +1532,7 @@
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="41">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="1"/>
@@ -1640,7 +1554,7 @@
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="42">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="1"/>
@@ -1662,7 +1576,7 @@
       <c r="S42" s="1"/>
       <c r="T42" s="1"/>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="43">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="1"/>
@@ -1684,7 +1598,7 @@
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="44">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="1"/>
@@ -1706,7 +1620,7 @@
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="45">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="1"/>
@@ -1728,7 +1642,7 @@
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="46">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="1"/>
@@ -1750,7 +1664,7 @@
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="47">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="1"/>
@@ -1772,7 +1686,7 @@
       <c r="S47" s="1"/>
       <c r="T47" s="1"/>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="48">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="1"/>
@@ -1794,7 +1708,7 @@
       <c r="S48" s="1"/>
       <c r="T48" s="1"/>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="49">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="1"/>
@@ -1816,7 +1730,7 @@
       <c r="S49" s="1"/>
       <c r="T49" s="1"/>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="50">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="1"/>
@@ -1838,7 +1752,7 @@
       <c r="S50" s="1"/>
       <c r="T50" s="1"/>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="51">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="1"/>
@@ -1860,7 +1774,7 @@
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="52">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="1"/>
@@ -1882,7 +1796,7 @@
       <c r="S52" s="1"/>
       <c r="T52" s="1"/>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="53">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="1"/>
@@ -1904,7 +1818,7 @@
       <c r="S53" s="1"/>
       <c r="T53" s="1"/>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="54">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="1"/>
@@ -1926,7 +1840,7 @@
       <c r="S54" s="1"/>
       <c r="T54" s="1"/>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="55">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="1"/>
@@ -1948,7 +1862,7 @@
       <c r="S55" s="1"/>
       <c r="T55" s="1"/>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="56">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="1"/>
@@ -1970,7 +1884,7 @@
       <c r="S56" s="1"/>
       <c r="T56" s="1"/>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="57">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="1"/>
@@ -1992,7 +1906,7 @@
       <c r="S57" s="1"/>
       <c r="T57" s="1"/>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="58">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="1"/>
@@ -2014,7 +1928,7 @@
       <c r="S58" s="1"/>
       <c r="T58" s="1"/>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="59">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="1"/>
@@ -2036,7 +1950,7 @@
       <c r="S59" s="1"/>
       <c r="T59" s="1"/>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="60">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="1"/>
@@ -2058,7 +1972,7 @@
       <c r="S60" s="1"/>
       <c r="T60" s="1"/>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="61">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="1"/>
@@ -2080,7 +1994,7 @@
       <c r="S61" s="1"/>
       <c r="T61" s="1"/>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="62">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="1"/>
@@ -2102,7 +2016,7 @@
       <c r="S62" s="1"/>
       <c r="T62" s="1"/>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="63">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="1"/>
@@ -2124,7 +2038,7 @@
       <c r="S63" s="1"/>
       <c r="T63" s="1"/>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="64">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="1"/>
@@ -2146,7 +2060,7 @@
       <c r="S64" s="1"/>
       <c r="T64" s="1"/>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="65">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="1"/>
@@ -2168,7 +2082,7 @@
       <c r="S65" s="1"/>
       <c r="T65" s="1"/>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="66">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="1"/>
@@ -2190,7 +2104,7 @@
       <c r="S66" s="1"/>
       <c r="T66" s="1"/>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="67">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="1"/>
@@ -2212,7 +2126,7 @@
       <c r="S67" s="1"/>
       <c r="T67" s="1"/>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="68">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="1"/>
@@ -2234,7 +2148,7 @@
       <c r="S68" s="1"/>
       <c r="T68" s="1"/>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="69">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="1"/>
@@ -2256,7 +2170,7 @@
       <c r="S69" s="1"/>
       <c r="T69" s="1"/>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="70">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="1"/>
@@ -2278,7 +2192,7 @@
       <c r="S70" s="1"/>
       <c r="T70" s="1"/>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="71">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="1"/>
@@ -2300,7 +2214,7 @@
       <c r="S71" s="1"/>
       <c r="T71" s="1"/>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="72">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="1"/>
@@ -2322,7 +2236,7 @@
       <c r="S72" s="1"/>
       <c r="T72" s="1"/>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="73">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="1"/>
@@ -2344,7 +2258,7 @@
       <c r="S73" s="1"/>
       <c r="T73" s="1"/>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="74">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="1"/>
@@ -2366,7 +2280,7 @@
       <c r="S74" s="1"/>
       <c r="T74" s="1"/>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="75">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="1"/>
@@ -2388,7 +2302,7 @@
       <c r="S75" s="1"/>
       <c r="T75" s="1"/>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="76">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="1"/>
@@ -2410,7 +2324,7 @@
       <c r="S76" s="1"/>
       <c r="T76" s="1"/>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="77">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="1"/>
@@ -2432,7 +2346,7 @@
       <c r="S77" s="1"/>
       <c r="T77" s="1"/>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="78">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="1"/>
@@ -2454,7 +2368,7 @@
       <c r="S78" s="1"/>
       <c r="T78" s="1"/>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="79">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="1"/>
@@ -2476,7 +2390,7 @@
       <c r="S79" s="1"/>
       <c r="T79" s="1"/>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="80">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="1"/>
@@ -2498,7 +2412,7 @@
       <c r="S80" s="1"/>
       <c r="T80" s="1"/>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="81">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="1"/>
@@ -2520,7 +2434,7 @@
       <c r="S81" s="1"/>
       <c r="T81" s="1"/>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="82">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="1"/>
@@ -2542,7 +2456,7 @@
       <c r="S82" s="1"/>
       <c r="T82" s="1"/>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="83">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="1"/>
@@ -2564,7 +2478,7 @@
       <c r="S83" s="1"/>
       <c r="T83" s="1"/>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="84">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="1"/>
@@ -2586,7 +2500,7 @@
       <c r="S84" s="1"/>
       <c r="T84" s="1"/>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="85">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="1"/>
@@ -2608,7 +2522,7 @@
       <c r="S85" s="1"/>
       <c r="T85" s="1"/>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="86">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="1"/>
@@ -2630,7 +2544,7 @@
       <c r="S86" s="1"/>
       <c r="T86" s="1"/>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="87">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="1"/>
@@ -2652,7 +2566,7 @@
       <c r="S87" s="1"/>
       <c r="T87" s="1"/>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="88">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="1"/>
@@ -2674,7 +2588,7 @@
       <c r="S88" s="1"/>
       <c r="T88" s="1"/>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="89">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="1"/>
@@ -2696,7 +2610,7 @@
       <c r="S89" s="1"/>
       <c r="T89" s="1"/>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="90">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="1"/>
@@ -2718,7 +2632,7 @@
       <c r="S90" s="1"/>
       <c r="T90" s="1"/>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="91">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="1"/>
@@ -2740,7 +2654,7 @@
       <c r="S91" s="1"/>
       <c r="T91" s="1"/>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="92">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="1"/>
@@ -2762,7 +2676,7 @@
       <c r="S92" s="1"/>
       <c r="T92" s="1"/>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="93">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="1"/>
@@ -2784,7 +2698,7 @@
       <c r="S93" s="1"/>
       <c r="T93" s="1"/>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="94">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="1"/>
@@ -2806,7 +2720,7 @@
       <c r="S94" s="1"/>
       <c r="T94" s="1"/>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="95">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="1"/>
@@ -2828,7 +2742,7 @@
       <c r="S95" s="1"/>
       <c r="T95" s="1"/>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="96">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="1"/>
@@ -2850,7 +2764,7 @@
       <c r="S96" s="1"/>
       <c r="T96" s="1"/>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="97">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="1"/>
@@ -2872,7 +2786,7 @@
       <c r="S97" s="1"/>
       <c r="T97" s="1"/>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="98">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="1"/>
@@ -2894,7 +2808,7 @@
       <c r="S98" s="1"/>
       <c r="T98" s="1"/>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="99">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="1"/>
@@ -2916,7 +2830,7 @@
       <c r="S99" s="1"/>
       <c r="T99" s="1"/>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="100">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="1"/>
@@ -2938,7 +2852,7 @@
       <c r="S100" s="1"/>
       <c r="T100" s="1"/>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="101">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="1"/>
@@ -2960,7 +2874,7 @@
       <c r="S101" s="1"/>
       <c r="T101" s="1"/>
     </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="102">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="1"/>
@@ -2982,7 +2896,7 @@
       <c r="S102" s="1"/>
       <c r="T102" s="1"/>
     </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="103">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="1"/>
@@ -3004,7 +2918,7 @@
       <c r="S103" s="1"/>
       <c r="T103" s="1"/>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="104">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="1"/>
@@ -3026,7 +2940,7 @@
       <c r="S104" s="1"/>
       <c r="T104" s="1"/>
     </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="105">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="1"/>
@@ -3048,7 +2962,7 @@
       <c r="S105" s="1"/>
       <c r="T105" s="1"/>
     </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="106">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="1"/>
@@ -3070,7 +2984,7 @@
       <c r="S106" s="1"/>
       <c r="T106" s="1"/>
     </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="107">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="1"/>
@@ -3092,7 +3006,7 @@
       <c r="S107" s="1"/>
       <c r="T107" s="1"/>
     </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="108">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="1"/>
@@ -3114,7 +3028,7 @@
       <c r="S108" s="1"/>
       <c r="T108" s="1"/>
     </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="109">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="1"/>
@@ -3136,7 +3050,7 @@
       <c r="S109" s="1"/>
       <c r="T109" s="1"/>
     </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="110">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="1"/>
@@ -3158,7 +3072,7 @@
       <c r="S110" s="1"/>
       <c r="T110" s="1"/>
     </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="111">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="1"/>
@@ -3180,7 +3094,7 @@
       <c r="S111" s="1"/>
       <c r="T111" s="1"/>
     </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="112">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="1"/>
@@ -3202,7 +3116,7 @@
       <c r="S112" s="1"/>
       <c r="T112" s="1"/>
     </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="113">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="1"/>
@@ -3224,7 +3138,7 @@
       <c r="S113" s="1"/>
       <c r="T113" s="1"/>
     </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="114">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="1"/>
@@ -3246,7 +3160,7 @@
       <c r="S114" s="1"/>
       <c r="T114" s="1"/>
     </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="115">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="1"/>
@@ -3268,7 +3182,7 @@
       <c r="S115" s="1"/>
       <c r="T115" s="1"/>
     </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="116">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="1"/>
@@ -3290,7 +3204,7 @@
       <c r="S116" s="1"/>
       <c r="T116" s="1"/>
     </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="117">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="1"/>
@@ -3312,7 +3226,7 @@
       <c r="S117" s="1"/>
       <c r="T117" s="1"/>
     </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="118">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="1"/>
@@ -3334,7 +3248,7 @@
       <c r="S118" s="1"/>
       <c r="T118" s="1"/>
     </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="119">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="1"/>
@@ -3356,7 +3270,7 @@
       <c r="S119" s="1"/>
       <c r="T119" s="1"/>
     </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="120">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="1"/>
@@ -3378,7 +3292,7 @@
       <c r="S120" s="1"/>
       <c r="T120" s="1"/>
     </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="121">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="1"/>
@@ -3400,7 +3314,7 @@
       <c r="S121" s="1"/>
       <c r="T121" s="1"/>
     </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="122">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="1"/>
@@ -3422,7 +3336,7 @@
       <c r="S122" s="1"/>
       <c r="T122" s="1"/>
     </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="123">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="1"/>
@@ -3444,7 +3358,7 @@
       <c r="S123" s="1"/>
       <c r="T123" s="1"/>
     </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="124">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="1"/>
@@ -3466,7 +3380,7 @@
       <c r="S124" s="1"/>
       <c r="T124" s="1"/>
     </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="125">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="1"/>
@@ -3488,7 +3402,7 @@
       <c r="S125" s="1"/>
       <c r="T125" s="1"/>
     </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="126">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="1"/>
@@ -3510,7 +3424,7 @@
       <c r="S126" s="1"/>
       <c r="T126" s="1"/>
     </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="127">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="1"/>
@@ -3532,7 +3446,7 @@
       <c r="S127" s="1"/>
       <c r="T127" s="1"/>
     </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="128">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="1"/>
@@ -3554,7 +3468,7 @@
       <c r="S128" s="1"/>
       <c r="T128" s="1"/>
     </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="129">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="1"/>
@@ -3576,7 +3490,7 @@
       <c r="S129" s="1"/>
       <c r="T129" s="1"/>
     </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="130">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="1"/>
@@ -3598,7 +3512,7 @@
       <c r="S130" s="1"/>
       <c r="T130" s="1"/>
     </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="131">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="1"/>
@@ -3620,7 +3534,7 @@
       <c r="S131" s="1"/>
       <c r="T131" s="1"/>
     </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="132">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="1"/>
@@ -3642,7 +3556,7 @@
       <c r="S132" s="1"/>
       <c r="T132" s="1"/>
     </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="133">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="1"/>
@@ -3664,7 +3578,7 @@
       <c r="S133" s="1"/>
       <c r="T133" s="1"/>
     </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="134">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="1"/>
@@ -3686,7 +3600,7 @@
       <c r="S134" s="1"/>
       <c r="T134" s="1"/>
     </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="135">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="1"/>
@@ -3708,7 +3622,7 @@
       <c r="S135" s="1"/>
       <c r="T135" s="1"/>
     </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="136">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="1"/>
@@ -3730,7 +3644,7 @@
       <c r="S136" s="1"/>
       <c r="T136" s="1"/>
     </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="137">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="1"/>
@@ -3752,7 +3666,7 @@
       <c r="S137" s="1"/>
       <c r="T137" s="1"/>
     </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="138">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="1"/>
@@ -3774,7 +3688,7 @@
       <c r="S138" s="1"/>
       <c r="T138" s="1"/>
     </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="139">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="1"/>
@@ -3796,7 +3710,7 @@
       <c r="S139" s="1"/>
       <c r="T139" s="1"/>
     </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="140">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="1"/>
@@ -3818,7 +3732,7 @@
       <c r="S140" s="1"/>
       <c r="T140" s="1"/>
     </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="141">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="1"/>
@@ -3840,7 +3754,7 @@
       <c r="S141" s="1"/>
       <c r="T141" s="1"/>
     </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="142">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="1"/>
@@ -3862,7 +3776,7 @@
       <c r="S142" s="1"/>
       <c r="T142" s="1"/>
     </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="143">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="1"/>
@@ -3884,7 +3798,7 @@
       <c r="S143" s="1"/>
       <c r="T143" s="1"/>
     </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="144">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="1"/>
@@ -3906,7 +3820,7 @@
       <c r="S144" s="1"/>
       <c r="T144" s="1"/>
     </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="145">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="1"/>
@@ -3928,7 +3842,7 @@
       <c r="S145" s="1"/>
       <c r="T145" s="1"/>
     </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="146">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="1"/>
@@ -3950,7 +3864,7 @@
       <c r="S146" s="1"/>
       <c r="T146" s="1"/>
     </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="147">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="1"/>
@@ -3972,7 +3886,7 @@
       <c r="S147" s="1"/>
       <c r="T147" s="1"/>
     </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="148">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="1"/>
@@ -3994,7 +3908,7 @@
       <c r="S148" s="1"/>
       <c r="T148" s="1"/>
     </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="149">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="1"/>
@@ -4016,7 +3930,7 @@
       <c r="S149" s="1"/>
       <c r="T149" s="1"/>
     </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="150">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="1"/>
@@ -4038,7 +3952,7 @@
       <c r="S150" s="1"/>
       <c r="T150" s="1"/>
     </row>
-    <row r="151" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="151">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="1"/>
@@ -4060,7 +3974,7 @@
       <c r="S151" s="1"/>
       <c r="T151" s="1"/>
     </row>
-    <row r="152" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="152">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="1"/>
@@ -4082,7 +3996,7 @@
       <c r="S152" s="1"/>
       <c r="T152" s="1"/>
     </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="153">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="1"/>
@@ -4104,7 +4018,7 @@
       <c r="S153" s="1"/>
       <c r="T153" s="1"/>
     </row>
-    <row r="154" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="154">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="1"/>
@@ -4126,7 +4040,7 @@
       <c r="S154" s="1"/>
       <c r="T154" s="1"/>
     </row>
-    <row r="155" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="155">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="1"/>
@@ -4148,7 +4062,7 @@
       <c r="S155" s="1"/>
       <c r="T155" s="1"/>
     </row>
-    <row r="156" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="156">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="1"/>
@@ -4170,7 +4084,7 @@
       <c r="S156" s="1"/>
       <c r="T156" s="1"/>
     </row>
-    <row r="157" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="157">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="1"/>
@@ -4192,7 +4106,7 @@
       <c r="S157" s="1"/>
       <c r="T157" s="1"/>
     </row>
-    <row r="158" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="158">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="1"/>
@@ -4214,7 +4128,7 @@
       <c r="S158" s="1"/>
       <c r="T158" s="1"/>
     </row>
-    <row r="159" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="159">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="1"/>
@@ -4236,7 +4150,7 @@
       <c r="S159" s="1"/>
       <c r="T159" s="1"/>
     </row>
-    <row r="160" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="160">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="1"/>
@@ -4258,7 +4172,7 @@
       <c r="S160" s="1"/>
       <c r="T160" s="1"/>
     </row>
-    <row r="161" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="161">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="1"/>
@@ -4280,7 +4194,7 @@
       <c r="S161" s="1"/>
       <c r="T161" s="1"/>
     </row>
-    <row r="162" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="162">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="1"/>
@@ -4302,7 +4216,7 @@
       <c r="S162" s="1"/>
       <c r="T162" s="1"/>
     </row>
-    <row r="163" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="163">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="1"/>
@@ -4324,7 +4238,7 @@
       <c r="S163" s="1"/>
       <c r="T163" s="1"/>
     </row>
-    <row r="164" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="164">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="1"/>
@@ -4346,7 +4260,7 @@
       <c r="S164" s="1"/>
       <c r="T164" s="1"/>
     </row>
-    <row r="165" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="165">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="1"/>
@@ -4368,7 +4282,7 @@
       <c r="S165" s="1"/>
       <c r="T165" s="1"/>
     </row>
-    <row r="166" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="166">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="1"/>
@@ -4390,7 +4304,7 @@
       <c r="S166" s="1"/>
       <c r="T166" s="1"/>
     </row>
-    <row r="167" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="167">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="1"/>
@@ -4412,7 +4326,7 @@
       <c r="S167" s="1"/>
       <c r="T167" s="1"/>
     </row>
-    <row r="168" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="168">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="1"/>
@@ -4434,7 +4348,7 @@
       <c r="S168" s="1"/>
       <c r="T168" s="1"/>
     </row>
-    <row r="169" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="169">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="1"/>
@@ -4456,7 +4370,7 @@
       <c r="S169" s="1"/>
       <c r="T169" s="1"/>
     </row>
-    <row r="170" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="170">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="1"/>
@@ -4478,7 +4392,7 @@
       <c r="S170" s="1"/>
       <c r="T170" s="1"/>
     </row>
-    <row r="171" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="171">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="1"/>
@@ -4500,7 +4414,7 @@
       <c r="S171" s="1"/>
       <c r="T171" s="1"/>
     </row>
-    <row r="172" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="172">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="1"/>
@@ -4522,7 +4436,7 @@
       <c r="S172" s="1"/>
       <c r="T172" s="1"/>
     </row>
-    <row r="173" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="173">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="1"/>
@@ -4544,7 +4458,7 @@
       <c r="S173" s="1"/>
       <c r="T173" s="1"/>
     </row>
-    <row r="174" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="174">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="1"/>
@@ -4566,7 +4480,7 @@
       <c r="S174" s="1"/>
       <c r="T174" s="1"/>
     </row>
-    <row r="175" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="175">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="1"/>
@@ -4588,7 +4502,7 @@
       <c r="S175" s="1"/>
       <c r="T175" s="1"/>
     </row>
-    <row r="176" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="176">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="1"/>
@@ -4610,7 +4524,7 @@
       <c r="S176" s="1"/>
       <c r="T176" s="1"/>
     </row>
-    <row r="177" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="177">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="1"/>
@@ -4632,7 +4546,7 @@
       <c r="S177" s="1"/>
       <c r="T177" s="1"/>
     </row>
-    <row r="178" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="178">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="1"/>
@@ -4654,7 +4568,7 @@
       <c r="S178" s="1"/>
       <c r="T178" s="1"/>
     </row>
-    <row r="179" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="179">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="1"/>
@@ -4676,7 +4590,7 @@
       <c r="S179" s="1"/>
       <c r="T179" s="1"/>
     </row>
-    <row r="180" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="180">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="1"/>
@@ -4698,7 +4612,7 @@
       <c r="S180" s="1"/>
       <c r="T180" s="1"/>
     </row>
-    <row r="181" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="181">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="1"/>
@@ -4720,7 +4634,7 @@
       <c r="S181" s="1"/>
       <c r="T181" s="1"/>
     </row>
-    <row r="182" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="182">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="1"/>
@@ -4742,7 +4656,7 @@
       <c r="S182" s="1"/>
       <c r="T182" s="1"/>
     </row>
-    <row r="183" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="183">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="1"/>
@@ -4764,7 +4678,7 @@
       <c r="S183" s="1"/>
       <c r="T183" s="1"/>
     </row>
-    <row r="184" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="184">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="1"/>
@@ -4786,7 +4700,7 @@
       <c r="S184" s="1"/>
       <c r="T184" s="1"/>
     </row>
-    <row r="185" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="185">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="1"/>
@@ -4808,7 +4722,7 @@
       <c r="S185" s="1"/>
       <c r="T185" s="1"/>
     </row>
-    <row r="186" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="186">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="1"/>
@@ -4830,7 +4744,7 @@
       <c r="S186" s="1"/>
       <c r="T186" s="1"/>
     </row>
-    <row r="187" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="187">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="1"/>
@@ -4852,7 +4766,7 @@
       <c r="S187" s="1"/>
       <c r="T187" s="1"/>
     </row>
-    <row r="188" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="188">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="1"/>
@@ -4874,7 +4788,7 @@
       <c r="S188" s="1"/>
       <c r="T188" s="1"/>
     </row>
-    <row r="189" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="189">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="1"/>
@@ -4896,7 +4810,7 @@
       <c r="S189" s="1"/>
       <c r="T189" s="1"/>
     </row>
-    <row r="190" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="190">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="1"/>
@@ -4918,7 +4832,7 @@
       <c r="S190" s="1"/>
       <c r="T190" s="1"/>
     </row>
-    <row r="191" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="191">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="1"/>
@@ -4940,7 +4854,7 @@
       <c r="S191" s="1"/>
       <c r="T191" s="1"/>
     </row>
-    <row r="192" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="192">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="1"/>
@@ -4962,7 +4876,7 @@
       <c r="S192" s="1"/>
       <c r="T192" s="1"/>
     </row>
-    <row r="193" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="193">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="1"/>
@@ -4984,7 +4898,7 @@
       <c r="S193" s="1"/>
       <c r="T193" s="1"/>
     </row>
-    <row r="194" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="194">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="1"/>
@@ -5006,7 +4920,7 @@
       <c r="S194" s="1"/>
       <c r="T194" s="1"/>
     </row>
-    <row r="195" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="195">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="1"/>
@@ -5028,7 +4942,7 @@
       <c r="S195" s="1"/>
       <c r="T195" s="1"/>
     </row>
-    <row r="196" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="196">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="1"/>
@@ -5050,7 +4964,7 @@
       <c r="S196" s="1"/>
       <c r="T196" s="1"/>
     </row>
-    <row r="197" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="197">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="1"/>
@@ -5072,7 +4986,7 @@
       <c r="S197" s="1"/>
       <c r="T197" s="1"/>
     </row>
-    <row r="198" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="198">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="1"/>
@@ -5094,7 +5008,7 @@
       <c r="S198" s="1"/>
       <c r="T198" s="1"/>
     </row>
-    <row r="199" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="199">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="1"/>
@@ -5116,7 +5030,7 @@
       <c r="S199" s="1"/>
       <c r="T199" s="1"/>
     </row>
-    <row r="200" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="200">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="1"/>
@@ -5139,7 +5053,6 @@
       <c r="T200" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/许愿墙.xlsx
+++ b/许愿墙.xlsx
@@ -1,199 +1,83 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+<workbook xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\86176\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B44164B5-00EA-4CA6-8540-C1ED50007690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="15800" windowWidth="28040" xWindow="4240" yWindow="640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcMode="auto"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>你想找什么样的工作？</t>
-  </si>
-  <si>
-    <t>现在的状态是怎样的？</t>
-  </si>
-  <si>
-    <t>AI攻城狮</t>
-  </si>
-  <si>
-    <t>已找到！</t>
-  </si>
-  <si>
-    <t>Java+AI</t>
-  </si>
-  <si>
-    <t>在找</t>
-  </si>
-  <si>
-    <t>AI agent开发</t>
-  </si>
-  <si>
-    <t>Java实习</t>
-  </si>
-  <si>
-    <t>还没开始找</t>
-  </si>
-  <si>
-    <t>系统架构师</t>
-  </si>
-  <si>
-    <t>Go</t>
-  </si>
-  <si>
-    <t>前端攻城狮</t>
-  </si>
-  <si>
-    <t>AI+游戏开发</t>
-  </si>
-  <si>
-    <t>C++实习</t>
-  </si>
-  <si>
-    <t>后端开发</t>
-  </si>
-  <si>
-    <t>正确的路上</t>
-  </si>
-  <si>
-    <t>Java后端开发</t>
-  </si>
-  <si>
-    <t>在找实习的路上</t>
-  </si>
-  <si>
-    <t>Java</t>
-  </si>
-  <si>
-    <t>找到了，但是通勤太远想跳槽</t>
-  </si>
-  <si>
-    <t>Frontend leader</t>
-  </si>
-  <si>
-    <t>找到了，但是没有work life balance</t>
-  </si>
-  <si>
-    <t>找到了，不满意</t>
-  </si>
-  <si>
-    <t>Java开发</t>
-  </si>
-  <si>
-    <t>再找</t>
-  </si>
-  <si>
-    <t>前端工程师</t>
-  </si>
-  <si>
-    <t>java开发</t>
-  </si>
-  <si>
-    <t>AI+前端工程师</t>
-  </si>
-  <si>
-    <t>C++开发</t>
-  </si>
-  <si>
-    <t>Go后端开发</t>
-  </si>
-  <si>
-    <t>AI+后端工程师</t>
-  </si>
-  <si>
-    <t>linux运维</t>
-  </si>
-  <si>
-    <t>AI+嵌入式</t>
-  </si>
-  <si>
-    <t>财务主管</t>
-  </si>
-  <si>
-    <t>在学习的路上</t>
-  </si>
-  <si>
-    <t>去年7月用这个项目找到了第一份工作，现在再次回来，希望跳槽找一份AI售前的工作</t>
-  </si>
-  <si>
-    <t>准备跳槽</t>
-  </si>
-  <si>
-    <t>java开发</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>在找</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t xml:space="preserve">  </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="3">
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9.75"/>
       <color rgb="FF000000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9.75"/>
       <color rgb="FF000000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill patternType="none">
+        <fgColor/>
+        <bgColor/>
+      </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor/>
+        <bgColor/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF34C724"/>
+        <bgColor/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -253,32 +137,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="6">
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -291,7 +185,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -586,28 +480,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
   <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <outlinePr summaryBelow="false" summaryRight="false"/>
   </sheetPr>
-  <dimension ref="A1:T200"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView showGridLines="true" tabSelected="true" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="74" customWidth="1"/>
-    <col min="2" max="2" width="32" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="74"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
+    <row r="1">
+      <c r="A1" s="2" t="str">
+        <v>你想找什么样的工作？</v>
+      </c>
+      <c r="B1" s="2" t="str">
+        <v>现在的状态是怎样的？</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -628,12 +522,12 @@
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
+    <row r="2">
+      <c r="A2" s="3" t="str">
+        <v>AI攻城狮</v>
+      </c>
+      <c r="B2" s="3" t="str">
+        <v>已找到！</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -654,12 +548,12 @@
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
+    <row r="3">
+      <c r="A3" s="3" t="str">
+        <v>Java+AI</v>
+      </c>
+      <c r="B3" s="3" t="str">
+        <v>在找</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -680,12 +574,12 @@
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
+    <row r="4">
+      <c r="A4" s="3" t="str">
+        <v>AI agent开发</v>
+      </c>
+      <c r="B4" s="3" t="str">
+        <v>在找</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -706,12 +600,12 @@
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>8</v>
+    <row r="5">
+      <c r="A5" s="3" t="str">
+        <v>Java实习</v>
+      </c>
+      <c r="B5" s="3" t="str">
+        <v>还没开始找</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -732,12 +626,12 @@
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>5</v>
+    <row r="6">
+      <c r="A6" s="3" t="str">
+        <v>系统架构师</v>
+      </c>
+      <c r="B6" s="3" t="str">
+        <v>在找</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -758,12 +652,12 @@
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>5</v>
+    <row r="7">
+      <c r="A7" s="3" t="str">
+        <v>Go</v>
+      </c>
+      <c r="B7" s="3" t="str">
+        <v>在找</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -784,12 +678,12 @@
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>5</v>
+    <row r="8">
+      <c r="A8" s="3" t="str">
+        <v>前端攻城狮</v>
+      </c>
+      <c r="B8" s="3" t="str">
+        <v>在找</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -810,12 +704,12 @@
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>5</v>
+    <row r="9">
+      <c r="A9" s="3" t="str">
+        <v>AI+游戏开发</v>
+      </c>
+      <c r="B9" s="3" t="str">
+        <v>在找</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -836,12 +730,12 @@
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>5</v>
+    <row r="10">
+      <c r="A10" s="3" t="str">
+        <v>C++实习</v>
+      </c>
+      <c r="B10" s="3" t="str">
+        <v>在找</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -862,12 +756,12 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>15</v>
+    <row r="11">
+      <c r="A11" s="3" t="str">
+        <v>后端开发</v>
+      </c>
+      <c r="B11" s="3" t="str">
+        <v>正确的路上</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -888,12 +782,12 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>17</v>
+    <row r="12">
+      <c r="A12" s="3" t="str">
+        <v>Java后端开发</v>
+      </c>
+      <c r="B12" s="3" t="str">
+        <v>在找实习的路上</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -914,12 +808,12 @@
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>19</v>
+    <row r="13">
+      <c r="A13" s="3" t="str">
+        <v>Java</v>
+      </c>
+      <c r="B13" s="3" t="str">
+        <v>找到了，但是通勤太远想跳槽</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -940,12 +834,12 @@
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>21</v>
+    <row r="14">
+      <c r="A14" s="3" t="str">
+        <v>Frontend leader</v>
+      </c>
+      <c r="B14" s="3" t="str">
+        <v>找到了，但是没有work life balance</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -966,12 +860,12 @@
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>22</v>
+    <row r="15">
+      <c r="A15" s="4" t="str">
+        <v>Java</v>
+      </c>
+      <c r="B15" s="3" t="str">
+        <v>找到了，不满意</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -992,12 +886,12 @@
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>24</v>
+    <row r="16">
+      <c r="A16" s="3" t="str">
+        <v>Java开发</v>
+      </c>
+      <c r="B16" s="3" t="str">
+        <v>再找</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -1018,12 +912,12 @@
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>5</v>
+    <row r="17">
+      <c r="A17" s="3" t="str">
+        <v>前端工程师</v>
+      </c>
+      <c r="B17" s="3" t="str">
+        <v>在找</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -1044,12 +938,12 @@
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>5</v>
+    <row r="18">
+      <c r="A18" s="3" t="str">
+        <v>java开发</v>
+      </c>
+      <c r="B18" s="3" t="str">
+        <v>在找</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -1070,12 +964,12 @@
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>8</v>
+    <row r="19">
+      <c r="A19" s="3" t="str">
+        <v>AI+前端工程师</v>
+      </c>
+      <c r="B19" s="3" t="str">
+        <v>还没开始找</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -1096,12 +990,12 @@
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>5</v>
+    <row r="20">
+      <c r="A20" s="3" t="str">
+        <v>C++开发</v>
+      </c>
+      <c r="B20" s="3" t="str">
+        <v>在找</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -1122,12 +1016,12 @@
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>5</v>
+    <row r="21">
+      <c r="A21" s="3" t="str">
+        <v>Go</v>
+      </c>
+      <c r="B21" s="3" t="str">
+        <v>在找</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -1148,12 +1042,12 @@
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>5</v>
+    <row r="22">
+      <c r="A22" s="3" t="str">
+        <v>Go后端开发</v>
+      </c>
+      <c r="B22" s="3" t="str">
+        <v>在找</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1174,12 +1068,12 @@
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>8</v>
+    <row r="23">
+      <c r="A23" s="3" t="str">
+        <v>AI+后端工程师</v>
+      </c>
+      <c r="B23" s="3" t="str">
+        <v>还没开始找</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1200,12 +1094,12 @@
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>5</v>
+    <row r="24">
+      <c r="A24" s="3" t="str">
+        <v>linux运维</v>
+      </c>
+      <c r="B24" s="3" t="str">
+        <v>在找</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1226,12 +1120,12 @@
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>5</v>
+    <row r="25">
+      <c r="A25" s="3" t="str">
+        <v>前端工程师</v>
+      </c>
+      <c r="B25" s="3" t="str">
+        <v>在找</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1252,12 +1146,12 @@
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>8</v>
+    <row r="26">
+      <c r="A26" s="3" t="str">
+        <v>前端工程师</v>
+      </c>
+      <c r="B26" s="3" t="str">
+        <v>还没开始找</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1278,12 +1172,12 @@
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>5</v>
+    <row r="27">
+      <c r="A27" s="3" t="str">
+        <v>java开发</v>
+      </c>
+      <c r="B27" s="3" t="str">
+        <v>在找</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1304,12 +1198,12 @@
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>24</v>
+    <row r="28">
+      <c r="A28" s="3" t="str">
+        <v>AI+嵌入式</v>
+      </c>
+      <c r="B28" s="3" t="str">
+        <v>再找</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1330,12 +1224,12 @@
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>5</v>
+    <row r="29">
+      <c r="A29" s="3" t="str">
+        <v>财务主管</v>
+      </c>
+      <c r="B29" s="3" t="str">
+        <v>在找</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1356,12 +1250,12 @@
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>34</v>
+    <row r="30">
+      <c r="A30" s="3" t="str">
+        <v>后端开发</v>
+      </c>
+      <c r="B30" s="3" t="str">
+        <v>在学习的路上</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1382,12 +1276,12 @@
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>5</v>
+    <row r="31">
+      <c r="A31" s="3" t="str">
+        <v>去年7月用这个项目找到了第一份工作，现在再次回来，希望跳槽找一份AI售前的工作</v>
+      </c>
+      <c r="B31" s="3" t="str">
+        <v>在找</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1408,12 +1302,12 @@
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>5</v>
+    <row r="32">
+      <c r="A32" s="3" t="str">
+        <v>前端工程师</v>
+      </c>
+      <c r="B32" s="3" t="str">
+        <v>在找</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1434,12 +1328,12 @@
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>36</v>
+    <row r="33">
+      <c r="A33" s="3" t="str">
+        <v>Java开发</v>
+      </c>
+      <c r="B33" s="3" t="str">
+        <v>准备跳槽</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1460,12 +1354,12 @@
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>38</v>
+    <row r="34">
+      <c r="A34" s="3" t="str">
+        <v>Java开发，有完善的晋升制度</v>
+      </c>
+      <c r="B34" s="3" t="str">
+        <v>准备跳槽</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1486,9 +1380,13 @@
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
+    <row r="35">
+      <c r="A35" s="3" t="str">
+        <v>前端开发</v>
+      </c>
+      <c r="B35" s="3" t="str">
+        <v>在找</v>
+      </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -1508,9 +1406,13 @@
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
+    <row r="36">
+      <c r="A36" s="3" t="str">
+        <v>java开发</v>
+      </c>
+      <c r="B36" s="3" t="str">
+        <v>在找</v>
+      </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -1530,9 +1432,13 @@
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
+    <row r="37">
+      <c r="A37" s="3" t="str">
+        <v>Java开发</v>
+      </c>
+      <c r="B37" s="3" t="str">
+        <v>正在找</v>
+      </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -1552,9 +1458,13 @@
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
+    <row r="38">
+      <c r="A38" s="3" t="str">
+        <v>Java+AI</v>
+      </c>
+      <c r="B38" s="3" t="str">
+        <v>在找</v>
+      </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -1574,31 +1484,39 @@
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="1"/>
-      <c r="Q39" s="1"/>
-      <c r="R39" s="1"/>
-      <c r="S39" s="1"/>
-      <c r="T39" s="1"/>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
+    <row r="39">
+      <c r="A39" s="4" t="str">
+        <v>AI+后端工程师</v>
+      </c>
+      <c r="B39" s="3" t="str">
+        <v>在找</v>
+      </c>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="5"/>
+      <c r="Q39" s="5"/>
+      <c r="R39" s="5"/>
+      <c r="S39" s="5"/>
+      <c r="T39" s="5"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="3" t="str">
+        <v>java开发</v>
+      </c>
+      <c r="B40" s="3" t="str">
+        <v>在找</v>
+      </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -1618,9 +1536,9 @@
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
+    <row r="41">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -1640,9 +1558,9 @@
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
+    <row r="42">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -1662,9 +1580,9 @@
       <c r="S42" s="1"/>
       <c r="T42" s="1"/>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
+    <row r="43">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -1684,9 +1602,9 @@
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
+    <row r="44">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -1706,9 +1624,9 @@
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
+    <row r="45">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -1728,9 +1646,9 @@
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
+    <row r="46">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -1750,9 +1668,9 @@
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
+    <row r="47">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -1772,9 +1690,9 @@
       <c r="S47" s="1"/>
       <c r="T47" s="1"/>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
+    <row r="48">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -1794,9 +1712,9 @@
       <c r="S48" s="1"/>
       <c r="T48" s="1"/>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
+    <row r="49">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -1816,9 +1734,9 @@
       <c r="S49" s="1"/>
       <c r="T49" s="1"/>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
+    <row r="50">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -1838,9 +1756,9 @@
       <c r="S50" s="1"/>
       <c r="T50" s="1"/>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
+    <row r="51">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -1860,9 +1778,9 @@
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
+    <row r="52">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -1882,9 +1800,9 @@
       <c r="S52" s="1"/>
       <c r="T52" s="1"/>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
+    <row r="53">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -1904,9 +1822,9 @@
       <c r="S53" s="1"/>
       <c r="T53" s="1"/>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
+    <row r="54">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -1926,9 +1844,9 @@
       <c r="S54" s="1"/>
       <c r="T54" s="1"/>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
+    <row r="55">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -1948,9 +1866,9 @@
       <c r="S55" s="1"/>
       <c r="T55" s="1"/>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
+    <row r="56">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -1970,9 +1888,9 @@
       <c r="S56" s="1"/>
       <c r="T56" s="1"/>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
+    <row r="57">
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
@@ -1992,9 +1910,9 @@
       <c r="S57" s="1"/>
       <c r="T57" s="1"/>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
+    <row r="58">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
@@ -2014,9 +1932,9 @@
       <c r="S58" s="1"/>
       <c r="T58" s="1"/>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
+    <row r="59">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
@@ -2036,9 +1954,9 @@
       <c r="S59" s="1"/>
       <c r="T59" s="1"/>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A60" s="2"/>
-      <c r="B60" s="2"/>
+    <row r="60">
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
@@ -2058,9 +1976,9 @@
       <c r="S60" s="1"/>
       <c r="T60" s="1"/>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
+    <row r="61">
+      <c r="A61" s="3"/>
+      <c r="B61" s="3"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
@@ -2080,9 +1998,9 @@
       <c r="S61" s="1"/>
       <c r="T61" s="1"/>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A62" s="2"/>
-      <c r="B62" s="2"/>
+    <row r="62">
+      <c r="A62" s="3"/>
+      <c r="B62" s="3"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
@@ -2102,9 +2020,9 @@
       <c r="S62" s="1"/>
       <c r="T62" s="1"/>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A63" s="2"/>
-      <c r="B63" s="2"/>
+    <row r="63">
+      <c r="A63" s="3"/>
+      <c r="B63" s="3"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
@@ -2124,9 +2042,9 @@
       <c r="S63" s="1"/>
       <c r="T63" s="1"/>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A64" s="2"/>
-      <c r="B64" s="2"/>
+    <row r="64">
+      <c r="A64" s="3"/>
+      <c r="B64" s="3"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
@@ -2146,9 +2064,9 @@
       <c r="S64" s="1"/>
       <c r="T64" s="1"/>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A65" s="2"/>
-      <c r="B65" s="2"/>
+    <row r="65">
+      <c r="A65" s="3"/>
+      <c r="B65" s="3"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
@@ -2168,9 +2086,9 @@
       <c r="S65" s="1"/>
       <c r="T65" s="1"/>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A66" s="2"/>
-      <c r="B66" s="2"/>
+    <row r="66">
+      <c r="A66" s="3"/>
+      <c r="B66" s="3"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
@@ -2190,9 +2108,9 @@
       <c r="S66" s="1"/>
       <c r="T66" s="1"/>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A67" s="2"/>
-      <c r="B67" s="2"/>
+    <row r="67">
+      <c r="A67" s="3"/>
+      <c r="B67" s="3"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
@@ -2212,9 +2130,9 @@
       <c r="S67" s="1"/>
       <c r="T67" s="1"/>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A68" s="2"/>
-      <c r="B68" s="2"/>
+    <row r="68">
+      <c r="A68" s="3"/>
+      <c r="B68" s="3"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
@@ -2234,9 +2152,9 @@
       <c r="S68" s="1"/>
       <c r="T68" s="1"/>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A69" s="2"/>
-      <c r="B69" s="2"/>
+    <row r="69">
+      <c r="A69" s="3"/>
+      <c r="B69" s="3"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
@@ -2256,9 +2174,9 @@
       <c r="S69" s="1"/>
       <c r="T69" s="1"/>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A70" s="2"/>
-      <c r="B70" s="2"/>
+    <row r="70">
+      <c r="A70" s="3"/>
+      <c r="B70" s="3"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
@@ -2278,9 +2196,9 @@
       <c r="S70" s="1"/>
       <c r="T70" s="1"/>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A71" s="2"/>
-      <c r="B71" s="2"/>
+    <row r="71">
+      <c r="A71" s="3"/>
+      <c r="B71" s="3"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
@@ -2300,9 +2218,9 @@
       <c r="S71" s="1"/>
       <c r="T71" s="1"/>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A72" s="2"/>
-      <c r="B72" s="2"/>
+    <row r="72">
+      <c r="A72" s="3"/>
+      <c r="B72" s="3"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
@@ -2322,9 +2240,9 @@
       <c r="S72" s="1"/>
       <c r="T72" s="1"/>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A73" s="2"/>
-      <c r="B73" s="2"/>
+    <row r="73">
+      <c r="A73" s="3"/>
+      <c r="B73" s="3"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
@@ -2344,9 +2262,9 @@
       <c r="S73" s="1"/>
       <c r="T73" s="1"/>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A74" s="2"/>
-      <c r="B74" s="2"/>
+    <row r="74">
+      <c r="A74" s="3"/>
+      <c r="B74" s="3"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
@@ -2366,9 +2284,9 @@
       <c r="S74" s="1"/>
       <c r="T74" s="1"/>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A75" s="2"/>
-      <c r="B75" s="2"/>
+    <row r="75">
+      <c r="A75" s="3"/>
+      <c r="B75" s="3"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
@@ -2388,9 +2306,9 @@
       <c r="S75" s="1"/>
       <c r="T75" s="1"/>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A76" s="2"/>
-      <c r="B76" s="2"/>
+    <row r="76">
+      <c r="A76" s="3"/>
+      <c r="B76" s="3"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
@@ -2410,9 +2328,9 @@
       <c r="S76" s="1"/>
       <c r="T76" s="1"/>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A77" s="2"/>
-      <c r="B77" s="2"/>
+    <row r="77">
+      <c r="A77" s="3"/>
+      <c r="B77" s="3"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
@@ -2432,9 +2350,9 @@
       <c r="S77" s="1"/>
       <c r="T77" s="1"/>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A78" s="2"/>
-      <c r="B78" s="2"/>
+    <row r="78">
+      <c r="A78" s="3"/>
+      <c r="B78" s="3"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
@@ -2454,9 +2372,9 @@
       <c r="S78" s="1"/>
       <c r="T78" s="1"/>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A79" s="2"/>
-      <c r="B79" s="2"/>
+    <row r="79">
+      <c r="A79" s="3"/>
+      <c r="B79" s="3"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
@@ -2476,9 +2394,9 @@
       <c r="S79" s="1"/>
       <c r="T79" s="1"/>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A80" s="2"/>
-      <c r="B80" s="2"/>
+    <row r="80">
+      <c r="A80" s="3"/>
+      <c r="B80" s="3"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
@@ -2498,9 +2416,9 @@
       <c r="S80" s="1"/>
       <c r="T80" s="1"/>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A81" s="2"/>
-      <c r="B81" s="2"/>
+    <row r="81">
+      <c r="A81" s="3"/>
+      <c r="B81" s="3"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
@@ -2520,9 +2438,9 @@
       <c r="S81" s="1"/>
       <c r="T81" s="1"/>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A82" s="2"/>
-      <c r="B82" s="2"/>
+    <row r="82">
+      <c r="A82" s="3"/>
+      <c r="B82" s="3"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
@@ -2542,9 +2460,9 @@
       <c r="S82" s="1"/>
       <c r="T82" s="1"/>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A83" s="2"/>
-      <c r="B83" s="2"/>
+    <row r="83">
+      <c r="A83" s="3"/>
+      <c r="B83" s="3"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
@@ -2564,9 +2482,9 @@
       <c r="S83" s="1"/>
       <c r="T83" s="1"/>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A84" s="2"/>
-      <c r="B84" s="2"/>
+    <row r="84">
+      <c r="A84" s="3"/>
+      <c r="B84" s="3"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
@@ -2586,9 +2504,9 @@
       <c r="S84" s="1"/>
       <c r="T84" s="1"/>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A85" s="2"/>
-      <c r="B85" s="2"/>
+    <row r="85">
+      <c r="A85" s="3"/>
+      <c r="B85" s="3"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
@@ -2608,9 +2526,9 @@
       <c r="S85" s="1"/>
       <c r="T85" s="1"/>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A86" s="2"/>
-      <c r="B86" s="2"/>
+    <row r="86">
+      <c r="A86" s="3"/>
+      <c r="B86" s="3"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
@@ -2630,9 +2548,9 @@
       <c r="S86" s="1"/>
       <c r="T86" s="1"/>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A87" s="2"/>
-      <c r="B87" s="2"/>
+    <row r="87">
+      <c r="A87" s="3"/>
+      <c r="B87" s="3"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
@@ -2652,9 +2570,9 @@
       <c r="S87" s="1"/>
       <c r="T87" s="1"/>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A88" s="2"/>
-      <c r="B88" s="2"/>
+    <row r="88">
+      <c r="A88" s="3"/>
+      <c r="B88" s="3"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
@@ -2674,9 +2592,9 @@
       <c r="S88" s="1"/>
       <c r="T88" s="1"/>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A89" s="2"/>
-      <c r="B89" s="2"/>
+    <row r="89">
+      <c r="A89" s="3"/>
+      <c r="B89" s="3"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
@@ -2696,9 +2614,9 @@
       <c r="S89" s="1"/>
       <c r="T89" s="1"/>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A90" s="2"/>
-      <c r="B90" s="2"/>
+    <row r="90">
+      <c r="A90" s="3"/>
+      <c r="B90" s="3"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
@@ -2718,9 +2636,9 @@
       <c r="S90" s="1"/>
       <c r="T90" s="1"/>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A91" s="2"/>
-      <c r="B91" s="2"/>
+    <row r="91">
+      <c r="A91" s="3"/>
+      <c r="B91" s="3"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
@@ -2740,9 +2658,9 @@
       <c r="S91" s="1"/>
       <c r="T91" s="1"/>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A92" s="2"/>
-      <c r="B92" s="2"/>
+    <row r="92">
+      <c r="A92" s="3"/>
+      <c r="B92" s="3"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
@@ -2762,9 +2680,9 @@
       <c r="S92" s="1"/>
       <c r="T92" s="1"/>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A93" s="2"/>
-      <c r="B93" s="2"/>
+    <row r="93">
+      <c r="A93" s="3"/>
+      <c r="B93" s="3"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
@@ -2784,9 +2702,9 @@
       <c r="S93" s="1"/>
       <c r="T93" s="1"/>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A94" s="2"/>
-      <c r="B94" s="2"/>
+    <row r="94">
+      <c r="A94" s="3"/>
+      <c r="B94" s="3"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
@@ -2806,9 +2724,9 @@
       <c r="S94" s="1"/>
       <c r="T94" s="1"/>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A95" s="2"/>
-      <c r="B95" s="2"/>
+    <row r="95">
+      <c r="A95" s="3"/>
+      <c r="B95" s="3"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
@@ -2828,9 +2746,9 @@
       <c r="S95" s="1"/>
       <c r="T95" s="1"/>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A96" s="2"/>
-      <c r="B96" s="2"/>
+    <row r="96">
+      <c r="A96" s="3"/>
+      <c r="B96" s="3"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
@@ -2850,9 +2768,9 @@
       <c r="S96" s="1"/>
       <c r="T96" s="1"/>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A97" s="2"/>
-      <c r="B97" s="2"/>
+    <row r="97">
+      <c r="A97" s="3"/>
+      <c r="B97" s="3"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
@@ -2872,9 +2790,9 @@
       <c r="S97" s="1"/>
       <c r="T97" s="1"/>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A98" s="2"/>
-      <c r="B98" s="2"/>
+    <row r="98">
+      <c r="A98" s="3"/>
+      <c r="B98" s="3"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
@@ -2894,9 +2812,9 @@
       <c r="S98" s="1"/>
       <c r="T98" s="1"/>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A99" s="2"/>
-      <c r="B99" s="2"/>
+    <row r="99">
+      <c r="A99" s="3"/>
+      <c r="B99" s="3"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
@@ -2916,9 +2834,9 @@
       <c r="S99" s="1"/>
       <c r="T99" s="1"/>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A100" s="2"/>
-      <c r="B100" s="2"/>
+    <row r="100">
+      <c r="A100" s="3"/>
+      <c r="B100" s="3"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
@@ -2938,9 +2856,9 @@
       <c r="S100" s="1"/>
       <c r="T100" s="1"/>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A101" s="2"/>
-      <c r="B101" s="2"/>
+    <row r="101">
+      <c r="A101" s="3"/>
+      <c r="B101" s="3"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
@@ -2960,9 +2878,9 @@
       <c r="S101" s="1"/>
       <c r="T101" s="1"/>
     </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A102" s="2"/>
-      <c r="B102" s="2"/>
+    <row r="102">
+      <c r="A102" s="3"/>
+      <c r="B102" s="3"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
@@ -2982,9 +2900,9 @@
       <c r="S102" s="1"/>
       <c r="T102" s="1"/>
     </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A103" s="2"/>
-      <c r="B103" s="2"/>
+    <row r="103">
+      <c r="A103" s="3"/>
+      <c r="B103" s="3"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
@@ -3004,9 +2922,9 @@
       <c r="S103" s="1"/>
       <c r="T103" s="1"/>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A104" s="2"/>
-      <c r="B104" s="2"/>
+    <row r="104">
+      <c r="A104" s="3"/>
+      <c r="B104" s="3"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
@@ -3026,9 +2944,9 @@
       <c r="S104" s="1"/>
       <c r="T104" s="1"/>
     </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A105" s="2"/>
-      <c r="B105" s="2"/>
+    <row r="105">
+      <c r="A105" s="3"/>
+      <c r="B105" s="3"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
@@ -3048,9 +2966,9 @@
       <c r="S105" s="1"/>
       <c r="T105" s="1"/>
     </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A106" s="2"/>
-      <c r="B106" s="2"/>
+    <row r="106">
+      <c r="A106" s="3"/>
+      <c r="B106" s="3"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
@@ -3070,9 +2988,9 @@
       <c r="S106" s="1"/>
       <c r="T106" s="1"/>
     </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A107" s="2"/>
-      <c r="B107" s="2"/>
+    <row r="107">
+      <c r="A107" s="3"/>
+      <c r="B107" s="3"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
@@ -3092,9 +3010,9 @@
       <c r="S107" s="1"/>
       <c r="T107" s="1"/>
     </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A108" s="2"/>
-      <c r="B108" s="2"/>
+    <row r="108">
+      <c r="A108" s="3"/>
+      <c r="B108" s="3"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
@@ -3114,9 +3032,9 @@
       <c r="S108" s="1"/>
       <c r="T108" s="1"/>
     </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A109" s="2"/>
-      <c r="B109" s="2"/>
+    <row r="109">
+      <c r="A109" s="3"/>
+      <c r="B109" s="3"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
@@ -3136,9 +3054,9 @@
       <c r="S109" s="1"/>
       <c r="T109" s="1"/>
     </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A110" s="2"/>
-      <c r="B110" s="2"/>
+    <row r="110">
+      <c r="A110" s="3"/>
+      <c r="B110" s="3"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
@@ -3158,9 +3076,9 @@
       <c r="S110" s="1"/>
       <c r="T110" s="1"/>
     </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A111" s="2"/>
-      <c r="B111" s="2"/>
+    <row r="111">
+      <c r="A111" s="3"/>
+      <c r="B111" s="3"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
@@ -3180,9 +3098,9 @@
       <c r="S111" s="1"/>
       <c r="T111" s="1"/>
     </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A112" s="2"/>
-      <c r="B112" s="2"/>
+    <row r="112">
+      <c r="A112" s="3"/>
+      <c r="B112" s="3"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
@@ -3202,9 +3120,9 @@
       <c r="S112" s="1"/>
       <c r="T112" s="1"/>
     </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A113" s="2"/>
-      <c r="B113" s="2"/>
+    <row r="113">
+      <c r="A113" s="3"/>
+      <c r="B113" s="3"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
@@ -3224,9 +3142,9 @@
       <c r="S113" s="1"/>
       <c r="T113" s="1"/>
     </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A114" s="2"/>
-      <c r="B114" s="2"/>
+    <row r="114">
+      <c r="A114" s="3"/>
+      <c r="B114" s="3"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
@@ -3246,9 +3164,9 @@
       <c r="S114" s="1"/>
       <c r="T114" s="1"/>
     </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A115" s="2"/>
-      <c r="B115" s="2"/>
+    <row r="115">
+      <c r="A115" s="3"/>
+      <c r="B115" s="3"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
@@ -3268,9 +3186,9 @@
       <c r="S115" s="1"/>
       <c r="T115" s="1"/>
     </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A116" s="2"/>
-      <c r="B116" s="2"/>
+    <row r="116">
+      <c r="A116" s="3"/>
+      <c r="B116" s="3"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
@@ -3290,9 +3208,9 @@
       <c r="S116" s="1"/>
       <c r="T116" s="1"/>
     </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A117" s="2"/>
-      <c r="B117" s="2"/>
+    <row r="117">
+      <c r="A117" s="3"/>
+      <c r="B117" s="3"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
@@ -3312,9 +3230,9 @@
       <c r="S117" s="1"/>
       <c r="T117" s="1"/>
     </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A118" s="2"/>
-      <c r="B118" s="2"/>
+    <row r="118">
+      <c r="A118" s="3"/>
+      <c r="B118" s="3"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
@@ -3334,9 +3252,9 @@
       <c r="S118" s="1"/>
       <c r="T118" s="1"/>
     </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A119" s="2"/>
-      <c r="B119" s="2"/>
+    <row r="119">
+      <c r="A119" s="3"/>
+      <c r="B119" s="3"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
@@ -3356,9 +3274,9 @@
       <c r="S119" s="1"/>
       <c r="T119" s="1"/>
     </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A120" s="2"/>
-      <c r="B120" s="2"/>
+    <row r="120">
+      <c r="A120" s="3"/>
+      <c r="B120" s="3"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
@@ -3378,9 +3296,9 @@
       <c r="S120" s="1"/>
       <c r="T120" s="1"/>
     </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A121" s="2"/>
-      <c r="B121" s="2"/>
+    <row r="121">
+      <c r="A121" s="3"/>
+      <c r="B121" s="3"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
@@ -3400,9 +3318,9 @@
       <c r="S121" s="1"/>
       <c r="T121" s="1"/>
     </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A122" s="2"/>
-      <c r="B122" s="2"/>
+    <row r="122">
+      <c r="A122" s="3"/>
+      <c r="B122" s="3"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
@@ -3422,9 +3340,9 @@
       <c r="S122" s="1"/>
       <c r="T122" s="1"/>
     </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A123" s="2"/>
-      <c r="B123" s="2"/>
+    <row r="123">
+      <c r="A123" s="3"/>
+      <c r="B123" s="3"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
@@ -3444,9 +3362,9 @@
       <c r="S123" s="1"/>
       <c r="T123" s="1"/>
     </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A124" s="2"/>
-      <c r="B124" s="2"/>
+    <row r="124">
+      <c r="A124" s="3"/>
+      <c r="B124" s="3"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
@@ -3466,9 +3384,9 @@
       <c r="S124" s="1"/>
       <c r="T124" s="1"/>
     </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A125" s="2"/>
-      <c r="B125" s="2"/>
+    <row r="125">
+      <c r="A125" s="3"/>
+      <c r="B125" s="3"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
@@ -3488,9 +3406,9 @@
       <c r="S125" s="1"/>
       <c r="T125" s="1"/>
     </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A126" s="2"/>
-      <c r="B126" s="2"/>
+    <row r="126">
+      <c r="A126" s="3"/>
+      <c r="B126" s="3"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
@@ -3510,9 +3428,9 @@
       <c r="S126" s="1"/>
       <c r="T126" s="1"/>
     </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A127" s="2"/>
-      <c r="B127" s="2"/>
+    <row r="127">
+      <c r="A127" s="3"/>
+      <c r="B127" s="3"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
@@ -3532,9 +3450,9 @@
       <c r="S127" s="1"/>
       <c r="T127" s="1"/>
     </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A128" s="2"/>
-      <c r="B128" s="2"/>
+    <row r="128">
+      <c r="A128" s="3"/>
+      <c r="B128" s="3"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
@@ -3554,9 +3472,9 @@
       <c r="S128" s="1"/>
       <c r="T128" s="1"/>
     </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A129" s="2"/>
-      <c r="B129" s="2"/>
+    <row r="129">
+      <c r="A129" s="3"/>
+      <c r="B129" s="3"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
@@ -3576,9 +3494,9 @@
       <c r="S129" s="1"/>
       <c r="T129" s="1"/>
     </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A130" s="2"/>
-      <c r="B130" s="2"/>
+    <row r="130">
+      <c r="A130" s="3"/>
+      <c r="B130" s="3"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
@@ -3598,9 +3516,9 @@
       <c r="S130" s="1"/>
       <c r="T130" s="1"/>
     </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A131" s="2"/>
-      <c r="B131" s="2"/>
+    <row r="131">
+      <c r="A131" s="3"/>
+      <c r="B131" s="3"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
@@ -3620,9 +3538,9 @@
       <c r="S131" s="1"/>
       <c r="T131" s="1"/>
     </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A132" s="2"/>
-      <c r="B132" s="2"/>
+    <row r="132">
+      <c r="A132" s="3"/>
+      <c r="B132" s="3"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
@@ -3642,9 +3560,9 @@
       <c r="S132" s="1"/>
       <c r="T132" s="1"/>
     </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A133" s="2"/>
-      <c r="B133" s="2"/>
+    <row r="133">
+      <c r="A133" s="3"/>
+      <c r="B133" s="3"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
@@ -3664,9 +3582,9 @@
       <c r="S133" s="1"/>
       <c r="T133" s="1"/>
     </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A134" s="2"/>
-      <c r="B134" s="2"/>
+    <row r="134">
+      <c r="A134" s="3"/>
+      <c r="B134" s="3"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
@@ -3686,9 +3604,9 @@
       <c r="S134" s="1"/>
       <c r="T134" s="1"/>
     </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A135" s="2"/>
-      <c r="B135" s="2"/>
+    <row r="135">
+      <c r="A135" s="3"/>
+      <c r="B135" s="3"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
@@ -3708,9 +3626,9 @@
       <c r="S135" s="1"/>
       <c r="T135" s="1"/>
     </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A136" s="2"/>
-      <c r="B136" s="2"/>
+    <row r="136">
+      <c r="A136" s="3"/>
+      <c r="B136" s="3"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
@@ -3730,9 +3648,9 @@
       <c r="S136" s="1"/>
       <c r="T136" s="1"/>
     </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A137" s="2"/>
-      <c r="B137" s="2"/>
+    <row r="137">
+      <c r="A137" s="3"/>
+      <c r="B137" s="3"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
@@ -3752,9 +3670,9 @@
       <c r="S137" s="1"/>
       <c r="T137" s="1"/>
     </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A138" s="2"/>
-      <c r="B138" s="2"/>
+    <row r="138">
+      <c r="A138" s="3"/>
+      <c r="B138" s="3"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
@@ -3774,9 +3692,9 @@
       <c r="S138" s="1"/>
       <c r="T138" s="1"/>
     </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A139" s="2"/>
-      <c r="B139" s="2"/>
+    <row r="139">
+      <c r="A139" s="3"/>
+      <c r="B139" s="3"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
@@ -3796,9 +3714,9 @@
       <c r="S139" s="1"/>
       <c r="T139" s="1"/>
     </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A140" s="2"/>
-      <c r="B140" s="2"/>
+    <row r="140">
+      <c r="A140" s="3"/>
+      <c r="B140" s="3"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
@@ -3818,9 +3736,9 @@
       <c r="S140" s="1"/>
       <c r="T140" s="1"/>
     </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A141" s="2"/>
-      <c r="B141" s="2"/>
+    <row r="141">
+      <c r="A141" s="3"/>
+      <c r="B141" s="3"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
@@ -3840,9 +3758,9 @@
       <c r="S141" s="1"/>
       <c r="T141" s="1"/>
     </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A142" s="2"/>
-      <c r="B142" s="2"/>
+    <row r="142">
+      <c r="A142" s="3"/>
+      <c r="B142" s="3"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
@@ -3862,9 +3780,9 @@
       <c r="S142" s="1"/>
       <c r="T142" s="1"/>
     </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A143" s="2"/>
-      <c r="B143" s="2"/>
+    <row r="143">
+      <c r="A143" s="3"/>
+      <c r="B143" s="3"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
@@ -3884,9 +3802,9 @@
       <c r="S143" s="1"/>
       <c r="T143" s="1"/>
     </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A144" s="2"/>
-      <c r="B144" s="2"/>
+    <row r="144">
+      <c r="A144" s="3"/>
+      <c r="B144" s="3"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
@@ -3906,9 +3824,9 @@
       <c r="S144" s="1"/>
       <c r="T144" s="1"/>
     </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A145" s="2"/>
-      <c r="B145" s="2"/>
+    <row r="145">
+      <c r="A145" s="3"/>
+      <c r="B145" s="3"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
@@ -3928,9 +3846,9 @@
       <c r="S145" s="1"/>
       <c r="T145" s="1"/>
     </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A146" s="2"/>
-      <c r="B146" s="2"/>
+    <row r="146">
+      <c r="A146" s="3"/>
+      <c r="B146" s="3"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
@@ -3950,9 +3868,9 @@
       <c r="S146" s="1"/>
       <c r="T146" s="1"/>
     </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A147" s="2"/>
-      <c r="B147" s="2"/>
+    <row r="147">
+      <c r="A147" s="3"/>
+      <c r="B147" s="3"/>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
@@ -3972,9 +3890,9 @@
       <c r="S147" s="1"/>
       <c r="T147" s="1"/>
     </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A148" s="2"/>
-      <c r="B148" s="2"/>
+    <row r="148">
+      <c r="A148" s="3"/>
+      <c r="B148" s="3"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
@@ -3994,9 +3912,9 @@
       <c r="S148" s="1"/>
       <c r="T148" s="1"/>
     </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A149" s="2"/>
-      <c r="B149" s="2"/>
+    <row r="149">
+      <c r="A149" s="3"/>
+      <c r="B149" s="3"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
@@ -4016,9 +3934,9 @@
       <c r="S149" s="1"/>
       <c r="T149" s="1"/>
     </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A150" s="2"/>
-      <c r="B150" s="2"/>
+    <row r="150">
+      <c r="A150" s="3"/>
+      <c r="B150" s="3"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
@@ -4038,9 +3956,9 @@
       <c r="S150" s="1"/>
       <c r="T150" s="1"/>
     </row>
-    <row r="151" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A151" s="2"/>
-      <c r="B151" s="2"/>
+    <row r="151">
+      <c r="A151" s="3"/>
+      <c r="B151" s="3"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
@@ -4060,9 +3978,9 @@
       <c r="S151" s="1"/>
       <c r="T151" s="1"/>
     </row>
-    <row r="152" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A152" s="2"/>
-      <c r="B152" s="2"/>
+    <row r="152">
+      <c r="A152" s="3"/>
+      <c r="B152" s="3"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
@@ -4082,9 +4000,9 @@
       <c r="S152" s="1"/>
       <c r="T152" s="1"/>
     </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A153" s="2"/>
-      <c r="B153" s="2"/>
+    <row r="153">
+      <c r="A153" s="3"/>
+      <c r="B153" s="3"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
@@ -4104,9 +4022,9 @@
       <c r="S153" s="1"/>
       <c r="T153" s="1"/>
     </row>
-    <row r="154" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A154" s="2"/>
-      <c r="B154" s="2"/>
+    <row r="154">
+      <c r="A154" s="3"/>
+      <c r="B154" s="3"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
@@ -4126,9 +4044,9 @@
       <c r="S154" s="1"/>
       <c r="T154" s="1"/>
     </row>
-    <row r="155" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A155" s="2"/>
-      <c r="B155" s="2"/>
+    <row r="155">
+      <c r="A155" s="3"/>
+      <c r="B155" s="3"/>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
@@ -4148,9 +4066,9 @@
       <c r="S155" s="1"/>
       <c r="T155" s="1"/>
     </row>
-    <row r="156" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A156" s="2"/>
-      <c r="B156" s="2"/>
+    <row r="156">
+      <c r="A156" s="3"/>
+      <c r="B156" s="3"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
@@ -4170,9 +4088,9 @@
       <c r="S156" s="1"/>
       <c r="T156" s="1"/>
     </row>
-    <row r="157" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A157" s="2"/>
-      <c r="B157" s="2"/>
+    <row r="157">
+      <c r="A157" s="3"/>
+      <c r="B157" s="3"/>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
@@ -4192,9 +4110,9 @@
       <c r="S157" s="1"/>
       <c r="T157" s="1"/>
     </row>
-    <row r="158" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A158" s="2"/>
-      <c r="B158" s="2"/>
+    <row r="158">
+      <c r="A158" s="3"/>
+      <c r="B158" s="3"/>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
       <c r="E158" s="1"/>
@@ -4214,9 +4132,9 @@
       <c r="S158" s="1"/>
       <c r="T158" s="1"/>
     </row>
-    <row r="159" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A159" s="2"/>
-      <c r="B159" s="2"/>
+    <row r="159">
+      <c r="A159" s="3"/>
+      <c r="B159" s="3"/>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
       <c r="E159" s="1"/>
@@ -4236,9 +4154,9 @@
       <c r="S159" s="1"/>
       <c r="T159" s="1"/>
     </row>
-    <row r="160" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A160" s="2"/>
-      <c r="B160" s="2"/>
+    <row r="160">
+      <c r="A160" s="3"/>
+      <c r="B160" s="3"/>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
       <c r="E160" s="1"/>
@@ -4258,9 +4176,9 @@
       <c r="S160" s="1"/>
       <c r="T160" s="1"/>
     </row>
-    <row r="161" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A161" s="2"/>
-      <c r="B161" s="2"/>
+    <row r="161">
+      <c r="A161" s="3"/>
+      <c r="B161" s="3"/>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
@@ -4280,9 +4198,9 @@
       <c r="S161" s="1"/>
       <c r="T161" s="1"/>
     </row>
-    <row r="162" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A162" s="2"/>
-      <c r="B162" s="2"/>
+    <row r="162">
+      <c r="A162" s="3"/>
+      <c r="B162" s="3"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
@@ -4302,9 +4220,9 @@
       <c r="S162" s="1"/>
       <c r="T162" s="1"/>
     </row>
-    <row r="163" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A163" s="2"/>
-      <c r="B163" s="2"/>
+    <row r="163">
+      <c r="A163" s="3"/>
+      <c r="B163" s="3"/>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
@@ -4324,9 +4242,9 @@
       <c r="S163" s="1"/>
       <c r="T163" s="1"/>
     </row>
-    <row r="164" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A164" s="2"/>
-      <c r="B164" s="2"/>
+    <row r="164">
+      <c r="A164" s="3"/>
+      <c r="B164" s="3"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
@@ -4346,9 +4264,9 @@
       <c r="S164" s="1"/>
       <c r="T164" s="1"/>
     </row>
-    <row r="165" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A165" s="2"/>
-      <c r="B165" s="2"/>
+    <row r="165">
+      <c r="A165" s="3"/>
+      <c r="B165" s="3"/>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
@@ -4368,9 +4286,9 @@
       <c r="S165" s="1"/>
       <c r="T165" s="1"/>
     </row>
-    <row r="166" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A166" s="2"/>
-      <c r="B166" s="2"/>
+    <row r="166">
+      <c r="A166" s="3"/>
+      <c r="B166" s="3"/>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
@@ -4390,9 +4308,9 @@
       <c r="S166" s="1"/>
       <c r="T166" s="1"/>
     </row>
-    <row r="167" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A167" s="2"/>
-      <c r="B167" s="2"/>
+    <row r="167">
+      <c r="A167" s="3"/>
+      <c r="B167" s="3"/>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
       <c r="E167" s="1"/>
@@ -4412,9 +4330,9 @@
       <c r="S167" s="1"/>
       <c r="T167" s="1"/>
     </row>
-    <row r="168" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A168" s="2"/>
-      <c r="B168" s="2"/>
+    <row r="168">
+      <c r="A168" s="3"/>
+      <c r="B168" s="3"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
       <c r="E168" s="1"/>
@@ -4434,9 +4352,9 @@
       <c r="S168" s="1"/>
       <c r="T168" s="1"/>
     </row>
-    <row r="169" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A169" s="2"/>
-      <c r="B169" s="2"/>
+    <row r="169">
+      <c r="A169" s="3"/>
+      <c r="B169" s="3"/>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
       <c r="E169" s="1"/>
@@ -4456,9 +4374,9 @@
       <c r="S169" s="1"/>
       <c r="T169" s="1"/>
     </row>
-    <row r="170" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A170" s="2"/>
-      <c r="B170" s="2"/>
+    <row r="170">
+      <c r="A170" s="3"/>
+      <c r="B170" s="3"/>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
       <c r="E170" s="1"/>
@@ -4478,9 +4396,9 @@
       <c r="S170" s="1"/>
       <c r="T170" s="1"/>
     </row>
-    <row r="171" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A171" s="2"/>
-      <c r="B171" s="2"/>
+    <row r="171">
+      <c r="A171" s="3"/>
+      <c r="B171" s="3"/>
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
       <c r="E171" s="1"/>
@@ -4500,9 +4418,9 @@
       <c r="S171" s="1"/>
       <c r="T171" s="1"/>
     </row>
-    <row r="172" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A172" s="2"/>
-      <c r="B172" s="2"/>
+    <row r="172">
+      <c r="A172" s="3"/>
+      <c r="B172" s="3"/>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
       <c r="E172" s="1"/>
@@ -4522,9 +4440,9 @@
       <c r="S172" s="1"/>
       <c r="T172" s="1"/>
     </row>
-    <row r="173" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A173" s="2"/>
-      <c r="B173" s="2"/>
+    <row r="173">
+      <c r="A173" s="3"/>
+      <c r="B173" s="3"/>
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
       <c r="E173" s="1"/>
@@ -4544,9 +4462,9 @@
       <c r="S173" s="1"/>
       <c r="T173" s="1"/>
     </row>
-    <row r="174" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A174" s="2"/>
-      <c r="B174" s="2"/>
+    <row r="174">
+      <c r="A174" s="3"/>
+      <c r="B174" s="3"/>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
       <c r="E174" s="1"/>
@@ -4566,9 +4484,9 @@
       <c r="S174" s="1"/>
       <c r="T174" s="1"/>
     </row>
-    <row r="175" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A175" s="2"/>
-      <c r="B175" s="2"/>
+    <row r="175">
+      <c r="A175" s="3"/>
+      <c r="B175" s="3"/>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
       <c r="E175" s="1"/>
@@ -4588,9 +4506,9 @@
       <c r="S175" s="1"/>
       <c r="T175" s="1"/>
     </row>
-    <row r="176" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A176" s="2"/>
-      <c r="B176" s="2"/>
+    <row r="176">
+      <c r="A176" s="3"/>
+      <c r="B176" s="3"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
       <c r="E176" s="1"/>
@@ -4610,9 +4528,9 @@
       <c r="S176" s="1"/>
       <c r="T176" s="1"/>
     </row>
-    <row r="177" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A177" s="2"/>
-      <c r="B177" s="2"/>
+    <row r="177">
+      <c r="A177" s="3"/>
+      <c r="B177" s="3"/>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
       <c r="E177" s="1"/>
@@ -4632,9 +4550,9 @@
       <c r="S177" s="1"/>
       <c r="T177" s="1"/>
     </row>
-    <row r="178" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A178" s="2"/>
-      <c r="B178" s="2"/>
+    <row r="178">
+      <c r="A178" s="3"/>
+      <c r="B178" s="3"/>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
       <c r="E178" s="1"/>
@@ -4654,9 +4572,9 @@
       <c r="S178" s="1"/>
       <c r="T178" s="1"/>
     </row>
-    <row r="179" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A179" s="2"/>
-      <c r="B179" s="2"/>
+    <row r="179">
+      <c r="A179" s="3"/>
+      <c r="B179" s="3"/>
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
       <c r="E179" s="1"/>
@@ -4676,9 +4594,9 @@
       <c r="S179" s="1"/>
       <c r="T179" s="1"/>
     </row>
-    <row r="180" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A180" s="2"/>
-      <c r="B180" s="2"/>
+    <row r="180">
+      <c r="A180" s="3"/>
+      <c r="B180" s="3"/>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
       <c r="E180" s="1"/>
@@ -4698,9 +4616,9 @@
       <c r="S180" s="1"/>
       <c r="T180" s="1"/>
     </row>
-    <row r="181" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A181" s="2"/>
-      <c r="B181" s="2"/>
+    <row r="181">
+      <c r="A181" s="3"/>
+      <c r="B181" s="3"/>
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
       <c r="E181" s="1"/>
@@ -4720,9 +4638,9 @@
       <c r="S181" s="1"/>
       <c r="T181" s="1"/>
     </row>
-    <row r="182" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A182" s="2"/>
-      <c r="B182" s="2"/>
+    <row r="182">
+      <c r="A182" s="3"/>
+      <c r="B182" s="3"/>
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
       <c r="E182" s="1"/>
@@ -4742,9 +4660,9 @@
       <c r="S182" s="1"/>
       <c r="T182" s="1"/>
     </row>
-    <row r="183" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A183" s="2"/>
-      <c r="B183" s="2"/>
+    <row r="183">
+      <c r="A183" s="3"/>
+      <c r="B183" s="3"/>
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
       <c r="E183" s="1"/>
@@ -4764,9 +4682,9 @@
       <c r="S183" s="1"/>
       <c r="T183" s="1"/>
     </row>
-    <row r="184" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A184" s="2"/>
-      <c r="B184" s="2"/>
+    <row r="184">
+      <c r="A184" s="3"/>
+      <c r="B184" s="3"/>
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
       <c r="E184" s="1"/>
@@ -4786,9 +4704,9 @@
       <c r="S184" s="1"/>
       <c r="T184" s="1"/>
     </row>
-    <row r="185" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A185" s="2"/>
-      <c r="B185" s="2"/>
+    <row r="185">
+      <c r="A185" s="3"/>
+      <c r="B185" s="3"/>
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
       <c r="E185" s="1"/>
@@ -4808,9 +4726,9 @@
       <c r="S185" s="1"/>
       <c r="T185" s="1"/>
     </row>
-    <row r="186" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A186" s="2"/>
-      <c r="B186" s="2"/>
+    <row r="186">
+      <c r="A186" s="3"/>
+      <c r="B186" s="3"/>
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
       <c r="E186" s="1"/>
@@ -4830,9 +4748,9 @@
       <c r="S186" s="1"/>
       <c r="T186" s="1"/>
     </row>
-    <row r="187" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A187" s="2"/>
-      <c r="B187" s="2"/>
+    <row r="187">
+      <c r="A187" s="3"/>
+      <c r="B187" s="3"/>
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
       <c r="E187" s="1"/>
@@ -4852,9 +4770,9 @@
       <c r="S187" s="1"/>
       <c r="T187" s="1"/>
     </row>
-    <row r="188" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A188" s="2"/>
-      <c r="B188" s="2"/>
+    <row r="188">
+      <c r="A188" s="3"/>
+      <c r="B188" s="3"/>
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
       <c r="E188" s="1"/>
@@ -4874,9 +4792,9 @@
       <c r="S188" s="1"/>
       <c r="T188" s="1"/>
     </row>
-    <row r="189" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A189" s="2"/>
-      <c r="B189" s="2"/>
+    <row r="189">
+      <c r="A189" s="3"/>
+      <c r="B189" s="3"/>
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
       <c r="E189" s="1"/>
@@ -4896,9 +4814,9 @@
       <c r="S189" s="1"/>
       <c r="T189" s="1"/>
     </row>
-    <row r="190" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A190" s="2"/>
-      <c r="B190" s="2"/>
+    <row r="190">
+      <c r="A190" s="3"/>
+      <c r="B190" s="3"/>
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
       <c r="E190" s="1"/>
@@ -4918,9 +4836,9 @@
       <c r="S190" s="1"/>
       <c r="T190" s="1"/>
     </row>
-    <row r="191" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A191" s="2"/>
-      <c r="B191" s="2"/>
+    <row r="191">
+      <c r="A191" s="3"/>
+      <c r="B191" s="3"/>
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
       <c r="E191" s="1"/>
@@ -4940,9 +4858,9 @@
       <c r="S191" s="1"/>
       <c r="T191" s="1"/>
     </row>
-    <row r="192" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A192" s="2"/>
-      <c r="B192" s="2"/>
+    <row r="192">
+      <c r="A192" s="3"/>
+      <c r="B192" s="3"/>
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
       <c r="E192" s="1"/>
@@ -4962,9 +4880,9 @@
       <c r="S192" s="1"/>
       <c r="T192" s="1"/>
     </row>
-    <row r="193" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A193" s="2"/>
-      <c r="B193" s="2"/>
+    <row r="193">
+      <c r="A193" s="3"/>
+      <c r="B193" s="3"/>
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
       <c r="E193" s="1"/>
@@ -4984,9 +4902,9 @@
       <c r="S193" s="1"/>
       <c r="T193" s="1"/>
     </row>
-    <row r="194" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A194" s="2"/>
-      <c r="B194" s="2"/>
+    <row r="194">
+      <c r="A194" s="3"/>
+      <c r="B194" s="3"/>
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
       <c r="E194" s="1"/>
@@ -5006,9 +4924,9 @@
       <c r="S194" s="1"/>
       <c r="T194" s="1"/>
     </row>
-    <row r="195" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A195" s="2"/>
-      <c r="B195" s="2"/>
+    <row r="195">
+      <c r="A195" s="3"/>
+      <c r="B195" s="3"/>
       <c r="C195" s="1"/>
       <c r="D195" s="1"/>
       <c r="E195" s="1"/>
@@ -5028,9 +4946,9 @@
       <c r="S195" s="1"/>
       <c r="T195" s="1"/>
     </row>
-    <row r="196" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A196" s="2"/>
-      <c r="B196" s="2"/>
+    <row r="196">
+      <c r="A196" s="3"/>
+      <c r="B196" s="3"/>
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
       <c r="E196" s="1"/>
@@ -5050,9 +4968,9 @@
       <c r="S196" s="1"/>
       <c r="T196" s="1"/>
     </row>
-    <row r="197" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A197" s="2"/>
-      <c r="B197" s="2"/>
+    <row r="197">
+      <c r="A197" s="3"/>
+      <c r="B197" s="3"/>
       <c r="C197" s="1"/>
       <c r="D197" s="1"/>
       <c r="E197" s="1"/>
@@ -5072,9 +4990,9 @@
       <c r="S197" s="1"/>
       <c r="T197" s="1"/>
     </row>
-    <row r="198" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A198" s="2"/>
-      <c r="B198" s="2"/>
+    <row r="198">
+      <c r="A198" s="3"/>
+      <c r="B198" s="3"/>
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
       <c r="E198" s="1"/>
@@ -5094,9 +5012,9 @@
       <c r="S198" s="1"/>
       <c r="T198" s="1"/>
     </row>
-    <row r="199" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A199" s="2"/>
-      <c r="B199" s="2"/>
+    <row r="199">
+      <c r="A199" s="3"/>
+      <c r="B199" s="3"/>
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
       <c r="E199" s="1"/>
@@ -5116,9 +5034,9 @@
       <c r="S199" s="1"/>
       <c r="T199" s="1"/>
     </row>
-    <row r="200" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A200" s="2"/>
-      <c r="B200" s="2"/>
+    <row r="200">
+      <c r="A200" s="3"/>
+      <c r="B200" s="3"/>
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
       <c r="E200" s="1"/>
@@ -5139,7 +5057,6 @@
       <c r="T200" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/许愿墙.xlsx
+++ b/许愿墙.xlsx
@@ -1,199 +1,83 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+<workbook xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\86176\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B44164B5-00EA-4CA6-8540-C1ED50007690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="15800" windowWidth="28040" xWindow="4240" yWindow="640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcMode="auto"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>你想找什么样的工作？</t>
-  </si>
-  <si>
-    <t>现在的状态是怎样的？</t>
-  </si>
-  <si>
-    <t>AI攻城狮</t>
-  </si>
-  <si>
-    <t>已找到！</t>
-  </si>
-  <si>
-    <t>Java+AI</t>
-  </si>
-  <si>
-    <t>在找</t>
-  </si>
-  <si>
-    <t>AI agent开发</t>
-  </si>
-  <si>
-    <t>Java实习</t>
-  </si>
-  <si>
-    <t>还没开始找</t>
-  </si>
-  <si>
-    <t>系统架构师</t>
-  </si>
-  <si>
-    <t>Go</t>
-  </si>
-  <si>
-    <t>前端攻城狮</t>
-  </si>
-  <si>
-    <t>AI+游戏开发</t>
-  </si>
-  <si>
-    <t>C++实习</t>
-  </si>
-  <si>
-    <t>后端开发</t>
-  </si>
-  <si>
-    <t>正确的路上</t>
-  </si>
-  <si>
-    <t>Java后端开发</t>
-  </si>
-  <si>
-    <t>在找实习的路上</t>
-  </si>
-  <si>
-    <t>Java</t>
-  </si>
-  <si>
-    <t>找到了，但是通勤太远想跳槽</t>
-  </si>
-  <si>
-    <t>Frontend leader</t>
-  </si>
-  <si>
-    <t>找到了，但是没有work life balance</t>
-  </si>
-  <si>
-    <t>找到了，不满意</t>
-  </si>
-  <si>
-    <t>Java开发</t>
-  </si>
-  <si>
-    <t>再找</t>
-  </si>
-  <si>
-    <t>前端工程师</t>
-  </si>
-  <si>
-    <t>java开发</t>
-  </si>
-  <si>
-    <t>AI+前端工程师</t>
-  </si>
-  <si>
-    <t>C++开发</t>
-  </si>
-  <si>
-    <t>Go后端开发</t>
-  </si>
-  <si>
-    <t>AI+后端工程师</t>
-  </si>
-  <si>
-    <t>linux运维</t>
-  </si>
-  <si>
-    <t>AI+嵌入式</t>
-  </si>
-  <si>
-    <t>财务主管</t>
-  </si>
-  <si>
-    <t>在学习的路上</t>
-  </si>
-  <si>
-    <t>去年7月用这个项目找到了第一份工作，现在再次回来，希望跳槽找一份AI售前的工作</t>
-  </si>
-  <si>
-    <t>准备跳槽</t>
-  </si>
-  <si>
-    <t>java开发</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>在找</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t xml:space="preserve">  </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="3">
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9.75"/>
       <color rgb="FF000000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9.75"/>
       <color rgb="FF000000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill patternType="none">
+        <fgColor/>
+        <bgColor/>
+      </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor/>
+        <bgColor/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF34C724"/>
+        <bgColor/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -253,32 +137,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="6">
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -291,7 +185,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -586,28 +480,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
   <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <outlinePr summaryBelow="false" summaryRight="false"/>
   </sheetPr>
-  <dimension ref="A1:T200"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView showGridLines="true" tabSelected="true" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="74" customWidth="1"/>
-    <col min="2" max="2" width="32" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="74"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
+    <row r="1">
+      <c r="A1" s="3" t="str">
+        <v>你想找什么样的工作？</v>
+      </c>
+      <c r="B1" s="3" t="str">
+        <v>现在的状态是怎样的？</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -628,12 +522,12 @@
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
+    <row r="2">
+      <c r="A2" s="2" t="str">
+        <v>AI攻城狮</v>
+      </c>
+      <c r="B2" s="2" t="str">
+        <v>已找到！</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -654,12 +548,12 @@
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
+    <row r="3">
+      <c r="A3" s="2" t="str">
+        <v>Java+AI</v>
+      </c>
+      <c r="B3" s="2" t="str">
+        <v>在找</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -680,12 +574,12 @@
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
+    <row r="4">
+      <c r="A4" s="2" t="str">
+        <v>AI agent开发</v>
+      </c>
+      <c r="B4" s="2" t="str">
+        <v>在找</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -706,12 +600,12 @@
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>8</v>
+    <row r="5">
+      <c r="A5" s="2" t="str">
+        <v>Java实习</v>
+      </c>
+      <c r="B5" s="2" t="str">
+        <v>还没开始找</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -732,12 +626,12 @@
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>5</v>
+    <row r="6">
+      <c r="A6" s="2" t="str">
+        <v>系统架构师</v>
+      </c>
+      <c r="B6" s="2" t="str">
+        <v>在找</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -758,12 +652,12 @@
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>5</v>
+    <row r="7">
+      <c r="A7" s="2" t="str">
+        <v>Go</v>
+      </c>
+      <c r="B7" s="2" t="str">
+        <v>在找</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -784,12 +678,12 @@
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>5</v>
+    <row r="8">
+      <c r="A8" s="2" t="str">
+        <v>前端攻城狮</v>
+      </c>
+      <c r="B8" s="2" t="str">
+        <v>在找</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -810,12 +704,12 @@
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>5</v>
+    <row r="9">
+      <c r="A9" s="2" t="str">
+        <v>AI+游戏开发</v>
+      </c>
+      <c r="B9" s="2" t="str">
+        <v>在找</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -836,12 +730,12 @@
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>5</v>
+    <row r="10">
+      <c r="A10" s="2" t="str">
+        <v>C++实习</v>
+      </c>
+      <c r="B10" s="2" t="str">
+        <v>在找</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -862,12 +756,12 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>15</v>
+    <row r="11">
+      <c r="A11" s="2" t="str">
+        <v>后端开发</v>
+      </c>
+      <c r="B11" s="2" t="str">
+        <v>正确的路上</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -888,12 +782,12 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>17</v>
+    <row r="12">
+      <c r="A12" s="2" t="str">
+        <v>Java后端开发</v>
+      </c>
+      <c r="B12" s="2" t="str">
+        <v>在找实习的路上</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -914,12 +808,12 @@
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>19</v>
+    <row r="13">
+      <c r="A13" s="2" t="str">
+        <v>Java</v>
+      </c>
+      <c r="B13" s="2" t="str">
+        <v>找到了，但是通勤太远想跳槽</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -940,12 +834,12 @@
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>21</v>
+    <row r="14">
+      <c r="A14" s="2" t="str">
+        <v>Frontend leader</v>
+      </c>
+      <c r="B14" s="2" t="str">
+        <v>找到了，但是没有work life balance</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -966,12 +860,12 @@
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>22</v>
+    <row r="15">
+      <c r="A15" s="4" t="str">
+        <v>Java</v>
+      </c>
+      <c r="B15" s="2" t="str">
+        <v>找到了，不满意</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -992,12 +886,12 @@
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>24</v>
+    <row r="16">
+      <c r="A16" s="2" t="str">
+        <v>Java开发</v>
+      </c>
+      <c r="B16" s="2" t="str">
+        <v>再找</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -1018,12 +912,12 @@
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>5</v>
+    <row r="17">
+      <c r="A17" s="2" t="str">
+        <v>前端工程师</v>
+      </c>
+      <c r="B17" s="2" t="str">
+        <v>在找</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -1044,12 +938,12 @@
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>5</v>
+    <row r="18">
+      <c r="A18" s="2" t="str">
+        <v>java开发</v>
+      </c>
+      <c r="B18" s="2" t="str">
+        <v>在找</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -1070,12 +964,12 @@
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>8</v>
+    <row r="19">
+      <c r="A19" s="2" t="str">
+        <v>AI+前端工程师</v>
+      </c>
+      <c r="B19" s="2" t="str">
+        <v>还没开始找</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -1096,12 +990,12 @@
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>5</v>
+    <row r="20">
+      <c r="A20" s="2" t="str">
+        <v>C++开发</v>
+      </c>
+      <c r="B20" s="2" t="str">
+        <v>在找</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -1122,12 +1016,12 @@
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>5</v>
+    <row r="21">
+      <c r="A21" s="2" t="str">
+        <v>Go</v>
+      </c>
+      <c r="B21" s="2" t="str">
+        <v>在找</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -1148,12 +1042,12 @@
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>5</v>
+    <row r="22">
+      <c r="A22" s="2" t="str">
+        <v>Go后端开发</v>
+      </c>
+      <c r="B22" s="2" t="str">
+        <v>在找</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1174,12 +1068,12 @@
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>8</v>
+    <row r="23">
+      <c r="A23" s="2" t="str">
+        <v>AI+后端工程师</v>
+      </c>
+      <c r="B23" s="2" t="str">
+        <v>还没开始找</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1200,12 +1094,12 @@
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>5</v>
+    <row r="24">
+      <c r="A24" s="2" t="str">
+        <v>linux运维</v>
+      </c>
+      <c r="B24" s="2" t="str">
+        <v>在找</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1226,12 +1120,12 @@
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>5</v>
+    <row r="25">
+      <c r="A25" s="2" t="str">
+        <v>前端工程师</v>
+      </c>
+      <c r="B25" s="2" t="str">
+        <v>在找</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1252,12 +1146,12 @@
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>8</v>
+    <row r="26">
+      <c r="A26" s="2" t="str">
+        <v>前端工程师</v>
+      </c>
+      <c r="B26" s="2" t="str">
+        <v>还没开始找</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1278,12 +1172,12 @@
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>5</v>
+    <row r="27">
+      <c r="A27" s="2" t="str">
+        <v>java开发</v>
+      </c>
+      <c r="B27" s="2" t="str">
+        <v>在找</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1304,12 +1198,12 @@
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>24</v>
+    <row r="28">
+      <c r="A28" s="2" t="str">
+        <v>AI+嵌入式</v>
+      </c>
+      <c r="B28" s="2" t="str">
+        <v>再找</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1330,12 +1224,12 @@
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>5</v>
+    <row r="29">
+      <c r="A29" s="2" t="str">
+        <v>财务主管</v>
+      </c>
+      <c r="B29" s="2" t="str">
+        <v>在找</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1356,12 +1250,12 @@
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>34</v>
+    <row r="30">
+      <c r="A30" s="2" t="str">
+        <v>后端开发</v>
+      </c>
+      <c r="B30" s="2" t="str">
+        <v>在学习的路上</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1382,12 +1276,12 @@
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>5</v>
+    <row r="31">
+      <c r="A31" s="2" t="str">
+        <v>去年7月用这个项目找到了第一份工作，现在再次回来，希望跳槽找一份AI售前的工作</v>
+      </c>
+      <c r="B31" s="2" t="str">
+        <v>在找</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1408,12 +1302,12 @@
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>5</v>
+    <row r="32">
+      <c r="A32" s="2" t="str">
+        <v>前端工程师</v>
+      </c>
+      <c r="B32" s="2" t="str">
+        <v>在找</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1434,12 +1328,12 @@
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>36</v>
+    <row r="33">
+      <c r="A33" s="2" t="str">
+        <v>Java开发</v>
+      </c>
+      <c r="B33" s="2" t="str">
+        <v>准备跳槽</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1460,12 +1354,12 @@
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>38</v>
+    <row r="34">
+      <c r="A34" s="2" t="str">
+        <v>Java开发，有完善的晋升制度</v>
+      </c>
+      <c r="B34" s="2" t="str">
+        <v>准备跳槽</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1486,9 +1380,13 @@
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
+    <row r="35">
+      <c r="A35" s="2" t="str">
+        <v>前端开发</v>
+      </c>
+      <c r="B35" s="2" t="str">
+        <v>在找</v>
+      </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -1508,9 +1406,13 @@
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
+    <row r="36">
+      <c r="A36" s="2" t="str">
+        <v>java开发</v>
+      </c>
+      <c r="B36" s="2" t="str">
+        <v>在找</v>
+      </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -1530,9 +1432,13 @@
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
+    <row r="37">
+      <c r="A37" s="2" t="str">
+        <v>Java开发</v>
+      </c>
+      <c r="B37" s="2" t="str">
+        <v>正在找</v>
+      </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -1552,9 +1458,13 @@
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
+    <row r="38">
+      <c r="A38" s="2" t="str">
+        <v>Java+AI</v>
+      </c>
+      <c r="B38" s="2" t="str">
+        <v>在找</v>
+      </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -1574,31 +1484,39 @@
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="1"/>
-      <c r="Q39" s="1"/>
-      <c r="R39" s="1"/>
-      <c r="S39" s="1"/>
-      <c r="T39" s="1"/>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
+    <row r="39">
+      <c r="A39" s="4" t="str">
+        <v>AI+后端工程师</v>
+      </c>
+      <c r="B39" s="2" t="str">
+        <v>在找</v>
+      </c>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="5"/>
+      <c r="Q39" s="5"/>
+      <c r="R39" s="5"/>
+      <c r="S39" s="5"/>
+      <c r="T39" s="5"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="str">
+        <v>java开发</v>
+      </c>
+      <c r="B40" s="2" t="str">
+        <v>在找</v>
+      </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -1618,9 +1536,13 @@
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
+    <row r="41">
+      <c r="A41" s="2" t="str">
+        <v>C#开发</v>
+      </c>
+      <c r="B41" s="2" t="str">
+        <v>在找</v>
+      </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -1640,7 +1562,7 @@
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="42">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="1"/>
@@ -1662,7 +1584,7 @@
       <c r="S42" s="1"/>
       <c r="T42" s="1"/>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="43">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="1"/>
@@ -1684,7 +1606,7 @@
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="44">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="1"/>
@@ -1706,7 +1628,7 @@
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="45">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="1"/>
@@ -1728,7 +1650,7 @@
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="46">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="1"/>
@@ -1750,7 +1672,7 @@
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="47">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="1"/>
@@ -1772,7 +1694,7 @@
       <c r="S47" s="1"/>
       <c r="T47" s="1"/>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="48">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="1"/>
@@ -1794,7 +1716,7 @@
       <c r="S48" s="1"/>
       <c r="T48" s="1"/>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="49">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="1"/>
@@ -1816,7 +1738,7 @@
       <c r="S49" s="1"/>
       <c r="T49" s="1"/>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="50">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="1"/>
@@ -1838,7 +1760,7 @@
       <c r="S50" s="1"/>
       <c r="T50" s="1"/>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="51">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="1"/>
@@ -1860,7 +1782,7 @@
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="52">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="1"/>
@@ -1882,7 +1804,7 @@
       <c r="S52" s="1"/>
       <c r="T52" s="1"/>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="53">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="1"/>
@@ -1904,7 +1826,7 @@
       <c r="S53" s="1"/>
       <c r="T53" s="1"/>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="54">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="1"/>
@@ -1926,7 +1848,7 @@
       <c r="S54" s="1"/>
       <c r="T54" s="1"/>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="55">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="1"/>
@@ -1948,7 +1870,7 @@
       <c r="S55" s="1"/>
       <c r="T55" s="1"/>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="56">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="1"/>
@@ -1970,7 +1892,7 @@
       <c r="S56" s="1"/>
       <c r="T56" s="1"/>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="57">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="1"/>
@@ -1992,7 +1914,7 @@
       <c r="S57" s="1"/>
       <c r="T57" s="1"/>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="58">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="1"/>
@@ -2014,7 +1936,7 @@
       <c r="S58" s="1"/>
       <c r="T58" s="1"/>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="59">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="1"/>
@@ -2036,7 +1958,7 @@
       <c r="S59" s="1"/>
       <c r="T59" s="1"/>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="60">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="1"/>
@@ -2058,7 +1980,7 @@
       <c r="S60" s="1"/>
       <c r="T60" s="1"/>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="61">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="1"/>
@@ -2080,7 +2002,7 @@
       <c r="S61" s="1"/>
       <c r="T61" s="1"/>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="62">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="1"/>
@@ -2102,7 +2024,7 @@
       <c r="S62" s="1"/>
       <c r="T62" s="1"/>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="63">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="1"/>
@@ -2124,7 +2046,7 @@
       <c r="S63" s="1"/>
       <c r="T63" s="1"/>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="64">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="1"/>
@@ -2146,7 +2068,7 @@
       <c r="S64" s="1"/>
       <c r="T64" s="1"/>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="65">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="1"/>
@@ -2168,7 +2090,7 @@
       <c r="S65" s="1"/>
       <c r="T65" s="1"/>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="66">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="1"/>
@@ -2190,7 +2112,7 @@
       <c r="S66" s="1"/>
       <c r="T66" s="1"/>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="67">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="1"/>
@@ -2212,7 +2134,7 @@
       <c r="S67" s="1"/>
       <c r="T67" s="1"/>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="68">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="1"/>
@@ -2234,7 +2156,7 @@
       <c r="S68" s="1"/>
       <c r="T68" s="1"/>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="69">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="1"/>
@@ -2256,7 +2178,7 @@
       <c r="S69" s="1"/>
       <c r="T69" s="1"/>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="70">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="1"/>
@@ -2278,7 +2200,7 @@
       <c r="S70" s="1"/>
       <c r="T70" s="1"/>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="71">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="1"/>
@@ -2300,7 +2222,7 @@
       <c r="S71" s="1"/>
       <c r="T71" s="1"/>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="72">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="1"/>
@@ -2322,7 +2244,7 @@
       <c r="S72" s="1"/>
       <c r="T72" s="1"/>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="73">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="1"/>
@@ -2344,7 +2266,7 @@
       <c r="S73" s="1"/>
       <c r="T73" s="1"/>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="74">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="1"/>
@@ -2366,7 +2288,7 @@
       <c r="S74" s="1"/>
       <c r="T74" s="1"/>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="75">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="1"/>
@@ -2388,7 +2310,7 @@
       <c r="S75" s="1"/>
       <c r="T75" s="1"/>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="76">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="1"/>
@@ -2410,7 +2332,7 @@
       <c r="S76" s="1"/>
       <c r="T76" s="1"/>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="77">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="1"/>
@@ -2432,7 +2354,7 @@
       <c r="S77" s="1"/>
       <c r="T77" s="1"/>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="78">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="1"/>
@@ -2454,7 +2376,7 @@
       <c r="S78" s="1"/>
       <c r="T78" s="1"/>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="79">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="1"/>
@@ -2476,7 +2398,7 @@
       <c r="S79" s="1"/>
       <c r="T79" s="1"/>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="80">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="1"/>
@@ -2498,7 +2420,7 @@
       <c r="S80" s="1"/>
       <c r="T80" s="1"/>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="81">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="1"/>
@@ -2520,7 +2442,7 @@
       <c r="S81" s="1"/>
       <c r="T81" s="1"/>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="82">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="1"/>
@@ -2542,7 +2464,7 @@
       <c r="S82" s="1"/>
       <c r="T82" s="1"/>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="83">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="1"/>
@@ -2564,7 +2486,7 @@
       <c r="S83" s="1"/>
       <c r="T83" s="1"/>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="84">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="1"/>
@@ -2586,7 +2508,7 @@
       <c r="S84" s="1"/>
       <c r="T84" s="1"/>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="85">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="1"/>
@@ -2608,7 +2530,7 @@
       <c r="S85" s="1"/>
       <c r="T85" s="1"/>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="86">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="1"/>
@@ -2630,7 +2552,7 @@
       <c r="S86" s="1"/>
       <c r="T86" s="1"/>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="87">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="1"/>
@@ -2652,7 +2574,7 @@
       <c r="S87" s="1"/>
       <c r="T87" s="1"/>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="88">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="1"/>
@@ -2674,7 +2596,7 @@
       <c r="S88" s="1"/>
       <c r="T88" s="1"/>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="89">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="1"/>
@@ -2696,7 +2618,7 @@
       <c r="S89" s="1"/>
       <c r="T89" s="1"/>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="90">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="1"/>
@@ -2718,7 +2640,7 @@
       <c r="S90" s="1"/>
       <c r="T90" s="1"/>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="91">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="1"/>
@@ -2740,7 +2662,7 @@
       <c r="S91" s="1"/>
       <c r="T91" s="1"/>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="92">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="1"/>
@@ -2762,7 +2684,7 @@
       <c r="S92" s="1"/>
       <c r="T92" s="1"/>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="93">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="1"/>
@@ -2784,7 +2706,7 @@
       <c r="S93" s="1"/>
       <c r="T93" s="1"/>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="94">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="1"/>
@@ -2806,7 +2728,7 @@
       <c r="S94" s="1"/>
       <c r="T94" s="1"/>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="95">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="1"/>
@@ -2828,7 +2750,7 @@
       <c r="S95" s="1"/>
       <c r="T95" s="1"/>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="96">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="1"/>
@@ -2850,7 +2772,7 @@
       <c r="S96" s="1"/>
       <c r="T96" s="1"/>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="97">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="1"/>
@@ -2872,7 +2794,7 @@
       <c r="S97" s="1"/>
       <c r="T97" s="1"/>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="98">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="1"/>
@@ -2894,7 +2816,7 @@
       <c r="S98" s="1"/>
       <c r="T98" s="1"/>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="99">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="1"/>
@@ -2916,7 +2838,7 @@
       <c r="S99" s="1"/>
       <c r="T99" s="1"/>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="100">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="1"/>
@@ -2938,7 +2860,7 @@
       <c r="S100" s="1"/>
       <c r="T100" s="1"/>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="101">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="1"/>
@@ -2960,7 +2882,7 @@
       <c r="S101" s="1"/>
       <c r="T101" s="1"/>
     </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="102">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="1"/>
@@ -2982,7 +2904,7 @@
       <c r="S102" s="1"/>
       <c r="T102" s="1"/>
     </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="103">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="1"/>
@@ -3004,7 +2926,7 @@
       <c r="S103" s="1"/>
       <c r="T103" s="1"/>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="104">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="1"/>
@@ -3026,7 +2948,7 @@
       <c r="S104" s="1"/>
       <c r="T104" s="1"/>
     </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="105">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="1"/>
@@ -3048,7 +2970,7 @@
       <c r="S105" s="1"/>
       <c r="T105" s="1"/>
     </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="106">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="1"/>
@@ -3070,7 +2992,7 @@
       <c r="S106" s="1"/>
       <c r="T106" s="1"/>
     </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="107">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="1"/>
@@ -3092,7 +3014,7 @@
       <c r="S107" s="1"/>
       <c r="T107" s="1"/>
     </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="108">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="1"/>
@@ -3114,7 +3036,7 @@
       <c r="S108" s="1"/>
       <c r="T108" s="1"/>
     </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="109">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="1"/>
@@ -3136,7 +3058,7 @@
       <c r="S109" s="1"/>
       <c r="T109" s="1"/>
     </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="110">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="1"/>
@@ -3158,7 +3080,7 @@
       <c r="S110" s="1"/>
       <c r="T110" s="1"/>
     </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="111">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="1"/>
@@ -3180,7 +3102,7 @@
       <c r="S111" s="1"/>
       <c r="T111" s="1"/>
     </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="112">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="1"/>
@@ -3202,7 +3124,7 @@
       <c r="S112" s="1"/>
       <c r="T112" s="1"/>
     </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="113">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="1"/>
@@ -3224,7 +3146,7 @@
       <c r="S113" s="1"/>
       <c r="T113" s="1"/>
     </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="114">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="1"/>
@@ -3246,7 +3168,7 @@
       <c r="S114" s="1"/>
       <c r="T114" s="1"/>
     </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="115">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="1"/>
@@ -3268,7 +3190,7 @@
       <c r="S115" s="1"/>
       <c r="T115" s="1"/>
     </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="116">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="1"/>
@@ -3290,7 +3212,7 @@
       <c r="S116" s="1"/>
       <c r="T116" s="1"/>
     </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="117">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="1"/>
@@ -3312,7 +3234,7 @@
       <c r="S117" s="1"/>
       <c r="T117" s="1"/>
     </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="118">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="1"/>
@@ -3334,7 +3256,7 @@
       <c r="S118" s="1"/>
       <c r="T118" s="1"/>
     </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="119">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="1"/>
@@ -3356,7 +3278,7 @@
       <c r="S119" s="1"/>
       <c r="T119" s="1"/>
     </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="120">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="1"/>
@@ -3378,7 +3300,7 @@
       <c r="S120" s="1"/>
       <c r="T120" s="1"/>
     </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="121">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="1"/>
@@ -3400,7 +3322,7 @@
       <c r="S121" s="1"/>
       <c r="T121" s="1"/>
     </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="122">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="1"/>
@@ -3422,7 +3344,7 @@
       <c r="S122" s="1"/>
       <c r="T122" s="1"/>
     </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="123">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="1"/>
@@ -3444,7 +3366,7 @@
       <c r="S123" s="1"/>
       <c r="T123" s="1"/>
     </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="124">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="1"/>
@@ -3466,7 +3388,7 @@
       <c r="S124" s="1"/>
       <c r="T124" s="1"/>
     </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="125">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="1"/>
@@ -3488,7 +3410,7 @@
       <c r="S125" s="1"/>
       <c r="T125" s="1"/>
     </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="126">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="1"/>
@@ -3510,7 +3432,7 @@
       <c r="S126" s="1"/>
       <c r="T126" s="1"/>
     </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="127">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="1"/>
@@ -3532,7 +3454,7 @@
       <c r="S127" s="1"/>
       <c r="T127" s="1"/>
     </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="128">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="1"/>
@@ -3554,7 +3476,7 @@
       <c r="S128" s="1"/>
       <c r="T128" s="1"/>
     </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="129">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="1"/>
@@ -3576,7 +3498,7 @@
       <c r="S129" s="1"/>
       <c r="T129" s="1"/>
     </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="130">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="1"/>
@@ -3598,7 +3520,7 @@
       <c r="S130" s="1"/>
       <c r="T130" s="1"/>
     </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="131">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="1"/>
@@ -3620,7 +3542,7 @@
       <c r="S131" s="1"/>
       <c r="T131" s="1"/>
     </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="132">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="1"/>
@@ -3642,7 +3564,7 @@
       <c r="S132" s="1"/>
       <c r="T132" s="1"/>
     </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="133">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="1"/>
@@ -3664,7 +3586,7 @@
       <c r="S133" s="1"/>
       <c r="T133" s="1"/>
     </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="134">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="1"/>
@@ -3686,7 +3608,7 @@
       <c r="S134" s="1"/>
       <c r="T134" s="1"/>
     </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="135">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="1"/>
@@ -3708,7 +3630,7 @@
       <c r="S135" s="1"/>
       <c r="T135" s="1"/>
     </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="136">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="1"/>
@@ -3730,7 +3652,7 @@
       <c r="S136" s="1"/>
       <c r="T136" s="1"/>
     </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="137">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="1"/>
@@ -3752,7 +3674,7 @@
       <c r="S137" s="1"/>
       <c r="T137" s="1"/>
     </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="138">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="1"/>
@@ -3774,7 +3696,7 @@
       <c r="S138" s="1"/>
       <c r="T138" s="1"/>
     </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="139">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="1"/>
@@ -3796,7 +3718,7 @@
       <c r="S139" s="1"/>
       <c r="T139" s="1"/>
     </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="140">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="1"/>
@@ -3818,7 +3740,7 @@
       <c r="S140" s="1"/>
       <c r="T140" s="1"/>
     </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="141">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="1"/>
@@ -3840,7 +3762,7 @@
       <c r="S141" s="1"/>
       <c r="T141" s="1"/>
     </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="142">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="1"/>
@@ -3862,7 +3784,7 @@
       <c r="S142" s="1"/>
       <c r="T142" s="1"/>
     </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="143">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="1"/>
@@ -3884,7 +3806,7 @@
       <c r="S143" s="1"/>
       <c r="T143" s="1"/>
     </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="144">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="1"/>
@@ -3906,7 +3828,7 @@
       <c r="S144" s="1"/>
       <c r="T144" s="1"/>
     </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="145">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="1"/>
@@ -3928,7 +3850,7 @@
       <c r="S145" s="1"/>
       <c r="T145" s="1"/>
     </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="146">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="1"/>
@@ -3950,7 +3872,7 @@
       <c r="S146" s="1"/>
       <c r="T146" s="1"/>
     </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="147">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="1"/>
@@ -3972,7 +3894,7 @@
       <c r="S147" s="1"/>
       <c r="T147" s="1"/>
     </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="148">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="1"/>
@@ -3994,7 +3916,7 @@
       <c r="S148" s="1"/>
       <c r="T148" s="1"/>
     </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="149">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="1"/>
@@ -4016,7 +3938,7 @@
       <c r="S149" s="1"/>
       <c r="T149" s="1"/>
     </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="150">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="1"/>
@@ -4038,7 +3960,7 @@
       <c r="S150" s="1"/>
       <c r="T150" s="1"/>
     </row>
-    <row r="151" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="151">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="1"/>
@@ -4060,7 +3982,7 @@
       <c r="S151" s="1"/>
       <c r="T151" s="1"/>
     </row>
-    <row r="152" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="152">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="1"/>
@@ -4082,7 +4004,7 @@
       <c r="S152" s="1"/>
       <c r="T152" s="1"/>
     </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="153">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="1"/>
@@ -4104,7 +4026,7 @@
       <c r="S153" s="1"/>
       <c r="T153" s="1"/>
     </row>
-    <row r="154" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="154">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="1"/>
@@ -4126,7 +4048,7 @@
       <c r="S154" s="1"/>
       <c r="T154" s="1"/>
     </row>
-    <row r="155" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="155">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="1"/>
@@ -4148,7 +4070,7 @@
       <c r="S155" s="1"/>
       <c r="T155" s="1"/>
     </row>
-    <row r="156" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="156">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="1"/>
@@ -4170,7 +4092,7 @@
       <c r="S156" s="1"/>
       <c r="T156" s="1"/>
     </row>
-    <row r="157" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="157">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="1"/>
@@ -4192,7 +4114,7 @@
       <c r="S157" s="1"/>
       <c r="T157" s="1"/>
     </row>
-    <row r="158" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="158">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="1"/>
@@ -4214,7 +4136,7 @@
       <c r="S158" s="1"/>
       <c r="T158" s="1"/>
     </row>
-    <row r="159" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="159">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="1"/>
@@ -4236,7 +4158,7 @@
       <c r="S159" s="1"/>
       <c r="T159" s="1"/>
     </row>
-    <row r="160" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="160">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="1"/>
@@ -4258,7 +4180,7 @@
       <c r="S160" s="1"/>
       <c r="T160" s="1"/>
     </row>
-    <row r="161" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="161">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="1"/>
@@ -4280,7 +4202,7 @@
       <c r="S161" s="1"/>
       <c r="T161" s="1"/>
     </row>
-    <row r="162" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="162">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="1"/>
@@ -4302,7 +4224,7 @@
       <c r="S162" s="1"/>
       <c r="T162" s="1"/>
     </row>
-    <row r="163" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="163">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="1"/>
@@ -4324,7 +4246,7 @@
       <c r="S163" s="1"/>
       <c r="T163" s="1"/>
     </row>
-    <row r="164" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="164">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="1"/>
@@ -4346,7 +4268,7 @@
       <c r="S164" s="1"/>
       <c r="T164" s="1"/>
     </row>
-    <row r="165" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="165">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="1"/>
@@ -4368,7 +4290,7 @@
       <c r="S165" s="1"/>
       <c r="T165" s="1"/>
     </row>
-    <row r="166" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="166">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="1"/>
@@ -4390,7 +4312,7 @@
       <c r="S166" s="1"/>
       <c r="T166" s="1"/>
     </row>
-    <row r="167" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="167">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="1"/>
@@ -4412,7 +4334,7 @@
       <c r="S167" s="1"/>
       <c r="T167" s="1"/>
     </row>
-    <row r="168" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="168">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="1"/>
@@ -4434,7 +4356,7 @@
       <c r="S168" s="1"/>
       <c r="T168" s="1"/>
     </row>
-    <row r="169" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="169">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="1"/>
@@ -4456,7 +4378,7 @@
       <c r="S169" s="1"/>
       <c r="T169" s="1"/>
     </row>
-    <row r="170" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="170">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="1"/>
@@ -4478,7 +4400,7 @@
       <c r="S170" s="1"/>
       <c r="T170" s="1"/>
     </row>
-    <row r="171" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="171">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="1"/>
@@ -4500,7 +4422,7 @@
       <c r="S171" s="1"/>
       <c r="T171" s="1"/>
     </row>
-    <row r="172" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="172">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="1"/>
@@ -4522,7 +4444,7 @@
       <c r="S172" s="1"/>
       <c r="T172" s="1"/>
     </row>
-    <row r="173" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="173">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="1"/>
@@ -4544,7 +4466,7 @@
       <c r="S173" s="1"/>
       <c r="T173" s="1"/>
     </row>
-    <row r="174" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="174">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="1"/>
@@ -4566,7 +4488,7 @@
       <c r="S174" s="1"/>
       <c r="T174" s="1"/>
     </row>
-    <row r="175" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="175">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="1"/>
@@ -4588,7 +4510,7 @@
       <c r="S175" s="1"/>
       <c r="T175" s="1"/>
     </row>
-    <row r="176" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="176">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="1"/>
@@ -4610,7 +4532,7 @@
       <c r="S176" s="1"/>
       <c r="T176" s="1"/>
     </row>
-    <row r="177" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="177">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="1"/>
@@ -4632,7 +4554,7 @@
       <c r="S177" s="1"/>
       <c r="T177" s="1"/>
     </row>
-    <row r="178" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="178">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="1"/>
@@ -4654,7 +4576,7 @@
       <c r="S178" s="1"/>
       <c r="T178" s="1"/>
     </row>
-    <row r="179" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="179">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="1"/>
@@ -4676,7 +4598,7 @@
       <c r="S179" s="1"/>
       <c r="T179" s="1"/>
     </row>
-    <row r="180" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="180">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="1"/>
@@ -4698,7 +4620,7 @@
       <c r="S180" s="1"/>
       <c r="T180" s="1"/>
     </row>
-    <row r="181" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="181">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="1"/>
@@ -4720,7 +4642,7 @@
       <c r="S181" s="1"/>
       <c r="T181" s="1"/>
     </row>
-    <row r="182" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="182">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="1"/>
@@ -4742,7 +4664,7 @@
       <c r="S182" s="1"/>
       <c r="T182" s="1"/>
     </row>
-    <row r="183" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="183">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="1"/>
@@ -4764,7 +4686,7 @@
       <c r="S183" s="1"/>
       <c r="T183" s="1"/>
     </row>
-    <row r="184" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="184">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="1"/>
@@ -4786,7 +4708,7 @@
       <c r="S184" s="1"/>
       <c r="T184" s="1"/>
     </row>
-    <row r="185" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="185">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="1"/>
@@ -4808,7 +4730,7 @@
       <c r="S185" s="1"/>
       <c r="T185" s="1"/>
     </row>
-    <row r="186" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="186">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="1"/>
@@ -4830,7 +4752,7 @@
       <c r="S186" s="1"/>
       <c r="T186" s="1"/>
     </row>
-    <row r="187" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="187">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="1"/>
@@ -4852,7 +4774,7 @@
       <c r="S187" s="1"/>
       <c r="T187" s="1"/>
     </row>
-    <row r="188" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="188">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="1"/>
@@ -4874,7 +4796,7 @@
       <c r="S188" s="1"/>
       <c r="T188" s="1"/>
     </row>
-    <row r="189" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="189">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="1"/>
@@ -4896,7 +4818,7 @@
       <c r="S189" s="1"/>
       <c r="T189" s="1"/>
     </row>
-    <row r="190" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="190">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="1"/>
@@ -4918,7 +4840,7 @@
       <c r="S190" s="1"/>
       <c r="T190" s="1"/>
     </row>
-    <row r="191" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="191">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="1"/>
@@ -4940,7 +4862,7 @@
       <c r="S191" s="1"/>
       <c r="T191" s="1"/>
     </row>
-    <row r="192" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="192">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="1"/>
@@ -4962,7 +4884,7 @@
       <c r="S192" s="1"/>
       <c r="T192" s="1"/>
     </row>
-    <row r="193" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="193">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="1"/>
@@ -4984,7 +4906,7 @@
       <c r="S193" s="1"/>
       <c r="T193" s="1"/>
     </row>
-    <row r="194" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="194">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="1"/>
@@ -5006,7 +4928,7 @@
       <c r="S194" s="1"/>
       <c r="T194" s="1"/>
     </row>
-    <row r="195" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="195">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="1"/>
@@ -5028,7 +4950,7 @@
       <c r="S195" s="1"/>
       <c r="T195" s="1"/>
     </row>
-    <row r="196" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="196">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="1"/>
@@ -5050,7 +4972,7 @@
       <c r="S196" s="1"/>
       <c r="T196" s="1"/>
     </row>
-    <row r="197" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="197">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="1"/>
@@ -5072,7 +4994,7 @@
       <c r="S197" s="1"/>
       <c r="T197" s="1"/>
     </row>
-    <row r="198" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="198">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="1"/>
@@ -5094,7 +5016,7 @@
       <c r="S198" s="1"/>
       <c r="T198" s="1"/>
     </row>
-    <row r="199" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="199">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="1"/>
@@ -5116,7 +5038,7 @@
       <c r="S199" s="1"/>
       <c r="T199" s="1"/>
     </row>
-    <row r="200" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="200">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="1"/>
@@ -5139,7 +5061,6 @@
       <c r="T200" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/许愿墙.xlsx
+++ b/许愿墙.xlsx
@@ -1,204 +1,110 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+<workbook xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\86176\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B44164B5-00EA-4CA6-8540-C1ED50007690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="15800" windowWidth="28040" xWindow="4240" yWindow="640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcMode="auto"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>你想找什么样的工作？</t>
-  </si>
-  <si>
-    <t>现在的状态是怎样的？</t>
-  </si>
-  <si>
-    <t>AI攻城狮</t>
-  </si>
-  <si>
-    <t>已找到！</t>
-  </si>
-  <si>
-    <t>Java+AI</t>
-  </si>
-  <si>
-    <t>在找</t>
-  </si>
-  <si>
-    <t>AI agent开发</t>
-  </si>
-  <si>
-    <t>Java实习</t>
-  </si>
-  <si>
-    <t>还没开始找</t>
-  </si>
-  <si>
-    <t>系统架构师</t>
-  </si>
-  <si>
-    <t>Go</t>
-  </si>
-  <si>
-    <t>前端攻城狮</t>
-  </si>
-  <si>
-    <t>AI+游戏开发</t>
-  </si>
-  <si>
-    <t>C++实习</t>
-  </si>
-  <si>
-    <t>后端开发</t>
-  </si>
-  <si>
-    <t>正确的路上</t>
-  </si>
-  <si>
-    <t>Java后端开发</t>
-  </si>
-  <si>
-    <t>在找实习的路上</t>
-  </si>
-  <si>
-    <t>Java</t>
-  </si>
-  <si>
-    <t>找到了，但是通勤太远想跳槽</t>
-  </si>
-  <si>
-    <t>Frontend leader</t>
-  </si>
-  <si>
-    <t>找到了，但是没有work life balance</t>
-  </si>
-  <si>
-    <t>找到了，不满意</t>
-  </si>
-  <si>
-    <t>Java开发</t>
-  </si>
-  <si>
-    <t>再找</t>
-  </si>
-  <si>
-    <t>前端工程师</t>
-  </si>
-  <si>
-    <t>java开发</t>
-  </si>
-  <si>
-    <t>AI+前端工程师</t>
-  </si>
-  <si>
-    <t>C++开发</t>
-  </si>
-  <si>
-    <t>Go后端开发</t>
-  </si>
-  <si>
-    <t>AI+后端工程师</t>
-  </si>
-  <si>
-    <t>linux运维</t>
-  </si>
-  <si>
-    <t>AI+嵌入式</t>
-  </si>
-  <si>
-    <t>财务主管</t>
-  </si>
-  <si>
-    <t>在学习的路上</t>
-  </si>
-  <si>
-    <t>去年7月用这个项目找到了第一份工作，现在再次回来，希望跳槽找一份AI售前的工作</t>
-  </si>
-  <si>
-    <t>准备跳槽</t>
-  </si>
-  <si>
-    <t>java开发</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>在找</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t xml:space="preserve">  </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="3">
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9.75"/>
       <color rgb="FF000000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9.75"/>
       <color rgb="FF000000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill patternType="none">
+        <fgColor/>
+        <bgColor/>
+      </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor/>
+        <bgColor/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF34C724"/>
+        <bgColor/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF1F2329"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF1F2329"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF1F2329"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF1F2329"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -238,47 +144,35 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF1F2329"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF1F2329"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF1F2329"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF1F2329"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="6">
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -291,7 +185,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -586,28 +480,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
   <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <outlinePr summaryBelow="false" summaryRight="false"/>
   </sheetPr>
-  <dimension ref="A1:T200"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView showGridLines="true" tabSelected="true" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="74" customWidth="1"/>
-    <col min="2" max="2" width="32" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="74"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
+    <row r="1">
+      <c r="A1" s="5" t="str">
+        <v>你想找什么样的工作？</v>
+      </c>
+      <c r="B1" s="5" t="str">
+        <v>现在的状态是怎样的？</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -628,12 +522,12 @@
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
+    <row r="2">
+      <c r="A2" s="2" t="str">
+        <v>AI攻城狮</v>
+      </c>
+      <c r="B2" s="2" t="str">
+        <v>已找到！</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -654,12 +548,12 @@
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
+    <row r="3">
+      <c r="A3" s="2" t="str">
+        <v>Java+AI</v>
+      </c>
+      <c r="B3" s="2" t="str">
+        <v>在找</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -680,12 +574,12 @@
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
+    <row r="4">
+      <c r="A4" s="2" t="str">
+        <v>AI agent开发</v>
+      </c>
+      <c r="B4" s="2" t="str">
+        <v>在找</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -706,12 +600,12 @@
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>8</v>
+    <row r="5">
+      <c r="A5" s="2" t="str">
+        <v>Java实习</v>
+      </c>
+      <c r="B5" s="2" t="str">
+        <v>还没开始找</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -732,12 +626,12 @@
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>5</v>
+    <row r="6">
+      <c r="A6" s="2" t="str">
+        <v>系统架构师</v>
+      </c>
+      <c r="B6" s="2" t="str">
+        <v>在找</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -758,12 +652,12 @@
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>5</v>
+    <row r="7">
+      <c r="A7" s="2" t="str">
+        <v>Go</v>
+      </c>
+      <c r="B7" s="2" t="str">
+        <v>在找</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -784,12 +678,12 @@
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>5</v>
+    <row r="8">
+      <c r="A8" s="2" t="str">
+        <v>前端攻城狮</v>
+      </c>
+      <c r="B8" s="2" t="str">
+        <v>在找</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -810,12 +704,12 @@
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>5</v>
+    <row r="9">
+      <c r="A9" s="2" t="str">
+        <v>AI+游戏开发</v>
+      </c>
+      <c r="B9" s="2" t="str">
+        <v>在找</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -836,12 +730,12 @@
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>5</v>
+    <row r="10">
+      <c r="A10" s="2" t="str">
+        <v>C++实习</v>
+      </c>
+      <c r="B10" s="2" t="str">
+        <v>在找</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -862,12 +756,12 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>15</v>
+    <row r="11">
+      <c r="A11" s="2" t="str">
+        <v>后端开发</v>
+      </c>
+      <c r="B11" s="2" t="str">
+        <v>正确的路上</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -888,12 +782,12 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>17</v>
+    <row r="12">
+      <c r="A12" s="2" t="str">
+        <v>Java后端开发</v>
+      </c>
+      <c r="B12" s="2" t="str">
+        <v>在找实习的路上</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -914,12 +808,12 @@
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>19</v>
+    <row r="13">
+      <c r="A13" s="2" t="str">
+        <v>Java</v>
+      </c>
+      <c r="B13" s="2" t="str">
+        <v>找到了，但是通勤太远想跳槽</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -940,12 +834,12 @@
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>21</v>
+    <row r="14">
+      <c r="A14" s="2" t="str">
+        <v>Frontend leader</v>
+      </c>
+      <c r="B14" s="2" t="str">
+        <v>找到了，但是没有work life balance</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -966,12 +860,12 @@
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>22</v>
+    <row r="15">
+      <c r="A15" s="4" t="str">
+        <v>Java</v>
+      </c>
+      <c r="B15" s="2" t="str">
+        <v>找到了，不满意</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -992,12 +886,12 @@
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>24</v>
+    <row r="16">
+      <c r="A16" s="2" t="str">
+        <v>Java开发</v>
+      </c>
+      <c r="B16" s="2" t="str">
+        <v>再找</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -1018,12 +912,12 @@
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>5</v>
+    <row r="17">
+      <c r="A17" s="2" t="str">
+        <v>前端工程师</v>
+      </c>
+      <c r="B17" s="2" t="str">
+        <v>在找</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -1044,12 +938,12 @@
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>5</v>
+    <row r="18">
+      <c r="A18" s="2" t="str">
+        <v>java开发</v>
+      </c>
+      <c r="B18" s="2" t="str">
+        <v>在找</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -1070,12 +964,12 @@
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>8</v>
+    <row r="19">
+      <c r="A19" s="2" t="str">
+        <v>AI+前端工程师</v>
+      </c>
+      <c r="B19" s="2" t="str">
+        <v>还没开始找</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -1096,12 +990,12 @@
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>5</v>
+    <row r="20">
+      <c r="A20" s="2" t="str">
+        <v>C++开发</v>
+      </c>
+      <c r="B20" s="2" t="str">
+        <v>在找</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -1122,12 +1016,12 @@
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>5</v>
+    <row r="21">
+      <c r="A21" s="2" t="str">
+        <v>Go</v>
+      </c>
+      <c r="B21" s="2" t="str">
+        <v>在找</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -1148,12 +1042,12 @@
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>5</v>
+    <row r="22">
+      <c r="A22" s="2" t="str">
+        <v>Go后端开发</v>
+      </c>
+      <c r="B22" s="2" t="str">
+        <v>在找</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1174,12 +1068,12 @@
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>8</v>
+    <row r="23">
+      <c r="A23" s="2" t="str">
+        <v>AI+后端工程师</v>
+      </c>
+      <c r="B23" s="2" t="str">
+        <v>还没开始找</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1200,12 +1094,12 @@
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>5</v>
+    <row r="24">
+      <c r="A24" s="2" t="str">
+        <v>linux运维</v>
+      </c>
+      <c r="B24" s="2" t="str">
+        <v>在找</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1226,12 +1120,12 @@
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>5</v>
+    <row r="25">
+      <c r="A25" s="2" t="str">
+        <v>前端工程师</v>
+      </c>
+      <c r="B25" s="2" t="str">
+        <v>在找</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1252,12 +1146,12 @@
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>8</v>
+    <row r="26">
+      <c r="A26" s="2" t="str">
+        <v>前端工程师</v>
+      </c>
+      <c r="B26" s="2" t="str">
+        <v>还没开始找</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1278,12 +1172,12 @@
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>5</v>
+    <row r="27">
+      <c r="A27" s="2" t="str">
+        <v>java开发</v>
+      </c>
+      <c r="B27" s="2" t="str">
+        <v>在找</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1304,12 +1198,12 @@
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>24</v>
+    <row r="28">
+      <c r="A28" s="2" t="str">
+        <v>AI+嵌入式</v>
+      </c>
+      <c r="B28" s="2" t="str">
+        <v>再找</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1330,12 +1224,12 @@
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>5</v>
+    <row r="29">
+      <c r="A29" s="2" t="str">
+        <v>财务主管</v>
+      </c>
+      <c r="B29" s="2" t="str">
+        <v>在找</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1356,12 +1250,12 @@
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>34</v>
+    <row r="30">
+      <c r="A30" s="2" t="str">
+        <v>后端开发</v>
+      </c>
+      <c r="B30" s="2" t="str">
+        <v>在学习的路上</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1382,12 +1276,12 @@
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>5</v>
+    <row r="31">
+      <c r="A31" s="2" t="str">
+        <v>去年7月用这个项目找到了第一份工作，现在再次回来，希望跳槽找一份AI售前的工作</v>
+      </c>
+      <c r="B31" s="2" t="str">
+        <v>在找</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1408,12 +1302,12 @@
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>5</v>
+    <row r="32">
+      <c r="A32" s="2" t="str">
+        <v>前端工程师</v>
+      </c>
+      <c r="B32" s="2" t="str">
+        <v>在找</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1434,12 +1328,12 @@
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>36</v>
+    <row r="33">
+      <c r="A33" s="2" t="str">
+        <v>Java开发</v>
+      </c>
+      <c r="B33" s="2" t="str">
+        <v>准备跳槽</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1460,12 +1354,12 @@
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>38</v>
+    <row r="34">
+      <c r="A34" s="2" t="str">
+        <v>Java开发，有完善的晋升制度</v>
+      </c>
+      <c r="B34" s="2" t="str">
+        <v>准备跳槽</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1486,9 +1380,13 @@
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
+    <row r="35">
+      <c r="A35" s="2" t="str">
+        <v>前端开发</v>
+      </c>
+      <c r="B35" s="2" t="str">
+        <v>在找</v>
+      </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -1508,9 +1406,13 @@
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
+    <row r="36">
+      <c r="A36" s="2" t="str">
+        <v>java开发</v>
+      </c>
+      <c r="B36" s="2" t="str">
+        <v>在找</v>
+      </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -1530,9 +1432,13 @@
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
+    <row r="37">
+      <c r="A37" s="2" t="str">
+        <v>Java开发</v>
+      </c>
+      <c r="B37" s="2" t="str">
+        <v>正在找</v>
+      </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -1552,9 +1458,13 @@
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
+    <row r="38">
+      <c r="A38" s="2" t="str">
+        <v>Java+AI</v>
+      </c>
+      <c r="B38" s="2" t="str">
+        <v>在找</v>
+      </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -1574,31 +1484,39 @@
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="1"/>
-      <c r="Q39" s="1"/>
-      <c r="R39" s="1"/>
-      <c r="S39" s="1"/>
-      <c r="T39" s="1"/>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
+    <row r="39">
+      <c r="A39" s="4" t="str">
+        <v>AI+后端工程师</v>
+      </c>
+      <c r="B39" s="2" t="str">
+        <v>在找</v>
+      </c>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="str">
+        <v>java开发</v>
+      </c>
+      <c r="B40" s="2" t="str">
+        <v>在找</v>
+      </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -1618,9 +1536,13 @@
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
+    <row r="41">
+      <c r="A41" s="2" t="str">
+        <v>C#开发</v>
+      </c>
+      <c r="B41" s="2" t="str">
+        <v>在找</v>
+      </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -1640,9 +1562,13 @@
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
+    <row r="42">
+      <c r="A42" s="2" t="str">
+        <v>dotnet开发，base 成都</v>
+      </c>
+      <c r="B42" s="2" t="str">
+        <v>准备跳槽</v>
+      </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -1662,7 +1588,7 @@
       <c r="S42" s="1"/>
       <c r="T42" s="1"/>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="43">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="1"/>
@@ -1684,7 +1610,7 @@
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="44">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="1"/>
@@ -1706,7 +1632,7 @@
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="45">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="1"/>
@@ -1728,7 +1654,7 @@
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="46">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="1"/>
@@ -1750,7 +1676,7 @@
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="47">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="1"/>
@@ -1772,7 +1698,7 @@
       <c r="S47" s="1"/>
       <c r="T47" s="1"/>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="48">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="1"/>
@@ -1794,7 +1720,7 @@
       <c r="S48" s="1"/>
       <c r="T48" s="1"/>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="49">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="1"/>
@@ -1816,7 +1742,7 @@
       <c r="S49" s="1"/>
       <c r="T49" s="1"/>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="50">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="1"/>
@@ -1838,7 +1764,7 @@
       <c r="S50" s="1"/>
       <c r="T50" s="1"/>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="51">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="1"/>
@@ -1860,7 +1786,7 @@
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="52">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="1"/>
@@ -1882,7 +1808,7 @@
       <c r="S52" s="1"/>
       <c r="T52" s="1"/>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="53">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="1"/>
@@ -1904,7 +1830,7 @@
       <c r="S53" s="1"/>
       <c r="T53" s="1"/>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="54">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="1"/>
@@ -1926,7 +1852,7 @@
       <c r="S54" s="1"/>
       <c r="T54" s="1"/>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="55">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="1"/>
@@ -1948,7 +1874,7 @@
       <c r="S55" s="1"/>
       <c r="T55" s="1"/>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="56">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="1"/>
@@ -1970,7 +1896,7 @@
       <c r="S56" s="1"/>
       <c r="T56" s="1"/>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="57">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="1"/>
@@ -1992,7 +1918,7 @@
       <c r="S57" s="1"/>
       <c r="T57" s="1"/>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="58">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="1"/>
@@ -2014,7 +1940,7 @@
       <c r="S58" s="1"/>
       <c r="T58" s="1"/>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="59">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="1"/>
@@ -2036,7 +1962,7 @@
       <c r="S59" s="1"/>
       <c r="T59" s="1"/>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="60">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="1"/>
@@ -2058,7 +1984,7 @@
       <c r="S60" s="1"/>
       <c r="T60" s="1"/>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="61">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="1"/>
@@ -2080,7 +2006,7 @@
       <c r="S61" s="1"/>
       <c r="T61" s="1"/>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="62">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="1"/>
@@ -2102,7 +2028,7 @@
       <c r="S62" s="1"/>
       <c r="T62" s="1"/>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="63">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="1"/>
@@ -2124,7 +2050,7 @@
       <c r="S63" s="1"/>
       <c r="T63" s="1"/>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="64">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="1"/>
@@ -2146,7 +2072,7 @@
       <c r="S64" s="1"/>
       <c r="T64" s="1"/>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="65">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="1"/>
@@ -2168,7 +2094,7 @@
       <c r="S65" s="1"/>
       <c r="T65" s="1"/>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="66">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="1"/>
@@ -2190,7 +2116,7 @@
       <c r="S66" s="1"/>
       <c r="T66" s="1"/>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="67">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="1"/>
@@ -2212,7 +2138,7 @@
       <c r="S67" s="1"/>
       <c r="T67" s="1"/>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="68">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="1"/>
@@ -2234,7 +2160,7 @@
       <c r="S68" s="1"/>
       <c r="T68" s="1"/>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="69">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="1"/>
@@ -2256,7 +2182,7 @@
       <c r="S69" s="1"/>
       <c r="T69" s="1"/>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="70">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="1"/>
@@ -2278,7 +2204,7 @@
       <c r="S70" s="1"/>
       <c r="T70" s="1"/>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="71">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="1"/>
@@ -2300,7 +2226,7 @@
       <c r="S71" s="1"/>
       <c r="T71" s="1"/>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="72">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="1"/>
@@ -2322,7 +2248,7 @@
       <c r="S72" s="1"/>
       <c r="T72" s="1"/>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="73">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="1"/>
@@ -2344,7 +2270,7 @@
       <c r="S73" s="1"/>
       <c r="T73" s="1"/>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="74">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="1"/>
@@ -2366,7 +2292,7 @@
       <c r="S74" s="1"/>
       <c r="T74" s="1"/>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="75">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="1"/>
@@ -2388,7 +2314,7 @@
       <c r="S75" s="1"/>
       <c r="T75" s="1"/>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="76">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="1"/>
@@ -2410,7 +2336,7 @@
       <c r="S76" s="1"/>
       <c r="T76" s="1"/>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="77">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="1"/>
@@ -2432,7 +2358,7 @@
       <c r="S77" s="1"/>
       <c r="T77" s="1"/>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="78">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="1"/>
@@ -2454,7 +2380,7 @@
       <c r="S78" s="1"/>
       <c r="T78" s="1"/>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="79">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="1"/>
@@ -2476,7 +2402,7 @@
       <c r="S79" s="1"/>
       <c r="T79" s="1"/>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="80">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="1"/>
@@ -2498,7 +2424,7 @@
       <c r="S80" s="1"/>
       <c r="T80" s="1"/>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="81">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="1"/>
@@ -2520,7 +2446,7 @@
       <c r="S81" s="1"/>
       <c r="T81" s="1"/>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="82">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="1"/>
@@ -2542,7 +2468,7 @@
       <c r="S82" s="1"/>
       <c r="T82" s="1"/>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="83">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="1"/>
@@ -2564,7 +2490,7 @@
       <c r="S83" s="1"/>
       <c r="T83" s="1"/>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="84">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="1"/>
@@ -2586,7 +2512,7 @@
       <c r="S84" s="1"/>
       <c r="T84" s="1"/>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="85">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="1"/>
@@ -2608,7 +2534,7 @@
       <c r="S85" s="1"/>
       <c r="T85" s="1"/>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="86">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="1"/>
@@ -2630,7 +2556,7 @@
       <c r="S86" s="1"/>
       <c r="T86" s="1"/>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="87">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="1"/>
@@ -2652,7 +2578,7 @@
       <c r="S87" s="1"/>
       <c r="T87" s="1"/>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="88">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="1"/>
@@ -2674,7 +2600,7 @@
       <c r="S88" s="1"/>
       <c r="T88" s="1"/>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="89">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="1"/>
@@ -2696,7 +2622,7 @@
       <c r="S89" s="1"/>
       <c r="T89" s="1"/>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="90">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="1"/>
@@ -2718,7 +2644,7 @@
       <c r="S90" s="1"/>
       <c r="T90" s="1"/>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="91">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="1"/>
@@ -2740,7 +2666,7 @@
       <c r="S91" s="1"/>
       <c r="T91" s="1"/>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="92">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="1"/>
@@ -2762,7 +2688,7 @@
       <c r="S92" s="1"/>
       <c r="T92" s="1"/>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="93">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="1"/>
@@ -2784,7 +2710,7 @@
       <c r="S93" s="1"/>
       <c r="T93" s="1"/>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="94">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="1"/>
@@ -2806,7 +2732,7 @@
       <c r="S94" s="1"/>
       <c r="T94" s="1"/>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="95">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="1"/>
@@ -2828,7 +2754,7 @@
       <c r="S95" s="1"/>
       <c r="T95" s="1"/>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="96">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="1"/>
@@ -2850,7 +2776,7 @@
       <c r="S96" s="1"/>
       <c r="T96" s="1"/>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="97">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="1"/>
@@ -2872,7 +2798,7 @@
       <c r="S97" s="1"/>
       <c r="T97" s="1"/>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="98">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="1"/>
@@ -2894,7 +2820,7 @@
       <c r="S98" s="1"/>
       <c r="T98" s="1"/>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="99">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="1"/>
@@ -2916,7 +2842,7 @@
       <c r="S99" s="1"/>
       <c r="T99" s="1"/>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="100">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="1"/>
@@ -2938,7 +2864,7 @@
       <c r="S100" s="1"/>
       <c r="T100" s="1"/>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="101">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="1"/>
@@ -2960,7 +2886,7 @@
       <c r="S101" s="1"/>
       <c r="T101" s="1"/>
     </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="102">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="1"/>
@@ -2982,7 +2908,7 @@
       <c r="S102" s="1"/>
       <c r="T102" s="1"/>
     </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="103">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="1"/>
@@ -3004,7 +2930,7 @@
       <c r="S103" s="1"/>
       <c r="T103" s="1"/>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="104">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="1"/>
@@ -3026,7 +2952,7 @@
       <c r="S104" s="1"/>
       <c r="T104" s="1"/>
     </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="105">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="1"/>
@@ -3048,7 +2974,7 @@
       <c r="S105" s="1"/>
       <c r="T105" s="1"/>
     </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="106">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="1"/>
@@ -3070,7 +2996,7 @@
       <c r="S106" s="1"/>
       <c r="T106" s="1"/>
     </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="107">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="1"/>
@@ -3092,7 +3018,7 @@
       <c r="S107" s="1"/>
       <c r="T107" s="1"/>
     </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="108">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="1"/>
@@ -3114,7 +3040,7 @@
       <c r="S108" s="1"/>
       <c r="T108" s="1"/>
     </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="109">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="1"/>
@@ -3136,7 +3062,7 @@
       <c r="S109" s="1"/>
       <c r="T109" s="1"/>
     </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="110">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="1"/>
@@ -3158,7 +3084,7 @@
       <c r="S110" s="1"/>
       <c r="T110" s="1"/>
     </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="111">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="1"/>
@@ -3180,7 +3106,7 @@
       <c r="S111" s="1"/>
       <c r="T111" s="1"/>
     </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="112">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="1"/>
@@ -3202,7 +3128,7 @@
       <c r="S112" s="1"/>
       <c r="T112" s="1"/>
     </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="113">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="1"/>
@@ -3224,7 +3150,7 @@
       <c r="S113" s="1"/>
       <c r="T113" s="1"/>
     </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="114">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="1"/>
@@ -3246,7 +3172,7 @@
       <c r="S114" s="1"/>
       <c r="T114" s="1"/>
     </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="115">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="1"/>
@@ -3268,7 +3194,7 @@
       <c r="S115" s="1"/>
       <c r="T115" s="1"/>
     </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="116">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="1"/>
@@ -3290,7 +3216,7 @@
       <c r="S116" s="1"/>
       <c r="T116" s="1"/>
     </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="117">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="1"/>
@@ -3312,7 +3238,7 @@
       <c r="S117" s="1"/>
       <c r="T117" s="1"/>
     </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="118">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="1"/>
@@ -3334,7 +3260,7 @@
       <c r="S118" s="1"/>
       <c r="T118" s="1"/>
     </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="119">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="1"/>
@@ -3356,7 +3282,7 @@
       <c r="S119" s="1"/>
       <c r="T119" s="1"/>
     </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="120">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="1"/>
@@ -3378,7 +3304,7 @@
       <c r="S120" s="1"/>
       <c r="T120" s="1"/>
     </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="121">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="1"/>
@@ -3400,7 +3326,7 @@
       <c r="S121" s="1"/>
       <c r="T121" s="1"/>
     </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="122">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="1"/>
@@ -3422,7 +3348,7 @@
       <c r="S122" s="1"/>
       <c r="T122" s="1"/>
     </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="123">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="1"/>
@@ -3444,7 +3370,7 @@
       <c r="S123" s="1"/>
       <c r="T123" s="1"/>
     </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="124">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="1"/>
@@ -3466,7 +3392,7 @@
       <c r="S124" s="1"/>
       <c r="T124" s="1"/>
     </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="125">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="1"/>
@@ -3488,7 +3414,7 @@
       <c r="S125" s="1"/>
       <c r="T125" s="1"/>
     </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="126">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="1"/>
@@ -3510,7 +3436,7 @@
       <c r="S126" s="1"/>
       <c r="T126" s="1"/>
     </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="127">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="1"/>
@@ -3532,7 +3458,7 @@
       <c r="S127" s="1"/>
       <c r="T127" s="1"/>
     </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="128">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="1"/>
@@ -3554,7 +3480,7 @@
       <c r="S128" s="1"/>
       <c r="T128" s="1"/>
     </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="129">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="1"/>
@@ -3576,7 +3502,7 @@
       <c r="S129" s="1"/>
       <c r="T129" s="1"/>
     </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="130">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="1"/>
@@ -3598,7 +3524,7 @@
       <c r="S130" s="1"/>
       <c r="T130" s="1"/>
     </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="131">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="1"/>
@@ -3620,7 +3546,7 @@
       <c r="S131" s="1"/>
       <c r="T131" s="1"/>
     </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="132">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="1"/>
@@ -3642,7 +3568,7 @@
       <c r="S132" s="1"/>
       <c r="T132" s="1"/>
     </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="133">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="1"/>
@@ -3664,7 +3590,7 @@
       <c r="S133" s="1"/>
       <c r="T133" s="1"/>
     </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="134">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="1"/>
@@ -3686,7 +3612,7 @@
       <c r="S134" s="1"/>
       <c r="T134" s="1"/>
     </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="135">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="1"/>
@@ -3708,7 +3634,7 @@
       <c r="S135" s="1"/>
       <c r="T135" s="1"/>
     </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="136">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="1"/>
@@ -3730,7 +3656,7 @@
       <c r="S136" s="1"/>
       <c r="T136" s="1"/>
     </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="137">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="1"/>
@@ -3752,7 +3678,7 @@
       <c r="S137" s="1"/>
       <c r="T137" s="1"/>
     </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="138">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="1"/>
@@ -3774,7 +3700,7 @@
       <c r="S138" s="1"/>
       <c r="T138" s="1"/>
     </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="139">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="1"/>
@@ -3796,7 +3722,7 @@
       <c r="S139" s="1"/>
       <c r="T139" s="1"/>
     </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="140">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="1"/>
@@ -3818,7 +3744,7 @@
       <c r="S140" s="1"/>
       <c r="T140" s="1"/>
     </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="141">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="1"/>
@@ -3840,7 +3766,7 @@
       <c r="S141" s="1"/>
       <c r="T141" s="1"/>
     </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="142">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="1"/>
@@ -3862,7 +3788,7 @@
       <c r="S142" s="1"/>
       <c r="T142" s="1"/>
     </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="143">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="1"/>
@@ -3884,7 +3810,7 @@
       <c r="S143" s="1"/>
       <c r="T143" s="1"/>
     </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="144">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="1"/>
@@ -3906,7 +3832,7 @@
       <c r="S144" s="1"/>
       <c r="T144" s="1"/>
     </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="145">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="1"/>
@@ -3928,7 +3854,7 @@
       <c r="S145" s="1"/>
       <c r="T145" s="1"/>
     </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="146">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="1"/>
@@ -3950,7 +3876,7 @@
       <c r="S146" s="1"/>
       <c r="T146" s="1"/>
     </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="147">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="1"/>
@@ -3972,7 +3898,7 @@
       <c r="S147" s="1"/>
       <c r="T147" s="1"/>
     </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="148">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="1"/>
@@ -3994,7 +3920,7 @@
       <c r="S148" s="1"/>
       <c r="T148" s="1"/>
     </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="149">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="1"/>
@@ -4016,7 +3942,7 @@
       <c r="S149" s="1"/>
       <c r="T149" s="1"/>
     </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="150">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="1"/>
@@ -4038,7 +3964,7 @@
       <c r="S150" s="1"/>
       <c r="T150" s="1"/>
     </row>
-    <row r="151" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="151">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="1"/>
@@ -4060,7 +3986,7 @@
       <c r="S151" s="1"/>
       <c r="T151" s="1"/>
     </row>
-    <row r="152" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="152">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="1"/>
@@ -4082,7 +4008,7 @@
       <c r="S152" s="1"/>
       <c r="T152" s="1"/>
     </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="153">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="1"/>
@@ -4104,7 +4030,7 @@
       <c r="S153" s="1"/>
       <c r="T153" s="1"/>
     </row>
-    <row r="154" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="154">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="1"/>
@@ -4126,7 +4052,7 @@
       <c r="S154" s="1"/>
       <c r="T154" s="1"/>
     </row>
-    <row r="155" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="155">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="1"/>
@@ -4148,7 +4074,7 @@
       <c r="S155" s="1"/>
       <c r="T155" s="1"/>
     </row>
-    <row r="156" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="156">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="1"/>
@@ -4170,7 +4096,7 @@
       <c r="S156" s="1"/>
       <c r="T156" s="1"/>
     </row>
-    <row r="157" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="157">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="1"/>
@@ -4192,7 +4118,7 @@
       <c r="S157" s="1"/>
       <c r="T157" s="1"/>
     </row>
-    <row r="158" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="158">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="1"/>
@@ -4214,7 +4140,7 @@
       <c r="S158" s="1"/>
       <c r="T158" s="1"/>
     </row>
-    <row r="159" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="159">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="1"/>
@@ -4236,7 +4162,7 @@
       <c r="S159" s="1"/>
       <c r="T159" s="1"/>
     </row>
-    <row r="160" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="160">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="1"/>
@@ -4258,7 +4184,7 @@
       <c r="S160" s="1"/>
       <c r="T160" s="1"/>
     </row>
-    <row r="161" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="161">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="1"/>
@@ -4280,7 +4206,7 @@
       <c r="S161" s="1"/>
       <c r="T161" s="1"/>
     </row>
-    <row r="162" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="162">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="1"/>
@@ -4302,7 +4228,7 @@
       <c r="S162" s="1"/>
       <c r="T162" s="1"/>
     </row>
-    <row r="163" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="163">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="1"/>
@@ -4324,7 +4250,7 @@
       <c r="S163" s="1"/>
       <c r="T163" s="1"/>
     </row>
-    <row r="164" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="164">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="1"/>
@@ -4346,7 +4272,7 @@
       <c r="S164" s="1"/>
       <c r="T164" s="1"/>
     </row>
-    <row r="165" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="165">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="1"/>
@@ -4368,7 +4294,7 @@
       <c r="S165" s="1"/>
       <c r="T165" s="1"/>
     </row>
-    <row r="166" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="166">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="1"/>
@@ -4390,7 +4316,7 @@
       <c r="S166" s="1"/>
       <c r="T166" s="1"/>
     </row>
-    <row r="167" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="167">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="1"/>
@@ -4412,7 +4338,7 @@
       <c r="S167" s="1"/>
       <c r="T167" s="1"/>
     </row>
-    <row r="168" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="168">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="1"/>
@@ -4434,7 +4360,7 @@
       <c r="S168" s="1"/>
       <c r="T168" s="1"/>
     </row>
-    <row r="169" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="169">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="1"/>
@@ -4456,7 +4382,7 @@
       <c r="S169" s="1"/>
       <c r="T169" s="1"/>
     </row>
-    <row r="170" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="170">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="1"/>
@@ -4478,7 +4404,7 @@
       <c r="S170" s="1"/>
       <c r="T170" s="1"/>
     </row>
-    <row r="171" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="171">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="1"/>
@@ -4500,7 +4426,7 @@
       <c r="S171" s="1"/>
       <c r="T171" s="1"/>
     </row>
-    <row r="172" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="172">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="1"/>
@@ -4522,7 +4448,7 @@
       <c r="S172" s="1"/>
       <c r="T172" s="1"/>
     </row>
-    <row r="173" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="173">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="1"/>
@@ -4544,7 +4470,7 @@
       <c r="S173" s="1"/>
       <c r="T173" s="1"/>
     </row>
-    <row r="174" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="174">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="1"/>
@@ -4566,7 +4492,7 @@
       <c r="S174" s="1"/>
       <c r="T174" s="1"/>
     </row>
-    <row r="175" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="175">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="1"/>
@@ -4588,7 +4514,7 @@
       <c r="S175" s="1"/>
       <c r="T175" s="1"/>
     </row>
-    <row r="176" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="176">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="1"/>
@@ -4610,7 +4536,7 @@
       <c r="S176" s="1"/>
       <c r="T176" s="1"/>
     </row>
-    <row r="177" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="177">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="1"/>
@@ -4632,7 +4558,7 @@
       <c r="S177" s="1"/>
       <c r="T177" s="1"/>
     </row>
-    <row r="178" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="178">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="1"/>
@@ -4654,7 +4580,7 @@
       <c r="S178" s="1"/>
       <c r="T178" s="1"/>
     </row>
-    <row r="179" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="179">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="1"/>
@@ -4676,7 +4602,7 @@
       <c r="S179" s="1"/>
       <c r="T179" s="1"/>
     </row>
-    <row r="180" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="180">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="1"/>
@@ -4698,7 +4624,7 @@
       <c r="S180" s="1"/>
       <c r="T180" s="1"/>
     </row>
-    <row r="181" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="181">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="1"/>
@@ -4720,7 +4646,7 @@
       <c r="S181" s="1"/>
       <c r="T181" s="1"/>
     </row>
-    <row r="182" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="182">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="1"/>
@@ -4742,7 +4668,7 @@
       <c r="S182" s="1"/>
       <c r="T182" s="1"/>
     </row>
-    <row r="183" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="183">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="1"/>
@@ -4764,7 +4690,7 @@
       <c r="S183" s="1"/>
       <c r="T183" s="1"/>
     </row>
-    <row r="184" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="184">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="1"/>
@@ -4786,7 +4712,7 @@
       <c r="S184" s="1"/>
       <c r="T184" s="1"/>
     </row>
-    <row r="185" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="185">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="1"/>
@@ -4808,7 +4734,7 @@
       <c r="S185" s="1"/>
       <c r="T185" s="1"/>
     </row>
-    <row r="186" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="186">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="1"/>
@@ -4830,7 +4756,7 @@
       <c r="S186" s="1"/>
       <c r="T186" s="1"/>
     </row>
-    <row r="187" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="187">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="1"/>
@@ -4852,7 +4778,7 @@
       <c r="S187" s="1"/>
       <c r="T187" s="1"/>
     </row>
-    <row r="188" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="188">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="1"/>
@@ -4874,7 +4800,7 @@
       <c r="S188" s="1"/>
       <c r="T188" s="1"/>
     </row>
-    <row r="189" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="189">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="1"/>
@@ -4896,7 +4822,7 @@
       <c r="S189" s="1"/>
       <c r="T189" s="1"/>
     </row>
-    <row r="190" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="190">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="1"/>
@@ -4918,7 +4844,7 @@
       <c r="S190" s="1"/>
       <c r="T190" s="1"/>
     </row>
-    <row r="191" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="191">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="1"/>
@@ -4940,7 +4866,7 @@
       <c r="S191" s="1"/>
       <c r="T191" s="1"/>
     </row>
-    <row r="192" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="192">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="1"/>
@@ -4962,7 +4888,7 @@
       <c r="S192" s="1"/>
       <c r="T192" s="1"/>
     </row>
-    <row r="193" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="193">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="1"/>
@@ -4984,7 +4910,7 @@
       <c r="S193" s="1"/>
       <c r="T193" s="1"/>
     </row>
-    <row r="194" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="194">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="1"/>
@@ -5006,7 +4932,7 @@
       <c r="S194" s="1"/>
       <c r="T194" s="1"/>
     </row>
-    <row r="195" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="195">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="1"/>
@@ -5028,7 +4954,7 @@
       <c r="S195" s="1"/>
       <c r="T195" s="1"/>
     </row>
-    <row r="196" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="196">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="1"/>
@@ -5050,7 +4976,7 @@
       <c r="S196" s="1"/>
       <c r="T196" s="1"/>
     </row>
-    <row r="197" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="197">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="1"/>
@@ -5072,7 +4998,7 @@
       <c r="S197" s="1"/>
       <c r="T197" s="1"/>
     </row>
-    <row r="198" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="198">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="1"/>
@@ -5094,7 +5020,7 @@
       <c r="S198" s="1"/>
       <c r="T198" s="1"/>
     </row>
-    <row r="199" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="199">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="1"/>
@@ -5116,7 +5042,7 @@
       <c r="S199" s="1"/>
       <c r="T199" s="1"/>
     </row>
-    <row r="200" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="200">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="1"/>
@@ -5139,7 +5065,6 @@
       <c r="T200" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/许愿墙.xlsx
+++ b/许愿墙.xlsx
@@ -1,33 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZHAO\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A0C8A9D-39ED-4B0F-AE7C-70B04A701061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="44">
   <si>
     <t>你想找什么样的工作？</t>
   </si>
@@ -157,185 +155,45 @@
   <si>
     <t>JAVA开发，base太原</t>
   </si>
+  <si>
+    <t>前端开发，base上海</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.75"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -345,197 +203,39 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF34C724"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="6">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF1F2329"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF1F2329"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF1F2329"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF1F2329"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -560,328 +260,63 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF1F2329"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF1F2329"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF1F2329"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF1F2329"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主题">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -919,9 +354,9 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -954,9 +389,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -989,9 +441,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1130,31 +599,37 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:T200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="74" customWidth="1"/>
     <col min="2" max="2" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2"/>
@@ -1176,11 +651,11 @@
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
     </row>
-    <row r="2" spans="1:20">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="2"/>
@@ -1202,11 +677,11 @@
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
     </row>
-    <row r="3" spans="1:20">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="2"/>
@@ -1228,11 +703,11 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="2"/>
@@ -1254,11 +729,11 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="2"/>
@@ -1280,11 +755,11 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="2"/>
@@ -1306,11 +781,11 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="2"/>
@@ -1332,11 +807,11 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="2"/>
@@ -1358,11 +833,11 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="1:20">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="2"/>
@@ -1384,11 +859,11 @@
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
     </row>
-    <row r="10" spans="1:20">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="2"/>
@@ -1410,11 +885,11 @@
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
     </row>
-    <row r="11" spans="1:20">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="2"/>
@@ -1436,11 +911,11 @@
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
     </row>
-    <row r="12" spans="1:20">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="2"/>
@@ -1462,11 +937,11 @@
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
     </row>
-    <row r="13" spans="1:20">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C13" s="2"/>
@@ -1488,11 +963,11 @@
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
     </row>
-    <row r="14" spans="1:20">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C14" s="2"/>
@@ -1514,11 +989,11 @@
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
     </row>
-    <row r="15" spans="1:20">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C15" s="2"/>
@@ -1540,11 +1015,11 @@
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
     </row>
-    <row r="16" spans="1:20">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C16" s="2"/>
@@ -1566,11 +1041,11 @@
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
     </row>
-    <row r="17" spans="1:20">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="2"/>
@@ -1592,11 +1067,11 @@
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
     </row>
-    <row r="18" spans="1:20">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="2"/>
@@ -1618,11 +1093,11 @@
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
     </row>
-    <row r="19" spans="1:20">
-      <c r="A19" s="3" t="s">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="2"/>
@@ -1644,11 +1119,11 @@
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
     </row>
-    <row r="20" spans="1:20">
-      <c r="A20" s="3" t="s">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="2"/>
@@ -1670,11 +1145,11 @@
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
     </row>
-    <row r="21" spans="1:20">
-      <c r="A21" s="3" t="s">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="2"/>
@@ -1696,11 +1171,11 @@
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
     </row>
-    <row r="22" spans="1:20">
-      <c r="A22" s="3" t="s">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C22" s="2"/>
@@ -1722,11 +1197,11 @@
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
     </row>
-    <row r="23" spans="1:20">
-      <c r="A23" s="3" t="s">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="2"/>
@@ -1748,11 +1223,11 @@
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
     </row>
-    <row r="24" spans="1:20">
-      <c r="A24" s="3" t="s">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C24" s="2"/>
@@ -1774,11 +1249,11 @@
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
     </row>
-    <row r="25" spans="1:20">
-      <c r="A25" s="3" t="s">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C25" s="2"/>
@@ -1800,11 +1275,11 @@
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
     </row>
-    <row r="26" spans="1:20">
-      <c r="A26" s="3" t="s">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="2"/>
@@ -1826,11 +1301,11 @@
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
     </row>
-    <row r="27" spans="1:20">
-      <c r="A27" s="3" t="s">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C27" s="2"/>
@@ -1852,11 +1327,11 @@
       <c r="S27" s="2"/>
       <c r="T27" s="2"/>
     </row>
-    <row r="28" spans="1:20">
-      <c r="A28" s="3" t="s">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C28" s="2"/>
@@ -1878,11 +1353,11 @@
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
     </row>
-    <row r="29" spans="1:20">
-      <c r="A29" s="3" t="s">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C29" s="2"/>
@@ -1904,11 +1379,11 @@
       <c r="S29" s="2"/>
       <c r="T29" s="2"/>
     </row>
-    <row r="30" spans="1:20">
-      <c r="A30" s="3" t="s">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C30" s="2"/>
@@ -1930,11 +1405,11 @@
       <c r="S30" s="2"/>
       <c r="T30" s="2"/>
     </row>
-    <row r="31" spans="1:20">
-      <c r="A31" s="3" t="s">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C31" s="2"/>
@@ -1956,11 +1431,11 @@
       <c r="S31" s="2"/>
       <c r="T31" s="2"/>
     </row>
-    <row r="32" spans="1:20">
-      <c r="A32" s="3" t="s">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C32" s="2"/>
@@ -1982,11 +1457,11 @@
       <c r="S32" s="2"/>
       <c r="T32" s="2"/>
     </row>
-    <row r="33" spans="1:20">
-      <c r="A33" s="3" t="s">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C33" s="2"/>
@@ -2008,11 +1483,11 @@
       <c r="S33" s="2"/>
       <c r="T33" s="2"/>
     </row>
-    <row r="34" spans="1:20">
-      <c r="A34" s="3" t="s">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C34" s="2"/>
@@ -2034,11 +1509,11 @@
       <c r="S34" s="2"/>
       <c r="T34" s="2"/>
     </row>
-    <row r="35" spans="1:20">
-      <c r="A35" s="3" t="s">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C35" s="2"/>
@@ -2060,11 +1535,11 @@
       <c r="S35" s="2"/>
       <c r="T35" s="2"/>
     </row>
-    <row r="36" spans="1:20">
-      <c r="A36" s="3" t="s">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C36" s="2"/>
@@ -2086,11 +1561,11 @@
       <c r="S36" s="2"/>
       <c r="T36" s="2"/>
     </row>
-    <row r="37" spans="1:20">
-      <c r="A37" s="3" t="s">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C37" s="2"/>
@@ -2112,11 +1587,11 @@
       <c r="S37" s="2"/>
       <c r="T37" s="2"/>
     </row>
-    <row r="38" spans="1:20">
-      <c r="A38" s="3" t="s">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C38" s="2"/>
@@ -2138,37 +1613,37 @@
       <c r="S38" s="2"/>
       <c r="T38" s="2"/>
     </row>
-    <row r="39" spans="1:20">
-      <c r="A39" s="3" t="s">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A39" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
-      <c r="P39" s="2"/>
-      <c r="Q39" s="2"/>
-      <c r="R39" s="2"/>
-      <c r="S39" s="2"/>
-      <c r="T39" s="2"/>
-    </row>
-    <row r="40" spans="1:20">
-      <c r="A40" s="3" t="s">
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C40" s="2"/>
@@ -2190,11 +1665,11 @@
       <c r="S40" s="2"/>
       <c r="T40" s="2"/>
     </row>
-    <row r="41" spans="1:20">
-      <c r="A41" s="3" t="s">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C41" s="2"/>
@@ -2216,11 +1691,11 @@
       <c r="S41" s="2"/>
       <c r="T41" s="2"/>
     </row>
-    <row r="42" spans="1:20">
-      <c r="A42" s="3" t="s">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C42" s="2"/>
@@ -2242,11 +1717,11 @@
       <c r="S42" s="2"/>
       <c r="T42" s="2"/>
     </row>
-    <row r="43" spans="1:20">
-      <c r="A43" s="3" t="s">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C43" s="2"/>
@@ -2268,11 +1743,11 @@
       <c r="S43" s="2"/>
       <c r="T43" s="2"/>
     </row>
-    <row r="44" spans="1:20">
-      <c r="A44" s="3" t="s">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C44" s="2"/>
@@ -2294,11 +1769,11 @@
       <c r="S44" s="2"/>
       <c r="T44" s="2"/>
     </row>
-    <row r="45" spans="1:20">
-      <c r="A45" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B45" s="3" t="s">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C45" s="2"/>
@@ -2320,9 +1795,13 @@
       <c r="S45" s="2"/>
       <c r="T45" s="2"/>
     </row>
-    <row r="46" spans="1:20">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
@@ -2342,9 +1821,9 @@
       <c r="S46" s="2"/>
       <c r="T46" s="2"/>
     </row>
-    <row r="47" spans="1:20">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
@@ -2364,9 +1843,9 @@
       <c r="S47" s="2"/>
       <c r="T47" s="2"/>
     </row>
-    <row r="48" spans="1:20">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
@@ -2386,9 +1865,9 @@
       <c r="S48" s="2"/>
       <c r="T48" s="2"/>
     </row>
-    <row r="49" spans="1:20">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
@@ -2408,9 +1887,9 @@
       <c r="S49" s="2"/>
       <c r="T49" s="2"/>
     </row>
-    <row r="50" spans="1:20">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
@@ -2430,9 +1909,9 @@
       <c r="S50" s="2"/>
       <c r="T50" s="2"/>
     </row>
-    <row r="51" spans="1:20">
-      <c r="A51" s="3"/>
-      <c r="B51" s="3"/>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
@@ -2452,9 +1931,9 @@
       <c r="S51" s="2"/>
       <c r="T51" s="2"/>
     </row>
-    <row r="52" spans="1:20">
-      <c r="A52" s="3"/>
-      <c r="B52" s="3"/>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
@@ -2474,9 +1953,9 @@
       <c r="S52" s="2"/>
       <c r="T52" s="2"/>
     </row>
-    <row r="53" spans="1:20">
-      <c r="A53" s="3"/>
-      <c r="B53" s="3"/>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
@@ -2496,9 +1975,9 @@
       <c r="S53" s="2"/>
       <c r="T53" s="2"/>
     </row>
-    <row r="54" spans="1:20">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3"/>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
@@ -2518,9 +1997,9 @@
       <c r="S54" s="2"/>
       <c r="T54" s="2"/>
     </row>
-    <row r="55" spans="1:20">
-      <c r="A55" s="3"/>
-      <c r="B55" s="3"/>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
@@ -2540,9 +2019,9 @@
       <c r="S55" s="2"/>
       <c r="T55" s="2"/>
     </row>
-    <row r="56" spans="1:20">
-      <c r="A56" s="3"/>
-      <c r="B56" s="3"/>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
@@ -2562,9 +2041,9 @@
       <c r="S56" s="2"/>
       <c r="T56" s="2"/>
     </row>
-    <row r="57" spans="1:20">
-      <c r="A57" s="3"/>
-      <c r="B57" s="3"/>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
@@ -2584,9 +2063,9 @@
       <c r="S57" s="2"/>
       <c r="T57" s="2"/>
     </row>
-    <row r="58" spans="1:20">
-      <c r="A58" s="3"/>
-      <c r="B58" s="3"/>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
@@ -2606,9 +2085,9 @@
       <c r="S58" s="2"/>
       <c r="T58" s="2"/>
     </row>
-    <row r="59" spans="1:20">
-      <c r="A59" s="3"/>
-      <c r="B59" s="3"/>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
@@ -2628,9 +2107,9 @@
       <c r="S59" s="2"/>
       <c r="T59" s="2"/>
     </row>
-    <row r="60" spans="1:20">
-      <c r="A60" s="3"/>
-      <c r="B60" s="3"/>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
@@ -2650,9 +2129,9 @@
       <c r="S60" s="2"/>
       <c r="T60" s="2"/>
     </row>
-    <row r="61" spans="1:20">
-      <c r="A61" s="3"/>
-      <c r="B61" s="3"/>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
@@ -2672,9 +2151,9 @@
       <c r="S61" s="2"/>
       <c r="T61" s="2"/>
     </row>
-    <row r="62" spans="1:20">
-      <c r="A62" s="3"/>
-      <c r="B62" s="3"/>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
@@ -2694,9 +2173,9 @@
       <c r="S62" s="2"/>
       <c r="T62" s="2"/>
     </row>
-    <row r="63" spans="1:20">
-      <c r="A63" s="3"/>
-      <c r="B63" s="3"/>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
@@ -2716,9 +2195,9 @@
       <c r="S63" s="2"/>
       <c r="T63" s="2"/>
     </row>
-    <row r="64" spans="1:20">
-      <c r="A64" s="3"/>
-      <c r="B64" s="3"/>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
@@ -2738,9 +2217,9 @@
       <c r="S64" s="2"/>
       <c r="T64" s="2"/>
     </row>
-    <row r="65" spans="1:20">
-      <c r="A65" s="3"/>
-      <c r="B65" s="3"/>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
@@ -2760,9 +2239,9 @@
       <c r="S65" s="2"/>
       <c r="T65" s="2"/>
     </row>
-    <row r="66" spans="1:20">
-      <c r="A66" s="3"/>
-      <c r="B66" s="3"/>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
@@ -2782,9 +2261,9 @@
       <c r="S66" s="2"/>
       <c r="T66" s="2"/>
     </row>
-    <row r="67" spans="1:20">
-      <c r="A67" s="3"/>
-      <c r="B67" s="3"/>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
@@ -2804,9 +2283,9 @@
       <c r="S67" s="2"/>
       <c r="T67" s="2"/>
     </row>
-    <row r="68" spans="1:20">
-      <c r="A68" s="3"/>
-      <c r="B68" s="3"/>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
@@ -2826,9 +2305,9 @@
       <c r="S68" s="2"/>
       <c r="T68" s="2"/>
     </row>
-    <row r="69" spans="1:20">
-      <c r="A69" s="3"/>
-      <c r="B69" s="3"/>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
@@ -2848,9 +2327,9 @@
       <c r="S69" s="2"/>
       <c r="T69" s="2"/>
     </row>
-    <row r="70" spans="1:20">
-      <c r="A70" s="3"/>
-      <c r="B70" s="3"/>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
@@ -2870,9 +2349,9 @@
       <c r="S70" s="2"/>
       <c r="T70" s="2"/>
     </row>
-    <row r="71" spans="1:20">
-      <c r="A71" s="3"/>
-      <c r="B71" s="3"/>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
@@ -2892,9 +2371,9 @@
       <c r="S71" s="2"/>
       <c r="T71" s="2"/>
     </row>
-    <row r="72" spans="1:20">
-      <c r="A72" s="3"/>
-      <c r="B72" s="3"/>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
@@ -2914,9 +2393,9 @@
       <c r="S72" s="2"/>
       <c r="T72" s="2"/>
     </row>
-    <row r="73" spans="1:20">
-      <c r="A73" s="3"/>
-      <c r="B73" s="3"/>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
@@ -2936,9 +2415,9 @@
       <c r="S73" s="2"/>
       <c r="T73" s="2"/>
     </row>
-    <row r="74" spans="1:20">
-      <c r="A74" s="3"/>
-      <c r="B74" s="3"/>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
@@ -2958,9 +2437,9 @@
       <c r="S74" s="2"/>
       <c r="T74" s="2"/>
     </row>
-    <row r="75" spans="1:20">
-      <c r="A75" s="3"/>
-      <c r="B75" s="3"/>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
@@ -2980,9 +2459,9 @@
       <c r="S75" s="2"/>
       <c r="T75" s="2"/>
     </row>
-    <row r="76" spans="1:20">
-      <c r="A76" s="3"/>
-      <c r="B76" s="3"/>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
@@ -3002,9 +2481,9 @@
       <c r="S76" s="2"/>
       <c r="T76" s="2"/>
     </row>
-    <row r="77" spans="1:20">
-      <c r="A77" s="3"/>
-      <c r="B77" s="3"/>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
@@ -3024,9 +2503,9 @@
       <c r="S77" s="2"/>
       <c r="T77" s="2"/>
     </row>
-    <row r="78" spans="1:20">
-      <c r="A78" s="3"/>
-      <c r="B78" s="3"/>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
@@ -3046,9 +2525,9 @@
       <c r="S78" s="2"/>
       <c r="T78" s="2"/>
     </row>
-    <row r="79" spans="1:20">
-      <c r="A79" s="3"/>
-      <c r="B79" s="3"/>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
@@ -3068,9 +2547,9 @@
       <c r="S79" s="2"/>
       <c r="T79" s="2"/>
     </row>
-    <row r="80" spans="1:20">
-      <c r="A80" s="3"/>
-      <c r="B80" s="3"/>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
@@ -3090,9 +2569,9 @@
       <c r="S80" s="2"/>
       <c r="T80" s="2"/>
     </row>
-    <row r="81" spans="1:20">
-      <c r="A81" s="3"/>
-      <c r="B81" s="3"/>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A81" s="1"/>
+      <c r="B81" s="1"/>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
@@ -3112,9 +2591,9 @@
       <c r="S81" s="2"/>
       <c r="T81" s="2"/>
     </row>
-    <row r="82" spans="1:20">
-      <c r="A82" s="3"/>
-      <c r="B82" s="3"/>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
@@ -3134,9 +2613,9 @@
       <c r="S82" s="2"/>
       <c r="T82" s="2"/>
     </row>
-    <row r="83" spans="1:20">
-      <c r="A83" s="3"/>
-      <c r="B83" s="3"/>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
@@ -3156,9 +2635,9 @@
       <c r="S83" s="2"/>
       <c r="T83" s="2"/>
     </row>
-    <row r="84" spans="1:20">
-      <c r="A84" s="3"/>
-      <c r="B84" s="3"/>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
@@ -3178,9 +2657,9 @@
       <c r="S84" s="2"/>
       <c r="T84" s="2"/>
     </row>
-    <row r="85" spans="1:20">
-      <c r="A85" s="3"/>
-      <c r="B85" s="3"/>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
@@ -3200,9 +2679,9 @@
       <c r="S85" s="2"/>
       <c r="T85" s="2"/>
     </row>
-    <row r="86" spans="1:20">
-      <c r="A86" s="3"/>
-      <c r="B86" s="3"/>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A86" s="1"/>
+      <c r="B86" s="1"/>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
@@ -3222,9 +2701,9 @@
       <c r="S86" s="2"/>
       <c r="T86" s="2"/>
     </row>
-    <row r="87" spans="1:20">
-      <c r="A87" s="3"/>
-      <c r="B87" s="3"/>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A87" s="1"/>
+      <c r="B87" s="1"/>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
@@ -3244,9 +2723,9 @@
       <c r="S87" s="2"/>
       <c r="T87" s="2"/>
     </row>
-    <row r="88" spans="1:20">
-      <c r="A88" s="3"/>
-      <c r="B88" s="3"/>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A88" s="1"/>
+      <c r="B88" s="1"/>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
@@ -3266,9 +2745,9 @@
       <c r="S88" s="2"/>
       <c r="T88" s="2"/>
     </row>
-    <row r="89" spans="1:20">
-      <c r="A89" s="3"/>
-      <c r="B89" s="3"/>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A89" s="1"/>
+      <c r="B89" s="1"/>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
@@ -3288,9 +2767,9 @@
       <c r="S89" s="2"/>
       <c r="T89" s="2"/>
     </row>
-    <row r="90" spans="1:20">
-      <c r="A90" s="3"/>
-      <c r="B90" s="3"/>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A90" s="1"/>
+      <c r="B90" s="1"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
@@ -3310,9 +2789,9 @@
       <c r="S90" s="2"/>
       <c r="T90" s="2"/>
     </row>
-    <row r="91" spans="1:20">
-      <c r="A91" s="3"/>
-      <c r="B91" s="3"/>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A91" s="1"/>
+      <c r="B91" s="1"/>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
@@ -3332,9 +2811,9 @@
       <c r="S91" s="2"/>
       <c r="T91" s="2"/>
     </row>
-    <row r="92" spans="1:20">
-      <c r="A92" s="3"/>
-      <c r="B92" s="3"/>
+    <row r="92" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A92" s="1"/>
+      <c r="B92" s="1"/>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
@@ -3354,9 +2833,9 @@
       <c r="S92" s="2"/>
       <c r="T92" s="2"/>
     </row>
-    <row r="93" spans="1:20">
-      <c r="A93" s="3"/>
-      <c r="B93" s="3"/>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A93" s="1"/>
+      <c r="B93" s="1"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
@@ -3376,9 +2855,9 @@
       <c r="S93" s="2"/>
       <c r="T93" s="2"/>
     </row>
-    <row r="94" spans="1:20">
-      <c r="A94" s="3"/>
-      <c r="B94" s="3"/>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A94" s="1"/>
+      <c r="B94" s="1"/>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
@@ -3398,9 +2877,9 @@
       <c r="S94" s="2"/>
       <c r="T94" s="2"/>
     </row>
-    <row r="95" spans="1:20">
-      <c r="A95" s="3"/>
-      <c r="B95" s="3"/>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A95" s="1"/>
+      <c r="B95" s="1"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
@@ -3420,9 +2899,9 @@
       <c r="S95" s="2"/>
       <c r="T95" s="2"/>
     </row>
-    <row r="96" spans="1:20">
-      <c r="A96" s="3"/>
-      <c r="B96" s="3"/>
+    <row r="96" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A96" s="1"/>
+      <c r="B96" s="1"/>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
@@ -3442,9 +2921,9 @@
       <c r="S96" s="2"/>
       <c r="T96" s="2"/>
     </row>
-    <row r="97" spans="1:20">
-      <c r="A97" s="3"/>
-      <c r="B97" s="3"/>
+    <row r="97" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A97" s="1"/>
+      <c r="B97" s="1"/>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
@@ -3464,9 +2943,9 @@
       <c r="S97" s="2"/>
       <c r="T97" s="2"/>
     </row>
-    <row r="98" spans="1:20">
-      <c r="A98" s="3"/>
-      <c r="B98" s="3"/>
+    <row r="98" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A98" s="1"/>
+      <c r="B98" s="1"/>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
@@ -3486,9 +2965,9 @@
       <c r="S98" s="2"/>
       <c r="T98" s="2"/>
     </row>
-    <row r="99" spans="1:20">
-      <c r="A99" s="3"/>
-      <c r="B99" s="3"/>
+    <row r="99" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A99" s="1"/>
+      <c r="B99" s="1"/>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
@@ -3508,9 +2987,9 @@
       <c r="S99" s="2"/>
       <c r="T99" s="2"/>
     </row>
-    <row r="100" spans="1:20">
-      <c r="A100" s="3"/>
-      <c r="B100" s="3"/>
+    <row r="100" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A100" s="1"/>
+      <c r="B100" s="1"/>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
@@ -3530,9 +3009,9 @@
       <c r="S100" s="2"/>
       <c r="T100" s="2"/>
     </row>
-    <row r="101" spans="1:20">
-      <c r="A101" s="3"/>
-      <c r="B101" s="3"/>
+    <row r="101" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A101" s="1"/>
+      <c r="B101" s="1"/>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
@@ -3552,9 +3031,9 @@
       <c r="S101" s="2"/>
       <c r="T101" s="2"/>
     </row>
-    <row r="102" spans="1:20">
-      <c r="A102" s="3"/>
-      <c r="B102" s="3"/>
+    <row r="102" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A102" s="1"/>
+      <c r="B102" s="1"/>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
@@ -3574,9 +3053,9 @@
       <c r="S102" s="2"/>
       <c r="T102" s="2"/>
     </row>
-    <row r="103" spans="1:20">
-      <c r="A103" s="3"/>
-      <c r="B103" s="3"/>
+    <row r="103" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A103" s="1"/>
+      <c r="B103" s="1"/>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
@@ -3596,9 +3075,9 @@
       <c r="S103" s="2"/>
       <c r="T103" s="2"/>
     </row>
-    <row r="104" spans="1:20">
-      <c r="A104" s="3"/>
-      <c r="B104" s="3"/>
+    <row r="104" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A104" s="1"/>
+      <c r="B104" s="1"/>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
@@ -3618,9 +3097,9 @@
       <c r="S104" s="2"/>
       <c r="T104" s="2"/>
     </row>
-    <row r="105" spans="1:20">
-      <c r="A105" s="3"/>
-      <c r="B105" s="3"/>
+    <row r="105" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A105" s="1"/>
+      <c r="B105" s="1"/>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
@@ -3640,9 +3119,9 @@
       <c r="S105" s="2"/>
       <c r="T105" s="2"/>
     </row>
-    <row r="106" spans="1:20">
-      <c r="A106" s="3"/>
-      <c r="B106" s="3"/>
+    <row r="106" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A106" s="1"/>
+      <c r="B106" s="1"/>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
@@ -3662,9 +3141,9 @@
       <c r="S106" s="2"/>
       <c r="T106" s="2"/>
     </row>
-    <row r="107" spans="1:20">
-      <c r="A107" s="3"/>
-      <c r="B107" s="3"/>
+    <row r="107" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A107" s="1"/>
+      <c r="B107" s="1"/>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
@@ -3684,9 +3163,9 @@
       <c r="S107" s="2"/>
       <c r="T107" s="2"/>
     </row>
-    <row r="108" spans="1:20">
-      <c r="A108" s="3"/>
-      <c r="B108" s="3"/>
+    <row r="108" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A108" s="1"/>
+      <c r="B108" s="1"/>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
@@ -3706,9 +3185,9 @@
       <c r="S108" s="2"/>
       <c r="T108" s="2"/>
     </row>
-    <row r="109" spans="1:20">
-      <c r="A109" s="3"/>
-      <c r="B109" s="3"/>
+    <row r="109" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A109" s="1"/>
+      <c r="B109" s="1"/>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
@@ -3728,9 +3207,9 @@
       <c r="S109" s="2"/>
       <c r="T109" s="2"/>
     </row>
-    <row r="110" spans="1:20">
-      <c r="A110" s="3"/>
-      <c r="B110" s="3"/>
+    <row r="110" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A110" s="1"/>
+      <c r="B110" s="1"/>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
@@ -3750,9 +3229,9 @@
       <c r="S110" s="2"/>
       <c r="T110" s="2"/>
     </row>
-    <row r="111" spans="1:20">
-      <c r="A111" s="3"/>
-      <c r="B111" s="3"/>
+    <row r="111" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A111" s="1"/>
+      <c r="B111" s="1"/>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
@@ -3772,9 +3251,9 @@
       <c r="S111" s="2"/>
       <c r="T111" s="2"/>
     </row>
-    <row r="112" spans="1:20">
-      <c r="A112" s="3"/>
-      <c r="B112" s="3"/>
+    <row r="112" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A112" s="1"/>
+      <c r="B112" s="1"/>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
@@ -3794,9 +3273,9 @@
       <c r="S112" s="2"/>
       <c r="T112" s="2"/>
     </row>
-    <row r="113" spans="1:20">
-      <c r="A113" s="3"/>
-      <c r="B113" s="3"/>
+    <row r="113" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A113" s="1"/>
+      <c r="B113" s="1"/>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
@@ -3816,9 +3295,9 @@
       <c r="S113" s="2"/>
       <c r="T113" s="2"/>
     </row>
-    <row r="114" spans="1:20">
-      <c r="A114" s="3"/>
-      <c r="B114" s="3"/>
+    <row r="114" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A114" s="1"/>
+      <c r="B114" s="1"/>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
@@ -3838,9 +3317,9 @@
       <c r="S114" s="2"/>
       <c r="T114" s="2"/>
     </row>
-    <row r="115" spans="1:20">
-      <c r="A115" s="3"/>
-      <c r="B115" s="3"/>
+    <row r="115" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A115" s="1"/>
+      <c r="B115" s="1"/>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
@@ -3860,9 +3339,9 @@
       <c r="S115" s="2"/>
       <c r="T115" s="2"/>
     </row>
-    <row r="116" spans="1:20">
-      <c r="A116" s="3"/>
-      <c r="B116" s="3"/>
+    <row r="116" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A116" s="1"/>
+      <c r="B116" s="1"/>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
@@ -3882,9 +3361,9 @@
       <c r="S116" s="2"/>
       <c r="T116" s="2"/>
     </row>
-    <row r="117" spans="1:20">
-      <c r="A117" s="3"/>
-      <c r="B117" s="3"/>
+    <row r="117" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A117" s="1"/>
+      <c r="B117" s="1"/>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
@@ -3904,9 +3383,9 @@
       <c r="S117" s="2"/>
       <c r="T117" s="2"/>
     </row>
-    <row r="118" spans="1:20">
-      <c r="A118" s="3"/>
-      <c r="B118" s="3"/>
+    <row r="118" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A118" s="1"/>
+      <c r="B118" s="1"/>
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
@@ -3926,9 +3405,9 @@
       <c r="S118" s="2"/>
       <c r="T118" s="2"/>
     </row>
-    <row r="119" spans="1:20">
-      <c r="A119" s="3"/>
-      <c r="B119" s="3"/>
+    <row r="119" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A119" s="1"/>
+      <c r="B119" s="1"/>
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
@@ -3948,9 +3427,9 @@
       <c r="S119" s="2"/>
       <c r="T119" s="2"/>
     </row>
-    <row r="120" spans="1:20">
-      <c r="A120" s="3"/>
-      <c r="B120" s="3"/>
+    <row r="120" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A120" s="1"/>
+      <c r="B120" s="1"/>
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
       <c r="E120" s="2"/>
@@ -3970,9 +3449,9 @@
       <c r="S120" s="2"/>
       <c r="T120" s="2"/>
     </row>
-    <row r="121" spans="1:20">
-      <c r="A121" s="3"/>
-      <c r="B121" s="3"/>
+    <row r="121" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A121" s="1"/>
+      <c r="B121" s="1"/>
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
@@ -3992,9 +3471,9 @@
       <c r="S121" s="2"/>
       <c r="T121" s="2"/>
     </row>
-    <row r="122" spans="1:20">
-      <c r="A122" s="3"/>
-      <c r="B122" s="3"/>
+    <row r="122" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A122" s="1"/>
+      <c r="B122" s="1"/>
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
@@ -4014,9 +3493,9 @@
       <c r="S122" s="2"/>
       <c r="T122" s="2"/>
     </row>
-    <row r="123" spans="1:20">
-      <c r="A123" s="3"/>
-      <c r="B123" s="3"/>
+    <row r="123" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A123" s="1"/>
+      <c r="B123" s="1"/>
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
@@ -4036,9 +3515,9 @@
       <c r="S123" s="2"/>
       <c r="T123" s="2"/>
     </row>
-    <row r="124" spans="1:20">
-      <c r="A124" s="3"/>
-      <c r="B124" s="3"/>
+    <row r="124" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A124" s="1"/>
+      <c r="B124" s="1"/>
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
@@ -4058,9 +3537,9 @@
       <c r="S124" s="2"/>
       <c r="T124" s="2"/>
     </row>
-    <row r="125" spans="1:20">
-      <c r="A125" s="3"/>
-      <c r="B125" s="3"/>
+    <row r="125" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A125" s="1"/>
+      <c r="B125" s="1"/>
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
@@ -4080,9 +3559,9 @@
       <c r="S125" s="2"/>
       <c r="T125" s="2"/>
     </row>
-    <row r="126" spans="1:20">
-      <c r="A126" s="3"/>
-      <c r="B126" s="3"/>
+    <row r="126" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A126" s="1"/>
+      <c r="B126" s="1"/>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
@@ -4102,9 +3581,9 @@
       <c r="S126" s="2"/>
       <c r="T126" s="2"/>
     </row>
-    <row r="127" spans="1:20">
-      <c r="A127" s="3"/>
-      <c r="B127" s="3"/>
+    <row r="127" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A127" s="1"/>
+      <c r="B127" s="1"/>
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
@@ -4124,9 +3603,9 @@
       <c r="S127" s="2"/>
       <c r="T127" s="2"/>
     </row>
-    <row r="128" spans="1:20">
-      <c r="A128" s="3"/>
-      <c r="B128" s="3"/>
+    <row r="128" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A128" s="1"/>
+      <c r="B128" s="1"/>
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
@@ -4146,9 +3625,9 @@
       <c r="S128" s="2"/>
       <c r="T128" s="2"/>
     </row>
-    <row r="129" spans="1:20">
-      <c r="A129" s="3"/>
-      <c r="B129" s="3"/>
+    <row r="129" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A129" s="1"/>
+      <c r="B129" s="1"/>
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
@@ -4168,9 +3647,9 @@
       <c r="S129" s="2"/>
       <c r="T129" s="2"/>
     </row>
-    <row r="130" spans="1:20">
-      <c r="A130" s="3"/>
-      <c r="B130" s="3"/>
+    <row r="130" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A130" s="1"/>
+      <c r="B130" s="1"/>
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
@@ -4190,9 +3669,9 @@
       <c r="S130" s="2"/>
       <c r="T130" s="2"/>
     </row>
-    <row r="131" spans="1:20">
-      <c r="A131" s="3"/>
-      <c r="B131" s="3"/>
+    <row r="131" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A131" s="1"/>
+      <c r="B131" s="1"/>
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
@@ -4212,9 +3691,9 @@
       <c r="S131" s="2"/>
       <c r="T131" s="2"/>
     </row>
-    <row r="132" spans="1:20">
-      <c r="A132" s="3"/>
-      <c r="B132" s="3"/>
+    <row r="132" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A132" s="1"/>
+      <c r="B132" s="1"/>
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
@@ -4234,9 +3713,9 @@
       <c r="S132" s="2"/>
       <c r="T132" s="2"/>
     </row>
-    <row r="133" spans="1:20">
-      <c r="A133" s="3"/>
-      <c r="B133" s="3"/>
+    <row r="133" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A133" s="1"/>
+      <c r="B133" s="1"/>
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
       <c r="E133" s="2"/>
@@ -4256,9 +3735,9 @@
       <c r="S133" s="2"/>
       <c r="T133" s="2"/>
     </row>
-    <row r="134" spans="1:20">
-      <c r="A134" s="3"/>
-      <c r="B134" s="3"/>
+    <row r="134" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A134" s="1"/>
+      <c r="B134" s="1"/>
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
@@ -4278,9 +3757,9 @@
       <c r="S134" s="2"/>
       <c r="T134" s="2"/>
     </row>
-    <row r="135" spans="1:20">
-      <c r="A135" s="3"/>
-      <c r="B135" s="3"/>
+    <row r="135" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A135" s="1"/>
+      <c r="B135" s="1"/>
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
@@ -4300,9 +3779,9 @@
       <c r="S135" s="2"/>
       <c r="T135" s="2"/>
     </row>
-    <row r="136" spans="1:20">
-      <c r="A136" s="3"/>
-      <c r="B136" s="3"/>
+    <row r="136" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A136" s="1"/>
+      <c r="B136" s="1"/>
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
       <c r="E136" s="2"/>
@@ -4322,9 +3801,9 @@
       <c r="S136" s="2"/>
       <c r="T136" s="2"/>
     </row>
-    <row r="137" spans="1:20">
-      <c r="A137" s="3"/>
-      <c r="B137" s="3"/>
+    <row r="137" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A137" s="1"/>
+      <c r="B137" s="1"/>
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
       <c r="E137" s="2"/>
@@ -4344,9 +3823,9 @@
       <c r="S137" s="2"/>
       <c r="T137" s="2"/>
     </row>
-    <row r="138" spans="1:20">
-      <c r="A138" s="3"/>
-      <c r="B138" s="3"/>
+    <row r="138" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A138" s="1"/>
+      <c r="B138" s="1"/>
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
       <c r="E138" s="2"/>
@@ -4366,9 +3845,9 @@
       <c r="S138" s="2"/>
       <c r="T138" s="2"/>
     </row>
-    <row r="139" spans="1:20">
-      <c r="A139" s="3"/>
-      <c r="B139" s="3"/>
+    <row r="139" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A139" s="1"/>
+      <c r="B139" s="1"/>
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
       <c r="E139" s="2"/>
@@ -4388,9 +3867,9 @@
       <c r="S139" s="2"/>
       <c r="T139" s="2"/>
     </row>
-    <row r="140" spans="1:20">
-      <c r="A140" s="3"/>
-      <c r="B140" s="3"/>
+    <row r="140" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A140" s="1"/>
+      <c r="B140" s="1"/>
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
       <c r="E140" s="2"/>
@@ -4410,9 +3889,9 @@
       <c r="S140" s="2"/>
       <c r="T140" s="2"/>
     </row>
-    <row r="141" spans="1:20">
-      <c r="A141" s="3"/>
-      <c r="B141" s="3"/>
+    <row r="141" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A141" s="1"/>
+      <c r="B141" s="1"/>
       <c r="C141" s="2"/>
       <c r="D141" s="2"/>
       <c r="E141" s="2"/>
@@ -4432,9 +3911,9 @@
       <c r="S141" s="2"/>
       <c r="T141" s="2"/>
     </row>
-    <row r="142" spans="1:20">
-      <c r="A142" s="3"/>
-      <c r="B142" s="3"/>
+    <row r="142" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A142" s="1"/>
+      <c r="B142" s="1"/>
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
       <c r="E142" s="2"/>
@@ -4454,9 +3933,9 @@
       <c r="S142" s="2"/>
       <c r="T142" s="2"/>
     </row>
-    <row r="143" spans="1:20">
-      <c r="A143" s="3"/>
-      <c r="B143" s="3"/>
+    <row r="143" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A143" s="1"/>
+      <c r="B143" s="1"/>
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
       <c r="E143" s="2"/>
@@ -4476,9 +3955,9 @@
       <c r="S143" s="2"/>
       <c r="T143" s="2"/>
     </row>
-    <row r="144" spans="1:20">
-      <c r="A144" s="3"/>
-      <c r="B144" s="3"/>
+    <row r="144" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A144" s="1"/>
+      <c r="B144" s="1"/>
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
       <c r="E144" s="2"/>
@@ -4498,9 +3977,9 @@
       <c r="S144" s="2"/>
       <c r="T144" s="2"/>
     </row>
-    <row r="145" spans="1:20">
-      <c r="A145" s="3"/>
-      <c r="B145" s="3"/>
+    <row r="145" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A145" s="1"/>
+      <c r="B145" s="1"/>
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
       <c r="E145" s="2"/>
@@ -4520,9 +3999,9 @@
       <c r="S145" s="2"/>
       <c r="T145" s="2"/>
     </row>
-    <row r="146" spans="1:20">
-      <c r="A146" s="3"/>
-      <c r="B146" s="3"/>
+    <row r="146" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A146" s="1"/>
+      <c r="B146" s="1"/>
       <c r="C146" s="2"/>
       <c r="D146" s="2"/>
       <c r="E146" s="2"/>
@@ -4542,9 +4021,9 @@
       <c r="S146" s="2"/>
       <c r="T146" s="2"/>
     </row>
-    <row r="147" spans="1:20">
-      <c r="A147" s="3"/>
-      <c r="B147" s="3"/>
+    <row r="147" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A147" s="1"/>
+      <c r="B147" s="1"/>
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
       <c r="E147" s="2"/>
@@ -4564,9 +4043,9 @@
       <c r="S147" s="2"/>
       <c r="T147" s="2"/>
     </row>
-    <row r="148" spans="1:20">
-      <c r="A148" s="3"/>
-      <c r="B148" s="3"/>
+    <row r="148" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A148" s="1"/>
+      <c r="B148" s="1"/>
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
       <c r="E148" s="2"/>
@@ -4586,9 +4065,9 @@
       <c r="S148" s="2"/>
       <c r="T148" s="2"/>
     </row>
-    <row r="149" spans="1:20">
-      <c r="A149" s="3"/>
-      <c r="B149" s="3"/>
+    <row r="149" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A149" s="1"/>
+      <c r="B149" s="1"/>
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
       <c r="E149" s="2"/>
@@ -4608,9 +4087,9 @@
       <c r="S149" s="2"/>
       <c r="T149" s="2"/>
     </row>
-    <row r="150" spans="1:20">
-      <c r="A150" s="3"/>
-      <c r="B150" s="3"/>
+    <row r="150" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A150" s="1"/>
+      <c r="B150" s="1"/>
       <c r="C150" s="2"/>
       <c r="D150" s="2"/>
       <c r="E150" s="2"/>
@@ -4630,9 +4109,9 @@
       <c r="S150" s="2"/>
       <c r="T150" s="2"/>
     </row>
-    <row r="151" spans="1:20">
-      <c r="A151" s="3"/>
-      <c r="B151" s="3"/>
+    <row r="151" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A151" s="1"/>
+      <c r="B151" s="1"/>
       <c r="C151" s="2"/>
       <c r="D151" s="2"/>
       <c r="E151" s="2"/>
@@ -4652,9 +4131,9 @@
       <c r="S151" s="2"/>
       <c r="T151" s="2"/>
     </row>
-    <row r="152" spans="1:20">
-      <c r="A152" s="3"/>
-      <c r="B152" s="3"/>
+    <row r="152" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A152" s="1"/>
+      <c r="B152" s="1"/>
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
       <c r="E152" s="2"/>
@@ -4674,9 +4153,9 @@
       <c r="S152" s="2"/>
       <c r="T152" s="2"/>
     </row>
-    <row r="153" spans="1:20">
-      <c r="A153" s="3"/>
-      <c r="B153" s="3"/>
+    <row r="153" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A153" s="1"/>
+      <c r="B153" s="1"/>
       <c r="C153" s="2"/>
       <c r="D153" s="2"/>
       <c r="E153" s="2"/>
@@ -4696,9 +4175,9 @@
       <c r="S153" s="2"/>
       <c r="T153" s="2"/>
     </row>
-    <row r="154" spans="1:20">
-      <c r="A154" s="3"/>
-      <c r="B154" s="3"/>
+    <row r="154" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A154" s="1"/>
+      <c r="B154" s="1"/>
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
       <c r="E154" s="2"/>
@@ -4718,9 +4197,9 @@
       <c r="S154" s="2"/>
       <c r="T154" s="2"/>
     </row>
-    <row r="155" spans="1:20">
-      <c r="A155" s="3"/>
-      <c r="B155" s="3"/>
+    <row r="155" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A155" s="1"/>
+      <c r="B155" s="1"/>
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
       <c r="E155" s="2"/>
@@ -4740,9 +4219,9 @@
       <c r="S155" s="2"/>
       <c r="T155" s="2"/>
     </row>
-    <row r="156" spans="1:20">
-      <c r="A156" s="3"/>
-      <c r="B156" s="3"/>
+    <row r="156" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A156" s="1"/>
+      <c r="B156" s="1"/>
       <c r="C156" s="2"/>
       <c r="D156" s="2"/>
       <c r="E156" s="2"/>
@@ -4762,9 +4241,9 @@
       <c r="S156" s="2"/>
       <c r="T156" s="2"/>
     </row>
-    <row r="157" spans="1:20">
-      <c r="A157" s="3"/>
-      <c r="B157" s="3"/>
+    <row r="157" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A157" s="1"/>
+      <c r="B157" s="1"/>
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
       <c r="E157" s="2"/>
@@ -4784,9 +4263,9 @@
       <c r="S157" s="2"/>
       <c r="T157" s="2"/>
     </row>
-    <row r="158" spans="1:20">
-      <c r="A158" s="3"/>
-      <c r="B158" s="3"/>
+    <row r="158" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A158" s="1"/>
+      <c r="B158" s="1"/>
       <c r="C158" s="2"/>
       <c r="D158" s="2"/>
       <c r="E158" s="2"/>
@@ -4806,9 +4285,9 @@
       <c r="S158" s="2"/>
       <c r="T158" s="2"/>
     </row>
-    <row r="159" spans="1:20">
-      <c r="A159" s="3"/>
-      <c r="B159" s="3"/>
+    <row r="159" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A159" s="1"/>
+      <c r="B159" s="1"/>
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
       <c r="E159" s="2"/>
@@ -4828,9 +4307,9 @@
       <c r="S159" s="2"/>
       <c r="T159" s="2"/>
     </row>
-    <row r="160" spans="1:20">
-      <c r="A160" s="3"/>
-      <c r="B160" s="3"/>
+    <row r="160" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A160" s="1"/>
+      <c r="B160" s="1"/>
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
       <c r="E160" s="2"/>
@@ -4850,9 +4329,9 @@
       <c r="S160" s="2"/>
       <c r="T160" s="2"/>
     </row>
-    <row r="161" spans="1:20">
-      <c r="A161" s="3"/>
-      <c r="B161" s="3"/>
+    <row r="161" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A161" s="1"/>
+      <c r="B161" s="1"/>
       <c r="C161" s="2"/>
       <c r="D161" s="2"/>
       <c r="E161" s="2"/>
@@ -4872,9 +4351,9 @@
       <c r="S161" s="2"/>
       <c r="T161" s="2"/>
     </row>
-    <row r="162" spans="1:20">
-      <c r="A162" s="3"/>
-      <c r="B162" s="3"/>
+    <row r="162" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A162" s="1"/>
+      <c r="B162" s="1"/>
       <c r="C162" s="2"/>
       <c r="D162" s="2"/>
       <c r="E162" s="2"/>
@@ -4894,9 +4373,9 @@
       <c r="S162" s="2"/>
       <c r="T162" s="2"/>
     </row>
-    <row r="163" spans="1:20">
-      <c r="A163" s="3"/>
-      <c r="B163" s="3"/>
+    <row r="163" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A163" s="1"/>
+      <c r="B163" s="1"/>
       <c r="C163" s="2"/>
       <c r="D163" s="2"/>
       <c r="E163" s="2"/>
@@ -4916,9 +4395,9 @@
       <c r="S163" s="2"/>
       <c r="T163" s="2"/>
     </row>
-    <row r="164" spans="1:20">
-      <c r="A164" s="3"/>
-      <c r="B164" s="3"/>
+    <row r="164" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A164" s="1"/>
+      <c r="B164" s="1"/>
       <c r="C164" s="2"/>
       <c r="D164" s="2"/>
       <c r="E164" s="2"/>
@@ -4938,9 +4417,9 @@
       <c r="S164" s="2"/>
       <c r="T164" s="2"/>
     </row>
-    <row r="165" spans="1:20">
-      <c r="A165" s="3"/>
-      <c r="B165" s="3"/>
+    <row r="165" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A165" s="1"/>
+      <c r="B165" s="1"/>
       <c r="C165" s="2"/>
       <c r="D165" s="2"/>
       <c r="E165" s="2"/>
@@ -4960,9 +4439,9 @@
       <c r="S165" s="2"/>
       <c r="T165" s="2"/>
     </row>
-    <row r="166" spans="1:20">
-      <c r="A166" s="3"/>
-      <c r="B166" s="3"/>
+    <row r="166" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A166" s="1"/>
+      <c r="B166" s="1"/>
       <c r="C166" s="2"/>
       <c r="D166" s="2"/>
       <c r="E166" s="2"/>
@@ -4982,9 +4461,9 @@
       <c r="S166" s="2"/>
       <c r="T166" s="2"/>
     </row>
-    <row r="167" spans="1:20">
-      <c r="A167" s="3"/>
-      <c r="B167" s="3"/>
+    <row r="167" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A167" s="1"/>
+      <c r="B167" s="1"/>
       <c r="C167" s="2"/>
       <c r="D167" s="2"/>
       <c r="E167" s="2"/>
@@ -5004,9 +4483,9 @@
       <c r="S167" s="2"/>
       <c r="T167" s="2"/>
     </row>
-    <row r="168" spans="1:20">
-      <c r="A168" s="3"/>
-      <c r="B168" s="3"/>
+    <row r="168" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A168" s="1"/>
+      <c r="B168" s="1"/>
       <c r="C168" s="2"/>
       <c r="D168" s="2"/>
       <c r="E168" s="2"/>
@@ -5026,9 +4505,9 @@
       <c r="S168" s="2"/>
       <c r="T168" s="2"/>
     </row>
-    <row r="169" spans="1:20">
-      <c r="A169" s="3"/>
-      <c r="B169" s="3"/>
+    <row r="169" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A169" s="1"/>
+      <c r="B169" s="1"/>
       <c r="C169" s="2"/>
       <c r="D169" s="2"/>
       <c r="E169" s="2"/>
@@ -5048,9 +4527,9 @@
       <c r="S169" s="2"/>
       <c r="T169" s="2"/>
     </row>
-    <row r="170" spans="1:20">
-      <c r="A170" s="3"/>
-      <c r="B170" s="3"/>
+    <row r="170" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A170" s="1"/>
+      <c r="B170" s="1"/>
       <c r="C170" s="2"/>
       <c r="D170" s="2"/>
       <c r="E170" s="2"/>
@@ -5070,9 +4549,9 @@
       <c r="S170" s="2"/>
       <c r="T170" s="2"/>
     </row>
-    <row r="171" spans="1:20">
-      <c r="A171" s="3"/>
-      <c r="B171" s="3"/>
+    <row r="171" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A171" s="1"/>
+      <c r="B171" s="1"/>
       <c r="C171" s="2"/>
       <c r="D171" s="2"/>
       <c r="E171" s="2"/>
@@ -5092,9 +4571,9 @@
       <c r="S171" s="2"/>
       <c r="T171" s="2"/>
     </row>
-    <row r="172" spans="1:20">
-      <c r="A172" s="3"/>
-      <c r="B172" s="3"/>
+    <row r="172" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A172" s="1"/>
+      <c r="B172" s="1"/>
       <c r="C172" s="2"/>
       <c r="D172" s="2"/>
       <c r="E172" s="2"/>
@@ -5114,9 +4593,9 @@
       <c r="S172" s="2"/>
       <c r="T172" s="2"/>
     </row>
-    <row r="173" spans="1:20">
-      <c r="A173" s="3"/>
-      <c r="B173" s="3"/>
+    <row r="173" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A173" s="1"/>
+      <c r="B173" s="1"/>
       <c r="C173" s="2"/>
       <c r="D173" s="2"/>
       <c r="E173" s="2"/>
@@ -5136,9 +4615,9 @@
       <c r="S173" s="2"/>
       <c r="T173" s="2"/>
     </row>
-    <row r="174" spans="1:20">
-      <c r="A174" s="3"/>
-      <c r="B174" s="3"/>
+    <row r="174" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A174" s="1"/>
+      <c r="B174" s="1"/>
       <c r="C174" s="2"/>
       <c r="D174" s="2"/>
       <c r="E174" s="2"/>
@@ -5158,9 +4637,9 @@
       <c r="S174" s="2"/>
       <c r="T174" s="2"/>
     </row>
-    <row r="175" spans="1:20">
-      <c r="A175" s="3"/>
-      <c r="B175" s="3"/>
+    <row r="175" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A175" s="1"/>
+      <c r="B175" s="1"/>
       <c r="C175" s="2"/>
       <c r="D175" s="2"/>
       <c r="E175" s="2"/>
@@ -5180,9 +4659,9 @@
       <c r="S175" s="2"/>
       <c r="T175" s="2"/>
     </row>
-    <row r="176" spans="1:20">
-      <c r="A176" s="3"/>
-      <c r="B176" s="3"/>
+    <row r="176" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A176" s="1"/>
+      <c r="B176" s="1"/>
       <c r="C176" s="2"/>
       <c r="D176" s="2"/>
       <c r="E176" s="2"/>
@@ -5202,9 +4681,9 @@
       <c r="S176" s="2"/>
       <c r="T176" s="2"/>
     </row>
-    <row r="177" spans="1:20">
-      <c r="A177" s="3"/>
-      <c r="B177" s="3"/>
+    <row r="177" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A177" s="1"/>
+      <c r="B177" s="1"/>
       <c r="C177" s="2"/>
       <c r="D177" s="2"/>
       <c r="E177" s="2"/>
@@ -5224,9 +4703,9 @@
       <c r="S177" s="2"/>
       <c r="T177" s="2"/>
     </row>
-    <row r="178" spans="1:20">
-      <c r="A178" s="3"/>
-      <c r="B178" s="3"/>
+    <row r="178" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A178" s="1"/>
+      <c r="B178" s="1"/>
       <c r="C178" s="2"/>
       <c r="D178" s="2"/>
       <c r="E178" s="2"/>
@@ -5246,9 +4725,9 @@
       <c r="S178" s="2"/>
       <c r="T178" s="2"/>
     </row>
-    <row r="179" spans="1:20">
-      <c r="A179" s="3"/>
-      <c r="B179" s="3"/>
+    <row r="179" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A179" s="1"/>
+      <c r="B179" s="1"/>
       <c r="C179" s="2"/>
       <c r="D179" s="2"/>
       <c r="E179" s="2"/>
@@ -5268,9 +4747,9 @@
       <c r="S179" s="2"/>
       <c r="T179" s="2"/>
     </row>
-    <row r="180" spans="1:20">
-      <c r="A180" s="3"/>
-      <c r="B180" s="3"/>
+    <row r="180" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A180" s="1"/>
+      <c r="B180" s="1"/>
       <c r="C180" s="2"/>
       <c r="D180" s="2"/>
       <c r="E180" s="2"/>
@@ -5290,9 +4769,9 @@
       <c r="S180" s="2"/>
       <c r="T180" s="2"/>
     </row>
-    <row r="181" spans="1:20">
-      <c r="A181" s="3"/>
-      <c r="B181" s="3"/>
+    <row r="181" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A181" s="1"/>
+      <c r="B181" s="1"/>
       <c r="C181" s="2"/>
       <c r="D181" s="2"/>
       <c r="E181" s="2"/>
@@ -5312,9 +4791,9 @@
       <c r="S181" s="2"/>
       <c r="T181" s="2"/>
     </row>
-    <row r="182" spans="1:20">
-      <c r="A182" s="3"/>
-      <c r="B182" s="3"/>
+    <row r="182" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A182" s="1"/>
+      <c r="B182" s="1"/>
       <c r="C182" s="2"/>
       <c r="D182" s="2"/>
       <c r="E182" s="2"/>
@@ -5334,9 +4813,9 @@
       <c r="S182" s="2"/>
       <c r="T182" s="2"/>
     </row>
-    <row r="183" spans="1:20">
-      <c r="A183" s="3"/>
-      <c r="B183" s="3"/>
+    <row r="183" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A183" s="1"/>
+      <c r="B183" s="1"/>
       <c r="C183" s="2"/>
       <c r="D183" s="2"/>
       <c r="E183" s="2"/>
@@ -5356,9 +4835,9 @@
       <c r="S183" s="2"/>
       <c r="T183" s="2"/>
     </row>
-    <row r="184" spans="1:20">
-      <c r="A184" s="3"/>
-      <c r="B184" s="3"/>
+    <row r="184" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A184" s="1"/>
+      <c r="B184" s="1"/>
       <c r="C184" s="2"/>
       <c r="D184" s="2"/>
       <c r="E184" s="2"/>
@@ -5378,9 +4857,9 @@
       <c r="S184" s="2"/>
       <c r="T184" s="2"/>
     </row>
-    <row r="185" spans="1:20">
-      <c r="A185" s="3"/>
-      <c r="B185" s="3"/>
+    <row r="185" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A185" s="1"/>
+      <c r="B185" s="1"/>
       <c r="C185" s="2"/>
       <c r="D185" s="2"/>
       <c r="E185" s="2"/>
@@ -5400,9 +4879,9 @@
       <c r="S185" s="2"/>
       <c r="T185" s="2"/>
     </row>
-    <row r="186" spans="1:20">
-      <c r="A186" s="3"/>
-      <c r="B186" s="3"/>
+    <row r="186" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A186" s="1"/>
+      <c r="B186" s="1"/>
       <c r="C186" s="2"/>
       <c r="D186" s="2"/>
       <c r="E186" s="2"/>
@@ -5422,9 +4901,9 @@
       <c r="S186" s="2"/>
       <c r="T186" s="2"/>
     </row>
-    <row r="187" spans="1:20">
-      <c r="A187" s="3"/>
-      <c r="B187" s="3"/>
+    <row r="187" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A187" s="1"/>
+      <c r="B187" s="1"/>
       <c r="C187" s="2"/>
       <c r="D187" s="2"/>
       <c r="E187" s="2"/>
@@ -5444,9 +4923,9 @@
       <c r="S187" s="2"/>
       <c r="T187" s="2"/>
     </row>
-    <row r="188" spans="1:20">
-      <c r="A188" s="3"/>
-      <c r="B188" s="3"/>
+    <row r="188" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A188" s="1"/>
+      <c r="B188" s="1"/>
       <c r="C188" s="2"/>
       <c r="D188" s="2"/>
       <c r="E188" s="2"/>
@@ -5466,9 +4945,9 @@
       <c r="S188" s="2"/>
       <c r="T188" s="2"/>
     </row>
-    <row r="189" spans="1:20">
-      <c r="A189" s="3"/>
-      <c r="B189" s="3"/>
+    <row r="189" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A189" s="1"/>
+      <c r="B189" s="1"/>
       <c r="C189" s="2"/>
       <c r="D189" s="2"/>
       <c r="E189" s="2"/>
@@ -5488,9 +4967,9 @@
       <c r="S189" s="2"/>
       <c r="T189" s="2"/>
     </row>
-    <row r="190" spans="1:20">
-      <c r="A190" s="3"/>
-      <c r="B190" s="3"/>
+    <row r="190" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A190" s="1"/>
+      <c r="B190" s="1"/>
       <c r="C190" s="2"/>
       <c r="D190" s="2"/>
       <c r="E190" s="2"/>
@@ -5510,9 +4989,9 @@
       <c r="S190" s="2"/>
       <c r="T190" s="2"/>
     </row>
-    <row r="191" spans="1:20">
-      <c r="A191" s="3"/>
-      <c r="B191" s="3"/>
+    <row r="191" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A191" s="1"/>
+      <c r="B191" s="1"/>
       <c r="C191" s="2"/>
       <c r="D191" s="2"/>
       <c r="E191" s="2"/>
@@ -5532,9 +5011,9 @@
       <c r="S191" s="2"/>
       <c r="T191" s="2"/>
     </row>
-    <row r="192" spans="1:20">
-      <c r="A192" s="3"/>
-      <c r="B192" s="3"/>
+    <row r="192" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A192" s="1"/>
+      <c r="B192" s="1"/>
       <c r="C192" s="2"/>
       <c r="D192" s="2"/>
       <c r="E192" s="2"/>
@@ -5554,9 +5033,9 @@
       <c r="S192" s="2"/>
       <c r="T192" s="2"/>
     </row>
-    <row r="193" spans="1:20">
-      <c r="A193" s="3"/>
-      <c r="B193" s="3"/>
+    <row r="193" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A193" s="1"/>
+      <c r="B193" s="1"/>
       <c r="C193" s="2"/>
       <c r="D193" s="2"/>
       <c r="E193" s="2"/>
@@ -5576,9 +5055,9 @@
       <c r="S193" s="2"/>
       <c r="T193" s="2"/>
     </row>
-    <row r="194" spans="1:20">
-      <c r="A194" s="3"/>
-      <c r="B194" s="3"/>
+    <row r="194" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A194" s="1"/>
+      <c r="B194" s="1"/>
       <c r="C194" s="2"/>
       <c r="D194" s="2"/>
       <c r="E194" s="2"/>
@@ -5598,9 +5077,9 @@
       <c r="S194" s="2"/>
       <c r="T194" s="2"/>
     </row>
-    <row r="195" spans="1:20">
-      <c r="A195" s="3"/>
-      <c r="B195" s="3"/>
+    <row r="195" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A195" s="1"/>
+      <c r="B195" s="1"/>
       <c r="C195" s="2"/>
       <c r="D195" s="2"/>
       <c r="E195" s="2"/>
@@ -5620,9 +5099,9 @@
       <c r="S195" s="2"/>
       <c r="T195" s="2"/>
     </row>
-    <row r="196" spans="1:20">
-      <c r="A196" s="3"/>
-      <c r="B196" s="3"/>
+    <row r="196" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A196" s="1"/>
+      <c r="B196" s="1"/>
       <c r="C196" s="2"/>
       <c r="D196" s="2"/>
       <c r="E196" s="2"/>
@@ -5642,9 +5121,9 @@
       <c r="S196" s="2"/>
       <c r="T196" s="2"/>
     </row>
-    <row r="197" spans="1:20">
-      <c r="A197" s="3"/>
-      <c r="B197" s="3"/>
+    <row r="197" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A197" s="1"/>
+      <c r="B197" s="1"/>
       <c r="C197" s="2"/>
       <c r="D197" s="2"/>
       <c r="E197" s="2"/>
@@ -5664,9 +5143,9 @@
       <c r="S197" s="2"/>
       <c r="T197" s="2"/>
     </row>
-    <row r="198" spans="1:20">
-      <c r="A198" s="3"/>
-      <c r="B198" s="3"/>
+    <row r="198" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A198" s="1"/>
+      <c r="B198" s="1"/>
       <c r="C198" s="2"/>
       <c r="D198" s="2"/>
       <c r="E198" s="2"/>
@@ -5686,9 +5165,9 @@
       <c r="S198" s="2"/>
       <c r="T198" s="2"/>
     </row>
-    <row r="199" spans="1:20">
-      <c r="A199" s="3"/>
-      <c r="B199" s="3"/>
+    <row r="199" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A199" s="1"/>
+      <c r="B199" s="1"/>
       <c r="C199" s="2"/>
       <c r="D199" s="2"/>
       <c r="E199" s="2"/>
@@ -5708,9 +5187,9 @@
       <c r="S199" s="2"/>
       <c r="T199" s="2"/>
     </row>
-    <row r="200" spans="1:20">
-      <c r="A200" s="3"/>
-      <c r="B200" s="3"/>
+    <row r="200" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A200" s="1"/>
+      <c r="B200" s="1"/>
       <c r="C200" s="2"/>
       <c r="D200" s="2"/>
       <c r="E200" s="2"/>
@@ -5731,7 +5210,7 @@
       <c r="T200" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/许愿墙.xlsx
+++ b/许愿墙.xlsx
@@ -1,212 +1,86 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
+<workbook xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZHAO\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A0C8A9D-39ED-4B0F-AE7C-70B04A701061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="15800" windowWidth="28040" xWindow="4240" yWindow="640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcMode="auto"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>你想找什么样的工作？</t>
-  </si>
-  <si>
-    <t>现在的状态是怎样的？</t>
-  </si>
-  <si>
-    <t>AI攻城狮</t>
-  </si>
-  <si>
-    <t>已找到！</t>
-  </si>
-  <si>
-    <t>Java+AI</t>
-  </si>
-  <si>
-    <t>在找</t>
-  </si>
-  <si>
-    <t>AI agent开发</t>
-  </si>
-  <si>
-    <t>Java实习</t>
-  </si>
-  <si>
-    <t>还没开始找</t>
-  </si>
-  <si>
-    <t>系统架构师</t>
-  </si>
-  <si>
-    <t>Go</t>
-  </si>
-  <si>
-    <t>前端攻城狮</t>
-  </si>
-  <si>
-    <t>AI+游戏开发</t>
-  </si>
-  <si>
-    <t>C++实习</t>
-  </si>
-  <si>
-    <t>后端开发</t>
-  </si>
-  <si>
-    <t>正确的路上</t>
-  </si>
-  <si>
-    <t>Java后端开发</t>
-  </si>
-  <si>
-    <t>在找实习的路上</t>
-  </si>
-  <si>
-    <t>Java</t>
-  </si>
-  <si>
-    <t>找到了，但是通勤太远想跳槽</t>
-  </si>
-  <si>
-    <t>Frontend leader</t>
-  </si>
-  <si>
-    <t>找到了，但是没有work life balance</t>
-  </si>
-  <si>
-    <t>找到了，不满意</t>
-  </si>
-  <si>
-    <t>Java开发</t>
-  </si>
-  <si>
-    <t>再找</t>
-  </si>
-  <si>
-    <t>前端工程师</t>
-  </si>
-  <si>
-    <t>java开发</t>
-  </si>
-  <si>
-    <t>AI+前端工程师</t>
-  </si>
-  <si>
-    <t>C++开发</t>
-  </si>
-  <si>
-    <t>Go后端开发</t>
-  </si>
-  <si>
-    <t>AI+后端工程师</t>
-  </si>
-  <si>
-    <t>linux运维</t>
-  </si>
-  <si>
-    <t>AI+嵌入式</t>
-  </si>
-  <si>
-    <t>财务主管</t>
-  </si>
-  <si>
-    <t>在学习的路上</t>
-  </si>
-  <si>
-    <t>去年7月用这个项目找到了第一份工作，现在再次回来，希望跳槽找一份AI售前的工作</t>
-  </si>
-  <si>
-    <t>准备跳槽</t>
-  </si>
-  <si>
-    <t>Java开发，有完善的晋升制度</t>
-  </si>
-  <si>
-    <t>前端开发</t>
-  </si>
-  <si>
-    <t>正在找</t>
-  </si>
-  <si>
-    <t>C#开发</t>
-  </si>
-  <si>
-    <t>dotnet开发，base 成都</t>
-  </si>
-  <si>
-    <t>JAVA开发，base太原</t>
-  </si>
-  <si>
-    <t>前端开发，base上海</t>
+    <t xml:space="preserve">  </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="3">
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9.75"/>
       <color rgb="FF000000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9.75"/>
       <color rgb="FF000000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill patternType="none">
+        <fgColor/>
+        <bgColor/>
+      </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor/>
+        <bgColor/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF34C724"/>
+        <bgColor/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -234,6 +108,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF1F2329"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF1F2329"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF1F2329"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF1F2329"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -275,33 +164,36 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="7">
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="6" fillId="0" fontId="1" numFmtId="164" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -314,9 +206,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -354,7 +246,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -460,7 +352,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -602,35 +494,35 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
   <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <outlinePr summaryBelow="false" summaryRight="false"/>
   </sheetPr>
-  <dimension ref="A1:T200"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView showGridLines="true" tabSelected="true" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="74" customWidth="1"/>
-    <col min="2" max="2" width="32" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="74"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="54"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
+    <row r="1">
+      <c r="A1" s="3" t="str">
+        <v>你想找什么样的工作？</v>
+      </c>
+      <c r="B1" s="3" t="str">
+        <v>现在的状态是怎样的？</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -651,12 +543,12 @@
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
+    <row r="2">
+      <c r="A2" s="1" t="str">
+        <v>AI攻城狮</v>
+      </c>
+      <c r="B2" s="1" t="str">
+        <v>已找到！</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -677,12 +569,12 @@
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
+    <row r="3">
+      <c r="A3" s="1" t="str">
+        <v>Java+AI</v>
+      </c>
+      <c r="B3" s="1" t="str">
+        <v>在找</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -703,12 +595,12 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
+    <row r="4">
+      <c r="A4" s="1" t="str">
+        <v>AI agent开发</v>
+      </c>
+      <c r="B4" s="1" t="str">
+        <v>在找</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -729,12 +621,12 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>8</v>
+    <row r="5">
+      <c r="A5" s="1" t="str">
+        <v>Java实习</v>
+      </c>
+      <c r="B5" s="1" t="str">
+        <v>还没开始找</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -755,12 +647,12 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>5</v>
+    <row r="6">
+      <c r="A6" s="1" t="str">
+        <v>系统架构师</v>
+      </c>
+      <c r="B6" s="1" t="str">
+        <v>在找</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -781,12 +673,12 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>5</v>
+    <row r="7">
+      <c r="A7" s="1" t="str">
+        <v>Go</v>
+      </c>
+      <c r="B7" s="1" t="str">
+        <v>在找</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -807,12 +699,12 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>5</v>
+    <row r="8">
+      <c r="A8" s="1" t="str">
+        <v>前端攻城狮</v>
+      </c>
+      <c r="B8" s="1" t="str">
+        <v>在找</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -833,12 +725,12 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>5</v>
+    <row r="9">
+      <c r="A9" s="1" t="str">
+        <v>AI+游戏开发</v>
+      </c>
+      <c r="B9" s="1" t="str">
+        <v>在找</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -859,12 +751,12 @@
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>5</v>
+    <row r="10">
+      <c r="A10" s="1" t="str">
+        <v>C++实习</v>
+      </c>
+      <c r="B10" s="1" t="str">
+        <v>在找</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -885,12 +777,12 @@
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>15</v>
+    <row r="11">
+      <c r="A11" s="1" t="str">
+        <v>后端开发</v>
+      </c>
+      <c r="B11" s="1" t="str">
+        <v>正确的路上</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -911,12 +803,12 @@
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>17</v>
+    <row r="12">
+      <c r="A12" s="1" t="str">
+        <v>Java后端开发</v>
+      </c>
+      <c r="B12" s="1" t="str">
+        <v>在找实习的路上</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -937,12 +829,12 @@
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>19</v>
+    <row r="13">
+      <c r="A13" s="1" t="str">
+        <v>Java</v>
+      </c>
+      <c r="B13" s="1" t="str">
+        <v>找到了，但是通勤太远想跳槽</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -963,12 +855,12 @@
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>21</v>
+    <row r="14">
+      <c r="A14" s="1" t="str">
+        <v>Frontend leader</v>
+      </c>
+      <c r="B14" s="1" t="str">
+        <v>找到了，但是没有work life balance</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -989,12 +881,12 @@
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A15" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>22</v>
+    <row r="15">
+      <c r="A15" s="5" t="str">
+        <v>Java</v>
+      </c>
+      <c r="B15" s="1" t="str">
+        <v>找到了，不满意</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -1015,12 +907,12 @@
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>24</v>
+    <row r="16">
+      <c r="A16" s="1" t="str">
+        <v>Java开发</v>
+      </c>
+      <c r="B16" s="1" t="str">
+        <v>再找</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -1041,12 +933,12 @@
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>5</v>
+    <row r="17">
+      <c r="A17" s="1" t="str">
+        <v>前端工程师</v>
+      </c>
+      <c r="B17" s="1" t="str">
+        <v>在找</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -1067,12 +959,12 @@
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>5</v>
+    <row r="18">
+      <c r="A18" s="1" t="str">
+        <v>java开发</v>
+      </c>
+      <c r="B18" s="1" t="str">
+        <v>在找</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -1093,12 +985,12 @@
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>8</v>
+    <row r="19">
+      <c r="A19" s="1" t="str">
+        <v>AI+前端工程师</v>
+      </c>
+      <c r="B19" s="1" t="str">
+        <v>还没开始找</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -1119,12 +1011,12 @@
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>5</v>
+    <row r="20">
+      <c r="A20" s="1" t="str">
+        <v>C++开发</v>
+      </c>
+      <c r="B20" s="1" t="str">
+        <v>在找</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -1145,12 +1037,12 @@
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>5</v>
+    <row r="21">
+      <c r="A21" s="1" t="str">
+        <v>Go</v>
+      </c>
+      <c r="B21" s="1" t="str">
+        <v>在找</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -1171,12 +1063,12 @@
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>5</v>
+    <row r="22">
+      <c r="A22" s="1" t="str">
+        <v>Go后端开发</v>
+      </c>
+      <c r="B22" s="1" t="str">
+        <v>在找</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -1197,12 +1089,12 @@
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>8</v>
+    <row r="23">
+      <c r="A23" s="1" t="str">
+        <v>AI+后端工程师</v>
+      </c>
+      <c r="B23" s="1" t="str">
+        <v>还没开始找</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -1223,12 +1115,12 @@
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>5</v>
+    <row r="24">
+      <c r="A24" s="1" t="str">
+        <v>linux运维</v>
+      </c>
+      <c r="B24" s="1" t="str">
+        <v>在找</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -1249,12 +1141,12 @@
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>5</v>
+    <row r="25">
+      <c r="A25" s="1" t="str">
+        <v>前端工程师</v>
+      </c>
+      <c r="B25" s="1" t="str">
+        <v>在找</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -1275,12 +1167,12 @@
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>8</v>
+    <row r="26">
+      <c r="A26" s="1" t="str">
+        <v>前端工程师</v>
+      </c>
+      <c r="B26" s="1" t="str">
+        <v>还没开始找</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -1301,12 +1193,12 @@
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>5</v>
+    <row r="27">
+      <c r="A27" s="1" t="str">
+        <v>java开发</v>
+      </c>
+      <c r="B27" s="1" t="str">
+        <v>在找</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -1327,12 +1219,12 @@
       <c r="S27" s="2"/>
       <c r="T27" s="2"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A28" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>24</v>
+    <row r="28">
+      <c r="A28" s="1" t="str">
+        <v>AI+嵌入式</v>
+      </c>
+      <c r="B28" s="1" t="str">
+        <v>再找</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -1353,12 +1245,12 @@
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A29" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>5</v>
+    <row r="29">
+      <c r="A29" s="1" t="str">
+        <v>财务主管</v>
+      </c>
+      <c r="B29" s="1" t="str">
+        <v>在找</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -1379,12 +1271,12 @@
       <c r="S29" s="2"/>
       <c r="T29" s="2"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A30" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>34</v>
+    <row r="30">
+      <c r="A30" s="1" t="str">
+        <v>后端开发</v>
+      </c>
+      <c r="B30" s="1" t="str">
+        <v>在学习的路上</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -1405,12 +1297,12 @@
       <c r="S30" s="2"/>
       <c r="T30" s="2"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>5</v>
+    <row r="31">
+      <c r="A31" s="1" t="str">
+        <v>去年7月用这个项目找到了第一份工作，现在再次回来，希望跳槽找一份AI售前的工作</v>
+      </c>
+      <c r="B31" s="1" t="str">
+        <v>在找</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -1431,12 +1323,12 @@
       <c r="S31" s="2"/>
       <c r="T31" s="2"/>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A32" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>5</v>
+    <row r="32">
+      <c r="A32" s="1" t="str">
+        <v>前端工程师</v>
+      </c>
+      <c r="B32" s="1" t="str">
+        <v>在找</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -1457,12 +1349,12 @@
       <c r="S32" s="2"/>
       <c r="T32" s="2"/>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A33" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>36</v>
+    <row r="33">
+      <c r="A33" s="1" t="str">
+        <v>Java开发</v>
+      </c>
+      <c r="B33" s="1" t="str">
+        <v>准备跳槽</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -1483,12 +1375,12 @@
       <c r="S33" s="2"/>
       <c r="T33" s="2"/>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A34" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>36</v>
+    <row r="34">
+      <c r="A34" s="1" t="str">
+        <v>Java开发，有完善的晋升制度</v>
+      </c>
+      <c r="B34" s="1" t="str">
+        <v>准备跳槽</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -1509,12 +1401,13 @@
       <c r="S34" s="2"/>
       <c r="T34" s="2"/>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A35" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>5</v>
+    <row r="35">
+      <c r="A35" s="1" t="str">
+        <v>前端开发</v>
+      </c>
+      <c r="B35" s="1" t="str">
+        <v>找到了，兄弟们加油。对于前端这块简历一定要吹牛逼写好，
+面试前真的要背好八股和场景，或者找不想去的公司练练手，准备好了之后再冲刺</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -1535,12 +1428,12 @@
       <c r="S35" s="2"/>
       <c r="T35" s="2"/>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A36" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>5</v>
+    <row r="36">
+      <c r="A36" s="1" t="str">
+        <v>java开发</v>
+      </c>
+      <c r="B36" s="1" t="str">
+        <v>在找</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -1561,12 +1454,12 @@
       <c r="S36" s="2"/>
       <c r="T36" s="2"/>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A37" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>39</v>
+    <row r="37">
+      <c r="A37" s="1" t="str">
+        <v>Java开发</v>
+      </c>
+      <c r="B37" s="1" t="str">
+        <v>正在找</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -1587,12 +1480,12 @@
       <c r="S37" s="2"/>
       <c r="T37" s="2"/>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A38" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>5</v>
+    <row r="38">
+      <c r="A38" s="1" t="str">
+        <v>Java+AI</v>
+      </c>
+      <c r="B38" s="1" t="str">
+        <v>在找</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -1613,38 +1506,38 @@
       <c r="S38" s="2"/>
       <c r="T38" s="2"/>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A39" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
-      <c r="N39" s="3"/>
-      <c r="O39" s="3"/>
-      <c r="P39" s="3"/>
-      <c r="Q39" s="3"/>
-      <c r="R39" s="3"/>
-      <c r="S39" s="3"/>
-      <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A40" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>5</v>
+    <row r="39">
+      <c r="A39" s="5" t="str">
+        <v>AI+后端工程师</v>
+      </c>
+      <c r="B39" s="1" t="str">
+        <v>在找</v>
+      </c>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+      <c r="O39" s="4"/>
+      <c r="P39" s="4"/>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="4"/>
+      <c r="S39" s="4"/>
+      <c r="T39" s="4"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="str">
+        <v>java开发</v>
+      </c>
+      <c r="B40" s="1" t="str">
+        <v>在找</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -1665,12 +1558,12 @@
       <c r="S40" s="2"/>
       <c r="T40" s="2"/>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A41" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>5</v>
+    <row r="41">
+      <c r="A41" s="1" t="str">
+        <v>C#开发</v>
+      </c>
+      <c r="B41" s="1" t="str">
+        <v>在找</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -1691,12 +1584,12 @@
       <c r="S41" s="2"/>
       <c r="T41" s="2"/>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A42" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>36</v>
+    <row r="42">
+      <c r="A42" s="1" t="str">
+        <v>dotnet开发，base 成都</v>
+      </c>
+      <c r="B42" s="1" t="str">
+        <v>准备跳槽</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -1717,12 +1610,12 @@
       <c r="S42" s="2"/>
       <c r="T42" s="2"/>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A43" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>5</v>
+    <row r="43">
+      <c r="A43" s="1" t="str">
+        <v>JAVA开发，base太原</v>
+      </c>
+      <c r="B43" s="1" t="str">
+        <v>在找</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -1743,12 +1636,12 @@
       <c r="S43" s="2"/>
       <c r="T43" s="2"/>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A44" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>36</v>
+    <row r="44">
+      <c r="A44" s="1" t="str">
+        <v>Java开发</v>
+      </c>
+      <c r="B44" s="1" t="str">
+        <v>准备跳槽</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -1769,12 +1662,12 @@
       <c r="S44" s="2"/>
       <c r="T44" s="2"/>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A45" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>5</v>
+    <row r="45">
+      <c r="A45" s="1" t="str">
+        <v>前端开发，base上海</v>
+      </c>
+      <c r="B45" s="1" t="str">
+        <v>在找</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -1795,12 +1688,12 @@
       <c r="S45" s="2"/>
       <c r="T45" s="2"/>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A46" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>36</v>
+    <row r="46">
+      <c r="A46" s="1" t="str">
+        <v>测试开发</v>
+      </c>
+      <c r="B46" s="1" t="str">
+        <v>在找</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -1821,9 +1714,13 @@
       <c r="S46" s="2"/>
       <c r="T46" s="2"/>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
+    <row r="47">
+      <c r="A47" s="6" t="str">
+        <v>运维开发</v>
+      </c>
+      <c r="B47" s="1" t="str">
+        <v>找到了，要去当牛马了，后续准备做独立开发</v>
+      </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
@@ -1843,9 +1740,13 @@
       <c r="S47" s="2"/>
       <c r="T47" s="2"/>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
+    <row r="48">
+      <c r="A48" s="1" t="str" xml:space="preserve">
+        <v> 渗透测试工程师</v>
+      </c>
+      <c r="B48" s="1" t="str">
+        <v>应届在找</v>
+      </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
@@ -1865,9 +1766,13 @@
       <c r="S48" s="2"/>
       <c r="T48" s="2"/>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
+    <row r="49">
+      <c r="A49" s="1" t="str">
+        <v>IT审计/数据分析/财务BP</v>
+      </c>
+      <c r="B49" s="1" t="str">
+        <v>准备跳槽</v>
+      </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
@@ -1887,9 +1792,13 @@
       <c r="S49" s="2"/>
       <c r="T49" s="2"/>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
+    <row r="50">
+      <c r="A50" s="1" t="str">
+        <v>AI应用开发</v>
+      </c>
+      <c r="B50" s="1" t="str">
+        <v>在找</v>
+      </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
@@ -1909,9 +1818,13 @@
       <c r="S50" s="2"/>
       <c r="T50" s="2"/>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
+    <row r="51">
+      <c r="A51" s="1" t="str">
+        <v>设计师</v>
+      </c>
+      <c r="B51" s="1" t="str">
+        <v>在找</v>
+      </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
@@ -1931,9 +1844,13 @@
       <c r="S51" s="2"/>
       <c r="T51" s="2"/>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
+    <row r="52">
+      <c r="A52" s="1" t="str">
+        <v>运维开发</v>
+      </c>
+      <c r="B52" s="1" t="str">
+        <v>在找</v>
+      </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
@@ -1953,9 +1870,13 @@
       <c r="S52" s="2"/>
       <c r="T52" s="2"/>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
+    <row r="53">
+      <c r="A53" s="1" t="str">
+        <v>Java开发</v>
+      </c>
+      <c r="B53" s="1" t="str">
+        <v>在找</v>
+      </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
@@ -1975,9 +1896,13 @@
       <c r="S53" s="2"/>
       <c r="T53" s="2"/>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
+    <row r="54">
+      <c r="A54" s="1" t="str">
+        <v>Java开发/海外仓销售</v>
+      </c>
+      <c r="B54" s="1" t="str">
+        <v>在找</v>
+      </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
@@ -1997,9 +1922,13 @@
       <c r="S54" s="2"/>
       <c r="T54" s="2"/>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
+    <row r="55">
+      <c r="A55" s="1" t="str">
+        <v>ai产品</v>
+      </c>
+      <c r="B55" s="1" t="str">
+        <v>在找</v>
+      </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
@@ -2019,9 +1948,13 @@
       <c r="S55" s="2"/>
       <c r="T55" s="2"/>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
+    <row r="56">
+      <c r="A56" s="1" t="str">
+        <v>ai产品</v>
+      </c>
+      <c r="B56" s="1" t="str">
+        <v>在找</v>
+      </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
@@ -2041,7 +1974,7 @@
       <c r="S56" s="2"/>
       <c r="T56" s="2"/>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="57">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="2"/>
@@ -2063,7 +1996,7 @@
       <c r="S57" s="2"/>
       <c r="T57" s="2"/>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="58">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="2"/>
@@ -2085,7 +2018,7 @@
       <c r="S58" s="2"/>
       <c r="T58" s="2"/>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="59">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="2"/>
@@ -2107,7 +2040,7 @@
       <c r="S59" s="2"/>
       <c r="T59" s="2"/>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="60">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="2"/>
@@ -2129,7 +2062,7 @@
       <c r="S60" s="2"/>
       <c r="T60" s="2"/>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="61">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="2"/>
@@ -2151,7 +2084,7 @@
       <c r="S61" s="2"/>
       <c r="T61" s="2"/>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="62">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="2"/>
@@ -2173,7 +2106,7 @@
       <c r="S62" s="2"/>
       <c r="T62" s="2"/>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="63">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="2"/>
@@ -2195,7 +2128,7 @@
       <c r="S63" s="2"/>
       <c r="T63" s="2"/>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="64">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="2"/>
@@ -2217,7 +2150,7 @@
       <c r="S64" s="2"/>
       <c r="T64" s="2"/>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="65">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="2"/>
@@ -2239,7 +2172,7 @@
       <c r="S65" s="2"/>
       <c r="T65" s="2"/>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="66">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="2"/>
@@ -2261,7 +2194,7 @@
       <c r="S66" s="2"/>
       <c r="T66" s="2"/>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="67">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="2"/>
@@ -2283,7 +2216,7 @@
       <c r="S67" s="2"/>
       <c r="T67" s="2"/>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="68">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="2"/>
@@ -2305,7 +2238,7 @@
       <c r="S68" s="2"/>
       <c r="T68" s="2"/>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="69">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="2"/>
@@ -2327,7 +2260,7 @@
       <c r="S69" s="2"/>
       <c r="T69" s="2"/>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="70">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="2"/>
@@ -2349,7 +2282,7 @@
       <c r="S70" s="2"/>
       <c r="T70" s="2"/>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="71">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="2"/>
@@ -2371,7 +2304,7 @@
       <c r="S71" s="2"/>
       <c r="T71" s="2"/>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="72">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="2"/>
@@ -2393,7 +2326,7 @@
       <c r="S72" s="2"/>
       <c r="T72" s="2"/>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="73">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="2"/>
@@ -2415,7 +2348,7 @@
       <c r="S73" s="2"/>
       <c r="T73" s="2"/>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="74">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="2"/>
@@ -2437,7 +2370,7 @@
       <c r="S74" s="2"/>
       <c r="T74" s="2"/>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="75">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="2"/>
@@ -2459,7 +2392,7 @@
       <c r="S75" s="2"/>
       <c r="T75" s="2"/>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="76">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="2"/>
@@ -2481,7 +2414,7 @@
       <c r="S76" s="2"/>
       <c r="T76" s="2"/>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="77">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="2"/>
@@ -2503,7 +2436,7 @@
       <c r="S77" s="2"/>
       <c r="T77" s="2"/>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="78">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="2"/>
@@ -2525,7 +2458,7 @@
       <c r="S78" s="2"/>
       <c r="T78" s="2"/>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="79">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="2"/>
@@ -2547,7 +2480,7 @@
       <c r="S79" s="2"/>
       <c r="T79" s="2"/>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="80">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="2"/>
@@ -2569,7 +2502,7 @@
       <c r="S80" s="2"/>
       <c r="T80" s="2"/>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="81">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="2"/>
@@ -2591,7 +2524,7 @@
       <c r="S81" s="2"/>
       <c r="T81" s="2"/>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="82">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="2"/>
@@ -2613,7 +2546,7 @@
       <c r="S82" s="2"/>
       <c r="T82" s="2"/>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="83">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="2"/>
@@ -2635,7 +2568,7 @@
       <c r="S83" s="2"/>
       <c r="T83" s="2"/>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="84">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="2"/>
@@ -2657,7 +2590,7 @@
       <c r="S84" s="2"/>
       <c r="T84" s="2"/>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="85">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="2"/>
@@ -2679,7 +2612,7 @@
       <c r="S85" s="2"/>
       <c r="T85" s="2"/>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="86">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="2"/>
@@ -2701,7 +2634,7 @@
       <c r="S86" s="2"/>
       <c r="T86" s="2"/>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="87">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="2"/>
@@ -2723,7 +2656,7 @@
       <c r="S87" s="2"/>
       <c r="T87" s="2"/>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="88">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="2"/>
@@ -2745,7 +2678,7 @@
       <c r="S88" s="2"/>
       <c r="T88" s="2"/>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="89">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="2"/>
@@ -2767,7 +2700,7 @@
       <c r="S89" s="2"/>
       <c r="T89" s="2"/>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="90">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="2"/>
@@ -2789,7 +2722,7 @@
       <c r="S90" s="2"/>
       <c r="T90" s="2"/>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="91">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="2"/>
@@ -2811,7 +2744,7 @@
       <c r="S91" s="2"/>
       <c r="T91" s="2"/>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="92">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="2"/>
@@ -2833,7 +2766,7 @@
       <c r="S92" s="2"/>
       <c r="T92" s="2"/>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="93">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="2"/>
@@ -2855,7 +2788,7 @@
       <c r="S93" s="2"/>
       <c r="T93" s="2"/>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="94">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="2"/>
@@ -2877,7 +2810,7 @@
       <c r="S94" s="2"/>
       <c r="T94" s="2"/>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="95">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="2"/>
@@ -2899,7 +2832,7 @@
       <c r="S95" s="2"/>
       <c r="T95" s="2"/>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="96">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="2"/>
@@ -2921,7 +2854,7 @@
       <c r="S96" s="2"/>
       <c r="T96" s="2"/>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="97">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="2"/>
@@ -2943,7 +2876,7 @@
       <c r="S97" s="2"/>
       <c r="T97" s="2"/>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="98">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="2"/>
@@ -2965,7 +2898,7 @@
       <c r="S98" s="2"/>
       <c r="T98" s="2"/>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="99">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="2"/>
@@ -2987,7 +2920,7 @@
       <c r="S99" s="2"/>
       <c r="T99" s="2"/>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="100">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="2"/>
@@ -3009,7 +2942,7 @@
       <c r="S100" s="2"/>
       <c r="T100" s="2"/>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="101">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="2"/>
@@ -3031,7 +2964,7 @@
       <c r="S101" s="2"/>
       <c r="T101" s="2"/>
     </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="102">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="2"/>
@@ -3053,7 +2986,7 @@
       <c r="S102" s="2"/>
       <c r="T102" s="2"/>
     </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="103">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="2"/>
@@ -3075,7 +3008,7 @@
       <c r="S103" s="2"/>
       <c r="T103" s="2"/>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="104">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="2"/>
@@ -3097,7 +3030,7 @@
       <c r="S104" s="2"/>
       <c r="T104" s="2"/>
     </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="105">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="2"/>
@@ -3119,7 +3052,7 @@
       <c r="S105" s="2"/>
       <c r="T105" s="2"/>
     </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="106">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="2"/>
@@ -3141,7 +3074,7 @@
       <c r="S106" s="2"/>
       <c r="T106" s="2"/>
     </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="107">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="2"/>
@@ -3163,7 +3096,7 @@
       <c r="S107" s="2"/>
       <c r="T107" s="2"/>
     </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="108">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="2"/>
@@ -3185,7 +3118,7 @@
       <c r="S108" s="2"/>
       <c r="T108" s="2"/>
     </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="109">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="2"/>
@@ -3207,7 +3140,7 @@
       <c r="S109" s="2"/>
       <c r="T109" s="2"/>
     </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="110">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="2"/>
@@ -3229,7 +3162,7 @@
       <c r="S110" s="2"/>
       <c r="T110" s="2"/>
     </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="111">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="2"/>
@@ -3251,7 +3184,7 @@
       <c r="S111" s="2"/>
       <c r="T111" s="2"/>
     </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="112">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="2"/>
@@ -3273,7 +3206,7 @@
       <c r="S112" s="2"/>
       <c r="T112" s="2"/>
     </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="113">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="2"/>
@@ -3295,7 +3228,7 @@
       <c r="S113" s="2"/>
       <c r="T113" s="2"/>
     </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="114">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="2"/>
@@ -3317,7 +3250,7 @@
       <c r="S114" s="2"/>
       <c r="T114" s="2"/>
     </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="115">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="2"/>
@@ -3339,7 +3272,7 @@
       <c r="S115" s="2"/>
       <c r="T115" s="2"/>
     </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="116">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="2"/>
@@ -3361,7 +3294,7 @@
       <c r="S116" s="2"/>
       <c r="T116" s="2"/>
     </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="117">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="2"/>
@@ -3383,7 +3316,7 @@
       <c r="S117" s="2"/>
       <c r="T117" s="2"/>
     </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="118">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="2"/>
@@ -3405,7 +3338,7 @@
       <c r="S118" s="2"/>
       <c r="T118" s="2"/>
     </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="119">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="2"/>
@@ -3427,7 +3360,7 @@
       <c r="S119" s="2"/>
       <c r="T119" s="2"/>
     </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="120">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="2"/>
@@ -3449,7 +3382,7 @@
       <c r="S120" s="2"/>
       <c r="T120" s="2"/>
     </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="121">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="2"/>
@@ -3471,7 +3404,7 @@
       <c r="S121" s="2"/>
       <c r="T121" s="2"/>
     </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="122">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="2"/>
@@ -3493,7 +3426,7 @@
       <c r="S122" s="2"/>
       <c r="T122" s="2"/>
     </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="123">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="2"/>
@@ -3515,7 +3448,7 @@
       <c r="S123" s="2"/>
       <c r="T123" s="2"/>
     </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="124">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="2"/>
@@ -3537,7 +3470,7 @@
       <c r="S124" s="2"/>
       <c r="T124" s="2"/>
     </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="125">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="2"/>
@@ -3559,7 +3492,7 @@
       <c r="S125" s="2"/>
       <c r="T125" s="2"/>
     </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="126">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="2"/>
@@ -3581,7 +3514,7 @@
       <c r="S126" s="2"/>
       <c r="T126" s="2"/>
     </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="127">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="2"/>
@@ -3603,7 +3536,7 @@
       <c r="S127" s="2"/>
       <c r="T127" s="2"/>
     </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="128">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="2"/>
@@ -3625,7 +3558,7 @@
       <c r="S128" s="2"/>
       <c r="T128" s="2"/>
     </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="129">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="2"/>
@@ -3647,7 +3580,7 @@
       <c r="S129" s="2"/>
       <c r="T129" s="2"/>
     </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="130">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="2"/>
@@ -3669,7 +3602,7 @@
       <c r="S130" s="2"/>
       <c r="T130" s="2"/>
     </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="131">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="2"/>
@@ -3691,7 +3624,7 @@
       <c r="S131" s="2"/>
       <c r="T131" s="2"/>
     </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="132">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="2"/>
@@ -3713,7 +3646,7 @@
       <c r="S132" s="2"/>
       <c r="T132" s="2"/>
     </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="133">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="2"/>
@@ -3735,7 +3668,7 @@
       <c r="S133" s="2"/>
       <c r="T133" s="2"/>
     </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="134">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="2"/>
@@ -3757,7 +3690,7 @@
       <c r="S134" s="2"/>
       <c r="T134" s="2"/>
     </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="135">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="2"/>
@@ -3779,7 +3712,7 @@
       <c r="S135" s="2"/>
       <c r="T135" s="2"/>
     </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="136">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="2"/>
@@ -3801,7 +3734,7 @@
       <c r="S136" s="2"/>
       <c r="T136" s="2"/>
     </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="137">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="2"/>
@@ -3823,7 +3756,7 @@
       <c r="S137" s="2"/>
       <c r="T137" s="2"/>
     </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="138">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="2"/>
@@ -3845,7 +3778,7 @@
       <c r="S138" s="2"/>
       <c r="T138" s="2"/>
     </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="139">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="2"/>
@@ -3867,7 +3800,7 @@
       <c r="S139" s="2"/>
       <c r="T139" s="2"/>
     </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="140">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="2"/>
@@ -3889,7 +3822,7 @@
       <c r="S140" s="2"/>
       <c r="T140" s="2"/>
     </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="141">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="2"/>
@@ -3911,7 +3844,7 @@
       <c r="S141" s="2"/>
       <c r="T141" s="2"/>
     </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="142">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="2"/>
@@ -3933,7 +3866,7 @@
       <c r="S142" s="2"/>
       <c r="T142" s="2"/>
     </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="143">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="2"/>
@@ -3955,7 +3888,7 @@
       <c r="S143" s="2"/>
       <c r="T143" s="2"/>
     </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="144">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="2"/>
@@ -3977,7 +3910,7 @@
       <c r="S144" s="2"/>
       <c r="T144" s="2"/>
     </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="145">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="2"/>
@@ -3999,7 +3932,7 @@
       <c r="S145" s="2"/>
       <c r="T145" s="2"/>
     </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="146">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="2"/>
@@ -4021,7 +3954,7 @@
       <c r="S146" s="2"/>
       <c r="T146" s="2"/>
     </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="147">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="2"/>
@@ -4043,7 +3976,7 @@
       <c r="S147" s="2"/>
       <c r="T147" s="2"/>
     </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="148">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="2"/>
@@ -4065,7 +3998,7 @@
       <c r="S148" s="2"/>
       <c r="T148" s="2"/>
     </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="149">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="2"/>
@@ -4087,7 +4020,7 @@
       <c r="S149" s="2"/>
       <c r="T149" s="2"/>
     </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="150">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="2"/>
@@ -4109,7 +4042,7 @@
       <c r="S150" s="2"/>
       <c r="T150" s="2"/>
     </row>
-    <row r="151" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="151">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="2"/>
@@ -4131,7 +4064,7 @@
       <c r="S151" s="2"/>
       <c r="T151" s="2"/>
     </row>
-    <row r="152" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="152">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="2"/>
@@ -4153,7 +4086,7 @@
       <c r="S152" s="2"/>
       <c r="T152" s="2"/>
     </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="153">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="2"/>
@@ -4175,7 +4108,7 @@
       <c r="S153" s="2"/>
       <c r="T153" s="2"/>
     </row>
-    <row r="154" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="154">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="2"/>
@@ -4197,7 +4130,7 @@
       <c r="S154" s="2"/>
       <c r="T154" s="2"/>
     </row>
-    <row r="155" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="155">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="2"/>
@@ -4219,7 +4152,7 @@
       <c r="S155" s="2"/>
       <c r="T155" s="2"/>
     </row>
-    <row r="156" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="156">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="2"/>
@@ -4241,7 +4174,7 @@
       <c r="S156" s="2"/>
       <c r="T156" s="2"/>
     </row>
-    <row r="157" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="157">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="2"/>
@@ -4263,7 +4196,7 @@
       <c r="S157" s="2"/>
       <c r="T157" s="2"/>
     </row>
-    <row r="158" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="158">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="2"/>
@@ -4285,7 +4218,7 @@
       <c r="S158" s="2"/>
       <c r="T158" s="2"/>
     </row>
-    <row r="159" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="159">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="2"/>
@@ -4307,7 +4240,7 @@
       <c r="S159" s="2"/>
       <c r="T159" s="2"/>
     </row>
-    <row r="160" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="160">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="2"/>
@@ -4329,7 +4262,7 @@
       <c r="S160" s="2"/>
       <c r="T160" s="2"/>
     </row>
-    <row r="161" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="161">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="2"/>
@@ -4351,7 +4284,7 @@
       <c r="S161" s="2"/>
       <c r="T161" s="2"/>
     </row>
-    <row r="162" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="162">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="2"/>
@@ -4373,7 +4306,7 @@
       <c r="S162" s="2"/>
       <c r="T162" s="2"/>
     </row>
-    <row r="163" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="163">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="2"/>
@@ -4395,7 +4328,7 @@
       <c r="S163" s="2"/>
       <c r="T163" s="2"/>
     </row>
-    <row r="164" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="164">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="2"/>
@@ -4417,7 +4350,7 @@
       <c r="S164" s="2"/>
       <c r="T164" s="2"/>
     </row>
-    <row r="165" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="165">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="2"/>
@@ -4439,7 +4372,7 @@
       <c r="S165" s="2"/>
       <c r="T165" s="2"/>
     </row>
-    <row r="166" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="166">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="2"/>
@@ -4461,7 +4394,7 @@
       <c r="S166" s="2"/>
       <c r="T166" s="2"/>
     </row>
-    <row r="167" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="167">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="2"/>
@@ -4483,7 +4416,7 @@
       <c r="S167" s="2"/>
       <c r="T167" s="2"/>
     </row>
-    <row r="168" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="168">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="2"/>
@@ -4505,7 +4438,7 @@
       <c r="S168" s="2"/>
       <c r="T168" s="2"/>
     </row>
-    <row r="169" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="169">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="2"/>
@@ -4527,7 +4460,7 @@
       <c r="S169" s="2"/>
       <c r="T169" s="2"/>
     </row>
-    <row r="170" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="170">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="2"/>
@@ -4549,7 +4482,7 @@
       <c r="S170" s="2"/>
       <c r="T170" s="2"/>
     </row>
-    <row r="171" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="171">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="2"/>
@@ -4571,7 +4504,7 @@
       <c r="S171" s="2"/>
       <c r="T171" s="2"/>
     </row>
-    <row r="172" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="172">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="2"/>
@@ -4593,7 +4526,7 @@
       <c r="S172" s="2"/>
       <c r="T172" s="2"/>
     </row>
-    <row r="173" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="173">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="2"/>
@@ -4615,7 +4548,7 @@
       <c r="S173" s="2"/>
       <c r="T173" s="2"/>
     </row>
-    <row r="174" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="174">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="2"/>
@@ -4637,7 +4570,7 @@
       <c r="S174" s="2"/>
       <c r="T174" s="2"/>
     </row>
-    <row r="175" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="175">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="2"/>
@@ -4659,7 +4592,7 @@
       <c r="S175" s="2"/>
       <c r="T175" s="2"/>
     </row>
-    <row r="176" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="176">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="2"/>
@@ -4681,7 +4614,7 @@
       <c r="S176" s="2"/>
       <c r="T176" s="2"/>
     </row>
-    <row r="177" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="177">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="2"/>
@@ -4703,7 +4636,7 @@
       <c r="S177" s="2"/>
       <c r="T177" s="2"/>
     </row>
-    <row r="178" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="178">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="2"/>
@@ -4725,7 +4658,7 @@
       <c r="S178" s="2"/>
       <c r="T178" s="2"/>
     </row>
-    <row r="179" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="179">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="2"/>
@@ -4747,7 +4680,7 @@
       <c r="S179" s="2"/>
       <c r="T179" s="2"/>
     </row>
-    <row r="180" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="180">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="2"/>
@@ -4769,7 +4702,7 @@
       <c r="S180" s="2"/>
       <c r="T180" s="2"/>
     </row>
-    <row r="181" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="181">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="2"/>
@@ -4791,7 +4724,7 @@
       <c r="S181" s="2"/>
       <c r="T181" s="2"/>
     </row>
-    <row r="182" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="182">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="2"/>
@@ -4813,7 +4746,7 @@
       <c r="S182" s="2"/>
       <c r="T182" s="2"/>
     </row>
-    <row r="183" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="183">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="2"/>
@@ -4835,7 +4768,7 @@
       <c r="S183" s="2"/>
       <c r="T183" s="2"/>
     </row>
-    <row r="184" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="184">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="2"/>
@@ -4857,7 +4790,7 @@
       <c r="S184" s="2"/>
       <c r="T184" s="2"/>
     </row>
-    <row r="185" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="185">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="2"/>
@@ -4879,7 +4812,7 @@
       <c r="S185" s="2"/>
       <c r="T185" s="2"/>
     </row>
-    <row r="186" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="186">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="2"/>
@@ -4901,7 +4834,7 @@
       <c r="S186" s="2"/>
       <c r="T186" s="2"/>
     </row>
-    <row r="187" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="187">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="2"/>
@@ -4923,7 +4856,7 @@
       <c r="S187" s="2"/>
       <c r="T187" s="2"/>
     </row>
-    <row r="188" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="188">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="2"/>
@@ -4945,7 +4878,7 @@
       <c r="S188" s="2"/>
       <c r="T188" s="2"/>
     </row>
-    <row r="189" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="189">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="2"/>
@@ -4967,7 +4900,7 @@
       <c r="S189" s="2"/>
       <c r="T189" s="2"/>
     </row>
-    <row r="190" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="190">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="2"/>
@@ -4989,7 +4922,7 @@
       <c r="S190" s="2"/>
       <c r="T190" s="2"/>
     </row>
-    <row r="191" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="191">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="2"/>
@@ -5011,7 +4944,7 @@
       <c r="S191" s="2"/>
       <c r="T191" s="2"/>
     </row>
-    <row r="192" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="192">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="2"/>
@@ -5033,7 +4966,7 @@
       <c r="S192" s="2"/>
       <c r="T192" s="2"/>
     </row>
-    <row r="193" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="193">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="2"/>
@@ -5055,7 +4988,7 @@
       <c r="S193" s="2"/>
       <c r="T193" s="2"/>
     </row>
-    <row r="194" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="194">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="2"/>
@@ -5077,7 +5010,7 @@
       <c r="S194" s="2"/>
       <c r="T194" s="2"/>
     </row>
-    <row r="195" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="195">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="2"/>
@@ -5099,7 +5032,7 @@
       <c r="S195" s="2"/>
       <c r="T195" s="2"/>
     </row>
-    <row r="196" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="196">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="2"/>
@@ -5121,7 +5054,7 @@
       <c r="S196" s="2"/>
       <c r="T196" s="2"/>
     </row>
-    <row r="197" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="197">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="2"/>
@@ -5143,7 +5076,7 @@
       <c r="S197" s="2"/>
       <c r="T197" s="2"/>
     </row>
-    <row r="198" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="198">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="2"/>
@@ -5165,7 +5098,7 @@
       <c r="S198" s="2"/>
       <c r="T198" s="2"/>
     </row>
-    <row r="199" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="199">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="2"/>
@@ -5187,7 +5120,7 @@
       <c r="S199" s="2"/>
       <c r="T199" s="2"/>
     </row>
-    <row r="200" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="200">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="2"/>
@@ -5210,7 +5143,6 @@
       <c r="T200" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/许愿墙.xlsx
+++ b/许愿墙.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15800" windowWidth="28040" xWindow="4240" yWindow="640"/>
+    <workbookView windowWidth="25600" windowHeight="10480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcMode="auto"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -25,106 +27,561 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="58">
   <si>
-    <t xml:space="preserve">  </t>
+    <t>你想找什么样的工作？</t>
+  </si>
+  <si>
+    <t>现在的状态是怎样的？</t>
+  </si>
+  <si>
+    <t>AI攻城狮</t>
+  </si>
+  <si>
+    <t>已找到！</t>
+  </si>
+  <si>
+    <t>Java+AI</t>
+  </si>
+  <si>
+    <t>在找</t>
+  </si>
+  <si>
+    <t>AI agent开发</t>
+  </si>
+  <si>
+    <t>Java实习</t>
+  </si>
+  <si>
+    <t>还没开始找</t>
+  </si>
+  <si>
+    <t>系统架构师</t>
+  </si>
+  <si>
+    <t>Go</t>
+  </si>
+  <si>
+    <t>前端攻城狮</t>
+  </si>
+  <si>
+    <t>AI+游戏开发</t>
+  </si>
+  <si>
+    <t>C++实习</t>
+  </si>
+  <si>
+    <t>后端开发</t>
+  </si>
+  <si>
+    <t>正确的路上</t>
+  </si>
+  <si>
+    <t>Java后端开发</t>
+  </si>
+  <si>
+    <t>在找实习的路上</t>
+  </si>
+  <si>
+    <t>Java</t>
+  </si>
+  <si>
+    <t>找到了，但是通勤太远想跳槽</t>
+  </si>
+  <si>
+    <t>Frontend leader</t>
+  </si>
+  <si>
+    <t>找到了，但是没有work life balance</t>
+  </si>
+  <si>
+    <t>找到了，不满意</t>
+  </si>
+  <si>
+    <t>Java开发</t>
+  </si>
+  <si>
+    <t>再找</t>
+  </si>
+  <si>
+    <t>前端工程师</t>
+  </si>
+  <si>
+    <t>java开发</t>
+  </si>
+  <si>
+    <t>AI+前端工程师</t>
+  </si>
+  <si>
+    <t>C++开发</t>
+  </si>
+  <si>
+    <t>Go后端开发</t>
+  </si>
+  <si>
+    <t>AI+后端工程师</t>
+  </si>
+  <si>
+    <t>linux运维</t>
+  </si>
+  <si>
+    <t>AI+嵌入式</t>
+  </si>
+  <si>
+    <t>财务主管</t>
+  </si>
+  <si>
+    <t>在学习的路上</t>
+  </si>
+  <si>
+    <t>去年7月用这个项目找到了第一份工作，现在再次回来，希望跳槽找一份AI售前的工作</t>
+  </si>
+  <si>
+    <t>准备跳槽</t>
+  </si>
+  <si>
+    <t>Java开发，有完善的晋升制度</t>
+  </si>
+  <si>
+    <t>前端开发</t>
+  </si>
+  <si>
+    <t>找到了，兄弟们加油。对于前端这块简历一定要吹牛逼写好，
+面试前真的要背好八股和场景，或者找不想去的公司练练手，准备好了之后再冲刺</t>
+  </si>
+  <si>
+    <t>正在找</t>
+  </si>
+  <si>
+    <t>C#开发</t>
+  </si>
+  <si>
+    <t>dotnet开发，base 成都</t>
+  </si>
+  <si>
+    <t>JAVA开发，base太原</t>
+  </si>
+  <si>
+    <t>前端开发，base上海</t>
+  </si>
+  <si>
+    <t>测试开发</t>
+  </si>
+  <si>
+    <t>运维开发</t>
+  </si>
+  <si>
+    <t>找到了，要去当牛马了，后续准备做独立开发</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 渗透测试工程师</t>
+  </si>
+  <si>
+    <t>应届在找</t>
+  </si>
+  <si>
+    <t>IT审计/数据分析/财务BP</t>
+  </si>
+  <si>
+    <t>AI应用开发</t>
+  </si>
+  <si>
+    <t>设计师</t>
+  </si>
+  <si>
+    <t>Java开发/海外仓销售</t>
+  </si>
+  <si>
+    <t>ai产品</t>
+  </si>
+  <si>
+    <t>数据开发+ai</t>
+  </si>
+  <si>
+    <t>失业了在找</t>
+  </si>
+  <si>
+    <t>AI+JAVA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="22">
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9.75"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
-      <patternFill patternType="none">
-        <fgColor/>
-        <bgColor/>
-      </patternFill>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor/>
-        <bgColor/>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF34C724"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF34C724"/>
-        <bgColor/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF1F2329"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF1F2329"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF1F2329"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF1F2329"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF1F2329"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF1F2329"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF1F2329"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF1F2329"/>
-      </bottom>
-      <diagonal/>
-    </border>
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -149,57 +606,322 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF1F2329"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF1F2329"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF1F2329"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF1F2329"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-  </cellStyleXfs>
-  <cellXfs count="7">
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+  </cellStyleXfs>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="6" fillId="0" fontId="1" numFmtId="164" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -248,7 +970,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -281,26 +1003,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -333,23 +1038,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -491,38 +1179,32 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
-    <outlinePr summaryBelow="false" summaryRight="false"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:T200"/>
   <sheetViews>
-    <sheetView showGridLines="true" tabSelected="true" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="13"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="74"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="54"/>
+    <col min="1" max="1" width="74" customWidth="1"/>
+    <col min="2" max="2" width="54" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="str">
-        <v>你想找什么样的工作？</v>
-      </c>
-      <c r="B1" s="3" t="str">
-        <v>现在的状态是怎样的？</v>
+    <row r="1" spans="1:20">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -543,12 +1225,12 @@
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="str">
-        <v>AI攻城狮</v>
-      </c>
-      <c r="B2" s="1" t="str">
-        <v>已找到！</v>
+    <row r="2" spans="1:20">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -569,12 +1251,12 @@
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="str">
-        <v>Java+AI</v>
-      </c>
-      <c r="B3" s="1" t="str">
-        <v>在找</v>
+    <row r="3" spans="1:20">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -595,12 +1277,12 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="str">
-        <v>AI agent开发</v>
-      </c>
-      <c r="B4" s="1" t="str">
-        <v>在找</v>
+    <row r="4" spans="1:20">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -621,12 +1303,12 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="str">
-        <v>Java实习</v>
-      </c>
-      <c r="B5" s="1" t="str">
-        <v>还没开始找</v>
+    <row r="5" spans="1:20">
+      <c r="A5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -647,12 +1329,12 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="str">
-        <v>系统架构师</v>
-      </c>
-      <c r="B6" s="1" t="str">
-        <v>在找</v>
+    <row r="6" spans="1:20">
+      <c r="A6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -673,12 +1355,12 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="str">
-        <v>Go</v>
-      </c>
-      <c r="B7" s="1" t="str">
-        <v>在找</v>
+    <row r="7" spans="1:20">
+      <c r="A7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -699,12 +1381,12 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="str">
-        <v>前端攻城狮</v>
-      </c>
-      <c r="B8" s="1" t="str">
-        <v>在找</v>
+    <row r="8" spans="1:20">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -725,12 +1407,12 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="str">
-        <v>AI+游戏开发</v>
-      </c>
-      <c r="B9" s="1" t="str">
-        <v>在找</v>
+    <row r="9" spans="1:20">
+      <c r="A9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -751,12 +1433,12 @@
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="str">
-        <v>C++实习</v>
-      </c>
-      <c r="B10" s="1" t="str">
-        <v>在找</v>
+    <row r="10" spans="1:20">
+      <c r="A10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -777,12 +1459,12 @@
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="str">
-        <v>后端开发</v>
-      </c>
-      <c r="B11" s="1" t="str">
-        <v>正确的路上</v>
+    <row r="11" spans="1:20">
+      <c r="A11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -803,12 +1485,12 @@
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="str">
-        <v>Java后端开发</v>
-      </c>
-      <c r="B12" s="1" t="str">
-        <v>在找实习的路上</v>
+    <row r="12" spans="1:20">
+      <c r="A12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -829,12 +1511,12 @@
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="str">
-        <v>Java</v>
-      </c>
-      <c r="B13" s="1" t="str">
-        <v>找到了，但是通勤太远想跳槽</v>
+    <row r="13" spans="1:20">
+      <c r="A13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -855,12 +1537,12 @@
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="str">
-        <v>Frontend leader</v>
-      </c>
-      <c r="B14" s="1" t="str">
-        <v>找到了，但是没有work life balance</v>
+    <row r="14" spans="1:20">
+      <c r="A14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -881,12 +1563,12 @@
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
     </row>
-    <row r="15">
-      <c r="A15" s="5" t="str">
-        <v>Java</v>
-      </c>
-      <c r="B15" s="1" t="str">
-        <v>找到了，不满意</v>
+    <row r="15" spans="1:20">
+      <c r="A15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -907,12 +1589,12 @@
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="str">
-        <v>Java开发</v>
-      </c>
-      <c r="B16" s="1" t="str">
-        <v>再找</v>
+    <row r="16" spans="1:20">
+      <c r="A16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -933,12 +1615,12 @@
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="str">
-        <v>前端工程师</v>
-      </c>
-      <c r="B17" s="1" t="str">
-        <v>在找</v>
+    <row r="17" spans="1:20">
+      <c r="A17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -959,12 +1641,12 @@
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="str">
-        <v>java开发</v>
-      </c>
-      <c r="B18" s="1" t="str">
-        <v>在找</v>
+    <row r="18" spans="1:20">
+      <c r="A18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -985,12 +1667,12 @@
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="str">
-        <v>AI+前端工程师</v>
-      </c>
-      <c r="B19" s="1" t="str">
-        <v>还没开始找</v>
+    <row r="19" spans="1:20">
+      <c r="A19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -1011,12 +1693,12 @@
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="str">
-        <v>C++开发</v>
-      </c>
-      <c r="B20" s="1" t="str">
-        <v>在找</v>
+    <row r="20" spans="1:20">
+      <c r="A20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -1037,12 +1719,12 @@
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="str">
-        <v>Go</v>
-      </c>
-      <c r="B21" s="1" t="str">
-        <v>在找</v>
+    <row r="21" spans="1:20">
+      <c r="A21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -1063,12 +1745,12 @@
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="str">
-        <v>Go后端开发</v>
-      </c>
-      <c r="B22" s="1" t="str">
-        <v>在找</v>
+    <row r="22" spans="1:20">
+      <c r="A22" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -1089,12 +1771,12 @@
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="str">
-        <v>AI+后端工程师</v>
-      </c>
-      <c r="B23" s="1" t="str">
-        <v>还没开始找</v>
+    <row r="23" spans="1:20">
+      <c r="A23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -1115,12 +1797,12 @@
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
     </row>
-    <row r="24">
-      <c r="A24" s="1" t="str">
-        <v>linux运维</v>
-      </c>
-      <c r="B24" s="1" t="str">
-        <v>在找</v>
+    <row r="24" spans="1:20">
+      <c r="A24" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -1141,12 +1823,12 @@
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="str">
-        <v>前端工程师</v>
-      </c>
-      <c r="B25" s="1" t="str">
-        <v>在找</v>
+    <row r="25" spans="1:20">
+      <c r="A25" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -1167,12 +1849,12 @@
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
     </row>
-    <row r="26">
-      <c r="A26" s="1" t="str">
-        <v>前端工程师</v>
-      </c>
-      <c r="B26" s="1" t="str">
-        <v>还没开始找</v>
+    <row r="26" spans="1:20">
+      <c r="A26" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -1193,12 +1875,12 @@
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
     </row>
-    <row r="27">
-      <c r="A27" s="1" t="str">
-        <v>java开发</v>
-      </c>
-      <c r="B27" s="1" t="str">
-        <v>在找</v>
+    <row r="27" spans="1:20">
+      <c r="A27" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -1219,12 +1901,12 @@
       <c r="S27" s="2"/>
       <c r="T27" s="2"/>
     </row>
-    <row r="28">
-      <c r="A28" s="1" t="str">
-        <v>AI+嵌入式</v>
-      </c>
-      <c r="B28" s="1" t="str">
-        <v>再找</v>
+    <row r="28" spans="1:20">
+      <c r="A28" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -1245,12 +1927,12 @@
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
     </row>
-    <row r="29">
-      <c r="A29" s="1" t="str">
-        <v>财务主管</v>
-      </c>
-      <c r="B29" s="1" t="str">
-        <v>在找</v>
+    <row r="29" spans="1:20">
+      <c r="A29" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -1271,12 +1953,12 @@
       <c r="S29" s="2"/>
       <c r="T29" s="2"/>
     </row>
-    <row r="30">
-      <c r="A30" s="1" t="str">
-        <v>后端开发</v>
-      </c>
-      <c r="B30" s="1" t="str">
-        <v>在学习的路上</v>
+    <row r="30" spans="1:20">
+      <c r="A30" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -1297,12 +1979,12 @@
       <c r="S30" s="2"/>
       <c r="T30" s="2"/>
     </row>
-    <row r="31">
-      <c r="A31" s="1" t="str">
-        <v>去年7月用这个项目找到了第一份工作，现在再次回来，希望跳槽找一份AI售前的工作</v>
-      </c>
-      <c r="B31" s="1" t="str">
-        <v>在找</v>
+    <row r="31" spans="1:20">
+      <c r="A31" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -1323,12 +2005,12 @@
       <c r="S31" s="2"/>
       <c r="T31" s="2"/>
     </row>
-    <row r="32">
-      <c r="A32" s="1" t="str">
-        <v>前端工程师</v>
-      </c>
-      <c r="B32" s="1" t="str">
-        <v>在找</v>
+    <row r="32" spans="1:20">
+      <c r="A32" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -1349,12 +2031,12 @@
       <c r="S32" s="2"/>
       <c r="T32" s="2"/>
     </row>
-    <row r="33">
-      <c r="A33" s="1" t="str">
-        <v>Java开发</v>
-      </c>
-      <c r="B33" s="1" t="str">
-        <v>准备跳槽</v>
+    <row r="33" spans="1:20">
+      <c r="A33" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -1375,12 +2057,12 @@
       <c r="S33" s="2"/>
       <c r="T33" s="2"/>
     </row>
-    <row r="34">
-      <c r="A34" s="1" t="str">
-        <v>Java开发，有完善的晋升制度</v>
-      </c>
-      <c r="B34" s="1" t="str">
-        <v>准备跳槽</v>
+    <row r="34" spans="1:20">
+      <c r="A34" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -1401,13 +2083,12 @@
       <c r="S34" s="2"/>
       <c r="T34" s="2"/>
     </row>
-    <row r="35">
-      <c r="A35" s="1" t="str">
-        <v>前端开发</v>
-      </c>
-      <c r="B35" s="1" t="str">
-        <v>找到了，兄弟们加油。对于前端这块简历一定要吹牛逼写好，
-面试前真的要背好八股和场景，或者找不想去的公司练练手，准备好了之后再冲刺</v>
+    <row r="35" spans="1:20">
+      <c r="A35" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -1428,12 +2109,12 @@
       <c r="S35" s="2"/>
       <c r="T35" s="2"/>
     </row>
-    <row r="36">
-      <c r="A36" s="1" t="str">
-        <v>java开发</v>
-      </c>
-      <c r="B36" s="1" t="str">
-        <v>在找</v>
+    <row r="36" spans="1:20">
+      <c r="A36" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -1454,12 +2135,12 @@
       <c r="S36" s="2"/>
       <c r="T36" s="2"/>
     </row>
-    <row r="37">
-      <c r="A37" s="1" t="str">
-        <v>Java开发</v>
-      </c>
-      <c r="B37" s="1" t="str">
-        <v>正在找</v>
+    <row r="37" spans="1:20">
+      <c r="A37" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -1480,12 +2161,12 @@
       <c r="S37" s="2"/>
       <c r="T37" s="2"/>
     </row>
-    <row r="38">
-      <c r="A38" s="1" t="str">
-        <v>Java+AI</v>
-      </c>
-      <c r="B38" s="1" t="str">
-        <v>在找</v>
+    <row r="38" spans="1:20">
+      <c r="A38" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -1506,38 +2187,38 @@
       <c r="S38" s="2"/>
       <c r="T38" s="2"/>
     </row>
-    <row r="39">
-      <c r="A39" s="5" t="str">
-        <v>AI+后端工程师</v>
-      </c>
-      <c r="B39" s="1" t="str">
-        <v>在找</v>
-      </c>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="4"/>
-      <c r="L39" s="4"/>
-      <c r="M39" s="4"/>
-      <c r="N39" s="4"/>
-      <c r="O39" s="4"/>
-      <c r="P39" s="4"/>
-      <c r="Q39" s="4"/>
-      <c r="R39" s="4"/>
-      <c r="S39" s="4"/>
-      <c r="T39" s="4"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="str">
-        <v>java开发</v>
-      </c>
-      <c r="B40" s="1" t="str">
-        <v>在找</v>
+    <row r="39" spans="1:20">
+      <c r="A39" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="2"/>
+      <c r="T39" s="2"/>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -1558,12 +2239,12 @@
       <c r="S40" s="2"/>
       <c r="T40" s="2"/>
     </row>
-    <row r="41">
-      <c r="A41" s="1" t="str">
-        <v>C#开发</v>
-      </c>
-      <c r="B41" s="1" t="str">
-        <v>在找</v>
+    <row r="41" spans="1:20">
+      <c r="A41" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -1584,12 +2265,12 @@
       <c r="S41" s="2"/>
       <c r="T41" s="2"/>
     </row>
-    <row r="42">
-      <c r="A42" s="1" t="str">
-        <v>dotnet开发，base 成都</v>
-      </c>
-      <c r="B42" s="1" t="str">
-        <v>准备跳槽</v>
+    <row r="42" spans="1:20">
+      <c r="A42" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -1610,12 +2291,12 @@
       <c r="S42" s="2"/>
       <c r="T42" s="2"/>
     </row>
-    <row r="43">
-      <c r="A43" s="1" t="str">
-        <v>JAVA开发，base太原</v>
-      </c>
-      <c r="B43" s="1" t="str">
-        <v>在找</v>
+    <row r="43" spans="1:20">
+      <c r="A43" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -1636,12 +2317,12 @@
       <c r="S43" s="2"/>
       <c r="T43" s="2"/>
     </row>
-    <row r="44">
-      <c r="A44" s="1" t="str">
-        <v>Java开发</v>
-      </c>
-      <c r="B44" s="1" t="str">
-        <v>准备跳槽</v>
+    <row r="44" spans="1:20">
+      <c r="A44" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -1662,12 +2343,12 @@
       <c r="S44" s="2"/>
       <c r="T44" s="2"/>
     </row>
-    <row r="45">
-      <c r="A45" s="1" t="str">
-        <v>前端开发，base上海</v>
-      </c>
-      <c r="B45" s="1" t="str">
-        <v>在找</v>
+    <row r="45" spans="1:20">
+      <c r="A45" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -1688,12 +2369,12 @@
       <c r="S45" s="2"/>
       <c r="T45" s="2"/>
     </row>
-    <row r="46">
-      <c r="A46" s="1" t="str">
-        <v>测试开发</v>
-      </c>
-      <c r="B46" s="1" t="str">
-        <v>在找</v>
+    <row r="46" spans="1:20">
+      <c r="A46" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -1714,12 +2395,12 @@
       <c r="S46" s="2"/>
       <c r="T46" s="2"/>
     </row>
-    <row r="47">
-      <c r="A47" s="6" t="str">
-        <v>运维开发</v>
-      </c>
-      <c r="B47" s="1" t="str">
-        <v>找到了，要去当牛马了，后续准备做独立开发</v>
+    <row r="47" spans="1:20">
+      <c r="A47" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -1740,12 +2421,12 @@
       <c r="S47" s="2"/>
       <c r="T47" s="2"/>
     </row>
-    <row r="48">
-      <c r="A48" s="1" t="str" xml:space="preserve">
-        <v> 渗透测试工程师</v>
-      </c>
-      <c r="B48" s="1" t="str">
-        <v>应届在找</v>
+    <row r="48" spans="1:20">
+      <c r="A48" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
@@ -1766,12 +2447,12 @@
       <c r="S48" s="2"/>
       <c r="T48" s="2"/>
     </row>
-    <row r="49">
-      <c r="A49" s="1" t="str">
-        <v>IT审计/数据分析/财务BP</v>
-      </c>
-      <c r="B49" s="1" t="str">
-        <v>准备跳槽</v>
+    <row r="49" spans="1:20">
+      <c r="A49" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -1792,12 +2473,12 @@
       <c r="S49" s="2"/>
       <c r="T49" s="2"/>
     </row>
-    <row r="50">
-      <c r="A50" s="1" t="str">
-        <v>AI应用开发</v>
-      </c>
-      <c r="B50" s="1" t="str">
-        <v>在找</v>
+    <row r="50" spans="1:20">
+      <c r="A50" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
@@ -1818,12 +2499,12 @@
       <c r="S50" s="2"/>
       <c r="T50" s="2"/>
     </row>
-    <row r="51">
-      <c r="A51" s="1" t="str">
-        <v>设计师</v>
-      </c>
-      <c r="B51" s="1" t="str">
-        <v>在找</v>
+    <row r="51" spans="1:20">
+      <c r="A51" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
@@ -1844,12 +2525,12 @@
       <c r="S51" s="2"/>
       <c r="T51" s="2"/>
     </row>
-    <row r="52">
-      <c r="A52" s="1" t="str">
-        <v>运维开发</v>
-      </c>
-      <c r="B52" s="1" t="str">
-        <v>在找</v>
+    <row r="52" spans="1:20">
+      <c r="A52" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -1870,12 +2551,12 @@
       <c r="S52" s="2"/>
       <c r="T52" s="2"/>
     </row>
-    <row r="53">
-      <c r="A53" s="1" t="str">
-        <v>Java开发</v>
-      </c>
-      <c r="B53" s="1" t="str">
-        <v>在找</v>
+    <row r="53" spans="1:20">
+      <c r="A53" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
@@ -1896,12 +2577,12 @@
       <c r="S53" s="2"/>
       <c r="T53" s="2"/>
     </row>
-    <row r="54">
-      <c r="A54" s="1" t="str">
-        <v>Java开发/海外仓销售</v>
-      </c>
-      <c r="B54" s="1" t="str">
-        <v>在找</v>
+    <row r="54" spans="1:20">
+      <c r="A54" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
@@ -1922,12 +2603,12 @@
       <c r="S54" s="2"/>
       <c r="T54" s="2"/>
     </row>
-    <row r="55">
-      <c r="A55" s="1" t="str">
-        <v>ai产品</v>
-      </c>
-      <c r="B55" s="1" t="str">
-        <v>在找</v>
+    <row r="55" spans="1:20">
+      <c r="A55" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
@@ -1948,12 +2629,12 @@
       <c r="S55" s="2"/>
       <c r="T55" s="2"/>
     </row>
-    <row r="56">
-      <c r="A56" s="1" t="str">
-        <v>ai产品</v>
-      </c>
-      <c r="B56" s="1" t="str">
-        <v>在找</v>
+    <row r="56" spans="1:20">
+      <c r="A56" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -1974,12 +2655,12 @@
       <c r="S56" s="2"/>
       <c r="T56" s="2"/>
     </row>
-    <row r="57">
-      <c r="A57" s="1" t="str">
-        <v>数据开发+ai</v>
-      </c>
-      <c r="B57" s="1" t="str">
-        <v>失业了在找</v>
+    <row r="57" spans="1:20">
+      <c r="A57" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
@@ -2000,12 +2681,12 @@
       <c r="S57" s="2"/>
       <c r="T57" s="2"/>
     </row>
-    <row r="58">
-      <c r="A58" s="1" t="str">
-        <v>AI+JAVA</v>
-      </c>
-      <c r="B58" s="1" t="str">
-        <v>在找</v>
+    <row r="58" spans="1:20">
+      <c r="A58" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -2026,9 +2707,13 @@
       <c r="S58" s="2"/>
       <c r="T58" s="2"/>
     </row>
-    <row r="59">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
+    <row r="59" spans="1:20">
+      <c r="A59" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
@@ -2048,9 +2733,9 @@
       <c r="S59" s="2"/>
       <c r="T59" s="2"/>
     </row>
-    <row r="60">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
+    <row r="60" spans="1:20">
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
@@ -2070,9 +2755,9 @@
       <c r="S60" s="2"/>
       <c r="T60" s="2"/>
     </row>
-    <row r="61">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
+    <row r="61" spans="1:20">
+      <c r="A61" s="3"/>
+      <c r="B61" s="3"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
@@ -2092,9 +2777,9 @@
       <c r="S61" s="2"/>
       <c r="T61" s="2"/>
     </row>
-    <row r="62">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
+    <row r="62" spans="1:20">
+      <c r="A62" s="3"/>
+      <c r="B62" s="3"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
@@ -2114,9 +2799,9 @@
       <c r="S62" s="2"/>
       <c r="T62" s="2"/>
     </row>
-    <row r="63">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
+    <row r="63" spans="1:20">
+      <c r="A63" s="3"/>
+      <c r="B63" s="3"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
@@ -2136,9 +2821,9 @@
       <c r="S63" s="2"/>
       <c r="T63" s="2"/>
     </row>
-    <row r="64">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
+    <row r="64" spans="1:20">
+      <c r="A64" s="3"/>
+      <c r="B64" s="3"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
@@ -2158,9 +2843,9 @@
       <c r="S64" s="2"/>
       <c r="T64" s="2"/>
     </row>
-    <row r="65">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
+    <row r="65" spans="1:20">
+      <c r="A65" s="3"/>
+      <c r="B65" s="3"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
@@ -2180,9 +2865,9 @@
       <c r="S65" s="2"/>
       <c r="T65" s="2"/>
     </row>
-    <row r="66">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
+    <row r="66" spans="1:20">
+      <c r="A66" s="3"/>
+      <c r="B66" s="3"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
@@ -2202,9 +2887,9 @@
       <c r="S66" s="2"/>
       <c r="T66" s="2"/>
     </row>
-    <row r="67">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
+    <row r="67" spans="1:20">
+      <c r="A67" s="3"/>
+      <c r="B67" s="3"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
@@ -2224,9 +2909,9 @@
       <c r="S67" s="2"/>
       <c r="T67" s="2"/>
     </row>
-    <row r="68">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
+    <row r="68" spans="1:20">
+      <c r="A68" s="3"/>
+      <c r="B68" s="3"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
@@ -2246,9 +2931,9 @@
       <c r="S68" s="2"/>
       <c r="T68" s="2"/>
     </row>
-    <row r="69">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
+    <row r="69" spans="1:20">
+      <c r="A69" s="3"/>
+      <c r="B69" s="3"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
@@ -2268,9 +2953,9 @@
       <c r="S69" s="2"/>
       <c r="T69" s="2"/>
     </row>
-    <row r="70">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
+    <row r="70" spans="1:20">
+      <c r="A70" s="3"/>
+      <c r="B70" s="3"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
@@ -2290,9 +2975,9 @@
       <c r="S70" s="2"/>
       <c r="T70" s="2"/>
     </row>
-    <row r="71">
-      <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
+    <row r="71" spans="1:20">
+      <c r="A71" s="3"/>
+      <c r="B71" s="3"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
@@ -2312,9 +2997,9 @@
       <c r="S71" s="2"/>
       <c r="T71" s="2"/>
     </row>
-    <row r="72">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
+    <row r="72" spans="1:20">
+      <c r="A72" s="3"/>
+      <c r="B72" s="3"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
@@ -2334,9 +3019,9 @@
       <c r="S72" s="2"/>
       <c r="T72" s="2"/>
     </row>
-    <row r="73">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
+    <row r="73" spans="1:20">
+      <c r="A73" s="3"/>
+      <c r="B73" s="3"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
@@ -2356,9 +3041,9 @@
       <c r="S73" s="2"/>
       <c r="T73" s="2"/>
     </row>
-    <row r="74">
-      <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
+    <row r="74" spans="1:20">
+      <c r="A74" s="3"/>
+      <c r="B74" s="3"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
@@ -2378,9 +3063,9 @@
       <c r="S74" s="2"/>
       <c r="T74" s="2"/>
     </row>
-    <row r="75">
-      <c r="A75" s="1"/>
-      <c r="B75" s="1"/>
+    <row r="75" spans="1:20">
+      <c r="A75" s="3"/>
+      <c r="B75" s="3"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
@@ -2400,9 +3085,9 @@
       <c r="S75" s="2"/>
       <c r="T75" s="2"/>
     </row>
-    <row r="76">
-      <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
+    <row r="76" spans="1:20">
+      <c r="A76" s="3"/>
+      <c r="B76" s="3"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
@@ -2422,9 +3107,9 @@
       <c r="S76" s="2"/>
       <c r="T76" s="2"/>
     </row>
-    <row r="77">
-      <c r="A77" s="1"/>
-      <c r="B77" s="1"/>
+    <row r="77" spans="1:20">
+      <c r="A77" s="3"/>
+      <c r="B77" s="3"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
@@ -2444,9 +3129,9 @@
       <c r="S77" s="2"/>
       <c r="T77" s="2"/>
     </row>
-    <row r="78">
-      <c r="A78" s="1"/>
-      <c r="B78" s="1"/>
+    <row r="78" spans="1:20">
+      <c r="A78" s="3"/>
+      <c r="B78" s="3"/>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
@@ -2466,9 +3151,9 @@
       <c r="S78" s="2"/>
       <c r="T78" s="2"/>
     </row>
-    <row r="79">
-      <c r="A79" s="1"/>
-      <c r="B79" s="1"/>
+    <row r="79" spans="1:20">
+      <c r="A79" s="3"/>
+      <c r="B79" s="3"/>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
@@ -2488,9 +3173,9 @@
       <c r="S79" s="2"/>
       <c r="T79" s="2"/>
     </row>
-    <row r="80">
-      <c r="A80" s="1"/>
-      <c r="B80" s="1"/>
+    <row r="80" spans="1:20">
+      <c r="A80" s="3"/>
+      <c r="B80" s="3"/>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
@@ -2510,9 +3195,9 @@
       <c r="S80" s="2"/>
       <c r="T80" s="2"/>
     </row>
-    <row r="81">
-      <c r="A81" s="1"/>
-      <c r="B81" s="1"/>
+    <row r="81" spans="1:20">
+      <c r="A81" s="3"/>
+      <c r="B81" s="3"/>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
@@ -2532,9 +3217,9 @@
       <c r="S81" s="2"/>
       <c r="T81" s="2"/>
     </row>
-    <row r="82">
-      <c r="A82" s="1"/>
-      <c r="B82" s="1"/>
+    <row r="82" spans="1:20">
+      <c r="A82" s="3"/>
+      <c r="B82" s="3"/>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
@@ -2554,9 +3239,9 @@
       <c r="S82" s="2"/>
       <c r="T82" s="2"/>
     </row>
-    <row r="83">
-      <c r="A83" s="1"/>
-      <c r="B83" s="1"/>
+    <row r="83" spans="1:20">
+      <c r="A83" s="3"/>
+      <c r="B83" s="3"/>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
@@ -2576,9 +3261,9 @@
       <c r="S83" s="2"/>
       <c r="T83" s="2"/>
     </row>
-    <row r="84">
-      <c r="A84" s="1"/>
-      <c r="B84" s="1"/>
+    <row r="84" spans="1:20">
+      <c r="A84" s="3"/>
+      <c r="B84" s="3"/>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
@@ -2598,9 +3283,9 @@
       <c r="S84" s="2"/>
       <c r="T84" s="2"/>
     </row>
-    <row r="85">
-      <c r="A85" s="1"/>
-      <c r="B85" s="1"/>
+    <row r="85" spans="1:20">
+      <c r="A85" s="3"/>
+      <c r="B85" s="3"/>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
@@ -2620,9 +3305,9 @@
       <c r="S85" s="2"/>
       <c r="T85" s="2"/>
     </row>
-    <row r="86">
-      <c r="A86" s="1"/>
-      <c r="B86" s="1"/>
+    <row r="86" spans="1:20">
+      <c r="A86" s="3"/>
+      <c r="B86" s="3"/>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
@@ -2642,9 +3327,9 @@
       <c r="S86" s="2"/>
       <c r="T86" s="2"/>
     </row>
-    <row r="87">
-      <c r="A87" s="1"/>
-      <c r="B87" s="1"/>
+    <row r="87" spans="1:20">
+      <c r="A87" s="3"/>
+      <c r="B87" s="3"/>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
@@ -2664,9 +3349,9 @@
       <c r="S87" s="2"/>
       <c r="T87" s="2"/>
     </row>
-    <row r="88">
-      <c r="A88" s="1"/>
-      <c r="B88" s="1"/>
+    <row r="88" spans="1:20">
+      <c r="A88" s="3"/>
+      <c r="B88" s="3"/>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
@@ -2686,9 +3371,9 @@
       <c r="S88" s="2"/>
       <c r="T88" s="2"/>
     </row>
-    <row r="89">
-      <c r="A89" s="1"/>
-      <c r="B89" s="1"/>
+    <row r="89" spans="1:20">
+      <c r="A89" s="3"/>
+      <c r="B89" s="3"/>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
@@ -2708,9 +3393,9 @@
       <c r="S89" s="2"/>
       <c r="T89" s="2"/>
     </row>
-    <row r="90">
-      <c r="A90" s="1"/>
-      <c r="B90" s="1"/>
+    <row r="90" spans="1:20">
+      <c r="A90" s="3"/>
+      <c r="B90" s="3"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
@@ -2730,9 +3415,9 @@
       <c r="S90" s="2"/>
       <c r="T90" s="2"/>
     </row>
-    <row r="91">
-      <c r="A91" s="1"/>
-      <c r="B91" s="1"/>
+    <row r="91" spans="1:20">
+      <c r="A91" s="3"/>
+      <c r="B91" s="3"/>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
@@ -2752,9 +3437,9 @@
       <c r="S91" s="2"/>
       <c r="T91" s="2"/>
     </row>
-    <row r="92">
-      <c r="A92" s="1"/>
-      <c r="B92" s="1"/>
+    <row r="92" spans="1:20">
+      <c r="A92" s="3"/>
+      <c r="B92" s="3"/>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
@@ -2774,9 +3459,9 @@
       <c r="S92" s="2"/>
       <c r="T92" s="2"/>
     </row>
-    <row r="93">
-      <c r="A93" s="1"/>
-      <c r="B93" s="1"/>
+    <row r="93" spans="1:20">
+      <c r="A93" s="3"/>
+      <c r="B93" s="3"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
@@ -2796,9 +3481,9 @@
       <c r="S93" s="2"/>
       <c r="T93" s="2"/>
     </row>
-    <row r="94">
-      <c r="A94" s="1"/>
-      <c r="B94" s="1"/>
+    <row r="94" spans="1:20">
+      <c r="A94" s="3"/>
+      <c r="B94" s="3"/>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
@@ -2818,9 +3503,9 @@
       <c r="S94" s="2"/>
       <c r="T94" s="2"/>
     </row>
-    <row r="95">
-      <c r="A95" s="1"/>
-      <c r="B95" s="1"/>
+    <row r="95" spans="1:20">
+      <c r="A95" s="3"/>
+      <c r="B95" s="3"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
@@ -2840,9 +3525,9 @@
       <c r="S95" s="2"/>
       <c r="T95" s="2"/>
     </row>
-    <row r="96">
-      <c r="A96" s="1"/>
-      <c r="B96" s="1"/>
+    <row r="96" spans="1:20">
+      <c r="A96" s="3"/>
+      <c r="B96" s="3"/>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
@@ -2862,9 +3547,9 @@
       <c r="S96" s="2"/>
       <c r="T96" s="2"/>
     </row>
-    <row r="97">
-      <c r="A97" s="1"/>
-      <c r="B97" s="1"/>
+    <row r="97" spans="1:20">
+      <c r="A97" s="3"/>
+      <c r="B97" s="3"/>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
@@ -2884,9 +3569,9 @@
       <c r="S97" s="2"/>
       <c r="T97" s="2"/>
     </row>
-    <row r="98">
-      <c r="A98" s="1"/>
-      <c r="B98" s="1"/>
+    <row r="98" spans="1:20">
+      <c r="A98" s="3"/>
+      <c r="B98" s="3"/>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
@@ -2906,9 +3591,9 @@
       <c r="S98" s="2"/>
       <c r="T98" s="2"/>
     </row>
-    <row r="99">
-      <c r="A99" s="1"/>
-      <c r="B99" s="1"/>
+    <row r="99" spans="1:20">
+      <c r="A99" s="3"/>
+      <c r="B99" s="3"/>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
@@ -2928,9 +3613,9 @@
       <c r="S99" s="2"/>
       <c r="T99" s="2"/>
     </row>
-    <row r="100">
-      <c r="A100" s="1"/>
-      <c r="B100" s="1"/>
+    <row r="100" spans="1:20">
+      <c r="A100" s="3"/>
+      <c r="B100" s="3"/>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
@@ -2950,9 +3635,9 @@
       <c r="S100" s="2"/>
       <c r="T100" s="2"/>
     </row>
-    <row r="101">
-      <c r="A101" s="1"/>
-      <c r="B101" s="1"/>
+    <row r="101" spans="1:20">
+      <c r="A101" s="3"/>
+      <c r="B101" s="3"/>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
@@ -2972,9 +3657,9 @@
       <c r="S101" s="2"/>
       <c r="T101" s="2"/>
     </row>
-    <row r="102">
-      <c r="A102" s="1"/>
-      <c r="B102" s="1"/>
+    <row r="102" spans="1:20">
+      <c r="A102" s="3"/>
+      <c r="B102" s="3"/>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
@@ -2994,9 +3679,9 @@
       <c r="S102" s="2"/>
       <c r="T102" s="2"/>
     </row>
-    <row r="103">
-      <c r="A103" s="1"/>
-      <c r="B103" s="1"/>
+    <row r="103" spans="1:20">
+      <c r="A103" s="3"/>
+      <c r="B103" s="3"/>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
@@ -3016,9 +3701,9 @@
       <c r="S103" s="2"/>
       <c r="T103" s="2"/>
     </row>
-    <row r="104">
-      <c r="A104" s="1"/>
-      <c r="B104" s="1"/>
+    <row r="104" spans="1:20">
+      <c r="A104" s="3"/>
+      <c r="B104" s="3"/>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
@@ -3038,9 +3723,9 @@
       <c r="S104" s="2"/>
       <c r="T104" s="2"/>
     </row>
-    <row r="105">
-      <c r="A105" s="1"/>
-      <c r="B105" s="1"/>
+    <row r="105" spans="1:20">
+      <c r="A105" s="3"/>
+      <c r="B105" s="3"/>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
@@ -3060,9 +3745,9 @@
       <c r="S105" s="2"/>
       <c r="T105" s="2"/>
     </row>
-    <row r="106">
-      <c r="A106" s="1"/>
-      <c r="B106" s="1"/>
+    <row r="106" spans="1:20">
+      <c r="A106" s="3"/>
+      <c r="B106" s="3"/>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
@@ -3082,9 +3767,9 @@
       <c r="S106" s="2"/>
       <c r="T106" s="2"/>
     </row>
-    <row r="107">
-      <c r="A107" s="1"/>
-      <c r="B107" s="1"/>
+    <row r="107" spans="1:20">
+      <c r="A107" s="3"/>
+      <c r="B107" s="3"/>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
@@ -3104,9 +3789,9 @@
       <c r="S107" s="2"/>
       <c r="T107" s="2"/>
     </row>
-    <row r="108">
-      <c r="A108" s="1"/>
-      <c r="B108" s="1"/>
+    <row r="108" spans="1:20">
+      <c r="A108" s="3"/>
+      <c r="B108" s="3"/>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
@@ -3126,9 +3811,9 @@
       <c r="S108" s="2"/>
       <c r="T108" s="2"/>
     </row>
-    <row r="109">
-      <c r="A109" s="1"/>
-      <c r="B109" s="1"/>
+    <row r="109" spans="1:20">
+      <c r="A109" s="3"/>
+      <c r="B109" s="3"/>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
@@ -3148,9 +3833,9 @@
       <c r="S109" s="2"/>
       <c r="T109" s="2"/>
     </row>
-    <row r="110">
-      <c r="A110" s="1"/>
-      <c r="B110" s="1"/>
+    <row r="110" spans="1:20">
+      <c r="A110" s="3"/>
+      <c r="B110" s="3"/>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
@@ -3170,9 +3855,9 @@
       <c r="S110" s="2"/>
       <c r="T110" s="2"/>
     </row>
-    <row r="111">
-      <c r="A111" s="1"/>
-      <c r="B111" s="1"/>
+    <row r="111" spans="1:20">
+      <c r="A111" s="3"/>
+      <c r="B111" s="3"/>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
@@ -3192,9 +3877,9 @@
       <c r="S111" s="2"/>
       <c r="T111" s="2"/>
     </row>
-    <row r="112">
-      <c r="A112" s="1"/>
-      <c r="B112" s="1"/>
+    <row r="112" spans="1:20">
+      <c r="A112" s="3"/>
+      <c r="B112" s="3"/>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
@@ -3214,9 +3899,9 @@
       <c r="S112" s="2"/>
       <c r="T112" s="2"/>
     </row>
-    <row r="113">
-      <c r="A113" s="1"/>
-      <c r="B113" s="1"/>
+    <row r="113" spans="1:20">
+      <c r="A113" s="3"/>
+      <c r="B113" s="3"/>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
@@ -3236,9 +3921,9 @@
       <c r="S113" s="2"/>
       <c r="T113" s="2"/>
     </row>
-    <row r="114">
-      <c r="A114" s="1"/>
-      <c r="B114" s="1"/>
+    <row r="114" spans="1:20">
+      <c r="A114" s="3"/>
+      <c r="B114" s="3"/>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
@@ -3258,9 +3943,9 @@
       <c r="S114" s="2"/>
       <c r="T114" s="2"/>
     </row>
-    <row r="115">
-      <c r="A115" s="1"/>
-      <c r="B115" s="1"/>
+    <row r="115" spans="1:20">
+      <c r="A115" s="3"/>
+      <c r="B115" s="3"/>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
@@ -3280,9 +3965,9 @@
       <c r="S115" s="2"/>
       <c r="T115" s="2"/>
     </row>
-    <row r="116">
-      <c r="A116" s="1"/>
-      <c r="B116" s="1"/>
+    <row r="116" spans="1:20">
+      <c r="A116" s="3"/>
+      <c r="B116" s="3"/>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
@@ -3302,9 +3987,9 @@
       <c r="S116" s="2"/>
       <c r="T116" s="2"/>
     </row>
-    <row r="117">
-      <c r="A117" s="1"/>
-      <c r="B117" s="1"/>
+    <row r="117" spans="1:20">
+      <c r="A117" s="3"/>
+      <c r="B117" s="3"/>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
@@ -3324,9 +4009,9 @@
       <c r="S117" s="2"/>
       <c r="T117" s="2"/>
     </row>
-    <row r="118">
-      <c r="A118" s="1"/>
-      <c r="B118" s="1"/>
+    <row r="118" spans="1:20">
+      <c r="A118" s="3"/>
+      <c r="B118" s="3"/>
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
@@ -3346,9 +4031,9 @@
       <c r="S118" s="2"/>
       <c r="T118" s="2"/>
     </row>
-    <row r="119">
-      <c r="A119" s="1"/>
-      <c r="B119" s="1"/>
+    <row r="119" spans="1:20">
+      <c r="A119" s="3"/>
+      <c r="B119" s="3"/>
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
@@ -3368,9 +4053,9 @@
       <c r="S119" s="2"/>
       <c r="T119" s="2"/>
     </row>
-    <row r="120">
-      <c r="A120" s="1"/>
-      <c r="B120" s="1"/>
+    <row r="120" spans="1:20">
+      <c r="A120" s="3"/>
+      <c r="B120" s="3"/>
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
       <c r="E120" s="2"/>
@@ -3390,9 +4075,9 @@
       <c r="S120" s="2"/>
       <c r="T120" s="2"/>
     </row>
-    <row r="121">
-      <c r="A121" s="1"/>
-      <c r="B121" s="1"/>
+    <row r="121" spans="1:20">
+      <c r="A121" s="3"/>
+      <c r="B121" s="3"/>
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
@@ -3412,9 +4097,9 @@
       <c r="S121" s="2"/>
       <c r="T121" s="2"/>
     </row>
-    <row r="122">
-      <c r="A122" s="1"/>
-      <c r="B122" s="1"/>
+    <row r="122" spans="1:20">
+      <c r="A122" s="3"/>
+      <c r="B122" s="3"/>
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
@@ -3434,9 +4119,9 @@
       <c r="S122" s="2"/>
       <c r="T122" s="2"/>
     </row>
-    <row r="123">
-      <c r="A123" s="1"/>
-      <c r="B123" s="1"/>
+    <row r="123" spans="1:20">
+      <c r="A123" s="3"/>
+      <c r="B123" s="3"/>
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
@@ -3456,9 +4141,9 @@
       <c r="S123" s="2"/>
       <c r="T123" s="2"/>
     </row>
-    <row r="124">
-      <c r="A124" s="1"/>
-      <c r="B124" s="1"/>
+    <row r="124" spans="1:20">
+      <c r="A124" s="3"/>
+      <c r="B124" s="3"/>
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
@@ -3478,9 +4163,9 @@
       <c r="S124" s="2"/>
       <c r="T124" s="2"/>
     </row>
-    <row r="125">
-      <c r="A125" s="1"/>
-      <c r="B125" s="1"/>
+    <row r="125" spans="1:20">
+      <c r="A125" s="3"/>
+      <c r="B125" s="3"/>
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
@@ -3500,9 +4185,9 @@
       <c r="S125" s="2"/>
       <c r="T125" s="2"/>
     </row>
-    <row r="126">
-      <c r="A126" s="1"/>
-      <c r="B126" s="1"/>
+    <row r="126" spans="1:20">
+      <c r="A126" s="3"/>
+      <c r="B126" s="3"/>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
@@ -3522,9 +4207,9 @@
       <c r="S126" s="2"/>
       <c r="T126" s="2"/>
     </row>
-    <row r="127">
-      <c r="A127" s="1"/>
-      <c r="B127" s="1"/>
+    <row r="127" spans="1:20">
+      <c r="A127" s="3"/>
+      <c r="B127" s="3"/>
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
@@ -3544,9 +4229,9 @@
       <c r="S127" s="2"/>
       <c r="T127" s="2"/>
     </row>
-    <row r="128">
-      <c r="A128" s="1"/>
-      <c r="B128" s="1"/>
+    <row r="128" spans="1:20">
+      <c r="A128" s="3"/>
+      <c r="B128" s="3"/>
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
@@ -3566,9 +4251,9 @@
       <c r="S128" s="2"/>
       <c r="T128" s="2"/>
     </row>
-    <row r="129">
-      <c r="A129" s="1"/>
-      <c r="B129" s="1"/>
+    <row r="129" spans="1:20">
+      <c r="A129" s="3"/>
+      <c r="B129" s="3"/>
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
@@ -3588,9 +4273,9 @@
       <c r="S129" s="2"/>
       <c r="T129" s="2"/>
     </row>
-    <row r="130">
-      <c r="A130" s="1"/>
-      <c r="B130" s="1"/>
+    <row r="130" spans="1:20">
+      <c r="A130" s="3"/>
+      <c r="B130" s="3"/>
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
@@ -3610,9 +4295,9 @@
       <c r="S130" s="2"/>
       <c r="T130" s="2"/>
     </row>
-    <row r="131">
-      <c r="A131" s="1"/>
-      <c r="B131" s="1"/>
+    <row r="131" spans="1:20">
+      <c r="A131" s="3"/>
+      <c r="B131" s="3"/>
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
@@ -3632,9 +4317,9 @@
       <c r="S131" s="2"/>
       <c r="T131" s="2"/>
     </row>
-    <row r="132">
-      <c r="A132" s="1"/>
-      <c r="B132" s="1"/>
+    <row r="132" spans="1:20">
+      <c r="A132" s="3"/>
+      <c r="B132" s="3"/>
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
@@ -3654,9 +4339,9 @@
       <c r="S132" s="2"/>
       <c r="T132" s="2"/>
     </row>
-    <row r="133">
-      <c r="A133" s="1"/>
-      <c r="B133" s="1"/>
+    <row r="133" spans="1:20">
+      <c r="A133" s="3"/>
+      <c r="B133" s="3"/>
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
       <c r="E133" s="2"/>
@@ -3676,9 +4361,9 @@
       <c r="S133" s="2"/>
       <c r="T133" s="2"/>
     </row>
-    <row r="134">
-      <c r="A134" s="1"/>
-      <c r="B134" s="1"/>
+    <row r="134" spans="1:20">
+      <c r="A134" s="3"/>
+      <c r="B134" s="3"/>
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
@@ -3698,9 +4383,9 @@
       <c r="S134" s="2"/>
       <c r="T134" s="2"/>
     </row>
-    <row r="135">
-      <c r="A135" s="1"/>
-      <c r="B135" s="1"/>
+    <row r="135" spans="1:20">
+      <c r="A135" s="3"/>
+      <c r="B135" s="3"/>
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
@@ -3720,9 +4405,9 @@
       <c r="S135" s="2"/>
       <c r="T135" s="2"/>
     </row>
-    <row r="136">
-      <c r="A136" s="1"/>
-      <c r="B136" s="1"/>
+    <row r="136" spans="1:20">
+      <c r="A136" s="3"/>
+      <c r="B136" s="3"/>
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
       <c r="E136" s="2"/>
@@ -3742,9 +4427,9 @@
       <c r="S136" s="2"/>
       <c r="T136" s="2"/>
     </row>
-    <row r="137">
-      <c r="A137" s="1"/>
-      <c r="B137" s="1"/>
+    <row r="137" spans="1:20">
+      <c r="A137" s="3"/>
+      <c r="B137" s="3"/>
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
       <c r="E137" s="2"/>
@@ -3764,9 +4449,9 @@
       <c r="S137" s="2"/>
       <c r="T137" s="2"/>
     </row>
-    <row r="138">
-      <c r="A138" s="1"/>
-      <c r="B138" s="1"/>
+    <row r="138" spans="1:20">
+      <c r="A138" s="3"/>
+      <c r="B138" s="3"/>
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
       <c r="E138" s="2"/>
@@ -3786,9 +4471,9 @@
       <c r="S138" s="2"/>
       <c r="T138" s="2"/>
     </row>
-    <row r="139">
-      <c r="A139" s="1"/>
-      <c r="B139" s="1"/>
+    <row r="139" spans="1:20">
+      <c r="A139" s="3"/>
+      <c r="B139" s="3"/>
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
       <c r="E139" s="2"/>
@@ -3808,9 +4493,9 @@
       <c r="S139" s="2"/>
       <c r="T139" s="2"/>
     </row>
-    <row r="140">
-      <c r="A140" s="1"/>
-      <c r="B140" s="1"/>
+    <row r="140" spans="1:20">
+      <c r="A140" s="3"/>
+      <c r="B140" s="3"/>
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
       <c r="E140" s="2"/>
@@ -3830,9 +4515,9 @@
       <c r="S140" s="2"/>
       <c r="T140" s="2"/>
     </row>
-    <row r="141">
-      <c r="A141" s="1"/>
-      <c r="B141" s="1"/>
+    <row r="141" spans="1:20">
+      <c r="A141" s="3"/>
+      <c r="B141" s="3"/>
       <c r="C141" s="2"/>
       <c r="D141" s="2"/>
       <c r="E141" s="2"/>
@@ -3852,9 +4537,9 @@
       <c r="S141" s="2"/>
       <c r="T141" s="2"/>
     </row>
-    <row r="142">
-      <c r="A142" s="1"/>
-      <c r="B142" s="1"/>
+    <row r="142" spans="1:20">
+      <c r="A142" s="3"/>
+      <c r="B142" s="3"/>
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
       <c r="E142" s="2"/>
@@ -3874,9 +4559,9 @@
       <c r="S142" s="2"/>
       <c r="T142" s="2"/>
     </row>
-    <row r="143">
-      <c r="A143" s="1"/>
-      <c r="B143" s="1"/>
+    <row r="143" spans="1:20">
+      <c r="A143" s="3"/>
+      <c r="B143" s="3"/>
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
       <c r="E143" s="2"/>
@@ -3896,9 +4581,9 @@
       <c r="S143" s="2"/>
       <c r="T143" s="2"/>
     </row>
-    <row r="144">
-      <c r="A144" s="1"/>
-      <c r="B144" s="1"/>
+    <row r="144" spans="1:20">
+      <c r="A144" s="3"/>
+      <c r="B144" s="3"/>
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
       <c r="E144" s="2"/>
@@ -3918,9 +4603,9 @@
       <c r="S144" s="2"/>
       <c r="T144" s="2"/>
     </row>
-    <row r="145">
-      <c r="A145" s="1"/>
-      <c r="B145" s="1"/>
+    <row r="145" spans="1:20">
+      <c r="A145" s="3"/>
+      <c r="B145" s="3"/>
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
       <c r="E145" s="2"/>
@@ -3940,9 +4625,9 @@
       <c r="S145" s="2"/>
       <c r="T145" s="2"/>
     </row>
-    <row r="146">
-      <c r="A146" s="1"/>
-      <c r="B146" s="1"/>
+    <row r="146" spans="1:20">
+      <c r="A146" s="3"/>
+      <c r="B146" s="3"/>
       <c r="C146" s="2"/>
       <c r="D146" s="2"/>
       <c r="E146" s="2"/>
@@ -3962,9 +4647,9 @@
       <c r="S146" s="2"/>
       <c r="T146" s="2"/>
     </row>
-    <row r="147">
-      <c r="A147" s="1"/>
-      <c r="B147" s="1"/>
+    <row r="147" spans="1:20">
+      <c r="A147" s="3"/>
+      <c r="B147" s="3"/>
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
       <c r="E147" s="2"/>
@@ -3984,9 +4669,9 @@
       <c r="S147" s="2"/>
       <c r="T147" s="2"/>
     </row>
-    <row r="148">
-      <c r="A148" s="1"/>
-      <c r="B148" s="1"/>
+    <row r="148" spans="1:20">
+      <c r="A148" s="3"/>
+      <c r="B148" s="3"/>
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
       <c r="E148" s="2"/>
@@ -4006,9 +4691,9 @@
       <c r="S148" s="2"/>
       <c r="T148" s="2"/>
     </row>
-    <row r="149">
-      <c r="A149" s="1"/>
-      <c r="B149" s="1"/>
+    <row r="149" spans="1:20">
+      <c r="A149" s="3"/>
+      <c r="B149" s="3"/>
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
       <c r="E149" s="2"/>
@@ -4028,9 +4713,9 @@
       <c r="S149" s="2"/>
       <c r="T149" s="2"/>
     </row>
-    <row r="150">
-      <c r="A150" s="1"/>
-      <c r="B150" s="1"/>
+    <row r="150" spans="1:20">
+      <c r="A150" s="3"/>
+      <c r="B150" s="3"/>
       <c r="C150" s="2"/>
       <c r="D150" s="2"/>
       <c r="E150" s="2"/>
@@ -4050,9 +4735,9 @@
       <c r="S150" s="2"/>
       <c r="T150" s="2"/>
     </row>
-    <row r="151">
-      <c r="A151" s="1"/>
-      <c r="B151" s="1"/>
+    <row r="151" spans="1:20">
+      <c r="A151" s="3"/>
+      <c r="B151" s="3"/>
       <c r="C151" s="2"/>
       <c r="D151" s="2"/>
       <c r="E151" s="2"/>
@@ -4072,9 +4757,9 @@
       <c r="S151" s="2"/>
       <c r="T151" s="2"/>
     </row>
-    <row r="152">
-      <c r="A152" s="1"/>
-      <c r="B152" s="1"/>
+    <row r="152" spans="1:20">
+      <c r="A152" s="3"/>
+      <c r="B152" s="3"/>
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
       <c r="E152" s="2"/>
@@ -4094,9 +4779,9 @@
       <c r="S152" s="2"/>
       <c r="T152" s="2"/>
     </row>
-    <row r="153">
-      <c r="A153" s="1"/>
-      <c r="B153" s="1"/>
+    <row r="153" spans="1:20">
+      <c r="A153" s="3"/>
+      <c r="B153" s="3"/>
       <c r="C153" s="2"/>
       <c r="D153" s="2"/>
       <c r="E153" s="2"/>
@@ -4116,9 +4801,9 @@
       <c r="S153" s="2"/>
       <c r="T153" s="2"/>
     </row>
-    <row r="154">
-      <c r="A154" s="1"/>
-      <c r="B154" s="1"/>
+    <row r="154" spans="1:20">
+      <c r="A154" s="3"/>
+      <c r="B154" s="3"/>
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
       <c r="E154" s="2"/>
@@ -4138,9 +4823,9 @@
       <c r="S154" s="2"/>
       <c r="T154" s="2"/>
     </row>
-    <row r="155">
-      <c r="A155" s="1"/>
-      <c r="B155" s="1"/>
+    <row r="155" spans="1:20">
+      <c r="A155" s="3"/>
+      <c r="B155" s="3"/>
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
       <c r="E155" s="2"/>
@@ -4160,9 +4845,9 @@
       <c r="S155" s="2"/>
       <c r="T155" s="2"/>
     </row>
-    <row r="156">
-      <c r="A156" s="1"/>
-      <c r="B156" s="1"/>
+    <row r="156" spans="1:20">
+      <c r="A156" s="3"/>
+      <c r="B156" s="3"/>
       <c r="C156" s="2"/>
       <c r="D156" s="2"/>
       <c r="E156" s="2"/>
@@ -4182,9 +4867,9 @@
       <c r="S156" s="2"/>
       <c r="T156" s="2"/>
     </row>
-    <row r="157">
-      <c r="A157" s="1"/>
-      <c r="B157" s="1"/>
+    <row r="157" spans="1:20">
+      <c r="A157" s="3"/>
+      <c r="B157" s="3"/>
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
       <c r="E157" s="2"/>
@@ -4204,9 +4889,9 @@
       <c r="S157" s="2"/>
       <c r="T157" s="2"/>
     </row>
-    <row r="158">
-      <c r="A158" s="1"/>
-      <c r="B158" s="1"/>
+    <row r="158" spans="1:20">
+      <c r="A158" s="3"/>
+      <c r="B158" s="3"/>
       <c r="C158" s="2"/>
       <c r="D158" s="2"/>
       <c r="E158" s="2"/>
@@ -4226,9 +4911,9 @@
       <c r="S158" s="2"/>
       <c r="T158" s="2"/>
     </row>
-    <row r="159">
-      <c r="A159" s="1"/>
-      <c r="B159" s="1"/>
+    <row r="159" spans="1:20">
+      <c r="A159" s="3"/>
+      <c r="B159" s="3"/>
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
       <c r="E159" s="2"/>
@@ -4248,9 +4933,9 @@
       <c r="S159" s="2"/>
       <c r="T159" s="2"/>
     </row>
-    <row r="160">
-      <c r="A160" s="1"/>
-      <c r="B160" s="1"/>
+    <row r="160" spans="1:20">
+      <c r="A160" s="3"/>
+      <c r="B160" s="3"/>
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
       <c r="E160" s="2"/>
@@ -4270,9 +4955,9 @@
       <c r="S160" s="2"/>
       <c r="T160" s="2"/>
     </row>
-    <row r="161">
-      <c r="A161" s="1"/>
-      <c r="B161" s="1"/>
+    <row r="161" spans="1:20">
+      <c r="A161" s="3"/>
+      <c r="B161" s="3"/>
       <c r="C161" s="2"/>
       <c r="D161" s="2"/>
       <c r="E161" s="2"/>
@@ -4292,9 +4977,9 @@
       <c r="S161" s="2"/>
       <c r="T161" s="2"/>
     </row>
-    <row r="162">
-      <c r="A162" s="1"/>
-      <c r="B162" s="1"/>
+    <row r="162" spans="1:20">
+      <c r="A162" s="3"/>
+      <c r="B162" s="3"/>
       <c r="C162" s="2"/>
       <c r="D162" s="2"/>
       <c r="E162" s="2"/>
@@ -4314,9 +4999,9 @@
       <c r="S162" s="2"/>
       <c r="T162" s="2"/>
     </row>
-    <row r="163">
-      <c r="A163" s="1"/>
-      <c r="B163" s="1"/>
+    <row r="163" spans="1:20">
+      <c r="A163" s="3"/>
+      <c r="B163" s="3"/>
       <c r="C163" s="2"/>
       <c r="D163" s="2"/>
       <c r="E163" s="2"/>
@@ -4336,9 +5021,9 @@
       <c r="S163" s="2"/>
       <c r="T163" s="2"/>
     </row>
-    <row r="164">
-      <c r="A164" s="1"/>
-      <c r="B164" s="1"/>
+    <row r="164" spans="1:20">
+      <c r="A164" s="3"/>
+      <c r="B164" s="3"/>
       <c r="C164" s="2"/>
       <c r="D164" s="2"/>
       <c r="E164" s="2"/>
@@ -4358,9 +5043,9 @@
       <c r="S164" s="2"/>
       <c r="T164" s="2"/>
     </row>
-    <row r="165">
-      <c r="A165" s="1"/>
-      <c r="B165" s="1"/>
+    <row r="165" spans="1:20">
+      <c r="A165" s="3"/>
+      <c r="B165" s="3"/>
       <c r="C165" s="2"/>
       <c r="D165" s="2"/>
       <c r="E165" s="2"/>
@@ -4380,9 +5065,9 @@
       <c r="S165" s="2"/>
       <c r="T165" s="2"/>
     </row>
-    <row r="166">
-      <c r="A166" s="1"/>
-      <c r="B166" s="1"/>
+    <row r="166" spans="1:20">
+      <c r="A166" s="3"/>
+      <c r="B166" s="3"/>
       <c r="C166" s="2"/>
       <c r="D166" s="2"/>
       <c r="E166" s="2"/>
@@ -4402,9 +5087,9 @@
       <c r="S166" s="2"/>
       <c r="T166" s="2"/>
     </row>
-    <row r="167">
-      <c r="A167" s="1"/>
-      <c r="B167" s="1"/>
+    <row r="167" spans="1:20">
+      <c r="A167" s="3"/>
+      <c r="B167" s="3"/>
       <c r="C167" s="2"/>
       <c r="D167" s="2"/>
       <c r="E167" s="2"/>
@@ -4424,9 +5109,9 @@
       <c r="S167" s="2"/>
       <c r="T167" s="2"/>
     </row>
-    <row r="168">
-      <c r="A168" s="1"/>
-      <c r="B168" s="1"/>
+    <row r="168" spans="1:20">
+      <c r="A168" s="3"/>
+      <c r="B168" s="3"/>
       <c r="C168" s="2"/>
       <c r="D168" s="2"/>
       <c r="E168" s="2"/>
@@ -4446,9 +5131,9 @@
       <c r="S168" s="2"/>
       <c r="T168" s="2"/>
     </row>
-    <row r="169">
-      <c r="A169" s="1"/>
-      <c r="B169" s="1"/>
+    <row r="169" spans="1:20">
+      <c r="A169" s="3"/>
+      <c r="B169" s="3"/>
       <c r="C169" s="2"/>
       <c r="D169" s="2"/>
       <c r="E169" s="2"/>
@@ -4468,9 +5153,9 @@
       <c r="S169" s="2"/>
       <c r="T169" s="2"/>
     </row>
-    <row r="170">
-      <c r="A170" s="1"/>
-      <c r="B170" s="1"/>
+    <row r="170" spans="1:20">
+      <c r="A170" s="3"/>
+      <c r="B170" s="3"/>
       <c r="C170" s="2"/>
       <c r="D170" s="2"/>
       <c r="E170" s="2"/>
@@ -4490,9 +5175,9 @@
       <c r="S170" s="2"/>
       <c r="T170" s="2"/>
     </row>
-    <row r="171">
-      <c r="A171" s="1"/>
-      <c r="B171" s="1"/>
+    <row r="171" spans="1:20">
+      <c r="A171" s="3"/>
+      <c r="B171" s="3"/>
       <c r="C171" s="2"/>
       <c r="D171" s="2"/>
       <c r="E171" s="2"/>
@@ -4512,9 +5197,9 @@
       <c r="S171" s="2"/>
       <c r="T171" s="2"/>
     </row>
-    <row r="172">
-      <c r="A172" s="1"/>
-      <c r="B172" s="1"/>
+    <row r="172" spans="1:20">
+      <c r="A172" s="3"/>
+      <c r="B172" s="3"/>
       <c r="C172" s="2"/>
       <c r="D172" s="2"/>
       <c r="E172" s="2"/>
@@ -4534,9 +5219,9 @@
       <c r="S172" s="2"/>
       <c r="T172" s="2"/>
     </row>
-    <row r="173">
-      <c r="A173" s="1"/>
-      <c r="B173" s="1"/>
+    <row r="173" spans="1:20">
+      <c r="A173" s="3"/>
+      <c r="B173" s="3"/>
       <c r="C173" s="2"/>
       <c r="D173" s="2"/>
       <c r="E173" s="2"/>
@@ -4556,9 +5241,9 @@
       <c r="S173" s="2"/>
       <c r="T173" s="2"/>
     </row>
-    <row r="174">
-      <c r="A174" s="1"/>
-      <c r="B174" s="1"/>
+    <row r="174" spans="1:20">
+      <c r="A174" s="3"/>
+      <c r="B174" s="3"/>
       <c r="C174" s="2"/>
       <c r="D174" s="2"/>
       <c r="E174" s="2"/>
@@ -4578,9 +5263,9 @@
       <c r="S174" s="2"/>
       <c r="T174" s="2"/>
     </row>
-    <row r="175">
-      <c r="A175" s="1"/>
-      <c r="B175" s="1"/>
+    <row r="175" spans="1:20">
+      <c r="A175" s="3"/>
+      <c r="B175" s="3"/>
       <c r="C175" s="2"/>
       <c r="D175" s="2"/>
       <c r="E175" s="2"/>
@@ -4600,9 +5285,9 @@
       <c r="S175" s="2"/>
       <c r="T175" s="2"/>
     </row>
-    <row r="176">
-      <c r="A176" s="1"/>
-      <c r="B176" s="1"/>
+    <row r="176" spans="1:20">
+      <c r="A176" s="3"/>
+      <c r="B176" s="3"/>
       <c r="C176" s="2"/>
       <c r="D176" s="2"/>
       <c r="E176" s="2"/>
@@ -4622,9 +5307,9 @@
       <c r="S176" s="2"/>
       <c r="T176" s="2"/>
     </row>
-    <row r="177">
-      <c r="A177" s="1"/>
-      <c r="B177" s="1"/>
+    <row r="177" spans="1:20">
+      <c r="A177" s="3"/>
+      <c r="B177" s="3"/>
       <c r="C177" s="2"/>
       <c r="D177" s="2"/>
       <c r="E177" s="2"/>
@@ -4644,9 +5329,9 @@
       <c r="S177" s="2"/>
       <c r="T177" s="2"/>
     </row>
-    <row r="178">
-      <c r="A178" s="1"/>
-      <c r="B178" s="1"/>
+    <row r="178" spans="1:20">
+      <c r="A178" s="3"/>
+      <c r="B178" s="3"/>
       <c r="C178" s="2"/>
       <c r="D178" s="2"/>
       <c r="E178" s="2"/>
@@ -4666,9 +5351,9 @@
       <c r="S178" s="2"/>
       <c r="T178" s="2"/>
     </row>
-    <row r="179">
-      <c r="A179" s="1"/>
-      <c r="B179" s="1"/>
+    <row r="179" spans="1:20">
+      <c r="A179" s="3"/>
+      <c r="B179" s="3"/>
       <c r="C179" s="2"/>
       <c r="D179" s="2"/>
       <c r="E179" s="2"/>
@@ -4688,9 +5373,9 @@
       <c r="S179" s="2"/>
       <c r="T179" s="2"/>
     </row>
-    <row r="180">
-      <c r="A180" s="1"/>
-      <c r="B180" s="1"/>
+    <row r="180" spans="1:20">
+      <c r="A180" s="3"/>
+      <c r="B180" s="3"/>
       <c r="C180" s="2"/>
       <c r="D180" s="2"/>
       <c r="E180" s="2"/>
@@ -4710,9 +5395,9 @@
       <c r="S180" s="2"/>
       <c r="T180" s="2"/>
     </row>
-    <row r="181">
-      <c r="A181" s="1"/>
-      <c r="B181" s="1"/>
+    <row r="181" spans="1:20">
+      <c r="A181" s="3"/>
+      <c r="B181" s="3"/>
       <c r="C181" s="2"/>
       <c r="D181" s="2"/>
       <c r="E181" s="2"/>
@@ -4732,9 +5417,9 @@
       <c r="S181" s="2"/>
       <c r="T181" s="2"/>
     </row>
-    <row r="182">
-      <c r="A182" s="1"/>
-      <c r="B182" s="1"/>
+    <row r="182" spans="1:20">
+      <c r="A182" s="3"/>
+      <c r="B182" s="3"/>
       <c r="C182" s="2"/>
       <c r="D182" s="2"/>
       <c r="E182" s="2"/>
@@ -4754,9 +5439,9 @@
       <c r="S182" s="2"/>
       <c r="T182" s="2"/>
     </row>
-    <row r="183">
-      <c r="A183" s="1"/>
-      <c r="B183" s="1"/>
+    <row r="183" spans="1:20">
+      <c r="A183" s="3"/>
+      <c r="B183" s="3"/>
       <c r="C183" s="2"/>
       <c r="D183" s="2"/>
       <c r="E183" s="2"/>
@@ -4776,9 +5461,9 @@
       <c r="S183" s="2"/>
       <c r="T183" s="2"/>
     </row>
-    <row r="184">
-      <c r="A184" s="1"/>
-      <c r="B184" s="1"/>
+    <row r="184" spans="1:20">
+      <c r="A184" s="3"/>
+      <c r="B184" s="3"/>
       <c r="C184" s="2"/>
       <c r="D184" s="2"/>
       <c r="E184" s="2"/>
@@ -4798,9 +5483,9 @@
       <c r="S184" s="2"/>
       <c r="T184" s="2"/>
     </row>
-    <row r="185">
-      <c r="A185" s="1"/>
-      <c r="B185" s="1"/>
+    <row r="185" spans="1:20">
+      <c r="A185" s="3"/>
+      <c r="B185" s="3"/>
       <c r="C185" s="2"/>
       <c r="D185" s="2"/>
       <c r="E185" s="2"/>
@@ -4820,9 +5505,9 @@
       <c r="S185" s="2"/>
       <c r="T185" s="2"/>
     </row>
-    <row r="186">
-      <c r="A186" s="1"/>
-      <c r="B186" s="1"/>
+    <row r="186" spans="1:20">
+      <c r="A186" s="3"/>
+      <c r="B186" s="3"/>
       <c r="C186" s="2"/>
       <c r="D186" s="2"/>
       <c r="E186" s="2"/>
@@ -4842,9 +5527,9 @@
       <c r="S186" s="2"/>
       <c r="T186" s="2"/>
     </row>
-    <row r="187">
-      <c r="A187" s="1"/>
-      <c r="B187" s="1"/>
+    <row r="187" spans="1:20">
+      <c r="A187" s="3"/>
+      <c r="B187" s="3"/>
       <c r="C187" s="2"/>
       <c r="D187" s="2"/>
       <c r="E187" s="2"/>
@@ -4864,9 +5549,9 @@
       <c r="S187" s="2"/>
       <c r="T187" s="2"/>
     </row>
-    <row r="188">
-      <c r="A188" s="1"/>
-      <c r="B188" s="1"/>
+    <row r="188" spans="1:20">
+      <c r="A188" s="3"/>
+      <c r="B188" s="3"/>
       <c r="C188" s="2"/>
       <c r="D188" s="2"/>
       <c r="E188" s="2"/>
@@ -4886,9 +5571,9 @@
       <c r="S188" s="2"/>
       <c r="T188" s="2"/>
     </row>
-    <row r="189">
-      <c r="A189" s="1"/>
-      <c r="B189" s="1"/>
+    <row r="189" spans="1:20">
+      <c r="A189" s="3"/>
+      <c r="B189" s="3"/>
       <c r="C189" s="2"/>
       <c r="D189" s="2"/>
       <c r="E189" s="2"/>
@@ -4908,9 +5593,9 @@
       <c r="S189" s="2"/>
       <c r="T189" s="2"/>
     </row>
-    <row r="190">
-      <c r="A190" s="1"/>
-      <c r="B190" s="1"/>
+    <row r="190" spans="1:20">
+      <c r="A190" s="3"/>
+      <c r="B190" s="3"/>
       <c r="C190" s="2"/>
       <c r="D190" s="2"/>
       <c r="E190" s="2"/>
@@ -4930,9 +5615,9 @@
       <c r="S190" s="2"/>
       <c r="T190" s="2"/>
     </row>
-    <row r="191">
-      <c r="A191" s="1"/>
-      <c r="B191" s="1"/>
+    <row r="191" spans="1:20">
+      <c r="A191" s="3"/>
+      <c r="B191" s="3"/>
       <c r="C191" s="2"/>
       <c r="D191" s="2"/>
       <c r="E191" s="2"/>
@@ -4952,9 +5637,9 @@
       <c r="S191" s="2"/>
       <c r="T191" s="2"/>
     </row>
-    <row r="192">
-      <c r="A192" s="1"/>
-      <c r="B192" s="1"/>
+    <row r="192" spans="1:20">
+      <c r="A192" s="3"/>
+      <c r="B192" s="3"/>
       <c r="C192" s="2"/>
       <c r="D192" s="2"/>
       <c r="E192" s="2"/>
@@ -4974,9 +5659,9 @@
       <c r="S192" s="2"/>
       <c r="T192" s="2"/>
     </row>
-    <row r="193">
-      <c r="A193" s="1"/>
-      <c r="B193" s="1"/>
+    <row r="193" spans="1:20">
+      <c r="A193" s="3"/>
+      <c r="B193" s="3"/>
       <c r="C193" s="2"/>
       <c r="D193" s="2"/>
       <c r="E193" s="2"/>
@@ -4996,9 +5681,9 @@
       <c r="S193" s="2"/>
       <c r="T193" s="2"/>
     </row>
-    <row r="194">
-      <c r="A194" s="1"/>
-      <c r="B194" s="1"/>
+    <row r="194" spans="1:20">
+      <c r="A194" s="3"/>
+      <c r="B194" s="3"/>
       <c r="C194" s="2"/>
       <c r="D194" s="2"/>
       <c r="E194" s="2"/>
@@ -5018,9 +5703,9 @@
       <c r="S194" s="2"/>
       <c r="T194" s="2"/>
     </row>
-    <row r="195">
-      <c r="A195" s="1"/>
-      <c r="B195" s="1"/>
+    <row r="195" spans="1:20">
+      <c r="A195" s="3"/>
+      <c r="B195" s="3"/>
       <c r="C195" s="2"/>
       <c r="D195" s="2"/>
       <c r="E195" s="2"/>
@@ -5040,9 +5725,9 @@
       <c r="S195" s="2"/>
       <c r="T195" s="2"/>
     </row>
-    <row r="196">
-      <c r="A196" s="1"/>
-      <c r="B196" s="1"/>
+    <row r="196" spans="1:20">
+      <c r="A196" s="3"/>
+      <c r="B196" s="3"/>
       <c r="C196" s="2"/>
       <c r="D196" s="2"/>
       <c r="E196" s="2"/>
@@ -5062,9 +5747,9 @@
       <c r="S196" s="2"/>
       <c r="T196" s="2"/>
     </row>
-    <row r="197">
-      <c r="A197" s="1"/>
-      <c r="B197" s="1"/>
+    <row r="197" spans="1:20">
+      <c r="A197" s="3"/>
+      <c r="B197" s="3"/>
       <c r="C197" s="2"/>
       <c r="D197" s="2"/>
       <c r="E197" s="2"/>
@@ -5084,9 +5769,9 @@
       <c r="S197" s="2"/>
       <c r="T197" s="2"/>
     </row>
-    <row r="198">
-      <c r="A198" s="1"/>
-      <c r="B198" s="1"/>
+    <row r="198" spans="1:20">
+      <c r="A198" s="3"/>
+      <c r="B198" s="3"/>
       <c r="C198" s="2"/>
       <c r="D198" s="2"/>
       <c r="E198" s="2"/>
@@ -5106,9 +5791,9 @@
       <c r="S198" s="2"/>
       <c r="T198" s="2"/>
     </row>
-    <row r="199">
-      <c r="A199" s="1"/>
-      <c r="B199" s="1"/>
+    <row r="199" spans="1:20">
+      <c r="A199" s="3"/>
+      <c r="B199" s="3"/>
       <c r="C199" s="2"/>
       <c r="D199" s="2"/>
       <c r="E199" s="2"/>
@@ -5128,9 +5813,9 @@
       <c r="S199" s="2"/>
       <c r="T199" s="2"/>
     </row>
-    <row r="200">
-      <c r="A200" s="1"/>
-      <c r="B200" s="1"/>
+    <row r="200" spans="1:20">
+      <c r="A200" s="3"/>
+      <c r="B200" s="3"/>
       <c r="C200" s="2"/>
       <c r="D200" s="2"/>
       <c r="E200" s="2"/>
@@ -5151,6 +5836,7 @@
       <c r="T200" s="2"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/许愿墙.xlsx
+++ b/许愿墙.xlsx
@@ -111,13 +111,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF1F2329"/>
       </left>
@@ -130,6 +123,13 @@
       <bottom style="thin">
         <color rgb="FF1F2329"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -176,16 +176,16 @@
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="5" fillId="0" fontId="1" numFmtId="164" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="6" fillId="2" fontId="1" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="6" fillId="0" fontId="1" numFmtId="164" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -518,10 +518,10 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="6" t="str">
+      <c r="A1" s="3" t="str">
         <v>你想找什么样的工作？</v>
       </c>
-      <c r="B1" s="6" t="str">
+      <c r="B1" s="3" t="str">
         <v>现在的状态是怎样的？</v>
       </c>
       <c r="C1" s="1"/>
@@ -882,7 +882,7 @@
       <c r="T14" s="1"/>
     </row>
     <row r="15">
-      <c r="A15" s="4" t="str">
+      <c r="A15" s="5" t="str">
         <v>Java</v>
       </c>
       <c r="B15" s="2" t="str">
@@ -1507,30 +1507,30 @@
       <c r="T38" s="1"/>
     </row>
     <row r="39">
-      <c r="A39" s="4" t="str">
+      <c r="A39" s="5" t="str">
         <v>AI+后端工程师</v>
       </c>
       <c r="B39" s="2" t="str">
         <v>在找</v>
       </c>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
-      <c r="N39" s="3"/>
-      <c r="O39" s="3"/>
-      <c r="P39" s="3"/>
-      <c r="Q39" s="3"/>
-      <c r="R39" s="3"/>
-      <c r="S39" s="3"/>
-      <c r="T39" s="3"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+      <c r="O39" s="4"/>
+      <c r="P39" s="4"/>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="4"/>
+      <c r="S39" s="4"/>
+      <c r="T39" s="4"/>
     </row>
     <row r="40">
       <c r="A40" s="2" t="str">
@@ -1715,7 +1715,7 @@
       <c r="T46" s="1"/>
     </row>
     <row r="47">
-      <c r="A47" s="5" t="str">
+      <c r="A47" s="6" t="str">
         <v>运维开发</v>
       </c>
       <c r="B47" s="2" t="str">
@@ -2132,8 +2132,12 @@
       <c r="T62" s="1"/>
     </row>
     <row r="63">
-      <c r="A63" s="2"/>
-      <c r="B63" s="2"/>
+      <c r="A63" s="2" t="str">
+        <v>大厂的产品岗_26届秋招</v>
+      </c>
+      <c r="B63" s="2" t="str">
+        <v>应届生正在进行中</v>
+      </c>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
@@ -2154,8 +2158,12 @@
       <c r="T63" s="1"/>
     </row>
     <row r="64">
-      <c r="A64" s="2"/>
-      <c r="B64" s="2"/>
+      <c r="A64" s="2" t="str">
+        <v>双休、Java</v>
+      </c>
+      <c r="B64" s="2" t="str">
+        <v>25应届摆烂仔正在行动</v>
+      </c>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
@@ -2176,8 +2184,12 @@
       <c r="T64" s="1"/>
     </row>
     <row r="65">
-      <c r="A65" s="2"/>
-      <c r="B65" s="2"/>
+      <c r="A65" s="2" t="str" xml:space="preserve">
+        <v>AI + JAVA </v>
+      </c>
+      <c r="B65" s="2" t="str">
+        <v>在找</v>
+      </c>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
@@ -2198,8 +2210,12 @@
       <c r="T65" s="1"/>
     </row>
     <row r="66">
-      <c r="A66" s="2"/>
-      <c r="B66" s="2"/>
+      <c r="A66" s="2" t="str">
+        <v>嵌入式Ai</v>
+      </c>
+      <c r="B66" s="2" t="str">
+        <v>在找</v>
+      </c>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
@@ -2220,8 +2236,12 @@
       <c r="T66" s="1"/>
     </row>
     <row r="67">
-      <c r="A67" s="2"/>
-      <c r="B67" s="2"/>
+      <c r="A67" s="2" t="str">
+        <v>全栈架构师 研发经理</v>
+      </c>
+      <c r="B67" s="2" t="str">
+        <v>被裁再找,改好了简历</v>
+      </c>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
@@ -2242,8 +2262,12 @@
       <c r="T67" s="1"/>
     </row>
     <row r="68">
-      <c r="A68" s="2"/>
-      <c r="B68" s="2"/>
+      <c r="A68" s="2" t="str">
+        <v>AI产品</v>
+      </c>
+      <c r="B68" s="2" t="str">
+        <v>在找</v>
+      </c>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
@@ -2264,8 +2288,12 @@
       <c r="T68" s="1"/>
     </row>
     <row r="69">
-      <c r="A69" s="2"/>
-      <c r="B69" s="2"/>
+      <c r="A69" s="2" t="str">
+        <v>AI应用开发</v>
+      </c>
+      <c r="B69" s="2" t="str">
+        <v>在找</v>
+      </c>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
@@ -2286,8 +2314,12 @@
       <c r="T69" s="1"/>
     </row>
     <row r="70">
-      <c r="A70" s="2"/>
-      <c r="B70" s="2"/>
+      <c r="A70" s="2" t="str">
+        <v>网络安全</v>
+      </c>
+      <c r="B70" s="2" t="str">
+        <v>在找</v>
+      </c>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
@@ -2308,8 +2340,12 @@
       <c r="T70" s="1"/>
     </row>
     <row r="71">
-      <c r="A71" s="2"/>
-      <c r="B71" s="2"/>
+      <c r="A71" s="2" t="str">
+        <v>java开发</v>
+      </c>
+      <c r="B71" s="2" t="str">
+        <v>在找</v>
+      </c>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
@@ -2330,8 +2366,12 @@
       <c r="T71" s="1"/>
     </row>
     <row r="72">
-      <c r="A72" s="2"/>
-      <c r="B72" s="2"/>
+      <c r="A72" s="2" t="str">
+        <v>嵌入式/硬件测试</v>
+      </c>
+      <c r="B72" s="2" t="str">
+        <v>25届毕业生在狂卷</v>
+      </c>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
@@ -2352,8 +2392,12 @@
       <c r="T72" s="1"/>
     </row>
     <row r="73">
-      <c r="A73" s="2"/>
-      <c r="B73" s="2"/>
+      <c r="A73" s="2" t="str">
+        <v>Java 中厂</v>
+      </c>
+      <c r="B73" s="2" t="str">
+        <v>刚找到实习，现在边实习边秋招</v>
+      </c>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>

--- a/许愿墙.xlsx
+++ b/许愿墙.xlsx
@@ -1,86 +1,288 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dannike/Desktop/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F99DB62-C54B-5247-A80D-A1B4F1C822C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="15800" windowWidth="28040" xWindow="4240" yWindow="640"/>
+    <workbookView xWindow="2200" yWindow="760" windowWidth="28040" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcMode="auto"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t xml:space="preserve">  </t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="64">
+  <si>
+    <t>你想找什么样的工作？</t>
+  </si>
+  <si>
+    <t>现在的状态是怎样的？</t>
+  </si>
+  <si>
+    <t>AI攻城狮</t>
+  </si>
+  <si>
+    <t>已找到！</t>
+  </si>
+  <si>
+    <t>Java+AI</t>
+  </si>
+  <si>
+    <t>在找</t>
+  </si>
+  <si>
+    <t>AI agent开发</t>
+  </si>
+  <si>
+    <t>Java实习</t>
+  </si>
+  <si>
+    <t>还没开始找</t>
+  </si>
+  <si>
+    <t>系统架构师</t>
+  </si>
+  <si>
+    <t>Go</t>
+  </si>
+  <si>
+    <t>前端攻城狮</t>
+  </si>
+  <si>
+    <t>AI+游戏开发</t>
+  </si>
+  <si>
+    <t>C++实习</t>
+  </si>
+  <si>
+    <t>后端开发</t>
+  </si>
+  <si>
+    <t>正确的路上</t>
+  </si>
+  <si>
+    <t>Java后端开发</t>
+  </si>
+  <si>
+    <t>在找实习的路上</t>
+  </si>
+  <si>
+    <t>Java</t>
+  </si>
+  <si>
+    <t>找到了，但是通勤太远想跳槽</t>
+  </si>
+  <si>
+    <t>Frontend leader</t>
+  </si>
+  <si>
+    <t>找到了，但是没有work life balance</t>
+  </si>
+  <si>
+    <t>找到了，不满意</t>
+  </si>
+  <si>
+    <t>Java开发</t>
+  </si>
+  <si>
+    <t>再找</t>
+  </si>
+  <si>
+    <t>前端工程师</t>
+  </si>
+  <si>
+    <t>java开发</t>
+  </si>
+  <si>
+    <t>AI+前端工程师</t>
+  </si>
+  <si>
+    <t>C++开发</t>
+  </si>
+  <si>
+    <t>Go后端开发</t>
+  </si>
+  <si>
+    <t>AI+后端工程师</t>
+  </si>
+  <si>
+    <t>linux运维</t>
+  </si>
+  <si>
+    <t>AI+嵌入式</t>
+  </si>
+  <si>
+    <t>财务主管</t>
+  </si>
+  <si>
+    <t>在学习的路上</t>
+  </si>
+  <si>
+    <t>去年7月用这个项目找到了第一份工作，现在再次回来，希望跳槽找一份AI售前的工作</t>
+  </si>
+  <si>
+    <t>准备跳槽</t>
+  </si>
+  <si>
+    <t>Java开发，有完善的晋升制度</t>
+  </si>
+  <si>
+    <t>前端开发</t>
+  </si>
+  <si>
+    <t>找到了，兄弟们加油。对于前端这块简历一定要吹牛逼写好，
+面试前真的要背好八股和场景，或者找不想去的公司练练手，准备好了之后再冲刺</t>
+  </si>
+  <si>
+    <t>正在找</t>
+  </si>
+  <si>
+    <t>C#开发</t>
+  </si>
+  <si>
+    <t>dotnet开发，base 成都</t>
+  </si>
+  <si>
+    <t>JAVA开发，base太原</t>
+  </si>
+  <si>
+    <t>前端开发，base上海</t>
+  </si>
+  <si>
+    <t>测试开发</t>
+  </si>
+  <si>
+    <t>运维开发</t>
+  </si>
+  <si>
+    <t>找到了，要去当牛马了，后续准备做独立开发</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 渗透测试工程师</t>
+  </si>
+  <si>
+    <t>应届在找</t>
+  </si>
+  <si>
+    <t>IT审计/数据分析/财务BP</t>
+  </si>
+  <si>
+    <t>AI应用开发</t>
+  </si>
+  <si>
+    <t>设计师</t>
+  </si>
+  <si>
+    <t>Java开发/海外仓销售</t>
+  </si>
+  <si>
+    <t>ai产品</t>
+  </si>
+  <si>
+    <t>数据开发+ai</t>
+  </si>
+  <si>
+    <t>失业了在找</t>
+  </si>
+  <si>
+    <t>AI+JAVA</t>
+  </si>
+  <si>
+    <t>大专，前端工程师，空窗创业，gap一年半😁，找了内推看看机会
+保持学习，看下金九银十有没机会了</t>
+  </si>
+  <si>
+    <t>AI产品</t>
+  </si>
+  <si>
+    <t>Java秋招</t>
+  </si>
+  <si>
+    <t>目前实习，在改简历背八股准备秋招！！！</t>
+  </si>
+  <si>
+    <t>AIGC相关后端或全栈/量化交易员</t>
+  </si>
+  <si>
+    <t>在找，之前上过大厂班，不适应，后续我想做独立开发</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9.75"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9.75"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none">
-        <fgColor/>
-        <bgColor/>
-      </patternFill>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor/>
-        <bgColor/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF34C724"/>
-        <bgColor/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -162,38 +364,59 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFDEE0E3"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFDEE0E3"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFDEE0E3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFDEE0E3"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="5" fillId="0" fontId="1" numFmtId="164" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="6" fillId="2" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -206,7 +429,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -501,28 +724,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
-    <outlinePr summaryBelow="false" summaryRight="false"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:T200"/>
   <sheetViews>
-    <sheetView showGridLines="true" tabSelected="true" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63:B63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="13"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="74"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="54"/>
+    <col min="1" max="1" width="74" customWidth="1"/>
+    <col min="2" max="2" width="54" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="6" t="str">
-        <v>你想找什么样的工作？</v>
-      </c>
-      <c r="B1" s="6" t="str">
-        <v>现在的状态是怎样的？</v>
+    <row r="1" spans="1:20">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -543,12 +766,12 @@
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
     </row>
-    <row r="2">
-      <c r="A2" s="2" t="str">
-        <v>AI攻城狮</v>
-      </c>
-      <c r="B2" s="2" t="str">
-        <v>已找到！</v>
+    <row r="2" spans="1:20">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -569,12 +792,12 @@
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
     </row>
-    <row r="3">
-      <c r="A3" s="2" t="str">
-        <v>Java+AI</v>
-      </c>
-      <c r="B3" s="2" t="str">
-        <v>在找</v>
+    <row r="3" spans="1:20">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -595,12 +818,12 @@
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
     </row>
-    <row r="4">
-      <c r="A4" s="2" t="str">
-        <v>AI agent开发</v>
-      </c>
-      <c r="B4" s="2" t="str">
-        <v>在找</v>
+    <row r="4" spans="1:20">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -621,12 +844,12 @@
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
     </row>
-    <row r="5">
-      <c r="A5" s="2" t="str">
-        <v>Java实习</v>
-      </c>
-      <c r="B5" s="2" t="str">
-        <v>还没开始找</v>
+    <row r="5" spans="1:20">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -647,12 +870,12 @@
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
     </row>
-    <row r="6">
-      <c r="A6" s="2" t="str">
-        <v>系统架构师</v>
-      </c>
-      <c r="B6" s="2" t="str">
-        <v>在找</v>
+    <row r="6" spans="1:20">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -673,12 +896,12 @@
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
     </row>
-    <row r="7">
-      <c r="A7" s="2" t="str">
-        <v>Go</v>
-      </c>
-      <c r="B7" s="2" t="str">
-        <v>在找</v>
+    <row r="7" spans="1:20">
+      <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -699,12 +922,12 @@
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
     </row>
-    <row r="8">
-      <c r="A8" s="2" t="str">
-        <v>前端攻城狮</v>
-      </c>
-      <c r="B8" s="2" t="str">
-        <v>在找</v>
+    <row r="8" spans="1:20">
+      <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -725,12 +948,12 @@
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
     </row>
-    <row r="9">
-      <c r="A9" s="2" t="str">
-        <v>AI+游戏开发</v>
-      </c>
-      <c r="B9" s="2" t="str">
-        <v>在找</v>
+    <row r="9" spans="1:20">
+      <c r="A9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -751,12 +974,12 @@
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
     </row>
-    <row r="10">
-      <c r="A10" s="2" t="str">
-        <v>C++实习</v>
-      </c>
-      <c r="B10" s="2" t="str">
-        <v>在找</v>
+    <row r="10" spans="1:20">
+      <c r="A10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -777,12 +1000,12 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
     </row>
-    <row r="11">
-      <c r="A11" s="2" t="str">
-        <v>后端开发</v>
-      </c>
-      <c r="B11" s="2" t="str">
-        <v>正确的路上</v>
+    <row r="11" spans="1:20">
+      <c r="A11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -803,12 +1026,12 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row r="12">
-      <c r="A12" s="2" t="str">
-        <v>Java后端开发</v>
-      </c>
-      <c r="B12" s="2" t="str">
-        <v>在找实习的路上</v>
+    <row r="12" spans="1:20">
+      <c r="A12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -829,12 +1052,12 @@
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
     </row>
-    <row r="13">
-      <c r="A13" s="2" t="str">
-        <v>Java</v>
-      </c>
-      <c r="B13" s="2" t="str">
-        <v>找到了，但是通勤太远想跳槽</v>
+    <row r="13" spans="1:20">
+      <c r="A13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -855,12 +1078,12 @@
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
     </row>
-    <row r="14">
-      <c r="A14" s="2" t="str">
-        <v>Frontend leader</v>
-      </c>
-      <c r="B14" s="2" t="str">
-        <v>找到了，但是没有work life balance</v>
+    <row r="14" spans="1:20">
+      <c r="A14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -881,12 +1104,12 @@
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
     </row>
-    <row r="15">
-      <c r="A15" s="4" t="str">
-        <v>Java</v>
-      </c>
-      <c r="B15" s="2" t="str">
-        <v>找到了，不满意</v>
+    <row r="15" spans="1:20">
+      <c r="A15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -907,12 +1130,12 @@
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
     </row>
-    <row r="16">
-      <c r="A16" s="2" t="str">
-        <v>Java开发</v>
-      </c>
-      <c r="B16" s="2" t="str">
-        <v>再找</v>
+    <row r="16" spans="1:20">
+      <c r="A16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -933,12 +1156,12 @@
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
     </row>
-    <row r="17">
-      <c r="A17" s="2" t="str">
-        <v>前端工程师</v>
-      </c>
-      <c r="B17" s="2" t="str">
-        <v>在找</v>
+    <row r="17" spans="1:20">
+      <c r="A17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -959,12 +1182,12 @@
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
     </row>
-    <row r="18">
-      <c r="A18" s="2" t="str">
-        <v>java开发</v>
-      </c>
-      <c r="B18" s="2" t="str">
-        <v>在找</v>
+    <row r="18" spans="1:20">
+      <c r="A18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -985,12 +1208,12 @@
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
     </row>
-    <row r="19">
-      <c r="A19" s="2" t="str">
-        <v>AI+前端工程师</v>
-      </c>
-      <c r="B19" s="2" t="str">
-        <v>还没开始找</v>
+    <row r="19" spans="1:20">
+      <c r="A19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -1011,12 +1234,12 @@
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
     </row>
-    <row r="20">
-      <c r="A20" s="2" t="str">
-        <v>C++开发</v>
-      </c>
-      <c r="B20" s="2" t="str">
-        <v>在找</v>
+    <row r="20" spans="1:20">
+      <c r="A20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -1037,12 +1260,12 @@
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
     </row>
-    <row r="21">
-      <c r="A21" s="2" t="str">
-        <v>Go</v>
-      </c>
-      <c r="B21" s="2" t="str">
-        <v>在找</v>
+    <row r="21" spans="1:20">
+      <c r="A21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -1063,12 +1286,12 @@
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
     </row>
-    <row r="22">
-      <c r="A22" s="2" t="str">
-        <v>Go后端开发</v>
-      </c>
-      <c r="B22" s="2" t="str">
-        <v>在找</v>
+    <row r="22" spans="1:20">
+      <c r="A22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1089,12 +1312,12 @@
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
     </row>
-    <row r="23">
-      <c r="A23" s="2" t="str">
-        <v>AI+后端工程师</v>
-      </c>
-      <c r="B23" s="2" t="str">
-        <v>还没开始找</v>
+    <row r="23" spans="1:20">
+      <c r="A23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1115,12 +1338,12 @@
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
     </row>
-    <row r="24">
-      <c r="A24" s="2" t="str">
-        <v>linux运维</v>
-      </c>
-      <c r="B24" s="2" t="str">
-        <v>在找</v>
+    <row r="24" spans="1:20">
+      <c r="A24" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1141,12 +1364,12 @@
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
     </row>
-    <row r="25">
-      <c r="A25" s="2" t="str">
-        <v>前端工程师</v>
-      </c>
-      <c r="B25" s="2" t="str">
-        <v>在找</v>
+    <row r="25" spans="1:20">
+      <c r="A25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1167,12 +1390,12 @@
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
     </row>
-    <row r="26">
-      <c r="A26" s="2" t="str">
-        <v>前端工程师</v>
-      </c>
-      <c r="B26" s="2" t="str">
-        <v>还没开始找</v>
+    <row r="26" spans="1:20">
+      <c r="A26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1193,12 +1416,12 @@
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
     </row>
-    <row r="27">
-      <c r="A27" s="2" t="str">
-        <v>java开发</v>
-      </c>
-      <c r="B27" s="2" t="str">
-        <v>在找</v>
+    <row r="27" spans="1:20">
+      <c r="A27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1219,12 +1442,12 @@
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
     </row>
-    <row r="28">
-      <c r="A28" s="2" t="str">
-        <v>AI+嵌入式</v>
-      </c>
-      <c r="B28" s="2" t="str">
-        <v>再找</v>
+    <row r="28" spans="1:20">
+      <c r="A28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1245,12 +1468,12 @@
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
     </row>
-    <row r="29">
-      <c r="A29" s="2" t="str">
-        <v>财务主管</v>
-      </c>
-      <c r="B29" s="2" t="str">
-        <v>在找</v>
+    <row r="29" spans="1:20">
+      <c r="A29" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1271,12 +1494,12 @@
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
     </row>
-    <row r="30">
-      <c r="A30" s="2" t="str">
-        <v>后端开发</v>
-      </c>
-      <c r="B30" s="2" t="str">
-        <v>在学习的路上</v>
+    <row r="30" spans="1:20">
+      <c r="A30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1297,12 +1520,12 @@
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
     </row>
-    <row r="31">
-      <c r="A31" s="2" t="str">
-        <v>去年7月用这个项目找到了第一份工作，现在再次回来，希望跳槽找一份AI售前的工作</v>
-      </c>
-      <c r="B31" s="2" t="str">
-        <v>在找</v>
+    <row r="31" spans="1:20">
+      <c r="A31" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1323,12 +1546,12 @@
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
     </row>
-    <row r="32">
-      <c r="A32" s="2" t="str">
-        <v>前端工程师</v>
-      </c>
-      <c r="B32" s="2" t="str">
-        <v>在找</v>
+    <row r="32" spans="1:20">
+      <c r="A32" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1349,12 +1572,12 @@
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
     </row>
-    <row r="33">
-      <c r="A33" s="2" t="str">
-        <v>Java开发</v>
-      </c>
-      <c r="B33" s="2" t="str">
-        <v>准备跳槽</v>
+    <row r="33" spans="1:20">
+      <c r="A33" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1375,12 +1598,12 @@
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
     </row>
-    <row r="34">
-      <c r="A34" s="2" t="str">
-        <v>Java开发，有完善的晋升制度</v>
-      </c>
-      <c r="B34" s="2" t="str">
-        <v>准备跳槽</v>
+    <row r="34" spans="1:20">
+      <c r="A34" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1401,13 +1624,12 @@
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
     </row>
-    <row r="35">
-      <c r="A35" s="2" t="str">
-        <v>前端开发</v>
-      </c>
-      <c r="B35" s="2" t="str">
-        <v>找到了，兄弟们加油。对于前端这块简历一定要吹牛逼写好，
-面试前真的要背好八股和场景，或者找不想去的公司练练手，准备好了之后再冲刺</v>
+    <row r="35" spans="1:20">
+      <c r="A35" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1428,12 +1650,12 @@
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
     </row>
-    <row r="36">
-      <c r="A36" s="2" t="str">
-        <v>java开发</v>
-      </c>
-      <c r="B36" s="2" t="str">
-        <v>在找</v>
+    <row r="36" spans="1:20">
+      <c r="A36" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1454,12 +1676,12 @@
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
     </row>
-    <row r="37">
-      <c r="A37" s="2" t="str">
-        <v>Java开发</v>
-      </c>
-      <c r="B37" s="2" t="str">
-        <v>正在找</v>
+    <row r="37" spans="1:20">
+      <c r="A37" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1480,12 +1702,12 @@
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
     </row>
-    <row r="38">
-      <c r="A38" s="2" t="str">
-        <v>Java+AI</v>
-      </c>
-      <c r="B38" s="2" t="str">
-        <v>在找</v>
+    <row r="38" spans="1:20">
+      <c r="A38" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1506,12 +1728,12 @@
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
     </row>
-    <row r="39">
-      <c r="A39" s="4" t="str">
-        <v>AI+后端工程师</v>
-      </c>
-      <c r="B39" s="2" t="str">
-        <v>在找</v>
+    <row r="39" spans="1:20">
+      <c r="A39" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -1532,12 +1754,12 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
     </row>
-    <row r="40">
-      <c r="A40" s="2" t="str">
-        <v>java开发</v>
-      </c>
-      <c r="B40" s="2" t="str">
-        <v>在找</v>
+    <row r="40" spans="1:20">
+      <c r="A40" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1558,12 +1780,12 @@
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
     </row>
-    <row r="41">
-      <c r="A41" s="2" t="str">
-        <v>C#开发</v>
-      </c>
-      <c r="B41" s="2" t="str">
-        <v>在找</v>
+    <row r="41" spans="1:20">
+      <c r="A41" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1584,12 +1806,12 @@
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
     </row>
-    <row r="42">
-      <c r="A42" s="2" t="str">
-        <v>dotnet开发，base 成都</v>
-      </c>
-      <c r="B42" s="2" t="str">
-        <v>准备跳槽</v>
+    <row r="42" spans="1:20">
+      <c r="A42" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1610,12 +1832,12 @@
       <c r="S42" s="1"/>
       <c r="T42" s="1"/>
     </row>
-    <row r="43">
-      <c r="A43" s="2" t="str">
-        <v>JAVA开发，base太原</v>
-      </c>
-      <c r="B43" s="2" t="str">
-        <v>在找</v>
+    <row r="43" spans="1:20">
+      <c r="A43" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1636,12 +1858,12 @@
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
     </row>
-    <row r="44">
-      <c r="A44" s="2" t="str">
-        <v>Java开发</v>
-      </c>
-      <c r="B44" s="2" t="str">
-        <v>准备跳槽</v>
+    <row r="44" spans="1:20">
+      <c r="A44" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1662,12 +1884,12 @@
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
     </row>
-    <row r="45">
-      <c r="A45" s="2" t="str">
-        <v>前端开发，base上海</v>
-      </c>
-      <c r="B45" s="2" t="str">
-        <v>在找</v>
+    <row r="45" spans="1:20">
+      <c r="A45" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1688,12 +1910,12 @@
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
     </row>
-    <row r="46">
-      <c r="A46" s="2" t="str">
-        <v>测试开发</v>
-      </c>
-      <c r="B46" s="2" t="str">
-        <v>在找</v>
+    <row r="46" spans="1:20">
+      <c r="A46" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1714,12 +1936,12 @@
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
     </row>
-    <row r="47">
-      <c r="A47" s="5" t="str">
-        <v>运维开发</v>
-      </c>
-      <c r="B47" s="2" t="str">
-        <v>找到了，要去当牛马了，后续准备做独立开发</v>
+    <row r="47" spans="1:20">
+      <c r="A47" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1740,12 +1962,12 @@
       <c r="S47" s="1"/>
       <c r="T47" s="1"/>
     </row>
-    <row r="48">
-      <c r="A48" s="2" t="str" xml:space="preserve">
-        <v> 渗透测试工程师</v>
-      </c>
-      <c r="B48" s="2" t="str">
-        <v>应届在找</v>
+    <row r="48" spans="1:20">
+      <c r="A48" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -1766,12 +1988,12 @@
       <c r="S48" s="1"/>
       <c r="T48" s="1"/>
     </row>
-    <row r="49">
-      <c r="A49" s="2" t="str">
-        <v>IT审计/数据分析/财务BP</v>
-      </c>
-      <c r="B49" s="2" t="str">
-        <v>准备跳槽</v>
+    <row r="49" spans="1:20">
+      <c r="A49" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1792,12 +2014,12 @@
       <c r="S49" s="1"/>
       <c r="T49" s="1"/>
     </row>
-    <row r="50">
-      <c r="A50" s="2" t="str">
-        <v>AI应用开发</v>
-      </c>
-      <c r="B50" s="2" t="str">
-        <v>在找</v>
+    <row r="50" spans="1:20">
+      <c r="A50" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1818,12 +2040,12 @@
       <c r="S50" s="1"/>
       <c r="T50" s="1"/>
     </row>
-    <row r="51">
-      <c r="A51" s="2" t="str">
-        <v>设计师</v>
-      </c>
-      <c r="B51" s="2" t="str">
-        <v>在找</v>
+    <row r="51" spans="1:20">
+      <c r="A51" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -1844,12 +2066,12 @@
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
     </row>
-    <row r="52">
-      <c r="A52" s="2" t="str">
-        <v>运维开发</v>
-      </c>
-      <c r="B52" s="2" t="str">
-        <v>在找</v>
+    <row r="52" spans="1:20">
+      <c r="A52" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1870,12 +2092,12 @@
       <c r="S52" s="1"/>
       <c r="T52" s="1"/>
     </row>
-    <row r="53">
-      <c r="A53" s="2" t="str">
-        <v>Java开发</v>
-      </c>
-      <c r="B53" s="2" t="str">
-        <v>在找</v>
+    <row r="53" spans="1:20">
+      <c r="A53" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1896,12 +2118,12 @@
       <c r="S53" s="1"/>
       <c r="T53" s="1"/>
     </row>
-    <row r="54">
-      <c r="A54" s="2" t="str">
-        <v>Java开发/海外仓销售</v>
-      </c>
-      <c r="B54" s="2" t="str">
-        <v>在找</v>
+    <row r="54" spans="1:20">
+      <c r="A54" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -1922,12 +2144,12 @@
       <c r="S54" s="1"/>
       <c r="T54" s="1"/>
     </row>
-    <row r="55">
-      <c r="A55" s="2" t="str">
-        <v>ai产品</v>
-      </c>
-      <c r="B55" s="2" t="str">
-        <v>在找</v>
+    <row r="55" spans="1:20">
+      <c r="A55" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -1948,12 +2170,12 @@
       <c r="S55" s="1"/>
       <c r="T55" s="1"/>
     </row>
-    <row r="56">
-      <c r="A56" s="2" t="str">
-        <v>ai产品</v>
-      </c>
-      <c r="B56" s="2" t="str">
-        <v>在找</v>
+    <row r="56" spans="1:20">
+      <c r="A56" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -1974,12 +2196,12 @@
       <c r="S56" s="1"/>
       <c r="T56" s="1"/>
     </row>
-    <row r="57">
-      <c r="A57" s="2" t="str">
-        <v>数据开发+ai</v>
-      </c>
-      <c r="B57" s="2" t="str">
-        <v>失业了在找</v>
+    <row r="57" spans="1:20">
+      <c r="A57" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -2000,12 +2222,12 @@
       <c r="S57" s="1"/>
       <c r="T57" s="1"/>
     </row>
-    <row r="58">
-      <c r="A58" s="2" t="str">
-        <v>AI+JAVA</v>
-      </c>
-      <c r="B58" s="2" t="str">
-        <v>在找</v>
+    <row r="58" spans="1:20">
+      <c r="A58" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -2026,12 +2248,12 @@
       <c r="S58" s="1"/>
       <c r="T58" s="1"/>
     </row>
-    <row r="59">
-      <c r="A59" s="2" t="str">
-        <v>Java实习</v>
-      </c>
-      <c r="B59" s="2" t="str">
-        <v>在找</v>
+    <row r="59" spans="1:20">
+      <c r="A59" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -2052,13 +2274,12 @@
       <c r="S59" s="1"/>
       <c r="T59" s="1"/>
     </row>
-    <row r="60">
-      <c r="A60" s="2" t="str">
-        <v>前端工程师</v>
-      </c>
-      <c r="B60" s="2" t="str">
-        <v>大专，前端工程师，空窗创业，gap一年半😁，找了内推看看机会
-保持学习，看下金九银十有没机会了</v>
+    <row r="60" spans="1:20">
+      <c r="A60" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -2079,12 +2300,12 @@
       <c r="S60" s="1"/>
       <c r="T60" s="1"/>
     </row>
-    <row r="61">
-      <c r="A61" s="2" t="str">
-        <v>AI产品</v>
-      </c>
-      <c r="B61" s="2" t="str">
-        <v>在找</v>
+    <row r="61" spans="1:20">
+      <c r="A61" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -2105,12 +2326,12 @@
       <c r="S61" s="1"/>
       <c r="T61" s="1"/>
     </row>
-    <row r="62">
-      <c r="A62" s="2" t="str">
-        <v>Java秋招</v>
-      </c>
-      <c r="B62" s="2" t="str">
-        <v>目前实习，在改简历背八股准备秋招！！！</v>
+    <row r="62" spans="1:20">
+      <c r="A62" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -2131,9 +2352,13 @@
       <c r="S62" s="1"/>
       <c r="T62" s="1"/>
     </row>
-    <row r="63">
-      <c r="A63" s="2"/>
-      <c r="B63" s="2"/>
+    <row r="63" spans="1:20">
+      <c r="A63" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>63</v>
+      </c>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
@@ -2153,8 +2378,7 @@
       <c r="S63" s="1"/>
       <c r="T63" s="1"/>
     </row>
-    <row r="64">
-      <c r="A64" s="2"/>
+    <row r="64" spans="1:20">
       <c r="B64" s="2"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -2175,7 +2399,7 @@
       <c r="S64" s="1"/>
       <c r="T64" s="1"/>
     </row>
-    <row r="65">
+    <row r="65" spans="1:20">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="1"/>
@@ -2197,7 +2421,7 @@
       <c r="S65" s="1"/>
       <c r="T65" s="1"/>
     </row>
-    <row r="66">
+    <row r="66" spans="1:20">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="1"/>
@@ -2219,7 +2443,7 @@
       <c r="S66" s="1"/>
       <c r="T66" s="1"/>
     </row>
-    <row r="67">
+    <row r="67" spans="1:20">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="1"/>
@@ -2241,7 +2465,7 @@
       <c r="S67" s="1"/>
       <c r="T67" s="1"/>
     </row>
-    <row r="68">
+    <row r="68" spans="1:20">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="1"/>
@@ -2263,7 +2487,7 @@
       <c r="S68" s="1"/>
       <c r="T68" s="1"/>
     </row>
-    <row r="69">
+    <row r="69" spans="1:20">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="1"/>
@@ -2285,7 +2509,7 @@
       <c r="S69" s="1"/>
       <c r="T69" s="1"/>
     </row>
-    <row r="70">
+    <row r="70" spans="1:20">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="1"/>
@@ -2307,7 +2531,7 @@
       <c r="S70" s="1"/>
       <c r="T70" s="1"/>
     </row>
-    <row r="71">
+    <row r="71" spans="1:20">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="1"/>
@@ -2329,7 +2553,7 @@
       <c r="S71" s="1"/>
       <c r="T71" s="1"/>
     </row>
-    <row r="72">
+    <row r="72" spans="1:20">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="1"/>
@@ -2351,7 +2575,7 @@
       <c r="S72" s="1"/>
       <c r="T72" s="1"/>
     </row>
-    <row r="73">
+    <row r="73" spans="1:20">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="1"/>
@@ -2373,7 +2597,7 @@
       <c r="S73" s="1"/>
       <c r="T73" s="1"/>
     </row>
-    <row r="74">
+    <row r="74" spans="1:20">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="1"/>
@@ -2395,7 +2619,7 @@
       <c r="S74" s="1"/>
       <c r="T74" s="1"/>
     </row>
-    <row r="75">
+    <row r="75" spans="1:20">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="1"/>
@@ -2417,7 +2641,7 @@
       <c r="S75" s="1"/>
       <c r="T75" s="1"/>
     </row>
-    <row r="76">
+    <row r="76" spans="1:20">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="1"/>
@@ -2439,7 +2663,7 @@
       <c r="S76" s="1"/>
       <c r="T76" s="1"/>
     </row>
-    <row r="77">
+    <row r="77" spans="1:20">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="1"/>
@@ -2461,7 +2685,7 @@
       <c r="S77" s="1"/>
       <c r="T77" s="1"/>
     </row>
-    <row r="78">
+    <row r="78" spans="1:20">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="1"/>
@@ -2483,7 +2707,7 @@
       <c r="S78" s="1"/>
       <c r="T78" s="1"/>
     </row>
-    <row r="79">
+    <row r="79" spans="1:20">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="1"/>
@@ -2505,7 +2729,7 @@
       <c r="S79" s="1"/>
       <c r="T79" s="1"/>
     </row>
-    <row r="80">
+    <row r="80" spans="1:20">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="1"/>
@@ -2527,7 +2751,7 @@
       <c r="S80" s="1"/>
       <c r="T80" s="1"/>
     </row>
-    <row r="81">
+    <row r="81" spans="1:20">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="1"/>
@@ -2549,7 +2773,7 @@
       <c r="S81" s="1"/>
       <c r="T81" s="1"/>
     </row>
-    <row r="82">
+    <row r="82" spans="1:20">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="1"/>
@@ -2571,7 +2795,7 @@
       <c r="S82" s="1"/>
       <c r="T82" s="1"/>
     </row>
-    <row r="83">
+    <row r="83" spans="1:20">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="1"/>
@@ -2593,7 +2817,7 @@
       <c r="S83" s="1"/>
       <c r="T83" s="1"/>
     </row>
-    <row r="84">
+    <row r="84" spans="1:20">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="1"/>
@@ -2615,7 +2839,7 @@
       <c r="S84" s="1"/>
       <c r="T84" s="1"/>
     </row>
-    <row r="85">
+    <row r="85" spans="1:20">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="1"/>
@@ -2637,7 +2861,7 @@
       <c r="S85" s="1"/>
       <c r="T85" s="1"/>
     </row>
-    <row r="86">
+    <row r="86" spans="1:20">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="1"/>
@@ -2659,7 +2883,7 @@
       <c r="S86" s="1"/>
       <c r="T86" s="1"/>
     </row>
-    <row r="87">
+    <row r="87" spans="1:20">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="1"/>
@@ -2681,7 +2905,7 @@
       <c r="S87" s="1"/>
       <c r="T87" s="1"/>
     </row>
-    <row r="88">
+    <row r="88" spans="1:20">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="1"/>
@@ -2703,7 +2927,7 @@
       <c r="S88" s="1"/>
       <c r="T88" s="1"/>
     </row>
-    <row r="89">
+    <row r="89" spans="1:20">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="1"/>
@@ -2725,7 +2949,7 @@
       <c r="S89" s="1"/>
       <c r="T89" s="1"/>
     </row>
-    <row r="90">
+    <row r="90" spans="1:20">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="1"/>
@@ -2747,7 +2971,7 @@
       <c r="S90" s="1"/>
       <c r="T90" s="1"/>
     </row>
-    <row r="91">
+    <row r="91" spans="1:20">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="1"/>
@@ -2769,7 +2993,7 @@
       <c r="S91" s="1"/>
       <c r="T91" s="1"/>
     </row>
-    <row r="92">
+    <row r="92" spans="1:20">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="1"/>
@@ -2791,7 +3015,7 @@
       <c r="S92" s="1"/>
       <c r="T92" s="1"/>
     </row>
-    <row r="93">
+    <row r="93" spans="1:20">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="1"/>
@@ -2813,7 +3037,7 @@
       <c r="S93" s="1"/>
       <c r="T93" s="1"/>
     </row>
-    <row r="94">
+    <row r="94" spans="1:20">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="1"/>
@@ -2835,7 +3059,7 @@
       <c r="S94" s="1"/>
       <c r="T94" s="1"/>
     </row>
-    <row r="95">
+    <row r="95" spans="1:20">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="1"/>
@@ -2857,7 +3081,7 @@
       <c r="S95" s="1"/>
       <c r="T95" s="1"/>
     </row>
-    <row r="96">
+    <row r="96" spans="1:20">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="1"/>
@@ -2879,7 +3103,7 @@
       <c r="S96" s="1"/>
       <c r="T96" s="1"/>
     </row>
-    <row r="97">
+    <row r="97" spans="1:20">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="1"/>
@@ -2901,7 +3125,7 @@
       <c r="S97" s="1"/>
       <c r="T97" s="1"/>
     </row>
-    <row r="98">
+    <row r="98" spans="1:20">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="1"/>
@@ -2923,7 +3147,7 @@
       <c r="S98" s="1"/>
       <c r="T98" s="1"/>
     </row>
-    <row r="99">
+    <row r="99" spans="1:20">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="1"/>
@@ -2945,7 +3169,7 @@
       <c r="S99" s="1"/>
       <c r="T99" s="1"/>
     </row>
-    <row r="100">
+    <row r="100" spans="1:20">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="1"/>
@@ -2967,7 +3191,7 @@
       <c r="S100" s="1"/>
       <c r="T100" s="1"/>
     </row>
-    <row r="101">
+    <row r="101" spans="1:20">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="1"/>
@@ -2989,7 +3213,7 @@
       <c r="S101" s="1"/>
       <c r="T101" s="1"/>
     </row>
-    <row r="102">
+    <row r="102" spans="1:20">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="1"/>
@@ -3011,7 +3235,7 @@
       <c r="S102" s="1"/>
       <c r="T102" s="1"/>
     </row>
-    <row r="103">
+    <row r="103" spans="1:20">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="1"/>
@@ -3033,7 +3257,7 @@
       <c r="S103" s="1"/>
       <c r="T103" s="1"/>
     </row>
-    <row r="104">
+    <row r="104" spans="1:20">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="1"/>
@@ -3055,7 +3279,7 @@
       <c r="S104" s="1"/>
       <c r="T104" s="1"/>
     </row>
-    <row r="105">
+    <row r="105" spans="1:20">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="1"/>
@@ -3077,7 +3301,7 @@
       <c r="S105" s="1"/>
       <c r="T105" s="1"/>
     </row>
-    <row r="106">
+    <row r="106" spans="1:20">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="1"/>
@@ -3099,7 +3323,7 @@
       <c r="S106" s="1"/>
       <c r="T106" s="1"/>
     </row>
-    <row r="107">
+    <row r="107" spans="1:20">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="1"/>
@@ -3121,7 +3345,7 @@
       <c r="S107" s="1"/>
       <c r="T107" s="1"/>
     </row>
-    <row r="108">
+    <row r="108" spans="1:20">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="1"/>
@@ -3143,7 +3367,7 @@
       <c r="S108" s="1"/>
       <c r="T108" s="1"/>
     </row>
-    <row r="109">
+    <row r="109" spans="1:20">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="1"/>
@@ -3165,7 +3389,7 @@
       <c r="S109" s="1"/>
       <c r="T109" s="1"/>
     </row>
-    <row r="110">
+    <row r="110" spans="1:20">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="1"/>
@@ -3187,7 +3411,7 @@
       <c r="S110" s="1"/>
       <c r="T110" s="1"/>
     </row>
-    <row r="111">
+    <row r="111" spans="1:20">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="1"/>
@@ -3209,7 +3433,7 @@
       <c r="S111" s="1"/>
       <c r="T111" s="1"/>
     </row>
-    <row r="112">
+    <row r="112" spans="1:20">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="1"/>
@@ -3231,7 +3455,7 @@
       <c r="S112" s="1"/>
       <c r="T112" s="1"/>
     </row>
-    <row r="113">
+    <row r="113" spans="1:20">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="1"/>
@@ -3253,7 +3477,7 @@
       <c r="S113" s="1"/>
       <c r="T113" s="1"/>
     </row>
-    <row r="114">
+    <row r="114" spans="1:20">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="1"/>
@@ -3275,7 +3499,7 @@
       <c r="S114" s="1"/>
       <c r="T114" s="1"/>
     </row>
-    <row r="115">
+    <row r="115" spans="1:20">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="1"/>
@@ -3297,7 +3521,7 @@
       <c r="S115" s="1"/>
       <c r="T115" s="1"/>
     </row>
-    <row r="116">
+    <row r="116" spans="1:20">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="1"/>
@@ -3319,7 +3543,7 @@
       <c r="S116" s="1"/>
       <c r="T116" s="1"/>
     </row>
-    <row r="117">
+    <row r="117" spans="1:20">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="1"/>
@@ -3341,7 +3565,7 @@
       <c r="S117" s="1"/>
       <c r="T117" s="1"/>
     </row>
-    <row r="118">
+    <row r="118" spans="1:20">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="1"/>
@@ -3363,7 +3587,7 @@
       <c r="S118" s="1"/>
       <c r="T118" s="1"/>
     </row>
-    <row r="119">
+    <row r="119" spans="1:20">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="1"/>
@@ -3385,7 +3609,7 @@
       <c r="S119" s="1"/>
       <c r="T119" s="1"/>
     </row>
-    <row r="120">
+    <row r="120" spans="1:20">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="1"/>
@@ -3407,7 +3631,7 @@
       <c r="S120" s="1"/>
       <c r="T120" s="1"/>
     </row>
-    <row r="121">
+    <row r="121" spans="1:20">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="1"/>
@@ -3429,7 +3653,7 @@
       <c r="S121" s="1"/>
       <c r="T121" s="1"/>
     </row>
-    <row r="122">
+    <row r="122" spans="1:20">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="1"/>
@@ -3451,7 +3675,7 @@
       <c r="S122" s="1"/>
       <c r="T122" s="1"/>
     </row>
-    <row r="123">
+    <row r="123" spans="1:20">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="1"/>
@@ -3473,7 +3697,7 @@
       <c r="S123" s="1"/>
       <c r="T123" s="1"/>
     </row>
-    <row r="124">
+    <row r="124" spans="1:20">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="1"/>
@@ -3495,7 +3719,7 @@
       <c r="S124" s="1"/>
       <c r="T124" s="1"/>
     </row>
-    <row r="125">
+    <row r="125" spans="1:20">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="1"/>
@@ -3517,7 +3741,7 @@
       <c r="S125" s="1"/>
       <c r="T125" s="1"/>
     </row>
-    <row r="126">
+    <row r="126" spans="1:20">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="1"/>
@@ -3539,7 +3763,7 @@
       <c r="S126" s="1"/>
       <c r="T126" s="1"/>
     </row>
-    <row r="127">
+    <row r="127" spans="1:20">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="1"/>
@@ -3561,7 +3785,7 @@
       <c r="S127" s="1"/>
       <c r="T127" s="1"/>
     </row>
-    <row r="128">
+    <row r="128" spans="1:20">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="1"/>
@@ -3583,7 +3807,7 @@
       <c r="S128" s="1"/>
       <c r="T128" s="1"/>
     </row>
-    <row r="129">
+    <row r="129" spans="1:20">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="1"/>
@@ -3605,7 +3829,7 @@
       <c r="S129" s="1"/>
       <c r="T129" s="1"/>
     </row>
-    <row r="130">
+    <row r="130" spans="1:20">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="1"/>
@@ -3627,7 +3851,7 @@
       <c r="S130" s="1"/>
       <c r="T130" s="1"/>
     </row>
-    <row r="131">
+    <row r="131" spans="1:20">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="1"/>
@@ -3649,7 +3873,7 @@
       <c r="S131" s="1"/>
       <c r="T131" s="1"/>
     </row>
-    <row r="132">
+    <row r="132" spans="1:20">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="1"/>
@@ -3671,7 +3895,7 @@
       <c r="S132" s="1"/>
       <c r="T132" s="1"/>
     </row>
-    <row r="133">
+    <row r="133" spans="1:20">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="1"/>
@@ -3693,7 +3917,7 @@
       <c r="S133" s="1"/>
       <c r="T133" s="1"/>
     </row>
-    <row r="134">
+    <row r="134" spans="1:20">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="1"/>
@@ -3715,7 +3939,7 @@
       <c r="S134" s="1"/>
       <c r="T134" s="1"/>
     </row>
-    <row r="135">
+    <row r="135" spans="1:20">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="1"/>
@@ -3737,7 +3961,7 @@
       <c r="S135" s="1"/>
       <c r="T135" s="1"/>
     </row>
-    <row r="136">
+    <row r="136" spans="1:20">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="1"/>
@@ -3759,7 +3983,7 @@
       <c r="S136" s="1"/>
       <c r="T136" s="1"/>
     </row>
-    <row r="137">
+    <row r="137" spans="1:20">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="1"/>
@@ -3781,7 +4005,7 @@
       <c r="S137" s="1"/>
       <c r="T137" s="1"/>
     </row>
-    <row r="138">
+    <row r="138" spans="1:20">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="1"/>
@@ -3803,7 +4027,7 @@
       <c r="S138" s="1"/>
       <c r="T138" s="1"/>
     </row>
-    <row r="139">
+    <row r="139" spans="1:20">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="1"/>
@@ -3825,7 +4049,7 @@
       <c r="S139" s="1"/>
       <c r="T139" s="1"/>
     </row>
-    <row r="140">
+    <row r="140" spans="1:20">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="1"/>
@@ -3847,7 +4071,7 @@
       <c r="S140" s="1"/>
       <c r="T140" s="1"/>
     </row>
-    <row r="141">
+    <row r="141" spans="1:20">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="1"/>
@@ -3869,7 +4093,7 @@
       <c r="S141" s="1"/>
       <c r="T141" s="1"/>
     </row>
-    <row r="142">
+    <row r="142" spans="1:20">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="1"/>
@@ -3891,7 +4115,7 @@
       <c r="S142" s="1"/>
       <c r="T142" s="1"/>
     </row>
-    <row r="143">
+    <row r="143" spans="1:20">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="1"/>
@@ -3913,7 +4137,7 @@
       <c r="S143" s="1"/>
       <c r="T143" s="1"/>
     </row>
-    <row r="144">
+    <row r="144" spans="1:20">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="1"/>
@@ -3935,7 +4159,7 @@
       <c r="S144" s="1"/>
       <c r="T144" s="1"/>
     </row>
-    <row r="145">
+    <row r="145" spans="1:20">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="1"/>
@@ -3957,7 +4181,7 @@
       <c r="S145" s="1"/>
       <c r="T145" s="1"/>
     </row>
-    <row r="146">
+    <row r="146" spans="1:20">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="1"/>
@@ -3979,7 +4203,7 @@
       <c r="S146" s="1"/>
       <c r="T146" s="1"/>
     </row>
-    <row r="147">
+    <row r="147" spans="1:20">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="1"/>
@@ -4001,7 +4225,7 @@
       <c r="S147" s="1"/>
       <c r="T147" s="1"/>
     </row>
-    <row r="148">
+    <row r="148" spans="1:20">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="1"/>
@@ -4023,7 +4247,7 @@
       <c r="S148" s="1"/>
       <c r="T148" s="1"/>
     </row>
-    <row r="149">
+    <row r="149" spans="1:20">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="1"/>
@@ -4045,7 +4269,7 @@
       <c r="S149" s="1"/>
       <c r="T149" s="1"/>
     </row>
-    <row r="150">
+    <row r="150" spans="1:20">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="1"/>
@@ -4067,7 +4291,7 @@
       <c r="S150" s="1"/>
       <c r="T150" s="1"/>
     </row>
-    <row r="151">
+    <row r="151" spans="1:20">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="1"/>
@@ -4089,7 +4313,7 @@
       <c r="S151" s="1"/>
       <c r="T151" s="1"/>
     </row>
-    <row r="152">
+    <row r="152" spans="1:20">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="1"/>
@@ -4111,7 +4335,7 @@
       <c r="S152" s="1"/>
       <c r="T152" s="1"/>
     </row>
-    <row r="153">
+    <row r="153" spans="1:20">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="1"/>
@@ -4133,7 +4357,7 @@
       <c r="S153" s="1"/>
       <c r="T153" s="1"/>
     </row>
-    <row r="154">
+    <row r="154" spans="1:20">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="1"/>
@@ -4155,7 +4379,7 @@
       <c r="S154" s="1"/>
       <c r="T154" s="1"/>
     </row>
-    <row r="155">
+    <row r="155" spans="1:20">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="1"/>
@@ -4177,7 +4401,7 @@
       <c r="S155" s="1"/>
       <c r="T155" s="1"/>
     </row>
-    <row r="156">
+    <row r="156" spans="1:20">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="1"/>
@@ -4199,7 +4423,7 @@
       <c r="S156" s="1"/>
       <c r="T156" s="1"/>
     </row>
-    <row r="157">
+    <row r="157" spans="1:20">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="1"/>
@@ -4221,7 +4445,7 @@
       <c r="S157" s="1"/>
       <c r="T157" s="1"/>
     </row>
-    <row r="158">
+    <row r="158" spans="1:20">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="1"/>
@@ -4243,7 +4467,7 @@
       <c r="S158" s="1"/>
       <c r="T158" s="1"/>
     </row>
-    <row r="159">
+    <row r="159" spans="1:20">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="1"/>
@@ -4265,7 +4489,7 @@
       <c r="S159" s="1"/>
       <c r="T159" s="1"/>
     </row>
-    <row r="160">
+    <row r="160" spans="1:20">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="1"/>
@@ -4287,7 +4511,7 @@
       <c r="S160" s="1"/>
       <c r="T160" s="1"/>
     </row>
-    <row r="161">
+    <row r="161" spans="1:20">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="1"/>
@@ -4309,7 +4533,7 @@
       <c r="S161" s="1"/>
       <c r="T161" s="1"/>
     </row>
-    <row r="162">
+    <row r="162" spans="1:20">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="1"/>
@@ -4331,7 +4555,7 @@
       <c r="S162" s="1"/>
       <c r="T162" s="1"/>
     </row>
-    <row r="163">
+    <row r="163" spans="1:20">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="1"/>
@@ -4353,7 +4577,7 @@
       <c r="S163" s="1"/>
       <c r="T163" s="1"/>
     </row>
-    <row r="164">
+    <row r="164" spans="1:20">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="1"/>
@@ -4375,7 +4599,7 @@
       <c r="S164" s="1"/>
       <c r="T164" s="1"/>
     </row>
-    <row r="165">
+    <row r="165" spans="1:20">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="1"/>
@@ -4397,7 +4621,7 @@
       <c r="S165" s="1"/>
       <c r="T165" s="1"/>
     </row>
-    <row r="166">
+    <row r="166" spans="1:20">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="1"/>
@@ -4419,7 +4643,7 @@
       <c r="S166" s="1"/>
       <c r="T166" s="1"/>
     </row>
-    <row r="167">
+    <row r="167" spans="1:20">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="1"/>
@@ -4441,7 +4665,7 @@
       <c r="S167" s="1"/>
       <c r="T167" s="1"/>
     </row>
-    <row r="168">
+    <row r="168" spans="1:20">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="1"/>
@@ -4463,7 +4687,7 @@
       <c r="S168" s="1"/>
       <c r="T168" s="1"/>
     </row>
-    <row r="169">
+    <row r="169" spans="1:20">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="1"/>
@@ -4485,7 +4709,7 @@
       <c r="S169" s="1"/>
       <c r="T169" s="1"/>
     </row>
-    <row r="170">
+    <row r="170" spans="1:20">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="1"/>
@@ -4507,7 +4731,7 @@
       <c r="S170" s="1"/>
       <c r="T170" s="1"/>
     </row>
-    <row r="171">
+    <row r="171" spans="1:20">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="1"/>
@@ -4529,7 +4753,7 @@
       <c r="S171" s="1"/>
       <c r="T171" s="1"/>
     </row>
-    <row r="172">
+    <row r="172" spans="1:20">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="1"/>
@@ -4551,7 +4775,7 @@
       <c r="S172" s="1"/>
       <c r="T172" s="1"/>
     </row>
-    <row r="173">
+    <row r="173" spans="1:20">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="1"/>
@@ -4573,7 +4797,7 @@
       <c r="S173" s="1"/>
       <c r="T173" s="1"/>
     </row>
-    <row r="174">
+    <row r="174" spans="1:20">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="1"/>
@@ -4595,7 +4819,7 @@
       <c r="S174" s="1"/>
       <c r="T174" s="1"/>
     </row>
-    <row r="175">
+    <row r="175" spans="1:20">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="1"/>
@@ -4617,7 +4841,7 @@
       <c r="S175" s="1"/>
       <c r="T175" s="1"/>
     </row>
-    <row r="176">
+    <row r="176" spans="1:20">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="1"/>
@@ -4639,7 +4863,7 @@
       <c r="S176" s="1"/>
       <c r="T176" s="1"/>
     </row>
-    <row r="177">
+    <row r="177" spans="1:20">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="1"/>
@@ -4661,7 +4885,7 @@
       <c r="S177" s="1"/>
       <c r="T177" s="1"/>
     </row>
-    <row r="178">
+    <row r="178" spans="1:20">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="1"/>
@@ -4683,7 +4907,7 @@
       <c r="S178" s="1"/>
       <c r="T178" s="1"/>
     </row>
-    <row r="179">
+    <row r="179" spans="1:20">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="1"/>
@@ -4705,7 +4929,7 @@
       <c r="S179" s="1"/>
       <c r="T179" s="1"/>
     </row>
-    <row r="180">
+    <row r="180" spans="1:20">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="1"/>
@@ -4727,7 +4951,7 @@
       <c r="S180" s="1"/>
       <c r="T180" s="1"/>
     </row>
-    <row r="181">
+    <row r="181" spans="1:20">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="1"/>
@@ -4749,7 +4973,7 @@
       <c r="S181" s="1"/>
       <c r="T181" s="1"/>
     </row>
-    <row r="182">
+    <row r="182" spans="1:20">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="1"/>
@@ -4771,7 +4995,7 @@
       <c r="S182" s="1"/>
       <c r="T182" s="1"/>
     </row>
-    <row r="183">
+    <row r="183" spans="1:20">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="1"/>
@@ -4793,7 +5017,7 @@
       <c r="S183" s="1"/>
       <c r="T183" s="1"/>
     </row>
-    <row r="184">
+    <row r="184" spans="1:20">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="1"/>
@@ -4815,7 +5039,7 @@
       <c r="S184" s="1"/>
       <c r="T184" s="1"/>
     </row>
-    <row r="185">
+    <row r="185" spans="1:20">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="1"/>
@@ -4837,7 +5061,7 @@
       <c r="S185" s="1"/>
       <c r="T185" s="1"/>
     </row>
-    <row r="186">
+    <row r="186" spans="1:20">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="1"/>
@@ -4859,7 +5083,7 @@
       <c r="S186" s="1"/>
       <c r="T186" s="1"/>
     </row>
-    <row r="187">
+    <row r="187" spans="1:20">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="1"/>
@@ -4881,7 +5105,7 @@
       <c r="S187" s="1"/>
       <c r="T187" s="1"/>
     </row>
-    <row r="188">
+    <row r="188" spans="1:20">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="1"/>
@@ -4903,7 +5127,7 @@
       <c r="S188" s="1"/>
       <c r="T188" s="1"/>
     </row>
-    <row r="189">
+    <row r="189" spans="1:20">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="1"/>
@@ -4925,7 +5149,7 @@
       <c r="S189" s="1"/>
       <c r="T189" s="1"/>
     </row>
-    <row r="190">
+    <row r="190" spans="1:20">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="1"/>
@@ -4947,7 +5171,7 @@
       <c r="S190" s="1"/>
       <c r="T190" s="1"/>
     </row>
-    <row r="191">
+    <row r="191" spans="1:20">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="1"/>
@@ -4969,7 +5193,7 @@
       <c r="S191" s="1"/>
       <c r="T191" s="1"/>
     </row>
-    <row r="192">
+    <row r="192" spans="1:20">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="1"/>
@@ -4991,7 +5215,7 @@
       <c r="S192" s="1"/>
       <c r="T192" s="1"/>
     </row>
-    <row r="193">
+    <row r="193" spans="1:20">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="1"/>
@@ -5013,7 +5237,7 @@
       <c r="S193" s="1"/>
       <c r="T193" s="1"/>
     </row>
-    <row r="194">
+    <row r="194" spans="1:20">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="1"/>
@@ -5035,7 +5259,7 @@
       <c r="S194" s="1"/>
       <c r="T194" s="1"/>
     </row>
-    <row r="195">
+    <row r="195" spans="1:20">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="1"/>
@@ -5057,7 +5281,7 @@
       <c r="S195" s="1"/>
       <c r="T195" s="1"/>
     </row>
-    <row r="196">
+    <row r="196" spans="1:20">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="1"/>
@@ -5079,7 +5303,7 @@
       <c r="S196" s="1"/>
       <c r="T196" s="1"/>
     </row>
-    <row r="197">
+    <row r="197" spans="1:20">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="1"/>
@@ -5101,7 +5325,7 @@
       <c r="S197" s="1"/>
       <c r="T197" s="1"/>
     </row>
-    <row r="198">
+    <row r="198" spans="1:20">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="1"/>
@@ -5123,7 +5347,7 @@
       <c r="S198" s="1"/>
       <c r="T198" s="1"/>
     </row>
-    <row r="199">
+    <row r="199" spans="1:20">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="1"/>
@@ -5145,7 +5369,7 @@
       <c r="S199" s="1"/>
       <c r="T199" s="1"/>
     </row>
-    <row r="200">
+    <row r="200" spans="1:20">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="1"/>
@@ -5168,6 +5392,7 @@
       <c r="T200" s="1"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/许愿墙.xlsx
+++ b/许愿墙.xlsx
@@ -1,86 +1,288 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dannike/Desktop/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F99DB62-C54B-5247-A80D-A1B4F1C822C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="15800" windowWidth="28040" xWindow="4240" yWindow="640"/>
+    <workbookView xWindow="2200" yWindow="760" windowWidth="28040" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcMode="auto"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t xml:space="preserve">  </t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="64">
+  <si>
+    <t>你想找什么样的工作？</t>
+  </si>
+  <si>
+    <t>现在的状态是怎样的？</t>
+  </si>
+  <si>
+    <t>AI攻城狮</t>
+  </si>
+  <si>
+    <t>已找到！</t>
+  </si>
+  <si>
+    <t>Java+AI</t>
+  </si>
+  <si>
+    <t>在找</t>
+  </si>
+  <si>
+    <t>AI agent开发</t>
+  </si>
+  <si>
+    <t>Java实习</t>
+  </si>
+  <si>
+    <t>还没开始找</t>
+  </si>
+  <si>
+    <t>系统架构师</t>
+  </si>
+  <si>
+    <t>Go</t>
+  </si>
+  <si>
+    <t>前端攻城狮</t>
+  </si>
+  <si>
+    <t>AI+游戏开发</t>
+  </si>
+  <si>
+    <t>C++实习</t>
+  </si>
+  <si>
+    <t>后端开发</t>
+  </si>
+  <si>
+    <t>正确的路上</t>
+  </si>
+  <si>
+    <t>Java后端开发</t>
+  </si>
+  <si>
+    <t>在找实习的路上</t>
+  </si>
+  <si>
+    <t>Java</t>
+  </si>
+  <si>
+    <t>找到了，但是通勤太远想跳槽</t>
+  </si>
+  <si>
+    <t>Frontend leader</t>
+  </si>
+  <si>
+    <t>找到了，但是没有work life balance</t>
+  </si>
+  <si>
+    <t>找到了，不满意</t>
+  </si>
+  <si>
+    <t>Java开发</t>
+  </si>
+  <si>
+    <t>再找</t>
+  </si>
+  <si>
+    <t>前端工程师</t>
+  </si>
+  <si>
+    <t>java开发</t>
+  </si>
+  <si>
+    <t>AI+前端工程师</t>
+  </si>
+  <si>
+    <t>C++开发</t>
+  </si>
+  <si>
+    <t>Go后端开发</t>
+  </si>
+  <si>
+    <t>AI+后端工程师</t>
+  </si>
+  <si>
+    <t>linux运维</t>
+  </si>
+  <si>
+    <t>AI+嵌入式</t>
+  </si>
+  <si>
+    <t>财务主管</t>
+  </si>
+  <si>
+    <t>在学习的路上</t>
+  </si>
+  <si>
+    <t>去年7月用这个项目找到了第一份工作，现在再次回来，希望跳槽找一份AI售前的工作</t>
+  </si>
+  <si>
+    <t>准备跳槽</t>
+  </si>
+  <si>
+    <t>Java开发，有完善的晋升制度</t>
+  </si>
+  <si>
+    <t>前端开发</t>
+  </si>
+  <si>
+    <t>找到了，兄弟们加油。对于前端这块简历一定要吹牛逼写好，
+面试前真的要背好八股和场景，或者找不想去的公司练练手，准备好了之后再冲刺</t>
+  </si>
+  <si>
+    <t>正在找</t>
+  </si>
+  <si>
+    <t>C#开发</t>
+  </si>
+  <si>
+    <t>dotnet开发，base 成都</t>
+  </si>
+  <si>
+    <t>JAVA开发，base太原</t>
+  </si>
+  <si>
+    <t>前端开发，base上海</t>
+  </si>
+  <si>
+    <t>测试开发</t>
+  </si>
+  <si>
+    <t>运维开发</t>
+  </si>
+  <si>
+    <t>找到了，要去当牛马了，后续准备做独立开发</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 渗透测试工程师</t>
+  </si>
+  <si>
+    <t>应届在找</t>
+  </si>
+  <si>
+    <t>IT审计/数据分析/财务BP</t>
+  </si>
+  <si>
+    <t>AI应用开发</t>
+  </si>
+  <si>
+    <t>设计师</t>
+  </si>
+  <si>
+    <t>Java开发/海外仓销售</t>
+  </si>
+  <si>
+    <t>ai产品</t>
+  </si>
+  <si>
+    <t>数据开发+ai</t>
+  </si>
+  <si>
+    <t>失业了在找</t>
+  </si>
+  <si>
+    <t>AI+JAVA</t>
+  </si>
+  <si>
+    <t>大专，前端工程师，空窗创业，gap一年半😁，找了内推看看机会
+保持学习，看下金九银十有没机会了</t>
+  </si>
+  <si>
+    <t>AI产品</t>
+  </si>
+  <si>
+    <t>Java秋招</t>
+  </si>
+  <si>
+    <t>目前实习，在改简历背八股准备秋招！！！</t>
+  </si>
+  <si>
+    <t>AIGC相关后端或全栈/量化交易员</t>
+  </si>
+  <si>
+    <t>在找，之前上过大厂班，不适应，后续我想做独立开发</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9.75"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9.75"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none">
-        <fgColor/>
-        <bgColor/>
-      </patternFill>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor/>
-        <bgColor/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF34C724"/>
-        <bgColor/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -93,21 +295,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF1F2329"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF1F2329"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF1F2329"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF1F2329"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -162,38 +349,74 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF1F2329"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF1F2329"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF1F2329"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF1F2329"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFDEE0E3"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFDEE0E3"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFDEE0E3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFDEE0E3"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="6" fillId="0" fontId="1" numFmtId="164" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -206,7 +429,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -501,28 +724,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
-    <outlinePr summaryBelow="false" summaryRight="false"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:T200"/>
   <sheetViews>
-    <sheetView showGridLines="true" tabSelected="true" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63:B63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="13"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="74"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="54"/>
+    <col min="1" max="1" width="74" customWidth="1"/>
+    <col min="2" max="2" width="54" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="str">
-        <v>你想找什么样的工作？</v>
-      </c>
-      <c r="B1" s="3" t="str">
-        <v>现在的状态是怎样的？</v>
+    <row r="1" spans="1:20">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -543,12 +766,12 @@
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
     </row>
-    <row r="2">
-      <c r="A2" s="2" t="str">
-        <v>AI攻城狮</v>
-      </c>
-      <c r="B2" s="2" t="str">
-        <v>已找到！</v>
+    <row r="2" spans="1:20">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -569,12 +792,12 @@
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
     </row>
-    <row r="3">
-      <c r="A3" s="2" t="str">
-        <v>Java+AI</v>
-      </c>
-      <c r="B3" s="2" t="str">
-        <v>在找</v>
+    <row r="3" spans="1:20">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -595,12 +818,12 @@
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
     </row>
-    <row r="4">
-      <c r="A4" s="2" t="str">
-        <v>AI agent开发</v>
-      </c>
-      <c r="B4" s="2" t="str">
-        <v>在找</v>
+    <row r="4" spans="1:20">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -621,12 +844,12 @@
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
     </row>
-    <row r="5">
-      <c r="A5" s="2" t="str">
-        <v>Java实习</v>
-      </c>
-      <c r="B5" s="2" t="str">
-        <v>还没开始找</v>
+    <row r="5" spans="1:20">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -647,12 +870,12 @@
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
     </row>
-    <row r="6">
-      <c r="A6" s="2" t="str">
-        <v>系统架构师</v>
-      </c>
-      <c r="B6" s="2" t="str">
-        <v>在找</v>
+    <row r="6" spans="1:20">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -673,12 +896,12 @@
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
     </row>
-    <row r="7">
-      <c r="A7" s="2" t="str">
-        <v>Go</v>
-      </c>
-      <c r="B7" s="2" t="str">
-        <v>在找</v>
+    <row r="7" spans="1:20">
+      <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -699,12 +922,12 @@
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
     </row>
-    <row r="8">
-      <c r="A8" s="2" t="str">
-        <v>前端攻城狮</v>
-      </c>
-      <c r="B8" s="2" t="str">
-        <v>在找</v>
+    <row r="8" spans="1:20">
+      <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -725,12 +948,12 @@
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
     </row>
-    <row r="9">
-      <c r="A9" s="2" t="str">
-        <v>AI+游戏开发</v>
-      </c>
-      <c r="B9" s="2" t="str">
-        <v>在找</v>
+    <row r="9" spans="1:20">
+      <c r="A9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -751,12 +974,12 @@
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
     </row>
-    <row r="10">
-      <c r="A10" s="2" t="str">
-        <v>C++实习</v>
-      </c>
-      <c r="B10" s="2" t="str">
-        <v>在找</v>
+    <row r="10" spans="1:20">
+      <c r="A10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -777,12 +1000,12 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
     </row>
-    <row r="11">
-      <c r="A11" s="2" t="str">
-        <v>后端开发</v>
-      </c>
-      <c r="B11" s="2" t="str">
-        <v>正确的路上</v>
+    <row r="11" spans="1:20">
+      <c r="A11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -803,12 +1026,12 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row r="12">
-      <c r="A12" s="2" t="str">
-        <v>Java后端开发</v>
-      </c>
-      <c r="B12" s="2" t="str">
-        <v>在找实习的路上</v>
+    <row r="12" spans="1:20">
+      <c r="A12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -829,12 +1052,12 @@
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
     </row>
-    <row r="13">
-      <c r="A13" s="2" t="str">
-        <v>Java</v>
-      </c>
-      <c r="B13" s="2" t="str">
-        <v>找到了，但是通勤太远想跳槽</v>
+    <row r="13" spans="1:20">
+      <c r="A13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -855,12 +1078,12 @@
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
     </row>
-    <row r="14">
-      <c r="A14" s="2" t="str">
-        <v>Frontend leader</v>
-      </c>
-      <c r="B14" s="2" t="str">
-        <v>找到了，但是没有work life balance</v>
+    <row r="14" spans="1:20">
+      <c r="A14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -881,12 +1104,12 @@
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
     </row>
-    <row r="15">
-      <c r="A15" s="5" t="str">
-        <v>Java</v>
-      </c>
-      <c r="B15" s="2" t="str">
-        <v>找到了，不满意</v>
+    <row r="15" spans="1:20">
+      <c r="A15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -907,12 +1130,12 @@
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
     </row>
-    <row r="16">
-      <c r="A16" s="2" t="str">
-        <v>Java开发</v>
-      </c>
-      <c r="B16" s="2" t="str">
-        <v>再找</v>
+    <row r="16" spans="1:20">
+      <c r="A16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -933,12 +1156,12 @@
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
     </row>
-    <row r="17">
-      <c r="A17" s="2" t="str">
-        <v>前端工程师</v>
-      </c>
-      <c r="B17" s="2" t="str">
-        <v>在找</v>
+    <row r="17" spans="1:20">
+      <c r="A17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -959,12 +1182,12 @@
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
     </row>
-    <row r="18">
-      <c r="A18" s="2" t="str">
-        <v>java开发</v>
-      </c>
-      <c r="B18" s="2" t="str">
-        <v>在找</v>
+    <row r="18" spans="1:20">
+      <c r="A18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -985,12 +1208,12 @@
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
     </row>
-    <row r="19">
-      <c r="A19" s="2" t="str">
-        <v>AI+前端工程师</v>
-      </c>
-      <c r="B19" s="2" t="str">
-        <v>还没开始找</v>
+    <row r="19" spans="1:20">
+      <c r="A19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -1011,12 +1234,12 @@
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
     </row>
-    <row r="20">
-      <c r="A20" s="2" t="str">
-        <v>C++开发</v>
-      </c>
-      <c r="B20" s="2" t="str">
-        <v>在找</v>
+    <row r="20" spans="1:20">
+      <c r="A20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -1037,12 +1260,12 @@
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
     </row>
-    <row r="21">
-      <c r="A21" s="2" t="str">
-        <v>Go</v>
-      </c>
-      <c r="B21" s="2" t="str">
-        <v>在找</v>
+    <row r="21" spans="1:20">
+      <c r="A21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -1063,12 +1286,12 @@
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
     </row>
-    <row r="22">
-      <c r="A22" s="2" t="str">
-        <v>Go后端开发</v>
-      </c>
-      <c r="B22" s="2" t="str">
-        <v>在找</v>
+    <row r="22" spans="1:20">
+      <c r="A22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1089,12 +1312,12 @@
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
     </row>
-    <row r="23">
-      <c r="A23" s="2" t="str">
-        <v>AI+后端工程师</v>
-      </c>
-      <c r="B23" s="2" t="str">
-        <v>还没开始找</v>
+    <row r="23" spans="1:20">
+      <c r="A23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1115,12 +1338,12 @@
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
     </row>
-    <row r="24">
-      <c r="A24" s="2" t="str">
-        <v>linux运维</v>
-      </c>
-      <c r="B24" s="2" t="str">
-        <v>在找</v>
+    <row r="24" spans="1:20">
+      <c r="A24" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1141,12 +1364,12 @@
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
     </row>
-    <row r="25">
-      <c r="A25" s="2" t="str">
-        <v>前端工程师</v>
-      </c>
-      <c r="B25" s="2" t="str">
-        <v>在找</v>
+    <row r="25" spans="1:20">
+      <c r="A25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1167,12 +1390,12 @@
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
     </row>
-    <row r="26">
-      <c r="A26" s="2" t="str">
-        <v>前端工程师</v>
-      </c>
-      <c r="B26" s="2" t="str">
-        <v>还没开始找</v>
+    <row r="26" spans="1:20">
+      <c r="A26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1193,12 +1416,12 @@
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
     </row>
-    <row r="27">
-      <c r="A27" s="2" t="str">
-        <v>java开发</v>
-      </c>
-      <c r="B27" s="2" t="str">
-        <v>在找</v>
+    <row r="27" spans="1:20">
+      <c r="A27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1219,12 +1442,12 @@
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
     </row>
-    <row r="28">
-      <c r="A28" s="2" t="str">
-        <v>AI+嵌入式</v>
-      </c>
-      <c r="B28" s="2" t="str">
-        <v>再找</v>
+    <row r="28" spans="1:20">
+      <c r="A28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1245,12 +1468,12 @@
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
     </row>
-    <row r="29">
-      <c r="A29" s="2" t="str">
-        <v>财务主管</v>
-      </c>
-      <c r="B29" s="2" t="str">
-        <v>在找</v>
+    <row r="29" spans="1:20">
+      <c r="A29" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1271,12 +1494,12 @@
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
     </row>
-    <row r="30">
-      <c r="A30" s="2" t="str">
-        <v>后端开发</v>
-      </c>
-      <c r="B30" s="2" t="str">
-        <v>在学习的路上</v>
+    <row r="30" spans="1:20">
+      <c r="A30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1297,12 +1520,12 @@
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
     </row>
-    <row r="31">
-      <c r="A31" s="2" t="str">
-        <v>去年7月用这个项目找到了第一份工作，现在再次回来，希望跳槽找一份AI售前的工作</v>
-      </c>
-      <c r="B31" s="2" t="str">
-        <v>在找</v>
+    <row r="31" spans="1:20">
+      <c r="A31" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1323,12 +1546,12 @@
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
     </row>
-    <row r="32">
-      <c r="A32" s="2" t="str">
-        <v>前端工程师</v>
-      </c>
-      <c r="B32" s="2" t="str">
-        <v>在找</v>
+    <row r="32" spans="1:20">
+      <c r="A32" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1349,12 +1572,12 @@
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
     </row>
-    <row r="33">
-      <c r="A33" s="2" t="str">
-        <v>Java开发</v>
-      </c>
-      <c r="B33" s="2" t="str">
-        <v>准备跳槽</v>
+    <row r="33" spans="1:20">
+      <c r="A33" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1375,12 +1598,12 @@
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
     </row>
-    <row r="34">
-      <c r="A34" s="2" t="str">
-        <v>Java开发，有完善的晋升制度</v>
-      </c>
-      <c r="B34" s="2" t="str">
-        <v>准备跳槽</v>
+    <row r="34" spans="1:20">
+      <c r="A34" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1401,13 +1624,12 @@
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
     </row>
-    <row r="35">
-      <c r="A35" s="2" t="str">
-        <v>前端开发</v>
-      </c>
-      <c r="B35" s="2" t="str">
-        <v>找到了，兄弟们加油。对于前端这块简历一定要吹牛逼写好，
-面试前真的要背好八股和场景，或者找不想去的公司练练手，准备好了之后再冲刺</v>
+    <row r="35" spans="1:20">
+      <c r="A35" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1428,12 +1650,12 @@
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
     </row>
-    <row r="36">
-      <c r="A36" s="2" t="str">
-        <v>java开发</v>
-      </c>
-      <c r="B36" s="2" t="str">
-        <v>在找</v>
+    <row r="36" spans="1:20">
+      <c r="A36" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1454,12 +1676,12 @@
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
     </row>
-    <row r="37">
-      <c r="A37" s="2" t="str">
-        <v>Java开发</v>
-      </c>
-      <c r="B37" s="2" t="str">
-        <v>正在找</v>
+    <row r="37" spans="1:20">
+      <c r="A37" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1480,12 +1702,12 @@
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
     </row>
-    <row r="38">
-      <c r="A38" s="2" t="str">
-        <v>Java+AI</v>
-      </c>
-      <c r="B38" s="2" t="str">
-        <v>在找</v>
+    <row r="38" spans="1:20">
+      <c r="A38" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1506,38 +1728,38 @@
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
     </row>
-    <row r="39">
-      <c r="A39" s="5" t="str">
-        <v>AI+后端工程师</v>
-      </c>
-      <c r="B39" s="2" t="str">
-        <v>在找</v>
-      </c>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="4"/>
-      <c r="L39" s="4"/>
-      <c r="M39" s="4"/>
-      <c r="N39" s="4"/>
-      <c r="O39" s="4"/>
-      <c r="P39" s="4"/>
-      <c r="Q39" s="4"/>
-      <c r="R39" s="4"/>
-      <c r="S39" s="4"/>
-      <c r="T39" s="4"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="str">
-        <v>java开发</v>
-      </c>
-      <c r="B40" s="2" t="str">
-        <v>在找</v>
+    <row r="39" spans="1:20">
+      <c r="A39" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1558,12 +1780,12 @@
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
     </row>
-    <row r="41">
-      <c r="A41" s="2" t="str">
-        <v>C#开发</v>
-      </c>
-      <c r="B41" s="2" t="str">
-        <v>在找</v>
+    <row r="41" spans="1:20">
+      <c r="A41" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1584,12 +1806,12 @@
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
     </row>
-    <row r="42">
-      <c r="A42" s="2" t="str">
-        <v>dotnet开发，base 成都</v>
-      </c>
-      <c r="B42" s="2" t="str">
-        <v>准备跳槽</v>
+    <row r="42" spans="1:20">
+      <c r="A42" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1610,12 +1832,12 @@
       <c r="S42" s="1"/>
       <c r="T42" s="1"/>
     </row>
-    <row r="43">
-      <c r="A43" s="2" t="str">
-        <v>JAVA开发，base太原</v>
-      </c>
-      <c r="B43" s="2" t="str">
-        <v>在找</v>
+    <row r="43" spans="1:20">
+      <c r="A43" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1636,12 +1858,12 @@
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
     </row>
-    <row r="44">
-      <c r="A44" s="2" t="str">
-        <v>Java开发</v>
-      </c>
-      <c r="B44" s="2" t="str">
-        <v>准备跳槽</v>
+    <row r="44" spans="1:20">
+      <c r="A44" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1662,12 +1884,12 @@
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
     </row>
-    <row r="45">
-      <c r="A45" s="2" t="str">
-        <v>前端开发，base上海</v>
-      </c>
-      <c r="B45" s="2" t="str">
-        <v>在找</v>
+    <row r="45" spans="1:20">
+      <c r="A45" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1688,12 +1910,12 @@
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
     </row>
-    <row r="46">
-      <c r="A46" s="2" t="str">
-        <v>测试开发</v>
-      </c>
-      <c r="B46" s="2" t="str">
-        <v>在找</v>
+    <row r="46" spans="1:20">
+      <c r="A46" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1714,12 +1936,12 @@
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
     </row>
-    <row r="47">
-      <c r="A47" s="6" t="str">
-        <v>运维开发</v>
-      </c>
-      <c r="B47" s="2" t="str">
-        <v>找到了，要去当牛马了，后续准备做独立开发</v>
+    <row r="47" spans="1:20">
+      <c r="A47" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1740,12 +1962,12 @@
       <c r="S47" s="1"/>
       <c r="T47" s="1"/>
     </row>
-    <row r="48">
-      <c r="A48" s="2" t="str" xml:space="preserve">
-        <v> 渗透测试工程师</v>
-      </c>
-      <c r="B48" s="2" t="str">
-        <v>应届在找</v>
+    <row r="48" spans="1:20">
+      <c r="A48" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -1766,12 +1988,12 @@
       <c r="S48" s="1"/>
       <c r="T48" s="1"/>
     </row>
-    <row r="49">
-      <c r="A49" s="2" t="str">
-        <v>IT审计/数据分析/财务BP</v>
-      </c>
-      <c r="B49" s="2" t="str">
-        <v>准备跳槽</v>
+    <row r="49" spans="1:20">
+      <c r="A49" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1792,12 +2014,12 @@
       <c r="S49" s="1"/>
       <c r="T49" s="1"/>
     </row>
-    <row r="50">
-      <c r="A50" s="2" t="str">
-        <v>AI应用开发</v>
-      </c>
-      <c r="B50" s="2" t="str">
-        <v>在找</v>
+    <row r="50" spans="1:20">
+      <c r="A50" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1818,12 +2040,12 @@
       <c r="S50" s="1"/>
       <c r="T50" s="1"/>
     </row>
-    <row r="51">
-      <c r="A51" s="2" t="str">
-        <v>设计师</v>
-      </c>
-      <c r="B51" s="2" t="str">
-        <v>在找</v>
+    <row r="51" spans="1:20">
+      <c r="A51" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -1844,12 +2066,12 @@
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
     </row>
-    <row r="52">
-      <c r="A52" s="2" t="str">
-        <v>运维开发</v>
-      </c>
-      <c r="B52" s="2" t="str">
-        <v>在找</v>
+    <row r="52" spans="1:20">
+      <c r="A52" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1870,12 +2092,12 @@
       <c r="S52" s="1"/>
       <c r="T52" s="1"/>
     </row>
-    <row r="53">
-      <c r="A53" s="2" t="str">
-        <v>Java开发</v>
-      </c>
-      <c r="B53" s="2" t="str">
-        <v>在找</v>
+    <row r="53" spans="1:20">
+      <c r="A53" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1896,12 +2118,12 @@
       <c r="S53" s="1"/>
       <c r="T53" s="1"/>
     </row>
-    <row r="54">
-      <c r="A54" s="2" t="str">
-        <v>Java开发/海外仓销售</v>
-      </c>
-      <c r="B54" s="2" t="str">
-        <v>在找</v>
+    <row r="54" spans="1:20">
+      <c r="A54" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -1922,12 +2144,12 @@
       <c r="S54" s="1"/>
       <c r="T54" s="1"/>
     </row>
-    <row r="55">
-      <c r="A55" s="2" t="str">
-        <v>ai产品</v>
-      </c>
-      <c r="B55" s="2" t="str">
-        <v>在找</v>
+    <row r="55" spans="1:20">
+      <c r="A55" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -1948,12 +2170,12 @@
       <c r="S55" s="1"/>
       <c r="T55" s="1"/>
     </row>
-    <row r="56">
-      <c r="A56" s="2" t="str">
-        <v>ai产品</v>
-      </c>
-      <c r="B56" s="2" t="str">
-        <v>在找</v>
+    <row r="56" spans="1:20">
+      <c r="A56" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -1974,12 +2196,12 @@
       <c r="S56" s="1"/>
       <c r="T56" s="1"/>
     </row>
-    <row r="57">
-      <c r="A57" s="2" t="str">
-        <v>数据开发+ai</v>
-      </c>
-      <c r="B57" s="2" t="str">
-        <v>失业了在找</v>
+    <row r="57" spans="1:20">
+      <c r="A57" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -2000,12 +2222,12 @@
       <c r="S57" s="1"/>
       <c r="T57" s="1"/>
     </row>
-    <row r="58">
-      <c r="A58" s="2" t="str">
-        <v>AI+JAVA</v>
-      </c>
-      <c r="B58" s="2" t="str">
-        <v>在找</v>
+    <row r="58" spans="1:20">
+      <c r="A58" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -2026,12 +2248,12 @@
       <c r="S58" s="1"/>
       <c r="T58" s="1"/>
     </row>
-    <row r="59">
-      <c r="A59" s="2" t="str">
-        <v>Java实习</v>
-      </c>
-      <c r="B59" s="2" t="str">
-        <v>在找</v>
+    <row r="59" spans="1:20">
+      <c r="A59" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -2052,13 +2274,12 @@
       <c r="S59" s="1"/>
       <c r="T59" s="1"/>
     </row>
-    <row r="60">
-      <c r="A60" s="2" t="str">
-        <v>前端工程师</v>
-      </c>
-      <c r="B60" s="2" t="str">
-        <v>大专，前端工程师，空窗创业，gap一年半😁，找了内推看看机会
-保持学习，看下金九银十有没机会了</v>
+    <row r="60" spans="1:20">
+      <c r="A60" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -2079,12 +2300,12 @@
       <c r="S60" s="1"/>
       <c r="T60" s="1"/>
     </row>
-    <row r="61">
-      <c r="A61" s="2" t="str">
-        <v>AI产品</v>
-      </c>
-      <c r="B61" s="2" t="str">
-        <v>在找</v>
+    <row r="61" spans="1:20">
+      <c r="A61" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -2105,12 +2326,12 @@
       <c r="S61" s="1"/>
       <c r="T61" s="1"/>
     </row>
-    <row r="62">
-      <c r="A62" s="2" t="str">
-        <v>Java秋招</v>
-      </c>
-      <c r="B62" s="2" t="str">
-        <v>目前实习，在改简历背八股准备秋招！！！</v>
+    <row r="62" spans="1:20">
+      <c r="A62" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -2131,12 +2352,12 @@
       <c r="S62" s="1"/>
       <c r="T62" s="1"/>
     </row>
-    <row r="63">
-      <c r="A63" s="2" t="str">
-        <v>大厂的产品岗_26届秋招</v>
-      </c>
-      <c r="B63" s="2" t="str">
-        <v>应届生正在进行中</v>
+    <row r="63" spans="1:20">
+      <c r="A63" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>63</v>
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -2157,13 +2378,8 @@
       <c r="S63" s="1"/>
       <c r="T63" s="1"/>
     </row>
-    <row r="64">
-      <c r="A64" s="2" t="str">
-        <v>双休、Java</v>
-      </c>
-      <c r="B64" s="2" t="str">
-        <v>25应届摆烂仔正在行动</v>
-      </c>
+    <row r="64" spans="1:20">
+      <c r="B64" s="2"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
@@ -2183,13 +2399,9 @@
       <c r="S64" s="1"/>
       <c r="T64" s="1"/>
     </row>
-    <row r="65">
-      <c r="A65" s="2" t="str" xml:space="preserve">
-        <v>AI + JAVA </v>
-      </c>
-      <c r="B65" s="2" t="str">
-        <v>在找</v>
-      </c>
+    <row r="65" spans="1:20">
+      <c r="A65" s="2"/>
+      <c r="B65" s="2"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
@@ -2209,13 +2421,9 @@
       <c r="S65" s="1"/>
       <c r="T65" s="1"/>
     </row>
-    <row r="66">
-      <c r="A66" s="2" t="str">
-        <v>嵌入式Ai</v>
-      </c>
-      <c r="B66" s="2" t="str">
-        <v>在找</v>
-      </c>
+    <row r="66" spans="1:20">
+      <c r="A66" s="2"/>
+      <c r="B66" s="2"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
@@ -2235,13 +2443,9 @@
       <c r="S66" s="1"/>
       <c r="T66" s="1"/>
     </row>
-    <row r="67">
-      <c r="A67" s="2" t="str">
-        <v>全栈架构师 研发经理</v>
-      </c>
-      <c r="B67" s="2" t="str">
-        <v>被裁再找,改好了简历</v>
-      </c>
+    <row r="67" spans="1:20">
+      <c r="A67" s="2"/>
+      <c r="B67" s="2"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
@@ -2261,13 +2465,9 @@
       <c r="S67" s="1"/>
       <c r="T67" s="1"/>
     </row>
-    <row r="68">
-      <c r="A68" s="2" t="str">
-        <v>AI产品</v>
-      </c>
-      <c r="B68" s="2" t="str">
-        <v>在找</v>
-      </c>
+    <row r="68" spans="1:20">
+      <c r="A68" s="2"/>
+      <c r="B68" s="2"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
@@ -2287,13 +2487,9 @@
       <c r="S68" s="1"/>
       <c r="T68" s="1"/>
     </row>
-    <row r="69">
-      <c r="A69" s="2" t="str">
-        <v>AI应用开发</v>
-      </c>
-      <c r="B69" s="2" t="str">
-        <v>在找</v>
-      </c>
+    <row r="69" spans="1:20">
+      <c r="A69" s="2"/>
+      <c r="B69" s="2"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
@@ -2313,13 +2509,9 @@
       <c r="S69" s="1"/>
       <c r="T69" s="1"/>
     </row>
-    <row r="70">
-      <c r="A70" s="2" t="str">
-        <v>网络安全</v>
-      </c>
-      <c r="B70" s="2" t="str">
-        <v>在找</v>
-      </c>
+    <row r="70" spans="1:20">
+      <c r="A70" s="2"/>
+      <c r="B70" s="2"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
@@ -2339,13 +2531,9 @@
       <c r="S70" s="1"/>
       <c r="T70" s="1"/>
     </row>
-    <row r="71">
-      <c r="A71" s="2" t="str">
-        <v>java开发</v>
-      </c>
-      <c r="B71" s="2" t="str">
-        <v>在找</v>
-      </c>
+    <row r="71" spans="1:20">
+      <c r="A71" s="2"/>
+      <c r="B71" s="2"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
@@ -2365,13 +2553,9 @@
       <c r="S71" s="1"/>
       <c r="T71" s="1"/>
     </row>
-    <row r="72">
-      <c r="A72" s="2" t="str">
-        <v>嵌入式/硬件测试</v>
-      </c>
-      <c r="B72" s="2" t="str">
-        <v>25届毕业生在狂卷</v>
-      </c>
+    <row r="72" spans="1:20">
+      <c r="A72" s="2"/>
+      <c r="B72" s="2"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
@@ -2391,13 +2575,9 @@
       <c r="S72" s="1"/>
       <c r="T72" s="1"/>
     </row>
-    <row r="73">
-      <c r="A73" s="2" t="str">
-        <v>Java 中厂</v>
-      </c>
-      <c r="B73" s="2" t="str">
-        <v>刚找到实习，现在边实习边秋招</v>
-      </c>
+    <row r="73" spans="1:20">
+      <c r="A73" s="2"/>
+      <c r="B73" s="2"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
@@ -2417,7 +2597,7 @@
       <c r="S73" s="1"/>
       <c r="T73" s="1"/>
     </row>
-    <row r="74">
+    <row r="74" spans="1:20">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="1"/>
@@ -2439,7 +2619,7 @@
       <c r="S74" s="1"/>
       <c r="T74" s="1"/>
     </row>
-    <row r="75">
+    <row r="75" spans="1:20">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="1"/>
@@ -2461,7 +2641,7 @@
       <c r="S75" s="1"/>
       <c r="T75" s="1"/>
     </row>
-    <row r="76">
+    <row r="76" spans="1:20">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="1"/>
@@ -2483,7 +2663,7 @@
       <c r="S76" s="1"/>
       <c r="T76" s="1"/>
     </row>
-    <row r="77">
+    <row r="77" spans="1:20">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="1"/>
@@ -2505,7 +2685,7 @@
       <c r="S77" s="1"/>
       <c r="T77" s="1"/>
     </row>
-    <row r="78">
+    <row r="78" spans="1:20">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="1"/>
@@ -2527,7 +2707,7 @@
       <c r="S78" s="1"/>
       <c r="T78" s="1"/>
     </row>
-    <row r="79">
+    <row r="79" spans="1:20">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="1"/>
@@ -2549,7 +2729,7 @@
       <c r="S79" s="1"/>
       <c r="T79" s="1"/>
     </row>
-    <row r="80">
+    <row r="80" spans="1:20">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="1"/>
@@ -2571,7 +2751,7 @@
       <c r="S80" s="1"/>
       <c r="T80" s="1"/>
     </row>
-    <row r="81">
+    <row r="81" spans="1:20">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="1"/>
@@ -2593,7 +2773,7 @@
       <c r="S81" s="1"/>
       <c r="T81" s="1"/>
     </row>
-    <row r="82">
+    <row r="82" spans="1:20">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="1"/>
@@ -2615,7 +2795,7 @@
       <c r="S82" s="1"/>
       <c r="T82" s="1"/>
     </row>
-    <row r="83">
+    <row r="83" spans="1:20">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="1"/>
@@ -2637,7 +2817,7 @@
       <c r="S83" s="1"/>
       <c r="T83" s="1"/>
     </row>
-    <row r="84">
+    <row r="84" spans="1:20">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="1"/>
@@ -2659,7 +2839,7 @@
       <c r="S84" s="1"/>
       <c r="T84" s="1"/>
     </row>
-    <row r="85">
+    <row r="85" spans="1:20">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="1"/>
@@ -2681,7 +2861,7 @@
       <c r="S85" s="1"/>
       <c r="T85" s="1"/>
     </row>
-    <row r="86">
+    <row r="86" spans="1:20">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="1"/>
@@ -2703,7 +2883,7 @@
       <c r="S86" s="1"/>
       <c r="T86" s="1"/>
     </row>
-    <row r="87">
+    <row r="87" spans="1:20">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="1"/>
@@ -2725,7 +2905,7 @@
       <c r="S87" s="1"/>
       <c r="T87" s="1"/>
     </row>
-    <row r="88">
+    <row r="88" spans="1:20">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="1"/>
@@ -2747,7 +2927,7 @@
       <c r="S88" s="1"/>
       <c r="T88" s="1"/>
     </row>
-    <row r="89">
+    <row r="89" spans="1:20">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="1"/>
@@ -2769,7 +2949,7 @@
       <c r="S89" s="1"/>
       <c r="T89" s="1"/>
     </row>
-    <row r="90">
+    <row r="90" spans="1:20">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="1"/>
@@ -2791,7 +2971,7 @@
       <c r="S90" s="1"/>
       <c r="T90" s="1"/>
     </row>
-    <row r="91">
+    <row r="91" spans="1:20">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="1"/>
@@ -2813,7 +2993,7 @@
       <c r="S91" s="1"/>
       <c r="T91" s="1"/>
     </row>
-    <row r="92">
+    <row r="92" spans="1:20">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="1"/>
@@ -2835,7 +3015,7 @@
       <c r="S92" s="1"/>
       <c r="T92" s="1"/>
     </row>
-    <row r="93">
+    <row r="93" spans="1:20">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="1"/>
@@ -2857,7 +3037,7 @@
       <c r="S93" s="1"/>
       <c r="T93" s="1"/>
     </row>
-    <row r="94">
+    <row r="94" spans="1:20">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="1"/>
@@ -2879,7 +3059,7 @@
       <c r="S94" s="1"/>
       <c r="T94" s="1"/>
     </row>
-    <row r="95">
+    <row r="95" spans="1:20">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="1"/>
@@ -2901,7 +3081,7 @@
       <c r="S95" s="1"/>
       <c r="T95" s="1"/>
     </row>
-    <row r="96">
+    <row r="96" spans="1:20">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="1"/>
@@ -2923,7 +3103,7 @@
       <c r="S96" s="1"/>
       <c r="T96" s="1"/>
     </row>
-    <row r="97">
+    <row r="97" spans="1:20">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="1"/>
@@ -2945,7 +3125,7 @@
       <c r="S97" s="1"/>
       <c r="T97" s="1"/>
     </row>
-    <row r="98">
+    <row r="98" spans="1:20">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="1"/>
@@ -2967,7 +3147,7 @@
       <c r="S98" s="1"/>
       <c r="T98" s="1"/>
     </row>
-    <row r="99">
+    <row r="99" spans="1:20">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="1"/>
@@ -2989,7 +3169,7 @@
       <c r="S99" s="1"/>
       <c r="T99" s="1"/>
     </row>
-    <row r="100">
+    <row r="100" spans="1:20">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="1"/>
@@ -3011,7 +3191,7 @@
       <c r="S100" s="1"/>
       <c r="T100" s="1"/>
     </row>
-    <row r="101">
+    <row r="101" spans="1:20">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="1"/>
@@ -3033,7 +3213,7 @@
       <c r="S101" s="1"/>
       <c r="T101" s="1"/>
     </row>
-    <row r="102">
+    <row r="102" spans="1:20">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="1"/>
@@ -3055,7 +3235,7 @@
       <c r="S102" s="1"/>
       <c r="T102" s="1"/>
     </row>
-    <row r="103">
+    <row r="103" spans="1:20">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="1"/>
@@ -3077,7 +3257,7 @@
       <c r="S103" s="1"/>
       <c r="T103" s="1"/>
     </row>
-    <row r="104">
+    <row r="104" spans="1:20">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="1"/>
@@ -3099,7 +3279,7 @@
       <c r="S104" s="1"/>
       <c r="T104" s="1"/>
     </row>
-    <row r="105">
+    <row r="105" spans="1:20">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="1"/>
@@ -3121,7 +3301,7 @@
       <c r="S105" s="1"/>
       <c r="T105" s="1"/>
     </row>
-    <row r="106">
+    <row r="106" spans="1:20">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="1"/>
@@ -3143,7 +3323,7 @@
       <c r="S106" s="1"/>
       <c r="T106" s="1"/>
     </row>
-    <row r="107">
+    <row r="107" spans="1:20">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="1"/>
@@ -3165,7 +3345,7 @@
       <c r="S107" s="1"/>
       <c r="T107" s="1"/>
     </row>
-    <row r="108">
+    <row r="108" spans="1:20">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="1"/>
@@ -3187,7 +3367,7 @@
       <c r="S108" s="1"/>
       <c r="T108" s="1"/>
     </row>
-    <row r="109">
+    <row r="109" spans="1:20">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="1"/>
@@ -3209,7 +3389,7 @@
       <c r="S109" s="1"/>
       <c r="T109" s="1"/>
     </row>
-    <row r="110">
+    <row r="110" spans="1:20">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="1"/>
@@ -3231,7 +3411,7 @@
       <c r="S110" s="1"/>
       <c r="T110" s="1"/>
     </row>
-    <row r="111">
+    <row r="111" spans="1:20">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="1"/>
@@ -3253,7 +3433,7 @@
       <c r="S111" s="1"/>
       <c r="T111" s="1"/>
     </row>
-    <row r="112">
+    <row r="112" spans="1:20">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="1"/>
@@ -3275,7 +3455,7 @@
       <c r="S112" s="1"/>
       <c r="T112" s="1"/>
     </row>
-    <row r="113">
+    <row r="113" spans="1:20">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="1"/>
@@ -3297,7 +3477,7 @@
       <c r="S113" s="1"/>
       <c r="T113" s="1"/>
     </row>
-    <row r="114">
+    <row r="114" spans="1:20">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="1"/>
@@ -3319,7 +3499,7 @@
       <c r="S114" s="1"/>
       <c r="T114" s="1"/>
     </row>
-    <row r="115">
+    <row r="115" spans="1:20">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="1"/>
@@ -3341,7 +3521,7 @@
       <c r="S115" s="1"/>
       <c r="T115" s="1"/>
     </row>
-    <row r="116">
+    <row r="116" spans="1:20">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="1"/>
@@ -3363,7 +3543,7 @@
       <c r="S116" s="1"/>
       <c r="T116" s="1"/>
     </row>
-    <row r="117">
+    <row r="117" spans="1:20">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="1"/>
@@ -3385,7 +3565,7 @@
       <c r="S117" s="1"/>
       <c r="T117" s="1"/>
     </row>
-    <row r="118">
+    <row r="118" spans="1:20">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="1"/>
@@ -3407,7 +3587,7 @@
       <c r="S118" s="1"/>
       <c r="T118" s="1"/>
     </row>
-    <row r="119">
+    <row r="119" spans="1:20">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="1"/>
@@ -3429,7 +3609,7 @@
       <c r="S119" s="1"/>
       <c r="T119" s="1"/>
     </row>
-    <row r="120">
+    <row r="120" spans="1:20">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="1"/>
@@ -3451,7 +3631,7 @@
       <c r="S120" s="1"/>
       <c r="T120" s="1"/>
     </row>
-    <row r="121">
+    <row r="121" spans="1:20">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="1"/>
@@ -3473,7 +3653,7 @@
       <c r="S121" s="1"/>
       <c r="T121" s="1"/>
     </row>
-    <row r="122">
+    <row r="122" spans="1:20">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="1"/>
@@ -3495,7 +3675,7 @@
       <c r="S122" s="1"/>
       <c r="T122" s="1"/>
     </row>
-    <row r="123">
+    <row r="123" spans="1:20">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="1"/>
@@ -3517,7 +3697,7 @@
       <c r="S123" s="1"/>
       <c r="T123" s="1"/>
     </row>
-    <row r="124">
+    <row r="124" spans="1:20">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="1"/>
@@ -3539,7 +3719,7 @@
       <c r="S124" s="1"/>
       <c r="T124" s="1"/>
     </row>
-    <row r="125">
+    <row r="125" spans="1:20">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="1"/>
@@ -3561,7 +3741,7 @@
       <c r="S125" s="1"/>
       <c r="T125" s="1"/>
     </row>
-    <row r="126">
+    <row r="126" spans="1:20">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="1"/>
@@ -3583,7 +3763,7 @@
       <c r="S126" s="1"/>
       <c r="T126" s="1"/>
     </row>
-    <row r="127">
+    <row r="127" spans="1:20">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="1"/>
@@ -3605,7 +3785,7 @@
       <c r="S127" s="1"/>
       <c r="T127" s="1"/>
     </row>
-    <row r="128">
+    <row r="128" spans="1:20">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="1"/>
@@ -3627,7 +3807,7 @@
       <c r="S128" s="1"/>
       <c r="T128" s="1"/>
     </row>
-    <row r="129">
+    <row r="129" spans="1:20">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="1"/>
@@ -3649,7 +3829,7 @@
       <c r="S129" s="1"/>
       <c r="T129" s="1"/>
     </row>
-    <row r="130">
+    <row r="130" spans="1:20">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="1"/>
@@ -3671,7 +3851,7 @@
       <c r="S130" s="1"/>
       <c r="T130" s="1"/>
     </row>
-    <row r="131">
+    <row r="131" spans="1:20">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="1"/>
@@ -3693,7 +3873,7 @@
       <c r="S131" s="1"/>
       <c r="T131" s="1"/>
     </row>
-    <row r="132">
+    <row r="132" spans="1:20">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="1"/>
@@ -3715,7 +3895,7 @@
       <c r="S132" s="1"/>
       <c r="T132" s="1"/>
     </row>
-    <row r="133">
+    <row r="133" spans="1:20">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="1"/>
@@ -3737,7 +3917,7 @@
       <c r="S133" s="1"/>
       <c r="T133" s="1"/>
     </row>
-    <row r="134">
+    <row r="134" spans="1:20">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="1"/>
@@ -3759,7 +3939,7 @@
       <c r="S134" s="1"/>
       <c r="T134" s="1"/>
     </row>
-    <row r="135">
+    <row r="135" spans="1:20">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="1"/>
@@ -3781,7 +3961,7 @@
       <c r="S135" s="1"/>
       <c r="T135" s="1"/>
     </row>
-    <row r="136">
+    <row r="136" spans="1:20">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="1"/>
@@ -3803,7 +3983,7 @@
       <c r="S136" s="1"/>
       <c r="T136" s="1"/>
     </row>
-    <row r="137">
+    <row r="137" spans="1:20">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="1"/>
@@ -3825,7 +4005,7 @@
       <c r="S137" s="1"/>
       <c r="T137" s="1"/>
     </row>
-    <row r="138">
+    <row r="138" spans="1:20">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="1"/>
@@ -3847,7 +4027,7 @@
       <c r="S138" s="1"/>
       <c r="T138" s="1"/>
     </row>
-    <row r="139">
+    <row r="139" spans="1:20">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="1"/>
@@ -3869,7 +4049,7 @@
       <c r="S139" s="1"/>
       <c r="T139" s="1"/>
     </row>
-    <row r="140">
+    <row r="140" spans="1:20">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="1"/>
@@ -3891,7 +4071,7 @@
       <c r="S140" s="1"/>
       <c r="T140" s="1"/>
     </row>
-    <row r="141">
+    <row r="141" spans="1:20">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="1"/>
@@ -3913,7 +4093,7 @@
       <c r="S141" s="1"/>
       <c r="T141" s="1"/>
     </row>
-    <row r="142">
+    <row r="142" spans="1:20">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="1"/>
@@ -3935,7 +4115,7 @@
       <c r="S142" s="1"/>
       <c r="T142" s="1"/>
     </row>
-    <row r="143">
+    <row r="143" spans="1:20">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="1"/>
@@ -3957,7 +4137,7 @@
       <c r="S143" s="1"/>
       <c r="T143" s="1"/>
     </row>
-    <row r="144">
+    <row r="144" spans="1:20">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="1"/>
@@ -3979,7 +4159,7 @@
       <c r="S144" s="1"/>
       <c r="T144" s="1"/>
     </row>
-    <row r="145">
+    <row r="145" spans="1:20">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="1"/>
@@ -4001,7 +4181,7 @@
       <c r="S145" s="1"/>
       <c r="T145" s="1"/>
     </row>
-    <row r="146">
+    <row r="146" spans="1:20">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="1"/>
@@ -4023,7 +4203,7 @@
       <c r="S146" s="1"/>
       <c r="T146" s="1"/>
     </row>
-    <row r="147">
+    <row r="147" spans="1:20">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="1"/>
@@ -4045,7 +4225,7 @@
       <c r="S147" s="1"/>
       <c r="T147" s="1"/>
     </row>
-    <row r="148">
+    <row r="148" spans="1:20">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="1"/>
@@ -4067,7 +4247,7 @@
       <c r="S148" s="1"/>
       <c r="T148" s="1"/>
     </row>
-    <row r="149">
+    <row r="149" spans="1:20">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="1"/>
@@ -4089,7 +4269,7 @@
       <c r="S149" s="1"/>
       <c r="T149" s="1"/>
     </row>
-    <row r="150">
+    <row r="150" spans="1:20">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="1"/>
@@ -4111,7 +4291,7 @@
       <c r="S150" s="1"/>
       <c r="T150" s="1"/>
     </row>
-    <row r="151">
+    <row r="151" spans="1:20">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="1"/>
@@ -4133,7 +4313,7 @@
       <c r="S151" s="1"/>
       <c r="T151" s="1"/>
     </row>
-    <row r="152">
+    <row r="152" spans="1:20">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="1"/>
@@ -4155,7 +4335,7 @@
       <c r="S152" s="1"/>
       <c r="T152" s="1"/>
     </row>
-    <row r="153">
+    <row r="153" spans="1:20">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="1"/>
@@ -4177,7 +4357,7 @@
       <c r="S153" s="1"/>
       <c r="T153" s="1"/>
     </row>
-    <row r="154">
+    <row r="154" spans="1:20">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="1"/>
@@ -4199,7 +4379,7 @@
       <c r="S154" s="1"/>
       <c r="T154" s="1"/>
     </row>
-    <row r="155">
+    <row r="155" spans="1:20">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="1"/>
@@ -4221,7 +4401,7 @@
       <c r="S155" s="1"/>
       <c r="T155" s="1"/>
     </row>
-    <row r="156">
+    <row r="156" spans="1:20">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="1"/>
@@ -4243,7 +4423,7 @@
       <c r="S156" s="1"/>
       <c r="T156" s="1"/>
     </row>
-    <row r="157">
+    <row r="157" spans="1:20">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="1"/>
@@ -4265,7 +4445,7 @@
       <c r="S157" s="1"/>
       <c r="T157" s="1"/>
     </row>
-    <row r="158">
+    <row r="158" spans="1:20">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="1"/>
@@ -4287,7 +4467,7 @@
       <c r="S158" s="1"/>
       <c r="T158" s="1"/>
     </row>
-    <row r="159">
+    <row r="159" spans="1:20">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="1"/>
@@ -4309,7 +4489,7 @@
       <c r="S159" s="1"/>
       <c r="T159" s="1"/>
     </row>
-    <row r="160">
+    <row r="160" spans="1:20">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="1"/>
@@ -4331,7 +4511,7 @@
       <c r="S160" s="1"/>
       <c r="T160" s="1"/>
     </row>
-    <row r="161">
+    <row r="161" spans="1:20">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="1"/>
@@ -4353,7 +4533,7 @@
       <c r="S161" s="1"/>
       <c r="T161" s="1"/>
     </row>
-    <row r="162">
+    <row r="162" spans="1:20">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="1"/>
@@ -4375,7 +4555,7 @@
       <c r="S162" s="1"/>
       <c r="T162" s="1"/>
     </row>
-    <row r="163">
+    <row r="163" spans="1:20">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="1"/>
@@ -4397,7 +4577,7 @@
       <c r="S163" s="1"/>
       <c r="T163" s="1"/>
     </row>
-    <row r="164">
+    <row r="164" spans="1:20">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="1"/>
@@ -4419,7 +4599,7 @@
       <c r="S164" s="1"/>
       <c r="T164" s="1"/>
     </row>
-    <row r="165">
+    <row r="165" spans="1:20">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="1"/>
@@ -4441,7 +4621,7 @@
       <c r="S165" s="1"/>
       <c r="T165" s="1"/>
     </row>
-    <row r="166">
+    <row r="166" spans="1:20">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="1"/>
@@ -4463,7 +4643,7 @@
       <c r="S166" s="1"/>
       <c r="T166" s="1"/>
     </row>
-    <row r="167">
+    <row r="167" spans="1:20">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="1"/>
@@ -4485,7 +4665,7 @@
       <c r="S167" s="1"/>
       <c r="T167" s="1"/>
     </row>
-    <row r="168">
+    <row r="168" spans="1:20">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="1"/>
@@ -4507,7 +4687,7 @@
       <c r="S168" s="1"/>
       <c r="T168" s="1"/>
     </row>
-    <row r="169">
+    <row r="169" spans="1:20">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="1"/>
@@ -4529,7 +4709,7 @@
       <c r="S169" s="1"/>
       <c r="T169" s="1"/>
     </row>
-    <row r="170">
+    <row r="170" spans="1:20">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="1"/>
@@ -4551,7 +4731,7 @@
       <c r="S170" s="1"/>
       <c r="T170" s="1"/>
     </row>
-    <row r="171">
+    <row r="171" spans="1:20">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="1"/>
@@ -4573,7 +4753,7 @@
       <c r="S171" s="1"/>
       <c r="T171" s="1"/>
     </row>
-    <row r="172">
+    <row r="172" spans="1:20">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="1"/>
@@ -4595,7 +4775,7 @@
       <c r="S172" s="1"/>
       <c r="T172" s="1"/>
     </row>
-    <row r="173">
+    <row r="173" spans="1:20">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="1"/>
@@ -4617,7 +4797,7 @@
       <c r="S173" s="1"/>
       <c r="T173" s="1"/>
     </row>
-    <row r="174">
+    <row r="174" spans="1:20">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="1"/>
@@ -4639,7 +4819,7 @@
       <c r="S174" s="1"/>
       <c r="T174" s="1"/>
     </row>
-    <row r="175">
+    <row r="175" spans="1:20">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="1"/>
@@ -4661,7 +4841,7 @@
       <c r="S175" s="1"/>
       <c r="T175" s="1"/>
     </row>
-    <row r="176">
+    <row r="176" spans="1:20">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="1"/>
@@ -4683,7 +4863,7 @@
       <c r="S176" s="1"/>
       <c r="T176" s="1"/>
     </row>
-    <row r="177">
+    <row r="177" spans="1:20">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="1"/>
@@ -4705,7 +4885,7 @@
       <c r="S177" s="1"/>
       <c r="T177" s="1"/>
     </row>
-    <row r="178">
+    <row r="178" spans="1:20">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="1"/>
@@ -4727,7 +4907,7 @@
       <c r="S178" s="1"/>
       <c r="T178" s="1"/>
     </row>
-    <row r="179">
+    <row r="179" spans="1:20">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="1"/>
@@ -4749,7 +4929,7 @@
       <c r="S179" s="1"/>
       <c r="T179" s="1"/>
     </row>
-    <row r="180">
+    <row r="180" spans="1:20">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="1"/>
@@ -4771,7 +4951,7 @@
       <c r="S180" s="1"/>
       <c r="T180" s="1"/>
     </row>
-    <row r="181">
+    <row r="181" spans="1:20">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="1"/>
@@ -4793,7 +4973,7 @@
       <c r="S181" s="1"/>
       <c r="T181" s="1"/>
     </row>
-    <row r="182">
+    <row r="182" spans="1:20">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="1"/>
@@ -4815,7 +4995,7 @@
       <c r="S182" s="1"/>
       <c r="T182" s="1"/>
     </row>
-    <row r="183">
+    <row r="183" spans="1:20">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="1"/>
@@ -4837,7 +5017,7 @@
       <c r="S183" s="1"/>
       <c r="T183" s="1"/>
     </row>
-    <row r="184">
+    <row r="184" spans="1:20">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="1"/>
@@ -4859,7 +5039,7 @@
       <c r="S184" s="1"/>
       <c r="T184" s="1"/>
     </row>
-    <row r="185">
+    <row r="185" spans="1:20">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="1"/>
@@ -4881,7 +5061,7 @@
       <c r="S185" s="1"/>
       <c r="T185" s="1"/>
     </row>
-    <row r="186">
+    <row r="186" spans="1:20">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="1"/>
@@ -4903,7 +5083,7 @@
       <c r="S186" s="1"/>
       <c r="T186" s="1"/>
     </row>
-    <row r="187">
+    <row r="187" spans="1:20">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="1"/>
@@ -4925,7 +5105,7 @@
       <c r="S187" s="1"/>
       <c r="T187" s="1"/>
     </row>
-    <row r="188">
+    <row r="188" spans="1:20">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="1"/>
@@ -4947,7 +5127,7 @@
       <c r="S188" s="1"/>
       <c r="T188" s="1"/>
     </row>
-    <row r="189">
+    <row r="189" spans="1:20">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="1"/>
@@ -4969,7 +5149,7 @@
       <c r="S189" s="1"/>
       <c r="T189" s="1"/>
     </row>
-    <row r="190">
+    <row r="190" spans="1:20">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="1"/>
@@ -4991,7 +5171,7 @@
       <c r="S190" s="1"/>
       <c r="T190" s="1"/>
     </row>
-    <row r="191">
+    <row r="191" spans="1:20">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="1"/>
@@ -5013,7 +5193,7 @@
       <c r="S191" s="1"/>
       <c r="T191" s="1"/>
     </row>
-    <row r="192">
+    <row r="192" spans="1:20">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="1"/>
@@ -5035,7 +5215,7 @@
       <c r="S192" s="1"/>
       <c r="T192" s="1"/>
     </row>
-    <row r="193">
+    <row r="193" spans="1:20">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="1"/>
@@ -5057,7 +5237,7 @@
       <c r="S193" s="1"/>
       <c r="T193" s="1"/>
     </row>
-    <row r="194">
+    <row r="194" spans="1:20">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="1"/>
@@ -5079,7 +5259,7 @@
       <c r="S194" s="1"/>
       <c r="T194" s="1"/>
     </row>
-    <row r="195">
+    <row r="195" spans="1:20">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="1"/>
@@ -5101,7 +5281,7 @@
       <c r="S195" s="1"/>
       <c r="T195" s="1"/>
     </row>
-    <row r="196">
+    <row r="196" spans="1:20">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="1"/>
@@ -5123,7 +5303,7 @@
       <c r="S196" s="1"/>
       <c r="T196" s="1"/>
     </row>
-    <row r="197">
+    <row r="197" spans="1:20">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="1"/>
@@ -5145,7 +5325,7 @@
       <c r="S197" s="1"/>
       <c r="T197" s="1"/>
     </row>
-    <row r="198">
+    <row r="198" spans="1:20">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="1"/>
@@ -5167,7 +5347,7 @@
       <c r="S198" s="1"/>
       <c r="T198" s="1"/>
     </row>
-    <row r="199">
+    <row r="199" spans="1:20">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="1"/>
@@ -5189,7 +5369,7 @@
       <c r="S199" s="1"/>
       <c r="T199" s="1"/>
     </row>
-    <row r="200">
+    <row r="200" spans="1:20">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="1"/>
@@ -5212,6 +5392,7 @@
       <c r="T200" s="1"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/许愿墙.xlsx
+++ b/许愿墙.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\桌面\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3932C32-3F17-47BC-A4A1-2F2E14D69E4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -27,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="68">
   <si>
     <t>你想找什么样的工作？</t>
   </si>
@@ -227,19 +231,21 @@
   </si>
   <si>
     <t>在找，想进大厂实习</t>
+  </si>
+  <si>
+    <t>网络安全</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经通知面试了</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -269,158 +275,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="9.75"/>
+      <color rgb="FF000000"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -433,194 +303,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -658,253 +342,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -926,62 +368,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1239,27 +640,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:T200"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="74" customWidth="1"/>
     <col min="2" max="2" width="54" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1285,7 +687,7 @@
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -1311,7 +713,7 @@
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1337,7 +739,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -1363,7 +765,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -1389,7 +791,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -1415,7 +817,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
@@ -1441,7 +843,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
@@ -1467,7 +869,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
@@ -1493,7 +895,7 @@
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>13</v>
       </c>
@@ -1519,7 +921,7 @@
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
@@ -1545,7 +947,7 @@
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>16</v>
       </c>
@@ -1571,7 +973,7 @@
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>18</v>
       </c>
@@ -1597,7 +999,7 @@
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>20</v>
       </c>
@@ -1623,7 +1025,7 @@
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>18</v>
       </c>
@@ -1649,7 +1051,7 @@
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>23</v>
       </c>
@@ -1675,7 +1077,7 @@
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>25</v>
       </c>
@@ -1701,7 +1103,7 @@
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>26</v>
       </c>
@@ -1727,7 +1129,7 @@
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>27</v>
       </c>
@@ -1753,7 +1155,7 @@
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>28</v>
       </c>
@@ -1779,7 +1181,7 @@
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>10</v>
       </c>
@@ -1805,7 +1207,7 @@
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>29</v>
       </c>
@@ -1831,7 +1233,7 @@
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>30</v>
       </c>
@@ -1857,7 +1259,7 @@
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>31</v>
       </c>
@@ -1883,7 +1285,7 @@
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>25</v>
       </c>
@@ -1909,7 +1311,7 @@
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>25</v>
       </c>
@@ -1935,7 +1337,7 @@
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>26</v>
       </c>
@@ -1961,7 +1363,7 @@
       <c r="S27" s="2"/>
       <c r="T27" s="2"/>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>32</v>
       </c>
@@ -1987,7 +1389,7 @@
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>33</v>
       </c>
@@ -2013,7 +1415,7 @@
       <c r="S29" s="2"/>
       <c r="T29" s="2"/>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>14</v>
       </c>
@@ -2039,7 +1441,7 @@
       <c r="S30" s="2"/>
       <c r="T30" s="2"/>
     </row>
-    <row r="31" spans="1:20">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>35</v>
       </c>
@@ -2065,7 +1467,7 @@
       <c r="S31" s="2"/>
       <c r="T31" s="2"/>
     </row>
-    <row r="32" spans="1:20">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>25</v>
       </c>
@@ -2091,7 +1493,7 @@
       <c r="S32" s="2"/>
       <c r="T32" s="2"/>
     </row>
-    <row r="33" spans="1:20">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>23</v>
       </c>
@@ -2117,7 +1519,7 @@
       <c r="S33" s="2"/>
       <c r="T33" s="2"/>
     </row>
-    <row r="34" spans="1:20">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>37</v>
       </c>
@@ -2143,7 +1545,7 @@
       <c r="S34" s="2"/>
       <c r="T34" s="2"/>
     </row>
-    <row r="35" spans="1:20">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>38</v>
       </c>
@@ -2169,7 +1571,7 @@
       <c r="S35" s="2"/>
       <c r="T35" s="2"/>
     </row>
-    <row r="36" spans="1:20">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>26</v>
       </c>
@@ -2195,7 +1597,7 @@
       <c r="S36" s="2"/>
       <c r="T36" s="2"/>
     </row>
-    <row r="37" spans="1:20">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>23</v>
       </c>
@@ -2221,7 +1623,7 @@
       <c r="S37" s="2"/>
       <c r="T37" s="2"/>
     </row>
-    <row r="38" spans="1:20">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>4</v>
       </c>
@@ -2247,7 +1649,7 @@
       <c r="S38" s="2"/>
       <c r="T38" s="2"/>
     </row>
-    <row r="39" spans="1:20">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>30</v>
       </c>
@@ -2273,7 +1675,7 @@
       <c r="S39" s="2"/>
       <c r="T39" s="2"/>
     </row>
-    <row r="40" spans="1:20">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>26</v>
       </c>
@@ -2299,7 +1701,7 @@
       <c r="S40" s="2"/>
       <c r="T40" s="2"/>
     </row>
-    <row r="41" spans="1:20">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>41</v>
       </c>
@@ -2325,7 +1727,7 @@
       <c r="S41" s="2"/>
       <c r="T41" s="2"/>
     </row>
-    <row r="42" spans="1:20">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>42</v>
       </c>
@@ -2351,7 +1753,7 @@
       <c r="S42" s="2"/>
       <c r="T42" s="2"/>
     </row>
-    <row r="43" spans="1:20">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>43</v>
       </c>
@@ -2377,7 +1779,7 @@
       <c r="S43" s="2"/>
       <c r="T43" s="2"/>
     </row>
-    <row r="44" spans="1:20">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>23</v>
       </c>
@@ -2403,7 +1805,7 @@
       <c r="S44" s="2"/>
       <c r="T44" s="2"/>
     </row>
-    <row r="45" spans="1:20">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>44</v>
       </c>
@@ -2429,7 +1831,7 @@
       <c r="S45" s="2"/>
       <c r="T45" s="2"/>
     </row>
-    <row r="46" spans="1:20">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>45</v>
       </c>
@@ -2455,7 +1857,7 @@
       <c r="S46" s="2"/>
       <c r="T46" s="2"/>
     </row>
-    <row r="47" spans="1:20">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>46</v>
       </c>
@@ -2481,7 +1883,7 @@
       <c r="S47" s="2"/>
       <c r="T47" s="2"/>
     </row>
-    <row r="48" spans="1:20">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>48</v>
       </c>
@@ -2507,7 +1909,7 @@
       <c r="S48" s="2"/>
       <c r="T48" s="2"/>
     </row>
-    <row r="49" spans="1:20">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>50</v>
       </c>
@@ -2533,7 +1935,7 @@
       <c r="S49" s="2"/>
       <c r="T49" s="2"/>
     </row>
-    <row r="50" spans="1:20">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>51</v>
       </c>
@@ -2559,7 +1961,7 @@
       <c r="S50" s="2"/>
       <c r="T50" s="2"/>
     </row>
-    <row r="51" spans="1:20">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>52</v>
       </c>
@@ -2585,7 +1987,7 @@
       <c r="S51" s="2"/>
       <c r="T51" s="2"/>
     </row>
-    <row r="52" spans="1:20">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>46</v>
       </c>
@@ -2611,7 +2013,7 @@
       <c r="S52" s="2"/>
       <c r="T52" s="2"/>
     </row>
-    <row r="53" spans="1:20">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>23</v>
       </c>
@@ -2637,7 +2039,7 @@
       <c r="S53" s="2"/>
       <c r="T53" s="2"/>
     </row>
-    <row r="54" spans="1:20">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>53</v>
       </c>
@@ -2663,7 +2065,7 @@
       <c r="S54" s="2"/>
       <c r="T54" s="2"/>
     </row>
-    <row r="55" spans="1:20">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>54</v>
       </c>
@@ -2689,7 +2091,7 @@
       <c r="S55" s="2"/>
       <c r="T55" s="2"/>
     </row>
-    <row r="56" spans="1:20">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>54</v>
       </c>
@@ -2715,7 +2117,7 @@
       <c r="S56" s="2"/>
       <c r="T56" s="2"/>
     </row>
-    <row r="57" spans="1:20">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
         <v>55</v>
       </c>
@@ -2741,7 +2143,7 @@
       <c r="S57" s="2"/>
       <c r="T57" s="2"/>
     </row>
-    <row r="58" spans="1:20">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
         <v>57</v>
       </c>
@@ -2767,7 +2169,7 @@
       <c r="S58" s="2"/>
       <c r="T58" s="2"/>
     </row>
-    <row r="59" spans="1:20">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
         <v>7</v>
       </c>
@@ -2793,7 +2195,7 @@
       <c r="S59" s="2"/>
       <c r="T59" s="2"/>
     </row>
-    <row r="60" spans="1:20">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
         <v>25</v>
       </c>
@@ -2819,7 +2221,7 @@
       <c r="S60" s="2"/>
       <c r="T60" s="2"/>
     </row>
-    <row r="61" spans="1:20">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
         <v>59</v>
       </c>
@@ -2845,7 +2247,7 @@
       <c r="S61" s="2"/>
       <c r="T61" s="2"/>
     </row>
-    <row r="62" spans="1:20">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
         <v>60</v>
       </c>
@@ -2871,7 +2273,7 @@
       <c r="S62" s="2"/>
       <c r="T62" s="2"/>
     </row>
-    <row r="63" spans="1:20">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
         <v>62</v>
       </c>
@@ -2897,7 +2299,7 @@
       <c r="S63" s="2"/>
       <c r="T63" s="2"/>
     </row>
-    <row r="64" spans="1:20">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>64</v>
       </c>
@@ -2923,9 +2325,13 @@
       <c r="S64" s="2"/>
       <c r="T64" s="2"/>
     </row>
-    <row r="65" spans="1:20">
-      <c r="A65" s="3"/>
-      <c r="B65" s="3"/>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A65" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>67</v>
+      </c>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
@@ -2945,7 +2351,7 @@
       <c r="S65" s="2"/>
       <c r="T65" s="2"/>
     </row>
-    <row r="66" spans="1:20">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="2"/>
@@ -2967,7 +2373,7 @@
       <c r="S66" s="2"/>
       <c r="T66" s="2"/>
     </row>
-    <row r="67" spans="1:20">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="2"/>
@@ -2989,7 +2395,7 @@
       <c r="S67" s="2"/>
       <c r="T67" s="2"/>
     </row>
-    <row r="68" spans="1:20">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="2"/>
@@ -3011,7 +2417,7 @@
       <c r="S68" s="2"/>
       <c r="T68" s="2"/>
     </row>
-    <row r="69" spans="1:20">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="2"/>
@@ -3033,7 +2439,7 @@
       <c r="S69" s="2"/>
       <c r="T69" s="2"/>
     </row>
-    <row r="70" spans="1:20">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="2"/>
@@ -3055,7 +2461,7 @@
       <c r="S70" s="2"/>
       <c r="T70" s="2"/>
     </row>
-    <row r="71" spans="1:20">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="2"/>
@@ -3077,7 +2483,7 @@
       <c r="S71" s="2"/>
       <c r="T71" s="2"/>
     </row>
-    <row r="72" spans="1:20">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="2"/>
@@ -3099,7 +2505,7 @@
       <c r="S72" s="2"/>
       <c r="T72" s="2"/>
     </row>
-    <row r="73" spans="1:20">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="2"/>
@@ -3121,7 +2527,7 @@
       <c r="S73" s="2"/>
       <c r="T73" s="2"/>
     </row>
-    <row r="74" spans="1:20">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="2"/>
@@ -3143,7 +2549,7 @@
       <c r="S74" s="2"/>
       <c r="T74" s="2"/>
     </row>
-    <row r="75" spans="1:20">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="2"/>
@@ -3165,7 +2571,7 @@
       <c r="S75" s="2"/>
       <c r="T75" s="2"/>
     </row>
-    <row r="76" spans="1:20">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="2"/>
@@ -3187,7 +2593,7 @@
       <c r="S76" s="2"/>
       <c r="T76" s="2"/>
     </row>
-    <row r="77" spans="1:20">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="2"/>
@@ -3209,7 +2615,7 @@
       <c r="S77" s="2"/>
       <c r="T77" s="2"/>
     </row>
-    <row r="78" spans="1:20">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="2"/>
@@ -3231,7 +2637,7 @@
       <c r="S78" s="2"/>
       <c r="T78" s="2"/>
     </row>
-    <row r="79" spans="1:20">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="2"/>
@@ -3253,7 +2659,7 @@
       <c r="S79" s="2"/>
       <c r="T79" s="2"/>
     </row>
-    <row r="80" spans="1:20">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="2"/>
@@ -3275,7 +2681,7 @@
       <c r="S80" s="2"/>
       <c r="T80" s="2"/>
     </row>
-    <row r="81" spans="1:20">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="2"/>
@@ -3297,7 +2703,7 @@
       <c r="S81" s="2"/>
       <c r="T81" s="2"/>
     </row>
-    <row r="82" spans="1:20">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="2"/>
@@ -3319,7 +2725,7 @@
       <c r="S82" s="2"/>
       <c r="T82" s="2"/>
     </row>
-    <row r="83" spans="1:20">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="2"/>
@@ -3341,7 +2747,7 @@
       <c r="S83" s="2"/>
       <c r="T83" s="2"/>
     </row>
-    <row r="84" spans="1:20">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="2"/>
@@ -3363,7 +2769,7 @@
       <c r="S84" s="2"/>
       <c r="T84" s="2"/>
     </row>
-    <row r="85" spans="1:20">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="2"/>
@@ -3385,7 +2791,7 @@
       <c r="S85" s="2"/>
       <c r="T85" s="2"/>
     </row>
-    <row r="86" spans="1:20">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="2"/>
@@ -3407,7 +2813,7 @@
       <c r="S86" s="2"/>
       <c r="T86" s="2"/>
     </row>
-    <row r="87" spans="1:20">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="2"/>
@@ -3429,7 +2835,7 @@
       <c r="S87" s="2"/>
       <c r="T87" s="2"/>
     </row>
-    <row r="88" spans="1:20">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="2"/>
@@ -3451,7 +2857,7 @@
       <c r="S88" s="2"/>
       <c r="T88" s="2"/>
     </row>
-    <row r="89" spans="1:20">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="2"/>
@@ -3473,7 +2879,7 @@
       <c r="S89" s="2"/>
       <c r="T89" s="2"/>
     </row>
-    <row r="90" spans="1:20">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="2"/>
@@ -3495,7 +2901,7 @@
       <c r="S90" s="2"/>
       <c r="T90" s="2"/>
     </row>
-    <row r="91" spans="1:20">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="2"/>
@@ -3517,7 +2923,7 @@
       <c r="S91" s="2"/>
       <c r="T91" s="2"/>
     </row>
-    <row r="92" spans="1:20">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="2"/>
@@ -3539,7 +2945,7 @@
       <c r="S92" s="2"/>
       <c r="T92" s="2"/>
     </row>
-    <row r="93" spans="1:20">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="2"/>
@@ -3561,7 +2967,7 @@
       <c r="S93" s="2"/>
       <c r="T93" s="2"/>
     </row>
-    <row r="94" spans="1:20">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="2"/>
@@ -3583,7 +2989,7 @@
       <c r="S94" s="2"/>
       <c r="T94" s="2"/>
     </row>
-    <row r="95" spans="1:20">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="2"/>
@@ -3605,7 +3011,7 @@
       <c r="S95" s="2"/>
       <c r="T95" s="2"/>
     </row>
-    <row r="96" spans="1:20">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="2"/>
@@ -3627,7 +3033,7 @@
       <c r="S96" s="2"/>
       <c r="T96" s="2"/>
     </row>
-    <row r="97" spans="1:20">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="2"/>
@@ -3649,7 +3055,7 @@
       <c r="S97" s="2"/>
       <c r="T97" s="2"/>
     </row>
-    <row r="98" spans="1:20">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="2"/>
@@ -3671,7 +3077,7 @@
       <c r="S98" s="2"/>
       <c r="T98" s="2"/>
     </row>
-    <row r="99" spans="1:20">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="2"/>
@@ -3693,7 +3099,7 @@
       <c r="S99" s="2"/>
       <c r="T99" s="2"/>
     </row>
-    <row r="100" spans="1:20">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="2"/>
@@ -3715,7 +3121,7 @@
       <c r="S100" s="2"/>
       <c r="T100" s="2"/>
     </row>
-    <row r="101" spans="1:20">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="2"/>
@@ -3737,7 +3143,7 @@
       <c r="S101" s="2"/>
       <c r="T101" s="2"/>
     </row>
-    <row r="102" spans="1:20">
+    <row r="102" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="2"/>
@@ -3759,7 +3165,7 @@
       <c r="S102" s="2"/>
       <c r="T102" s="2"/>
     </row>
-    <row r="103" spans="1:20">
+    <row r="103" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="2"/>
@@ -3781,7 +3187,7 @@
       <c r="S103" s="2"/>
       <c r="T103" s="2"/>
     </row>
-    <row r="104" spans="1:20">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="2"/>
@@ -3803,7 +3209,7 @@
       <c r="S104" s="2"/>
       <c r="T104" s="2"/>
     </row>
-    <row r="105" spans="1:20">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="2"/>
@@ -3825,7 +3231,7 @@
       <c r="S105" s="2"/>
       <c r="T105" s="2"/>
     </row>
-    <row r="106" spans="1:20">
+    <row r="106" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="2"/>
@@ -3847,7 +3253,7 @@
       <c r="S106" s="2"/>
       <c r="T106" s="2"/>
     </row>
-    <row r="107" spans="1:20">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="2"/>
@@ -3869,7 +3275,7 @@
       <c r="S107" s="2"/>
       <c r="T107" s="2"/>
     </row>
-    <row r="108" spans="1:20">
+    <row r="108" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="2"/>
@@ -3891,7 +3297,7 @@
       <c r="S108" s="2"/>
       <c r="T108" s="2"/>
     </row>
-    <row r="109" spans="1:20">
+    <row r="109" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="2"/>
@@ -3913,7 +3319,7 @@
       <c r="S109" s="2"/>
       <c r="T109" s="2"/>
     </row>
-    <row r="110" spans="1:20">
+    <row r="110" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="2"/>
@@ -3935,7 +3341,7 @@
       <c r="S110" s="2"/>
       <c r="T110" s="2"/>
     </row>
-    <row r="111" spans="1:20">
+    <row r="111" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="2"/>
@@ -3957,7 +3363,7 @@
       <c r="S111" s="2"/>
       <c r="T111" s="2"/>
     </row>
-    <row r="112" spans="1:20">
+    <row r="112" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="2"/>
@@ -3979,7 +3385,7 @@
       <c r="S112" s="2"/>
       <c r="T112" s="2"/>
     </row>
-    <row r="113" spans="1:20">
+    <row r="113" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="2"/>
@@ -4001,7 +3407,7 @@
       <c r="S113" s="2"/>
       <c r="T113" s="2"/>
     </row>
-    <row r="114" spans="1:20">
+    <row r="114" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="2"/>
@@ -4023,7 +3429,7 @@
       <c r="S114" s="2"/>
       <c r="T114" s="2"/>
     </row>
-    <row r="115" spans="1:20">
+    <row r="115" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="2"/>
@@ -4045,7 +3451,7 @@
       <c r="S115" s="2"/>
       <c r="T115" s="2"/>
     </row>
-    <row r="116" spans="1:20">
+    <row r="116" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="2"/>
@@ -4067,7 +3473,7 @@
       <c r="S116" s="2"/>
       <c r="T116" s="2"/>
     </row>
-    <row r="117" spans="1:20">
+    <row r="117" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="2"/>
@@ -4089,7 +3495,7 @@
       <c r="S117" s="2"/>
       <c r="T117" s="2"/>
     </row>
-    <row r="118" spans="1:20">
+    <row r="118" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="2"/>
@@ -4111,7 +3517,7 @@
       <c r="S118" s="2"/>
       <c r="T118" s="2"/>
     </row>
-    <row r="119" spans="1:20">
+    <row r="119" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="2"/>
@@ -4133,7 +3539,7 @@
       <c r="S119" s="2"/>
       <c r="T119" s="2"/>
     </row>
-    <row r="120" spans="1:20">
+    <row r="120" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="2"/>
@@ -4155,7 +3561,7 @@
       <c r="S120" s="2"/>
       <c r="T120" s="2"/>
     </row>
-    <row r="121" spans="1:20">
+    <row r="121" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="2"/>
@@ -4177,7 +3583,7 @@
       <c r="S121" s="2"/>
       <c r="T121" s="2"/>
     </row>
-    <row r="122" spans="1:20">
+    <row r="122" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="2"/>
@@ -4199,7 +3605,7 @@
       <c r="S122" s="2"/>
       <c r="T122" s="2"/>
     </row>
-    <row r="123" spans="1:20">
+    <row r="123" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="2"/>
@@ -4221,7 +3627,7 @@
       <c r="S123" s="2"/>
       <c r="T123" s="2"/>
     </row>
-    <row r="124" spans="1:20">
+    <row r="124" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="2"/>
@@ -4243,7 +3649,7 @@
       <c r="S124" s="2"/>
       <c r="T124" s="2"/>
     </row>
-    <row r="125" spans="1:20">
+    <row r="125" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="2"/>
@@ -4265,7 +3671,7 @@
       <c r="S125" s="2"/>
       <c r="T125" s="2"/>
     </row>
-    <row r="126" spans="1:20">
+    <row r="126" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="2"/>
@@ -4287,7 +3693,7 @@
       <c r="S126" s="2"/>
       <c r="T126" s="2"/>
     </row>
-    <row r="127" spans="1:20">
+    <row r="127" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="2"/>
@@ -4309,7 +3715,7 @@
       <c r="S127" s="2"/>
       <c r="T127" s="2"/>
     </row>
-    <row r="128" spans="1:20">
+    <row r="128" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="2"/>
@@ -4331,7 +3737,7 @@
       <c r="S128" s="2"/>
       <c r="T128" s="2"/>
     </row>
-    <row r="129" spans="1:20">
+    <row r="129" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="2"/>
@@ -4353,7 +3759,7 @@
       <c r="S129" s="2"/>
       <c r="T129" s="2"/>
     </row>
-    <row r="130" spans="1:20">
+    <row r="130" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="2"/>
@@ -4375,7 +3781,7 @@
       <c r="S130" s="2"/>
       <c r="T130" s="2"/>
     </row>
-    <row r="131" spans="1:20">
+    <row r="131" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="2"/>
@@ -4397,7 +3803,7 @@
       <c r="S131" s="2"/>
       <c r="T131" s="2"/>
     </row>
-    <row r="132" spans="1:20">
+    <row r="132" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="2"/>
@@ -4419,7 +3825,7 @@
       <c r="S132" s="2"/>
       <c r="T132" s="2"/>
     </row>
-    <row r="133" spans="1:20">
+    <row r="133" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="2"/>
@@ -4441,7 +3847,7 @@
       <c r="S133" s="2"/>
       <c r="T133" s="2"/>
     </row>
-    <row r="134" spans="1:20">
+    <row r="134" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="2"/>
@@ -4463,7 +3869,7 @@
       <c r="S134" s="2"/>
       <c r="T134" s="2"/>
     </row>
-    <row r="135" spans="1:20">
+    <row r="135" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="2"/>
@@ -4485,7 +3891,7 @@
       <c r="S135" s="2"/>
       <c r="T135" s="2"/>
     </row>
-    <row r="136" spans="1:20">
+    <row r="136" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="2"/>
@@ -4507,7 +3913,7 @@
       <c r="S136" s="2"/>
       <c r="T136" s="2"/>
     </row>
-    <row r="137" spans="1:20">
+    <row r="137" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="2"/>
@@ -4529,7 +3935,7 @@
       <c r="S137" s="2"/>
       <c r="T137" s="2"/>
     </row>
-    <row r="138" spans="1:20">
+    <row r="138" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="2"/>
@@ -4551,7 +3957,7 @@
       <c r="S138" s="2"/>
       <c r="T138" s="2"/>
     </row>
-    <row r="139" spans="1:20">
+    <row r="139" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="2"/>
@@ -4573,7 +3979,7 @@
       <c r="S139" s="2"/>
       <c r="T139" s="2"/>
     </row>
-    <row r="140" spans="1:20">
+    <row r="140" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="2"/>
@@ -4595,7 +4001,7 @@
       <c r="S140" s="2"/>
       <c r="T140" s="2"/>
     </row>
-    <row r="141" spans="1:20">
+    <row r="141" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="2"/>
@@ -4617,7 +4023,7 @@
       <c r="S141" s="2"/>
       <c r="T141" s="2"/>
     </row>
-    <row r="142" spans="1:20">
+    <row r="142" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="2"/>
@@ -4639,7 +4045,7 @@
       <c r="S142" s="2"/>
       <c r="T142" s="2"/>
     </row>
-    <row r="143" spans="1:20">
+    <row r="143" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="2"/>
@@ -4661,7 +4067,7 @@
       <c r="S143" s="2"/>
       <c r="T143" s="2"/>
     </row>
-    <row r="144" spans="1:20">
+    <row r="144" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="2"/>
@@ -4683,7 +4089,7 @@
       <c r="S144" s="2"/>
       <c r="T144" s="2"/>
     </row>
-    <row r="145" spans="1:20">
+    <row r="145" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="2"/>
@@ -4705,7 +4111,7 @@
       <c r="S145" s="2"/>
       <c r="T145" s="2"/>
     </row>
-    <row r="146" spans="1:20">
+    <row r="146" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="2"/>
@@ -4727,7 +4133,7 @@
       <c r="S146" s="2"/>
       <c r="T146" s="2"/>
     </row>
-    <row r="147" spans="1:20">
+    <row r="147" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="2"/>
@@ -4749,7 +4155,7 @@
       <c r="S147" s="2"/>
       <c r="T147" s="2"/>
     </row>
-    <row r="148" spans="1:20">
+    <row r="148" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="2"/>
@@ -4771,7 +4177,7 @@
       <c r="S148" s="2"/>
       <c r="T148" s="2"/>
     </row>
-    <row r="149" spans="1:20">
+    <row r="149" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="2"/>
@@ -4793,7 +4199,7 @@
       <c r="S149" s="2"/>
       <c r="T149" s="2"/>
     </row>
-    <row r="150" spans="1:20">
+    <row r="150" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="2"/>
@@ -4815,7 +4221,7 @@
       <c r="S150" s="2"/>
       <c r="T150" s="2"/>
     </row>
-    <row r="151" spans="1:20">
+    <row r="151" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="2"/>
@@ -4837,7 +4243,7 @@
       <c r="S151" s="2"/>
       <c r="T151" s="2"/>
     </row>
-    <row r="152" spans="1:20">
+    <row r="152" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="2"/>
@@ -4859,7 +4265,7 @@
       <c r="S152" s="2"/>
       <c r="T152" s="2"/>
     </row>
-    <row r="153" spans="1:20">
+    <row r="153" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="2"/>
@@ -4881,7 +4287,7 @@
       <c r="S153" s="2"/>
       <c r="T153" s="2"/>
     </row>
-    <row r="154" spans="1:20">
+    <row r="154" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="2"/>
@@ -4903,7 +4309,7 @@
       <c r="S154" s="2"/>
       <c r="T154" s="2"/>
     </row>
-    <row r="155" spans="1:20">
+    <row r="155" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="2"/>
@@ -4925,7 +4331,7 @@
       <c r="S155" s="2"/>
       <c r="T155" s="2"/>
     </row>
-    <row r="156" spans="1:20">
+    <row r="156" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="2"/>
@@ -4947,7 +4353,7 @@
       <c r="S156" s="2"/>
       <c r="T156" s="2"/>
     </row>
-    <row r="157" spans="1:20">
+    <row r="157" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="2"/>
@@ -4969,7 +4375,7 @@
       <c r="S157" s="2"/>
       <c r="T157" s="2"/>
     </row>
-    <row r="158" spans="1:20">
+    <row r="158" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="2"/>
@@ -4991,7 +4397,7 @@
       <c r="S158" s="2"/>
       <c r="T158" s="2"/>
     </row>
-    <row r="159" spans="1:20">
+    <row r="159" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="2"/>
@@ -5013,7 +4419,7 @@
       <c r="S159" s="2"/>
       <c r="T159" s="2"/>
     </row>
-    <row r="160" spans="1:20">
+    <row r="160" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="2"/>
@@ -5035,7 +4441,7 @@
       <c r="S160" s="2"/>
       <c r="T160" s="2"/>
     </row>
-    <row r="161" spans="1:20">
+    <row r="161" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="2"/>
@@ -5057,7 +4463,7 @@
       <c r="S161" s="2"/>
       <c r="T161" s="2"/>
     </row>
-    <row r="162" spans="1:20">
+    <row r="162" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
       <c r="C162" s="2"/>
@@ -5079,7 +4485,7 @@
       <c r="S162" s="2"/>
       <c r="T162" s="2"/>
     </row>
-    <row r="163" spans="1:20">
+    <row r="163" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
       <c r="C163" s="2"/>
@@ -5101,7 +4507,7 @@
       <c r="S163" s="2"/>
       <c r="T163" s="2"/>
     </row>
-    <row r="164" spans="1:20">
+    <row r="164" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
       <c r="C164" s="2"/>
@@ -5123,7 +4529,7 @@
       <c r="S164" s="2"/>
       <c r="T164" s="2"/>
     </row>
-    <row r="165" spans="1:20">
+    <row r="165" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
       <c r="C165" s="2"/>
@@ -5145,7 +4551,7 @@
       <c r="S165" s="2"/>
       <c r="T165" s="2"/>
     </row>
-    <row r="166" spans="1:20">
+    <row r="166" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
       <c r="C166" s="2"/>
@@ -5167,7 +4573,7 @@
       <c r="S166" s="2"/>
       <c r="T166" s="2"/>
     </row>
-    <row r="167" spans="1:20">
+    <row r="167" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
       <c r="C167" s="2"/>
@@ -5189,7 +4595,7 @@
       <c r="S167" s="2"/>
       <c r="T167" s="2"/>
     </row>
-    <row r="168" spans="1:20">
+    <row r="168" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
       <c r="C168" s="2"/>
@@ -5211,7 +4617,7 @@
       <c r="S168" s="2"/>
       <c r="T168" s="2"/>
     </row>
-    <row r="169" spans="1:20">
+    <row r="169" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
       <c r="C169" s="2"/>
@@ -5233,7 +4639,7 @@
       <c r="S169" s="2"/>
       <c r="T169" s="2"/>
     </row>
-    <row r="170" spans="1:20">
+    <row r="170" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
       <c r="C170" s="2"/>
@@ -5255,7 +4661,7 @@
       <c r="S170" s="2"/>
       <c r="T170" s="2"/>
     </row>
-    <row r="171" spans="1:20">
+    <row r="171" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
       <c r="C171" s="2"/>
@@ -5277,7 +4683,7 @@
       <c r="S171" s="2"/>
       <c r="T171" s="2"/>
     </row>
-    <row r="172" spans="1:20">
+    <row r="172" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
       <c r="C172" s="2"/>
@@ -5299,7 +4705,7 @@
       <c r="S172" s="2"/>
       <c r="T172" s="2"/>
     </row>
-    <row r="173" spans="1:20">
+    <row r="173" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
       <c r="C173" s="2"/>
@@ -5321,7 +4727,7 @@
       <c r="S173" s="2"/>
       <c r="T173" s="2"/>
     </row>
-    <row r="174" spans="1:20">
+    <row r="174" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A174" s="3"/>
       <c r="B174" s="3"/>
       <c r="C174" s="2"/>
@@ -5343,7 +4749,7 @@
       <c r="S174" s="2"/>
       <c r="T174" s="2"/>
     </row>
-    <row r="175" spans="1:20">
+    <row r="175" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="C175" s="2"/>
@@ -5365,7 +4771,7 @@
       <c r="S175" s="2"/>
       <c r="T175" s="2"/>
     </row>
-    <row r="176" spans="1:20">
+    <row r="176" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="C176" s="2"/>
@@ -5387,7 +4793,7 @@
       <c r="S176" s="2"/>
       <c r="T176" s="2"/>
     </row>
-    <row r="177" spans="1:20">
+    <row r="177" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="C177" s="2"/>
@@ -5409,7 +4815,7 @@
       <c r="S177" s="2"/>
       <c r="T177" s="2"/>
     </row>
-    <row r="178" spans="1:20">
+    <row r="178" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="C178" s="2"/>
@@ -5431,7 +4837,7 @@
       <c r="S178" s="2"/>
       <c r="T178" s="2"/>
     </row>
-    <row r="179" spans="1:20">
+    <row r="179" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A179" s="3"/>
       <c r="B179" s="3"/>
       <c r="C179" s="2"/>
@@ -5453,7 +4859,7 @@
       <c r="S179" s="2"/>
       <c r="T179" s="2"/>
     </row>
-    <row r="180" spans="1:20">
+    <row r="180" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A180" s="3"/>
       <c r="B180" s="3"/>
       <c r="C180" s="2"/>
@@ -5475,7 +4881,7 @@
       <c r="S180" s="2"/>
       <c r="T180" s="2"/>
     </row>
-    <row r="181" spans="1:20">
+    <row r="181" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A181" s="3"/>
       <c r="B181" s="3"/>
       <c r="C181" s="2"/>
@@ -5497,7 +4903,7 @@
       <c r="S181" s="2"/>
       <c r="T181" s="2"/>
     </row>
-    <row r="182" spans="1:20">
+    <row r="182" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A182" s="3"/>
       <c r="B182" s="3"/>
       <c r="C182" s="2"/>
@@ -5519,7 +4925,7 @@
       <c r="S182" s="2"/>
       <c r="T182" s="2"/>
     </row>
-    <row r="183" spans="1:20">
+    <row r="183" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A183" s="3"/>
       <c r="B183" s="3"/>
       <c r="C183" s="2"/>
@@ -5541,7 +4947,7 @@
       <c r="S183" s="2"/>
       <c r="T183" s="2"/>
     </row>
-    <row r="184" spans="1:20">
+    <row r="184" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A184" s="3"/>
       <c r="B184" s="3"/>
       <c r="C184" s="2"/>
@@ -5563,7 +4969,7 @@
       <c r="S184" s="2"/>
       <c r="T184" s="2"/>
     </row>
-    <row r="185" spans="1:20">
+    <row r="185" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A185" s="3"/>
       <c r="B185" s="3"/>
       <c r="C185" s="2"/>
@@ -5585,7 +4991,7 @@
       <c r="S185" s="2"/>
       <c r="T185" s="2"/>
     </row>
-    <row r="186" spans="1:20">
+    <row r="186" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A186" s="3"/>
       <c r="B186" s="3"/>
       <c r="C186" s="2"/>
@@ -5607,7 +5013,7 @@
       <c r="S186" s="2"/>
       <c r="T186" s="2"/>
     </row>
-    <row r="187" spans="1:20">
+    <row r="187" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A187" s="3"/>
       <c r="B187" s="3"/>
       <c r="C187" s="2"/>
@@ -5629,7 +5035,7 @@
       <c r="S187" s="2"/>
       <c r="T187" s="2"/>
     </row>
-    <row r="188" spans="1:20">
+    <row r="188" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A188" s="3"/>
       <c r="B188" s="3"/>
       <c r="C188" s="2"/>
@@ -5651,7 +5057,7 @@
       <c r="S188" s="2"/>
       <c r="T188" s="2"/>
     </row>
-    <row r="189" spans="1:20">
+    <row r="189" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A189" s="3"/>
       <c r="B189" s="3"/>
       <c r="C189" s="2"/>
@@ -5673,7 +5079,7 @@
       <c r="S189" s="2"/>
       <c r="T189" s="2"/>
     </row>
-    <row r="190" spans="1:20">
+    <row r="190" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A190" s="3"/>
       <c r="B190" s="3"/>
       <c r="C190" s="2"/>
@@ -5695,7 +5101,7 @@
       <c r="S190" s="2"/>
       <c r="T190" s="2"/>
     </row>
-    <row r="191" spans="1:20">
+    <row r="191" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A191" s="3"/>
       <c r="B191" s="3"/>
       <c r="C191" s="2"/>
@@ -5717,7 +5123,7 @@
       <c r="S191" s="2"/>
       <c r="T191" s="2"/>
     </row>
-    <row r="192" spans="1:20">
+    <row r="192" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A192" s="3"/>
       <c r="B192" s="3"/>
       <c r="C192" s="2"/>
@@ -5739,7 +5145,7 @@
       <c r="S192" s="2"/>
       <c r="T192" s="2"/>
     </row>
-    <row r="193" spans="1:20">
+    <row r="193" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A193" s="3"/>
       <c r="B193" s="3"/>
       <c r="C193" s="2"/>
@@ -5761,7 +5167,7 @@
       <c r="S193" s="2"/>
       <c r="T193" s="2"/>
     </row>
-    <row r="194" spans="1:20">
+    <row r="194" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A194" s="3"/>
       <c r="B194" s="3"/>
       <c r="C194" s="2"/>
@@ -5783,7 +5189,7 @@
       <c r="S194" s="2"/>
       <c r="T194" s="2"/>
     </row>
-    <row r="195" spans="1:20">
+    <row r="195" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A195" s="3"/>
       <c r="B195" s="3"/>
       <c r="C195" s="2"/>
@@ -5805,7 +5211,7 @@
       <c r="S195" s="2"/>
       <c r="T195" s="2"/>
     </row>
-    <row r="196" spans="1:20">
+    <row r="196" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A196" s="3"/>
       <c r="B196" s="3"/>
       <c r="C196" s="2"/>
@@ -5827,7 +5233,7 @@
       <c r="S196" s="2"/>
       <c r="T196" s="2"/>
     </row>
-    <row r="197" spans="1:20">
+    <row r="197" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A197" s="3"/>
       <c r="B197" s="3"/>
       <c r="C197" s="2"/>
@@ -5849,7 +5255,7 @@
       <c r="S197" s="2"/>
       <c r="T197" s="2"/>
     </row>
-    <row r="198" spans="1:20">
+    <row r="198" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A198" s="3"/>
       <c r="B198" s="3"/>
       <c r="C198" s="2"/>
@@ -5871,7 +5277,7 @@
       <c r="S198" s="2"/>
       <c r="T198" s="2"/>
     </row>
-    <row r="199" spans="1:20">
+    <row r="199" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A199" s="3"/>
       <c r="B199" s="3"/>
       <c r="C199" s="2"/>
@@ -5893,7 +5299,7 @@
       <c r="S199" s="2"/>
       <c r="T199" s="2"/>
     </row>
-    <row r="200" spans="1:20">
+    <row r="200" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A200" s="3"/>
       <c r="B200" s="3"/>
       <c r="C200" s="2"/>
@@ -5916,7 +5322,7 @@
       <c r="T200" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/许愿墙.xlsx
+++ b/许愿墙.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\桌面\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\桌面\get_jobs-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3932C32-3F17-47BC-A4A1-2F2E14D69E4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42460E9E-BD28-4F52-851C-09E84C4D3CE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="69">
   <si>
     <t>你想找什么样的工作？</t>
   </si>
@@ -238,6 +238,10 @@
   </si>
   <si>
     <t>已经通知面试了</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>运维开发</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -651,17 +655,17 @@
   </sheetPr>
   <dimension ref="A1:T200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="74" customWidth="1"/>
     <col min="2" max="2" width="54" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -687,7 +691,7 @@
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -713,7 +717,7 @@
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -739,7 +743,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -765,7 +769,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -791,7 +795,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -817,7 +821,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
@@ -843,7 +847,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
@@ -869,7 +873,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
@@ -895,7 +899,7 @@
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>13</v>
       </c>
@@ -921,7 +925,7 @@
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
@@ -947,7 +951,7 @@
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>16</v>
       </c>
@@ -973,7 +977,7 @@
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>18</v>
       </c>
@@ -999,7 +1003,7 @@
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>20</v>
       </c>
@@ -1025,7 +1029,7 @@
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>18</v>
       </c>
@@ -1051,7 +1055,7 @@
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>23</v>
       </c>
@@ -1077,7 +1081,7 @@
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>25</v>
       </c>
@@ -1103,7 +1107,7 @@
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>26</v>
       </c>
@@ -1129,7 +1133,7 @@
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>27</v>
       </c>
@@ -1155,7 +1159,7 @@
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>28</v>
       </c>
@@ -1181,7 +1185,7 @@
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>10</v>
       </c>
@@ -1207,7 +1211,7 @@
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>29</v>
       </c>
@@ -1233,7 +1237,7 @@
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>30</v>
       </c>
@@ -1259,7 +1263,7 @@
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>31</v>
       </c>
@@ -1285,7 +1289,7 @@
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>25</v>
       </c>
@@ -1311,7 +1315,7 @@
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>25</v>
       </c>
@@ -1337,7 +1341,7 @@
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>26</v>
       </c>
@@ -1363,7 +1367,7 @@
       <c r="S27" s="2"/>
       <c r="T27" s="2"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>32</v>
       </c>
@@ -1389,7 +1393,7 @@
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>33</v>
       </c>
@@ -1415,7 +1419,7 @@
       <c r="S29" s="2"/>
       <c r="T29" s="2"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>14</v>
       </c>
@@ -1441,7 +1445,7 @@
       <c r="S30" s="2"/>
       <c r="T30" s="2"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>35</v>
       </c>
@@ -1467,7 +1471,7 @@
       <c r="S31" s="2"/>
       <c r="T31" s="2"/>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>25</v>
       </c>
@@ -1493,7 +1497,7 @@
       <c r="S32" s="2"/>
       <c r="T32" s="2"/>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>23</v>
       </c>
@@ -1519,7 +1523,7 @@
       <c r="S33" s="2"/>
       <c r="T33" s="2"/>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>37</v>
       </c>
@@ -1545,7 +1549,7 @@
       <c r="S34" s="2"/>
       <c r="T34" s="2"/>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>38</v>
       </c>
@@ -1571,7 +1575,7 @@
       <c r="S35" s="2"/>
       <c r="T35" s="2"/>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>26</v>
       </c>
@@ -1597,7 +1601,7 @@
       <c r="S36" s="2"/>
       <c r="T36" s="2"/>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>23</v>
       </c>
@@ -1623,7 +1627,7 @@
       <c r="S37" s="2"/>
       <c r="T37" s="2"/>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>4</v>
       </c>
@@ -1649,7 +1653,7 @@
       <c r="S38" s="2"/>
       <c r="T38" s="2"/>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>30</v>
       </c>
@@ -1675,7 +1679,7 @@
       <c r="S39" s="2"/>
       <c r="T39" s="2"/>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>26</v>
       </c>
@@ -1701,7 +1705,7 @@
       <c r="S40" s="2"/>
       <c r="T40" s="2"/>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>41</v>
       </c>
@@ -1727,7 +1731,7 @@
       <c r="S41" s="2"/>
       <c r="T41" s="2"/>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>42</v>
       </c>
@@ -1753,7 +1757,7 @@
       <c r="S42" s="2"/>
       <c r="T42" s="2"/>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>43</v>
       </c>
@@ -1779,7 +1783,7 @@
       <c r="S43" s="2"/>
       <c r="T43" s="2"/>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>23</v>
       </c>
@@ -1805,7 +1809,7 @@
       <c r="S44" s="2"/>
       <c r="T44" s="2"/>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>44</v>
       </c>
@@ -1831,7 +1835,7 @@
       <c r="S45" s="2"/>
       <c r="T45" s="2"/>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>45</v>
       </c>
@@ -1857,7 +1861,7 @@
       <c r="S46" s="2"/>
       <c r="T46" s="2"/>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>46</v>
       </c>
@@ -1883,7 +1887,7 @@
       <c r="S47" s="2"/>
       <c r="T47" s="2"/>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>48</v>
       </c>
@@ -1909,7 +1913,7 @@
       <c r="S48" s="2"/>
       <c r="T48" s="2"/>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>50</v>
       </c>
@@ -1935,7 +1939,7 @@
       <c r="S49" s="2"/>
       <c r="T49" s="2"/>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>51</v>
       </c>
@@ -1961,7 +1965,7 @@
       <c r="S50" s="2"/>
       <c r="T50" s="2"/>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>52</v>
       </c>
@@ -1987,7 +1991,7 @@
       <c r="S51" s="2"/>
       <c r="T51" s="2"/>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>46</v>
       </c>
@@ -2013,7 +2017,7 @@
       <c r="S52" s="2"/>
       <c r="T52" s="2"/>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>23</v>
       </c>
@@ -2039,7 +2043,7 @@
       <c r="S53" s="2"/>
       <c r="T53" s="2"/>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>53</v>
       </c>
@@ -2065,7 +2069,7 @@
       <c r="S54" s="2"/>
       <c r="T54" s="2"/>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>54</v>
       </c>
@@ -2091,7 +2095,7 @@
       <c r="S55" s="2"/>
       <c r="T55" s="2"/>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>54</v>
       </c>
@@ -2117,7 +2121,7 @@
       <c r="S56" s="2"/>
       <c r="T56" s="2"/>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>55</v>
       </c>
@@ -2143,7 +2147,7 @@
       <c r="S57" s="2"/>
       <c r="T57" s="2"/>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>57</v>
       </c>
@@ -2169,7 +2173,7 @@
       <c r="S58" s="2"/>
       <c r="T58" s="2"/>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>7</v>
       </c>
@@ -2195,7 +2199,7 @@
       <c r="S59" s="2"/>
       <c r="T59" s="2"/>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>25</v>
       </c>
@@ -2221,7 +2225,7 @@
       <c r="S60" s="2"/>
       <c r="T60" s="2"/>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>59</v>
       </c>
@@ -2247,7 +2251,7 @@
       <c r="S61" s="2"/>
       <c r="T61" s="2"/>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>60</v>
       </c>
@@ -2273,7 +2277,7 @@
       <c r="S62" s="2"/>
       <c r="T62" s="2"/>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>62</v>
       </c>
@@ -2299,7 +2303,7 @@
       <c r="S63" s="2"/>
       <c r="T63" s="2"/>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>64</v>
       </c>
@@ -2325,7 +2329,7 @@
       <c r="S64" s="2"/>
       <c r="T64" s="2"/>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
         <v>66</v>
       </c>
@@ -2351,9 +2355,13 @@
       <c r="S65" s="2"/>
       <c r="T65" s="2"/>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A66" s="3"/>
-      <c r="B66" s="3"/>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A66" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
@@ -2373,7 +2381,7 @@
       <c r="S66" s="2"/>
       <c r="T66" s="2"/>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="2"/>
@@ -2395,7 +2403,7 @@
       <c r="S67" s="2"/>
       <c r="T67" s="2"/>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="2"/>
@@ -2417,7 +2425,7 @@
       <c r="S68" s="2"/>
       <c r="T68" s="2"/>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="2"/>
@@ -2439,7 +2447,7 @@
       <c r="S69" s="2"/>
       <c r="T69" s="2"/>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="2"/>
@@ -2461,7 +2469,7 @@
       <c r="S70" s="2"/>
       <c r="T70" s="2"/>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="2"/>
@@ -2483,7 +2491,7 @@
       <c r="S71" s="2"/>
       <c r="T71" s="2"/>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="2"/>
@@ -2505,7 +2513,7 @@
       <c r="S72" s="2"/>
       <c r="T72" s="2"/>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="2"/>
@@ -2527,7 +2535,7 @@
       <c r="S73" s="2"/>
       <c r="T73" s="2"/>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="2"/>
@@ -2549,7 +2557,7 @@
       <c r="S74" s="2"/>
       <c r="T74" s="2"/>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="2"/>
@@ -2571,7 +2579,7 @@
       <c r="S75" s="2"/>
       <c r="T75" s="2"/>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="2"/>
@@ -2593,7 +2601,7 @@
       <c r="S76" s="2"/>
       <c r="T76" s="2"/>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="2"/>
@@ -2615,7 +2623,7 @@
       <c r="S77" s="2"/>
       <c r="T77" s="2"/>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="2"/>
@@ -2637,7 +2645,7 @@
       <c r="S78" s="2"/>
       <c r="T78" s="2"/>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="2"/>
@@ -2659,7 +2667,7 @@
       <c r="S79" s="2"/>
       <c r="T79" s="2"/>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="2"/>
@@ -2681,7 +2689,7 @@
       <c r="S80" s="2"/>
       <c r="T80" s="2"/>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="2"/>
@@ -2703,7 +2711,7 @@
       <c r="S81" s="2"/>
       <c r="T81" s="2"/>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="2"/>
@@ -2725,7 +2733,7 @@
       <c r="S82" s="2"/>
       <c r="T82" s="2"/>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="2"/>
@@ -2747,7 +2755,7 @@
       <c r="S83" s="2"/>
       <c r="T83" s="2"/>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="2"/>
@@ -2769,7 +2777,7 @@
       <c r="S84" s="2"/>
       <c r="T84" s="2"/>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="2"/>
@@ -2791,7 +2799,7 @@
       <c r="S85" s="2"/>
       <c r="T85" s="2"/>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="2"/>
@@ -2813,7 +2821,7 @@
       <c r="S86" s="2"/>
       <c r="T86" s="2"/>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="2"/>
@@ -2835,7 +2843,7 @@
       <c r="S87" s="2"/>
       <c r="T87" s="2"/>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="2"/>
@@ -2857,7 +2865,7 @@
       <c r="S88" s="2"/>
       <c r="T88" s="2"/>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="2"/>
@@ -2879,7 +2887,7 @@
       <c r="S89" s="2"/>
       <c r="T89" s="2"/>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="2"/>
@@ -2901,7 +2909,7 @@
       <c r="S90" s="2"/>
       <c r="T90" s="2"/>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="2"/>
@@ -2923,7 +2931,7 @@
       <c r="S91" s="2"/>
       <c r="T91" s="2"/>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="2"/>
@@ -2945,7 +2953,7 @@
       <c r="S92" s="2"/>
       <c r="T92" s="2"/>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="2"/>
@@ -2967,7 +2975,7 @@
       <c r="S93" s="2"/>
       <c r="T93" s="2"/>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="2"/>
@@ -2989,7 +2997,7 @@
       <c r="S94" s="2"/>
       <c r="T94" s="2"/>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="2"/>
@@ -3011,7 +3019,7 @@
       <c r="S95" s="2"/>
       <c r="T95" s="2"/>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="2"/>
@@ -3033,7 +3041,7 @@
       <c r="S96" s="2"/>
       <c r="T96" s="2"/>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="2"/>
@@ -3055,7 +3063,7 @@
       <c r="S97" s="2"/>
       <c r="T97" s="2"/>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="2"/>
@@ -3077,7 +3085,7 @@
       <c r="S98" s="2"/>
       <c r="T98" s="2"/>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="2"/>
@@ -3099,7 +3107,7 @@
       <c r="S99" s="2"/>
       <c r="T99" s="2"/>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="2"/>
@@ -3121,7 +3129,7 @@
       <c r="S100" s="2"/>
       <c r="T100" s="2"/>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="2"/>
@@ -3143,7 +3151,7 @@
       <c r="S101" s="2"/>
       <c r="T101" s="2"/>
     </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="2"/>
@@ -3165,7 +3173,7 @@
       <c r="S102" s="2"/>
       <c r="T102" s="2"/>
     </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="2"/>
@@ -3187,7 +3195,7 @@
       <c r="S103" s="2"/>
       <c r="T103" s="2"/>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="2"/>
@@ -3209,7 +3217,7 @@
       <c r="S104" s="2"/>
       <c r="T104" s="2"/>
     </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="2"/>
@@ -3231,7 +3239,7 @@
       <c r="S105" s="2"/>
       <c r="T105" s="2"/>
     </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="2"/>
@@ -3253,7 +3261,7 @@
       <c r="S106" s="2"/>
       <c r="T106" s="2"/>
     </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="2"/>
@@ -3275,7 +3283,7 @@
       <c r="S107" s="2"/>
       <c r="T107" s="2"/>
     </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="2"/>
@@ -3297,7 +3305,7 @@
       <c r="S108" s="2"/>
       <c r="T108" s="2"/>
     </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="2"/>
@@ -3319,7 +3327,7 @@
       <c r="S109" s="2"/>
       <c r="T109" s="2"/>
     </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="2"/>
@@ -3341,7 +3349,7 @@
       <c r="S110" s="2"/>
       <c r="T110" s="2"/>
     </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="2"/>
@@ -3363,7 +3371,7 @@
       <c r="S111" s="2"/>
       <c r="T111" s="2"/>
     </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="2"/>
@@ -3385,7 +3393,7 @@
       <c r="S112" s="2"/>
       <c r="T112" s="2"/>
     </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="2"/>
@@ -3407,7 +3415,7 @@
       <c r="S113" s="2"/>
       <c r="T113" s="2"/>
     </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="2"/>
@@ -3429,7 +3437,7 @@
       <c r="S114" s="2"/>
       <c r="T114" s="2"/>
     </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="2"/>
@@ -3451,7 +3459,7 @@
       <c r="S115" s="2"/>
       <c r="T115" s="2"/>
     </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="2"/>
@@ -3473,7 +3481,7 @@
       <c r="S116" s="2"/>
       <c r="T116" s="2"/>
     </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="2"/>
@@ -3495,7 +3503,7 @@
       <c r="S117" s="2"/>
       <c r="T117" s="2"/>
     </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="2"/>
@@ -3517,7 +3525,7 @@
       <c r="S118" s="2"/>
       <c r="T118" s="2"/>
     </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="2"/>
@@ -3539,7 +3547,7 @@
       <c r="S119" s="2"/>
       <c r="T119" s="2"/>
     </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="2"/>
@@ -3561,7 +3569,7 @@
       <c r="S120" s="2"/>
       <c r="T120" s="2"/>
     </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="2"/>
@@ -3583,7 +3591,7 @@
       <c r="S121" s="2"/>
       <c r="T121" s="2"/>
     </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="2"/>
@@ -3605,7 +3613,7 @@
       <c r="S122" s="2"/>
       <c r="T122" s="2"/>
     </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="2"/>
@@ -3627,7 +3635,7 @@
       <c r="S123" s="2"/>
       <c r="T123" s="2"/>
     </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="2"/>
@@ -3649,7 +3657,7 @@
       <c r="S124" s="2"/>
       <c r="T124" s="2"/>
     </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="2"/>
@@ -3671,7 +3679,7 @@
       <c r="S125" s="2"/>
       <c r="T125" s="2"/>
     </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="2"/>
@@ -3693,7 +3701,7 @@
       <c r="S126" s="2"/>
       <c r="T126" s="2"/>
     </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="2"/>
@@ -3715,7 +3723,7 @@
       <c r="S127" s="2"/>
       <c r="T127" s="2"/>
     </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="2"/>
@@ -3737,7 +3745,7 @@
       <c r="S128" s="2"/>
       <c r="T128" s="2"/>
     </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="2"/>
@@ -3759,7 +3767,7 @@
       <c r="S129" s="2"/>
       <c r="T129" s="2"/>
     </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="2"/>
@@ -3781,7 +3789,7 @@
       <c r="S130" s="2"/>
       <c r="T130" s="2"/>
     </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="2"/>
@@ -3803,7 +3811,7 @@
       <c r="S131" s="2"/>
       <c r="T131" s="2"/>
     </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="2"/>
@@ -3825,7 +3833,7 @@
       <c r="S132" s="2"/>
       <c r="T132" s="2"/>
     </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="2"/>
@@ -3847,7 +3855,7 @@
       <c r="S133" s="2"/>
       <c r="T133" s="2"/>
     </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="2"/>
@@ -3869,7 +3877,7 @@
       <c r="S134" s="2"/>
       <c r="T134" s="2"/>
     </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="2"/>
@@ -3891,7 +3899,7 @@
       <c r="S135" s="2"/>
       <c r="T135" s="2"/>
     </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="2"/>
@@ -3913,7 +3921,7 @@
       <c r="S136" s="2"/>
       <c r="T136" s="2"/>
     </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="2"/>
@@ -3935,7 +3943,7 @@
       <c r="S137" s="2"/>
       <c r="T137" s="2"/>
     </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="2"/>
@@ -3957,7 +3965,7 @@
       <c r="S138" s="2"/>
       <c r="T138" s="2"/>
     </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="2"/>
@@ -3979,7 +3987,7 @@
       <c r="S139" s="2"/>
       <c r="T139" s="2"/>
     </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="2"/>
@@ -4001,7 +4009,7 @@
       <c r="S140" s="2"/>
       <c r="T140" s="2"/>
     </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="2"/>
@@ -4023,7 +4031,7 @@
       <c r="S141" s="2"/>
       <c r="T141" s="2"/>
     </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="2"/>
@@ -4045,7 +4053,7 @@
       <c r="S142" s="2"/>
       <c r="T142" s="2"/>
     </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="2"/>
@@ -4067,7 +4075,7 @@
       <c r="S143" s="2"/>
       <c r="T143" s="2"/>
     </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="2"/>
@@ -4089,7 +4097,7 @@
       <c r="S144" s="2"/>
       <c r="T144" s="2"/>
     </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="2"/>
@@ -4111,7 +4119,7 @@
       <c r="S145" s="2"/>
       <c r="T145" s="2"/>
     </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="2"/>
@@ -4133,7 +4141,7 @@
       <c r="S146" s="2"/>
       <c r="T146" s="2"/>
     </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="2"/>
@@ -4155,7 +4163,7 @@
       <c r="S147" s="2"/>
       <c r="T147" s="2"/>
     </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="2"/>
@@ -4177,7 +4185,7 @@
       <c r="S148" s="2"/>
       <c r="T148" s="2"/>
     </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="2"/>
@@ -4199,7 +4207,7 @@
       <c r="S149" s="2"/>
       <c r="T149" s="2"/>
     </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="2"/>
@@ -4221,7 +4229,7 @@
       <c r="S150" s="2"/>
       <c r="T150" s="2"/>
     </row>
-    <row r="151" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="2"/>
@@ -4243,7 +4251,7 @@
       <c r="S151" s="2"/>
       <c r="T151" s="2"/>
     </row>
-    <row r="152" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="2"/>
@@ -4265,7 +4273,7 @@
       <c r="S152" s="2"/>
       <c r="T152" s="2"/>
     </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="2"/>
@@ -4287,7 +4295,7 @@
       <c r="S153" s="2"/>
       <c r="T153" s="2"/>
     </row>
-    <row r="154" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="2"/>
@@ -4309,7 +4317,7 @@
       <c r="S154" s="2"/>
       <c r="T154" s="2"/>
     </row>
-    <row r="155" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="2"/>
@@ -4331,7 +4339,7 @@
       <c r="S155" s="2"/>
       <c r="T155" s="2"/>
     </row>
-    <row r="156" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="2"/>
@@ -4353,7 +4361,7 @@
       <c r="S156" s="2"/>
       <c r="T156" s="2"/>
     </row>
-    <row r="157" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="2"/>
@@ -4375,7 +4383,7 @@
       <c r="S157" s="2"/>
       <c r="T157" s="2"/>
     </row>
-    <row r="158" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="2"/>
@@ -4397,7 +4405,7 @@
       <c r="S158" s="2"/>
       <c r="T158" s="2"/>
     </row>
-    <row r="159" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="2"/>
@@ -4419,7 +4427,7 @@
       <c r="S159" s="2"/>
       <c r="T159" s="2"/>
     </row>
-    <row r="160" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="2"/>
@@ -4441,7 +4449,7 @@
       <c r="S160" s="2"/>
       <c r="T160" s="2"/>
     </row>
-    <row r="161" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="2"/>
@@ -4463,7 +4471,7 @@
       <c r="S161" s="2"/>
       <c r="T161" s="2"/>
     </row>
-    <row r="162" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
       <c r="C162" s="2"/>
@@ -4485,7 +4493,7 @@
       <c r="S162" s="2"/>
       <c r="T162" s="2"/>
     </row>
-    <row r="163" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
       <c r="C163" s="2"/>
@@ -4507,7 +4515,7 @@
       <c r="S163" s="2"/>
       <c r="T163" s="2"/>
     </row>
-    <row r="164" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
       <c r="C164" s="2"/>
@@ -4529,7 +4537,7 @@
       <c r="S164" s="2"/>
       <c r="T164" s="2"/>
     </row>
-    <row r="165" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
       <c r="C165" s="2"/>
@@ -4551,7 +4559,7 @@
       <c r="S165" s="2"/>
       <c r="T165" s="2"/>
     </row>
-    <row r="166" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
       <c r="C166" s="2"/>
@@ -4573,7 +4581,7 @@
       <c r="S166" s="2"/>
       <c r="T166" s="2"/>
     </row>
-    <row r="167" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
       <c r="C167" s="2"/>
@@ -4595,7 +4603,7 @@
       <c r="S167" s="2"/>
       <c r="T167" s="2"/>
     </row>
-    <row r="168" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
       <c r="C168" s="2"/>
@@ -4617,7 +4625,7 @@
       <c r="S168" s="2"/>
       <c r="T168" s="2"/>
     </row>
-    <row r="169" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
       <c r="C169" s="2"/>
@@ -4639,7 +4647,7 @@
       <c r="S169" s="2"/>
       <c r="T169" s="2"/>
     </row>
-    <row r="170" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
       <c r="C170" s="2"/>
@@ -4661,7 +4669,7 @@
       <c r="S170" s="2"/>
       <c r="T170" s="2"/>
     </row>
-    <row r="171" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
       <c r="C171" s="2"/>
@@ -4683,7 +4691,7 @@
       <c r="S171" s="2"/>
       <c r="T171" s="2"/>
     </row>
-    <row r="172" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
       <c r="C172" s="2"/>
@@ -4705,7 +4713,7 @@
       <c r="S172" s="2"/>
       <c r="T172" s="2"/>
     </row>
-    <row r="173" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
       <c r="C173" s="2"/>
@@ -4727,7 +4735,7 @@
       <c r="S173" s="2"/>
       <c r="T173" s="2"/>
     </row>
-    <row r="174" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A174" s="3"/>
       <c r="B174" s="3"/>
       <c r="C174" s="2"/>
@@ -4749,7 +4757,7 @@
       <c r="S174" s="2"/>
       <c r="T174" s="2"/>
     </row>
-    <row r="175" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="C175" s="2"/>
@@ -4771,7 +4779,7 @@
       <c r="S175" s="2"/>
       <c r="T175" s="2"/>
     </row>
-    <row r="176" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="C176" s="2"/>
@@ -4793,7 +4801,7 @@
       <c r="S176" s="2"/>
       <c r="T176" s="2"/>
     </row>
-    <row r="177" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="C177" s="2"/>
@@ -4815,7 +4823,7 @@
       <c r="S177" s="2"/>
       <c r="T177" s="2"/>
     </row>
-    <row r="178" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="C178" s="2"/>
@@ -4837,7 +4845,7 @@
       <c r="S178" s="2"/>
       <c r="T178" s="2"/>
     </row>
-    <row r="179" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A179" s="3"/>
       <c r="B179" s="3"/>
       <c r="C179" s="2"/>
@@ -4859,7 +4867,7 @@
       <c r="S179" s="2"/>
       <c r="T179" s="2"/>
     </row>
-    <row r="180" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A180" s="3"/>
       <c r="B180" s="3"/>
       <c r="C180" s="2"/>
@@ -4881,7 +4889,7 @@
       <c r="S180" s="2"/>
       <c r="T180" s="2"/>
     </row>
-    <row r="181" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A181" s="3"/>
       <c r="B181" s="3"/>
       <c r="C181" s="2"/>
@@ -4903,7 +4911,7 @@
       <c r="S181" s="2"/>
       <c r="T181" s="2"/>
     </row>
-    <row r="182" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A182" s="3"/>
       <c r="B182" s="3"/>
       <c r="C182" s="2"/>
@@ -4925,7 +4933,7 @@
       <c r="S182" s="2"/>
       <c r="T182" s="2"/>
     </row>
-    <row r="183" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A183" s="3"/>
       <c r="B183" s="3"/>
       <c r="C183" s="2"/>
@@ -4947,7 +4955,7 @@
       <c r="S183" s="2"/>
       <c r="T183" s="2"/>
     </row>
-    <row r="184" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A184" s="3"/>
       <c r="B184" s="3"/>
       <c r="C184" s="2"/>
@@ -4969,7 +4977,7 @@
       <c r="S184" s="2"/>
       <c r="T184" s="2"/>
     </row>
-    <row r="185" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A185" s="3"/>
       <c r="B185" s="3"/>
       <c r="C185" s="2"/>
@@ -4991,7 +4999,7 @@
       <c r="S185" s="2"/>
       <c r="T185" s="2"/>
     </row>
-    <row r="186" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A186" s="3"/>
       <c r="B186" s="3"/>
       <c r="C186" s="2"/>
@@ -5013,7 +5021,7 @@
       <c r="S186" s="2"/>
       <c r="T186" s="2"/>
     </row>
-    <row r="187" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A187" s="3"/>
       <c r="B187" s="3"/>
       <c r="C187" s="2"/>
@@ -5035,7 +5043,7 @@
       <c r="S187" s="2"/>
       <c r="T187" s="2"/>
     </row>
-    <row r="188" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A188" s="3"/>
       <c r="B188" s="3"/>
       <c r="C188" s="2"/>
@@ -5057,7 +5065,7 @@
       <c r="S188" s="2"/>
       <c r="T188" s="2"/>
     </row>
-    <row r="189" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A189" s="3"/>
       <c r="B189" s="3"/>
       <c r="C189" s="2"/>
@@ -5079,7 +5087,7 @@
       <c r="S189" s="2"/>
       <c r="T189" s="2"/>
     </row>
-    <row r="190" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A190" s="3"/>
       <c r="B190" s="3"/>
       <c r="C190" s="2"/>
@@ -5101,7 +5109,7 @@
       <c r="S190" s="2"/>
       <c r="T190" s="2"/>
     </row>
-    <row r="191" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A191" s="3"/>
       <c r="B191" s="3"/>
       <c r="C191" s="2"/>
@@ -5123,7 +5131,7 @@
       <c r="S191" s="2"/>
       <c r="T191" s="2"/>
     </row>
-    <row r="192" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A192" s="3"/>
       <c r="B192" s="3"/>
       <c r="C192" s="2"/>
@@ -5145,7 +5153,7 @@
       <c r="S192" s="2"/>
       <c r="T192" s="2"/>
     </row>
-    <row r="193" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A193" s="3"/>
       <c r="B193" s="3"/>
       <c r="C193" s="2"/>
@@ -5167,7 +5175,7 @@
       <c r="S193" s="2"/>
       <c r="T193" s="2"/>
     </row>
-    <row r="194" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A194" s="3"/>
       <c r="B194" s="3"/>
       <c r="C194" s="2"/>
@@ -5189,7 +5197,7 @@
       <c r="S194" s="2"/>
       <c r="T194" s="2"/>
     </row>
-    <row r="195" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A195" s="3"/>
       <c r="B195" s="3"/>
       <c r="C195" s="2"/>
@@ -5211,7 +5219,7 @@
       <c r="S195" s="2"/>
       <c r="T195" s="2"/>
     </row>
-    <row r="196" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A196" s="3"/>
       <c r="B196" s="3"/>
       <c r="C196" s="2"/>
@@ -5233,7 +5241,7 @@
       <c r="S196" s="2"/>
       <c r="T196" s="2"/>
     </row>
-    <row r="197" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A197" s="3"/>
       <c r="B197" s="3"/>
       <c r="C197" s="2"/>
@@ -5255,7 +5263,7 @@
       <c r="S197" s="2"/>
       <c r="T197" s="2"/>
     </row>
-    <row r="198" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A198" s="3"/>
       <c r="B198" s="3"/>
       <c r="C198" s="2"/>
@@ -5277,7 +5285,7 @@
       <c r="S198" s="2"/>
       <c r="T198" s="2"/>
     </row>
-    <row r="199" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A199" s="3"/>
       <c r="B199" s="3"/>
       <c r="C199" s="2"/>
@@ -5299,7 +5307,7 @@
       <c r="S199" s="2"/>
       <c r="T199" s="2"/>
     </row>
-    <row r="200" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A200" s="3"/>
       <c r="B200" s="3"/>
       <c r="C200" s="2"/>

--- a/许愿墙.xlsx
+++ b/许愿墙.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\桌面\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3932C32-3F17-47BC-A4A1-2F2E14D69E4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="27945" windowHeight="11775"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,6 +18,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="68">
   <si>
     <t>你想找什么样的工作？</t>
   </si>
@@ -234,18 +230,22 @@
   </si>
   <si>
     <t>网络安全</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>已经通知面试了</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -268,29 +268,165 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="9.75"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
-      <color rgb="FF000000"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -303,8 +439,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -342,9 +664,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -365,24 +929,68 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -640,28 +1248,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:T200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="74" customWidth="1"/>
     <col min="2" max="2" width="54" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -687,7 +1294,7 @@
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -713,7 +1320,7 @@
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -739,7 +1346,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -765,7 +1372,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -791,7 +1398,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -817,7 +1424,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20">
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
@@ -843,7 +1450,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
@@ -869,7 +1476,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20">
       <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
@@ -895,7 +1502,7 @@
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20">
       <c r="A10" s="3" t="s">
         <v>13</v>
       </c>
@@ -921,7 +1528,7 @@
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20">
       <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
@@ -947,7 +1554,7 @@
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20">
       <c r="A12" s="3" t="s">
         <v>16</v>
       </c>
@@ -973,7 +1580,7 @@
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20">
       <c r="A13" s="3" t="s">
         <v>18</v>
       </c>
@@ -999,7 +1606,7 @@
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20">
       <c r="A14" s="3" t="s">
         <v>20</v>
       </c>
@@ -1025,7 +1632,7 @@
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20">
       <c r="A15" s="3" t="s">
         <v>18</v>
       </c>
@@ -1051,7 +1658,7 @@
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20">
       <c r="A16" s="3" t="s">
         <v>23</v>
       </c>
@@ -1077,7 +1684,7 @@
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20">
       <c r="A17" s="3" t="s">
         <v>25</v>
       </c>
@@ -1103,7 +1710,7 @@
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20">
       <c r="A18" s="3" t="s">
         <v>26</v>
       </c>
@@ -1129,7 +1736,7 @@
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20">
       <c r="A19" s="3" t="s">
         <v>27</v>
       </c>
@@ -1155,7 +1762,7 @@
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20">
       <c r="A20" s="3" t="s">
         <v>28</v>
       </c>
@@ -1181,7 +1788,7 @@
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20">
       <c r="A21" s="3" t="s">
         <v>10</v>
       </c>
@@ -1207,7 +1814,7 @@
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20">
       <c r="A22" s="3" t="s">
         <v>29</v>
       </c>
@@ -1233,7 +1840,7 @@
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20">
       <c r="A23" s="3" t="s">
         <v>30</v>
       </c>
@@ -1259,7 +1866,7 @@
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20">
       <c r="A24" s="3" t="s">
         <v>31</v>
       </c>
@@ -1285,7 +1892,7 @@
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20">
       <c r="A25" s="3" t="s">
         <v>25</v>
       </c>
@@ -1311,7 +1918,7 @@
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20">
       <c r="A26" s="3" t="s">
         <v>25</v>
       </c>
@@ -1337,7 +1944,7 @@
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20">
       <c r="A27" s="3" t="s">
         <v>26</v>
       </c>
@@ -1363,7 +1970,7 @@
       <c r="S27" s="2"/>
       <c r="T27" s="2"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20">
       <c r="A28" s="3" t="s">
         <v>32</v>
       </c>
@@ -1389,7 +1996,7 @@
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20">
       <c r="A29" s="3" t="s">
         <v>33</v>
       </c>
@@ -1415,7 +2022,7 @@
       <c r="S29" s="2"/>
       <c r="T29" s="2"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20">
       <c r="A30" s="3" t="s">
         <v>14</v>
       </c>
@@ -1441,7 +2048,7 @@
       <c r="S30" s="2"/>
       <c r="T30" s="2"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20">
       <c r="A31" s="3" t="s">
         <v>35</v>
       </c>
@@ -1467,7 +2074,7 @@
       <c r="S31" s="2"/>
       <c r="T31" s="2"/>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20">
       <c r="A32" s="3" t="s">
         <v>25</v>
       </c>
@@ -1493,7 +2100,7 @@
       <c r="S32" s="2"/>
       <c r="T32" s="2"/>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:20">
       <c r="A33" s="3" t="s">
         <v>23</v>
       </c>
@@ -1519,7 +2126,7 @@
       <c r="S33" s="2"/>
       <c r="T33" s="2"/>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20">
       <c r="A34" s="3" t="s">
         <v>37</v>
       </c>
@@ -1545,7 +2152,7 @@
       <c r="S34" s="2"/>
       <c r="T34" s="2"/>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:20">
       <c r="A35" s="3" t="s">
         <v>38</v>
       </c>
@@ -1571,7 +2178,7 @@
       <c r="S35" s="2"/>
       <c r="T35" s="2"/>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:20">
       <c r="A36" s="3" t="s">
         <v>26</v>
       </c>
@@ -1597,7 +2204,7 @@
       <c r="S36" s="2"/>
       <c r="T36" s="2"/>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:20">
       <c r="A37" s="3" t="s">
         <v>23</v>
       </c>
@@ -1623,7 +2230,7 @@
       <c r="S37" s="2"/>
       <c r="T37" s="2"/>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:20">
       <c r="A38" s="3" t="s">
         <v>4</v>
       </c>
@@ -1649,7 +2256,7 @@
       <c r="S38" s="2"/>
       <c r="T38" s="2"/>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:20">
       <c r="A39" s="3" t="s">
         <v>30</v>
       </c>
@@ -1675,7 +2282,7 @@
       <c r="S39" s="2"/>
       <c r="T39" s="2"/>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:20">
       <c r="A40" s="3" t="s">
         <v>26</v>
       </c>
@@ -1701,7 +2308,7 @@
       <c r="S40" s="2"/>
       <c r="T40" s="2"/>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:20">
       <c r="A41" s="3" t="s">
         <v>41</v>
       </c>
@@ -1727,7 +2334,7 @@
       <c r="S41" s="2"/>
       <c r="T41" s="2"/>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:20">
       <c r="A42" s="3" t="s">
         <v>42</v>
       </c>
@@ -1753,7 +2360,7 @@
       <c r="S42" s="2"/>
       <c r="T42" s="2"/>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:20">
       <c r="A43" s="3" t="s">
         <v>43</v>
       </c>
@@ -1779,7 +2386,7 @@
       <c r="S43" s="2"/>
       <c r="T43" s="2"/>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:20">
       <c r="A44" s="3" t="s">
         <v>23</v>
       </c>
@@ -1805,7 +2412,7 @@
       <c r="S44" s="2"/>
       <c r="T44" s="2"/>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:20">
       <c r="A45" s="3" t="s">
         <v>44</v>
       </c>
@@ -1831,7 +2438,7 @@
       <c r="S45" s="2"/>
       <c r="T45" s="2"/>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:20">
       <c r="A46" s="3" t="s">
         <v>45</v>
       </c>
@@ -1857,7 +2464,7 @@
       <c r="S46" s="2"/>
       <c r="T46" s="2"/>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:20">
       <c r="A47" s="4" t="s">
         <v>46</v>
       </c>
@@ -1883,7 +2490,7 @@
       <c r="S47" s="2"/>
       <c r="T47" s="2"/>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:20">
       <c r="A48" s="3" t="s">
         <v>48</v>
       </c>
@@ -1909,7 +2516,7 @@
       <c r="S48" s="2"/>
       <c r="T48" s="2"/>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:20">
       <c r="A49" s="3" t="s">
         <v>50</v>
       </c>
@@ -1935,7 +2542,7 @@
       <c r="S49" s="2"/>
       <c r="T49" s="2"/>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:20">
       <c r="A50" s="3" t="s">
         <v>51</v>
       </c>
@@ -1961,7 +2568,7 @@
       <c r="S50" s="2"/>
       <c r="T50" s="2"/>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:20">
       <c r="A51" s="3" t="s">
         <v>52</v>
       </c>
@@ -1987,7 +2594,7 @@
       <c r="S51" s="2"/>
       <c r="T51" s="2"/>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:20">
       <c r="A52" s="3" t="s">
         <v>46</v>
       </c>
@@ -2013,7 +2620,7 @@
       <c r="S52" s="2"/>
       <c r="T52" s="2"/>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:20">
       <c r="A53" s="3" t="s">
         <v>23</v>
       </c>
@@ -2039,7 +2646,7 @@
       <c r="S53" s="2"/>
       <c r="T53" s="2"/>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:20">
       <c r="A54" s="3" t="s">
         <v>53</v>
       </c>
@@ -2065,7 +2672,7 @@
       <c r="S54" s="2"/>
       <c r="T54" s="2"/>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:20">
       <c r="A55" s="3" t="s">
         <v>54</v>
       </c>
@@ -2091,7 +2698,7 @@
       <c r="S55" s="2"/>
       <c r="T55" s="2"/>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:20">
       <c r="A56" s="3" t="s">
         <v>54</v>
       </c>
@@ -2117,7 +2724,7 @@
       <c r="S56" s="2"/>
       <c r="T56" s="2"/>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:20">
       <c r="A57" s="3" t="s">
         <v>55</v>
       </c>
@@ -2143,7 +2750,7 @@
       <c r="S57" s="2"/>
       <c r="T57" s="2"/>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:20">
       <c r="A58" s="3" t="s">
         <v>57</v>
       </c>
@@ -2169,7 +2776,7 @@
       <c r="S58" s="2"/>
       <c r="T58" s="2"/>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:20">
       <c r="A59" s="3" t="s">
         <v>7</v>
       </c>
@@ -2195,7 +2802,7 @@
       <c r="S59" s="2"/>
       <c r="T59" s="2"/>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:20">
       <c r="A60" s="3" t="s">
         <v>25</v>
       </c>
@@ -2221,7 +2828,7 @@
       <c r="S60" s="2"/>
       <c r="T60" s="2"/>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:20">
       <c r="A61" s="3" t="s">
         <v>59</v>
       </c>
@@ -2247,7 +2854,7 @@
       <c r="S61" s="2"/>
       <c r="T61" s="2"/>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:20">
       <c r="A62" s="3" t="s">
         <v>60</v>
       </c>
@@ -2273,7 +2880,7 @@
       <c r="S62" s="2"/>
       <c r="T62" s="2"/>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:20">
       <c r="A63" s="5" t="s">
         <v>62</v>
       </c>
@@ -2299,7 +2906,7 @@
       <c r="S63" s="2"/>
       <c r="T63" s="2"/>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:20">
       <c r="A64" t="s">
         <v>64</v>
       </c>
@@ -2325,7 +2932,7 @@
       <c r="S64" s="2"/>
       <c r="T64" s="2"/>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:20">
       <c r="A65" s="7" t="s">
         <v>66</v>
       </c>
@@ -2351,9 +2958,13 @@
       <c r="S65" s="2"/>
       <c r="T65" s="2"/>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A66" s="3"/>
-      <c r="B66" s="3"/>
+    <row r="66" spans="1:20">
+      <c r="A66" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
@@ -2373,7 +2984,7 @@
       <c r="S66" s="2"/>
       <c r="T66" s="2"/>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:20">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="2"/>
@@ -2395,7 +3006,7 @@
       <c r="S67" s="2"/>
       <c r="T67" s="2"/>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:20">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="2"/>
@@ -2417,7 +3028,7 @@
       <c r="S68" s="2"/>
       <c r="T68" s="2"/>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:20">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="2"/>
@@ -2439,7 +3050,7 @@
       <c r="S69" s="2"/>
       <c r="T69" s="2"/>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:20">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="2"/>
@@ -2461,7 +3072,7 @@
       <c r="S70" s="2"/>
       <c r="T70" s="2"/>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:20">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="2"/>
@@ -2483,7 +3094,7 @@
       <c r="S71" s="2"/>
       <c r="T71" s="2"/>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:20">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="2"/>
@@ -2505,7 +3116,7 @@
       <c r="S72" s="2"/>
       <c r="T72" s="2"/>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:20">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="2"/>
@@ -2527,7 +3138,7 @@
       <c r="S73" s="2"/>
       <c r="T73" s="2"/>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:20">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="2"/>
@@ -2549,7 +3160,7 @@
       <c r="S74" s="2"/>
       <c r="T74" s="2"/>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:20">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="2"/>
@@ -2571,7 +3182,7 @@
       <c r="S75" s="2"/>
       <c r="T75" s="2"/>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:20">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="2"/>
@@ -2593,7 +3204,7 @@
       <c r="S76" s="2"/>
       <c r="T76" s="2"/>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:20">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="2"/>
@@ -2615,7 +3226,7 @@
       <c r="S77" s="2"/>
       <c r="T77" s="2"/>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:20">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="2"/>
@@ -2637,7 +3248,7 @@
       <c r="S78" s="2"/>
       <c r="T78" s="2"/>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:20">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="2"/>
@@ -2659,7 +3270,7 @@
       <c r="S79" s="2"/>
       <c r="T79" s="2"/>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:20">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="2"/>
@@ -2681,7 +3292,7 @@
       <c r="S80" s="2"/>
       <c r="T80" s="2"/>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:20">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="2"/>
@@ -2703,7 +3314,7 @@
       <c r="S81" s="2"/>
       <c r="T81" s="2"/>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:20">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="2"/>
@@ -2725,7 +3336,7 @@
       <c r="S82" s="2"/>
       <c r="T82" s="2"/>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:20">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="2"/>
@@ -2747,7 +3358,7 @@
       <c r="S83" s="2"/>
       <c r="T83" s="2"/>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:20">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="2"/>
@@ -2769,7 +3380,7 @@
       <c r="S84" s="2"/>
       <c r="T84" s="2"/>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:20">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="2"/>
@@ -2791,7 +3402,7 @@
       <c r="S85" s="2"/>
       <c r="T85" s="2"/>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:20">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="2"/>
@@ -2813,7 +3424,7 @@
       <c r="S86" s="2"/>
       <c r="T86" s="2"/>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:20">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="2"/>
@@ -2835,7 +3446,7 @@
       <c r="S87" s="2"/>
       <c r="T87" s="2"/>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:20">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="2"/>
@@ -2857,7 +3468,7 @@
       <c r="S88" s="2"/>
       <c r="T88" s="2"/>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:20">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="2"/>
@@ -2879,7 +3490,7 @@
       <c r="S89" s="2"/>
       <c r="T89" s="2"/>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:20">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="2"/>
@@ -2901,7 +3512,7 @@
       <c r="S90" s="2"/>
       <c r="T90" s="2"/>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:20">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="2"/>
@@ -2923,7 +3534,7 @@
       <c r="S91" s="2"/>
       <c r="T91" s="2"/>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:20">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="2"/>
@@ -2945,7 +3556,7 @@
       <c r="S92" s="2"/>
       <c r="T92" s="2"/>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:20">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="2"/>
@@ -2967,7 +3578,7 @@
       <c r="S93" s="2"/>
       <c r="T93" s="2"/>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:20">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="2"/>
@@ -2989,7 +3600,7 @@
       <c r="S94" s="2"/>
       <c r="T94" s="2"/>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:20">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="2"/>
@@ -3011,7 +3622,7 @@
       <c r="S95" s="2"/>
       <c r="T95" s="2"/>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:20">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="2"/>
@@ -3033,7 +3644,7 @@
       <c r="S96" s="2"/>
       <c r="T96" s="2"/>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:20">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="2"/>
@@ -3055,7 +3666,7 @@
       <c r="S97" s="2"/>
       <c r="T97" s="2"/>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:20">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="2"/>
@@ -3077,7 +3688,7 @@
       <c r="S98" s="2"/>
       <c r="T98" s="2"/>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:20">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="2"/>
@@ -3099,7 +3710,7 @@
       <c r="S99" s="2"/>
       <c r="T99" s="2"/>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:20">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="2"/>
@@ -3121,7 +3732,7 @@
       <c r="S100" s="2"/>
       <c r="T100" s="2"/>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:20">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="2"/>
@@ -3143,7 +3754,7 @@
       <c r="S101" s="2"/>
       <c r="T101" s="2"/>
     </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:20">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="2"/>
@@ -3165,7 +3776,7 @@
       <c r="S102" s="2"/>
       <c r="T102" s="2"/>
     </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:20">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="2"/>
@@ -3187,7 +3798,7 @@
       <c r="S103" s="2"/>
       <c r="T103" s="2"/>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:20">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="2"/>
@@ -3209,7 +3820,7 @@
       <c r="S104" s="2"/>
       <c r="T104" s="2"/>
     </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:20">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="2"/>
@@ -3231,7 +3842,7 @@
       <c r="S105" s="2"/>
       <c r="T105" s="2"/>
     </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:20">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="2"/>
@@ -3253,7 +3864,7 @@
       <c r="S106" s="2"/>
       <c r="T106" s="2"/>
     </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:20">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="2"/>
@@ -3275,7 +3886,7 @@
       <c r="S107" s="2"/>
       <c r="T107" s="2"/>
     </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:20">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="2"/>
@@ -3297,7 +3908,7 @@
       <c r="S108" s="2"/>
       <c r="T108" s="2"/>
     </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:20">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="2"/>
@@ -3319,7 +3930,7 @@
       <c r="S109" s="2"/>
       <c r="T109" s="2"/>
     </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:20">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="2"/>
@@ -3341,7 +3952,7 @@
       <c r="S110" s="2"/>
       <c r="T110" s="2"/>
     </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:20">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="2"/>
@@ -3363,7 +3974,7 @@
       <c r="S111" s="2"/>
       <c r="T111" s="2"/>
     </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:20">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="2"/>
@@ -3385,7 +3996,7 @@
       <c r="S112" s="2"/>
       <c r="T112" s="2"/>
     </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:20">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="2"/>
@@ -3407,7 +4018,7 @@
       <c r="S113" s="2"/>
       <c r="T113" s="2"/>
     </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:20">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="2"/>
@@ -3429,7 +4040,7 @@
       <c r="S114" s="2"/>
       <c r="T114" s="2"/>
     </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:20">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="2"/>
@@ -3451,7 +4062,7 @@
       <c r="S115" s="2"/>
       <c r="T115" s="2"/>
     </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:20">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="2"/>
@@ -3473,7 +4084,7 @@
       <c r="S116" s="2"/>
       <c r="T116" s="2"/>
     </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:20">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="2"/>
@@ -3495,7 +4106,7 @@
       <c r="S117" s="2"/>
       <c r="T117" s="2"/>
     </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:20">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="2"/>
@@ -3517,7 +4128,7 @@
       <c r="S118" s="2"/>
       <c r="T118" s="2"/>
     </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:20">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="2"/>
@@ -3539,7 +4150,7 @@
       <c r="S119" s="2"/>
       <c r="T119" s="2"/>
     </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:20">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="2"/>
@@ -3561,7 +4172,7 @@
       <c r="S120" s="2"/>
       <c r="T120" s="2"/>
     </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:20">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="2"/>
@@ -3583,7 +4194,7 @@
       <c r="S121" s="2"/>
       <c r="T121" s="2"/>
     </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:20">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="2"/>
@@ -3605,7 +4216,7 @@
       <c r="S122" s="2"/>
       <c r="T122" s="2"/>
     </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:20">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="2"/>
@@ -3627,7 +4238,7 @@
       <c r="S123" s="2"/>
       <c r="T123" s="2"/>
     </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:20">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="2"/>
@@ -3649,7 +4260,7 @@
       <c r="S124" s="2"/>
       <c r="T124" s="2"/>
     </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:20">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="2"/>
@@ -3671,7 +4282,7 @@
       <c r="S125" s="2"/>
       <c r="T125" s="2"/>
     </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:20">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="2"/>
@@ -3693,7 +4304,7 @@
       <c r="S126" s="2"/>
       <c r="T126" s="2"/>
     </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:20">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="2"/>
@@ -3715,7 +4326,7 @@
       <c r="S127" s="2"/>
       <c r="T127" s="2"/>
     </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:20">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="2"/>
@@ -3737,7 +4348,7 @@
       <c r="S128" s="2"/>
       <c r="T128" s="2"/>
     </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:20">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="2"/>
@@ -3759,7 +4370,7 @@
       <c r="S129" s="2"/>
       <c r="T129" s="2"/>
     </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:20">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="2"/>
@@ -3781,7 +4392,7 @@
       <c r="S130" s="2"/>
       <c r="T130" s="2"/>
     </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:20">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="2"/>
@@ -3803,7 +4414,7 @@
       <c r="S131" s="2"/>
       <c r="T131" s="2"/>
     </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:20">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="2"/>
@@ -3825,7 +4436,7 @@
       <c r="S132" s="2"/>
       <c r="T132" s="2"/>
     </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:20">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="2"/>
@@ -3847,7 +4458,7 @@
       <c r="S133" s="2"/>
       <c r="T133" s="2"/>
     </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:20">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="2"/>
@@ -3869,7 +4480,7 @@
       <c r="S134" s="2"/>
       <c r="T134" s="2"/>
     </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:20">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="2"/>
@@ -3891,7 +4502,7 @@
       <c r="S135" s="2"/>
       <c r="T135" s="2"/>
     </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:20">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="2"/>
@@ -3913,7 +4524,7 @@
       <c r="S136" s="2"/>
       <c r="T136" s="2"/>
     </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:20">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="2"/>
@@ -3935,7 +4546,7 @@
       <c r="S137" s="2"/>
       <c r="T137" s="2"/>
     </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:20">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="2"/>
@@ -3957,7 +4568,7 @@
       <c r="S138" s="2"/>
       <c r="T138" s="2"/>
     </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:20">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="2"/>
@@ -3979,7 +4590,7 @@
       <c r="S139" s="2"/>
       <c r="T139" s="2"/>
     </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:20">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="2"/>
@@ -4001,7 +4612,7 @@
       <c r="S140" s="2"/>
       <c r="T140" s="2"/>
     </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:20">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="2"/>
@@ -4023,7 +4634,7 @@
       <c r="S141" s="2"/>
       <c r="T141" s="2"/>
     </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:20">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="2"/>
@@ -4045,7 +4656,7 @@
       <c r="S142" s="2"/>
       <c r="T142" s="2"/>
     </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:20">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="2"/>
@@ -4067,7 +4678,7 @@
       <c r="S143" s="2"/>
       <c r="T143" s="2"/>
     </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:20">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="2"/>
@@ -4089,7 +4700,7 @@
       <c r="S144" s="2"/>
       <c r="T144" s="2"/>
     </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:20">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="2"/>
@@ -4111,7 +4722,7 @@
       <c r="S145" s="2"/>
       <c r="T145" s="2"/>
     </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:20">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="2"/>
@@ -4133,7 +4744,7 @@
       <c r="S146" s="2"/>
       <c r="T146" s="2"/>
     </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:20">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="2"/>
@@ -4155,7 +4766,7 @@
       <c r="S147" s="2"/>
       <c r="T147" s="2"/>
     </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:20">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="2"/>
@@ -4177,7 +4788,7 @@
       <c r="S148" s="2"/>
       <c r="T148" s="2"/>
     </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:20">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="2"/>
@@ -4199,7 +4810,7 @@
       <c r="S149" s="2"/>
       <c r="T149" s="2"/>
     </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:20">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="2"/>
@@ -4221,7 +4832,7 @@
       <c r="S150" s="2"/>
       <c r="T150" s="2"/>
     </row>
-    <row r="151" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:20">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="2"/>
@@ -4243,7 +4854,7 @@
       <c r="S151" s="2"/>
       <c r="T151" s="2"/>
     </row>
-    <row r="152" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:20">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="2"/>
@@ -4265,7 +4876,7 @@
       <c r="S152" s="2"/>
       <c r="T152" s="2"/>
     </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:20">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="2"/>
@@ -4287,7 +4898,7 @@
       <c r="S153" s="2"/>
       <c r="T153" s="2"/>
     </row>
-    <row r="154" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:20">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="2"/>
@@ -4309,7 +4920,7 @@
       <c r="S154" s="2"/>
       <c r="T154" s="2"/>
     </row>
-    <row r="155" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:20">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="2"/>
@@ -4331,7 +4942,7 @@
       <c r="S155" s="2"/>
       <c r="T155" s="2"/>
     </row>
-    <row r="156" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:20">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="2"/>
@@ -4353,7 +4964,7 @@
       <c r="S156" s="2"/>
       <c r="T156" s="2"/>
     </row>
-    <row r="157" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:20">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="2"/>
@@ -4375,7 +4986,7 @@
       <c r="S157" s="2"/>
       <c r="T157" s="2"/>
     </row>
-    <row r="158" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:20">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="2"/>
@@ -4397,7 +5008,7 @@
       <c r="S158" s="2"/>
       <c r="T158" s="2"/>
     </row>
-    <row r="159" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:20">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="2"/>
@@ -4419,7 +5030,7 @@
       <c r="S159" s="2"/>
       <c r="T159" s="2"/>
     </row>
-    <row r="160" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:20">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="2"/>
@@ -4441,7 +5052,7 @@
       <c r="S160" s="2"/>
       <c r="T160" s="2"/>
     </row>
-    <row r="161" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:20">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="2"/>
@@ -4463,7 +5074,7 @@
       <c r="S161" s="2"/>
       <c r="T161" s="2"/>
     </row>
-    <row r="162" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:20">
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
       <c r="C162" s="2"/>
@@ -4485,7 +5096,7 @@
       <c r="S162" s="2"/>
       <c r="T162" s="2"/>
     </row>
-    <row r="163" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:20">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
       <c r="C163" s="2"/>
@@ -4507,7 +5118,7 @@
       <c r="S163" s="2"/>
       <c r="T163" s="2"/>
     </row>
-    <row r="164" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:20">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
       <c r="C164" s="2"/>
@@ -4529,7 +5140,7 @@
       <c r="S164" s="2"/>
       <c r="T164" s="2"/>
     </row>
-    <row r="165" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:20">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
       <c r="C165" s="2"/>
@@ -4551,7 +5162,7 @@
       <c r="S165" s="2"/>
       <c r="T165" s="2"/>
     </row>
-    <row r="166" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:20">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
       <c r="C166" s="2"/>
@@ -4573,7 +5184,7 @@
       <c r="S166" s="2"/>
       <c r="T166" s="2"/>
     </row>
-    <row r="167" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:20">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
       <c r="C167" s="2"/>
@@ -4595,7 +5206,7 @@
       <c r="S167" s="2"/>
       <c r="T167" s="2"/>
     </row>
-    <row r="168" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:20">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
       <c r="C168" s="2"/>
@@ -4617,7 +5228,7 @@
       <c r="S168" s="2"/>
       <c r="T168" s="2"/>
     </row>
-    <row r="169" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:20">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
       <c r="C169" s="2"/>
@@ -4639,7 +5250,7 @@
       <c r="S169" s="2"/>
       <c r="T169" s="2"/>
     </row>
-    <row r="170" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:20">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
       <c r="C170" s="2"/>
@@ -4661,7 +5272,7 @@
       <c r="S170" s="2"/>
       <c r="T170" s="2"/>
     </row>
-    <row r="171" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:20">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
       <c r="C171" s="2"/>
@@ -4683,7 +5294,7 @@
       <c r="S171" s="2"/>
       <c r="T171" s="2"/>
     </row>
-    <row r="172" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:20">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
       <c r="C172" s="2"/>
@@ -4705,7 +5316,7 @@
       <c r="S172" s="2"/>
       <c r="T172" s="2"/>
     </row>
-    <row r="173" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:20">
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
       <c r="C173" s="2"/>
@@ -4727,7 +5338,7 @@
       <c r="S173" s="2"/>
       <c r="T173" s="2"/>
     </row>
-    <row r="174" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:20">
       <c r="A174" s="3"/>
       <c r="B174" s="3"/>
       <c r="C174" s="2"/>
@@ -4749,7 +5360,7 @@
       <c r="S174" s="2"/>
       <c r="T174" s="2"/>
     </row>
-    <row r="175" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:20">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="C175" s="2"/>
@@ -4771,7 +5382,7 @@
       <c r="S175" s="2"/>
       <c r="T175" s="2"/>
     </row>
-    <row r="176" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:20">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="C176" s="2"/>
@@ -4793,7 +5404,7 @@
       <c r="S176" s="2"/>
       <c r="T176" s="2"/>
     </row>
-    <row r="177" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:20">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="C177" s="2"/>
@@ -4815,7 +5426,7 @@
       <c r="S177" s="2"/>
       <c r="T177" s="2"/>
     </row>
-    <row r="178" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:20">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="C178" s="2"/>
@@ -4837,7 +5448,7 @@
       <c r="S178" s="2"/>
       <c r="T178" s="2"/>
     </row>
-    <row r="179" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:20">
       <c r="A179" s="3"/>
       <c r="B179" s="3"/>
       <c r="C179" s="2"/>
@@ -4859,7 +5470,7 @@
       <c r="S179" s="2"/>
       <c r="T179" s="2"/>
     </row>
-    <row r="180" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:20">
       <c r="A180" s="3"/>
       <c r="B180" s="3"/>
       <c r="C180" s="2"/>
@@ -4881,7 +5492,7 @@
       <c r="S180" s="2"/>
       <c r="T180" s="2"/>
     </row>
-    <row r="181" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:20">
       <c r="A181" s="3"/>
       <c r="B181" s="3"/>
       <c r="C181" s="2"/>
@@ -4903,7 +5514,7 @@
       <c r="S181" s="2"/>
       <c r="T181" s="2"/>
     </row>
-    <row r="182" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:20">
       <c r="A182" s="3"/>
       <c r="B182" s="3"/>
       <c r="C182" s="2"/>
@@ -4925,7 +5536,7 @@
       <c r="S182" s="2"/>
       <c r="T182" s="2"/>
     </row>
-    <row r="183" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:20">
       <c r="A183" s="3"/>
       <c r="B183" s="3"/>
       <c r="C183" s="2"/>
@@ -4947,7 +5558,7 @@
       <c r="S183" s="2"/>
       <c r="T183" s="2"/>
     </row>
-    <row r="184" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:20">
       <c r="A184" s="3"/>
       <c r="B184" s="3"/>
       <c r="C184" s="2"/>
@@ -4969,7 +5580,7 @@
       <c r="S184" s="2"/>
       <c r="T184" s="2"/>
     </row>
-    <row r="185" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:20">
       <c r="A185" s="3"/>
       <c r="B185" s="3"/>
       <c r="C185" s="2"/>
@@ -4991,7 +5602,7 @@
       <c r="S185" s="2"/>
       <c r="T185" s="2"/>
     </row>
-    <row r="186" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:20">
       <c r="A186" s="3"/>
       <c r="B186" s="3"/>
       <c r="C186" s="2"/>
@@ -5013,7 +5624,7 @@
       <c r="S186" s="2"/>
       <c r="T186" s="2"/>
     </row>
-    <row r="187" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:20">
       <c r="A187" s="3"/>
       <c r="B187" s="3"/>
       <c r="C187" s="2"/>
@@ -5035,7 +5646,7 @@
       <c r="S187" s="2"/>
       <c r="T187" s="2"/>
     </row>
-    <row r="188" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:20">
       <c r="A188" s="3"/>
       <c r="B188" s="3"/>
       <c r="C188" s="2"/>
@@ -5057,7 +5668,7 @@
       <c r="S188" s="2"/>
       <c r="T188" s="2"/>
     </row>
-    <row r="189" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:20">
       <c r="A189" s="3"/>
       <c r="B189" s="3"/>
       <c r="C189" s="2"/>
@@ -5079,7 +5690,7 @@
       <c r="S189" s="2"/>
       <c r="T189" s="2"/>
     </row>
-    <row r="190" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:20">
       <c r="A190" s="3"/>
       <c r="B190" s="3"/>
       <c r="C190" s="2"/>
@@ -5101,7 +5712,7 @@
       <c r="S190" s="2"/>
       <c r="T190" s="2"/>
     </row>
-    <row r="191" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:20">
       <c r="A191" s="3"/>
       <c r="B191" s="3"/>
       <c r="C191" s="2"/>
@@ -5123,7 +5734,7 @@
       <c r="S191" s="2"/>
       <c r="T191" s="2"/>
     </row>
-    <row r="192" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:20">
       <c r="A192" s="3"/>
       <c r="B192" s="3"/>
       <c r="C192" s="2"/>
@@ -5145,7 +5756,7 @@
       <c r="S192" s="2"/>
       <c r="T192" s="2"/>
     </row>
-    <row r="193" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:20">
       <c r="A193" s="3"/>
       <c r="B193" s="3"/>
       <c r="C193" s="2"/>
@@ -5167,7 +5778,7 @@
       <c r="S193" s="2"/>
       <c r="T193" s="2"/>
     </row>
-    <row r="194" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:20">
       <c r="A194" s="3"/>
       <c r="B194" s="3"/>
       <c r="C194" s="2"/>
@@ -5189,7 +5800,7 @@
       <c r="S194" s="2"/>
       <c r="T194" s="2"/>
     </row>
-    <row r="195" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:20">
       <c r="A195" s="3"/>
       <c r="B195" s="3"/>
       <c r="C195" s="2"/>
@@ -5211,7 +5822,7 @@
       <c r="S195" s="2"/>
       <c r="T195" s="2"/>
     </row>
-    <row r="196" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:20">
       <c r="A196" s="3"/>
       <c r="B196" s="3"/>
       <c r="C196" s="2"/>
@@ -5233,7 +5844,7 @@
       <c r="S196" s="2"/>
       <c r="T196" s="2"/>
     </row>
-    <row r="197" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:20">
       <c r="A197" s="3"/>
       <c r="B197" s="3"/>
       <c r="C197" s="2"/>
@@ -5255,7 +5866,7 @@
       <c r="S197" s="2"/>
       <c r="T197" s="2"/>
     </row>
-    <row r="198" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:20">
       <c r="A198" s="3"/>
       <c r="B198" s="3"/>
       <c r="C198" s="2"/>
@@ -5277,7 +5888,7 @@
       <c r="S198" s="2"/>
       <c r="T198" s="2"/>
     </row>
-    <row r="199" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:20">
       <c r="A199" s="3"/>
       <c r="B199" s="3"/>
       <c r="C199" s="2"/>
@@ -5299,7 +5910,7 @@
       <c r="S199" s="2"/>
       <c r="T199" s="2"/>
     </row>
-    <row r="200" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:20">
       <c r="A200" s="3"/>
       <c r="B200" s="3"/>
       <c r="C200" s="2"/>
@@ -5322,7 +5933,7 @@
       <c r="T200" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/许愿墙.xlsx
+++ b/许愿墙.xlsx
@@ -5,33 +5,22 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\桌面\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3932C32-3F17-47BC-A4A1-2F2E14D69E4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B77832-D500-4C5D-ABF1-47DCC9664F09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="70">
   <si>
     <t>你想找什么样的工作？</t>
   </si>
@@ -238,6 +227,14 @@
   </si>
   <si>
     <t>已经通知面试了</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java/运维</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>在找</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -652,16 +649,16 @@
   <dimension ref="A1:T200"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A51" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="74" customWidth="1"/>
     <col min="2" max="2" width="54" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -687,7 +684,7 @@
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -713,7 +710,7 @@
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -739,7 +736,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -765,7 +762,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -791,7 +788,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -817,7 +814,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
@@ -843,7 +840,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
@@ -869,7 +866,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
@@ -895,7 +892,7 @@
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>13</v>
       </c>
@@ -921,7 +918,7 @@
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
@@ -947,7 +944,7 @@
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>16</v>
       </c>
@@ -973,7 +970,7 @@
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>18</v>
       </c>
@@ -999,7 +996,7 @@
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>20</v>
       </c>
@@ -1025,7 +1022,7 @@
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>18</v>
       </c>
@@ -1051,7 +1048,7 @@
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>23</v>
       </c>
@@ -1077,7 +1074,7 @@
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>25</v>
       </c>
@@ -1103,7 +1100,7 @@
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>26</v>
       </c>
@@ -1129,7 +1126,7 @@
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>27</v>
       </c>
@@ -1155,7 +1152,7 @@
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>28</v>
       </c>
@@ -1181,7 +1178,7 @@
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>10</v>
       </c>
@@ -1207,7 +1204,7 @@
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>29</v>
       </c>
@@ -1233,7 +1230,7 @@
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>30</v>
       </c>
@@ -1259,7 +1256,7 @@
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>31</v>
       </c>
@@ -1285,7 +1282,7 @@
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>25</v>
       </c>
@@ -1311,7 +1308,7 @@
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>25</v>
       </c>
@@ -1337,7 +1334,7 @@
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>26</v>
       </c>
@@ -1363,7 +1360,7 @@
       <c r="S27" s="2"/>
       <c r="T27" s="2"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>32</v>
       </c>
@@ -1389,7 +1386,7 @@
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>33</v>
       </c>
@@ -1415,7 +1412,7 @@
       <c r="S29" s="2"/>
       <c r="T29" s="2"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>14</v>
       </c>
@@ -1441,7 +1438,7 @@
       <c r="S30" s="2"/>
       <c r="T30" s="2"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>35</v>
       </c>
@@ -1467,7 +1464,7 @@
       <c r="S31" s="2"/>
       <c r="T31" s="2"/>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>25</v>
       </c>
@@ -1493,7 +1490,7 @@
       <c r="S32" s="2"/>
       <c r="T32" s="2"/>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>23</v>
       </c>
@@ -1519,7 +1516,7 @@
       <c r="S33" s="2"/>
       <c r="T33" s="2"/>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>37</v>
       </c>
@@ -1545,7 +1542,7 @@
       <c r="S34" s="2"/>
       <c r="T34" s="2"/>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>38</v>
       </c>
@@ -1571,7 +1568,7 @@
       <c r="S35" s="2"/>
       <c r="T35" s="2"/>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>26</v>
       </c>
@@ -1597,7 +1594,7 @@
       <c r="S36" s="2"/>
       <c r="T36" s="2"/>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>23</v>
       </c>
@@ -1623,7 +1620,7 @@
       <c r="S37" s="2"/>
       <c r="T37" s="2"/>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>4</v>
       </c>
@@ -1649,7 +1646,7 @@
       <c r="S38" s="2"/>
       <c r="T38" s="2"/>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>30</v>
       </c>
@@ -1675,7 +1672,7 @@
       <c r="S39" s="2"/>
       <c r="T39" s="2"/>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>26</v>
       </c>
@@ -1701,7 +1698,7 @@
       <c r="S40" s="2"/>
       <c r="T40" s="2"/>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>41</v>
       </c>
@@ -1727,7 +1724,7 @@
       <c r="S41" s="2"/>
       <c r="T41" s="2"/>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>42</v>
       </c>
@@ -1753,7 +1750,7 @@
       <c r="S42" s="2"/>
       <c r="T42" s="2"/>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>43</v>
       </c>
@@ -1779,7 +1776,7 @@
       <c r="S43" s="2"/>
       <c r="T43" s="2"/>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>23</v>
       </c>
@@ -1805,7 +1802,7 @@
       <c r="S44" s="2"/>
       <c r="T44" s="2"/>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>44</v>
       </c>
@@ -1831,7 +1828,7 @@
       <c r="S45" s="2"/>
       <c r="T45" s="2"/>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>45</v>
       </c>
@@ -1857,7 +1854,7 @@
       <c r="S46" s="2"/>
       <c r="T46" s="2"/>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>46</v>
       </c>
@@ -1883,7 +1880,7 @@
       <c r="S47" s="2"/>
       <c r="T47" s="2"/>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>48</v>
       </c>
@@ -1909,7 +1906,7 @@
       <c r="S48" s="2"/>
       <c r="T48" s="2"/>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>50</v>
       </c>
@@ -1935,7 +1932,7 @@
       <c r="S49" s="2"/>
       <c r="T49" s="2"/>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>51</v>
       </c>
@@ -1961,7 +1958,7 @@
       <c r="S50" s="2"/>
       <c r="T50" s="2"/>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>52</v>
       </c>
@@ -1987,7 +1984,7 @@
       <c r="S51" s="2"/>
       <c r="T51" s="2"/>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>46</v>
       </c>
@@ -2013,7 +2010,7 @@
       <c r="S52" s="2"/>
       <c r="T52" s="2"/>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>23</v>
       </c>
@@ -2039,7 +2036,7 @@
       <c r="S53" s="2"/>
       <c r="T53" s="2"/>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>53</v>
       </c>
@@ -2065,7 +2062,7 @@
       <c r="S54" s="2"/>
       <c r="T54" s="2"/>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>54</v>
       </c>
@@ -2091,7 +2088,7 @@
       <c r="S55" s="2"/>
       <c r="T55" s="2"/>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>54</v>
       </c>
@@ -2117,7 +2114,7 @@
       <c r="S56" s="2"/>
       <c r="T56" s="2"/>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>55</v>
       </c>
@@ -2143,7 +2140,7 @@
       <c r="S57" s="2"/>
       <c r="T57" s="2"/>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>57</v>
       </c>
@@ -2169,7 +2166,7 @@
       <c r="S58" s="2"/>
       <c r="T58" s="2"/>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>7</v>
       </c>
@@ -2195,7 +2192,7 @@
       <c r="S59" s="2"/>
       <c r="T59" s="2"/>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>25</v>
       </c>
@@ -2221,7 +2218,7 @@
       <c r="S60" s="2"/>
       <c r="T60" s="2"/>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>59</v>
       </c>
@@ -2247,7 +2244,7 @@
       <c r="S61" s="2"/>
       <c r="T61" s="2"/>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>60</v>
       </c>
@@ -2273,7 +2270,7 @@
       <c r="S62" s="2"/>
       <c r="T62" s="2"/>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>62</v>
       </c>
@@ -2299,7 +2296,7 @@
       <c r="S63" s="2"/>
       <c r="T63" s="2"/>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>64</v>
       </c>
@@ -2325,7 +2322,7 @@
       <c r="S64" s="2"/>
       <c r="T64" s="2"/>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
         <v>66</v>
       </c>
@@ -2351,9 +2348,13 @@
       <c r="S65" s="2"/>
       <c r="T65" s="2"/>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A66" s="3"/>
-      <c r="B66" s="3"/>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>69</v>
+      </c>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
@@ -2373,7 +2374,7 @@
       <c r="S66" s="2"/>
       <c r="T66" s="2"/>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="2"/>
@@ -2395,7 +2396,7 @@
       <c r="S67" s="2"/>
       <c r="T67" s="2"/>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="2"/>
@@ -2417,7 +2418,7 @@
       <c r="S68" s="2"/>
       <c r="T68" s="2"/>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="2"/>
@@ -2439,7 +2440,7 @@
       <c r="S69" s="2"/>
       <c r="T69" s="2"/>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="2"/>
@@ -2461,7 +2462,7 @@
       <c r="S70" s="2"/>
       <c r="T70" s="2"/>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="2"/>
@@ -2483,7 +2484,7 @@
       <c r="S71" s="2"/>
       <c r="T71" s="2"/>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="2"/>
@@ -2505,7 +2506,7 @@
       <c r="S72" s="2"/>
       <c r="T72" s="2"/>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="2"/>
@@ -2527,7 +2528,7 @@
       <c r="S73" s="2"/>
       <c r="T73" s="2"/>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="2"/>
@@ -2549,7 +2550,7 @@
       <c r="S74" s="2"/>
       <c r="T74" s="2"/>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="2"/>
@@ -2571,7 +2572,7 @@
       <c r="S75" s="2"/>
       <c r="T75" s="2"/>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="2"/>
@@ -2593,7 +2594,7 @@
       <c r="S76" s="2"/>
       <c r="T76" s="2"/>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="2"/>
@@ -2615,7 +2616,7 @@
       <c r="S77" s="2"/>
       <c r="T77" s="2"/>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="2"/>
@@ -2637,7 +2638,7 @@
       <c r="S78" s="2"/>
       <c r="T78" s="2"/>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="2"/>
@@ -2659,7 +2660,7 @@
       <c r="S79" s="2"/>
       <c r="T79" s="2"/>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="2"/>
@@ -2681,7 +2682,7 @@
       <c r="S80" s="2"/>
       <c r="T80" s="2"/>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="2"/>
@@ -2703,7 +2704,7 @@
       <c r="S81" s="2"/>
       <c r="T81" s="2"/>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="2"/>
@@ -2725,7 +2726,7 @@
       <c r="S82" s="2"/>
       <c r="T82" s="2"/>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="2"/>
@@ -2747,7 +2748,7 @@
       <c r="S83" s="2"/>
       <c r="T83" s="2"/>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="2"/>
@@ -2769,7 +2770,7 @@
       <c r="S84" s="2"/>
       <c r="T84" s="2"/>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="2"/>
@@ -2791,7 +2792,7 @@
       <c r="S85" s="2"/>
       <c r="T85" s="2"/>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="2"/>
@@ -2813,7 +2814,7 @@
       <c r="S86" s="2"/>
       <c r="T86" s="2"/>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="2"/>
@@ -2835,7 +2836,7 @@
       <c r="S87" s="2"/>
       <c r="T87" s="2"/>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="2"/>
@@ -2857,7 +2858,7 @@
       <c r="S88" s="2"/>
       <c r="T88" s="2"/>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="2"/>
@@ -2879,7 +2880,7 @@
       <c r="S89" s="2"/>
       <c r="T89" s="2"/>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="2"/>
@@ -2901,7 +2902,7 @@
       <c r="S90" s="2"/>
       <c r="T90" s="2"/>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="2"/>
@@ -2923,7 +2924,7 @@
       <c r="S91" s="2"/>
       <c r="T91" s="2"/>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="2"/>
@@ -2945,7 +2946,7 @@
       <c r="S92" s="2"/>
       <c r="T92" s="2"/>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="2"/>
@@ -2967,7 +2968,7 @@
       <c r="S93" s="2"/>
       <c r="T93" s="2"/>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="2"/>
@@ -2989,7 +2990,7 @@
       <c r="S94" s="2"/>
       <c r="T94" s="2"/>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="2"/>
@@ -3011,7 +3012,7 @@
       <c r="S95" s="2"/>
       <c r="T95" s="2"/>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="2"/>
@@ -3033,7 +3034,7 @@
       <c r="S96" s="2"/>
       <c r="T96" s="2"/>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="2"/>
@@ -3055,7 +3056,7 @@
       <c r="S97" s="2"/>
       <c r="T97" s="2"/>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="2"/>
@@ -3077,7 +3078,7 @@
       <c r="S98" s="2"/>
       <c r="T98" s="2"/>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="2"/>
@@ -3099,7 +3100,7 @@
       <c r="S99" s="2"/>
       <c r="T99" s="2"/>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="2"/>
@@ -3121,7 +3122,7 @@
       <c r="S100" s="2"/>
       <c r="T100" s="2"/>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="2"/>
@@ -3143,7 +3144,7 @@
       <c r="S101" s="2"/>
       <c r="T101" s="2"/>
     </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="2"/>
@@ -3165,7 +3166,7 @@
       <c r="S102" s="2"/>
       <c r="T102" s="2"/>
     </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="2"/>
@@ -3187,7 +3188,7 @@
       <c r="S103" s="2"/>
       <c r="T103" s="2"/>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="2"/>
@@ -3209,7 +3210,7 @@
       <c r="S104" s="2"/>
       <c r="T104" s="2"/>
     </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="2"/>
@@ -3231,7 +3232,7 @@
       <c r="S105" s="2"/>
       <c r="T105" s="2"/>
     </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="2"/>
@@ -3253,7 +3254,7 @@
       <c r="S106" s="2"/>
       <c r="T106" s="2"/>
     </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="2"/>
@@ -3275,7 +3276,7 @@
       <c r="S107" s="2"/>
       <c r="T107" s="2"/>
     </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="2"/>
@@ -3297,7 +3298,7 @@
       <c r="S108" s="2"/>
       <c r="T108" s="2"/>
     </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="2"/>
@@ -3319,7 +3320,7 @@
       <c r="S109" s="2"/>
       <c r="T109" s="2"/>
     </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="2"/>
@@ -3341,7 +3342,7 @@
       <c r="S110" s="2"/>
       <c r="T110" s="2"/>
     </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="2"/>
@@ -3363,7 +3364,7 @@
       <c r="S111" s="2"/>
       <c r="T111" s="2"/>
     </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="2"/>
@@ -3385,7 +3386,7 @@
       <c r="S112" s="2"/>
       <c r="T112" s="2"/>
     </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="2"/>
@@ -3407,7 +3408,7 @@
       <c r="S113" s="2"/>
       <c r="T113" s="2"/>
     </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="2"/>
@@ -3429,7 +3430,7 @@
       <c r="S114" s="2"/>
       <c r="T114" s="2"/>
     </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="2"/>
@@ -3451,7 +3452,7 @@
       <c r="S115" s="2"/>
       <c r="T115" s="2"/>
     </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="2"/>
@@ -3473,7 +3474,7 @@
       <c r="S116" s="2"/>
       <c r="T116" s="2"/>
     </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="2"/>
@@ -3495,7 +3496,7 @@
       <c r="S117" s="2"/>
       <c r="T117" s="2"/>
     </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="2"/>
@@ -3517,7 +3518,7 @@
       <c r="S118" s="2"/>
       <c r="T118" s="2"/>
     </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="2"/>
@@ -3539,7 +3540,7 @@
       <c r="S119" s="2"/>
       <c r="T119" s="2"/>
     </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="2"/>
@@ -3561,7 +3562,7 @@
       <c r="S120" s="2"/>
       <c r="T120" s="2"/>
     </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="2"/>
@@ -3583,7 +3584,7 @@
       <c r="S121" s="2"/>
       <c r="T121" s="2"/>
     </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="2"/>
@@ -3605,7 +3606,7 @@
       <c r="S122" s="2"/>
       <c r="T122" s="2"/>
     </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="2"/>
@@ -3627,7 +3628,7 @@
       <c r="S123" s="2"/>
       <c r="T123" s="2"/>
     </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="2"/>
@@ -3649,7 +3650,7 @@
       <c r="S124" s="2"/>
       <c r="T124" s="2"/>
     </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="2"/>
@@ -3671,7 +3672,7 @@
       <c r="S125" s="2"/>
       <c r="T125" s="2"/>
     </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="2"/>
@@ -3693,7 +3694,7 @@
       <c r="S126" s="2"/>
       <c r="T126" s="2"/>
     </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="2"/>
@@ -3715,7 +3716,7 @@
       <c r="S127" s="2"/>
       <c r="T127" s="2"/>
     </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="2"/>
@@ -3737,7 +3738,7 @@
       <c r="S128" s="2"/>
       <c r="T128" s="2"/>
     </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="2"/>
@@ -3759,7 +3760,7 @@
       <c r="S129" s="2"/>
       <c r="T129" s="2"/>
     </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="2"/>
@@ -3781,7 +3782,7 @@
       <c r="S130" s="2"/>
       <c r="T130" s="2"/>
     </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="2"/>
@@ -3803,7 +3804,7 @@
       <c r="S131" s="2"/>
       <c r="T131" s="2"/>
     </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="2"/>
@@ -3825,7 +3826,7 @@
       <c r="S132" s="2"/>
       <c r="T132" s="2"/>
     </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="2"/>
@@ -3847,7 +3848,7 @@
       <c r="S133" s="2"/>
       <c r="T133" s="2"/>
     </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="2"/>
@@ -3869,7 +3870,7 @@
       <c r="S134" s="2"/>
       <c r="T134" s="2"/>
     </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="2"/>
@@ -3891,7 +3892,7 @@
       <c r="S135" s="2"/>
       <c r="T135" s="2"/>
     </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="2"/>
@@ -3913,7 +3914,7 @@
       <c r="S136" s="2"/>
       <c r="T136" s="2"/>
     </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="2"/>
@@ -3935,7 +3936,7 @@
       <c r="S137" s="2"/>
       <c r="T137" s="2"/>
     </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="2"/>
@@ -3957,7 +3958,7 @@
       <c r="S138" s="2"/>
       <c r="T138" s="2"/>
     </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="2"/>
@@ -3979,7 +3980,7 @@
       <c r="S139" s="2"/>
       <c r="T139" s="2"/>
     </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="2"/>
@@ -4001,7 +4002,7 @@
       <c r="S140" s="2"/>
       <c r="T140" s="2"/>
     </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="2"/>
@@ -4023,7 +4024,7 @@
       <c r="S141" s="2"/>
       <c r="T141" s="2"/>
     </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="2"/>
@@ -4045,7 +4046,7 @@
       <c r="S142" s="2"/>
       <c r="T142" s="2"/>
     </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="2"/>
@@ -4067,7 +4068,7 @@
       <c r="S143" s="2"/>
       <c r="T143" s="2"/>
     </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="2"/>
@@ -4089,7 +4090,7 @@
       <c r="S144" s="2"/>
       <c r="T144" s="2"/>
     </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="2"/>
@@ -4111,7 +4112,7 @@
       <c r="S145" s="2"/>
       <c r="T145" s="2"/>
     </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="2"/>
@@ -4133,7 +4134,7 @@
       <c r="S146" s="2"/>
       <c r="T146" s="2"/>
     </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="2"/>
@@ -4155,7 +4156,7 @@
       <c r="S147" s="2"/>
       <c r="T147" s="2"/>
     </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="2"/>
@@ -4177,7 +4178,7 @@
       <c r="S148" s="2"/>
       <c r="T148" s="2"/>
     </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="2"/>
@@ -4199,7 +4200,7 @@
       <c r="S149" s="2"/>
       <c r="T149" s="2"/>
     </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="2"/>
@@ -4221,7 +4222,7 @@
       <c r="S150" s="2"/>
       <c r="T150" s="2"/>
     </row>
-    <row r="151" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="2"/>
@@ -4243,7 +4244,7 @@
       <c r="S151" s="2"/>
       <c r="T151" s="2"/>
     </row>
-    <row r="152" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="2"/>
@@ -4265,7 +4266,7 @@
       <c r="S152" s="2"/>
       <c r="T152" s="2"/>
     </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="2"/>
@@ -4287,7 +4288,7 @@
       <c r="S153" s="2"/>
       <c r="T153" s="2"/>
     </row>
-    <row r="154" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="2"/>
@@ -4309,7 +4310,7 @@
       <c r="S154" s="2"/>
       <c r="T154" s="2"/>
     </row>
-    <row r="155" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="2"/>
@@ -4331,7 +4332,7 @@
       <c r="S155" s="2"/>
       <c r="T155" s="2"/>
     </row>
-    <row r="156" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="2"/>
@@ -4353,7 +4354,7 @@
       <c r="S156" s="2"/>
       <c r="T156" s="2"/>
     </row>
-    <row r="157" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="2"/>
@@ -4375,7 +4376,7 @@
       <c r="S157" s="2"/>
       <c r="T157" s="2"/>
     </row>
-    <row r="158" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="2"/>
@@ -4397,7 +4398,7 @@
       <c r="S158" s="2"/>
       <c r="T158" s="2"/>
     </row>
-    <row r="159" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="2"/>
@@ -4419,7 +4420,7 @@
       <c r="S159" s="2"/>
       <c r="T159" s="2"/>
     </row>
-    <row r="160" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="2"/>
@@ -4441,7 +4442,7 @@
       <c r="S160" s="2"/>
       <c r="T160" s="2"/>
     </row>
-    <row r="161" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="2"/>
@@ -4463,7 +4464,7 @@
       <c r="S161" s="2"/>
       <c r="T161" s="2"/>
     </row>
-    <row r="162" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
       <c r="C162" s="2"/>
@@ -4485,7 +4486,7 @@
       <c r="S162" s="2"/>
       <c r="T162" s="2"/>
     </row>
-    <row r="163" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
       <c r="C163" s="2"/>
@@ -4507,7 +4508,7 @@
       <c r="S163" s="2"/>
       <c r="T163" s="2"/>
     </row>
-    <row r="164" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
       <c r="C164" s="2"/>
@@ -4529,7 +4530,7 @@
       <c r="S164" s="2"/>
       <c r="T164" s="2"/>
     </row>
-    <row r="165" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
       <c r="C165" s="2"/>
@@ -4551,7 +4552,7 @@
       <c r="S165" s="2"/>
       <c r="T165" s="2"/>
     </row>
-    <row r="166" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
       <c r="C166" s="2"/>
@@ -4573,7 +4574,7 @@
       <c r="S166" s="2"/>
       <c r="T166" s="2"/>
     </row>
-    <row r="167" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
       <c r="C167" s="2"/>
@@ -4595,7 +4596,7 @@
       <c r="S167" s="2"/>
       <c r="T167" s="2"/>
     </row>
-    <row r="168" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
       <c r="C168" s="2"/>
@@ -4617,7 +4618,7 @@
       <c r="S168" s="2"/>
       <c r="T168" s="2"/>
     </row>
-    <row r="169" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
       <c r="C169" s="2"/>
@@ -4639,7 +4640,7 @@
       <c r="S169" s="2"/>
       <c r="T169" s="2"/>
     </row>
-    <row r="170" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
       <c r="C170" s="2"/>
@@ -4661,7 +4662,7 @@
       <c r="S170" s="2"/>
       <c r="T170" s="2"/>
     </row>
-    <row r="171" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
       <c r="C171" s="2"/>
@@ -4683,7 +4684,7 @@
       <c r="S171" s="2"/>
       <c r="T171" s="2"/>
     </row>
-    <row r="172" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
       <c r="C172" s="2"/>
@@ -4705,7 +4706,7 @@
       <c r="S172" s="2"/>
       <c r="T172" s="2"/>
     </row>
-    <row r="173" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
       <c r="C173" s="2"/>
@@ -4727,7 +4728,7 @@
       <c r="S173" s="2"/>
       <c r="T173" s="2"/>
     </row>
-    <row r="174" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A174" s="3"/>
       <c r="B174" s="3"/>
       <c r="C174" s="2"/>
@@ -4749,7 +4750,7 @@
       <c r="S174" s="2"/>
       <c r="T174" s="2"/>
     </row>
-    <row r="175" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="C175" s="2"/>
@@ -4771,7 +4772,7 @@
       <c r="S175" s="2"/>
       <c r="T175" s="2"/>
     </row>
-    <row r="176" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="C176" s="2"/>
@@ -4793,7 +4794,7 @@
       <c r="S176" s="2"/>
       <c r="T176" s="2"/>
     </row>
-    <row r="177" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="C177" s="2"/>
@@ -4815,7 +4816,7 @@
       <c r="S177" s="2"/>
       <c r="T177" s="2"/>
     </row>
-    <row r="178" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="C178" s="2"/>
@@ -4837,7 +4838,7 @@
       <c r="S178" s="2"/>
       <c r="T178" s="2"/>
     </row>
-    <row r="179" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A179" s="3"/>
       <c r="B179" s="3"/>
       <c r="C179" s="2"/>
@@ -4859,7 +4860,7 @@
       <c r="S179" s="2"/>
       <c r="T179" s="2"/>
     </row>
-    <row r="180" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A180" s="3"/>
       <c r="B180" s="3"/>
       <c r="C180" s="2"/>
@@ -4881,7 +4882,7 @@
       <c r="S180" s="2"/>
       <c r="T180" s="2"/>
     </row>
-    <row r="181" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A181" s="3"/>
       <c r="B181" s="3"/>
       <c r="C181" s="2"/>
@@ -4903,7 +4904,7 @@
       <c r="S181" s="2"/>
       <c r="T181" s="2"/>
     </row>
-    <row r="182" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A182" s="3"/>
       <c r="B182" s="3"/>
       <c r="C182" s="2"/>
@@ -4925,7 +4926,7 @@
       <c r="S182" s="2"/>
       <c r="T182" s="2"/>
     </row>
-    <row r="183" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A183" s="3"/>
       <c r="B183" s="3"/>
       <c r="C183" s="2"/>
@@ -4947,7 +4948,7 @@
       <c r="S183" s="2"/>
       <c r="T183" s="2"/>
     </row>
-    <row r="184" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A184" s="3"/>
       <c r="B184" s="3"/>
       <c r="C184" s="2"/>
@@ -4969,7 +4970,7 @@
       <c r="S184" s="2"/>
       <c r="T184" s="2"/>
     </row>
-    <row r="185" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A185" s="3"/>
       <c r="B185" s="3"/>
       <c r="C185" s="2"/>
@@ -4991,7 +4992,7 @@
       <c r="S185" s="2"/>
       <c r="T185" s="2"/>
     </row>
-    <row r="186" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A186" s="3"/>
       <c r="B186" s="3"/>
       <c r="C186" s="2"/>
@@ -5013,7 +5014,7 @@
       <c r="S186" s="2"/>
       <c r="T186" s="2"/>
     </row>
-    <row r="187" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A187" s="3"/>
       <c r="B187" s="3"/>
       <c r="C187" s="2"/>
@@ -5035,7 +5036,7 @@
       <c r="S187" s="2"/>
       <c r="T187" s="2"/>
     </row>
-    <row r="188" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A188" s="3"/>
       <c r="B188" s="3"/>
       <c r="C188" s="2"/>
@@ -5057,7 +5058,7 @@
       <c r="S188" s="2"/>
       <c r="T188" s="2"/>
     </row>
-    <row r="189" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A189" s="3"/>
       <c r="B189" s="3"/>
       <c r="C189" s="2"/>
@@ -5079,7 +5080,7 @@
       <c r="S189" s="2"/>
       <c r="T189" s="2"/>
     </row>
-    <row r="190" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A190" s="3"/>
       <c r="B190" s="3"/>
       <c r="C190" s="2"/>
@@ -5101,7 +5102,7 @@
       <c r="S190" s="2"/>
       <c r="T190" s="2"/>
     </row>
-    <row r="191" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A191" s="3"/>
       <c r="B191" s="3"/>
       <c r="C191" s="2"/>
@@ -5123,7 +5124,7 @@
       <c r="S191" s="2"/>
       <c r="T191" s="2"/>
     </row>
-    <row r="192" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A192" s="3"/>
       <c r="B192" s="3"/>
       <c r="C192" s="2"/>
@@ -5145,7 +5146,7 @@
       <c r="S192" s="2"/>
       <c r="T192" s="2"/>
     </row>
-    <row r="193" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A193" s="3"/>
       <c r="B193" s="3"/>
       <c r="C193" s="2"/>
@@ -5167,7 +5168,7 @@
       <c r="S193" s="2"/>
       <c r="T193" s="2"/>
     </row>
-    <row r="194" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A194" s="3"/>
       <c r="B194" s="3"/>
       <c r="C194" s="2"/>
@@ -5189,7 +5190,7 @@
       <c r="S194" s="2"/>
       <c r="T194" s="2"/>
     </row>
-    <row r="195" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A195" s="3"/>
       <c r="B195" s="3"/>
       <c r="C195" s="2"/>
@@ -5211,7 +5212,7 @@
       <c r="S195" s="2"/>
       <c r="T195" s="2"/>
     </row>
-    <row r="196" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A196" s="3"/>
       <c r="B196" s="3"/>
       <c r="C196" s="2"/>
@@ -5233,7 +5234,7 @@
       <c r="S196" s="2"/>
       <c r="T196" s="2"/>
     </row>
-    <row r="197" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A197" s="3"/>
       <c r="B197" s="3"/>
       <c r="C197" s="2"/>
@@ -5255,7 +5256,7 @@
       <c r="S197" s="2"/>
       <c r="T197" s="2"/>
     </row>
-    <row r="198" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A198" s="3"/>
       <c r="B198" s="3"/>
       <c r="C198" s="2"/>
@@ -5277,7 +5278,7 @@
       <c r="S198" s="2"/>
       <c r="T198" s="2"/>
     </row>
-    <row r="199" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A199" s="3"/>
       <c r="B199" s="3"/>
       <c r="C199" s="2"/>
@@ -5299,7 +5300,7 @@
       <c r="S199" s="2"/>
       <c r="T199" s="2"/>
     </row>
-    <row r="200" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A200" s="3"/>
       <c r="B200" s="3"/>
       <c r="C200" s="2"/>

--- a/许愿墙.xlsx
+++ b/许愿墙.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\桌面\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3932C32-3F17-47BC-A4A1-2F2E14D69E4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="30240" windowHeight="13300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,6 +18,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="69">
   <si>
     <t>你想找什么样的工作？</t>
   </si>
@@ -234,18 +230,25 @@
   </si>
   <si>
     <t>网络安全</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>已经通知面试了</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI算法大模型</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -268,29 +271,165 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="9.75"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
-      <color rgb="FF000000"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -303,8 +442,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -342,9 +667,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -365,27 +932,78 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
+<customStorage xmlns="https://web.wps.cn/et/2018/main">
+  <book/>
+  <sheets/>
+</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -640,28 +1258,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:T200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="15.2"/>
   <cols>
     <col min="1" max="1" width="74" customWidth="1"/>
     <col min="2" max="2" width="54" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -687,7 +1304,7 @@
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -713,7 +1330,7 @@
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -739,7 +1356,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -765,7 +1382,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -791,7 +1408,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -817,7 +1434,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20">
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
@@ -843,7 +1460,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
@@ -869,7 +1486,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20">
       <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
@@ -895,7 +1512,7 @@
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20">
       <c r="A10" s="3" t="s">
         <v>13</v>
       </c>
@@ -921,7 +1538,7 @@
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20">
       <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
@@ -947,7 +1564,7 @@
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20">
       <c r="A12" s="3" t="s">
         <v>16</v>
       </c>
@@ -973,7 +1590,7 @@
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20">
       <c r="A13" s="3" t="s">
         <v>18</v>
       </c>
@@ -999,7 +1616,7 @@
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20">
       <c r="A14" s="3" t="s">
         <v>20</v>
       </c>
@@ -1025,7 +1642,7 @@
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20">
       <c r="A15" s="3" t="s">
         <v>18</v>
       </c>
@@ -1051,7 +1668,7 @@
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20">
       <c r="A16" s="3" t="s">
         <v>23</v>
       </c>
@@ -1077,7 +1694,7 @@
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20">
       <c r="A17" s="3" t="s">
         <v>25</v>
       </c>
@@ -1103,7 +1720,7 @@
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20">
       <c r="A18" s="3" t="s">
         <v>26</v>
       </c>
@@ -1129,7 +1746,7 @@
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20">
       <c r="A19" s="3" t="s">
         <v>27</v>
       </c>
@@ -1155,7 +1772,7 @@
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20">
       <c r="A20" s="3" t="s">
         <v>28</v>
       </c>
@@ -1181,7 +1798,7 @@
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20">
       <c r="A21" s="3" t="s">
         <v>10</v>
       </c>
@@ -1207,7 +1824,7 @@
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20">
       <c r="A22" s="3" t="s">
         <v>29</v>
       </c>
@@ -1233,7 +1850,7 @@
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20">
       <c r="A23" s="3" t="s">
         <v>30</v>
       </c>
@@ -1259,7 +1876,7 @@
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20">
       <c r="A24" s="3" t="s">
         <v>31</v>
       </c>
@@ -1285,7 +1902,7 @@
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20">
       <c r="A25" s="3" t="s">
         <v>25</v>
       </c>
@@ -1311,7 +1928,7 @@
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20">
       <c r="A26" s="3" t="s">
         <v>25</v>
       </c>
@@ -1337,7 +1954,7 @@
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20">
       <c r="A27" s="3" t="s">
         <v>26</v>
       </c>
@@ -1363,7 +1980,7 @@
       <c r="S27" s="2"/>
       <c r="T27" s="2"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20">
       <c r="A28" s="3" t="s">
         <v>32</v>
       </c>
@@ -1389,7 +2006,7 @@
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20">
       <c r="A29" s="3" t="s">
         <v>33</v>
       </c>
@@ -1415,7 +2032,7 @@
       <c r="S29" s="2"/>
       <c r="T29" s="2"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20">
       <c r="A30" s="3" t="s">
         <v>14</v>
       </c>
@@ -1441,7 +2058,7 @@
       <c r="S30" s="2"/>
       <c r="T30" s="2"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20">
       <c r="A31" s="3" t="s">
         <v>35</v>
       </c>
@@ -1467,7 +2084,7 @@
       <c r="S31" s="2"/>
       <c r="T31" s="2"/>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20">
       <c r="A32" s="3" t="s">
         <v>25</v>
       </c>
@@ -1493,7 +2110,7 @@
       <c r="S32" s="2"/>
       <c r="T32" s="2"/>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:20">
       <c r="A33" s="3" t="s">
         <v>23</v>
       </c>
@@ -1519,7 +2136,7 @@
       <c r="S33" s="2"/>
       <c r="T33" s="2"/>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20">
       <c r="A34" s="3" t="s">
         <v>37</v>
       </c>
@@ -1545,7 +2162,7 @@
       <c r="S34" s="2"/>
       <c r="T34" s="2"/>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:20">
       <c r="A35" s="3" t="s">
         <v>38</v>
       </c>
@@ -1571,7 +2188,7 @@
       <c r="S35" s="2"/>
       <c r="T35" s="2"/>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:20">
       <c r="A36" s="3" t="s">
         <v>26</v>
       </c>
@@ -1597,7 +2214,7 @@
       <c r="S36" s="2"/>
       <c r="T36" s="2"/>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:20">
       <c r="A37" s="3" t="s">
         <v>23</v>
       </c>
@@ -1623,7 +2240,7 @@
       <c r="S37" s="2"/>
       <c r="T37" s="2"/>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:20">
       <c r="A38" s="3" t="s">
         <v>4</v>
       </c>
@@ -1649,7 +2266,7 @@
       <c r="S38" s="2"/>
       <c r="T38" s="2"/>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:20">
       <c r="A39" s="3" t="s">
         <v>30</v>
       </c>
@@ -1675,7 +2292,7 @@
       <c r="S39" s="2"/>
       <c r="T39" s="2"/>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:20">
       <c r="A40" s="3" t="s">
         <v>26</v>
       </c>
@@ -1701,7 +2318,7 @@
       <c r="S40" s="2"/>
       <c r="T40" s="2"/>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:20">
       <c r="A41" s="3" t="s">
         <v>41</v>
       </c>
@@ -1727,7 +2344,7 @@
       <c r="S41" s="2"/>
       <c r="T41" s="2"/>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:20">
       <c r="A42" s="3" t="s">
         <v>42</v>
       </c>
@@ -1753,7 +2370,7 @@
       <c r="S42" s="2"/>
       <c r="T42" s="2"/>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:20">
       <c r="A43" s="3" t="s">
         <v>43</v>
       </c>
@@ -1779,7 +2396,7 @@
       <c r="S43" s="2"/>
       <c r="T43" s="2"/>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:20">
       <c r="A44" s="3" t="s">
         <v>23</v>
       </c>
@@ -1805,7 +2422,7 @@
       <c r="S44" s="2"/>
       <c r="T44" s="2"/>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:20">
       <c r="A45" s="3" t="s">
         <v>44</v>
       </c>
@@ -1831,7 +2448,7 @@
       <c r="S45" s="2"/>
       <c r="T45" s="2"/>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:20">
       <c r="A46" s="3" t="s">
         <v>45</v>
       </c>
@@ -1857,7 +2474,7 @@
       <c r="S46" s="2"/>
       <c r="T46" s="2"/>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:20">
       <c r="A47" s="4" t="s">
         <v>46</v>
       </c>
@@ -1883,7 +2500,7 @@
       <c r="S47" s="2"/>
       <c r="T47" s="2"/>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:20">
       <c r="A48" s="3" t="s">
         <v>48</v>
       </c>
@@ -1909,7 +2526,7 @@
       <c r="S48" s="2"/>
       <c r="T48" s="2"/>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:20">
       <c r="A49" s="3" t="s">
         <v>50</v>
       </c>
@@ -1935,7 +2552,7 @@
       <c r="S49" s="2"/>
       <c r="T49" s="2"/>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:20">
       <c r="A50" s="3" t="s">
         <v>51</v>
       </c>
@@ -1961,7 +2578,7 @@
       <c r="S50" s="2"/>
       <c r="T50" s="2"/>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:20">
       <c r="A51" s="3" t="s">
         <v>52</v>
       </c>
@@ -1987,7 +2604,7 @@
       <c r="S51" s="2"/>
       <c r="T51" s="2"/>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:20">
       <c r="A52" s="3" t="s">
         <v>46</v>
       </c>
@@ -2013,7 +2630,7 @@
       <c r="S52" s="2"/>
       <c r="T52" s="2"/>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:20">
       <c r="A53" s="3" t="s">
         <v>23</v>
       </c>
@@ -2039,7 +2656,7 @@
       <c r="S53" s="2"/>
       <c r="T53" s="2"/>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:20">
       <c r="A54" s="3" t="s">
         <v>53</v>
       </c>
@@ -2065,7 +2682,7 @@
       <c r="S54" s="2"/>
       <c r="T54" s="2"/>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:20">
       <c r="A55" s="3" t="s">
         <v>54</v>
       </c>
@@ -2091,7 +2708,7 @@
       <c r="S55" s="2"/>
       <c r="T55" s="2"/>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:20">
       <c r="A56" s="3" t="s">
         <v>54</v>
       </c>
@@ -2117,7 +2734,7 @@
       <c r="S56" s="2"/>
       <c r="T56" s="2"/>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:20">
       <c r="A57" s="3" t="s">
         <v>55</v>
       </c>
@@ -2143,7 +2760,7 @@
       <c r="S57" s="2"/>
       <c r="T57" s="2"/>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:20">
       <c r="A58" s="3" t="s">
         <v>57</v>
       </c>
@@ -2169,7 +2786,7 @@
       <c r="S58" s="2"/>
       <c r="T58" s="2"/>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:20">
       <c r="A59" s="3" t="s">
         <v>7</v>
       </c>
@@ -2195,7 +2812,7 @@
       <c r="S59" s="2"/>
       <c r="T59" s="2"/>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:20">
       <c r="A60" s="3" t="s">
         <v>25</v>
       </c>
@@ -2221,7 +2838,7 @@
       <c r="S60" s="2"/>
       <c r="T60" s="2"/>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:20">
       <c r="A61" s="3" t="s">
         <v>59</v>
       </c>
@@ -2247,7 +2864,7 @@
       <c r="S61" s="2"/>
       <c r="T61" s="2"/>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:20">
       <c r="A62" s="3" t="s">
         <v>60</v>
       </c>
@@ -2273,7 +2890,7 @@
       <c r="S62" s="2"/>
       <c r="T62" s="2"/>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:20">
       <c r="A63" s="5" t="s">
         <v>62</v>
       </c>
@@ -2299,7 +2916,7 @@
       <c r="S63" s="2"/>
       <c r="T63" s="2"/>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:20">
       <c r="A64" t="s">
         <v>64</v>
       </c>
@@ -2325,7 +2942,7 @@
       <c r="S64" s="2"/>
       <c r="T64" s="2"/>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:20">
       <c r="A65" s="7" t="s">
         <v>66</v>
       </c>
@@ -2351,9 +2968,13 @@
       <c r="S65" s="2"/>
       <c r="T65" s="2"/>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A66" s="3"/>
-      <c r="B66" s="3"/>
+    <row r="66" spans="1:20">
+      <c r="A66" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
@@ -2373,7 +2994,7 @@
       <c r="S66" s="2"/>
       <c r="T66" s="2"/>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:20">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="2"/>
@@ -2395,7 +3016,7 @@
       <c r="S67" s="2"/>
       <c r="T67" s="2"/>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:20">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="2"/>
@@ -2417,7 +3038,7 @@
       <c r="S68" s="2"/>
       <c r="T68" s="2"/>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:20">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="2"/>
@@ -2439,7 +3060,7 @@
       <c r="S69" s="2"/>
       <c r="T69" s="2"/>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:20">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="2"/>
@@ -2461,7 +3082,7 @@
       <c r="S70" s="2"/>
       <c r="T70" s="2"/>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:20">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="2"/>
@@ -2483,7 +3104,7 @@
       <c r="S71" s="2"/>
       <c r="T71" s="2"/>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:20">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="2"/>
@@ -2505,7 +3126,7 @@
       <c r="S72" s="2"/>
       <c r="T72" s="2"/>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:20">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="2"/>
@@ -2527,7 +3148,7 @@
       <c r="S73" s="2"/>
       <c r="T73" s="2"/>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:20">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="2"/>
@@ -2549,7 +3170,7 @@
       <c r="S74" s="2"/>
       <c r="T74" s="2"/>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:20">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="2"/>
@@ -2571,7 +3192,7 @@
       <c r="S75" s="2"/>
       <c r="T75" s="2"/>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:20">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="2"/>
@@ -2593,7 +3214,7 @@
       <c r="S76" s="2"/>
       <c r="T76" s="2"/>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:20">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="2"/>
@@ -2615,7 +3236,7 @@
       <c r="S77" s="2"/>
       <c r="T77" s="2"/>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:20">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="2"/>
@@ -2637,7 +3258,7 @@
       <c r="S78" s="2"/>
       <c r="T78" s="2"/>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:20">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="2"/>
@@ -2659,7 +3280,7 @@
       <c r="S79" s="2"/>
       <c r="T79" s="2"/>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:20">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="2"/>
@@ -2681,7 +3302,7 @@
       <c r="S80" s="2"/>
       <c r="T80" s="2"/>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:20">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="2"/>
@@ -2703,7 +3324,7 @@
       <c r="S81" s="2"/>
       <c r="T81" s="2"/>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:20">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="2"/>
@@ -2725,7 +3346,7 @@
       <c r="S82" s="2"/>
       <c r="T82" s="2"/>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:20">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="2"/>
@@ -2747,7 +3368,7 @@
       <c r="S83" s="2"/>
       <c r="T83" s="2"/>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:20">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="2"/>
@@ -2769,7 +3390,7 @@
       <c r="S84" s="2"/>
       <c r="T84" s="2"/>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:20">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="2"/>
@@ -2791,7 +3412,7 @@
       <c r="S85" s="2"/>
       <c r="T85" s="2"/>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:20">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="2"/>
@@ -2813,7 +3434,7 @@
       <c r="S86" s="2"/>
       <c r="T86" s="2"/>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:20">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="2"/>
@@ -2835,7 +3456,7 @@
       <c r="S87" s="2"/>
       <c r="T87" s="2"/>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:20">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="2"/>
@@ -2857,7 +3478,7 @@
       <c r="S88" s="2"/>
       <c r="T88" s="2"/>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:20">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="2"/>
@@ -2879,7 +3500,7 @@
       <c r="S89" s="2"/>
       <c r="T89" s="2"/>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:20">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="2"/>
@@ -2901,7 +3522,7 @@
       <c r="S90" s="2"/>
       <c r="T90" s="2"/>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:20">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="2"/>
@@ -2923,7 +3544,7 @@
       <c r="S91" s="2"/>
       <c r="T91" s="2"/>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:20">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="2"/>
@@ -2945,7 +3566,7 @@
       <c r="S92" s="2"/>
       <c r="T92" s="2"/>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:20">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="2"/>
@@ -2967,7 +3588,7 @@
       <c r="S93" s="2"/>
       <c r="T93" s="2"/>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:20">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="2"/>
@@ -2989,7 +3610,7 @@
       <c r="S94" s="2"/>
       <c r="T94" s="2"/>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:20">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="2"/>
@@ -3011,7 +3632,7 @@
       <c r="S95" s="2"/>
       <c r="T95" s="2"/>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:20">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="2"/>
@@ -3033,7 +3654,7 @@
       <c r="S96" s="2"/>
       <c r="T96" s="2"/>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:20">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="2"/>
@@ -3055,7 +3676,7 @@
       <c r="S97" s="2"/>
       <c r="T97" s="2"/>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:20">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="2"/>
@@ -3077,7 +3698,7 @@
       <c r="S98" s="2"/>
       <c r="T98" s="2"/>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:20">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="2"/>
@@ -3099,7 +3720,7 @@
       <c r="S99" s="2"/>
       <c r="T99" s="2"/>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:20">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="2"/>
@@ -3121,7 +3742,7 @@
       <c r="S100" s="2"/>
       <c r="T100" s="2"/>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:20">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="2"/>
@@ -3143,7 +3764,7 @@
       <c r="S101" s="2"/>
       <c r="T101" s="2"/>
     </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:20">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="2"/>
@@ -3165,7 +3786,7 @@
       <c r="S102" s="2"/>
       <c r="T102" s="2"/>
     </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:20">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="2"/>
@@ -3187,7 +3808,7 @@
       <c r="S103" s="2"/>
       <c r="T103" s="2"/>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:20">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="2"/>
@@ -3209,7 +3830,7 @@
       <c r="S104" s="2"/>
       <c r="T104" s="2"/>
     </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:20">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="2"/>
@@ -3231,7 +3852,7 @@
       <c r="S105" s="2"/>
       <c r="T105" s="2"/>
     </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:20">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="2"/>
@@ -3253,7 +3874,7 @@
       <c r="S106" s="2"/>
       <c r="T106" s="2"/>
     </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:20">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="2"/>
@@ -3275,7 +3896,7 @@
       <c r="S107" s="2"/>
       <c r="T107" s="2"/>
     </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:20">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="2"/>
@@ -3297,7 +3918,7 @@
       <c r="S108" s="2"/>
       <c r="T108" s="2"/>
     </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:20">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="2"/>
@@ -3319,7 +3940,7 @@
       <c r="S109" s="2"/>
       <c r="T109" s="2"/>
     </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:20">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="2"/>
@@ -3341,7 +3962,7 @@
       <c r="S110" s="2"/>
       <c r="T110" s="2"/>
     </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:20">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="2"/>
@@ -3363,7 +3984,7 @@
       <c r="S111" s="2"/>
       <c r="T111" s="2"/>
     </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:20">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="2"/>
@@ -3385,7 +4006,7 @@
       <c r="S112" s="2"/>
       <c r="T112" s="2"/>
     </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:20">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="2"/>
@@ -3407,7 +4028,7 @@
       <c r="S113" s="2"/>
       <c r="T113" s="2"/>
     </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:20">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="2"/>
@@ -3429,7 +4050,7 @@
       <c r="S114" s="2"/>
       <c r="T114" s="2"/>
     </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:20">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="2"/>
@@ -3451,7 +4072,7 @@
       <c r="S115" s="2"/>
       <c r="T115" s="2"/>
     </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:20">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="2"/>
@@ -3473,7 +4094,7 @@
       <c r="S116" s="2"/>
       <c r="T116" s="2"/>
     </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:20">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="2"/>
@@ -3495,7 +4116,7 @@
       <c r="S117" s="2"/>
       <c r="T117" s="2"/>
     </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:20">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="2"/>
@@ -3517,7 +4138,7 @@
       <c r="S118" s="2"/>
       <c r="T118" s="2"/>
     </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:20">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="2"/>
@@ -3539,7 +4160,7 @@
       <c r="S119" s="2"/>
       <c r="T119" s="2"/>
     </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:20">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="2"/>
@@ -3561,7 +4182,7 @@
       <c r="S120" s="2"/>
       <c r="T120" s="2"/>
     </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:20">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="2"/>
@@ -3583,7 +4204,7 @@
       <c r="S121" s="2"/>
       <c r="T121" s="2"/>
     </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:20">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="2"/>
@@ -3605,7 +4226,7 @@
       <c r="S122" s="2"/>
       <c r="T122" s="2"/>
     </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:20">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="2"/>
@@ -3627,7 +4248,7 @@
       <c r="S123" s="2"/>
       <c r="T123" s="2"/>
     </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:20">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="2"/>
@@ -3649,7 +4270,7 @@
       <c r="S124" s="2"/>
       <c r="T124" s="2"/>
     </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:20">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="2"/>
@@ -3671,7 +4292,7 @@
       <c r="S125" s="2"/>
       <c r="T125" s="2"/>
     </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:20">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="2"/>
@@ -3693,7 +4314,7 @@
       <c r="S126" s="2"/>
       <c r="T126" s="2"/>
     </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:20">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="2"/>
@@ -3715,7 +4336,7 @@
       <c r="S127" s="2"/>
       <c r="T127" s="2"/>
     </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:20">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="2"/>
@@ -3737,7 +4358,7 @@
       <c r="S128" s="2"/>
       <c r="T128" s="2"/>
     </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:20">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="2"/>
@@ -3759,7 +4380,7 @@
       <c r="S129" s="2"/>
       <c r="T129" s="2"/>
     </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:20">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="2"/>
@@ -3781,7 +4402,7 @@
       <c r="S130" s="2"/>
       <c r="T130" s="2"/>
     </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:20">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="2"/>
@@ -3803,7 +4424,7 @@
       <c r="S131" s="2"/>
       <c r="T131" s="2"/>
     </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:20">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="2"/>
@@ -3825,7 +4446,7 @@
       <c r="S132" s="2"/>
       <c r="T132" s="2"/>
     </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:20">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="2"/>
@@ -3847,7 +4468,7 @@
       <c r="S133" s="2"/>
       <c r="T133" s="2"/>
     </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:20">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="2"/>
@@ -3869,7 +4490,7 @@
       <c r="S134" s="2"/>
       <c r="T134" s="2"/>
     </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:20">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="2"/>
@@ -3891,7 +4512,7 @@
       <c r="S135" s="2"/>
       <c r="T135" s="2"/>
     </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:20">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="2"/>
@@ -3913,7 +4534,7 @@
       <c r="S136" s="2"/>
       <c r="T136" s="2"/>
     </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:20">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="2"/>
@@ -3935,7 +4556,7 @@
       <c r="S137" s="2"/>
       <c r="T137" s="2"/>
     </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:20">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="2"/>
@@ -3957,7 +4578,7 @@
       <c r="S138" s="2"/>
       <c r="T138" s="2"/>
     </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:20">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="2"/>
@@ -3979,7 +4600,7 @@
       <c r="S139" s="2"/>
       <c r="T139" s="2"/>
     </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:20">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="2"/>
@@ -4001,7 +4622,7 @@
       <c r="S140" s="2"/>
       <c r="T140" s="2"/>
     </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:20">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="2"/>
@@ -4023,7 +4644,7 @@
       <c r="S141" s="2"/>
       <c r="T141" s="2"/>
     </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:20">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="2"/>
@@ -4045,7 +4666,7 @@
       <c r="S142" s="2"/>
       <c r="T142" s="2"/>
     </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:20">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="2"/>
@@ -4067,7 +4688,7 @@
       <c r="S143" s="2"/>
       <c r="T143" s="2"/>
     </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:20">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="2"/>
@@ -4089,7 +4710,7 @@
       <c r="S144" s="2"/>
       <c r="T144" s="2"/>
     </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:20">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="2"/>
@@ -4111,7 +4732,7 @@
       <c r="S145" s="2"/>
       <c r="T145" s="2"/>
     </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:20">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="2"/>
@@ -4133,7 +4754,7 @@
       <c r="S146" s="2"/>
       <c r="T146" s="2"/>
     </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:20">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="2"/>
@@ -4155,7 +4776,7 @@
       <c r="S147" s="2"/>
       <c r="T147" s="2"/>
     </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:20">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="2"/>
@@ -4177,7 +4798,7 @@
       <c r="S148" s="2"/>
       <c r="T148" s="2"/>
     </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:20">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="2"/>
@@ -4199,7 +4820,7 @@
       <c r="S149" s="2"/>
       <c r="T149" s="2"/>
     </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:20">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="2"/>
@@ -4221,7 +4842,7 @@
       <c r="S150" s="2"/>
       <c r="T150" s="2"/>
     </row>
-    <row r="151" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:20">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="2"/>
@@ -4243,7 +4864,7 @@
       <c r="S151" s="2"/>
       <c r="T151" s="2"/>
     </row>
-    <row r="152" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:20">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="2"/>
@@ -4265,7 +4886,7 @@
       <c r="S152" s="2"/>
       <c r="T152" s="2"/>
     </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:20">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="2"/>
@@ -4287,7 +4908,7 @@
       <c r="S153" s="2"/>
       <c r="T153" s="2"/>
     </row>
-    <row r="154" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:20">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="2"/>
@@ -4309,7 +4930,7 @@
       <c r="S154" s="2"/>
       <c r="T154" s="2"/>
     </row>
-    <row r="155" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:20">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="2"/>
@@ -4331,7 +4952,7 @@
       <c r="S155" s="2"/>
       <c r="T155" s="2"/>
     </row>
-    <row r="156" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:20">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="2"/>
@@ -4353,7 +4974,7 @@
       <c r="S156" s="2"/>
       <c r="T156" s="2"/>
     </row>
-    <row r="157" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:20">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="2"/>
@@ -4375,7 +4996,7 @@
       <c r="S157" s="2"/>
       <c r="T157" s="2"/>
     </row>
-    <row r="158" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:20">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="2"/>
@@ -4397,7 +5018,7 @@
       <c r="S158" s="2"/>
       <c r="T158" s="2"/>
     </row>
-    <row r="159" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:20">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="2"/>
@@ -4419,7 +5040,7 @@
       <c r="S159" s="2"/>
       <c r="T159" s="2"/>
     </row>
-    <row r="160" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:20">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="2"/>
@@ -4441,7 +5062,7 @@
       <c r="S160" s="2"/>
       <c r="T160" s="2"/>
     </row>
-    <row r="161" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:20">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="2"/>
@@ -4463,7 +5084,7 @@
       <c r="S161" s="2"/>
       <c r="T161" s="2"/>
     </row>
-    <row r="162" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:20">
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
       <c r="C162" s="2"/>
@@ -4485,7 +5106,7 @@
       <c r="S162" s="2"/>
       <c r="T162" s="2"/>
     </row>
-    <row r="163" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:20">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
       <c r="C163" s="2"/>
@@ -4507,7 +5128,7 @@
       <c r="S163" s="2"/>
       <c r="T163" s="2"/>
     </row>
-    <row r="164" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:20">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
       <c r="C164" s="2"/>
@@ -4529,7 +5150,7 @@
       <c r="S164" s="2"/>
       <c r="T164" s="2"/>
     </row>
-    <row r="165" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:20">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
       <c r="C165" s="2"/>
@@ -4551,7 +5172,7 @@
       <c r="S165" s="2"/>
       <c r="T165" s="2"/>
     </row>
-    <row r="166" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:20">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
       <c r="C166" s="2"/>
@@ -4573,7 +5194,7 @@
       <c r="S166" s="2"/>
       <c r="T166" s="2"/>
     </row>
-    <row r="167" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:20">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
       <c r="C167" s="2"/>
@@ -4595,7 +5216,7 @@
       <c r="S167" s="2"/>
       <c r="T167" s="2"/>
     </row>
-    <row r="168" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:20">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
       <c r="C168" s="2"/>
@@ -4617,7 +5238,7 @@
       <c r="S168" s="2"/>
       <c r="T168" s="2"/>
     </row>
-    <row r="169" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:20">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
       <c r="C169" s="2"/>
@@ -4639,7 +5260,7 @@
       <c r="S169" s="2"/>
       <c r="T169" s="2"/>
     </row>
-    <row r="170" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:20">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
       <c r="C170" s="2"/>
@@ -4661,7 +5282,7 @@
       <c r="S170" s="2"/>
       <c r="T170" s="2"/>
     </row>
-    <row r="171" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:20">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
       <c r="C171" s="2"/>
@@ -4683,7 +5304,7 @@
       <c r="S171" s="2"/>
       <c r="T171" s="2"/>
     </row>
-    <row r="172" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:20">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
       <c r="C172" s="2"/>
@@ -4705,7 +5326,7 @@
       <c r="S172" s="2"/>
       <c r="T172" s="2"/>
     </row>
-    <row r="173" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:20">
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
       <c r="C173" s="2"/>
@@ -4727,7 +5348,7 @@
       <c r="S173" s="2"/>
       <c r="T173" s="2"/>
     </row>
-    <row r="174" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:20">
       <c r="A174" s="3"/>
       <c r="B174" s="3"/>
       <c r="C174" s="2"/>
@@ -4749,7 +5370,7 @@
       <c r="S174" s="2"/>
       <c r="T174" s="2"/>
     </row>
-    <row r="175" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:20">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="C175" s="2"/>
@@ -4771,7 +5392,7 @@
       <c r="S175" s="2"/>
       <c r="T175" s="2"/>
     </row>
-    <row r="176" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:20">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="C176" s="2"/>
@@ -4793,7 +5414,7 @@
       <c r="S176" s="2"/>
       <c r="T176" s="2"/>
     </row>
-    <row r="177" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:20">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="C177" s="2"/>
@@ -4815,7 +5436,7 @@
       <c r="S177" s="2"/>
       <c r="T177" s="2"/>
     </row>
-    <row r="178" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:20">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="C178" s="2"/>
@@ -4837,7 +5458,7 @@
       <c r="S178" s="2"/>
       <c r="T178" s="2"/>
     </row>
-    <row r="179" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:20">
       <c r="A179" s="3"/>
       <c r="B179" s="3"/>
       <c r="C179" s="2"/>
@@ -4859,7 +5480,7 @@
       <c r="S179" s="2"/>
       <c r="T179" s="2"/>
     </row>
-    <row r="180" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:20">
       <c r="A180" s="3"/>
       <c r="B180" s="3"/>
       <c r="C180" s="2"/>
@@ -4881,7 +5502,7 @@
       <c r="S180" s="2"/>
       <c r="T180" s="2"/>
     </row>
-    <row r="181" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:20">
       <c r="A181" s="3"/>
       <c r="B181" s="3"/>
       <c r="C181" s="2"/>
@@ -4903,7 +5524,7 @@
       <c r="S181" s="2"/>
       <c r="T181" s="2"/>
     </row>
-    <row r="182" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:20">
       <c r="A182" s="3"/>
       <c r="B182" s="3"/>
       <c r="C182" s="2"/>
@@ -4925,7 +5546,7 @@
       <c r="S182" s="2"/>
       <c r="T182" s="2"/>
     </row>
-    <row r="183" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:20">
       <c r="A183" s="3"/>
       <c r="B183" s="3"/>
       <c r="C183" s="2"/>
@@ -4947,7 +5568,7 @@
       <c r="S183" s="2"/>
       <c r="T183" s="2"/>
     </row>
-    <row r="184" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:20">
       <c r="A184" s="3"/>
       <c r="B184" s="3"/>
       <c r="C184" s="2"/>
@@ -4969,7 +5590,7 @@
       <c r="S184" s="2"/>
       <c r="T184" s="2"/>
     </row>
-    <row r="185" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:20">
       <c r="A185" s="3"/>
       <c r="B185" s="3"/>
       <c r="C185" s="2"/>
@@ -4991,7 +5612,7 @@
       <c r="S185" s="2"/>
       <c r="T185" s="2"/>
     </row>
-    <row r="186" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:20">
       <c r="A186" s="3"/>
       <c r="B186" s="3"/>
       <c r="C186" s="2"/>
@@ -5013,7 +5634,7 @@
       <c r="S186" s="2"/>
       <c r="T186" s="2"/>
     </row>
-    <row r="187" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:20">
       <c r="A187" s="3"/>
       <c r="B187" s="3"/>
       <c r="C187" s="2"/>
@@ -5035,7 +5656,7 @@
       <c r="S187" s="2"/>
       <c r="T187" s="2"/>
     </row>
-    <row r="188" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:20">
       <c r="A188" s="3"/>
       <c r="B188" s="3"/>
       <c r="C188" s="2"/>
@@ -5057,7 +5678,7 @@
       <c r="S188" s="2"/>
       <c r="T188" s="2"/>
     </row>
-    <row r="189" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:20">
       <c r="A189" s="3"/>
       <c r="B189" s="3"/>
       <c r="C189" s="2"/>
@@ -5079,7 +5700,7 @@
       <c r="S189" s="2"/>
       <c r="T189" s="2"/>
     </row>
-    <row r="190" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:20">
       <c r="A190" s="3"/>
       <c r="B190" s="3"/>
       <c r="C190" s="2"/>
@@ -5101,7 +5722,7 @@
       <c r="S190" s="2"/>
       <c r="T190" s="2"/>
     </row>
-    <row r="191" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:20">
       <c r="A191" s="3"/>
       <c r="B191" s="3"/>
       <c r="C191" s="2"/>
@@ -5123,7 +5744,7 @@
       <c r="S191" s="2"/>
       <c r="T191" s="2"/>
     </row>
-    <row r="192" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:20">
       <c r="A192" s="3"/>
       <c r="B192" s="3"/>
       <c r="C192" s="2"/>
@@ -5145,7 +5766,7 @@
       <c r="S192" s="2"/>
       <c r="T192" s="2"/>
     </row>
-    <row r="193" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:20">
       <c r="A193" s="3"/>
       <c r="B193" s="3"/>
       <c r="C193" s="2"/>
@@ -5167,7 +5788,7 @@
       <c r="S193" s="2"/>
       <c r="T193" s="2"/>
     </row>
-    <row r="194" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:20">
       <c r="A194" s="3"/>
       <c r="B194" s="3"/>
       <c r="C194" s="2"/>
@@ -5189,7 +5810,7 @@
       <c r="S194" s="2"/>
       <c r="T194" s="2"/>
     </row>
-    <row r="195" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:20">
       <c r="A195" s="3"/>
       <c r="B195" s="3"/>
       <c r="C195" s="2"/>
@@ -5211,7 +5832,7 @@
       <c r="S195" s="2"/>
       <c r="T195" s="2"/>
     </row>
-    <row r="196" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:20">
       <c r="A196" s="3"/>
       <c r="B196" s="3"/>
       <c r="C196" s="2"/>
@@ -5233,7 +5854,7 @@
       <c r="S196" s="2"/>
       <c r="T196" s="2"/>
     </row>
-    <row r="197" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:20">
       <c r="A197" s="3"/>
       <c r="B197" s="3"/>
       <c r="C197" s="2"/>
@@ -5255,7 +5876,7 @@
       <c r="S197" s="2"/>
       <c r="T197" s="2"/>
     </row>
-    <row r="198" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:20">
       <c r="A198" s="3"/>
       <c r="B198" s="3"/>
       <c r="C198" s="2"/>
@@ -5277,7 +5898,7 @@
       <c r="S198" s="2"/>
       <c r="T198" s="2"/>
     </row>
-    <row r="199" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:20">
       <c r="A199" s="3"/>
       <c r="B199" s="3"/>
       <c r="C199" s="2"/>
@@ -5299,7 +5920,7 @@
       <c r="S199" s="2"/>
       <c r="T199" s="2"/>
     </row>
-    <row r="200" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:20">
       <c r="A200" s="3"/>
       <c r="B200" s="3"/>
       <c r="C200" s="2"/>
@@ -5322,7 +5943,7 @@
       <c r="T200" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/许愿墙.xlsx
+++ b/许愿墙.xlsx
@@ -1,33 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Download\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{134B9913-6A6C-4683-A801-9AA36EBBCE37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="13300"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="71">
   <si>
     <t>你想找什么样的工作？</t>
   </si>
@@ -236,19 +229,21 @@
   </si>
   <si>
     <t>AI算法大模型</t>
+  </si>
+  <si>
+    <t>全栈</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>在找</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -278,158 +273,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -442,194 +292,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -667,251 +331,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -939,61 +361,17 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1258,27 +636,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:T200"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C65" sqref="C65"/>
+    <sheetView tabSelected="1" topLeftCell="B55" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="15.2"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="74" customWidth="1"/>
     <col min="2" max="2" width="54" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1304,7 +683,7 @@
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -1330,7 +709,7 @@
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1356,7 +735,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -1382,7 +761,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -1408,7 +787,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -1434,7 +813,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
@@ -1460,7 +839,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
@@ -1486,7 +865,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
@@ -1512,7 +891,7 @@
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>13</v>
       </c>
@@ -1538,7 +917,7 @@
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
@@ -1564,7 +943,7 @@
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>16</v>
       </c>
@@ -1590,7 +969,7 @@
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>18</v>
       </c>
@@ -1616,7 +995,7 @@
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>20</v>
       </c>
@@ -1642,7 +1021,7 @@
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>18</v>
       </c>
@@ -1668,7 +1047,7 @@
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>23</v>
       </c>
@@ -1694,7 +1073,7 @@
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>25</v>
       </c>
@@ -1720,7 +1099,7 @@
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>26</v>
       </c>
@@ -1746,7 +1125,7 @@
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>27</v>
       </c>
@@ -1772,7 +1151,7 @@
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>28</v>
       </c>
@@ -1798,7 +1177,7 @@
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>10</v>
       </c>
@@ -1824,7 +1203,7 @@
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>29</v>
       </c>
@@ -1850,7 +1229,7 @@
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>30</v>
       </c>
@@ -1876,7 +1255,7 @@
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>31</v>
       </c>
@@ -1902,7 +1281,7 @@
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>25</v>
       </c>
@@ -1928,7 +1307,7 @@
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>25</v>
       </c>
@@ -1954,7 +1333,7 @@
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>26</v>
       </c>
@@ -1980,7 +1359,7 @@
       <c r="S27" s="2"/>
       <c r="T27" s="2"/>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>32</v>
       </c>
@@ -2006,7 +1385,7 @@
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>33</v>
       </c>
@@ -2032,7 +1411,7 @@
       <c r="S29" s="2"/>
       <c r="T29" s="2"/>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>14</v>
       </c>
@@ -2058,7 +1437,7 @@
       <c r="S30" s="2"/>
       <c r="T30" s="2"/>
     </row>
-    <row r="31" spans="1:20">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>35</v>
       </c>
@@ -2084,7 +1463,7 @@
       <c r="S31" s="2"/>
       <c r="T31" s="2"/>
     </row>
-    <row r="32" spans="1:20">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>25</v>
       </c>
@@ -2110,7 +1489,7 @@
       <c r="S32" s="2"/>
       <c r="T32" s="2"/>
     </row>
-    <row r="33" spans="1:20">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>23</v>
       </c>
@@ -2136,7 +1515,7 @@
       <c r="S33" s="2"/>
       <c r="T33" s="2"/>
     </row>
-    <row r="34" spans="1:20">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>37</v>
       </c>
@@ -2162,7 +1541,7 @@
       <c r="S34" s="2"/>
       <c r="T34" s="2"/>
     </row>
-    <row r="35" spans="1:20">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>38</v>
       </c>
@@ -2188,7 +1567,7 @@
       <c r="S35" s="2"/>
       <c r="T35" s="2"/>
     </row>
-    <row r="36" spans="1:20">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>26</v>
       </c>
@@ -2214,7 +1593,7 @@
       <c r="S36" s="2"/>
       <c r="T36" s="2"/>
     </row>
-    <row r="37" spans="1:20">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>23</v>
       </c>
@@ -2240,7 +1619,7 @@
       <c r="S37" s="2"/>
       <c r="T37" s="2"/>
     </row>
-    <row r="38" spans="1:20">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>4</v>
       </c>
@@ -2266,7 +1645,7 @@
       <c r="S38" s="2"/>
       <c r="T38" s="2"/>
     </row>
-    <row r="39" spans="1:20">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>30</v>
       </c>
@@ -2292,7 +1671,7 @@
       <c r="S39" s="2"/>
       <c r="T39" s="2"/>
     </row>
-    <row r="40" spans="1:20">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>26</v>
       </c>
@@ -2318,7 +1697,7 @@
       <c r="S40" s="2"/>
       <c r="T40" s="2"/>
     </row>
-    <row r="41" spans="1:20">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>41</v>
       </c>
@@ -2344,7 +1723,7 @@
       <c r="S41" s="2"/>
       <c r="T41" s="2"/>
     </row>
-    <row r="42" spans="1:20">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>42</v>
       </c>
@@ -2370,7 +1749,7 @@
       <c r="S42" s="2"/>
       <c r="T42" s="2"/>
     </row>
-    <row r="43" spans="1:20">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>43</v>
       </c>
@@ -2396,7 +1775,7 @@
       <c r="S43" s="2"/>
       <c r="T43" s="2"/>
     </row>
-    <row r="44" spans="1:20">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>23</v>
       </c>
@@ -2422,7 +1801,7 @@
       <c r="S44" s="2"/>
       <c r="T44" s="2"/>
     </row>
-    <row r="45" spans="1:20">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>44</v>
       </c>
@@ -2448,7 +1827,7 @@
       <c r="S45" s="2"/>
       <c r="T45" s="2"/>
     </row>
-    <row r="46" spans="1:20">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>45</v>
       </c>
@@ -2474,7 +1853,7 @@
       <c r="S46" s="2"/>
       <c r="T46" s="2"/>
     </row>
-    <row r="47" spans="1:20">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>46</v>
       </c>
@@ -2500,7 +1879,7 @@
       <c r="S47" s="2"/>
       <c r="T47" s="2"/>
     </row>
-    <row r="48" spans="1:20">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>48</v>
       </c>
@@ -2526,7 +1905,7 @@
       <c r="S48" s="2"/>
       <c r="T48" s="2"/>
     </row>
-    <row r="49" spans="1:20">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>50</v>
       </c>
@@ -2552,7 +1931,7 @@
       <c r="S49" s="2"/>
       <c r="T49" s="2"/>
     </row>
-    <row r="50" spans="1:20">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>51</v>
       </c>
@@ -2578,7 +1957,7 @@
       <c r="S50" s="2"/>
       <c r="T50" s="2"/>
     </row>
-    <row r="51" spans="1:20">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>52</v>
       </c>
@@ -2604,7 +1983,7 @@
       <c r="S51" s="2"/>
       <c r="T51" s="2"/>
     </row>
-    <row r="52" spans="1:20">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>46</v>
       </c>
@@ -2630,7 +2009,7 @@
       <c r="S52" s="2"/>
       <c r="T52" s="2"/>
     </row>
-    <row r="53" spans="1:20">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>23</v>
       </c>
@@ -2656,7 +2035,7 @@
       <c r="S53" s="2"/>
       <c r="T53" s="2"/>
     </row>
-    <row r="54" spans="1:20">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>53</v>
       </c>
@@ -2682,7 +2061,7 @@
       <c r="S54" s="2"/>
       <c r="T54" s="2"/>
     </row>
-    <row r="55" spans="1:20">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>54</v>
       </c>
@@ -2708,7 +2087,7 @@
       <c r="S55" s="2"/>
       <c r="T55" s="2"/>
     </row>
-    <row r="56" spans="1:20">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>54</v>
       </c>
@@ -2734,7 +2113,7 @@
       <c r="S56" s="2"/>
       <c r="T56" s="2"/>
     </row>
-    <row r="57" spans="1:20">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>55</v>
       </c>
@@ -2760,7 +2139,7 @@
       <c r="S57" s="2"/>
       <c r="T57" s="2"/>
     </row>
-    <row r="58" spans="1:20">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>57</v>
       </c>
@@ -2786,7 +2165,7 @@
       <c r="S58" s="2"/>
       <c r="T58" s="2"/>
     </row>
-    <row r="59" spans="1:20">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>7</v>
       </c>
@@ -2812,7 +2191,7 @@
       <c r="S59" s="2"/>
       <c r="T59" s="2"/>
     </row>
-    <row r="60" spans="1:20">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>25</v>
       </c>
@@ -2838,7 +2217,7 @@
       <c r="S60" s="2"/>
       <c r="T60" s="2"/>
     </row>
-    <row r="61" spans="1:20">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>59</v>
       </c>
@@ -2864,7 +2243,7 @@
       <c r="S61" s="2"/>
       <c r="T61" s="2"/>
     </row>
-    <row r="62" spans="1:20">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>60</v>
       </c>
@@ -2890,7 +2269,7 @@
       <c r="S62" s="2"/>
       <c r="T62" s="2"/>
     </row>
-    <row r="63" spans="1:20">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>62</v>
       </c>
@@ -2916,7 +2295,7 @@
       <c r="S63" s="2"/>
       <c r="T63" s="2"/>
     </row>
-    <row r="64" spans="1:20">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>64</v>
       </c>
@@ -2942,7 +2321,7 @@
       <c r="S64" s="2"/>
       <c r="T64" s="2"/>
     </row>
-    <row r="65" spans="1:20">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
         <v>66</v>
       </c>
@@ -2968,7 +2347,7 @@
       <c r="S65" s="2"/>
       <c r="T65" s="2"/>
     </row>
-    <row r="66" spans="1:20">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>68</v>
       </c>
@@ -2994,9 +2373,13 @@
       <c r="S66" s="2"/>
       <c r="T66" s="2"/>
     </row>
-    <row r="67" spans="1:20">
-      <c r="A67" s="3"/>
-      <c r="B67" s="3"/>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
@@ -3016,7 +2399,7 @@
       <c r="S67" s="2"/>
       <c r="T67" s="2"/>
     </row>
-    <row r="68" spans="1:20">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="2"/>
@@ -3038,7 +2421,7 @@
       <c r="S68" s="2"/>
       <c r="T68" s="2"/>
     </row>
-    <row r="69" spans="1:20">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="2"/>
@@ -3060,7 +2443,7 @@
       <c r="S69" s="2"/>
       <c r="T69" s="2"/>
     </row>
-    <row r="70" spans="1:20">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="2"/>
@@ -3082,7 +2465,7 @@
       <c r="S70" s="2"/>
       <c r="T70" s="2"/>
     </row>
-    <row r="71" spans="1:20">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="2"/>
@@ -3104,7 +2487,7 @@
       <c r="S71" s="2"/>
       <c r="T71" s="2"/>
     </row>
-    <row r="72" spans="1:20">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="2"/>
@@ -3126,7 +2509,7 @@
       <c r="S72" s="2"/>
       <c r="T72" s="2"/>
     </row>
-    <row r="73" spans="1:20">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="2"/>
@@ -3148,7 +2531,7 @@
       <c r="S73" s="2"/>
       <c r="T73" s="2"/>
     </row>
-    <row r="74" spans="1:20">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="2"/>
@@ -3170,7 +2553,7 @@
       <c r="S74" s="2"/>
       <c r="T74" s="2"/>
     </row>
-    <row r="75" spans="1:20">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="2"/>
@@ -3192,7 +2575,7 @@
       <c r="S75" s="2"/>
       <c r="T75" s="2"/>
     </row>
-    <row r="76" spans="1:20">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="2"/>
@@ -3214,7 +2597,7 @@
       <c r="S76" s="2"/>
       <c r="T76" s="2"/>
     </row>
-    <row r="77" spans="1:20">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="2"/>
@@ -3236,7 +2619,7 @@
       <c r="S77" s="2"/>
       <c r="T77" s="2"/>
     </row>
-    <row r="78" spans="1:20">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="2"/>
@@ -3258,7 +2641,7 @@
       <c r="S78" s="2"/>
       <c r="T78" s="2"/>
     </row>
-    <row r="79" spans="1:20">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="2"/>
@@ -3280,7 +2663,7 @@
       <c r="S79" s="2"/>
       <c r="T79" s="2"/>
     </row>
-    <row r="80" spans="1:20">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="2"/>
@@ -3302,7 +2685,7 @@
       <c r="S80" s="2"/>
       <c r="T80" s="2"/>
     </row>
-    <row r="81" spans="1:20">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="2"/>
@@ -3324,7 +2707,7 @@
       <c r="S81" s="2"/>
       <c r="T81" s="2"/>
     </row>
-    <row r="82" spans="1:20">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="2"/>
@@ -3346,7 +2729,7 @@
       <c r="S82" s="2"/>
       <c r="T82" s="2"/>
     </row>
-    <row r="83" spans="1:20">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="2"/>
@@ -3368,7 +2751,7 @@
       <c r="S83" s="2"/>
       <c r="T83" s="2"/>
     </row>
-    <row r="84" spans="1:20">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="2"/>
@@ -3390,7 +2773,7 @@
       <c r="S84" s="2"/>
       <c r="T84" s="2"/>
     </row>
-    <row r="85" spans="1:20">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="2"/>
@@ -3412,7 +2795,7 @@
       <c r="S85" s="2"/>
       <c r="T85" s="2"/>
     </row>
-    <row r="86" spans="1:20">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="2"/>
@@ -3434,7 +2817,7 @@
       <c r="S86" s="2"/>
       <c r="T86" s="2"/>
     </row>
-    <row r="87" spans="1:20">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="2"/>
@@ -3456,7 +2839,7 @@
       <c r="S87" s="2"/>
       <c r="T87" s="2"/>
     </row>
-    <row r="88" spans="1:20">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="2"/>
@@ -3478,7 +2861,7 @@
       <c r="S88" s="2"/>
       <c r="T88" s="2"/>
     </row>
-    <row r="89" spans="1:20">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="2"/>
@@ -3500,7 +2883,7 @@
       <c r="S89" s="2"/>
       <c r="T89" s="2"/>
     </row>
-    <row r="90" spans="1:20">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="2"/>
@@ -3522,7 +2905,7 @@
       <c r="S90" s="2"/>
       <c r="T90" s="2"/>
     </row>
-    <row r="91" spans="1:20">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="2"/>
@@ -3544,7 +2927,7 @@
       <c r="S91" s="2"/>
       <c r="T91" s="2"/>
     </row>
-    <row r="92" spans="1:20">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="2"/>
@@ -3566,7 +2949,7 @@
       <c r="S92" s="2"/>
       <c r="T92" s="2"/>
     </row>
-    <row r="93" spans="1:20">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="2"/>
@@ -3588,7 +2971,7 @@
       <c r="S93" s="2"/>
       <c r="T93" s="2"/>
     </row>
-    <row r="94" spans="1:20">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="2"/>
@@ -3610,7 +2993,7 @@
       <c r="S94" s="2"/>
       <c r="T94" s="2"/>
     </row>
-    <row r="95" spans="1:20">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="2"/>
@@ -3632,7 +3015,7 @@
       <c r="S95" s="2"/>
       <c r="T95" s="2"/>
     </row>
-    <row r="96" spans="1:20">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="2"/>
@@ -3654,7 +3037,7 @@
       <c r="S96" s="2"/>
       <c r="T96" s="2"/>
     </row>
-    <row r="97" spans="1:20">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="2"/>
@@ -3676,7 +3059,7 @@
       <c r="S97" s="2"/>
       <c r="T97" s="2"/>
     </row>
-    <row r="98" spans="1:20">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="2"/>
@@ -3698,7 +3081,7 @@
       <c r="S98" s="2"/>
       <c r="T98" s="2"/>
     </row>
-    <row r="99" spans="1:20">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="2"/>
@@ -3720,7 +3103,7 @@
       <c r="S99" s="2"/>
       <c r="T99" s="2"/>
     </row>
-    <row r="100" spans="1:20">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="2"/>
@@ -3742,7 +3125,7 @@
       <c r="S100" s="2"/>
       <c r="T100" s="2"/>
     </row>
-    <row r="101" spans="1:20">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="2"/>
@@ -3764,7 +3147,7 @@
       <c r="S101" s="2"/>
       <c r="T101" s="2"/>
     </row>
-    <row r="102" spans="1:20">
+    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="2"/>
@@ -3786,7 +3169,7 @@
       <c r="S102" s="2"/>
       <c r="T102" s="2"/>
     </row>
-    <row r="103" spans="1:20">
+    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="2"/>
@@ -3808,7 +3191,7 @@
       <c r="S103" s="2"/>
       <c r="T103" s="2"/>
     </row>
-    <row r="104" spans="1:20">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="2"/>
@@ -3830,7 +3213,7 @@
       <c r="S104" s="2"/>
       <c r="T104" s="2"/>
     </row>
-    <row r="105" spans="1:20">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="2"/>
@@ -3852,7 +3235,7 @@
       <c r="S105" s="2"/>
       <c r="T105" s="2"/>
     </row>
-    <row r="106" spans="1:20">
+    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="2"/>
@@ -3874,7 +3257,7 @@
       <c r="S106" s="2"/>
       <c r="T106" s="2"/>
     </row>
-    <row r="107" spans="1:20">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="2"/>
@@ -3896,7 +3279,7 @@
       <c r="S107" s="2"/>
       <c r="T107" s="2"/>
     </row>
-    <row r="108" spans="1:20">
+    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="2"/>
@@ -3918,7 +3301,7 @@
       <c r="S108" s="2"/>
       <c r="T108" s="2"/>
     </row>
-    <row r="109" spans="1:20">
+    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="2"/>
@@ -3940,7 +3323,7 @@
       <c r="S109" s="2"/>
       <c r="T109" s="2"/>
     </row>
-    <row r="110" spans="1:20">
+    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="2"/>
@@ -3962,7 +3345,7 @@
       <c r="S110" s="2"/>
       <c r="T110" s="2"/>
     </row>
-    <row r="111" spans="1:20">
+    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="2"/>
@@ -3984,7 +3367,7 @@
       <c r="S111" s="2"/>
       <c r="T111" s="2"/>
     </row>
-    <row r="112" spans="1:20">
+    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="2"/>
@@ -4006,7 +3389,7 @@
       <c r="S112" s="2"/>
       <c r="T112" s="2"/>
     </row>
-    <row r="113" spans="1:20">
+    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="2"/>
@@ -4028,7 +3411,7 @@
       <c r="S113" s="2"/>
       <c r="T113" s="2"/>
     </row>
-    <row r="114" spans="1:20">
+    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="2"/>
@@ -4050,7 +3433,7 @@
       <c r="S114" s="2"/>
       <c r="T114" s="2"/>
     </row>
-    <row r="115" spans="1:20">
+    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="2"/>
@@ -4072,7 +3455,7 @@
       <c r="S115" s="2"/>
       <c r="T115" s="2"/>
     </row>
-    <row r="116" spans="1:20">
+    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="2"/>
@@ -4094,7 +3477,7 @@
       <c r="S116" s="2"/>
       <c r="T116" s="2"/>
     </row>
-    <row r="117" spans="1:20">
+    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="2"/>
@@ -4116,7 +3499,7 @@
       <c r="S117" s="2"/>
       <c r="T117" s="2"/>
     </row>
-    <row r="118" spans="1:20">
+    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="2"/>
@@ -4138,7 +3521,7 @@
       <c r="S118" s="2"/>
       <c r="T118" s="2"/>
     </row>
-    <row r="119" spans="1:20">
+    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="2"/>
@@ -4160,7 +3543,7 @@
       <c r="S119" s="2"/>
       <c r="T119" s="2"/>
     </row>
-    <row r="120" spans="1:20">
+    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="2"/>
@@ -4182,7 +3565,7 @@
       <c r="S120" s="2"/>
       <c r="T120" s="2"/>
     </row>
-    <row r="121" spans="1:20">
+    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="2"/>
@@ -4204,7 +3587,7 @@
       <c r="S121" s="2"/>
       <c r="T121" s="2"/>
     </row>
-    <row r="122" spans="1:20">
+    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="2"/>
@@ -4226,7 +3609,7 @@
       <c r="S122" s="2"/>
       <c r="T122" s="2"/>
     </row>
-    <row r="123" spans="1:20">
+    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="2"/>
@@ -4248,7 +3631,7 @@
       <c r="S123" s="2"/>
       <c r="T123" s="2"/>
     </row>
-    <row r="124" spans="1:20">
+    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="2"/>
@@ -4270,7 +3653,7 @@
       <c r="S124" s="2"/>
       <c r="T124" s="2"/>
     </row>
-    <row r="125" spans="1:20">
+    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="2"/>
@@ -4292,7 +3675,7 @@
       <c r="S125" s="2"/>
       <c r="T125" s="2"/>
     </row>
-    <row r="126" spans="1:20">
+    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="2"/>
@@ -4314,7 +3697,7 @@
       <c r="S126" s="2"/>
       <c r="T126" s="2"/>
     </row>
-    <row r="127" spans="1:20">
+    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="2"/>
@@ -4336,7 +3719,7 @@
       <c r="S127" s="2"/>
       <c r="T127" s="2"/>
     </row>
-    <row r="128" spans="1:20">
+    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="2"/>
@@ -4358,7 +3741,7 @@
       <c r="S128" s="2"/>
       <c r="T128" s="2"/>
     </row>
-    <row r="129" spans="1:20">
+    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="2"/>
@@ -4380,7 +3763,7 @@
       <c r="S129" s="2"/>
       <c r="T129" s="2"/>
     </row>
-    <row r="130" spans="1:20">
+    <row r="130" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="2"/>
@@ -4402,7 +3785,7 @@
       <c r="S130" s="2"/>
       <c r="T130" s="2"/>
     </row>
-    <row r="131" spans="1:20">
+    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="2"/>
@@ -4424,7 +3807,7 @@
       <c r="S131" s="2"/>
       <c r="T131" s="2"/>
     </row>
-    <row r="132" spans="1:20">
+    <row r="132" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="2"/>
@@ -4446,7 +3829,7 @@
       <c r="S132" s="2"/>
       <c r="T132" s="2"/>
     </row>
-    <row r="133" spans="1:20">
+    <row r="133" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="2"/>
@@ -4468,7 +3851,7 @@
       <c r="S133" s="2"/>
       <c r="T133" s="2"/>
     </row>
-    <row r="134" spans="1:20">
+    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="2"/>
@@ -4490,7 +3873,7 @@
       <c r="S134" s="2"/>
       <c r="T134" s="2"/>
     </row>
-    <row r="135" spans="1:20">
+    <row r="135" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="2"/>
@@ -4512,7 +3895,7 @@
       <c r="S135" s="2"/>
       <c r="T135" s="2"/>
     </row>
-    <row r="136" spans="1:20">
+    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="2"/>
@@ -4534,7 +3917,7 @@
       <c r="S136" s="2"/>
       <c r="T136" s="2"/>
     </row>
-    <row r="137" spans="1:20">
+    <row r="137" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="2"/>
@@ -4556,7 +3939,7 @@
       <c r="S137" s="2"/>
       <c r="T137" s="2"/>
     </row>
-    <row r="138" spans="1:20">
+    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="2"/>
@@ -4578,7 +3961,7 @@
       <c r="S138" s="2"/>
       <c r="T138" s="2"/>
     </row>
-    <row r="139" spans="1:20">
+    <row r="139" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="2"/>
@@ -4600,7 +3983,7 @@
       <c r="S139" s="2"/>
       <c r="T139" s="2"/>
     </row>
-    <row r="140" spans="1:20">
+    <row r="140" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="2"/>
@@ -4622,7 +4005,7 @@
       <c r="S140" s="2"/>
       <c r="T140" s="2"/>
     </row>
-    <row r="141" spans="1:20">
+    <row r="141" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="2"/>
@@ -4644,7 +4027,7 @@
       <c r="S141" s="2"/>
       <c r="T141" s="2"/>
     </row>
-    <row r="142" spans="1:20">
+    <row r="142" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="2"/>
@@ -4666,7 +4049,7 @@
       <c r="S142" s="2"/>
       <c r="T142" s="2"/>
     </row>
-    <row r="143" spans="1:20">
+    <row r="143" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="2"/>
@@ -4688,7 +4071,7 @@
       <c r="S143" s="2"/>
       <c r="T143" s="2"/>
     </row>
-    <row r="144" spans="1:20">
+    <row r="144" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="2"/>
@@ -4710,7 +4093,7 @@
       <c r="S144" s="2"/>
       <c r="T144" s="2"/>
     </row>
-    <row r="145" spans="1:20">
+    <row r="145" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="2"/>
@@ -4732,7 +4115,7 @@
       <c r="S145" s="2"/>
       <c r="T145" s="2"/>
     </row>
-    <row r="146" spans="1:20">
+    <row r="146" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="2"/>
@@ -4754,7 +4137,7 @@
       <c r="S146" s="2"/>
       <c r="T146" s="2"/>
     </row>
-    <row r="147" spans="1:20">
+    <row r="147" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="2"/>
@@ -4776,7 +4159,7 @@
       <c r="S147" s="2"/>
       <c r="T147" s="2"/>
     </row>
-    <row r="148" spans="1:20">
+    <row r="148" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="2"/>
@@ -4798,7 +4181,7 @@
       <c r="S148" s="2"/>
       <c r="T148" s="2"/>
     </row>
-    <row r="149" spans="1:20">
+    <row r="149" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="2"/>
@@ -4820,7 +4203,7 @@
       <c r="S149" s="2"/>
       <c r="T149" s="2"/>
     </row>
-    <row r="150" spans="1:20">
+    <row r="150" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="2"/>
@@ -4842,7 +4225,7 @@
       <c r="S150" s="2"/>
       <c r="T150" s="2"/>
     </row>
-    <row r="151" spans="1:20">
+    <row r="151" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="2"/>
@@ -4864,7 +4247,7 @@
       <c r="S151" s="2"/>
       <c r="T151" s="2"/>
     </row>
-    <row r="152" spans="1:20">
+    <row r="152" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="2"/>
@@ -4886,7 +4269,7 @@
       <c r="S152" s="2"/>
       <c r="T152" s="2"/>
     </row>
-    <row r="153" spans="1:20">
+    <row r="153" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="2"/>
@@ -4908,7 +4291,7 @@
       <c r="S153" s="2"/>
       <c r="T153" s="2"/>
     </row>
-    <row r="154" spans="1:20">
+    <row r="154" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="2"/>
@@ -4930,7 +4313,7 @@
       <c r="S154" s="2"/>
       <c r="T154" s="2"/>
     </row>
-    <row r="155" spans="1:20">
+    <row r="155" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="2"/>
@@ -4952,7 +4335,7 @@
       <c r="S155" s="2"/>
       <c r="T155" s="2"/>
     </row>
-    <row r="156" spans="1:20">
+    <row r="156" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="2"/>
@@ -4974,7 +4357,7 @@
       <c r="S156" s="2"/>
       <c r="T156" s="2"/>
     </row>
-    <row r="157" spans="1:20">
+    <row r="157" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="2"/>
@@ -4996,7 +4379,7 @@
       <c r="S157" s="2"/>
       <c r="T157" s="2"/>
     </row>
-    <row r="158" spans="1:20">
+    <row r="158" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="2"/>
@@ -5018,7 +4401,7 @@
       <c r="S158" s="2"/>
       <c r="T158" s="2"/>
     </row>
-    <row r="159" spans="1:20">
+    <row r="159" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="2"/>
@@ -5040,7 +4423,7 @@
       <c r="S159" s="2"/>
       <c r="T159" s="2"/>
     </row>
-    <row r="160" spans="1:20">
+    <row r="160" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="2"/>
@@ -5062,7 +4445,7 @@
       <c r="S160" s="2"/>
       <c r="T160" s="2"/>
     </row>
-    <row r="161" spans="1:20">
+    <row r="161" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="2"/>
@@ -5084,7 +4467,7 @@
       <c r="S161" s="2"/>
       <c r="T161" s="2"/>
     </row>
-    <row r="162" spans="1:20">
+    <row r="162" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
       <c r="C162" s="2"/>
@@ -5106,7 +4489,7 @@
       <c r="S162" s="2"/>
       <c r="T162" s="2"/>
     </row>
-    <row r="163" spans="1:20">
+    <row r="163" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
       <c r="C163" s="2"/>
@@ -5128,7 +4511,7 @@
       <c r="S163" s="2"/>
       <c r="T163" s="2"/>
     </row>
-    <row r="164" spans="1:20">
+    <row r="164" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
       <c r="C164" s="2"/>
@@ -5150,7 +4533,7 @@
       <c r="S164" s="2"/>
       <c r="T164" s="2"/>
     </row>
-    <row r="165" spans="1:20">
+    <row r="165" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
       <c r="C165" s="2"/>
@@ -5172,7 +4555,7 @@
       <c r="S165" s="2"/>
       <c r="T165" s="2"/>
     </row>
-    <row r="166" spans="1:20">
+    <row r="166" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
       <c r="C166" s="2"/>
@@ -5194,7 +4577,7 @@
       <c r="S166" s="2"/>
       <c r="T166" s="2"/>
     </row>
-    <row r="167" spans="1:20">
+    <row r="167" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
       <c r="C167" s="2"/>
@@ -5216,7 +4599,7 @@
       <c r="S167" s="2"/>
       <c r="T167" s="2"/>
     </row>
-    <row r="168" spans="1:20">
+    <row r="168" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
       <c r="C168" s="2"/>
@@ -5238,7 +4621,7 @@
       <c r="S168" s="2"/>
       <c r="T168" s="2"/>
     </row>
-    <row r="169" spans="1:20">
+    <row r="169" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
       <c r="C169" s="2"/>
@@ -5260,7 +4643,7 @@
       <c r="S169" s="2"/>
       <c r="T169" s="2"/>
     </row>
-    <row r="170" spans="1:20">
+    <row r="170" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
       <c r="C170" s="2"/>
@@ -5282,7 +4665,7 @@
       <c r="S170" s="2"/>
       <c r="T170" s="2"/>
     </row>
-    <row r="171" spans="1:20">
+    <row r="171" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
       <c r="C171" s="2"/>
@@ -5304,7 +4687,7 @@
       <c r="S171" s="2"/>
       <c r="T171" s="2"/>
     </row>
-    <row r="172" spans="1:20">
+    <row r="172" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
       <c r="C172" s="2"/>
@@ -5326,7 +4709,7 @@
       <c r="S172" s="2"/>
       <c r="T172" s="2"/>
     </row>
-    <row r="173" spans="1:20">
+    <row r="173" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
       <c r="C173" s="2"/>
@@ -5348,7 +4731,7 @@
       <c r="S173" s="2"/>
       <c r="T173" s="2"/>
     </row>
-    <row r="174" spans="1:20">
+    <row r="174" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A174" s="3"/>
       <c r="B174" s="3"/>
       <c r="C174" s="2"/>
@@ -5370,7 +4753,7 @@
       <c r="S174" s="2"/>
       <c r="T174" s="2"/>
     </row>
-    <row r="175" spans="1:20">
+    <row r="175" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="C175" s="2"/>
@@ -5392,7 +4775,7 @@
       <c r="S175" s="2"/>
       <c r="T175" s="2"/>
     </row>
-    <row r="176" spans="1:20">
+    <row r="176" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="C176" s="2"/>
@@ -5414,7 +4797,7 @@
       <c r="S176" s="2"/>
       <c r="T176" s="2"/>
     </row>
-    <row r="177" spans="1:20">
+    <row r="177" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="C177" s="2"/>
@@ -5436,7 +4819,7 @@
       <c r="S177" s="2"/>
       <c r="T177" s="2"/>
     </row>
-    <row r="178" spans="1:20">
+    <row r="178" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="C178" s="2"/>
@@ -5458,7 +4841,7 @@
       <c r="S178" s="2"/>
       <c r="T178" s="2"/>
     </row>
-    <row r="179" spans="1:20">
+    <row r="179" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A179" s="3"/>
       <c r="B179" s="3"/>
       <c r="C179" s="2"/>
@@ -5480,7 +4863,7 @@
       <c r="S179" s="2"/>
       <c r="T179" s="2"/>
     </row>
-    <row r="180" spans="1:20">
+    <row r="180" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A180" s="3"/>
       <c r="B180" s="3"/>
       <c r="C180" s="2"/>
@@ -5502,7 +4885,7 @@
       <c r="S180" s="2"/>
       <c r="T180" s="2"/>
     </row>
-    <row r="181" spans="1:20">
+    <row r="181" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A181" s="3"/>
       <c r="B181" s="3"/>
       <c r="C181" s="2"/>
@@ -5524,7 +4907,7 @@
       <c r="S181" s="2"/>
       <c r="T181" s="2"/>
     </row>
-    <row r="182" spans="1:20">
+    <row r="182" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A182" s="3"/>
       <c r="B182" s="3"/>
       <c r="C182" s="2"/>
@@ -5546,7 +4929,7 @@
       <c r="S182" s="2"/>
       <c r="T182" s="2"/>
     </row>
-    <row r="183" spans="1:20">
+    <row r="183" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A183" s="3"/>
       <c r="B183" s="3"/>
       <c r="C183" s="2"/>
@@ -5568,7 +4951,7 @@
       <c r="S183" s="2"/>
       <c r="T183" s="2"/>
     </row>
-    <row r="184" spans="1:20">
+    <row r="184" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A184" s="3"/>
       <c r="B184" s="3"/>
       <c r="C184" s="2"/>
@@ -5590,7 +4973,7 @@
       <c r="S184" s="2"/>
       <c r="T184" s="2"/>
     </row>
-    <row r="185" spans="1:20">
+    <row r="185" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A185" s="3"/>
       <c r="B185" s="3"/>
       <c r="C185" s="2"/>
@@ -5612,7 +4995,7 @@
       <c r="S185" s="2"/>
       <c r="T185" s="2"/>
     </row>
-    <row r="186" spans="1:20">
+    <row r="186" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A186" s="3"/>
       <c r="B186" s="3"/>
       <c r="C186" s="2"/>
@@ -5634,7 +5017,7 @@
       <c r="S186" s="2"/>
       <c r="T186" s="2"/>
     </row>
-    <row r="187" spans="1:20">
+    <row r="187" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A187" s="3"/>
       <c r="B187" s="3"/>
       <c r="C187" s="2"/>
@@ -5656,7 +5039,7 @@
       <c r="S187" s="2"/>
       <c r="T187" s="2"/>
     </row>
-    <row r="188" spans="1:20">
+    <row r="188" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A188" s="3"/>
       <c r="B188" s="3"/>
       <c r="C188" s="2"/>
@@ -5678,7 +5061,7 @@
       <c r="S188" s="2"/>
       <c r="T188" s="2"/>
     </row>
-    <row r="189" spans="1:20">
+    <row r="189" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A189" s="3"/>
       <c r="B189" s="3"/>
       <c r="C189" s="2"/>
@@ -5700,7 +5083,7 @@
       <c r="S189" s="2"/>
       <c r="T189" s="2"/>
     </row>
-    <row r="190" spans="1:20">
+    <row r="190" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A190" s="3"/>
       <c r="B190" s="3"/>
       <c r="C190" s="2"/>
@@ -5722,7 +5105,7 @@
       <c r="S190" s="2"/>
       <c r="T190" s="2"/>
     </row>
-    <row r="191" spans="1:20">
+    <row r="191" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A191" s="3"/>
       <c r="B191" s="3"/>
       <c r="C191" s="2"/>
@@ -5744,7 +5127,7 @@
       <c r="S191" s="2"/>
       <c r="T191" s="2"/>
     </row>
-    <row r="192" spans="1:20">
+    <row r="192" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A192" s="3"/>
       <c r="B192" s="3"/>
       <c r="C192" s="2"/>
@@ -5766,7 +5149,7 @@
       <c r="S192" s="2"/>
       <c r="T192" s="2"/>
     </row>
-    <row r="193" spans="1:20">
+    <row r="193" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A193" s="3"/>
       <c r="B193" s="3"/>
       <c r="C193" s="2"/>
@@ -5788,7 +5171,7 @@
       <c r="S193" s="2"/>
       <c r="T193" s="2"/>
     </row>
-    <row r="194" spans="1:20">
+    <row r="194" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A194" s="3"/>
       <c r="B194" s="3"/>
       <c r="C194" s="2"/>
@@ -5810,7 +5193,7 @@
       <c r="S194" s="2"/>
       <c r="T194" s="2"/>
     </row>
-    <row r="195" spans="1:20">
+    <row r="195" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A195" s="3"/>
       <c r="B195" s="3"/>
       <c r="C195" s="2"/>
@@ -5832,7 +5215,7 @@
       <c r="S195" s="2"/>
       <c r="T195" s="2"/>
     </row>
-    <row r="196" spans="1:20">
+    <row r="196" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A196" s="3"/>
       <c r="B196" s="3"/>
       <c r="C196" s="2"/>
@@ -5854,7 +5237,7 @@
       <c r="S196" s="2"/>
       <c r="T196" s="2"/>
     </row>
-    <row r="197" spans="1:20">
+    <row r="197" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A197" s="3"/>
       <c r="B197" s="3"/>
       <c r="C197" s="2"/>
@@ -5876,7 +5259,7 @@
       <c r="S197" s="2"/>
       <c r="T197" s="2"/>
     </row>
-    <row r="198" spans="1:20">
+    <row r="198" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A198" s="3"/>
       <c r="B198" s="3"/>
       <c r="C198" s="2"/>
@@ -5898,7 +5281,7 @@
       <c r="S198" s="2"/>
       <c r="T198" s="2"/>
     </row>
-    <row r="199" spans="1:20">
+    <row r="199" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A199" s="3"/>
       <c r="B199" s="3"/>
       <c r="C199" s="2"/>
@@ -5920,7 +5303,7 @@
       <c r="S199" s="2"/>
       <c r="T199" s="2"/>
     </row>
-    <row r="200" spans="1:20">
+    <row r="200" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A200" s="3"/>
       <c r="B200" s="3"/>
       <c r="C200" s="2"/>
@@ -5943,7 +5326,7 @@
       <c r="T200" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/许愿墙.xlsx
+++ b/许愿墙.xlsx
@@ -1,26 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Download\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{134B9913-6A6C-4683-A801-9AA36EBBCE37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="17680"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="71">
   <si>
     <t>你想找什么样的工作？</t>
   </si>
@@ -232,18 +239,22 @@
   </si>
   <si>
     <t>全栈</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>在找</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>寻找工作</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -266,20 +277,158 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
-      <color rgb="FF000000"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -292,8 +441,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -331,11 +666,253 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <